--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34822F35-5054-4C5A-9E23-66A098AC7E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A484314-F6E9-4339-A4B9-9304C4A6E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>NYI</t>
   </si>
@@ -91,6 +91,27 @@
   </si>
   <si>
     <t>EDM</t>
+  </si>
+  <si>
+    <t>GAMENUM</t>
+  </si>
+  <si>
+    <t>AWAYWINS</t>
+  </si>
+  <si>
+    <t>HOMEWINS</t>
+  </si>
+  <si>
+    <t>CORRECT</t>
+  </si>
+  <si>
+    <t>Games Completed</t>
+  </si>
+  <si>
+    <t>Games Correct</t>
+  </si>
+  <si>
+    <t>Percent Correct</t>
   </si>
 </sst>
 </file>
@@ -126,9 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,413 +466,945 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45402</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="G2">
-        <f>IF($E2=$F2, 0, IF($B2=$D2, IF($E2&gt;$F2, 1, 0), IF($F2&gt;$E2, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f t="shared" ref="J2:J51" si="0">IF($H2=$I2, 0, IF($D2=$G2, IF($H2&gt;$I2, 1, 0), IF($I2&gt;$H2, 1, 0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45402</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <f>IF($E3=$F3, 0, IF($B3=$D3, IF($E3&gt;$F3, 1, 0), IF($F3&gt;$E3, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45403</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <f>IF($E4=$F4, 0, IF($B4=$D4, IF($E4&gt;$F4, 1, 0), IF($F4&gt;$E4, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45403</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <f>IF($E5=$F5, 0, IF($B5=$D5, IF($E5&gt;$F5, 1, 0), IF($F5&gt;$E5, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45403</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <f>IF($E6=$F6, 0, IF($B6=$D6, IF($E6&gt;$F6, 1, 0), IF($F6&gt;$E6, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45403</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="G7">
-        <f>IF($E7=$F7, 0, IF($B7=$D7, IF($E7&gt;$F7, 1, 0), IF($F7&gt;$E7, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45404</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>IF($E8=$F8, 0, IF($B8=$D8, IF($E8&gt;$F8, 1, 0), IF($F8&gt;$E8, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45404</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>3</v>
+      <c r="C9" s="2">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f>IF($E9=$F9, 0, IF($B9=$D9, IF($E9&gt;$F9, 1, 0), IF($F9&gt;$E9, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45404</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
+      <c r="B10" s="2">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f>IF($E10=$F10, 0, IF($B10=$D10, IF($E10&gt;$F10, 1, 0), IF($F10&gt;$E10, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45404</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f>IF($E11=$F11, 0, IF($B11=$D11, IF($E11&gt;$F11, 1, 0), IF($F11&gt;$E11, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>IF($E12=$F12, 0, IF($B12=$D12, IF($E12&gt;$F12, 1, 0), IF($F12&gt;$E12, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f>IF($E13=$F13, 0, IF($B13=$D13, IF($E13&gt;$F13, 1, 0), IF($F13&gt;$E13, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f>IF($E14=$F14, 0, IF($B14=$D14, IF($E14&gt;$F14, 1, 0), IF($F14&gt;$E14, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f>IF($E15=$F15, 0, IF($B15=$D15, IF($E15&gt;$F15, 1, 0), IF($F15&gt;$E15, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f>IF($E16=$F16, 0, IF($B16=$D16, IF($E16&gt;$F16, 1, 0), IF($F16&gt;$E16, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f>IF($E17=$F17, 0, IF($B17=$D17, IF($E17&gt;$F17, 1, 0), IF($F17&gt;$E17, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f>IF($E18=$F18, 0, IF($B18=$D18, IF($E18&gt;$F18, 1, 0), IF($F18&gt;$E18, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f>IF($E19=$F19, 0, IF($B19=$D19, IF($E19&gt;$F19, 1, 0), IF($F19&gt;$E19, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f>IF($E20=$F20, 0, IF($B20=$D20, IF($E20&gt;$F20, 1, 0), IF($F20&gt;$E20, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f>IF($E21=$F21, 0, IF($B21=$D21, IF($E21&gt;$F21, 1, 0), IF($F21&gt;$E21, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f>IF($E22=$F22, 0, IF($B22=$D22, IF($E22&gt;$F22, 1, 0), IF($F22&gt;$E22, 1, 0)))</f>
-        <v>0</v>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="2">
+        <f>COUNTA(E2:E51)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <f>SUM(J2:J51)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="3">
+        <f>C56/C55</f>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A484314-F6E9-4339-A4B9-9304C4A6E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF8247B-3CCC-4BE4-9E06-385841FF68E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>NYI</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,9 +789,15 @@
       <c r="B10" s="2">
         <v>1</v>
       </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
@@ -799,14 +805,14 @@
         <v>18</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -816,9 +822,15 @@
       <c r="B11" s="2">
         <v>1</v>
       </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
@@ -826,14 +838,14 @@
         <v>21</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -843,9 +855,15 @@
       <c r="B12" s="2">
         <v>2</v>
       </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
@@ -853,14 +871,14 @@
         <v>13</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -870,9 +888,15 @@
       <c r="B13" s="2">
         <v>2</v>
       </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
@@ -880,10 +904,10 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
@@ -945,6 +969,21 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
       <c r="H16">
         <v>0</v>
       </c>
@@ -956,7 +995,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
       <c r="H17">
         <v>0</v>
       </c>
@@ -968,7 +1022,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
       <c r="H18">
         <v>0</v>
       </c>
@@ -980,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>0</v>
       </c>
@@ -992,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>0</v>
       </c>
@@ -1004,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>0</v>
       </c>
@@ -1016,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>0</v>
       </c>
@@ -1028,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>0</v>
       </c>
@@ -1040,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>0</v>
       </c>
@@ -1052,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H25">
         <v>0</v>
       </c>
@@ -1064,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H26">
         <v>0</v>
       </c>
@@ -1076,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H27">
         <v>0</v>
       </c>
@@ -1088,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H28">
         <v>0</v>
       </c>
@@ -1100,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H29">
         <v>0</v>
       </c>
@@ -1112,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>0</v>
       </c>
@@ -1124,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H31">
         <v>0</v>
       </c>
@@ -1136,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H32">
         <v>0</v>
       </c>
@@ -1382,7 +1451,7 @@
       </c>
       <c r="C55" s="2">
         <f>COUNTA(E2:E51)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -1391,7 +1460,7 @@
       </c>
       <c r="C56">
         <f>SUM(J2:J51)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967DB155-1D58-4D3F-80E1-C519767944C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D4F5DC-47DD-4835-9A70-6CE6F181A9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="48">
   <si>
     <t>NYI</t>
   </si>
@@ -177,6 +166,9 @@
   </si>
   <si>
     <t>LOWSEED</t>
+  </si>
+  <si>
+    <t>OTROUNDNUM</t>
   </si>
 </sst>
 </file>
@@ -212,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -227,13 +219,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -259,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -405,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,11 +565,12 @@
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -627,10 +617,13 @@
         <v>9</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45402</v>
       </c>
@@ -677,11 +670,14 @@
         <v>3</v>
       </c>
       <c r="P2" s="2">
-        <f>IF($N2=$O2, 0, IF($J2=$L2, IF($N2&gt;$O2, 1, 0), IF($O2&gt;$N2, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <f t="shared" ref="Q2:Q33" si="0">IF($N2=$O2, 0, IF($J2=$L2, IF($N2&gt;$O2, 1, 0), IF($O2&gt;$N2, 1, 0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45402</v>
       </c>
@@ -728,11 +724,14 @@
         <v>4</v>
       </c>
       <c r="P3" s="2">
-        <f>IF($N3=$O3, 0, IF($J3=$L3, IF($N3&gt;$O3, 1, 0), IF($O3&gt;$N3, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45403</v>
       </c>
@@ -779,11 +778,14 @@
         <v>3</v>
       </c>
       <c r="P4" s="2">
-        <f>IF($N4=$O4, 0, IF($J4=$L4, IF($N4&gt;$O4, 1, 0), IF($O4&gt;$N4, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45403</v>
       </c>
@@ -830,11 +832,14 @@
         <v>4</v>
       </c>
       <c r="P5" s="2">
-        <f>IF($N5=$O5, 0, IF($J5=$L5, IF($N5&gt;$O5, 1, 0), IF($O5&gt;$N5, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45403</v>
       </c>
@@ -881,11 +886,14 @@
         <v>4</v>
       </c>
       <c r="P6" s="2">
-        <f>IF($N6=$O6, 0, IF($J6=$L6, IF($N6&gt;$O6, 1, 0), IF($O6&gt;$N6, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45403</v>
       </c>
@@ -932,11 +940,14 @@
         <v>4</v>
       </c>
       <c r="P7" s="2">
-        <f>IF($N7=$O7, 0, IF($J7=$L7, IF($N7&gt;$O7, 1, 0), IF($O7&gt;$N7, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45404</v>
       </c>
@@ -983,11 +994,14 @@
         <v>5</v>
       </c>
       <c r="P8" s="2">
-        <f>IF($N8=$O8, 0, IF($J8=$L8, IF($N8&gt;$O8, 1, 0), IF($O8&gt;$N8, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45404</v>
       </c>
@@ -1034,11 +1048,14 @@
         <v>2</v>
       </c>
       <c r="P9" s="2">
-        <f>IF($N9=$O9, 0, IF($J9=$L9, IF($N9&gt;$O9, 1, 0), IF($O9&gt;$N9, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45404</v>
       </c>
@@ -1085,11 +1102,14 @@
         <v>3</v>
       </c>
       <c r="P10" s="2">
-        <f>IF($N10=$O10, 0, IF($J10=$L10, IF($N10&gt;$O10, 1, 0), IF($O10&gt;$N10, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45404</v>
       </c>
@@ -1136,11 +1156,14 @@
         <v>6</v>
       </c>
       <c r="P11" s="2">
-        <f>IF($N11=$O11, 0, IF($J11=$L11, IF($N11&gt;$O11, 1, 0), IF($O11&gt;$N11, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45405</v>
       </c>
@@ -1187,11 +1210,14 @@
         <v>4</v>
       </c>
       <c r="P12" s="2">
-        <f>IF($N12=$O12, 0, IF($J12=$L12, IF($N12&gt;$O12, 1, 0), IF($O12&gt;$N12, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45405</v>
       </c>
@@ -1238,11 +1264,14 @@
         <v>3</v>
       </c>
       <c r="P13" s="2">
-        <f>IF($N13=$O13, 0, IF($J13=$L13, IF($N13&gt;$O13, 1, 0), IF($O13&gt;$N13, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45405</v>
       </c>
@@ -1289,11 +1318,14 @@
         <v>2</v>
       </c>
       <c r="P14" s="2">
-        <f>IF($N14=$O14, 0, IF($J14=$L14, IF($N14&gt;$O14, 1, 0), IF($O14&gt;$N14, 1, 0)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45405</v>
       </c>
@@ -1340,11 +1372,14 @@
         <v>1</v>
       </c>
       <c r="P15" s="2">
-        <f>IF($N15=$O15, 0, IF($J15=$L15, IF($N15&gt;$O15, 1, 0), IF($O15&gt;$N15, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45406</v>
       </c>
@@ -1366,8 +1401,12 @@
       <c r="G16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
       <c r="J16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1381,17 +1420,20 @@
         <v>45405</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" s="2">
-        <f>IF($N16=$O16, 0, IF($J16=$L16, IF($N16&gt;$O16, 1, 0), IF($O16&gt;$N16, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45406</v>
       </c>
@@ -1413,8 +1455,12 @@
       <c r="G17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
       <c r="J17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1428,17 +1474,20 @@
         <v>45405</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="2">
-        <f>IF($N17=$O17, 0, IF($J17=$L17, IF($N17&gt;$O17, 1, 0), IF($O17&gt;$N17, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45406</v>
       </c>
@@ -1475,17 +1524,18 @@
         <v>45405</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <f>IF($N18=$O18, 0, IF($J18=$L18, IF($N18&gt;$O18, 1, 0), IF($O18&gt;$N18, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45407</v>
       </c>
@@ -1527,12 +1577,13 @@
       <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="P19" s="2">
-        <f>IF($N19=$O19, 0, IF($J19=$L19, IF($N19&gt;$O19, 1, 0), IF($O19&gt;$N19, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45407</v>
       </c>
@@ -1574,12 +1625,13 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="2">
-        <f>IF($N20=$O20, 0, IF($J20=$L20, IF($N20&gt;$O20, 1, 0), IF($O20&gt;$N20, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45408</v>
       </c>
@@ -1617,12 +1669,13 @@
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" s="2">
-        <f>IF($N21=$O21, 0, IF($J21=$L21, IF($N21&gt;$O21, 1, 0), IF($O21&gt;$N21, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45408</v>
       </c>
@@ -1660,12 +1713,13 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="2">
-        <f>IF($N22=$O22, 0, IF($J22=$L22, IF($N22&gt;$O22, 1, 0), IF($O22&gt;$N22, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45408</v>
       </c>
@@ -1703,12 +1757,13 @@
       <c r="O23" s="2">
         <v>0</v>
       </c>
-      <c r="P23" s="2">
-        <f>IF($N23=$O23, 0, IF($J23=$L23, IF($N23&gt;$O23, 1, 0), IF($O23&gt;$N23, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45408</v>
       </c>
@@ -1746,12 +1801,13 @@
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="P24" s="2">
-        <f>IF($N24=$O24, 0, IF($J24=$L24, IF($N24&gt;$O24, 1, 0), IF($O24&gt;$N24, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45409</v>
       </c>
@@ -1789,12 +1845,13 @@
       <c r="O25" s="2">
         <v>0</v>
       </c>
-      <c r="P25" s="2">
-        <f>IF($N25=$O25, 0, IF($J25=$L25, IF($N25&gt;$O25, 1, 0), IF($O25&gt;$N25, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45409</v>
       </c>
@@ -1832,12 +1889,13 @@
       <c r="O26" s="2">
         <v>0</v>
       </c>
-      <c r="P26" s="2">
-        <f>IF($N26=$O26, 0, IF($J26=$L26, IF($N26&gt;$O26, 1, 0), IF($O26&gt;$N26, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45409</v>
       </c>
@@ -1875,12 +1933,13 @@
       <c r="O27" s="2">
         <v>0</v>
       </c>
-      <c r="P27" s="2">
-        <f>IF($N27=$O27, 0, IF($J27=$L27, IF($N27&gt;$O27, 1, 0), IF($O27&gt;$N27, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45409</v>
       </c>
@@ -1918,12 +1977,13 @@
       <c r="O28" s="2">
         <v>0</v>
       </c>
-      <c r="P28" s="2">
-        <f>IF($N28=$O28, 0, IF($J28=$L28, IF($N28&gt;$O28, 1, 0), IF($O28&gt;$N28, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45410</v>
       </c>
@@ -1961,12 +2021,13 @@
       <c r="O29" s="2">
         <v>0</v>
       </c>
-      <c r="P29" s="2">
-        <f>IF($N29=$O29, 0, IF($J29=$L29, IF($N29&gt;$O29, 1, 0), IF($O29&gt;$N29, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45410</v>
       </c>
@@ -2004,12 +2065,13 @@
       <c r="O30" s="2">
         <v>0</v>
       </c>
-      <c r="P30" s="2">
-        <f>IF($N30=$O30, 0, IF($J30=$L30, IF($N30&gt;$O30, 1, 0), IF($O30&gt;$N30, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45410</v>
       </c>
@@ -2047,12 +2109,13 @@
       <c r="O31" s="2">
         <v>0</v>
       </c>
-      <c r="P31" s="2">
-        <f>IF($N31=$O31, 0, IF($J31=$L31, IF($N31&gt;$O31, 1, 0), IF($O31&gt;$N31, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>45410</v>
       </c>
@@ -2090,12 +2153,13 @@
       <c r="O32" s="2">
         <v>0</v>
       </c>
-      <c r="P32" s="2">
-        <f>IF($N32=$O32, 0, IF($J32=$L32, IF($N32&gt;$O32, 1, 0), IF($O32&gt;$N32, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45411</v>
       </c>
@@ -2133,12 +2197,13 @@
       <c r="O33" s="2">
         <v>0</v>
       </c>
-      <c r="P33" s="2">
-        <f>IF($N33=$O33, 0, IF($J33=$L33, IF($N33&gt;$O33, 1, 0), IF($O33&gt;$N33, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2154,12 +2219,13 @@
       <c r="O34" s="2">
         <v>0</v>
       </c>
-      <c r="P34" s="2">
-        <f>IF($N34=$O34, 0, IF($J34=$L34, IF($N34&gt;$O34, 1, 0), IF($O34&gt;$N34, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2">
+        <f t="shared" ref="Q34:Q51" si="1">IF($N34=$O34, 0, IF($J34=$L34, IF($N34&gt;$O34, 1, 0), IF($O34&gt;$N34, 1, 0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2175,12 +2241,13 @@
       <c r="O35" s="2">
         <v>0</v>
       </c>
-      <c r="P35" s="2">
-        <f>IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2196,12 +2263,13 @@
       <c r="O36" s="2">
         <v>0</v>
       </c>
-      <c r="P36" s="2">
-        <f>IF($N36=$O36, 0, IF($J36=$L36, IF($N36&gt;$O36, 1, 0), IF($O36&gt;$N36, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2217,12 +2285,13 @@
       <c r="O37" s="2">
         <v>0</v>
       </c>
-      <c r="P37" s="2">
-        <f>IF($N37=$O37, 0, IF($J37=$L37, IF($N37&gt;$O37, 1, 0), IF($O37&gt;$N37, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2238,12 +2307,13 @@
       <c r="O38" s="2">
         <v>0</v>
       </c>
-      <c r="P38" s="2">
-        <f>IF($N38=$O38, 0, IF($J38=$L38, IF($N38&gt;$O38, 1, 0), IF($O38&gt;$N38, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2259,12 +2329,13 @@
       <c r="O39" s="2">
         <v>0</v>
       </c>
-      <c r="P39" s="2">
-        <f>IF($N39=$O39, 0, IF($J39=$L39, IF($N39&gt;$O39, 1, 0), IF($O39&gt;$N39, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -2280,12 +2351,13 @@
       <c r="O40" s="2">
         <v>0</v>
       </c>
-      <c r="P40" s="2">
-        <f>IF($N40=$O40, 0, IF($J40=$L40, IF($N40&gt;$O40, 1, 0), IF($O40&gt;$N40, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -2301,12 +2373,13 @@
       <c r="O41" s="2">
         <v>0</v>
       </c>
-      <c r="P41" s="2">
-        <f>IF($N41=$O41, 0, IF($J41=$L41, IF($N41&gt;$O41, 1, 0), IF($O41&gt;$N41, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2322,12 +2395,13 @@
       <c r="O42" s="2">
         <v>0</v>
       </c>
-      <c r="P42" s="2">
-        <f>IF($N42=$O42, 0, IF($J42=$L42, IF($N42&gt;$O42, 1, 0), IF($O42&gt;$N42, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -2343,12 +2417,13 @@
       <c r="O43" s="2">
         <v>0</v>
       </c>
-      <c r="P43" s="2">
-        <f>IF($N43=$O43, 0, IF($J43=$L43, IF($N43&gt;$O43, 1, 0), IF($O43&gt;$N43, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2364,12 +2439,13 @@
       <c r="O44" s="2">
         <v>0</v>
       </c>
-      <c r="P44" s="2">
-        <f>IF($N44=$O44, 0, IF($J44=$L44, IF($N44&gt;$O44, 1, 0), IF($O44&gt;$N44, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -2385,12 +2461,13 @@
       <c r="O45" s="2">
         <v>0</v>
       </c>
-      <c r="P45" s="2">
-        <f>IF($N45=$O45, 0, IF($J45=$L45, IF($N45&gt;$O45, 1, 0), IF($O45&gt;$N45, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -2406,12 +2483,13 @@
       <c r="O46" s="2">
         <v>0</v>
       </c>
-      <c r="P46" s="2">
-        <f>IF($N46=$O46, 0, IF($J46=$L46, IF($N46&gt;$O46, 1, 0), IF($O46&gt;$N46, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -2427,12 +2505,13 @@
       <c r="O47" s="2">
         <v>0</v>
       </c>
-      <c r="P47" s="2">
-        <f>IF($N47=$O47, 0, IF($J47=$L47, IF($N47&gt;$O47, 1, 0), IF($O47&gt;$N47, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2448,12 +2527,13 @@
       <c r="O48" s="2">
         <v>0</v>
       </c>
-      <c r="P48" s="2">
-        <f>IF($N48=$O48, 0, IF($J48=$L48, IF($N48&gt;$O48, 1, 0), IF($O48&gt;$N48, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -2469,12 +2549,13 @@
       <c r="O49" s="2">
         <v>0</v>
       </c>
-      <c r="P49" s="2">
-        <f>IF($N49=$O49, 0, IF($J49=$L49, IF($N49&gt;$O49, 1, 0), IF($O49&gt;$N49, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -2490,12 +2571,13 @@
       <c r="O50" s="2">
         <v>0</v>
       </c>
-      <c r="P50" s="2">
-        <f>IF($N50=$O50, 0, IF($J50=$L50, IF($N50&gt;$O50, 1, 0), IF($O50&gt;$N50, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -2511,12 +2593,13 @@
       <c r="O51" s="2">
         <v>0</v>
       </c>
-      <c r="P51" s="2">
-        <f>IF($N51=$O51, 0, IF($J51=$L51, IF($N51&gt;$O51, 1, 0), IF($O51&gt;$N51, 1, 0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -2525,7 +2608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>37</v>
       </c>
@@ -2534,44 +2617,34 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <f>COUNTA(H2:H51)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="7">
-        <f>SUM(P2:P51)</f>
+      <c r="D62" s="6">
+        <f>SUM(Q2:Q51)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <f>D62/D61</f>
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF3300"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H1:I54 H58:I1048576 H55:H57">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2584,6 +2657,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF3300"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D4F5DC-47DD-4835-9A70-6CE6F181A9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239EDE41-CA18-4038-9794-491444E42EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -248,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +299,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -394,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,8 +1520,12 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
       <c r="J18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1524,12 +1539,14 @@
         <v>45405</v>
       </c>
       <c r="N18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O18" s="2">
-        <v>3</v>
-      </c>
-      <c r="P18" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2623,7 +2640,7 @@
       </c>
       <c r="D61" s="5">
         <f>COUNTA(H2:H51)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -2641,7 +2658,7 @@
       </c>
       <c r="D63" s="7">
         <f>D62/D61</f>
-        <v>0.625</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239EDE41-CA18-4038-9794-491444E42EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5878AC7-C334-4187-8982-7F33D6F4A044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="48">
   <si>
     <t>NYI</t>
   </si>
@@ -259,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -405,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +547,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="O19" sqref="J19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,8 +1563,12 @@
       <c r="G19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="4">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
       <c r="J19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1589,12 +1582,14 @@
         <v>45406</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1678,8 +1673,12 @@
       <c r="K21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="L21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="3">
+        <v>45408</v>
+      </c>
       <c r="N21" s="2">
         <v>0</v>
       </c>
@@ -1722,8 +1721,12 @@
       <c r="K22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="3">
+        <v>45408</v>
+      </c>
       <c r="N22" s="2">
         <v>0</v>
       </c>
@@ -1766,8 +1769,12 @@
       <c r="K23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="L23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="3">
+        <v>45408</v>
+      </c>
       <c r="N23" s="2">
         <v>0</v>
       </c>
@@ -1810,8 +1817,12 @@
       <c r="K24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="3">
+        <v>45408</v>
+      </c>
       <c r="N24" s="2">
         <v>0</v>
       </c>
@@ -2640,7 +2651,7 @@
       </c>
       <c r="D61" s="5">
         <f>COUNTA(H2:H51)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -2658,7 +2669,7 @@
       </c>
       <c r="D63" s="7">
         <f>D62/D61</f>
-        <v>0.58823529411764708</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5878AC7-C334-4187-8982-7F33D6F4A044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E7A19-7B4B-4CDA-8E3F-F8AB73ADEBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -248,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +299,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -394,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,7 +558,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="J19:O19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,8 +1628,12 @@
       <c r="G20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="H20" s="4">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
       <c r="J20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1632,15 +1647,17 @@
         <v>45406</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
       <c r="Q20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2651,7 +2668,7 @@
       </c>
       <c r="D61" s="5">
         <f>COUNTA(H2:H51)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -2660,7 +2677,7 @@
       </c>
       <c r="D62" s="6">
         <f>SUM(Q2:Q51)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -2669,7 +2686,7 @@
       </c>
       <c r="D63" s="7">
         <f>D62/D61</f>
-        <v>0.55555555555555558</v>
+        <v>0.57894736842105265</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E7A19-7B4B-4CDA-8E3F-F8AB73ADEBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180149A9-CC47-4DFF-B46A-491742D30D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="48">
   <si>
     <t>NYI</t>
   </si>
@@ -259,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -405,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,7 +547,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" s="2">
         <v>0</v>
@@ -783,7 +772,7 @@
         <v>45403</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2">
         <v>3</v>
@@ -891,10 +880,10 @@
         <v>45403</v>
       </c>
       <c r="N6" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O6" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -1161,10 +1150,10 @@
         <v>45403</v>
       </c>
       <c r="N11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O11" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P11" s="2">
         <v>0</v>
@@ -1215,7 +1204,7 @@
         <v>45404</v>
       </c>
       <c r="N12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" s="2">
         <v>4</v>
@@ -1431,7 +1420,7 @@
         <v>45405</v>
       </c>
       <c r="N16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" s="2">
         <v>2</v>
@@ -1682,8 +1671,12 @@
       <c r="G21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="H21" s="4">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
       <c r="J21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1697,12 +1690,14 @@
         <v>45408</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1730,8 +1725,12 @@
       <c r="G22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
       <c r="J22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1745,15 +1744,17 @@
         <v>45408</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1778,8 +1779,12 @@
       <c r="G23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
       <c r="J23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1793,15 +1798,17 @@
         <v>45408</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
       <c r="Q23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1826,8 +1833,12 @@
       <c r="G24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
       <c r="J24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1841,12 +1852,14 @@
         <v>45408</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1874,23 +1887,33 @@
       <c r="G25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="H25" s="4">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
       <c r="J25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>45409</v>
+      </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="P25" s="2">
+        <v>2</v>
+      </c>
       <c r="Q25" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1918,26 +1941,36 @@
       <c r="G26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="4">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
       <c r="J26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="3">
+        <v>45409</v>
+      </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1962,26 +1995,36 @@
       <c r="G27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="H27" s="4">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
       <c r="J27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
+        <v>45409</v>
+      </c>
       <c r="N27" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
       <c r="Q27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2006,26 +2049,36 @@
       <c r="G28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2</v>
+      </c>
       <c r="J28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="3">
+        <v>45409</v>
+      </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
       <c r="Q28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2050,26 +2103,36 @@
       <c r="G29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3</v>
+      </c>
       <c r="J29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="3">
+        <v>45410</v>
+      </c>
       <c r="N29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
       <c r="Q29" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2094,23 +2157,33 @@
       <c r="G30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="4">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
       <c r="J30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="3">
+        <v>45410</v>
+      </c>
       <c r="N30" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
       <c r="Q30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2138,26 +2211,36 @@
       <c r="G31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="4">
+        <v>4</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
       <c r="J31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="3">
+        <v>45410</v>
+      </c>
       <c r="N31" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
       <c r="Q31" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2182,26 +2265,36 @@
       <c r="G32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="H32" s="4">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
       <c r="J32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="3">
+        <v>45410</v>
+      </c>
       <c r="N32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
       </c>
-      <c r="P32" s="2"/>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
       <c r="Q32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2209,33 +2302,37 @@
         <v>45411</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E33" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="3">
+        <v>45410</v>
+      </c>
       <c r="N33" s="2">
         <v>0</v>
       </c>
@@ -2244,18 +2341,40 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2">
-        <f t="shared" si="0"/>
+        <f>IF($N33=$O33, 0, IF($J34=$L33, IF($N33&gt;$O33, 1, 0), IF($O33&gt;$N33, 1, 0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="3">
+        <v>45411</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2">
@@ -2266,7 +2385,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2">
-        <f t="shared" ref="Q34:Q51" si="1">IF($N34=$O34, 0, IF($J34=$L34, IF($N34&gt;$O34, 1, 0), IF($O34&gt;$N34, 1, 0)))</f>
+        <f>IF($N34=$O34, 0, IF(#REF!=$L34, IF($N34&gt;$O34, 1, 0), IF($O34&gt;$N34, 1, 0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -2288,7 +2407,7 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q34:Q51" si="1">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -2668,7 +2787,7 @@
       </c>
       <c r="D61" s="5">
         <f>COUNTA(H2:H51)</f>
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -2677,7 +2796,7 @@
       </c>
       <c r="D62" s="6">
         <f>SUM(Q2:Q51)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -2686,11 +2805,33 @@
       </c>
       <c r="D63" s="7">
         <f>D62/D61</f>
-        <v>0.57894736842105265</v>
+        <v>0.61290322580645162</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:I54 H58:I1048576 H55:H57">
+  <conditionalFormatting sqref="H58:I1048576 H55:H57 H1:I32 H34:I54">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="2"/>
+        <cfvo type="formula" val="4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF3300"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:I33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2702,16 +2843,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF3300"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180149A9-CC47-4DFF-B46A-491742D30D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57178A-CE56-4F6E-A280-DA57987AEC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="48">
   <si>
     <t>NYI</t>
   </si>
@@ -547,7 +547,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <f t="shared" ref="Q2:Q33" si="0">IF($N2=$O2, 0, IF($J2=$L2, IF($N2&gt;$O2, 1, 0), IF($O2&gt;$N2, 1, 0)))</f>
+        <f t="shared" ref="Q2:Q32" si="0">IF($N2=$O2, 0, IF($J2=$L2, IF($N2&gt;$O2, 1, 0), IF($O2&gt;$N2, 1, 0)))</f>
         <v>1</v>
       </c>
     </row>
@@ -2319,8 +2319,12 @@
       <c r="G33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="H33" s="4">
+        <v>4</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
       <c r="J33" s="2" t="s">
         <v>10</v>
       </c>
@@ -2334,15 +2338,17 @@
         <v>45410</v>
       </c>
       <c r="N33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
       <c r="Q33" s="2">
         <f>IF($N33=$O33, 0, IF($J34=$L33, IF($N33&gt;$O33, 1, 0), IF($O33&gt;$N33, 1, 0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2367,38 +2373,74 @@
       <c r="G34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="H34" s="4">
+        <v>2</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
       <c r="J34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="3">
+        <v>45411</v>
+      </c>
       <c r="N34" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
       <c r="Q34" s="2">
-        <f>IF($N34=$O34, 0, IF(#REF!=$L34, IF($N34&gt;$O34, 1, 0), IF($O34&gt;$N34, 1, 0)))</f>
+        <f>IF($N34=$O34, 0, IF($J35=$L34, IF($N34&gt;$O34, 1, 0), IF($O34&gt;$N34, 1, 0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="3">
+        <v>45411</v>
+      </c>
       <c r="N35" s="2">
         <v>0</v>
       </c>
@@ -2407,20 +2449,46 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q34:Q51" si="1">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <f t="shared" ref="Q35:Q51" si="1">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="4">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <v>45411</v>
+      </c>
       <c r="N36" s="2">
         <v>0</v>
       </c>
@@ -2434,15 +2502,41 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="3">
+        <v>45411</v>
+      </c>
       <c r="N37" s="2">
         <v>0</v>
       </c>
@@ -2456,15 +2550,41 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="4">
+        <v>5</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="3">
+        <v>45411</v>
+      </c>
       <c r="N38" s="2">
         <v>0</v>
       </c>
@@ -2787,7 +2907,7 @@
       </c>
       <c r="D61" s="5">
         <f>COUNTA(H2:H51)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -2796,7 +2916,7 @@
       </c>
       <c r="D62" s="6">
         <f>SUM(Q2:Q51)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -2805,10 +2925,22 @@
       </c>
       <c r="D63" s="7">
         <f>D62/D61</f>
-        <v>0.61290322580645162</v>
+        <v>0.60606060606060608</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H33:I33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="2"/>
+        <cfvo type="formula" val="4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H58:I1048576 H55:H57 H1:I32 H34:I54">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -2831,18 +2963,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:I33">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="2"/>
-        <cfvo type="formula" val="4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57178A-CE56-4F6E-A280-DA57987AEC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EBF353-E48E-4B82-8293-FC86AA3AB114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="48">
   <si>
     <t>NYI</t>
   </si>
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -216,13 +216,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -544,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +552,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -580,7 +577,7 @@
       <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -633,7 +630,7 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="4">
@@ -687,7 +684,7 @@
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="4">
@@ -741,7 +738,7 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4">
@@ -795,7 +792,7 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="4">
@@ -849,7 +846,7 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="4">
@@ -903,7 +900,7 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="4">
@@ -957,7 +954,7 @@
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="4">
@@ -1011,7 +1008,7 @@
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="4">
@@ -1065,7 +1062,7 @@
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="4">
@@ -1119,7 +1116,7 @@
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="4">
@@ -1173,7 +1170,7 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="4">
@@ -1227,7 +1224,7 @@
       <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="4">
@@ -1281,7 +1278,7 @@
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="4">
@@ -1335,7 +1332,7 @@
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="4">
@@ -1389,7 +1386,7 @@
       <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="4">
@@ -1443,7 +1440,7 @@
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="4">
@@ -1497,7 +1494,7 @@
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="4">
@@ -1551,7 +1548,7 @@
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="4">
@@ -1605,7 +1602,7 @@
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="4">
@@ -1659,7 +1656,7 @@
       <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="4">
@@ -1713,7 +1710,7 @@
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="4">
@@ -1767,7 +1764,7 @@
       <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="4">
@@ -1821,7 +1818,7 @@
       <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="4">
@@ -1875,7 +1872,7 @@
       <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="4">
@@ -1929,7 +1926,7 @@
       <c r="C26" s="4">
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="4">
@@ -1983,7 +1980,7 @@
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="4">
@@ -2037,7 +2034,7 @@
       <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="4">
@@ -2091,7 +2088,7 @@
       <c r="C29" s="4">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="4">
@@ -2145,7 +2142,7 @@
       <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="4">
@@ -2199,7 +2196,7 @@
       <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="4">
@@ -2253,7 +2250,7 @@
       <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="4">
@@ -2307,7 +2304,7 @@
       <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="4">
@@ -2361,7 +2358,7 @@
       <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="4">
@@ -2415,7 +2412,7 @@
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="4">
@@ -2427,8 +2424,12 @@
       <c r="G35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="H35" s="4">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2</v>
+      </c>
       <c r="J35" s="2" t="s">
         <v>2</v>
       </c>
@@ -2442,15 +2443,17 @@
         <v>45411</v>
       </c>
       <c r="N35" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
       <c r="Q35" s="2">
         <f t="shared" ref="Q35:Q51" si="1">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2463,7 +2466,7 @@
       <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="4">
@@ -2475,8 +2478,12 @@
       <c r="G36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="H36" s="4">
+        <v>4</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
       <c r="J36" s="2" t="s">
         <v>0</v>
       </c>
@@ -2490,15 +2497,17 @@
         <v>45411</v>
       </c>
       <c r="N36" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
       <c r="Q36" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2511,7 +2520,7 @@
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="4">
@@ -2559,7 +2568,7 @@
       <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="4">
@@ -2598,15 +2607,41 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="3">
+        <v>45413</v>
+      </c>
       <c r="N39" s="2">
         <v>0</v>
       </c>
@@ -2620,15 +2655,41 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="4">
+        <v>5</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="3">
+        <v>45413</v>
+      </c>
       <c r="N40" s="2">
         <v>0</v>
       </c>
@@ -2887,27 +2948,43 @@
       <c r="A59" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="6">
         <f>8*7</f>
         <v>56</v>
+      </c>
+      <c r="F59" s="1">
+        <f>VLOOKUP("ER1M2M3", D2:E40, 2, TRUE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="6">
         <f>8*4</f>
         <v>32</v>
+      </c>
+      <c r="E60" s="4" t="e">
+        <f>VLOOKUP("ER1M2M3", D2:E40, 2, TRUE)+VLOOKUP("ER1A2A3", D2:E40, 2, TRUE)+VLOOKUP("ER1M1WC2", D2:E40, 2, TRUE)+VLOOKUP("ER1A1WC1", D2:E40, 2, TRUE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F60" s="1" t="e">
+        <f>VLOOKUP("ER1A1WC1",D2:E40, 2, TRUE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="6">
         <f>COUNTA(H2:H51)</f>
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="F61" s="1">
+        <f>VLOOKUP("WR1P1WC1",D2:E40, 2, TRUE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -2916,16 +2993,30 @@
       </c>
       <c r="D62" s="6">
         <f>SUM(Q2:Q51)</f>
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F62" s="1">
+        <f>VLOOKUP("WR1C1WC2",D2:E40, 2, TRUE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <f>D62/D61</f>
-        <v>0.60606060606060608</v>
+        <v>0.62857142857142856</v>
+      </c>
+      <c r="F63" s="1">
+        <f>VLOOKUP("WR1P2P3",D2:E40, 2, TRUE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F64" s="1">
+        <f>VLOOKUP("WR1C2C3",D2:E40, 2, TRUE)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EBF353-E48E-4B82-8293-FC86AA3AB114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5279ED39-FE10-46DF-81CD-ECF44191731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,12 +20,45 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="58">
   <si>
     <t>NYI</t>
   </si>
@@ -169,6 +202,36 @@
   </si>
   <si>
     <t>OTROUNDNUM</t>
+  </si>
+  <si>
+    <t>GP In Series</t>
+  </si>
+  <si>
+    <t>TopSeed</t>
+  </si>
+  <si>
+    <t>LowSeed</t>
+  </si>
+  <si>
+    <t>TopSeedGoals</t>
+  </si>
+  <si>
+    <t>LowSeedGoals</t>
+  </si>
+  <si>
+    <t>HomeGoals</t>
+  </si>
+  <si>
+    <t>AwayGoals</t>
+  </si>
+  <si>
+    <t>HomeWins</t>
+  </si>
+  <si>
+    <t>AwayWins</t>
+  </si>
+  <si>
+    <t>Num Ots</t>
   </si>
 </sst>
 </file>
@@ -204,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -219,8 +282,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,7 +351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -391,7 +457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -541,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +620,7 @@
     <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -565,9 +631,18 @@
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -620,7 +695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45402</v>
       </c>
@@ -630,7 +705,7 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="4">
@@ -673,8 +748,43 @@
         <f t="shared" ref="Q2:Q32" si="0">IF($N2=$O2, 0, IF($J2=$L2, IF($N2&gt;$O2, 1, 0), IF($O2&gt;$N2, 1, 0)))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U2" s="2"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45402</v>
       </c>
@@ -684,7 +794,7 @@
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="4">
@@ -727,8 +837,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="6">
+        <f>8*7</f>
+        <v>56</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="1" t="str" cm="1">
+        <f t="array" ref="Z3">INDEX(F:F, MATCH(2, 1/(D:D=Y3)))</f>
+        <v>FLA</v>
+      </c>
+      <c r="AA3" s="1" t="str" cm="1">
+        <f t="array" ref="AA3">INDEX(G:G, MATCH(2, 1/(D:D=Y3)))</f>
+        <v>TBL</v>
+      </c>
+      <c r="AB3" cm="1">
+        <f t="array" ref="AB3">INDEX(E:E, MATCH(2, 1/(D:D=Y3)))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45403</v>
       </c>
@@ -738,7 +873,7 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4">
@@ -778,11 +913,36 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <f>IF($N4=$O4, 0, IF($J4=$L4, IF($N4&gt;$O4, 1, 0), IF($O4&gt;$N4, 1, 0)))</f>
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="6">
+        <f>MAX(SUM(AB3:AB10), 32)</f>
+        <v>40</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="1" t="str" cm="1">
+        <f t="array" ref="Z4">INDEX(F:F, MATCH(2, 1/(D:D=Y4)))</f>
+        <v>BOS</v>
+      </c>
+      <c r="AA4" s="1" t="str" cm="1">
+        <f t="array" ref="AA4">INDEX(G:G, MATCH(2, 1/(D:D=Y4)))</f>
+        <v>TOR</v>
+      </c>
+      <c r="AB4" cm="1">
+        <f t="array" ref="AB4">INDEX(E:E, MATCH(2, 1/(D:D=Y4)))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45403</v>
       </c>
@@ -792,7 +952,7 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="4">
@@ -835,8 +995,33 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="6">
+        <f>COUNTA(H2:H51)</f>
+        <v>37</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="1" t="str" cm="1">
+        <f t="array" ref="Z5">INDEX(F:F, MATCH(2, 1/(D:D=Y5)))</f>
+        <v>CAR</v>
+      </c>
+      <c r="AA5" s="1" t="str" cm="1">
+        <f t="array" ref="AA5">INDEX(G:G, MATCH(2, 1/(D:D=Y5)))</f>
+        <v>NYI</v>
+      </c>
+      <c r="AB5" cm="1">
+        <f t="array" ref="AB5">INDEX(E:E, MATCH(2, 1/(D:D=Y5)))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45403</v>
       </c>
@@ -846,7 +1031,7 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="4">
@@ -889,8 +1074,33 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="6">
+        <f>SUM(Q2:Q51)</f>
+        <v>22</v>
+      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="1" t="str" cm="1">
+        <f t="array" ref="Z6">INDEX(F:F, MATCH(2, 1/(D:D=Y6)))</f>
+        <v>NYR</v>
+      </c>
+      <c r="AA6" s="1" t="str" cm="1">
+        <f t="array" ref="AA6">INDEX(G:G, MATCH(2, 1/(D:D=Y6)))</f>
+        <v>WSH</v>
+      </c>
+      <c r="AB6" cm="1">
+        <f t="array" ref="AB6">INDEX(E:E, MATCH(2, 1/(D:D=Y6)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45403</v>
       </c>
@@ -900,7 +1110,7 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="4">
@@ -943,8 +1153,33 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="6">
+        <f>W6/W5</f>
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="1" t="str" cm="1">
+        <f t="array" ref="Z7">INDEX(F:F, MATCH(2, 1/(D:D=Y7)))</f>
+        <v>VAN</v>
+      </c>
+      <c r="AA7" s="1" t="str" cm="1">
+        <f t="array" ref="AA7">INDEX(G:G, MATCH(2, 1/(D:D=Y7)))</f>
+        <v>NSH</v>
+      </c>
+      <c r="AB7" cm="1">
+        <f t="array" ref="AB7">INDEX(E:E, MATCH(2, 1/(D:D=Y7)))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45404</v>
       </c>
@@ -954,7 +1189,7 @@
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="4">
@@ -997,8 +1232,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U8" s="2"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="1" t="str" cm="1">
+        <f t="array" ref="Z8">INDEX(F:F, MATCH(2, 1/(D:D=Y8)))</f>
+        <v>EDM</v>
+      </c>
+      <c r="AA8" s="1" t="str" cm="1">
+        <f t="array" ref="AA8">INDEX(G:G, MATCH(2, 1/(D:D=Y8)))</f>
+        <v>LAK</v>
+      </c>
+      <c r="AB8" cm="1">
+        <f t="array" ref="AB8">INDEX(E:E, MATCH(2, 1/(D:D=Y8)))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45404</v>
       </c>
@@ -1008,7 +1262,7 @@
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="4">
@@ -1051,8 +1305,27 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U9" s="2"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z9" s="1" t="str" cm="1">
+        <f t="array" ref="Z9">INDEX(F:F, MATCH(2, 1/(D:D=Y9)))</f>
+        <v>WPG</v>
+      </c>
+      <c r="AA9" s="1" t="str" cm="1">
+        <f t="array" ref="AA9">INDEX(G:G, MATCH(2, 1/(D:D=Y9)))</f>
+        <v>COL</v>
+      </c>
+      <c r="AB9" cm="1">
+        <f t="array" ref="AB9">INDEX(E:E, MATCH(2, 1/(D:D=Y9)))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45404</v>
       </c>
@@ -1062,7 +1335,7 @@
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="4">
@@ -1105,8 +1378,27 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U10" s="2"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="1" t="str" cm="1">
+        <f t="array" ref="Z10">INDEX(F:F, MATCH(2, 1/(D:D=Y10)))</f>
+        <v>DAL</v>
+      </c>
+      <c r="AA10" s="1" t="str" cm="1">
+        <f t="array" ref="AA10">INDEX(G:G, MATCH(2, 1/(D:D=Y10)))</f>
+        <v>VGK</v>
+      </c>
+      <c r="AB10" cm="1">
+        <f t="array" ref="AB10">INDEX(E:E, MATCH(2, 1/(D:D=Y10)))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45404</v>
       </c>
@@ -1116,7 +1408,7 @@
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="4">
@@ -1159,8 +1451,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45405</v>
       </c>
@@ -1170,7 +1463,7 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="4">
@@ -1213,8 +1506,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45405</v>
       </c>
@@ -1224,7 +1518,7 @@
       <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="4">
@@ -1267,8 +1561,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45405</v>
       </c>
@@ -1278,7 +1573,7 @@
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="4">
@@ -1321,8 +1616,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45405</v>
       </c>
@@ -1332,7 +1628,7 @@
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="4">
@@ -1375,8 +1671,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45406</v>
       </c>
@@ -1386,7 +1683,7 @@
       <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="4">
@@ -1429,8 +1726,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45406</v>
       </c>
@@ -1440,7 +1738,7 @@
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="4">
@@ -1483,8 +1781,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45406</v>
       </c>
@@ -1494,7 +1793,7 @@
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="4">
@@ -1537,8 +1836,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45407</v>
       </c>
@@ -1548,7 +1848,7 @@
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="4">
@@ -1591,8 +1891,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45407</v>
       </c>
@@ -1602,7 +1903,7 @@
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="4">
@@ -1645,8 +1946,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45408</v>
       </c>
@@ -1656,7 +1958,7 @@
       <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="4">
@@ -1699,8 +2001,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45408</v>
       </c>
@@ -1710,7 +2013,7 @@
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="4">
@@ -1753,8 +2056,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45408</v>
       </c>
@@ -1764,7 +2068,7 @@
       <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="4">
@@ -1807,8 +2111,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45408</v>
       </c>
@@ -1818,7 +2123,7 @@
       <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="4">
@@ -1861,8 +2166,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45409</v>
       </c>
@@ -1872,7 +2178,7 @@
       <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="4">
@@ -1915,8 +2221,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45409</v>
       </c>
@@ -1926,7 +2233,7 @@
       <c r="C26" s="4">
         <v>1</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="4">
@@ -1969,8 +2276,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45409</v>
       </c>
@@ -1980,7 +2288,7 @@
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="4">
@@ -2023,8 +2331,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45409</v>
       </c>
@@ -2034,7 +2343,7 @@
       <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="4">
@@ -2077,8 +2386,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45410</v>
       </c>
@@ -2088,7 +2398,7 @@
       <c r="C29" s="4">
         <v>1</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="4">
@@ -2131,8 +2441,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45410</v>
       </c>
@@ -2142,7 +2453,7 @@
       <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="4">
@@ -2185,8 +2496,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45410</v>
       </c>
@@ -2196,7 +2508,7 @@
       <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="4">
@@ -2239,8 +2551,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>45410</v>
       </c>
@@ -2250,7 +2563,7 @@
       <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="4">
@@ -2293,8 +2606,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45411</v>
       </c>
@@ -2304,7 +2618,7 @@
       <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="4">
@@ -2347,8 +2661,9 @@
         <f>IF($N33=$O33, 0, IF($J34=$L33, IF($N33&gt;$O33, 1, 0), IF($O33&gt;$N33, 1, 0)))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V33" s="4"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>45411</v>
       </c>
@@ -2358,7 +2673,7 @@
       <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="4">
@@ -2401,8 +2716,9 @@
         <f>IF($N34=$O34, 0, IF($J35=$L34, IF($N34&gt;$O34, 1, 0), IF($O34&gt;$N34, 1, 0)))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V34" s="4"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45412</v>
       </c>
@@ -2412,7 +2728,7 @@
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="4">
@@ -2455,8 +2771,9 @@
         <f t="shared" ref="Q35:Q51" si="1">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V35" s="4"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45412</v>
       </c>
@@ -2466,7 +2783,7 @@
       <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="4">
@@ -2509,8 +2826,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V36" s="4"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>45412</v>
       </c>
@@ -2520,7 +2838,7 @@
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="4">
@@ -2532,8 +2850,12 @@
       <c r="G37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>4</v>
+      </c>
       <c r="J37" s="2" t="s">
         <v>14</v>
       </c>
@@ -2547,18 +2869,21 @@
         <v>45411</v>
       </c>
       <c r="N37" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
       <c r="Q37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V37" s="4"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>45412</v>
       </c>
@@ -2568,7 +2893,7 @@
       <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="4">
@@ -2580,8 +2905,12 @@
       <c r="G38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="H38" s="4">
+        <v>2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>3</v>
+      </c>
       <c r="J38" s="2" t="s">
         <v>16</v>
       </c>
@@ -2595,18 +2924,21 @@
         <v>45411</v>
       </c>
       <c r="N38" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
       <c r="Q38" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45413</v>
       </c>
@@ -2616,7 +2948,7 @@
       <c r="C39" s="4">
         <v>1</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="4">
@@ -2653,8 +2985,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V39" s="4"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>45413</v>
       </c>
@@ -2664,7 +2997,7 @@
       <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="4">
@@ -2701,15 +3034,38 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="V40" s="4"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="4">
+        <v>6</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2">
@@ -2723,9 +3079,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V41" s="4"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
+      <c r="D42" s="7"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2746,8 +3104,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
+      <c r="D43" s="7"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2768,8 +3127,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
+      <c r="D44" s="7"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -2790,8 +3150,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
+      <c r="D45" s="7"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -2812,8 +3173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
+      <c r="D46" s="7"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -2834,8 +3196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
+      <c r="D47" s="7"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -2856,8 +3219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
+      <c r="D48" s="7"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -2880,6 +3244,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
+      <c r="D49" s="7"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2902,6 +3267,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
+      <c r="D50" s="7"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2924,6 +3290,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
+      <c r="D51" s="7"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2942,81 +3309,6 @@
       <c r="Q51" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="6">
-        <f>8*7</f>
-        <v>56</v>
-      </c>
-      <c r="F59" s="1">
-        <f>VLOOKUP("ER1M2M3", D2:E40, 2, TRUE)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="6">
-        <f>8*4</f>
-        <v>32</v>
-      </c>
-      <c r="E60" s="4" t="e">
-        <f>VLOOKUP("ER1M2M3", D2:E40, 2, TRUE)+VLOOKUP("ER1A2A3", D2:E40, 2, TRUE)+VLOOKUP("ER1M1WC2", D2:E40, 2, TRUE)+VLOOKUP("ER1A1WC1", D2:E40, 2, TRUE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F60" s="1" t="e">
-        <f>VLOOKUP("ER1A1WC1",D2:E40, 2, TRUE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="6">
-        <f>COUNTA(H2:H51)</f>
-        <v>35</v>
-      </c>
-      <c r="F61" s="1">
-        <f>VLOOKUP("WR1P1WC1",D2:E40, 2, TRUE)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="6">
-        <f>SUM(Q2:Q51)</f>
-        <v>22</v>
-      </c>
-      <c r="F62" s="1">
-        <f>VLOOKUP("WR1C1WC2",D2:E40, 2, TRUE)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="6">
-        <f>D62/D61</f>
-        <v>0.62857142857142856</v>
-      </c>
-      <c r="F63" s="1">
-        <f>VLOOKUP("WR1P2P3",D2:E40, 2, TRUE)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F64" s="1">
-        <f>VLOOKUP("WR1C2C3",D2:E40, 2, TRUE)</f>
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3032,7 +3324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58:I1048576 H55:H57 H1:I32 H34:I54">
+  <conditionalFormatting sqref="H55:H57 H1:I32 H34:I54">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5279ED39-FE10-46DF-81CD-ECF44191731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1224F31A-18FF-476D-94A9-8EB75ED4AA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,30 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="58">
   <si>
     <t>NYI</t>
   </si>
@@ -267,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -282,11 +271,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -311,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +691,7 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="4">
@@ -794,7 +780,7 @@
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="4">
@@ -862,6 +848,10 @@
         <f t="array" ref="AB3">INDEX(E:E, MATCH(2, 1/(D:D=Y3)))</f>
         <v>5</v>
       </c>
+      <c r="AC3" t="e">
+        <f>s</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -873,7 +863,7 @@
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4">
@@ -923,7 +913,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="6">
         <f>MAX(SUM(AB3:AB10), 32)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="1" t="s">
@@ -952,7 +942,7 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="4">
@@ -1002,7 +992,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H51)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="1" t="s">
@@ -1031,7 +1021,7 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="4">
@@ -1081,7 +1071,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q51)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="1" t="s">
@@ -1110,7 +1100,7 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="4">
@@ -1160,7 +1150,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.59459459459459463</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="1" t="s">
@@ -1176,7 +1166,7 @@
       </c>
       <c r="AB7" cm="1">
         <f t="array" ref="AB7">INDEX(E:E, MATCH(2, 1/(D:D=Y7)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -1189,7 +1179,7 @@
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="4">
@@ -1262,7 +1252,7 @@
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="4">
@@ -1335,7 +1325,7 @@
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="4">
@@ -1408,7 +1398,7 @@
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="4">
@@ -1463,7 +1453,7 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="4">
@@ -1518,7 +1508,7 @@
       <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="4">
@@ -1573,7 +1563,7 @@
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="4">
@@ -1628,7 +1618,7 @@
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="4">
@@ -1683,7 +1673,7 @@
       <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="4">
@@ -1738,7 +1728,7 @@
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="4">
@@ -1793,7 +1783,7 @@
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="4">
@@ -1848,7 +1838,7 @@
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="4">
@@ -1903,7 +1893,7 @@
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="4">
@@ -1958,7 +1948,7 @@
       <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="4">
@@ -2013,7 +2003,7 @@
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="4">
@@ -2068,7 +2058,7 @@
       <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="4">
@@ -2123,7 +2113,7 @@
       <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="4">
@@ -2178,7 +2168,7 @@
       <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="4">
@@ -2233,7 +2223,7 @@
       <c r="C26" s="4">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="4">
@@ -2288,7 +2278,7 @@
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="4">
@@ -2343,7 +2333,7 @@
       <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="4">
@@ -2398,7 +2388,7 @@
       <c r="C29" s="4">
         <v>1</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="4">
@@ -2453,7 +2443,7 @@
       <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="4">
@@ -2508,7 +2498,7 @@
       <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="4">
@@ -2563,7 +2553,7 @@
       <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="4">
@@ -2618,7 +2608,7 @@
       <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="4">
@@ -2673,7 +2663,7 @@
       <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="4">
@@ -2728,7 +2718,7 @@
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="4">
@@ -2783,7 +2773,7 @@
       <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="4">
@@ -2838,7 +2828,7 @@
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="4">
@@ -2893,7 +2883,7 @@
       <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="4">
@@ -2948,7 +2938,7 @@
       <c r="C39" s="4">
         <v>1</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="4">
@@ -2960,8 +2950,12 @@
       <c r="G39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="H39" s="4">
+        <v>3</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
       <c r="J39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2975,15 +2969,17 @@
         <v>45413</v>
       </c>
       <c r="N39" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
       <c r="Q39" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="4"/>
     </row>
@@ -2997,7 +2993,7 @@
       <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="4">
@@ -3024,21 +3020,21 @@
         <v>45413</v>
       </c>
       <c r="N40" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O40" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="4"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>32</v>
@@ -3046,7 +3042,7 @@
       <c r="C41" s="4">
         <v>1</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="4">
@@ -3066,8 +3062,12 @@
       <c r="K41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="3">
+        <v>45414</v>
+      </c>
       <c r="N41" s="2">
         <v>0</v>
       </c>
@@ -3082,14 +3082,35 @@
       <c r="V41" s="4"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="D42" s="7"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="3">
+        <v>45415</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="4">
+        <v>6</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2">
@@ -3106,7 +3127,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="D43" s="7"/>
+      <c r="D43" s="2"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3129,7 +3150,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="D44" s="7"/>
+      <c r="D44" s="2"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3152,7 +3173,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="D45" s="7"/>
+      <c r="D45" s="2"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3175,7 +3196,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="D46" s="7"/>
+      <c r="D46" s="2"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -3198,7 +3219,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="2"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -3221,7 +3242,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="D48" s="7"/>
+      <c r="D48" s="2"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -3244,7 +3265,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="D49" s="7"/>
+      <c r="D49" s="2"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3267,7 +3288,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="D50" s="7"/>
+      <c r="D50" s="2"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3290,7 +3311,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="2"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -3312,8 +3333,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H33:I33">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H55:H57 H1:I32 H34:I54">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -3324,8 +3345,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H57 H1:I32 H34:I54">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="H33:I33">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1224F31A-18FF-476D-94A9-8EB75ED4AA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FE436C-E6BC-4CDA-AA9E-80023716A66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,19 +20,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -47,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="58">
   <si>
     <t>NYI</t>
   </si>
@@ -297,9 +308,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -337,7 +348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -443,7 +454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -585,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -595,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +924,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="6">
         <f>MAX(SUM(AB3:AB10), 32)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="1" t="s">
@@ -929,7 +940,7 @@
       </c>
       <c r="AB4" cm="1">
         <f t="array" ref="AB4">INDEX(E:E, MATCH(2, 1/(D:D=Y4)))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -992,7 +1003,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H51)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="1" t="s">
@@ -1150,7 +1161,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.63157894736842102</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="1" t="s">
@@ -1385,7 +1396,7 @@
       </c>
       <c r="AB10" cm="1">
         <f t="array" ref="AB10">INDEX(E:E, MATCH(2, 1/(D:D=Y10)))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -3005,8 +3016,12 @@
       <c r="G40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="H40" s="4">
+        <v>4</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
       <c r="J40" s="2" t="s">
         <v>20</v>
       </c>
@@ -3020,12 +3035,14 @@
         <v>45413</v>
       </c>
       <c r="N40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40" s="2">
         <v>4</v>
       </c>
-      <c r="P40" s="2"/>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
       <c r="Q40" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3111,8 +3128,12 @@
       <c r="K42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="3">
+        <v>45414</v>
+      </c>
       <c r="N42" s="2">
         <v>0</v>
       </c>
@@ -3126,16 +3147,41 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="3">
+        <v>45415</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="4">
+        <v>6</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="3">
+        <v>45414</v>
+      </c>
       <c r="N43" s="2">
         <v>0</v>
       </c>
@@ -3149,16 +3195,41 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="3">
+        <v>45416</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="4">
+        <v>7</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="3">
+        <v>45414</v>
+      </c>
       <c r="N44" s="2">
         <v>0</v>
       </c>
@@ -3172,16 +3243,41 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="3">
+        <v>45417</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="4">
+        <v>7</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="3">
+        <v>45414</v>
+      </c>
       <c r="N45" s="2">
         <v>0</v>
       </c>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FE436C-E6BC-4CDA-AA9E-80023716A66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E542BF3-7A75-4DD2-AF70-949C13AE4BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="65">
   <si>
     <t>NYI</t>
   </si>
@@ -232,6 +232,27 @@
   </si>
   <si>
     <t>Num Ots</t>
+  </si>
+  <si>
+    <t>ER2M1M2</t>
+  </si>
+  <si>
+    <t>ER2A1A2</t>
+  </si>
+  <si>
+    <t>WR2C1C2</t>
+  </si>
+  <si>
+    <t>WR2A1A2</t>
+  </si>
+  <si>
+    <t>ER3AM</t>
+  </si>
+  <si>
+    <t>WR3PC</t>
+  </si>
+  <si>
+    <t>SCF</t>
   </si>
 </sst>
 </file>
@@ -255,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,11 +284,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -285,6 +326,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +689,7 @@
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -749,7 +810,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="5"/>
       <c r="X2" s="4"/>
-      <c r="Y2" s="1"/>
+      <c r="Y2" s="8"/>
       <c r="Z2" s="1" t="s">
         <v>49</v>
       </c>
@@ -844,7 +905,7 @@
         <v>56</v>
       </c>
       <c r="X3" s="4"/>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="8" t="s">
         <v>42</v>
       </c>
       <c r="Z3" s="1" t="str" cm="1">
@@ -927,7 +988,7 @@
         <v>44</v>
       </c>
       <c r="X4" s="4"/>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Z4" s="1" t="str" cm="1">
@@ -1003,10 +1064,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H51)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X5" s="4"/>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="Z5" s="1" t="str" cm="1">
@@ -1082,10 +1143,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q51)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X6" s="4"/>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="Z6" s="1" t="str" cm="1">
@@ -1161,10 +1222,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.61538461538461542</v>
+        <v>0.625</v>
       </c>
       <c r="X7" s="4"/>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="Z7" s="1" t="str" cm="1">
@@ -1237,7 +1298,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="Z8" s="1" t="str" cm="1">
@@ -1310,7 +1371,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="1" t="s">
+      <c r="Y9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="Z9" s="1" t="str" cm="1">
@@ -1383,21 +1444,28 @@
       <c r="V10" s="4"/>
       <c r="W10" s="5"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="1" t="str" cm="1">
+      <c r="Z10" s="10" t="str" cm="1">
         <f t="array" ref="Z10">INDEX(F:F, MATCH(2, 1/(D:D=Y10)))</f>
         <v>DAL</v>
       </c>
-      <c r="AA10" s="1" t="str" cm="1">
+      <c r="AA10" s="10" t="str" cm="1">
         <f t="array" ref="AA10">INDEX(G:G, MATCH(2, 1/(D:D=Y10)))</f>
         <v>VGK</v>
       </c>
-      <c r="AB10" cm="1">
+      <c r="AB10" s="11" cm="1">
         <f t="array" ref="AB10">INDEX(E:E, MATCH(2, 1/(D:D=Y10)))</f>
         <v>7</v>
       </c>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1453,6 +1521,21 @@
         <v>1</v>
       </c>
       <c r="V11" s="4"/>
+      <c r="Y11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z11" s="1" t="str" cm="1">
+        <f t="array" ref="Z11">INDEX(F:F, MATCH(2, 1/(D:D=Y11)))</f>
+        <v>NYR</v>
+      </c>
+      <c r="AA11" s="1" t="str" cm="1">
+        <f t="array" ref="AA11">INDEX(G:G, MATCH(2, 1/(D:D=Y11)))</f>
+        <v>CAR</v>
+      </c>
+      <c r="AB11" cm="1">
+        <f t="array" ref="AB11">INDEX(E:E, MATCH(2, 1/(D:D=Y11)))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1508,6 +1591,21 @@
         <v>1</v>
       </c>
       <c r="V12" s="4"/>
+      <c r="Y12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z12" s="1" t="e" cm="1">
+        <f t="array" ref="Z12">INDEX(F:F, MATCH(2, 1/(D:D=Y12)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA12" s="1" t="e" cm="1">
+        <f t="array" ref="AA12">INDEX(G:G, MATCH(2, 1/(D:D=Y12)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB12" t="e" cm="1">
+        <f t="array" ref="AB12">INDEX(E:E, MATCH(2, 1/(D:D=Y12)))</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1563,6 +1661,21 @@
         <v>0</v>
       </c>
       <c r="V13" s="4"/>
+      <c r="Y13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13" s="1" t="e" cm="1">
+        <f t="array" ref="Z13">INDEX(F:F, MATCH(2, 1/(D:D=Y13)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA13" s="1" t="e" cm="1">
+        <f t="array" ref="AA13">INDEX(G:G, MATCH(2, 1/(D:D=Y13)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB13" t="e" cm="1">
+        <f t="array" ref="AB13">INDEX(E:E, MATCH(2, 1/(D:D=Y13)))</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1618,6 +1731,28 @@
         <v>1</v>
       </c>
       <c r="V14" s="4"/>
+      <c r="Y14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="10" t="e" cm="1">
+        <f t="array" ref="Z14">INDEX(F:F, MATCH(2, 1/(D:D=Y14)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA14" s="10" t="e" cm="1">
+        <f t="array" ref="AA14">INDEX(G:G, MATCH(2, 1/(D:D=Y14)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB14" s="11" t="e" cm="1">
+        <f t="array" ref="AB14">INDEX(E:E, MATCH(2, 1/(D:D=Y14)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1673,6 +1808,21 @@
         <v>0</v>
       </c>
       <c r="V15" s="4"/>
+      <c r="Y15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z15" s="15" t="e" cm="1">
+        <f t="array" ref="Z15">INDEX(F:F, MATCH(2, 1/(D:D=Y15)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA15" s="15" t="e" cm="1">
+        <f t="array" ref="AA15">INDEX(G:G, MATCH(2, 1/(D:D=Y15)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB15" s="16" t="e" cm="1">
+        <f t="array" ref="AB15">INDEX(E:E, MATCH(2, 1/(D:D=Y15)))</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1728,8 +1878,30 @@
         <v>0</v>
       </c>
       <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z16" s="11" t="e" cm="1">
+        <f t="array" ref="Z16">INDEX(F:F, MATCH(2, 1/(D:D=Y16)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA16" s="11" t="e" cm="1">
+        <f t="array" ref="AA16">INDEX(G:G, MATCH(2, 1/(D:D=Y16)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB16" s="11" t="e" cm="1">
+        <f t="array" ref="AB16">INDEX(E:E, MATCH(2, 1/(D:D=Y16)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45406</v>
       </c>
@@ -1783,8 +1955,30 @@
         <v>0</v>
       </c>
       <c r="V17" s="4"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" s="14" t="e" cm="1">
+        <f t="array" ref="Z17">INDEX(F:F, MATCH(2, 1/(D:D=Y17)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA17" s="14" t="e" cm="1">
+        <f t="array" ref="AA17">INDEX(G:G, MATCH(2, 1/(D:D=Y17)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB17" s="14" t="e" cm="1">
+        <f t="array" ref="AB17">INDEX(E:E, MATCH(2, 1/(D:D=Y17)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45406</v>
       </c>
@@ -1839,7 +2033,7 @@
       </c>
       <c r="V18" s="4"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45407</v>
       </c>
@@ -1894,7 +2088,7 @@
       </c>
       <c r="V19" s="4"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45407</v>
       </c>
@@ -1949,7 +2143,7 @@
       </c>
       <c r="V20" s="4"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45408</v>
       </c>
@@ -2004,7 +2198,7 @@
       </c>
       <c r="V21" s="4"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45408</v>
       </c>
@@ -2059,7 +2253,7 @@
       </c>
       <c r="V22" s="4"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45408</v>
       </c>
@@ -2114,7 +2308,7 @@
       </c>
       <c r="V23" s="4"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45408</v>
       </c>
@@ -2169,7 +2363,7 @@
       </c>
       <c r="V24" s="4"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45409</v>
       </c>
@@ -2224,7 +2418,7 @@
       </c>
       <c r="V25" s="4"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45409</v>
       </c>
@@ -2279,7 +2473,7 @@
       </c>
       <c r="V26" s="4"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45409</v>
       </c>
@@ -2334,7 +2528,7 @@
       </c>
       <c r="V27" s="4"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45409</v>
       </c>
@@ -2389,7 +2583,7 @@
       </c>
       <c r="V28" s="4"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45410</v>
       </c>
@@ -2444,7 +2638,7 @@
       </c>
       <c r="V29" s="4"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45410</v>
       </c>
@@ -2499,7 +2693,7 @@
       </c>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45410</v>
       </c>
@@ -2554,7 +2748,7 @@
       </c>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>45410</v>
       </c>
@@ -3071,8 +3265,12 @@
       <c r="G41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="H41" s="4">
+        <v>3</v>
+      </c>
+      <c r="I41" s="4">
+        <v>3</v>
+      </c>
       <c r="J41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3086,15 +3284,17 @@
         <v>45414</v>
       </c>
       <c r="N41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
       <c r="Q41" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" s="4"/>
     </row>
@@ -3291,16 +3491,41 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="A46" s="3">
+        <v>45387</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" s="3">
+        <v>45415</v>
+      </c>
       <c r="N46" s="2">
         <v>0</v>
       </c>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E542BF3-7A75-4DD2-AF70-949C13AE4BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48600D7C-51B8-43A6-9027-A1979F759EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="65">
   <si>
     <t>NYI</t>
   </si>
@@ -308,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -344,8 +333,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,9 +356,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -409,7 +396,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -515,7 +502,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -657,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1051,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H51)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1143,7 +1130,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q51)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -1222,7 +1209,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -1534,7 +1521,7 @@
       </c>
       <c r="AB11" cm="1">
         <f t="array" ref="AB11">INDEX(E:E, MATCH(2, 1/(D:D=Y11)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -1594,17 +1581,17 @@
       <c r="Y12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Z12" s="1" t="e" cm="1">
+      <c r="Z12" s="1" t="str" cm="1">
         <f t="array" ref="Z12">INDEX(F:F, MATCH(2, 1/(D:D=Y12)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA12" s="1" t="e" cm="1">
+        <v>FLA</v>
+      </c>
+      <c r="AA12" s="1" t="str" cm="1">
         <f t="array" ref="AA12">INDEX(G:G, MATCH(2, 1/(D:D=Y12)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB12" t="e" cm="1">
+        <v>BOS</v>
+      </c>
+      <c r="AB12" cm="1">
         <f t="array" ref="AB12">INDEX(E:E, MATCH(2, 1/(D:D=Y12)))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -1811,15 +1798,15 @@
       <c r="Y15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Z15" s="15" t="e" cm="1">
+      <c r="Z15" s="1" t="e" cm="1">
         <f t="array" ref="Z15">INDEX(F:F, MATCH(2, 1/(D:D=Y15)))</f>
         <v>#N/A</v>
       </c>
-      <c r="AA15" s="15" t="e" cm="1">
+      <c r="AA15" s="1" t="e" cm="1">
         <f t="array" ref="AA15">INDEX(G:G, MATCH(2, 1/(D:D=Y15)))</f>
         <v>#N/A</v>
       </c>
-      <c r="AB15" s="16" t="e" cm="1">
+      <c r="AB15" t="e" cm="1">
         <f t="array" ref="AB15">INDEX(E:E, MATCH(2, 1/(D:D=Y15)))</f>
         <v>#N/A</v>
       </c>
@@ -3320,8 +3307,12 @@
       <c r="G42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="H42" s="4">
+        <v>4</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2</v>
+      </c>
       <c r="J42" s="2" t="s">
         <v>17</v>
       </c>
@@ -3335,12 +3326,14 @@
         <v>45414</v>
       </c>
       <c r="N42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="2">
         <v>0</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
       <c r="Q42" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3368,8 +3361,12 @@
       <c r="G43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="H43" s="4">
+        <v>3</v>
+      </c>
+      <c r="I43" s="4">
+        <v>3</v>
+      </c>
       <c r="J43" s="2" t="s">
         <v>19</v>
       </c>
@@ -3386,9 +3383,11 @@
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
       <c r="Q43" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3416,8 +3415,12 @@
       <c r="G44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="H44" s="4">
+        <v>4</v>
+      </c>
+      <c r="I44" s="4">
+        <v>3</v>
+      </c>
       <c r="J44" s="2" t="s">
         <v>2</v>
       </c>
@@ -3431,12 +3434,14 @@
         <v>45414</v>
       </c>
       <c r="N44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
       <c r="Q44" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3464,8 +3469,12 @@
       <c r="G45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="H45" s="4">
+        <v>4</v>
+      </c>
+      <c r="I45" s="4">
+        <v>3</v>
+      </c>
       <c r="J45" s="2" t="s">
         <v>18</v>
       </c>
@@ -3479,20 +3488,22 @@
         <v>45414</v>
       </c>
       <c r="N45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
       <c r="Q45" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>45387</v>
+        <v>45417</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>32</v>
@@ -3512,8 +3523,12 @@
       <c r="G46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
       <c r="J46" s="2" t="s">
         <v>1</v>
       </c>
@@ -3527,28 +3542,55 @@
         <v>45415</v>
       </c>
       <c r="N46" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O46" s="2">
-        <v>0</v>
-      </c>
-      <c r="P46" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
       <c r="Q46" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="A47" s="3">
+        <v>45418</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="3">
+        <v>45417</v>
+      </c>
       <c r="N47" s="2">
         <v>0</v>
       </c>
@@ -3562,16 +3604,41 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="A48" s="3">
+        <v>45419</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3">
+        <v>45417</v>
+      </c>
       <c r="N48" s="2">
         <v>0</v>
       </c>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48600D7C-51B8-43A6-9027-A1979F759EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F247149-B223-4115-B77B-1BEEA8E1174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="65">
   <si>
     <t>NYI</t>
   </si>
@@ -232,9 +232,6 @@
     <t>WR2C1C2</t>
   </si>
   <si>
-    <t>WR2A1A2</t>
-  </si>
-  <si>
     <t>ER3AM</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>SCF</t>
+  </si>
+  <si>
+    <t>WR2P1P2</t>
   </si>
 </sst>
 </file>
@@ -337,10 +337,399 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA50021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF92001C"/>
+      <color rgb="FFFF9900"/>
+      <color rgb="FFA50021"/>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
@@ -654,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,9 +1296,17 @@
         <f t="array" ref="AB3">INDEX(E:E, MATCH(2, 1/(D:D=Y3)))</f>
         <v>5</v>
       </c>
-      <c r="AC3" t="e">
-        <f>s</f>
-        <v>#NAME?</v>
+      <c r="AC3">
+        <f>SUMIFS(O2:O81,K2:K81,Z3,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z3,C2:C81,1)</f>
+        <v>20</v>
+      </c>
+      <c r="AD3">
+        <f>SUMIFS(O2:O81,K2:K81,AA3,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA3,C2:C81,1)</f>
+        <v>14</v>
+      </c>
+      <c r="AE3">
+        <f>SUMIFS(O2:O81,D2:D81,Y3)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -990,6 +1387,14 @@
         <f t="array" ref="AB4">INDEX(E:E, MATCH(2, 1/(D:D=Y4)))</f>
         <v>7</v>
       </c>
+      <c r="AC4">
+        <f>SUMIFS(O2:O81,K2:K81,Z4,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z4,C2:C81,1)</f>
+        <v>18</v>
+      </c>
+      <c r="AD4">
+        <f>SUMIFS(O2:O81,K2:K81,AA4,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA4,C2:C81,1)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1051,7 +1456,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H51)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1068,6 +1473,14 @@
       <c r="AB5" cm="1">
         <f t="array" ref="AB5">INDEX(E:E, MATCH(2, 1/(D:D=Y5)))</f>
         <v>5</v>
+      </c>
+      <c r="AC5">
+        <f>SUMIFS(O2:O81,K2:K81,Z5,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z5,C2:C81,1)</f>
+        <v>19</v>
+      </c>
+      <c r="AD5">
+        <f>SUMIFS(O2:O81,K2:K81,AA5,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA5,C2:C81,1)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -1148,6 +1561,14 @@
         <f t="array" ref="AB6">INDEX(E:E, MATCH(2, 1/(D:D=Y6)))</f>
         <v>4</v>
       </c>
+      <c r="AC6">
+        <f>SUMIFS(O2:O81,K2:K81,Z6,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z6,C2:C81,1)</f>
+        <v>15</v>
+      </c>
+      <c r="AD6">
+        <f>SUMIFS(O2:O81,K2:K81,AA6,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA6,C2:C81,1)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1209,7 +1630,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.6</v>
+        <v>0.58695652173913049</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -1226,6 +1647,14 @@
       <c r="AB7" cm="1">
         <f t="array" ref="AB7">INDEX(E:E, MATCH(2, 1/(D:D=Y7)))</f>
         <v>6</v>
+      </c>
+      <c r="AC7">
+        <f>SUMIFS(O2:O81,K2:K81,Z7,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z7,C2:C81,1)</f>
+        <v>13</v>
+      </c>
+      <c r="AD7">
+        <f>SUMIFS(O2:O81,K2:K81,AA7,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA7,C2:C81,1)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -1300,6 +1729,14 @@
         <f t="array" ref="AB8">INDEX(E:E, MATCH(2, 1/(D:D=Y8)))</f>
         <v>5</v>
       </c>
+      <c r="AC8">
+        <f>SUMIFS(O2:O81,K2:K81,Z8,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z8,C2:C81,1)</f>
+        <v>22</v>
+      </c>
+      <c r="AD8">
+        <f>SUMIFS(O2:O81,K2:K81,AA8,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA8,C2:C81,1)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1373,6 +1810,14 @@
         <f t="array" ref="AB9">INDEX(E:E, MATCH(2, 1/(D:D=Y9)))</f>
         <v>5</v>
       </c>
+      <c r="AC9">
+        <f>SUMIFS(O2:O81,K2:K81,Z9,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z9,C2:C81,1)</f>
+        <v>15</v>
+      </c>
+      <c r="AD9">
+        <f>SUMIFS(O2:O81,K2:K81,AA9,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA9,C2:C81,1)</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1446,8 +1891,14 @@
         <f t="array" ref="AB10">INDEX(E:E, MATCH(2, 1/(D:D=Y10)))</f>
         <v>7</v>
       </c>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
+      <c r="AC10" s="11">
+        <f>SUMIFS(O2:O81,K2:K81,Z10,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z10,C2:C81,1)</f>
+        <v>17</v>
+      </c>
+      <c r="AD10" s="11">
+        <f>SUMIFS(O2:O81,K2:K81,AA10,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA10,C2:C81,1)</f>
+        <v>16</v>
+      </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
@@ -1523,6 +1974,14 @@
         <f t="array" ref="AB11">INDEX(E:E, MATCH(2, 1/(D:D=Y11)))</f>
         <v>2</v>
       </c>
+      <c r="AC11">
+        <f>SUMIFS(O2:O81,K2:K81,Z11,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z11,C2:C81,2)</f>
+        <v>4</v>
+      </c>
+      <c r="AD11">
+        <f>SUMIFS(O2:O81,K2:K81,AA11,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA11,C2:C81,2)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1593,6 +2052,14 @@
         <f t="array" ref="AB12">INDEX(E:E, MATCH(2, 1/(D:D=Y12)))</f>
         <v>1</v>
       </c>
+      <c r="AC12">
+        <f>SUMIFS(O2:O81,K2:K81,Z12,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z12,C2:C81,2)</f>
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <f>SUMIFS(O2:O81,K2:K81,AA12,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA12,C2:C81,2)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1651,17 +2118,25 @@
       <c r="Y13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Z13" s="1" t="e" cm="1">
+      <c r="Z13" s="1" t="str" cm="1">
         <f t="array" ref="Z13">INDEX(F:F, MATCH(2, 1/(D:D=Y13)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA13" s="1" t="e" cm="1">
+        <v>DAL</v>
+      </c>
+      <c r="AA13" s="1" t="str" cm="1">
         <f t="array" ref="AA13">INDEX(G:G, MATCH(2, 1/(D:D=Y13)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB13" t="e" cm="1">
+        <v>COL</v>
+      </c>
+      <c r="AB13" cm="1">
         <f t="array" ref="AB13">INDEX(E:E, MATCH(2, 1/(D:D=Y13)))</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <f>SUMIFS(O2:O81,K2:K81,Z13,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z13,C2:C81,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f>SUMIFS(O2:O81,K2:K81,AA13,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA13,C2:C81,2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -1719,22 +2194,28 @@
       </c>
       <c r="V14" s="4"/>
       <c r="Y14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z14" s="10" t="e" cm="1">
+        <v>64</v>
+      </c>
+      <c r="Z14" s="10" t="str" cm="1">
         <f t="array" ref="Z14">INDEX(F:F, MATCH(2, 1/(D:D=Y14)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA14" s="10" t="e" cm="1">
+        <v>VAN</v>
+      </c>
+      <c r="AA14" s="10" t="str" cm="1">
         <f t="array" ref="AA14">INDEX(G:G, MATCH(2, 1/(D:D=Y14)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB14" s="11" t="e" cm="1">
+        <v>EDM</v>
+      </c>
+      <c r="AB14" s="11" cm="1">
         <f t="array" ref="AB14">INDEX(E:E, MATCH(2, 1/(D:D=Y14)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="11">
+        <f>SUMIFS(O2:O81,K2:K81,Z14,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z14,C2:C81,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="11">
+        <f>SUMIFS(O2:O81,K2:K81,AA14,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA14,C2:C81,2)</f>
+        <v>0</v>
+      </c>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
@@ -1796,7 +2277,7 @@
       </c>
       <c r="V15" s="4"/>
       <c r="Y15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z15" s="1" t="e" cm="1">
         <f t="array" ref="Z15">INDEX(F:F, MATCH(2, 1/(D:D=Y15)))</f>
@@ -1810,6 +2291,14 @@
         <f t="array" ref="AB15">INDEX(E:E, MATCH(2, 1/(D:D=Y15)))</f>
         <v>#N/A</v>
       </c>
+      <c r="AC15">
+        <f>SUMIFS(O2:O81,K2:K81,Z15,C2:C81,3) + SUMIFS(N2:N81,J2:J81,Z15,C2:C81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f>SUMIFS(O2:O81,K2:K81,AA15,C2:C81,3) + SUMIFS(N2:N81,J2:J81,AA15,C2:C81,3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1866,7 +2355,7 @@
       </c>
       <c r="V16" s="4"/>
       <c r="Y16" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z16" s="11" t="e" cm="1">
         <f t="array" ref="Z16">INDEX(F:F, MATCH(2, 1/(D:D=Y16)))</f>
@@ -1880,8 +2369,14 @@
         <f t="array" ref="AB16">INDEX(E:E, MATCH(2, 1/(D:D=Y16)))</f>
         <v>#N/A</v>
       </c>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
+      <c r="AC16" s="11">
+        <f>SUMIFS(O2:O81,K2:K81,Z16,C2:C81,3) + SUMIFS(N2:N81,J2:J81,Z16,C2:C81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="11">
+        <f>SUMIFS(O2:O81,K2:K81,AA15,C2:C81,3) + SUMIFS(N2:N81,J2:J81,AA15,C2:C81,3)</f>
+        <v>0</v>
+      </c>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
@@ -1943,7 +2438,7 @@
       </c>
       <c r="V17" s="4"/>
       <c r="Y17" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z17" s="14" t="e" cm="1">
         <f t="array" ref="Z17">INDEX(F:F, MATCH(2, 1/(D:D=Y17)))</f>
@@ -1957,8 +2452,14 @@
         <f t="array" ref="AB17">INDEX(E:E, MATCH(2, 1/(D:D=Y17)))</f>
         <v>#N/A</v>
       </c>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
+      <c r="AC17" s="14">
+        <f>SUMIFS(O2:O81,K2:K81,Z17,C2:C81,4) + SUMIFS(N2:N81,J2:J81,Z17,C2:C81,4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="14">
+        <f>SUMIFS(O2:O81,K2:K81,AA17,C2:C81,4) + SUMIFS(N2:N81,J2:J81,AA17,C2:C81,4)</f>
+        <v>0</v>
+      </c>
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
       <c r="AG17" s="14"/>
@@ -3577,8 +4078,12 @@
       <c r="G47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
       <c r="J47" s="2" t="s">
         <v>3</v>
       </c>
@@ -3592,12 +4097,14 @@
         <v>45417</v>
       </c>
       <c r="N47" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O47" s="2">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
       <c r="Q47" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3652,16 +4159,41 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="A49" s="3">
+        <v>45419</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49" s="3">
+        <v>45419</v>
+      </c>
       <c r="N49" s="2">
         <v>0</v>
       </c>
@@ -3675,16 +4207,41 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="A50" s="3">
+        <v>45420</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="4">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="3">
+        <v>45419</v>
+      </c>
       <c r="N50" s="2">
         <v>0</v>
       </c>
@@ -3722,7 +4279,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H55:H57 H1:I32 H34:I54">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -3734,7 +4291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I33">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -3746,7 +4303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3755,6 +4312,56 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F247149-B223-4115-B77B-1BEEA8E1174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E13D66-BBF6-4CBB-82E8-2EFC54CA81D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,19 +20,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -47,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="65">
   <si>
     <t>NYI</t>
   </si>
@@ -265,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -293,11 +304,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -333,16 +390,106 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="16">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
@@ -354,11 +501,95 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9900"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -382,163 +613,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA50021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -551,174 +626,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -745,9 +652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -785,7 +692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -891,7 +798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1033,7 +940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1041,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
-  <dimension ref="A1:AI51"/>
+  <dimension ref="A1:AI80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,55 +984,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1219,55 +1126,55 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="15">
         <v>45402</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15">
         <v>45402</v>
       </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="N3" s="16">
+        <v>1</v>
+      </c>
+      <c r="O3" s="16">
         <v>5</v>
       </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
+      <c r="P3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1571,55 +1478,55 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="15">
         <v>45403</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="15">
         <v>45403</v>
       </c>
-      <c r="N7" s="2">
-        <v>2</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="N7" s="16">
+        <v>2</v>
+      </c>
+      <c r="O7" s="16">
         <v>4</v>
       </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1906,55 +1813,55 @@
       <c r="AI10" s="11"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="15">
         <v>45404</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="15">
         <v>45403</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="16">
         <v>4</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="16">
         <v>7</v>
       </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1972,7 +1879,7 @@
       </c>
       <c r="AB11" cm="1">
         <f t="array" ref="AB11">INDEX(E:E, MATCH(2, 1/(D:D=Y11)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC11">
         <f>SUMIFS(O2:O81,K2:K81,Z11,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z11,C2:C81,2)</f>
@@ -2050,7 +1957,7 @@
       </c>
       <c r="AB12" cm="1">
         <f t="array" ref="AB12">INDEX(E:E, MATCH(2, 1/(D:D=Y12)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC12">
         <f>SUMIFS(O2:O81,K2:K81,Z12,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z12,C2:C81,2)</f>
@@ -2128,7 +2035,7 @@
       </c>
       <c r="AB13" cm="1">
         <f t="array" ref="AB13">INDEX(E:E, MATCH(2, 1/(D:D=Y13)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC13">
         <f>SUMIFS(O2:O81,K2:K81,Z13,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z13,C2:C81,2)</f>
@@ -2206,7 +2113,7 @@
       </c>
       <c r="AB14" s="11" cm="1">
         <f t="array" ref="AB14">INDEX(E:E, MATCH(2, 1/(D:D=Y14)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC14" s="11">
         <f>SUMIFS(O2:O81,K2:K81,Z14,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z14,C2:C81,2)</f>
@@ -2223,55 +2130,55 @@
       <c r="AI14" s="11"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="15">
         <v>45405</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="17">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="15">
         <v>45404</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="16">
         <v>4</v>
       </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
+      <c r="O15" s="16">
+        <v>1</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2467,55 +2374,55 @@
       <c r="AI17" s="14"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="15">
         <v>45406</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="17">
+        <v>2</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="H18" s="17">
+        <v>1</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="15">
         <v>45405</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="16">
         <v>5</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="16">
         <v>4</v>
       </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="P18" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2577,55 +2484,55 @@
       <c r="V19" s="4"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="15">
         <v>45407</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>3</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="E20" s="17">
+        <v>3</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <v>3</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="15">
         <v>45406</v>
       </c>
-      <c r="N20" s="2">
-        <v>3</v>
-      </c>
-      <c r="O20" s="2">
-        <v>2</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
+      <c r="N20" s="16">
+        <v>3</v>
+      </c>
+      <c r="O20" s="16">
+        <v>2</v>
+      </c>
+      <c r="P20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2797,55 +2704,55 @@
       <c r="V23" s="4"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="15">
         <v>45408</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="17">
+        <v>1</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="4">
-        <v>3</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="17">
+        <v>3</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="4">
-        <v>2</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="H24" s="17">
+        <v>2</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+      <c r="J24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="15">
         <v>45408</v>
       </c>
-      <c r="N24" s="2">
-        <v>2</v>
-      </c>
-      <c r="O24" s="2">
-        <v>1</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
+      <c r="N24" s="16">
+        <v>2</v>
+      </c>
+      <c r="O24" s="16">
+        <v>1</v>
+      </c>
+      <c r="P24" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3017,55 +2924,55 @@
       <c r="V27" s="4"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="15">
         <v>45409</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="4">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="17">
+        <v>3</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4">
-        <v>2</v>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="H28" s="17">
+        <v>1</v>
+      </c>
+      <c r="I28" s="17">
+        <v>2</v>
+      </c>
+      <c r="J28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="15">
         <v>45409</v>
       </c>
-      <c r="N28" s="2">
-        <v>3</v>
-      </c>
-      <c r="O28" s="2">
-        <v>2</v>
-      </c>
-      <c r="P28" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="2">
+      <c r="N28" s="16">
+        <v>3</v>
+      </c>
+      <c r="O28" s="16">
+        <v>2</v>
+      </c>
+      <c r="P28" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3237,55 +3144,55 @@
       <c r="V31" s="4"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="15">
         <v>45410</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="17">
         <v>4</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="4">
-        <v>3</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2" t="s">
+      <c r="H32" s="17">
+        <v>3</v>
+      </c>
+      <c r="I32" s="17">
+        <v>1</v>
+      </c>
+      <c r="J32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="15">
         <v>45410</v>
       </c>
-      <c r="N32" s="2">
-        <v>1</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
+      <c r="N32" s="16">
+        <v>1</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3347,55 +3254,55 @@
       <c r="V33" s="4"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="15">
         <v>45411</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="4">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="17">
+        <v>1</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="17">
         <v>4</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="4">
-        <v>2</v>
-      </c>
-      <c r="I34" s="4">
-        <v>2</v>
-      </c>
-      <c r="J34" s="2" t="s">
+      <c r="H34" s="17">
+        <v>2</v>
+      </c>
+      <c r="I34" s="17">
+        <v>2</v>
+      </c>
+      <c r="J34" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="15">
         <v>45411</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="16">
         <v>4</v>
       </c>
-      <c r="O34" s="2">
-        <v>2</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2">
+      <c r="O34" s="16">
+        <v>2</v>
+      </c>
+      <c r="P34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16">
         <f>IF($N34=$O34, 0, IF($J35=$L34, IF($N34&gt;$O34, 1, 0), IF($O34&gt;$N34, 1, 0)))</f>
         <v>0</v>
       </c>
@@ -3451,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35:Q51" si="1">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <f t="shared" ref="Q35:Q49" si="1">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>1</v>
       </c>
       <c r="V35" s="4"/>
@@ -3567,55 +3474,55 @@
       <c r="V37" s="4"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="15">
         <v>45412</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="17">
         <v>5</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="4">
-        <v>2</v>
-      </c>
-      <c r="I38" s="4">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
+      <c r="H38" s="17">
+        <v>2</v>
+      </c>
+      <c r="I38" s="17">
+        <v>3</v>
+      </c>
+      <c r="J38" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="15">
         <v>45411</v>
       </c>
-      <c r="N38" s="2">
-        <v>2</v>
-      </c>
-      <c r="O38" s="2">
-        <v>1</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
+      <c r="N38" s="16">
+        <v>2</v>
+      </c>
+      <c r="O38" s="16">
+        <v>1</v>
+      </c>
+      <c r="P38" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3677,110 +3584,110 @@
       <c r="V39" s="4"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="15">
         <v>45413</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="17">
+        <v>1</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="17">
         <v>5</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="17">
         <v>4</v>
       </c>
-      <c r="I40" s="4">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2" t="s">
+      <c r="I40" s="17">
+        <v>1</v>
+      </c>
+      <c r="J40" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="15">
         <v>45413</v>
       </c>
-      <c r="N40" s="2">
-        <v>3</v>
-      </c>
-      <c r="O40" s="2">
+      <c r="N40" s="16">
+        <v>3</v>
+      </c>
+      <c r="O40" s="16">
         <v>4</v>
       </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
+      <c r="P40" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V40" s="4"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="18">
         <v>45414</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="20">
+        <v>1</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="20">
         <v>6</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="4">
-        <v>3</v>
-      </c>
-      <c r="I41" s="4">
-        <v>3</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="F41" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="20">
+        <v>3</v>
+      </c>
+      <c r="I41" s="20">
+        <v>3</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" s="21">
         <v>45414</v>
       </c>
-      <c r="N41" s="2">
-        <v>1</v>
-      </c>
-      <c r="O41" s="2">
-        <v>2</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
+      <c r="N41" s="19">
+        <v>1</v>
+      </c>
+      <c r="O41" s="19">
+        <v>2</v>
+      </c>
+      <c r="P41" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3841,271 +3748,271 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="15">
         <v>45415</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="17">
+        <v>1</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="17">
         <v>6</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="4">
-        <v>3</v>
-      </c>
-      <c r="I43" s="4">
-        <v>3</v>
-      </c>
-      <c r="J43" s="2" t="s">
+      <c r="H43" s="17">
+        <v>3</v>
+      </c>
+      <c r="I43" s="17">
+        <v>3</v>
+      </c>
+      <c r="J43" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="15">
         <v>45414</v>
       </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>2</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
+      <c r="N43" s="16">
+        <v>0</v>
+      </c>
+      <c r="O43" s="16">
+        <v>2</v>
+      </c>
+      <c r="P43" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="21">
         <v>45416</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="4">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="20">
+        <v>1</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="20">
         <v>7</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="F44" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="20">
         <v>4</v>
       </c>
-      <c r="I44" s="4">
-        <v>3</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="I44" s="20">
+        <v>3</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="21">
         <v>45414</v>
       </c>
-      <c r="N44" s="2">
-        <v>1</v>
-      </c>
-      <c r="O44" s="2">
-        <v>2</v>
-      </c>
-      <c r="P44" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="2">
+      <c r="N44" s="19">
+        <v>1</v>
+      </c>
+      <c r="O44" s="19">
+        <v>2</v>
+      </c>
+      <c r="P44" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
         <v>45417</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="4">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="26">
+        <v>1</v>
+      </c>
+      <c r="D45" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="26">
         <v>7</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="26">
         <v>4</v>
       </c>
-      <c r="I45" s="4">
-        <v>3</v>
-      </c>
-      <c r="J45" s="2" t="s">
+      <c r="I45" s="26">
+        <v>3</v>
+      </c>
+      <c r="J45" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="24">
         <v>45414</v>
       </c>
-      <c r="N45" s="2">
-        <v>1</v>
-      </c>
-      <c r="O45" s="2">
-        <v>2</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
+      <c r="N45" s="25">
+        <v>1</v>
+      </c>
+      <c r="O45" s="25">
+        <v>2</v>
+      </c>
+      <c r="P45" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
         <v>45417</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="4">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="17">
+        <v>2</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="17">
+        <v>1</v>
+      </c>
+      <c r="F46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="G46" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17">
+        <v>1</v>
+      </c>
+      <c r="I46" s="17">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="15">
         <v>45415</v>
       </c>
-      <c r="N46" s="2">
-        <v>3</v>
-      </c>
-      <c r="O46" s="2">
+      <c r="N46" s="16">
+        <v>3</v>
+      </c>
+      <c r="O46" s="16">
         <v>4</v>
       </c>
-      <c r="P46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="2">
+      <c r="P46" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="21">
         <v>45418</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="4">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="20">
+        <v>2</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="20">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="G47" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="20">
+        <v>0</v>
+      </c>
+      <c r="I47" s="20">
+        <v>1</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="21">
         <v>45417</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="19">
         <v>5</v>
       </c>
-      <c r="O47" s="2">
-        <v>1</v>
-      </c>
-      <c r="P47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2">
+      <c r="O47" s="19">
+        <v>1</v>
+      </c>
+      <c r="P47" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4159,49 +4066,49 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="15">
         <v>45419</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="4">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" s="17">
+        <v>2</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="E49" s="17">
+        <v>1</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="2" t="s">
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="15">
         <v>45419</v>
       </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2">
+      <c r="N49" s="16">
+        <v>0</v>
+      </c>
+      <c r="O49" s="16">
+        <v>0</v>
+      </c>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4250,35 +4157,857 @@
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2">
-        <f t="shared" si="1"/>
+        <f>IF($N50=$O50, 0, IF($J50=$L50, IF($N50&gt;$O50, 1, 0), IF($O50&gt;$N50, 1, 0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A51" s="15">
+        <v>45420</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="17">
+        <v>2</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="15">
+        <v>45419</v>
+      </c>
+      <c r="N51" s="16">
+        <v>0</v>
+      </c>
+      <c r="O51" s="16">
+        <v>0</v>
+      </c>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16">
+        <f>IF($N51=$O51, 0, IF($J51=$L51, IF($N51&gt;$O51, 1, 0), IF($O51&gt;$N51, 1, 0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>45421</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2">
+        <f t="shared" ref="Q52:Q63" si="2">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>45421</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="17">
+        <v>2</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>45422</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>45422</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="17">
+        <v>2</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="17">
+        <v>2</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>45423</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="4">
+        <v>4</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>45423</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="17">
+        <v>2</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="17">
+        <v>3</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="4">
+        <v>4</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>45424</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="17">
+        <v>2</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="17">
+        <v>3</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>45425</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="4">
+        <v>5</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>45425</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="17">
+        <v>2</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="17">
+        <v>4</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>45426</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>45426</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="17">
+        <v>2</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="17">
+        <v>4</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H55:H57 H1:I32 H34:I54">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="2"/>
+        <cfvo type="formula" val="4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:I33">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4290,8 +5019,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:I33">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF3300"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:I62 H63">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -4302,64 +5041,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="H62:I62 H63">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF3300"/>
-        <color theme="9"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="2"/>
+        <cfvo type="formula" val="4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>"LAK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E13D66-BBF6-4CBB-82E8-2EFC54CA81D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B7D777-E904-472E-B5B0-FC517DA70555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,30 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -354,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -427,9 +416,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,9 +638,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -692,7 +678,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -798,7 +784,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -940,7 +926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:AI80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1349,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H51)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1537,7 +1523,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.58695652173913049</v>
+        <v>0.57446808510638303</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -1883,11 +1869,11 @@
       </c>
       <c r="AC11">
         <f>SUMIFS(O2:O81,K2:K81,Z11,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z11,C2:C81,2)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AD11">
         <f>SUMIFS(O2:O81,K2:K81,AA11,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA11,C2:C81,2)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -2039,11 +2025,11 @@
       </c>
       <c r="AC13">
         <f>SUMIFS(O2:O81,K2:K81,Z13,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z13,C2:C81,2)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD13">
         <f>SUMIFS(O2:O81,K2:K81,AA13,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA13,C2:C81,2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -4039,8 +4025,12 @@
       <c r="G48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="H48" s="4">
+        <v>2</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
       <c r="J48" s="2" t="s">
         <v>1</v>
       </c>
@@ -4054,12 +4044,14 @@
         <v>45417</v>
       </c>
       <c r="N48" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="P48" s="2">
+        <v>2</v>
+      </c>
       <c r="Q48" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4102,10 +4094,10 @@
         <v>45419</v>
       </c>
       <c r="N49" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O49" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P49" s="16"/>
       <c r="Q49" s="16">
@@ -4404,7 +4396,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
-      <c r="Q56" s="28">
+      <c r="Q56" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5019,17 +5011,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="H62:I62 H63">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF3300"/>
-        <color theme="9"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="2"/>
+        <cfvo type="formula" val="4"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62:I62 H63">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5041,15 +5033,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62:I62 H63">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="2"/>
-        <cfvo type="formula" val="4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF3300"/>
+        <color theme="9"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B7D777-E904-472E-B5B0-FC517DA70555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C3739-FA65-4F8A-8B3A-25430AA8DB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,19 +20,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -47,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="66">
   <si>
     <t>NYI</t>
   </si>
@@ -242,6 +253,9 @@
   </si>
   <si>
     <t>WR2P1P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -638,9 +652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -678,7 +692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -784,7 +798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -926,7 +940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -936,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:AI80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1363,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H51)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1436,7 +1450,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q51)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -1523,7 +1537,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.57446808510638303</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2029,7 +2043,7 @@
       </c>
       <c r="AD13">
         <f>SUMIFS(O2:O81,K2:K81,AA13,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA13,C2:C81,2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -4079,8 +4093,12 @@
       <c r="G49" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
+      <c r="H49" s="17">
+        <v>0</v>
+      </c>
+      <c r="I49" s="17">
+        <v>1</v>
+      </c>
       <c r="J49" s="16" t="s">
         <v>14</v>
       </c>
@@ -4094,15 +4112,17 @@
         <v>45419</v>
       </c>
       <c r="N49" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O49" s="16">
         <v>3</v>
       </c>
-      <c r="P49" s="16"/>
+      <c r="P49" s="16">
+        <v>1</v>
+      </c>
       <c r="Q49" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -4717,7 +4737,9 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C3739-FA65-4F8A-8B3A-25430AA8DB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B71D55-9A40-49BA-AC4F-66BAB47A8417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,30 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="66">
   <si>
     <t>NYI</t>
   </si>
@@ -652,9 +641,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -692,7 +681,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -798,7 +787,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -940,7 +929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:AI80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1352,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H51)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1450,7 +1439,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q51)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -1537,7 +1526,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.58333333333333337</v>
+        <v>0.6</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -1961,11 +1950,11 @@
       </c>
       <c r="AC12">
         <f>SUMIFS(O2:O81,K2:K81,Z12,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z12,C2:C81,2)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD12">
         <f>SUMIFS(O2:O81,K2:K81,AA12,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA12,C2:C81,2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -2117,11 +2106,11 @@
       </c>
       <c r="AC14" s="11">
         <f>SUMIFS(O2:O81,K2:K81,Z14,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z14,C2:C81,2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD14" s="11">
         <f>SUMIFS(O2:O81,K2:K81,AA14,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA14,C2:C81,2)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
@@ -4147,8 +4136,12 @@
       <c r="G50" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
       <c r="J50" s="2" t="s">
         <v>21</v>
       </c>
@@ -4162,15 +4155,17 @@
         <v>45419</v>
       </c>
       <c r="N50" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O50" s="2">
-        <v>0</v>
-      </c>
-      <c r="P50" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
       <c r="Q50" s="2">
         <f>IF($N50=$O50, 0, IF($J50=$L50, IF($N50&gt;$O50, 1, 0), IF($O50&gt;$N50, 1, 0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -4195,8 +4190,12 @@
       <c r="G51" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="H51" s="17">
+        <v>1</v>
+      </c>
+      <c r="I51" s="17">
+        <v>1</v>
+      </c>
       <c r="J51" s="16" t="s">
         <v>3</v>
       </c>
@@ -4210,15 +4209,17 @@
         <v>45419</v>
       </c>
       <c r="N51" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="16">
-        <v>0</v>
-      </c>
-      <c r="P51" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="P51" s="16">
+        <v>0</v>
+      </c>
       <c r="Q51" s="16">
         <f>IF($N51=$O51, 0, IF($J51=$L51, IF($N51&gt;$O51, 1, 0), IF($O51&gt;$N51, 1, 0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -4251,8 +4252,12 @@
       <c r="K52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="L52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="3">
+        <v>45421</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -4291,8 +4296,12 @@
       <c r="K53" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
+      <c r="L53" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="15">
+        <v>45421</v>
+      </c>
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B71D55-9A40-49BA-AC4F-66BAB47A8417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8C8B8E-3508-4D21-870D-646D1E0A3BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="68">
   <si>
     <t>NYI</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Guessed Right</t>
+  </si>
+  <si>
+    <t>Pct Right</t>
   </si>
 </sst>
 </file>
@@ -346,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -421,11 +427,208 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -937,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
-  <dimension ref="A1:AI80"/>
+  <dimension ref="A1:AK80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,14 +1168,15 @@
     <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="11.42578125" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -1025,7 +1229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45402</v>
       </c>
@@ -1093,28 +1297,34 @@
         <v>48</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>45402</v>
       </c>
@@ -1193,19 +1403,27 @@
         <v>5</v>
       </c>
       <c r="AC3">
+        <f>SUMIFS(Q2:Q81,D2:D81,Y3)</f>
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <f>AC3/AB3</f>
+        <v>0.6</v>
+      </c>
+      <c r="AE3">
         <f>SUMIFS(O2:O81,K2:K81,Z3,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z3,C2:C81,1)</f>
         <v>20</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <f>SUMIFS(O2:O81,K2:K81,AA3,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA3,C2:C81,1)</f>
         <v>14</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <f>SUMIFS(O2:O81,D2:D81,Y3)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45403</v>
       </c>
@@ -1284,15 +1502,23 @@
         <v>7</v>
       </c>
       <c r="AC4">
+        <f>SUMIFS(Q3:Q82,D3:D82,Y4)</f>
+        <v>4</v>
+      </c>
+      <c r="AD4">
+        <f>AC4/AB4</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AE4">
         <f>SUMIFS(O2:O81,K2:K81,Z4,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z4,C2:C81,1)</f>
         <v>18</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <f>SUMIFS(O2:O81,K2:K81,AA4,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA4,C2:C81,1)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45403</v>
       </c>
@@ -1351,8 +1577,8 @@
       <c r="U5" s="2"/>
       <c r="V5" s="4"/>
       <c r="W5" s="6">
-        <f>COUNTA(H2:H51)</f>
-        <v>50</v>
+        <f>COUNTA(H2:H81)</f>
+        <v>52</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1371,15 +1597,23 @@
         <v>5</v>
       </c>
       <c r="AC5">
+        <f>SUMIFS(Q4:Q83,D4:D83,Y5)</f>
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <f>AC5/AB5</f>
+        <v>0.4</v>
+      </c>
+      <c r="AE5">
         <f>SUMIFS(O2:O81,K2:K81,Z5,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z5,C2:C81,1)</f>
         <v>19</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <f>SUMIFS(O2:O81,K2:K81,AA5,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA5,C2:C81,1)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45403</v>
       </c>
@@ -1438,8 +1672,8 @@
       <c r="U6" s="2"/>
       <c r="V6" s="4"/>
       <c r="W6" s="6">
-        <f>SUM(Q2:Q51)</f>
-        <v>30</v>
+        <f>SUM(Q2:Q81)</f>
+        <v>31</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -1458,15 +1692,23 @@
         <v>4</v>
       </c>
       <c r="AC6">
+        <f>SUMIFS(Q5:Q84,D5:D84,Y6)</f>
+        <v>3</v>
+      </c>
+      <c r="AD6">
+        <f>AC6/AB6</f>
+        <v>0.75</v>
+      </c>
+      <c r="AE6">
         <f>SUMIFS(O2:O81,K2:K81,Z6,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z6,C2:C81,1)</f>
         <v>15</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <f>SUMIFS(O2:O81,K2:K81,AA6,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA6,C2:C81,1)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>45403</v>
       </c>
@@ -1526,7 +1768,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.6</v>
+        <v>0.59615384615384615</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -1545,15 +1787,23 @@
         <v>6</v>
       </c>
       <c r="AC7">
+        <f>SUMIFS(Q6:Q85,D6:D85,Y7)</f>
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <f>AC7/AB7</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AE7">
         <f>SUMIFS(O2:O81,K2:K81,Z7,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z7,C2:C81,1)</f>
         <v>13</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <f>SUMIFS(O2:O81,K2:K81,AA7,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA7,C2:C81,1)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45404</v>
       </c>
@@ -1626,15 +1876,23 @@
         <v>5</v>
       </c>
       <c r="AC8">
+        <f>SUMIFS(Q7:Q86,D7:D86,Y8)</f>
+        <v>4</v>
+      </c>
+      <c r="AD8">
+        <f>AC8/AB8</f>
+        <v>0.8</v>
+      </c>
+      <c r="AE8">
         <f>SUMIFS(O2:O81,K2:K81,Z8,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z8,C2:C81,1)</f>
         <v>22</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <f>SUMIFS(O2:O81,K2:K81,AA8,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA8,C2:C81,1)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45404</v>
       </c>
@@ -1707,15 +1965,23 @@
         <v>5</v>
       </c>
       <c r="AC9">
+        <f>SUMIFS(Q8:Q87,D8:D87,Y9)</f>
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <f>AC9/AB9</f>
+        <v>0.6</v>
+      </c>
+      <c r="AE9">
         <f>SUMIFS(O2:O81,K2:K81,Z9,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z9,C2:C81,1)</f>
         <v>15</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <f>SUMIFS(O2:O81,K2:K81,AA9,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA9,C2:C81,1)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45404</v>
       </c>
@@ -1788,20 +2054,28 @@
         <v>7</v>
       </c>
       <c r="AC10" s="11">
+        <f>SUMIFS(Q9:Q88,D9:D88,Y10)</f>
+        <v>4</v>
+      </c>
+      <c r="AD10" s="11">
+        <f>AC10/AB10</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AE10" s="11">
         <f>SUMIFS(O2:O81,K2:K81,Z10,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z10,C2:C81,1)</f>
         <v>17</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AF10" s="11">
         <f>SUMIFS(O2:O81,K2:K81,AA10,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA10,C2:C81,1)</f>
         <v>16</v>
       </c>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>45404</v>
       </c>
@@ -1871,15 +2145,23 @@
         <v>5</v>
       </c>
       <c r="AC11">
+        <f>SUMIFS(Q10:Q89,D10:D89,Y11)</f>
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <f>AC11/AB11</f>
+        <v>0.2</v>
+      </c>
+      <c r="AE11">
         <f>SUMIFS(O2:O81,K2:K81,Z11,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z11,C2:C81,2)</f>
+        <v>10</v>
+      </c>
+      <c r="AF11">
+        <f>SUMIFS(O2:O81,K2:K81,AA11,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA11,C2:C81,2)</f>
         <v>8</v>
       </c>
-      <c r="AD11">
-        <f>SUMIFS(O2:O81,K2:K81,AA11,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA11,C2:C81,2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45405</v>
       </c>
@@ -1949,15 +2231,23 @@
         <v>5</v>
       </c>
       <c r="AC12">
+        <f>SUMIFS(Q11:Q90,D11:D90,Y12)</f>
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <f>AC12/AB12</f>
+        <v>0.2</v>
+      </c>
+      <c r="AE12">
         <f>SUMIFS(O2:O81,K2:K81,Z12,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z12,C2:C81,2)</f>
         <v>7</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <f>SUMIFS(O2:O81,K2:K81,AA12,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA12,C2:C81,2)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45405</v>
       </c>
@@ -2027,15 +2317,23 @@
         <v>4</v>
       </c>
       <c r="AC13">
+        <f>SUMIFS(Q12:Q91,D12:D91,Y13)</f>
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <f>AC13/AB13</f>
+        <v>0.5</v>
+      </c>
+      <c r="AE13">
         <f>SUMIFS(O2:O81,K2:K81,Z13,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z13,C2:C81,2)</f>
-        <v>3</v>
-      </c>
-      <c r="AD13">
+        <v>8</v>
+      </c>
+      <c r="AF13">
         <f>SUMIFS(O2:O81,K2:K81,AA13,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA13,C2:C81,2)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45405</v>
       </c>
@@ -2105,20 +2403,28 @@
         <v>4</v>
       </c>
       <c r="AC14" s="11">
+        <f>SUMIFS(Q13:Q92,D13:D92,Y14)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="11">
+        <f>AC14/AB14</f>
+        <v>0.25</v>
+      </c>
+      <c r="AE14" s="11">
         <f>SUMIFS(O2:O81,K2:K81,Z14,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z14,C2:C81,2)</f>
         <v>5</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AF14" s="11">
         <f>SUMIFS(O2:O81,K2:K81,AA14,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA14,C2:C81,2)</f>
         <v>4</v>
       </c>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
       <c r="AI14" s="11"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>45405</v>
       </c>
@@ -2188,15 +2494,23 @@
         <v>#N/A</v>
       </c>
       <c r="AC15">
+        <f>SUMIFS(Q14:Q93,D14:D93,Y15)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" t="e">
+        <f>AC15/AB15</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE15">
         <f>SUMIFS(O2:O81,K2:K81,Z15,C2:C81,3) + SUMIFS(N2:N81,J2:J81,Z15,C2:C81,3)</f>
         <v>0</v>
       </c>
-      <c r="AD15">
+      <c r="AF15">
         <f>SUMIFS(O2:O81,K2:K81,AA15,C2:C81,3) + SUMIFS(N2:N81,J2:J81,AA15,C2:C81,3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45406</v>
       </c>
@@ -2266,20 +2580,28 @@
         <v>#N/A</v>
       </c>
       <c r="AC16" s="11">
+        <f>SUMIFS(Q15:Q94,D15:D94,Y16)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="11" t="e">
+        <f>AC16/AB16</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE16" s="11">
         <f>SUMIFS(O2:O81,K2:K81,Z16,C2:C81,3) + SUMIFS(N2:N81,J2:J81,Z16,C2:C81,3)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="11">
+      <c r="AF16" s="11">
         <f>SUMIFS(O2:O81,K2:K81,AA15,C2:C81,3) + SUMIFS(N2:N81,J2:J81,AA15,C2:C81,3)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45406</v>
       </c>
@@ -2348,21 +2670,29 @@
         <f t="array" ref="AB17">INDEX(E:E, MATCH(2, 1/(D:D=Y17)))</f>
         <v>#N/A</v>
       </c>
-      <c r="AC17" s="14">
+      <c r="AC17" s="29">
+        <f>SUMIFS(Q16:Q95,D16:D95,Y17)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="30" t="e">
+        <f>AC17/AB17</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE17" s="14">
         <f>SUMIFS(O2:O81,K2:K81,Z17,C2:C81,4) + SUMIFS(N2:N81,J2:J81,Z17,C2:C81,4)</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="14">
+      <c r="AF17" s="14">
         <f>SUMIFS(O2:O81,K2:K81,AA17,C2:C81,4) + SUMIFS(N2:N81,J2:J81,AA17,C2:C81,4)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
       <c r="AG17" s="14"/>
       <c r="AH17" s="14"/>
       <c r="AI17" s="14"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>45406</v>
       </c>
@@ -2417,7 +2747,7 @@
       </c>
       <c r="V18" s="4"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45407</v>
       </c>
@@ -2472,7 +2802,7 @@
       </c>
       <c r="V19" s="4"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>45407</v>
       </c>
@@ -2527,7 +2857,7 @@
       </c>
       <c r="V20" s="4"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45408</v>
       </c>
@@ -2582,7 +2912,7 @@
       </c>
       <c r="V21" s="4"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45408</v>
       </c>
@@ -2637,7 +2967,7 @@
       </c>
       <c r="V22" s="4"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45408</v>
       </c>
@@ -2692,7 +3022,7 @@
       </c>
       <c r="V23" s="4"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>45408</v>
       </c>
@@ -2747,7 +3077,7 @@
       </c>
       <c r="V24" s="4"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45409</v>
       </c>
@@ -2802,7 +3132,7 @@
       </c>
       <c r="V25" s="4"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45409</v>
       </c>
@@ -2857,7 +3187,7 @@
       </c>
       <c r="V26" s="4"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45409</v>
       </c>
@@ -2912,7 +3242,7 @@
       </c>
       <c r="V27" s="4"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>45409</v>
       </c>
@@ -2967,7 +3297,7 @@
       </c>
       <c r="V28" s="4"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45410</v>
       </c>
@@ -3022,7 +3352,7 @@
       </c>
       <c r="V29" s="4"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45410</v>
       </c>
@@ -3077,7 +3407,7 @@
       </c>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45410</v>
       </c>
@@ -3132,7 +3462,7 @@
       </c>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>45410</v>
       </c>
@@ -4244,8 +4574,12 @@
       <c r="G52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="H52" s="4">
+        <v>3</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
       <c r="J52" s="2" t="s">
         <v>13</v>
       </c>
@@ -4258,9 +4592,15 @@
       <c r="M52" s="3">
         <v>45421</v>
       </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
+      <c r="N52" s="2">
+        <v>2</v>
+      </c>
+      <c r="O52" s="2">
+        <v>2</v>
+      </c>
+      <c r="P52" s="2">
+        <v>1</v>
+      </c>
       <c r="Q52" s="2">
         <f t="shared" ref="Q52:Q63" si="2">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
         <v>0</v>
@@ -4288,8 +4628,12 @@
       <c r="G53" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
+      <c r="H53" s="17">
+        <v>1</v>
+      </c>
+      <c r="I53" s="17">
+        <v>1</v>
+      </c>
       <c r="J53" s="16" t="s">
         <v>14</v>
       </c>
@@ -4302,12 +4646,18 @@
       <c r="M53" s="15">
         <v>45421</v>
       </c>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
+      <c r="N53" s="16">
+        <v>3</v>
+      </c>
+      <c r="O53" s="16">
+        <v>5</v>
+      </c>
+      <c r="P53" s="16">
+        <v>0</v>
+      </c>
       <c r="Q53" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -4340,8 +4690,12 @@
       <c r="K54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" s="3">
+        <v>45422</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -4380,8 +4734,12 @@
       <c r="K55" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
+      <c r="L55" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="15">
+        <v>45422</v>
+      </c>
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
@@ -4420,8 +4778,12 @@
       <c r="K56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+      <c r="L56" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M56" s="3">
+        <v>45422</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -4460,8 +4822,12 @@
       <c r="K57" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
+      <c r="L57" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="15">
+        <v>45422</v>
+      </c>
       <c r="N57" s="16"/>
       <c r="O57" s="16"/>
       <c r="P57" s="16"/>
@@ -4500,7 +4866,7 @@
       <c r="K58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="2"/>
+      <c r="L58" s="28"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -4580,7 +4946,7 @@
       <c r="K60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L60" s="2"/>
+      <c r="L60" s="28"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -4660,7 +5026,7 @@
       <c r="K62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="2"/>
+      <c r="L62" s="28"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -4969,57 +5335,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H57 H1:I32 H34:I54">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -5031,7 +5397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I33">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -5043,7 +5409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:I62 H63">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -5053,7 +5419,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -5065,7 +5431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5074,6 +5440,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AD3:AD17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8C8B8E-3508-4D21-870D-646D1E0A3BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D7D82D-ECB7-4BDF-96C4-AA69CC08788E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="68">
   <si>
     <t>NYI</t>
   </si>
@@ -244,13 +244,13 @@
     <t>WR2P1P2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Guessed Right</t>
   </si>
   <si>
     <t>Pct Right</t>
+  </si>
+  <si>
+    <t>Games Played</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -427,208 +427,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <b/>
@@ -1140,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
-  <dimension ref="A1:AK80"/>
+  <dimension ref="A1:AK78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +988,8 @@
     <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="11.42578125" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" customWidth="1"/>
     <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1297,10 +1118,10 @@
         <v>48</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>51</v>
@@ -1403,23 +1224,23 @@
         <v>5</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(Q2:Q81,D2:D81,Y3)</f>
+        <f>SUMIFS(Q2:Q79,D2:D79,Y3)</f>
         <v>3</v>
       </c>
       <c r="AD3">
-        <f>AC3/AB3</f>
+        <f t="shared" ref="AD3:AD17" si="1">AC3/AB3</f>
         <v>0.6</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(O2:O81,K2:K81,Z3,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z3,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z3,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z3,C2:C79,1)</f>
         <v>20</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(O2:O81,K2:K81,AA3,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA3,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,AA3,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA3,C2:C79,1)</f>
         <v>14</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS(O2:O81,D2:D81,Y3)</f>
+        <f>SUMIFS(O2:O79,D2:D79,Y3)</f>
         <v>21</v>
       </c>
     </row>
@@ -1502,19 +1323,19 @@
         <v>7</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(Q3:Q82,D3:D82,Y4)</f>
+        <f>SUMIFS(Q3:Q80,D3:D80,Y4)</f>
         <v>4</v>
       </c>
       <c r="AD4">
-        <f>AC4/AB4</f>
+        <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(O2:O81,K2:K81,Z4,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z4,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z4,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z4,C2:C79,1)</f>
         <v>18</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(O2:O81,K2:K81,AA4,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA4,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,AA4,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA4,C2:C79,1)</f>
         <v>12</v>
       </c>
     </row>
@@ -1577,8 +1398,8 @@
       <c r="U5" s="2"/>
       <c r="V5" s="4"/>
       <c r="W5" s="6">
-        <f>COUNTA(H2:H81)</f>
-        <v>52</v>
+        <f>COUNTA(H2:H79)</f>
+        <v>58</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1597,19 +1418,19 @@
         <v>5</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(Q4:Q83,D4:D83,Y5)</f>
+        <f>SUMIFS(Q4:Q81,D4:D81,Y5)</f>
         <v>2</v>
       </c>
       <c r="AD5">
-        <f>AC5/AB5</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(O2:O81,K2:K81,Z5,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z5,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z5,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z5,C2:C79,1)</f>
         <v>19</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(O2:O81,K2:K81,AA5,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA5,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,AA5,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA5,C2:C79,1)</f>
         <v>12</v>
       </c>
     </row>
@@ -1672,8 +1493,8 @@
       <c r="U6" s="2"/>
       <c r="V6" s="4"/>
       <c r="W6" s="6">
-        <f>SUM(Q2:Q81)</f>
-        <v>31</v>
+        <f>SUM(Q2:Q79)</f>
+        <v>35</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -1692,19 +1513,19 @@
         <v>4</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(Q5:Q84,D5:D84,Y6)</f>
+        <f>SUMIFS(Q5:Q82,D5:D82,Y6)</f>
         <v>3</v>
       </c>
       <c r="AD6">
-        <f>AC6/AB6</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(O2:O81,K2:K81,Z6,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z6,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z6,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z6,C2:C79,1)</f>
         <v>15</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(O2:O81,K2:K81,AA6,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA6,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,AA6,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA6,C2:C79,1)</f>
         <v>7</v>
       </c>
     </row>
@@ -1768,7 +1589,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.59615384615384615</v>
+        <v>0.60344827586206895</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -1787,19 +1608,19 @@
         <v>6</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(Q6:Q85,D6:D85,Y7)</f>
+        <f>SUMIFS(Q6:Q83,D6:D83,Y7)</f>
         <v>1</v>
       </c>
       <c r="AD7">
-        <f>AC7/AB7</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(O2:O81,K2:K81,Z7,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z7,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z7,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z7,C2:C79,1)</f>
         <v>13</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(O2:O81,K2:K81,AA7,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA7,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,AA7,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA7,C2:C79,1)</f>
         <v>12</v>
       </c>
     </row>
@@ -1876,19 +1697,19 @@
         <v>5</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(Q7:Q86,D7:D86,Y8)</f>
+        <f>SUMIFS(Q7:Q84,D7:D84,Y8)</f>
         <v>4</v>
       </c>
       <c r="AD8">
-        <f>AC8/AB8</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(O2:O81,K2:K81,Z8,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z8,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z8,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z8,C2:C79,1)</f>
         <v>22</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(O2:O81,K2:K81,AA8,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA8,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,AA8,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA8,C2:C79,1)</f>
         <v>13</v>
       </c>
     </row>
@@ -1965,19 +1786,19 @@
         <v>5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(Q8:Q87,D8:D87,Y9)</f>
+        <f>SUMIFS(Q8:Q85,D8:D85,Y9)</f>
         <v>3</v>
       </c>
       <c r="AD9">
-        <f>AC9/AB9</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(O2:O81,K2:K81,Z9,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z9,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z9,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z9,C2:C79,1)</f>
         <v>15</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(O2:O81,K2:K81,AA9,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA9,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,AA9,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA9,C2:C79,1)</f>
         <v>28</v>
       </c>
     </row>
@@ -2054,19 +1875,19 @@
         <v>7</v>
       </c>
       <c r="AC10" s="11">
-        <f>SUMIFS(Q9:Q88,D9:D88,Y10)</f>
+        <f>SUMIFS(Q9:Q86,D9:D86,Y10)</f>
         <v>4</v>
       </c>
       <c r="AD10" s="11">
-        <f>AC10/AB10</f>
+        <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="AE10" s="11">
-        <f>SUMIFS(O2:O81,K2:K81,Z10,C2:C81,1) + SUMIFS(N2:N81,J2:J81,Z10,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z10,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z10,C2:C79,1)</f>
         <v>17</v>
       </c>
       <c r="AF10" s="11">
-        <f>SUMIFS(O2:O81,K2:K81,AA10,C2:C81,1) + SUMIFS(N2:N81,J2:J81,AA10,C2:C81,1)</f>
+        <f>SUMIFS(O2:O79,K2:K79,AA10,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA10,C2:C79,1)</f>
         <v>16</v>
       </c>
       <c r="AG10" s="11"/>
@@ -2145,20 +1966,20 @@
         <v>5</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(Q10:Q89,D10:D89,Y11)</f>
-        <v>1</v>
+        <f>SUMIFS(Q10:Q87,D10:D87,Y11)</f>
+        <v>2</v>
       </c>
       <c r="AD11">
-        <f>AC11/AB11</f>
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(O2:O81,K2:K81,Z11,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z11,C2:C81,2)</f>
-        <v>10</v>
+        <f>SUMIFS(O2:O79,K2:K79,Z11,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z11,C2:C79,2)</f>
+        <v>14</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(O2:O81,K2:K81,AA11,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA11,C2:C81,2)</f>
-        <v>8</v>
+        <f>SUMIFS(O2:O79,K2:K79,AA11,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA11,C2:C79,2)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -2231,20 +2052,20 @@
         <v>5</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(Q11:Q90,D11:D90,Y12)</f>
-        <v>1</v>
+        <f>SUMIFS(Q11:Q88,D11:D88,Y12)</f>
+        <v>2</v>
       </c>
       <c r="AD12">
-        <f>AC12/AB12</f>
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(O2:O81,K2:K81,Z12,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z12,C2:C81,2)</f>
-        <v>7</v>
+        <f>SUMIFS(O2:O79,K2:K79,Z12,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z12,C2:C79,2)</f>
+        <v>16</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(O2:O81,K2:K81,AA12,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA12,C2:C81,2)</f>
-        <v>6</v>
+        <f>SUMIFS(O2:O79,K2:K79,AA12,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA12,C2:C79,2)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -2314,23 +2135,23 @@
       </c>
       <c r="AB13" cm="1">
         <f t="array" ref="AB13">INDEX(E:E, MATCH(2, 1/(D:D=Y13)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC13">
-        <f>SUMIFS(Q12:Q91,D12:D91,Y13)</f>
+        <f>SUMIFS(Q12:Q89,D12:D89,Y13)</f>
         <v>2</v>
       </c>
       <c r="AD13">
-        <f>AC13/AB13</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="AE13">
-        <f>SUMIFS(O2:O81,K2:K81,Z13,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z13,C2:C81,2)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z13,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z13,C2:C79,2)</f>
+        <v>12</v>
+      </c>
+      <c r="AF13">
+        <f>SUMIFS(O2:O79,K2:K79,AA13,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA13,C2:C79,2)</f>
         <v>8</v>
-      </c>
-      <c r="AF13">
-        <f>SUMIFS(O2:O81,K2:K81,AA13,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA13,C2:C81,2)</f>
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -2400,23 +2221,23 @@
       </c>
       <c r="AB14" s="11" cm="1">
         <f t="array" ref="AB14">INDEX(E:E, MATCH(2, 1/(D:D=Y14)))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC14" s="11">
-        <f>SUMIFS(Q13:Q92,D13:D92,Y14)</f>
-        <v>1</v>
+        <f>SUMIFS(Q13:Q90,D13:D90,Y14)</f>
+        <v>3</v>
       </c>
       <c r="AD14" s="11">
-        <f>AC14/AB14</f>
-        <v>0.25</v>
+        <f t="shared" si="1"/>
+        <v>0.6</v>
       </c>
       <c r="AE14" s="11">
-        <f>SUMIFS(O2:O81,K2:K81,Z14,C2:C81,2) + SUMIFS(N2:N81,J2:J81,Z14,C2:C81,2)</f>
-        <v>5</v>
+        <f>SUMIFS(O2:O79,K2:K79,Z14,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z14,C2:C79,2)</f>
+        <v>12</v>
       </c>
       <c r="AF14" s="11">
-        <f>SUMIFS(O2:O81,K2:K81,AA14,C2:C81,2) + SUMIFS(N2:N81,J2:J81,AA14,C2:C81,2)</f>
-        <v>4</v>
+        <f>SUMIFS(O2:O79,K2:K79,AA14,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA14,C2:C79,2)</f>
+        <v>11</v>
       </c>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
@@ -2494,19 +2315,19 @@
         <v>#N/A</v>
       </c>
       <c r="AC15">
-        <f>SUMIFS(Q14:Q93,D14:D93,Y15)</f>
+        <f>SUMIFS(Q14:Q91,D14:D91,Y15)</f>
         <v>0</v>
       </c>
       <c r="AD15" t="e">
-        <f>AC15/AB15</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="AE15">
-        <f>SUMIFS(O2:O81,K2:K81,Z15,C2:C81,3) + SUMIFS(N2:N81,J2:J81,Z15,C2:C81,3)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z15,C2:C79,3) + SUMIFS(N2:N79,J2:J79,Z15,C2:C79,3)</f>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f>SUMIFS(O2:O81,K2:K81,AA15,C2:C81,3) + SUMIFS(N2:N81,J2:J81,AA15,C2:C81,3)</f>
+        <f>SUMIFS(O2:O79,K2:K79,AA15,C2:C79,3) + SUMIFS(N2:N79,J2:J79,AA15,C2:C79,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -2580,19 +2401,19 @@
         <v>#N/A</v>
       </c>
       <c r="AC16" s="11">
-        <f>SUMIFS(Q15:Q94,D15:D94,Y16)</f>
+        <f>SUMIFS(Q15:Q92,D15:D92,Y16)</f>
         <v>0</v>
       </c>
       <c r="AD16" s="11" t="e">
-        <f>AC16/AB16</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="AE16" s="11">
-        <f>SUMIFS(O2:O81,K2:K81,Z16,C2:C81,3) + SUMIFS(N2:N81,J2:J81,Z16,C2:C81,3)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z16,C2:C79,3) + SUMIFS(N2:N79,J2:J79,Z16,C2:C79,3)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="11">
-        <f>SUMIFS(O2:O81,K2:K81,AA15,C2:C81,3) + SUMIFS(N2:N81,J2:J81,AA15,C2:C81,3)</f>
+        <f>SUMIFS(O2:O79,K2:K79,AA15,C2:C79,3) + SUMIFS(N2:N79,J2:J79,AA15,C2:C79,3)</f>
         <v>0</v>
       </c>
       <c r="AG16" s="11"/>
@@ -2670,20 +2491,20 @@
         <f t="array" ref="AB17">INDEX(E:E, MATCH(2, 1/(D:D=Y17)))</f>
         <v>#N/A</v>
       </c>
-      <c r="AC17" s="29">
-        <f>SUMIFS(Q16:Q95,D16:D95,Y17)</f>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="30" t="e">
-        <f>AC17/AB17</f>
+      <c r="AC17" s="28">
+        <f>SUMIFS(Q16:Q93,D16:D93,Y17)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="29" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="AE17" s="14">
-        <f>SUMIFS(O2:O81,K2:K81,Z17,C2:C81,4) + SUMIFS(N2:N81,J2:J81,Z17,C2:C81,4)</f>
+        <f>SUMIFS(O2:O79,K2:K79,Z17,C2:C79,4) + SUMIFS(N2:N79,J2:J79,Z17,C2:C79,4)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="14">
-        <f>SUMIFS(O2:O81,K2:K81,AA17,C2:C81,4) + SUMIFS(N2:N81,J2:J81,AA17,C2:C81,4)</f>
+        <f>SUMIFS(O2:O79,K2:K79,AA17,C2:C79,4) + SUMIFS(N2:N79,J2:J79,AA17,C2:C79,4)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="14"/>
@@ -2911,6 +2732,9 @@
         <v>0</v>
       </c>
       <c r="V21" s="4"/>
+      <c r="AA21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -2966,6 +2790,13 @@
         <v>1</v>
       </c>
       <c r="V22" s="4"/>
+      <c r="Z22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="e">
+        <f>COUNTIFS($J$2:$K$81, Z22, $C$2:$C$81, 1)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -3021,6 +2852,13 @@
         <v>1</v>
       </c>
       <c r="V23" s="4"/>
+      <c r="Z23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA23">
+        <f>COUNTIF($J$2:$K$81,Z23)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -3076,6 +2914,13 @@
         <v>0</v>
       </c>
       <c r="V24" s="4"/>
+      <c r="Z24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <f>COUNTIF($J$2:$K$81,Z24)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -3131,6 +2976,13 @@
         <v>0</v>
       </c>
       <c r="V25" s="4"/>
+      <c r="Z25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA25">
+        <f>COUNTIF($J$2:$K$81,Z25)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -3186,6 +3038,13 @@
         <v>1</v>
       </c>
       <c r="V26" s="4"/>
+      <c r="Z26" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA26">
+        <f>COUNTIF($J$2:$K$81,Z26)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -3241,6 +3100,13 @@
         <v>1</v>
       </c>
       <c r="V27" s="4"/>
+      <c r="Z27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <f>COUNTIF($J$2:$K$81,Z27)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
@@ -3296,6 +3162,13 @@
         <v>1</v>
       </c>
       <c r="V28" s="4"/>
+      <c r="Z28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f>COUNTIF($J$2:$K$81,Z28)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -3351,6 +3224,13 @@
         <v>1</v>
       </c>
       <c r="V29" s="4"/>
+      <c r="Z29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29">
+        <f>COUNTIF($J$2:$K$81,Z29)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -3406,6 +3286,13 @@
         <v>0</v>
       </c>
       <c r="V30" s="4"/>
+      <c r="Z30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA30">
+        <f>COUNTIF($J$2:$K$81,Z30)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -3461,6 +3348,13 @@
         <v>1</v>
       </c>
       <c r="V31" s="4"/>
+      <c r="Z31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA31">
+        <f>COUNTIF($J$2:$K$81,Z31)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
@@ -3516,8 +3410,15 @@
         <v>1</v>
       </c>
       <c r="V32" s="4"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA32">
+        <f>COUNTIF($J$2:$K$81,Z32)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45411</v>
       </c>
@@ -3571,8 +3472,15 @@
         <v>1</v>
       </c>
       <c r="V33" s="4"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA33">
+        <f>COUNTIF($J$2:$K$81,Z33)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>45411</v>
       </c>
@@ -3626,8 +3534,15 @@
         <v>0</v>
       </c>
       <c r="V34" s="4"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA34">
+        <f>COUNTIF($J$2:$K$81,Z34)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45412</v>
       </c>
@@ -3677,12 +3592,19 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35:Q49" si="1">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <f t="shared" ref="Q35:Q49" si="2">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>1</v>
       </c>
       <c r="V35" s="4"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z35" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA35">
+        <f>COUNTIF($J$2:$K$81,Z35)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45412</v>
       </c>
@@ -3732,12 +3654,19 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V36" s="4"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA36">
+        <f>COUNTIF($J$2:$K$81,Z36)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>45412</v>
       </c>
@@ -3787,12 +3716,19 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V37" s="4"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Z37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA37">
+        <f>COUNTIF($J$2:$K$81,Z37)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>45412</v>
       </c>
@@ -3842,12 +3778,12 @@
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45413</v>
       </c>
@@ -3897,12 +3833,12 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>45413</v>
       </c>
@@ -3952,12 +3888,12 @@
         <v>0</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V40" s="4"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>45414</v>
       </c>
@@ -4007,12 +3943,12 @@
         <v>0</v>
       </c>
       <c r="Q41" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>45415</v>
       </c>
@@ -4062,11 +3998,11 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>45415</v>
       </c>
@@ -4116,11 +4052,11 @@
         <v>0</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>45416</v>
       </c>
@@ -4170,11 +4106,11 @@
         <v>1</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>45417</v>
       </c>
@@ -4224,11 +4160,11 @@
         <v>0</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45417</v>
       </c>
@@ -4278,11 +4214,11 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>45418</v>
       </c>
@@ -4332,11 +4268,11 @@
         <v>0</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>45419</v>
       </c>
@@ -4386,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4440,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4593,7 +4529,7 @@
         <v>45421</v>
       </c>
       <c r="N52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O52" s="2">
         <v>2</v>
@@ -4602,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q63" si="2">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <f t="shared" ref="Q52:Q63" si="3">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -4656,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4682,8 +4618,12 @@
       <c r="G54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="H54" s="4">
+        <v>2</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
       <c r="J54" s="2" t="s">
         <v>11</v>
       </c>
@@ -4696,12 +4636,18 @@
       <c r="M54" s="3">
         <v>45422</v>
       </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
+      <c r="N54" s="2">
+        <v>6</v>
+      </c>
+      <c r="O54" s="2">
+        <v>2</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
       <c r="Q54" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -4726,8 +4672,12 @@
       <c r="G55" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="H55" s="17">
+        <v>1</v>
+      </c>
+      <c r="I55" s="17">
+        <v>1</v>
+      </c>
       <c r="J55" s="16" t="s">
         <v>21</v>
       </c>
@@ -4740,12 +4690,18 @@
       <c r="M55" s="15">
         <v>45422</v>
       </c>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
+      <c r="N55" s="16">
+        <v>4</v>
+      </c>
+      <c r="O55" s="16">
+        <v>3</v>
+      </c>
+      <c r="P55" s="16">
+        <v>1</v>
+      </c>
       <c r="Q55" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -4770,26 +4726,36 @@
       <c r="G56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="H56" s="4">
+        <v>3</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1</v>
+      </c>
       <c r="J56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L56" s="28" t="s">
+      <c r="L56" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M56" s="3">
         <v>45422</v>
       </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
+      <c r="N56" s="2">
+        <v>3</v>
+      </c>
+      <c r="O56" s="2">
+        <v>4</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
       <c r="Q56" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -4814,8 +4780,12 @@
       <c r="G57" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
+      <c r="H57" s="17">
+        <v>2</v>
+      </c>
+      <c r="I57" s="17">
+        <v>1</v>
+      </c>
       <c r="J57" s="16" t="s">
         <v>19</v>
       </c>
@@ -4828,11 +4798,17 @@
       <c r="M57" s="15">
         <v>45422</v>
       </c>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
+      <c r="N57" s="16">
+        <v>4</v>
+      </c>
+      <c r="O57" s="16">
+        <v>1</v>
+      </c>
+      <c r="P57" s="16">
+        <v>0</v>
+      </c>
       <c r="Q57" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4858,21 +4834,35 @@
       <c r="G58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="H58" s="4">
+        <v>3</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1</v>
+      </c>
       <c r="J58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="28"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
+      <c r="L58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>45423</v>
+      </c>
+      <c r="N58" s="2">
+        <v>3</v>
+      </c>
+      <c r="O58" s="2">
+        <v>2</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
       <c r="Q58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4898,22 +4888,36 @@
       <c r="G59" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
+      <c r="H59" s="17">
+        <v>2</v>
+      </c>
+      <c r="I59" s="17">
+        <v>1</v>
+      </c>
       <c r="J59" s="16" t="s">
         <v>17</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
+      <c r="L59" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" s="15">
+        <v>45423</v>
+      </c>
+      <c r="N59" s="16">
+        <v>4</v>
+      </c>
+      <c r="O59" s="16">
+        <v>3</v>
+      </c>
+      <c r="P59" s="16">
+        <v>0</v>
+      </c>
       <c r="Q59" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -4946,13 +4950,17 @@
       <c r="K60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L60" s="28"/>
-      <c r="M60" s="2"/>
+      <c r="L60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M60" s="3">
+        <v>45424</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4986,13 +4994,17 @@
       <c r="K61" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
+      <c r="L61" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" s="15">
+        <v>45424</v>
+      </c>
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5021,18 +5033,22 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="28"/>
-      <c r="M62" s="2"/>
+      <c r="L62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>45425</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5061,10 +5077,10 @@
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
@@ -5072,39 +5088,83 @@
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
+      <c r="A64" s="21">
+        <v>45427</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="20">
+        <v>2</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="20">
+        <v>5</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
+      <c r="A65" s="30">
+        <v>45428</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="32">
+        <v>2</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="32">
+        <v>5</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
@@ -5112,9 +5172,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -5303,88 +5361,58 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H57 H1:I32 H34:I54">
+  <conditionalFormatting sqref="H1:I79">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D7D82D-ECB7-4BDF-96C4-AA69CC08788E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B3CDD-1B76-4B55-BFD7-8996D61D88CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,19 +20,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -47,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="68">
   <si>
     <t>NYI</t>
   </si>
@@ -352,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -429,18 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,9 +663,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -704,7 +703,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -810,7 +809,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -952,7 +951,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -962,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:AK78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,11 +1223,11 @@
         <v>5</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS(Q2:Q79,D2:D79,Y3)</f>
+        <f t="shared" ref="AC3:AC17" si="1">SUMIFS(Q2:Q79,D2:D79,Y3)</f>
         <v>3</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD17" si="1">AC3/AB3</f>
+        <f t="shared" ref="AD3:AD17" si="2">AC3/AB3</f>
         <v>0.6</v>
       </c>
       <c r="AE3">
@@ -1323,11 +1322,11 @@
         <v>7</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS(Q3:Q80,D3:D80,Y4)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="AE4">
@@ -1418,11 +1417,11 @@
         <v>5</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS(Q4:Q81,D4:D81,Y5)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="AE5">
@@ -1513,11 +1512,11 @@
         <v>4</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS(Q5:Q82,D5:D82,Y6)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="AE6">
@@ -1608,11 +1607,11 @@
         <v>6</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS(Q6:Q83,D6:D83,Y7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AE7">
@@ -1697,11 +1696,11 @@
         <v>5</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS(Q7:Q84,D7:D84,Y8)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="AE8">
@@ -1786,11 +1785,11 @@
         <v>5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS(Q8:Q85,D8:D85,Y9)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="AE9">
@@ -1875,11 +1874,11 @@
         <v>7</v>
       </c>
       <c r="AC10" s="11">
-        <f>SUMIFS(Q9:Q86,D9:D86,Y10)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="AE10" s="11">
@@ -1966,11 +1965,11 @@
         <v>5</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS(Q10:Q87,D10:D87,Y11)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="AE11">
@@ -2052,11 +2051,11 @@
         <v>5</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS(Q11:Q88,D11:D88,Y12)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="AE12">
@@ -2138,11 +2137,11 @@
         <v>5</v>
       </c>
       <c r="AC13">
-        <f>SUMIFS(Q12:Q89,D12:D89,Y13)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="AE13">
@@ -2224,11 +2223,11 @@
         <v>5</v>
       </c>
       <c r="AC14" s="11">
-        <f>SUMIFS(Q13:Q90,D13:D90,Y14)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="AE14" s="11">
@@ -2315,11 +2314,11 @@
         <v>#N/A</v>
       </c>
       <c r="AC15">
-        <f>SUMIFS(Q14:Q91,D14:D91,Y15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AE15">
@@ -2401,11 +2400,11 @@
         <v>#N/A</v>
       </c>
       <c r="AC16" s="11">
-        <f>SUMIFS(Q15:Q92,D15:D92,Y16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD16" s="11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AE16" s="11">
@@ -2492,11 +2491,11 @@
         <v>#N/A</v>
       </c>
       <c r="AC17" s="28">
-        <f>SUMIFS(Q16:Q93,D16:D93,Y17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD17" s="29" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AE17" s="14">
@@ -2856,7 +2855,7 @@
         <v>3</v>
       </c>
       <c r="AA23">
-        <f>COUNTIF($J$2:$K$81,Z23)</f>
+        <f t="shared" ref="AA23:AA37" si="3">COUNTIF($J$2:$K$81,Z23)</f>
         <v>12</v>
       </c>
     </row>
@@ -2918,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="AA24">
-        <f>COUNTIF($J$2:$K$81,Z24)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -2980,7 +2979,7 @@
         <v>10</v>
       </c>
       <c r="AA25">
-        <f>COUNTIF($J$2:$K$81,Z25)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3042,7 +3041,7 @@
         <v>13</v>
       </c>
       <c r="AA26">
-        <f>COUNTIF($J$2:$K$81,Z26)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -3104,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <f>COUNTIF($J$2:$K$81,Z27)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -3166,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <f>COUNTIF($J$2:$K$81,Z28)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3228,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="AA29">
-        <f>COUNTIF($J$2:$K$81,Z29)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3290,7 +3289,7 @@
         <v>17</v>
       </c>
       <c r="AA30">
-        <f>COUNTIF($J$2:$K$81,Z30)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
@@ -3352,7 +3351,7 @@
         <v>21</v>
       </c>
       <c r="AA31">
-        <f>COUNTIF($J$2:$K$81,Z31)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -3414,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="AA32">
-        <f>COUNTIF($J$2:$K$81,Z32)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3476,7 +3475,7 @@
         <v>16</v>
       </c>
       <c r="AA33">
-        <f>COUNTIF($J$2:$K$81,Z33)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -3538,7 +3537,7 @@
         <v>19</v>
       </c>
       <c r="AA34">
-        <f>COUNTIF($J$2:$K$81,Z34)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -3592,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35:Q49" si="2">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <f t="shared" ref="Q35:Q49" si="4">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>1</v>
       </c>
       <c r="V35" s="4"/>
@@ -3600,7 +3599,7 @@
         <v>15</v>
       </c>
       <c r="AA35">
-        <f>COUNTIF($J$2:$K$81,Z35)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3654,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V36" s="4"/>
@@ -3662,7 +3661,7 @@
         <v>14</v>
       </c>
       <c r="AA36">
-        <f>COUNTIF($J$2:$K$81,Z36)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -3716,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V37" s="4"/>
@@ -3724,7 +3723,7 @@
         <v>18</v>
       </c>
       <c r="AA37">
-        <f>COUNTIF($J$2:$K$81,Z37)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -3778,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V38" s="4"/>
@@ -3833,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V39" s="4"/>
@@ -3888,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V40" s="4"/>
@@ -3943,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V41" s="4"/>
@@ -3998,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4052,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4106,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4160,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -4214,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -4268,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4322,7 +4321,7 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4376,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -4538,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q63" si="3">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <f t="shared" ref="Q52:Q63" si="5">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -4592,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4646,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4700,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4754,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4808,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4862,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4916,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4960,7 +4959,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5004,7 +5003,7 @@
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5048,7 +5047,7 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5082,13 +5081,17 @@
       <c r="K63" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
+      <c r="L63" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="15">
+        <v>45425</v>
+      </c>
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5102,7 +5105,7 @@
       <c r="C64" s="20">
         <v>2</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="30" t="s">
         <v>60</v>
       </c>
       <c r="E64" s="20">
@@ -5130,41 +5133,41 @@
       <c r="Q64" s="19"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="30">
+      <c r="A65" s="3">
         <v>45428</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="32">
-        <v>2</v>
-      </c>
-      <c r="D65" s="33" t="s">
+      <c r="C65" s="4">
+        <v>2</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="32">
+      <c r="E65" s="4">
         <v>5</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="F65" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="32" t="s">
+      <c r="G65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="31" t="s">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K65" s="31" t="s">
+      <c r="K65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B3CDD-1B76-4B55-BFD7-8996D61D88CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B56868-265E-4315-BBBF-6A4C789CF3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,30 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="68">
   <si>
     <t>NYI</t>
   </si>
@@ -663,9 +652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -703,7 +692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -809,7 +798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -951,7 +940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:AK78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1387,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H79)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1493,7 +1482,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q79)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -1588,7 +1577,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.60344827586206895</v>
+        <v>0.6</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -1962,23 +1951,23 @@
       </c>
       <c r="AB11" cm="1">
         <f t="array" ref="AB11">INDEX(E:E, MATCH(2, 1/(D:D=Y11)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC11">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD11">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AE11">
         <f>SUMIFS(O2:O79,K2:K79,Z11,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z11,C2:C79,2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF11">
         <f>SUMIFS(O2:O79,K2:K79,AA11,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA11,C2:C79,2)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -2146,11 +2135,11 @@
       </c>
       <c r="AE13">
         <f>SUMIFS(O2:O79,K2:K79,Z13,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z13,C2:C79,2)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF13">
         <f>SUMIFS(O2:O79,K2:K79,AA13,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA13,C2:C79,2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -3042,7 +3031,7 @@
       </c>
       <c r="AA26">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
@@ -3104,7 +3093,7 @@
       </c>
       <c r="AA27">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
@@ -4941,8 +4930,12 @@
       <c r="G60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="H60" s="4">
+        <v>3</v>
+      </c>
+      <c r="I60" s="4">
+        <v>2</v>
+      </c>
       <c r="J60" s="2" t="s">
         <v>1</v>
       </c>
@@ -4955,12 +4948,18 @@
       <c r="M60" s="3">
         <v>45424</v>
       </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
+      <c r="N60" s="2">
+        <v>4</v>
+      </c>
+      <c r="O60" s="2">
+        <v>1</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
       <c r="Q60" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -4985,8 +4984,12 @@
       <c r="G61" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
+      <c r="H61" s="17">
+        <v>3</v>
+      </c>
+      <c r="I61" s="17">
+        <v>1</v>
+      </c>
       <c r="J61" s="16" t="s">
         <v>19</v>
       </c>
@@ -4999,9 +5002,15 @@
       <c r="M61" s="15">
         <v>45424</v>
       </c>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
+      <c r="N61" s="16">
+        <v>5</v>
+      </c>
+      <c r="O61" s="16">
+        <v>1</v>
+      </c>
+      <c r="P61" s="16">
+        <v>0</v>
+      </c>
       <c r="Q61" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -5137,30 +5146,30 @@
         <v>45428</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C65" s="4">
         <v>2</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E65" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -5170,13 +5179,35 @@
       <c r="Q65" s="2"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="A66" s="3">
+        <v>45428</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="4">
+        <v>5</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B56868-265E-4315-BBBF-6A4C789CF3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27109A8-B02C-411C-BCAE-EA0B71162658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="101">
   <si>
     <t>NYI</t>
   </si>
@@ -250,7 +250,106 @@
     <t>Pct Right</t>
   </si>
   <si>
-    <t>Games Played</t>
+    <t>GP R1</t>
+  </si>
+  <si>
+    <t>GP R2</t>
+  </si>
+  <si>
+    <t>GP R3</t>
+  </si>
+  <si>
+    <t>GP R4</t>
+  </si>
+  <si>
+    <t>GP TOT</t>
+  </si>
+  <si>
+    <t>GF R2</t>
+  </si>
+  <si>
+    <t>GF R3</t>
+  </si>
+  <si>
+    <t>GF R4</t>
+  </si>
+  <si>
+    <t>GF TOT</t>
+  </si>
+  <si>
+    <t>GA TOT</t>
+  </si>
+  <si>
+    <t>GA R4</t>
+  </si>
+  <si>
+    <t>GA R3</t>
+  </si>
+  <si>
+    <t>GA R2</t>
+  </si>
+  <si>
+    <t>DIFF TOT</t>
+  </si>
+  <si>
+    <t>DIFF R4</t>
+  </si>
+  <si>
+    <t>DIFF R3</t>
+  </si>
+  <si>
+    <t>DIFF R2</t>
+  </si>
+  <si>
+    <t>GF R1 H</t>
+  </si>
+  <si>
+    <t>GA R1 H</t>
+  </si>
+  <si>
+    <t>GF R1 A</t>
+  </si>
+  <si>
+    <t>GA R1 A</t>
+  </si>
+  <si>
+    <t>DIFF R1 H</t>
+  </si>
+  <si>
+    <t>DIFF R1 A</t>
+  </si>
+  <si>
+    <t>GF R1 T</t>
+  </si>
+  <si>
+    <t>GA R1 T</t>
+  </si>
+  <si>
+    <t>DIFF R1 T</t>
+  </si>
+  <si>
+    <t>GP R1 H</t>
+  </si>
+  <si>
+    <t>GP R1 A</t>
+  </si>
+  <si>
+    <t>GFPG R1 H</t>
+  </si>
+  <si>
+    <t>GFPG R1 A</t>
+  </si>
+  <si>
+    <t>GAPG R1 A</t>
+  </si>
+  <si>
+    <t>GAPG R1 H</t>
+  </si>
+  <si>
+    <t>GFPG R1</t>
+  </si>
+  <si>
+    <t>GAPG R1</t>
   </si>
 </sst>
 </file>
@@ -352,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -432,11 +531,405 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -633,6 +1126,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6969"/>
       <color rgb="FF92001C"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFA50021"/>
@@ -948,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
-  <dimension ref="A1:AK78"/>
+  <dimension ref="A1:BJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +1477,8 @@
     <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="10" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -1387,7 +1883,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H79)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1482,7 +1978,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q79)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -1577,7 +2073,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.6</v>
+        <v>0.59677419354838712</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -1686,19 +2182,19 @@
       </c>
       <c r="AC8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD8">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AE8">
         <f>SUMIFS(O2:O79,K2:K79,Z8,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z8,C2:C79,1)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AF8">
         <f>SUMIFS(O2:O79,K2:K79,AA8,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA8,C2:C79,1)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -2037,23 +2533,23 @@
       </c>
       <c r="AB12" cm="1">
         <f t="array" ref="AB12">INDEX(E:E, MATCH(2, 1/(D:D=Y12)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC12">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD12">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AE12">
         <f>SUMIFS(O2:O79,K2:K79,Z12,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z12,C2:C79,2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF12">
         <f>SUMIFS(O2:O79,K2:K79,AA12,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA12,C2:C79,2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -2123,7 +2619,7 @@
       </c>
       <c r="AB13" cm="1">
         <f t="array" ref="AB13">INDEX(E:E, MATCH(2, 1/(D:D=Y13)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC13">
         <f t="shared" si="1"/>
@@ -2131,7 +2627,7 @@
       </c>
       <c r="AD13">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AE13">
         <f>SUMIFS(O2:O79,K2:K79,Z13,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z13,C2:C79,2)</f>
@@ -2209,23 +2705,23 @@
       </c>
       <c r="AB14" s="11" cm="1">
         <f t="array" ref="AB14">INDEX(E:E, MATCH(2, 1/(D:D=Y14)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC14" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD14" s="11">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AE14" s="11">
         <f>SUMIFS(O2:O79,K2:K79,Z14,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z14,C2:C79,2)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF14" s="11">
         <f>SUMIFS(O2:O79,K2:K79,AA14,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA14,C2:C79,2)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
@@ -2410,7 +2906,7 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45406</v>
       </c>
@@ -2501,7 +2997,7 @@
       <c r="AJ17" s="14"/>
       <c r="AK17" s="14"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>45406</v>
       </c>
@@ -2556,7 +3052,7 @@
       </c>
       <c r="V18" s="4"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45407</v>
       </c>
@@ -2611,7 +3107,7 @@
       </c>
       <c r="V19" s="4"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>45407</v>
       </c>
@@ -2666,7 +3162,7 @@
       </c>
       <c r="V20" s="4"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45408</v>
       </c>
@@ -2723,8 +3219,107 @@
       <c r="AA21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AB21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45408</v>
       </c>
@@ -2781,12 +3376,112 @@
       <c r="Z22" t="s">
         <v>11</v>
       </c>
-      <c r="AA22" t="e">
-        <f>COUNTIFS($J$2:$K$81, Z22, $C$2:$C$81, 1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC22">
+        <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <f>AA22+AB22+AC22+AD22</f>
+        <v>11</v>
+      </c>
+      <c r="AF22">
+        <f>COUNTIFS($K$2:$K$81,Z22,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AG22">
+        <f>COUNTIFS($J$2:$J$81,Z22,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AH22">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AI22">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ22">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AK22">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
+        <v>9</v>
+      </c>
+      <c r="AL22">
+        <f>AH22-AJ22</f>
+        <v>7</v>
+      </c>
+      <c r="AM22">
+        <f>AI22-AK22</f>
+        <v>-1</v>
+      </c>
+      <c r="AN22">
+        <f>AH22+AI22</f>
+        <v>20</v>
+      </c>
+      <c r="AO22">
+        <f>AJ22+AK22</f>
+        <v>14</v>
+      </c>
+      <c r="AP22">
+        <f>(AH22+AI22)-(AJ22+AK22)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ22">
+        <f>AH22/AF22</f>
+        <v>4</v>
+      </c>
+      <c r="AR22">
+        <f>AI22/AG22</f>
+        <v>4</v>
+      </c>
+      <c r="AS22">
+        <f>AJ22/AF22</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AT22">
+        <f>AK22/AG22</f>
+        <v>4.5</v>
+      </c>
+      <c r="AU22">
+        <f>AN22/AA22</f>
+        <v>4</v>
+      </c>
+      <c r="AV22">
+        <f>AO22/AA22</f>
+        <v>2.8</v>
+      </c>
+      <c r="AY22">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 2)</f>
+        <v>8</v>
+      </c>
+      <c r="BB22">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <f>AH22+AY22+BB22+BE22</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45408</v>
       </c>
@@ -2815,10 +3510,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>21</v>
@@ -2837,18 +3532,118 @@
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="4"/>
       <c r="Z23" t="s">
         <v>3</v>
       </c>
       <c r="AA23">
-        <f t="shared" ref="AA23:AA37" si="3">COUNTIF($J$2:$K$81,Z23)</f>
+        <f>COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AB23">
+        <f>COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" ref="AC23:AC37" si="3">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" ref="AD23:AD37" si="4">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" ref="AE23:AE37" si="5">AA23+AB23+AC23+AD23</f>
+        <v>13</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" ref="AF23:AF37" si="6">COUNTIFS($K$2:$K$81,Z23,$C$2:$C$81,1)</f>
+        <v>4</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" ref="AG23:AG37" si="7">COUNTIFS($J$2:$J$81,Z23,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" ref="AH23:AH37" si="8">SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" ref="AI23:AI37" si="9">SUMIFS($N$2:$N$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" ref="AJ23:AJ37" si="10">SUMIFS($N$2:$N$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" ref="AK23:AK37" si="11">SUMIFS($O$2:$O$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" ref="AL23:AL37" si="12">AH23-AJ23</f>
+        <v>3</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" ref="AM23:AM37" si="13">AI23-AK23</f>
+        <v>3</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" ref="AN23:AN37" si="14">AH23+AI23</f>
+        <v>18</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" ref="AO23:AO37" si="15">AJ23+AK23</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AP23">
+        <f t="shared" ref="AP23:AP37" si="16">(AH23+AI23)-(AJ23+AK23)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" ref="AQ23:AQ37" si="17">AH23/AF23</f>
+        <v>2.5</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" ref="AR23:AR37" si="18">AI23/AG23</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" ref="AS23:AS37" si="19">AJ23/AF23</f>
+        <v>1.75</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" ref="AT23:AT37" si="20">AK23/AG23</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" ref="AU23:AU37" si="21">AN23/AA23</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" ref="AV23:AV37" si="22">AO23/AA23</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="AY23">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 2)</f>
+        <v>4</v>
+      </c>
+      <c r="BB23">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <f>AH23+AY23+BB23+BE23</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>45408</v>
       </c>
@@ -2906,11 +3701,111 @@
         <v>2</v>
       </c>
       <c r="AA24">
+        <f>COUNTIFS($J$2:$J$81, Z24, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z24, $C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AB24">
+        <f>COUNTIFS($J$2:$J$81, Z24, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z24, $C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="13"/>
+        <v>-3</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="16"/>
+        <v>-6</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="17"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="18"/>
+        <v>1.75</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="19"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="20"/>
+        <v>2.5</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="21"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="22"/>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="AY24">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z24,$C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z24,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z24,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <f>AH24+AY24+BB24+BE24</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45409</v>
       </c>
@@ -2968,11 +3863,111 @@
         <v>10</v>
       </c>
       <c r="AA25">
+        <f>COUNTIFS($J$2:$J$81, Z25, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z25, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB25">
+        <f>COUNTIFS($J$2:$J$81, Z25, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z25, $C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF25">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="13"/>
+        <v>-7</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="16"/>
+        <v>-6</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="17"/>
+        <v>4.5</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="18"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="21"/>
+        <v>2.8</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z25,$C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z25,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z25,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <f>AH25+AY25+BB25+BE25</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45409</v>
       </c>
@@ -3030,11 +4025,111 @@
         <v>13</v>
       </c>
       <c r="AA26">
+        <f>COUNTIFS($J$2:$J$81, Z26, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z26, $C$2:$C$81, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB26">
+        <f>COUNTIFS($J$2:$J$81, Z26, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z26, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC26">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF26">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="18"/>
+        <v>3.5</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="21"/>
+        <v>3.75</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="22"/>
+        <v>1.75</v>
+      </c>
+      <c r="AY26">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z26,$C$2:$C$81, 2)</f>
+        <v>9</v>
+      </c>
+      <c r="BB26">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z26,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z26,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <f>AH26+AY26+BB26+BE26</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45409</v>
       </c>
@@ -3092,11 +4187,111 @@
         <v>1</v>
       </c>
       <c r="AA27">
+        <f>COUNTIFS($J$2:$J$81, Z27, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z27, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB27">
+        <f>COUNTIFS($J$2:$J$81, Z27, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z27, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC27">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF27">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="17"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" si="19"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="20"/>
+        <v>2.5</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="21"/>
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="22"/>
+        <v>2.4</v>
+      </c>
+      <c r="AY27">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z27,$C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="BB27">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z27,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z27,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <f>AH27+AY27+BB27+BE27</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>45409</v>
       </c>
@@ -3154,11 +4349,111 @@
         <v>0</v>
       </c>
       <c r="AA28">
+        <f>COUNTIFS($J$2:$J$81, Z28, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z28, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB28">
+        <f>COUNTIFS($J$2:$J$81, Z28, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z28, $C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF28">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="13"/>
+        <v>-7</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="16"/>
+        <v>-7</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="18"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="20"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="21"/>
+        <v>2.4</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="22"/>
+        <v>3.8</v>
+      </c>
+      <c r="AY28">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z28,$C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z28,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z28,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <f>AH28+AY28+BB28+BE28</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45410</v>
       </c>
@@ -3216,11 +4511,111 @@
         <v>12</v>
       </c>
       <c r="AA29">
+        <f>COUNTIFS($J$2:$J$81, Z29, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z29, $C$2:$C$81, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB29">
+        <f>COUNTIFS($J$2:$J$81, Z29, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z29, $C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC29">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF29">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="12"/>
+        <v>-4</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="13"/>
+        <v>-4</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="16"/>
+        <v>-8</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="21"/>
+        <v>1.75</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="22"/>
+        <v>3.75</v>
+      </c>
+      <c r="AY29">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z29,$C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z29,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z29,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <f>AH29+AY29+BB29+BE29</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45410</v>
       </c>
@@ -3278,11 +4673,111 @@
         <v>17</v>
       </c>
       <c r="AA30">
+        <f>COUNTIFS($J$2:$J$81, Z30, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z30, $C$2:$C$81, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AB30">
+        <f>COUNTIFS($J$2:$J$81, Z30, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z30, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC30">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="18"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="19"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="20"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="21"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AY30">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z30,$C$2:$C$81, 2)</f>
+        <v>8</v>
+      </c>
+      <c r="BB30">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z30,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z30,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <f>AH30+AY30+BB30+BE30</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45410</v>
       </c>
@@ -3340,11 +4835,111 @@
         <v>21</v>
       </c>
       <c r="AA31">
+        <f>COUNTIFS($J$2:$J$81, Z31, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z31, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB31">
+        <f>COUNTIFS($J$2:$J$81, Z31, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z31, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC31">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="13"/>
+        <v>-4</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="21"/>
+        <v>3.4</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="22"/>
+        <v>3.6</v>
+      </c>
+      <c r="AY31">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z31,$C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="BB31">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z31,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z31,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <f>AH31+AY31+BB31+BE31</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>45410</v>
       </c>
@@ -3402,11 +4997,111 @@
         <v>20</v>
       </c>
       <c r="AA32">
+        <f>COUNTIFS($J$2:$J$81, Z32, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z32, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB32">
+        <f>COUNTIFS($J$2:$J$81, Z32, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z32, $C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF32">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="13"/>
+        <v>-3</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AS32">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="21"/>
+        <v>3.6</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="22"/>
+        <v>3.4</v>
+      </c>
+      <c r="AY32">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z32,$C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z32,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z32,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <f>AH32+AY32+BB32+BE32</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45411</v>
       </c>
@@ -3464,11 +5159,111 @@
         <v>16</v>
       </c>
       <c r="AA33">
+        <f>COUNTIFS($J$2:$J$81, Z33, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z33, $C$2:$C$81, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AB33">
+        <f>COUNTIFS($J$2:$J$81, Z33, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z33, $C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF33">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+      <c r="AM33">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="17"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="18"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AS33">
+        <f t="shared" si="19"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="22"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="AY33">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z33,$C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z33,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z33,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <f>AH33+AY33+BB33+BE33</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>45411</v>
       </c>
@@ -3526,11 +5321,111 @@
         <v>19</v>
       </c>
       <c r="AA34">
+        <f>COUNTIFS($J$2:$J$81, Z34, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z34, $C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AB34">
+        <f>COUNTIFS($J$2:$J$81, Z34, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z34, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC34">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="18"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AS34">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="21"/>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="22"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="AY34">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z34,$C$2:$C$81, 2)</f>
+        <v>8</v>
+      </c>
+      <c r="BB34">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z34,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z34,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <f>AH34+AY34+BB34+BE34</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45412</v>
       </c>
@@ -3580,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35:Q49" si="4">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <f t="shared" ref="Q35:Q49" si="23">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>1</v>
       </c>
       <c r="V35" s="4"/>
@@ -3588,11 +5483,111 @@
         <v>15</v>
       </c>
       <c r="AA35">
+        <f>COUNTIFS($J$2:$J$81, Z35, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z35, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB35">
+        <f>COUNTIFS($J$2:$J$81, Z35, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z35, $C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC35">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF35">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="12"/>
+        <v>-5</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="13"/>
+        <v>-8</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="16"/>
+        <v>-13</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="AS35">
+        <f t="shared" si="19"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="20"/>
+        <v>5.5</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="22"/>
+        <v>5.6</v>
+      </c>
+      <c r="AY35">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z35,$C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z35,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z35,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <f>AH35+AY35+BB35+BE35</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45412</v>
       </c>
@@ -3642,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V36" s="4"/>
@@ -3650,11 +5645,111 @@
         <v>14</v>
       </c>
       <c r="AA36">
+        <f>COUNTIFS($J$2:$J$81, Z36, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z36, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB36">
+        <f>COUNTIFS($J$2:$J$81, Z36, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z36, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC36">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="17"/>
+        <v>5.5</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="18"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="21"/>
+        <v>5.6</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AY36">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z36,$C$2:$C$81, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="BB36">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z36,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z36,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <f>AH36+AY36+BB36+BE36</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>45412</v>
       </c>
@@ -3704,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V37" s="4"/>
@@ -3712,11 +5807,111 @@
         <v>18</v>
       </c>
       <c r="AA37">
+        <f>COUNTIFS($J$2:$J$81, Z37, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z37, $C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AB37">
+        <f>COUNTIFS($J$2:$J$81, Z37, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z37, $C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC37">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF37">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+      <c r="AS37">
+        <f t="shared" si="19"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="20"/>
+        <v>2.5</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="21"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="AV37">
+        <f t="shared" si="22"/>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="AY37">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z37,$C$2:$C$81, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z37,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z37,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <f>AH37+AY37+BB37+BE37</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>45412</v>
       </c>
@@ -3766,12 +5961,12 @@
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45413</v>
       </c>
@@ -3821,12 +6016,12 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>45413</v>
       </c>
@@ -3876,12 +6071,12 @@
         <v>0</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V40" s="4"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>45414</v>
       </c>
@@ -3931,12 +6126,12 @@
         <v>0</v>
       </c>
       <c r="Q41" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>45415</v>
       </c>
@@ -3986,11 +6181,11 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>45415</v>
       </c>
@@ -4040,11 +6235,11 @@
         <v>0</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>45416</v>
       </c>
@@ -4094,11 +6289,11 @@
         <v>1</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>45417</v>
       </c>
@@ -4148,11 +6343,11 @@
         <v>0</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45417</v>
       </c>
@@ -4202,11 +6397,11 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>45418</v>
       </c>
@@ -4256,11 +6451,11 @@
         <v>0</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>45419</v>
       </c>
@@ -4310,7 +6505,7 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4364,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -4526,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q63" si="5">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <f t="shared" ref="Q52:Q81" si="24">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -4580,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -4634,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -4688,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -4742,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -4796,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -4850,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -4904,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -4958,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -5012,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -5038,8 +7233,12 @@
       <c r="G62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="H62" s="4">
+        <v>3</v>
+      </c>
+      <c r="I62" s="4">
+        <v>2</v>
+      </c>
       <c r="J62" s="2" t="s">
         <v>3</v>
       </c>
@@ -5052,12 +7251,18 @@
       <c r="M62" s="3">
         <v>45425</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
+      <c r="N62" s="2">
+        <v>2</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
       <c r="Q62" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -5082,8 +7287,12 @@
       <c r="G63" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
+      <c r="H63" s="17">
+        <v>2</v>
+      </c>
+      <c r="I63" s="17">
+        <v>2</v>
+      </c>
       <c r="J63" s="16" t="s">
         <v>17</v>
       </c>
@@ -5096,12 +7305,18 @@
       <c r="M63" s="15">
         <v>45425</v>
       </c>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
+      <c r="N63" s="16">
+        <v>2</v>
+      </c>
+      <c r="O63" s="16">
+        <v>3</v>
+      </c>
+      <c r="P63" s="16">
+        <v>0</v>
+      </c>
       <c r="Q63" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -5134,12 +7349,19 @@
       <c r="K64" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
+      <c r="L64" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" s="21">
+        <v>45426</v>
+      </c>
       <c r="N64" s="19"/>
       <c r="O64" s="19"/>
       <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
+      <c r="Q64" s="19">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
@@ -5176,89 +7398,170 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
+      <c r="Q65" s="31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="15">
         <v>45428</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="4">
-        <v>2</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C66" s="17">
+        <v>2</v>
+      </c>
+      <c r="D66" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="17">
         <v>5</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="2" t="s">
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16">
+        <f>IF($N66=$O66, 0, IF($J66=$L66, IF($N66&gt;$O66, 1, 0), IF($O66&gt;$N66, 1, 0)))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="A67" s="3">
+        <v>45429</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="4">
+        <v>6</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
+      <c r="Q67" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="A68" s="3">
+        <v>45429</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="4">
+        <v>2</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="4">
+        <v>6</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="J68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
+      <c r="Q68" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="A69" s="3">
+        <v>45430</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="4">
+        <v>2</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="4">
+        <v>6</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="J69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
+      <c r="Q69" s="31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
@@ -5273,7 +7576,10 @@
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
+      <c r="Q70" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
@@ -5288,7 +7594,10 @@
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
+      <c r="Q71" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
@@ -5303,7 +7612,10 @@
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
+      <c r="Q72" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
@@ -5318,7 +7630,10 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
+      <c r="Q73" s="31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
@@ -5333,7 +7648,10 @@
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
+      <c r="Q74" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
@@ -5348,7 +7666,10 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
+      <c r="Q75" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
@@ -5363,7 +7684,10 @@
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
+      <c r="Q76" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
@@ -5378,7 +7702,10 @@
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
+      <c r="Q77" s="31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
@@ -5393,61 +7720,82 @@
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
+      <c r="Q78" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q79" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q80" s="31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q81" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:XFD20 A38:XFD1048576 AY21:AY37 BB21:BB37 BE21:BE37 AZ21:BA21 BF21:BG21 A21:AE37 AF21:AG21 AI21:AV21 BG21:XFD37 AH21:AH37">
+    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I79">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -5459,7 +7807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I33">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -5471,7 +7819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:I62 H63">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -5481,7 +7829,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -5493,7 +7841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5503,7 +7851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD17">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5514,6 +7862,111 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AA22:AD37">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC21">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD21">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27109A8-B02C-411C-BCAE-EA0B71162658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F04C2A-FCF1-480B-A890-FAB9439BE234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="101">
   <si>
     <t>NYI</t>
   </si>
@@ -531,14 +531,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="231">
     <dxf>
       <font>
         <b/>
@@ -732,6 +732,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -924,6 +931,198 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF6969"/>
@@ -970,10 +1169,106 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -982,6 +1277,54 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
@@ -1042,6 +1385,78 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="4" tint="0.39994506668294322"/>
       </font>
       <fill>
@@ -1054,10 +1469,221 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92001C"/>
         </patternFill>
       </fill>
@@ -1066,6 +1692,102 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF00B050"/>
       </font>
       <fill>
@@ -1107,6 +1829,1438 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1444,8 +3598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:BJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="W74" sqref="W74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +4037,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H79)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1978,7 +4132,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q79)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -2073,7 +4227,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.59677419354838712</v>
+        <v>0.60317460317460314</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2623,19 +4777,19 @@
       </c>
       <c r="AC13">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD13">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AE13">
         <f>SUMIFS(O2:O79,K2:K79,Z13,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z13,C2:C79,2)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF13">
         <f>SUMIFS(O2:O79,K2:K79,AA13,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA13,C2:C79,2)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -3377,11 +5531,11 @@
         <v>11</v>
       </c>
       <c r="AA22">
-        <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA22:AA37" si="3">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AB22">
-        <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB22:AB37" si="4">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC22">
@@ -3465,19 +5619,19 @@
         <v>2.8</v>
       </c>
       <c r="AY22">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AY22:AY37" si="5">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 2)</f>
         <v>8</v>
       </c>
       <c r="BB22">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 3)</f>
+        <f t="shared" ref="BB22:BB37" si="6">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="BE22">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
+        <f t="shared" ref="BE22:BE37" si="7">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BH22">
-        <f>AH22+AY22+BB22+BE22</f>
+        <f t="shared" ref="BH22:BH37" si="8">AH22+AY22+BB22+BE22</f>
         <v>20</v>
       </c>
     </row>
@@ -3539,107 +5693,107 @@
         <v>3</v>
       </c>
       <c r="AA23">
-        <f>COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AB23">
-        <f>COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AC23">
-        <f t="shared" ref="AC23:AC37" si="3">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC23:AC37" si="9">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AD23">
-        <f t="shared" ref="AD23:AD37" si="4">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD23:AD37" si="10">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AE37" si="5">AA23+AB23+AC23+AD23</f>
+        <f t="shared" ref="AE23:AE37" si="11">AA23+AB23+AC23+AD23</f>
         <v>13</v>
       </c>
       <c r="AF23">
-        <f t="shared" ref="AF23:AF37" si="6">COUNTIFS($K$2:$K$81,Z23,$C$2:$C$81,1)</f>
+        <f t="shared" ref="AF23:AF37" si="12">COUNTIFS($K$2:$K$81,Z23,$C$2:$C$81,1)</f>
         <v>4</v>
       </c>
       <c r="AG23">
-        <f t="shared" ref="AG23:AG37" si="7">COUNTIFS($J$2:$J$81,Z23,$C$2:$C$81,1)</f>
+        <f t="shared" ref="AG23:AG37" si="13">COUNTIFS($J$2:$J$81,Z23,$C$2:$C$81,1)</f>
         <v>3</v>
       </c>
       <c r="AH23">
-        <f t="shared" ref="AH23:AH37" si="8">SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AH23:AH37" si="14">SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
         <v>10</v>
       </c>
       <c r="AI23">
-        <f t="shared" ref="AI23:AI37" si="9">SUMIFS($N$2:$N$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AI23:AI37" si="15">SUMIFS($N$2:$N$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
         <v>8</v>
       </c>
       <c r="AJ23">
-        <f t="shared" ref="AJ23:AJ37" si="10">SUMIFS($N$2:$N$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AJ23:AJ37" si="16">SUMIFS($N$2:$N$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
         <v>7</v>
       </c>
       <c r="AK23">
-        <f t="shared" ref="AK23:AK37" si="11">SUMIFS($O$2:$O$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AK23:AK37" si="17">SUMIFS($O$2:$O$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AL23">
-        <f t="shared" ref="AL23:AL37" si="12">AH23-AJ23</f>
+        <f t="shared" ref="AL23:AL37" si="18">AH23-AJ23</f>
         <v>3</v>
       </c>
       <c r="AM23">
-        <f t="shared" ref="AM23:AM37" si="13">AI23-AK23</f>
+        <f t="shared" ref="AM23:AM37" si="19">AI23-AK23</f>
         <v>3</v>
       </c>
       <c r="AN23">
-        <f t="shared" ref="AN23:AN37" si="14">AH23+AI23</f>
+        <f t="shared" ref="AN23:AN37" si="20">AH23+AI23</f>
         <v>18</v>
       </c>
       <c r="AO23">
-        <f t="shared" ref="AO23:AO37" si="15">AJ23+AK23</f>
+        <f t="shared" ref="AO23:AO37" si="21">AJ23+AK23</f>
         <v>12</v>
       </c>
       <c r="AP23">
-        <f t="shared" ref="AP23:AP37" si="16">(AH23+AI23)-(AJ23+AK23)</f>
+        <f t="shared" ref="AP23:AP37" si="22">(AH23+AI23)-(AJ23+AK23)</f>
         <v>6</v>
       </c>
       <c r="AQ23">
-        <f t="shared" ref="AQ23:AQ37" si="17">AH23/AF23</f>
+        <f t="shared" ref="AQ23:AQ37" si="23">AH23/AF23</f>
         <v>2.5</v>
       </c>
       <c r="AR23">
-        <f t="shared" ref="AR23:AR37" si="18">AI23/AG23</f>
+        <f t="shared" ref="AR23:AR37" si="24">AI23/AG23</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="AS23">
-        <f t="shared" ref="AS23:AS37" si="19">AJ23/AF23</f>
+        <f t="shared" ref="AS23:AS37" si="25">AJ23/AF23</f>
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <f t="shared" ref="AT23:AT37" si="20">AK23/AG23</f>
+        <f t="shared" ref="AT23:AT37" si="26">AK23/AG23</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="AU23">
-        <f t="shared" ref="AU23:AU37" si="21">AN23/AA23</f>
+        <f t="shared" ref="AU23:AU37" si="27">AN23/AA23</f>
         <v>2.5714285714285716</v>
       </c>
       <c r="AV23">
-        <f t="shared" ref="AV23:AV37" si="22">AO23/AA23</f>
+        <f t="shared" ref="AV23:AV37" si="28">AO23/AA23</f>
         <v>1.7142857142857142</v>
       </c>
       <c r="AY23">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 2)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BB23">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE23">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BH23">
-        <f>AH23+AY23+BB23+BE23</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -3701,107 +5855,107 @@
         <v>2</v>
       </c>
       <c r="AA24">
-        <f>COUNTIFS($J$2:$J$81, Z24, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z24, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AB24">
-        <f>COUNTIFS($J$2:$J$81, Z24, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z24, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE24">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="18"/>
+        <v>-3</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="19"/>
+        <v>-3</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="21"/>
+        <v>18</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="22"/>
+        <v>-6</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="23"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="24"/>
+        <v>1.75</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="25"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="27"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="28"/>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="AY24">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AI24">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AJ24">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AK24">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AL24">
-        <f t="shared" si="12"/>
-        <v>-3</v>
-      </c>
-      <c r="AM24">
-        <f t="shared" si="13"/>
-        <v>-3</v>
-      </c>
-      <c r="AN24">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="AO24">
-        <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="AP24">
-        <f t="shared" si="16"/>
-        <v>-6</v>
-      </c>
-      <c r="AQ24">
-        <f t="shared" si="17"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AR24">
-        <f t="shared" si="18"/>
-        <v>1.75</v>
-      </c>
-      <c r="AS24">
-        <f t="shared" si="19"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AT24">
-        <f t="shared" si="20"/>
-        <v>2.5</v>
-      </c>
-      <c r="AU24">
-        <f t="shared" si="21"/>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="AV24">
-        <f t="shared" si="22"/>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="AY24">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z24,$C$2:$C$81, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="BB24">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z24,$C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE24">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z24,$C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH24">
-        <f>AH24+AY24+BB24+BE24</f>
         <v>5</v>
       </c>
     </row>
@@ -3863,107 +6017,107 @@
         <v>10</v>
       </c>
       <c r="AA25">
-        <f>COUNTIFS($J$2:$J$81, Z25, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z25, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AB25">
-        <f>COUNTIFS($J$2:$J$81, Z25, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z25, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE25">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="19"/>
+        <v>-7</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="22"/>
+        <v>-6</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="23"/>
+        <v>4.5</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="24"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="27"/>
+        <v>2.8</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="AY25">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="AI25">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="AJ25">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AK25">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="AL25">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AM25">
-        <f t="shared" si="13"/>
-        <v>-7</v>
-      </c>
-      <c r="AN25">
-        <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="AO25">
-        <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="AP25">
-        <f t="shared" si="16"/>
-        <v>-6</v>
-      </c>
-      <c r="AQ25">
-        <f t="shared" si="17"/>
-        <v>4.5</v>
-      </c>
-      <c r="AR25">
-        <f t="shared" si="18"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AS25">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AT25">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="AU25">
-        <f t="shared" si="21"/>
-        <v>2.8</v>
-      </c>
-      <c r="AV25">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="AY25">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z25,$C$2:$C$81, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="BB25">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z25,$C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE25">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z25,$C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <f>AH25+AY25+BB25+BE25</f>
         <v>9</v>
       </c>
     </row>
@@ -4025,107 +6179,107 @@
         <v>13</v>
       </c>
       <c r="AA26">
-        <f>COUNTIFS($J$2:$J$81, Z26, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z26, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AB26">
-        <f>COUNTIFS($J$2:$J$81, Z26, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z26, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AJ26">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="AK26">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AL26">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AM26">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="AN26">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="AO26">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
+      <c r="AJ26">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
       <c r="AP26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3.5</v>
       </c>
       <c r="AS26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
       <c r="AU26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.75</v>
       </c>
       <c r="AV26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1.75</v>
       </c>
       <c r="AY26">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z26,$C$2:$C$81, 2)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="BB26">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z26,$C$2:$C$81, 3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE26">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z26,$C$2:$C$81, 4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BH26">
-        <f>AH26+AY26+BB26+BE26</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
@@ -4187,107 +6341,107 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <f>COUNTIFS($J$2:$J$81, Z27, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z27, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AB27">
-        <f>COUNTIFS($J$2:$J$81, Z27, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z27, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="AK27">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AL27">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AM27">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="AO27">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="AP27">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
+      <c r="AK27">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
       <c r="AQ27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4.666666666666667</v>
       </c>
       <c r="AR27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="AS27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AU27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.8</v>
       </c>
       <c r="AV27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>2.4</v>
       </c>
       <c r="AY27">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z27,$C$2:$C$81, 2)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BB27">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z27,$C$2:$C$81, 3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE27">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z27,$C$2:$C$81, 4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BH27">
-        <f>AH27+AY27+BB27+BE27</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
@@ -4349,107 +6503,107 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <f>COUNTIFS($J$2:$J$81, Z28, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z28, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AB28">
-        <f>COUNTIFS($J$2:$J$81, Z28, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z28, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE28">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="19"/>
+        <v>-7</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="22"/>
+        <v>-7</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="24"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="26"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="27"/>
+        <v>2.4</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="28"/>
+        <v>3.8</v>
+      </c>
+      <c r="AY28">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AI28">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AJ28">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="AK28">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="AL28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <f t="shared" si="13"/>
-        <v>-7</v>
-      </c>
-      <c r="AN28">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="AO28">
-        <f t="shared" si="15"/>
-        <v>19</v>
-      </c>
-      <c r="AP28">
-        <f t="shared" si="16"/>
-        <v>-7</v>
-      </c>
-      <c r="AQ28">
-        <f t="shared" si="17"/>
-        <v>2.5</v>
-      </c>
-      <c r="AR28">
-        <f t="shared" si="18"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AS28">
-        <f t="shared" si="19"/>
-        <v>2.5</v>
-      </c>
-      <c r="AT28">
-        <f t="shared" si="20"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AU28">
-        <f t="shared" si="21"/>
-        <v>2.4</v>
-      </c>
-      <c r="AV28">
-        <f t="shared" si="22"/>
-        <v>3.8</v>
-      </c>
-      <c r="AY28">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z28,$C$2:$C$81, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z28,$C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z28,$C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <f>AH28+AY28+BB28+BE28</f>
         <v>5</v>
       </c>
     </row>
@@ -4511,107 +6665,107 @@
         <v>12</v>
       </c>
       <c r="AA29">
-        <f>COUNTIFS($J$2:$J$81, Z29, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z29, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AB29">
-        <f>COUNTIFS($J$2:$J$81, Z29, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z29, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE29">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="18"/>
+        <v>-4</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="19"/>
+        <v>-4</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="22"/>
+        <v>-8</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="27"/>
+        <v>1.75</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="28"/>
+        <v>3.75</v>
+      </c>
+      <c r="AY29">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AI29">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AJ29">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="AK29">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AL29">
-        <f t="shared" si="12"/>
-        <v>-4</v>
-      </c>
-      <c r="AM29">
-        <f t="shared" si="13"/>
-        <v>-4</v>
-      </c>
-      <c r="AN29">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="AO29">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="AP29">
-        <f t="shared" si="16"/>
-        <v>-8</v>
-      </c>
-      <c r="AQ29">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
-      </c>
-      <c r="AR29">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="AS29">
-        <f t="shared" si="19"/>
-        <v>3.5</v>
-      </c>
-      <c r="AT29">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="AU29">
-        <f t="shared" si="21"/>
-        <v>1.75</v>
-      </c>
-      <c r="AV29">
-        <f t="shared" si="22"/>
-        <v>3.75</v>
-      </c>
-      <c r="AY29">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z29,$C$2:$C$81, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z29,$C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z29,$C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <f>AH29+AY29+BB29+BE29</f>
         <v>3</v>
       </c>
     </row>
@@ -4673,107 +6827,107 @@
         <v>17</v>
       </c>
       <c r="AA30">
-        <f>COUNTIFS($J$2:$J$81, Z30, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z30, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AB30">
-        <f>COUNTIFS($J$2:$J$81, Z30, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z30, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE30">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="18"/>
+        <v>-2</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="24"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="25"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="27"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="AY30">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="AF30">
+        <v>8</v>
+      </c>
+      <c r="BB30">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="AI30">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AJ30">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AK30">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AL30">
-        <f t="shared" si="12"/>
-        <v>-2</v>
-      </c>
-      <c r="AM30">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AN30">
-        <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-      <c r="AO30">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="AP30">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AQ30">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AR30">
-        <f t="shared" si="18"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AS30">
-        <f t="shared" si="19"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AT30">
-        <f t="shared" si="20"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AU30">
-        <f t="shared" si="21"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="AV30">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="AY30">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z30,$C$2:$C$81, 2)</f>
-        <v>8</v>
-      </c>
-      <c r="BB30">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z30,$C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE30">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z30,$C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <f>AH30+AY30+BB30+BE30</f>
         <v>14</v>
       </c>
     </row>
@@ -4835,107 +6989,107 @@
         <v>21</v>
       </c>
       <c r="AA31">
-        <f>COUNTIFS($J$2:$J$81, Z31, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z31, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AB31">
-        <f>COUNTIFS($J$2:$J$81, Z31, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z31, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE31">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="19"/>
+        <v>-4</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="21"/>
+        <v>18</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="27"/>
+        <v>3.4</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="28"/>
+        <v>3.6</v>
+      </c>
+      <c r="AY31">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="AF31">
+        <v>6</v>
+      </c>
+      <c r="BB31">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
         <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="AI31">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AJ31">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="AK31">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AL31">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AM31">
-        <f t="shared" si="13"/>
-        <v>-4</v>
-      </c>
-      <c r="AN31">
-        <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="AO31">
-        <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="AP31">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AQ31">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="AR31">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AS31">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AT31">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="AU31">
-        <f t="shared" si="21"/>
-        <v>3.4</v>
-      </c>
-      <c r="AV31">
-        <f t="shared" si="22"/>
-        <v>3.6</v>
-      </c>
-      <c r="AY31">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z31,$C$2:$C$81, 2)</f>
-        <v>6</v>
-      </c>
-      <c r="BB31">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z31,$C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE31">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z31,$C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <f>AH31+AY31+BB31+BE31</f>
         <v>21</v>
       </c>
     </row>
@@ -4997,107 +7151,107 @@
         <v>20</v>
       </c>
       <c r="AA32">
-        <f>COUNTIFS($J$2:$J$81, Z32, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z32, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AB32">
-        <f>COUNTIFS($J$2:$J$81, Z32, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z32, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AM32">
-        <f t="shared" si="13"/>
-        <v>-3</v>
-      </c>
-      <c r="AN32">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="AO32">
-        <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="AP32">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AQ32">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="AR32">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
+      <c r="AM32">
+        <f t="shared" si="19"/>
+        <v>-3</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="21"/>
+        <v>17</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
       <c r="AS32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="AU32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3.6</v>
       </c>
       <c r="AV32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>3.4</v>
       </c>
       <c r="AY32">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z32,$C$2:$C$81, 2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB32">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z32,$C$2:$C$81, 3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE32">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z32,$C$2:$C$81, 4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BH32">
-        <f>AH32+AY32+BB32+BE32</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -5159,107 +7313,107 @@
         <v>16</v>
       </c>
       <c r="AA33">
-        <f>COUNTIFS($J$2:$J$81, Z33, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z33, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AB33">
-        <f>COUNTIFS($J$2:$J$81, Z33, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z33, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AI33">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AJ33">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="AK33">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
+      <c r="AF33">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
       <c r="AL33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-3</v>
       </c>
       <c r="AM33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AN33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="AO33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="AP33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="AQ33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="AR33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="AS33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AU33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="AV33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="AY33">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z33,$C$2:$C$81, 2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BB33">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z33,$C$2:$C$81, 3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE33">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z33,$C$2:$C$81, 4)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BH33">
-        <f>AH33+AY33+BB33+BE33</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -5321,108 +7475,108 @@
         <v>19</v>
       </c>
       <c r="AA34">
-        <f>COUNTIFS($J$2:$J$81, Z34, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z34, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AB34">
-        <f>COUNTIFS($J$2:$J$81, Z34, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z34, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE34">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="24"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AS34">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="27"/>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="28"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="AY34">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="AF34">
+        <v>11</v>
+      </c>
+      <c r="BB34">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="AI34">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AJ34">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="AK34">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AL34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AM34">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="AO34">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="AP34">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AQ34">
-        <f t="shared" si="17"/>
-        <v>2.5</v>
-      </c>
-      <c r="AR34">
-        <f t="shared" si="18"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AS34">
-        <f t="shared" si="19"/>
-        <v>2.5</v>
-      </c>
-      <c r="AT34">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="AU34">
-        <f t="shared" si="21"/>
-        <v>2.4285714285714284</v>
-      </c>
-      <c r="AV34">
-        <f t="shared" si="22"/>
-        <v>2.2857142857142856</v>
-      </c>
-      <c r="AY34">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z34,$C$2:$C$81, 2)</f>
-        <v>8</v>
-      </c>
-      <c r="BB34">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z34,$C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE34">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z34,$C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <f>AH34+AY34+BB34+BE34</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
@@ -5475,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35:Q49" si="23">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <f t="shared" ref="Q35:Q49" si="29">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>1</v>
       </c>
       <c r="V35" s="4"/>
@@ -5483,107 +7637,107 @@
         <v>15</v>
       </c>
       <c r="AA35">
-        <f>COUNTIFS($J$2:$J$81, Z35, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z35, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AB35">
-        <f>COUNTIFS($J$2:$J$81, Z35, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z35, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE35">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="18"/>
+        <v>-5</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="19"/>
+        <v>-8</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="21"/>
+        <v>28</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="22"/>
+        <v>-13</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="24"/>
+        <v>1.5</v>
+      </c>
+      <c r="AS35">
+        <f t="shared" si="25"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="26"/>
+        <v>5.5</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="28"/>
+        <v>5.6</v>
+      </c>
+      <c r="AY35">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
         <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="AI35">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AJ35">
-        <f t="shared" si="10"/>
-        <v>17</v>
-      </c>
-      <c r="AK35">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="AL35">
-        <f t="shared" si="12"/>
-        <v>-5</v>
-      </c>
-      <c r="AM35">
-        <f t="shared" si="13"/>
-        <v>-8</v>
-      </c>
-      <c r="AN35">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="AO35">
-        <f t="shared" si="15"/>
-        <v>28</v>
-      </c>
-      <c r="AP35">
-        <f t="shared" si="16"/>
-        <v>-13</v>
-      </c>
-      <c r="AQ35">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="AR35">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
-      </c>
-      <c r="AS35">
-        <f t="shared" si="19"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="AT35">
-        <f t="shared" si="20"/>
-        <v>5.5</v>
-      </c>
-      <c r="AU35">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AV35">
-        <f t="shared" si="22"/>
-        <v>5.6</v>
-      </c>
-      <c r="AY35">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z35,$C$2:$C$81, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="BB35">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z35,$C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE35">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z35,$C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH35">
-        <f>AH35+AY35+BB35+BE35</f>
         <v>12</v>
       </c>
     </row>
@@ -5637,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V36" s="4"/>
@@ -5645,107 +7799,107 @@
         <v>14</v>
       </c>
       <c r="AA36">
-        <f>COUNTIFS($J$2:$J$81, Z36, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z36, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AB36">
-        <f>COUNTIFS($J$2:$J$81, Z36, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z36, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE36">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="23"/>
+        <v>5.5</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="24"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="27"/>
+        <v>5.6</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="AY36">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="AF36">
+        <v>2</v>
+      </c>
+      <c r="BB36">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="AI36">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="AJ36">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AK36">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="AL36">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AM36">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="AN36">
-        <f t="shared" si="14"/>
-        <v>28</v>
-      </c>
-      <c r="AO36">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="AP36">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="AQ36">
-        <f t="shared" si="17"/>
-        <v>5.5</v>
-      </c>
-      <c r="AR36">
-        <f t="shared" si="18"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="AS36">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
-      </c>
-      <c r="AT36">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="AU36">
-        <f t="shared" si="21"/>
-        <v>5.6</v>
-      </c>
-      <c r="AV36">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="AY36">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z36,$C$2:$C$81, 2)</f>
-        <v>2</v>
-      </c>
-      <c r="BB36">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z36,$C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE36">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z36,$C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <f>AH36+AY36+BB36+BE36</f>
         <v>13</v>
       </c>
     </row>
@@ -5799,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V37" s="4"/>
@@ -5807,107 +7961,107 @@
         <v>18</v>
       </c>
       <c r="AA37">
-        <f>COUNTIFS($J$2:$J$81, Z37, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z37, $C$2:$C$81, 1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AB37">
-        <f>COUNTIFS($J$2:$J$81, Z37, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z37, $C$2:$C$81, 2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE37">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="21"/>
+        <v>17</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="24"/>
+        <v>2.5</v>
+      </c>
+      <c r="AS37">
+        <f t="shared" si="25"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="27"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="AV37">
+        <f t="shared" si="28"/>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="AY37">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="AI37">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="AJ37">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="AK37">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AL37">
-        <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="AM37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN37">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="AO37">
-        <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="AP37">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AQ37">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AR37">
-        <f t="shared" si="18"/>
-        <v>2.5</v>
-      </c>
-      <c r="AS37">
-        <f t="shared" si="19"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AT37">
-        <f t="shared" si="20"/>
-        <v>2.5</v>
-      </c>
-      <c r="AU37">
-        <f t="shared" si="21"/>
-        <v>2.2857142857142856</v>
-      </c>
-      <c r="AV37">
-        <f t="shared" si="22"/>
-        <v>2.4285714285714284</v>
-      </c>
-      <c r="AY37">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z37,$C$2:$C$81, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="BB37">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z37,$C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE37">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z37,$C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <f>AH37+AY37+BB37+BE37</f>
         <v>6</v>
       </c>
     </row>
@@ -5961,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V38" s="4"/>
@@ -6016,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V39" s="4"/>
@@ -6071,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V40" s="4"/>
@@ -6126,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V41" s="4"/>
@@ -6181,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -6235,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -6289,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -6343,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
@@ -6397,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
@@ -6451,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -6505,7 +8659,7 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -6559,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
@@ -6721,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q81" si="24">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <f t="shared" ref="Q52:Q81" si="30">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
         <v>0</v>
       </c>
     </row>
@@ -6775,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -6829,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -6883,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -6937,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -6991,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -7045,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -7099,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -7153,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -7207,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -7261,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -7315,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -7341,8 +9495,12 @@
       <c r="G64" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
+      <c r="H64" s="20">
+        <v>3</v>
+      </c>
+      <c r="I64" s="20">
+        <v>2</v>
+      </c>
       <c r="J64" s="19" t="s">
         <v>14</v>
       </c>
@@ -7355,15 +9513,21 @@
       <c r="M64" s="21">
         <v>45426</v>
       </c>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
+      <c r="N64" s="19">
+        <v>4</v>
+      </c>
+      <c r="O64" s="19">
+        <v>3</v>
+      </c>
+      <c r="P64" s="19">
+        <v>0</v>
+      </c>
       <c r="Q64" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>45428</v>
       </c>
@@ -7393,17 +9557,21 @@
       <c r="K65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
+      <c r="L65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M65" s="3">
+        <v>45428</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
-      <c r="Q65" s="31">
-        <f t="shared" si="24"/>
+      <c r="Q65" s="2">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>45428</v>
       </c>
@@ -7433,8 +9601,12 @@
       <c r="K66" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
+      <c r="L66" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="15">
+        <v>45428</v>
+      </c>
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
@@ -7443,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>45429</v>
       </c>
@@ -7479,51 +9651,51 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
         <v>45429</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="4">
-        <v>2</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="C68" s="17">
+        <v>2</v>
+      </c>
+      <c r="D68" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="17">
         <v>6</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="2" t="s">
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2">
-        <f t="shared" si="24"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>45430</v>
       </c>
@@ -7558,12 +9730,12 @@
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-      <c r="Q69" s="31">
-        <f t="shared" si="24"/>
+      <c r="Q69" s="2">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -7577,11 +9749,11 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -7595,11 +9767,11 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -7613,11 +9785,11 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -7630,12 +9802,12 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
-      <c r="Q73" s="31">
-        <f t="shared" si="24"/>
+      <c r="Q73" s="2">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -7649,11 +9821,15 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="31">
+        <f>WEEKDAY(A69)</f>
+        <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -7667,11 +9843,11 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -7685,11 +9861,11 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -7702,12 +9878,12 @@
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
-      <c r="Q77" s="31">
-        <f t="shared" si="24"/>
+      <c r="Q77" s="2">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -7721,81 +9897,81 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q79" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q80" s="31">
-        <f t="shared" si="24"/>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q80" s="2">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q81" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD20 A38:XFD1048576 AY21:AY37 BB21:BB37 BE21:BE37 AZ21:BA21 BF21:BG21 A21:AE37 AF21:AG21 AI21:AV21 BG21:XFD37 AH21:AH37">
-    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
+  <conditionalFormatting sqref="A1:XFD20 A21:AE37 AF21:AG21 AI21:AV21 AZ21:BA21 BF21:BG21 AH21:AH37 AY21:AY37 BB21:BB37 BE21:BE37 BG21:XFD37 A76:XFD1048576 E75:XFD75 A75:B75 A38:XFD74">
+    <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="45" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="46" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="47" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="48" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="49" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="50" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="51" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="52" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="53" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="54" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="56" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="57" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="58" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I79">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -7807,7 +9983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I33">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -7819,7 +9995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:I62 H63">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -7829,7 +10005,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -7841,7 +10017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7850,8 +10026,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AA22:AD37">
+    <cfRule type="cellIs" dxfId="16" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD17">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7862,109 +10043,122 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA22:AD37">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC21">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+  <conditionalFormatting sqref="BC21:BD21">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD21">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
-      <formula>"LAK"</formula>
+  <conditionalFormatting sqref="AQ22:AR37 AU22:AU37">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
-      <formula>"EDM"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS22:AT37 AV22:AV37">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
-      <formula>"DAL"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP22:AP37 AL22:AM37">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"NSH"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN22:AN37">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"VAN"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO22:AO37">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
-      <formula>"FLA"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22:AE37">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F04C2A-FCF1-480B-A890-FAB9439BE234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFEE0BB-6612-4B5C-B46F-6F8CB0796AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="101">
   <si>
     <t>NYI</t>
   </si>
@@ -451,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -531,194 +531,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="231">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <b/>
@@ -728,500 +545,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1281,6 +604,193 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -1313,7 +823,43 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
@@ -1337,198 +883,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1564,1715 +923,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3598,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:BJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="W74" sqref="W74"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65:L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,7 +1688,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H79)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -4227,7 +1878,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.60317460317460314</v>
+        <v>0.58461538461538465</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -4613,11 +2264,11 @@
       </c>
       <c r="AE11">
         <f>SUMIFS(O2:O79,K2:K79,Z11,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z11,C2:C79,2)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF11">
         <f>SUMIFS(O2:O79,K2:K79,AA11,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA11,C2:C79,2)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -4871,11 +2522,11 @@
       </c>
       <c r="AE14" s="11">
         <f>SUMIFS(O2:O79,K2:K79,Z14,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z14,C2:C79,2)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AF14" s="11">
         <f>SUMIFS(O2:O79,K2:K79,AA14,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA14,C2:C79,2)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
@@ -6430,7 +4081,7 @@
       </c>
       <c r="AY27">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB27">
         <f t="shared" si="6"/>
@@ -6442,7 +4093,7 @@
       </c>
       <c r="BH27">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
@@ -6916,7 +4567,7 @@
       </c>
       <c r="AY30">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BB30">
         <f t="shared" si="6"/>
@@ -6928,7 +4579,7 @@
       </c>
       <c r="BH30">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
@@ -9549,8 +7200,12 @@
       <c r="G65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="H65" s="4">
+        <v>4</v>
+      </c>
+      <c r="I65" s="4">
+        <v>2</v>
+      </c>
       <c r="J65" s="2" t="s">
         <v>13</v>
       </c>
@@ -9563,9 +7218,15 @@
       <c r="M65" s="3">
         <v>45428</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
+      <c r="N65" s="2">
+        <v>5</v>
+      </c>
+      <c r="O65" s="2">
+        <v>3</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0</v>
+      </c>
       <c r="Q65" s="2">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -9593,8 +7254,12 @@
       <c r="G66" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="H66" s="17">
+        <v>3</v>
+      </c>
+      <c r="I66" s="17">
+        <v>2</v>
+      </c>
       <c r="J66" s="16" t="s">
         <v>21</v>
       </c>
@@ -9607,9 +7272,15 @@
       <c r="M66" s="15">
         <v>45428</v>
       </c>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
+      <c r="N66" s="16">
+        <v>2</v>
+      </c>
+      <c r="O66" s="16">
+        <v>3</v>
+      </c>
+      <c r="P66" s="16">
+        <v>0</v>
+      </c>
       <c r="Q66" s="16">
         <f>IF($N66=$O66, 0, IF($J66=$L66, IF($N66&gt;$O66, 1, 0), IF($O66&gt;$N66, 1, 0)))</f>
         <v>0</v>
@@ -9645,8 +7316,12 @@
       <c r="K67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+      <c r="L67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M67" s="3">
+        <v>45428</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -9685,8 +7360,12 @@
       <c r="K68" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
+      <c r="L68" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="15">
+        <v>45428</v>
+      </c>
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
@@ -9824,7 +7503,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="W74" s="31">
+      <c r="W74" s="2">
         <f>WEEKDAY(A69)</f>
         <v>7</v>
       </c>
@@ -9920,54 +7599,54 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD20 A21:AE37 AF21:AG21 AI21:AV21 AZ21:BA21 BF21:BG21 AH21:AH37 AY21:AY37 BB21:BB37 BE21:BE37 BG21:XFD37 A76:XFD1048576 E75:XFD75 A75:B75 A38:XFD74">
-    <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
-      <formula>"LAK"</formula>
+  <conditionalFormatting sqref="A38:XFD74 A1:XFD20 A21:AE37 AF21:AG21 AI21:AV21 AZ21:BA21 BF21:BG21 AH21:AH37 AY21:AY37 BB21:BB37 BE21:BE37 BG21:XFD37 A75:B75 E75:XFD75 A76:XFD1048576">
+    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
+      <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="56" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="57" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="52" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="50" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="48" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="46" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="44" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="45" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="46" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="47" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="48" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="49" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="50" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="51" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="52" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="53" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="54" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="55" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="56" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="57" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="58" operator="equal">
-      <formula>"FLA"</formula>
+    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
+      <formula>"LAK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I79">
@@ -10043,85 +7722,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC21:BD21">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ22:AR37 AU22:AU37">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS22:AT37 AV22:AV37">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP22:AP37 AL22:AM37">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="AE22:AE37">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -10149,16 +7758,86 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE22:AE37">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="AP22:AP37 AL22:AM37">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ22:AR37 AU22:AU37">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS22:AT37 AV22:AV37">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC21:BD21">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"LAK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFEE0BB-6612-4B5C-B46F-6F8CB0796AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD89C28-770A-4745-96B3-48F833FC3B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -47,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="137">
   <si>
     <t>NYI</t>
   </si>
@@ -265,12 +276,6 @@
     <t>GP TOT</t>
   </si>
   <si>
-    <t>GF R2</t>
-  </si>
-  <si>
-    <t>GF R3</t>
-  </si>
-  <si>
     <t>GF R4</t>
   </si>
   <si>
@@ -283,24 +288,12 @@
     <t>GA R4</t>
   </si>
   <si>
-    <t>GA R3</t>
-  </si>
-  <si>
-    <t>GA R2</t>
-  </si>
-  <si>
     <t>DIFF TOT</t>
   </si>
   <si>
     <t>DIFF R4</t>
   </si>
   <si>
-    <t>DIFF R3</t>
-  </si>
-  <si>
-    <t>DIFF R2</t>
-  </si>
-  <si>
     <t>GF R1 H</t>
   </si>
   <si>
@@ -350,6 +343,132 @@
   </si>
   <si>
     <t>GAPG R1</t>
+  </si>
+  <si>
+    <t>W TOT</t>
+  </si>
+  <si>
+    <t>L TOT</t>
+  </si>
+  <si>
+    <t>W H</t>
+  </si>
+  <si>
+    <t>L H</t>
+  </si>
+  <si>
+    <t>W A</t>
+  </si>
+  <si>
+    <t>L A</t>
+  </si>
+  <si>
+    <t>GP H</t>
+  </si>
+  <si>
+    <t>GP A</t>
+  </si>
+  <si>
+    <t>GP R2 H</t>
+  </si>
+  <si>
+    <t>GP R2 A</t>
+  </si>
+  <si>
+    <t>GF R2 H</t>
+  </si>
+  <si>
+    <t>GF R2 A</t>
+  </si>
+  <si>
+    <t>GA R2 H</t>
+  </si>
+  <si>
+    <t>GA R2 A</t>
+  </si>
+  <si>
+    <t>DIFF R2 H</t>
+  </si>
+  <si>
+    <t>DIFF R2 A</t>
+  </si>
+  <si>
+    <t>GF R2 T</t>
+  </si>
+  <si>
+    <t>GA R2 T</t>
+  </si>
+  <si>
+    <t>DIFF R2 T</t>
+  </si>
+  <si>
+    <t>GFPG R2 H</t>
+  </si>
+  <si>
+    <t>GFPG R2 A</t>
+  </si>
+  <si>
+    <t>GAPG R2 H</t>
+  </si>
+  <si>
+    <t>GAPG R2 A</t>
+  </si>
+  <si>
+    <t>GFPG R2</t>
+  </si>
+  <si>
+    <t>GAPG R2</t>
+  </si>
+  <si>
+    <t>GAPG R3</t>
+  </si>
+  <si>
+    <t>GFPG R3</t>
+  </si>
+  <si>
+    <t>GAPG R3 A</t>
+  </si>
+  <si>
+    <t>GAPG R3 H</t>
+  </si>
+  <si>
+    <t>GFPG R3 A</t>
+  </si>
+  <si>
+    <t>GFPG R3 H</t>
+  </si>
+  <si>
+    <t>DIFF R3 T</t>
+  </si>
+  <si>
+    <t>GA R3 T</t>
+  </si>
+  <si>
+    <t>GF R3 T</t>
+  </si>
+  <si>
+    <t>DIFF R3 A</t>
+  </si>
+  <si>
+    <t>DIFF R3 H</t>
+  </si>
+  <si>
+    <t>GA R3 A</t>
+  </si>
+  <si>
+    <t>GA R3 H</t>
+  </si>
+  <si>
+    <t>GF R3 A</t>
+  </si>
+  <si>
+    <t>GF R3 H</t>
+  </si>
+  <si>
+    <t>GP R3 A</t>
+  </si>
+  <si>
+    <t>GP R3 H</t>
   </si>
 </sst>
 </file>
@@ -535,16 +654,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="51">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
@@ -552,11 +666,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF002060"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -568,78 +682,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -648,23 +690,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color theme="5"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -696,7 +726,19 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="5"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -708,7 +750,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
@@ -720,18 +762,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
+        <color theme="7" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -739,11 +774,47 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -775,95 +846,18 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF002060"/>
+        <color theme="0" tint="-0.14996795556505021"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
@@ -875,19 +869,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -919,11 +901,354 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -951,9 +1276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -991,7 +1316,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1097,7 +1422,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1239,7 +1564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1247,43 +1572,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
-  <dimension ref="A1:BJ81"/>
+  <dimension ref="A1:BL81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65:L65"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AX6" sqref="AX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="10" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="56" width="12" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -2711,7 +3053,7 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45406</v>
       </c>
@@ -2802,7 +3144,7 @@
       <c r="AJ17" s="14"/>
       <c r="AK17" s="14"/>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>45406</v>
       </c>
@@ -2857,7 +3199,7 @@
       </c>
       <c r="V18" s="4"/>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45407</v>
       </c>
@@ -2912,7 +3254,7 @@
       </c>
       <c r="V19" s="4"/>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>45407</v>
       </c>
@@ -2967,7 +3309,7 @@
       </c>
       <c r="V20" s="4"/>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45408</v>
       </c>
@@ -3037,94 +3379,100 @@
         <v>71</v>
       </c>
       <c r="AF21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC21" t="s">
         <v>93</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="BD21" t="s">
         <v>94</v>
       </c>
-      <c r="AH21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY21" t="s">
+      <c r="BG21" t="s">
         <v>72</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>81</v>
       </c>
       <c r="BH21" t="s">
         <v>75</v>
       </c>
       <c r="BI21" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL21" t="s">
         <v>76</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45408</v>
       </c>
@@ -3202,91 +3550,115 @@
         <v>11</v>
       </c>
       <c r="AF22">
+        <f>COUNTIF($K$2:$K$81, Z22)</f>
+        <v>6</v>
+      </c>
+      <c r="AG22">
+        <f>COUNTIF($J$2:$J$81, Z22)</f>
+        <v>5</v>
+      </c>
+      <c r="AH22">
+        <f>AJ22+AL22</f>
+        <v>7</v>
+      </c>
+      <c r="AI22">
+        <f>AE22-AH22</f>
+        <v>4</v>
+      </c>
+      <c r="AJ22" cm="1">
+        <f t="array" ref="AJ22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AK22" cm="1">
+        <f t="array" ref="AK22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL22" cm="1">
+        <f t="array" ref="AL22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AM22" cm="1">
+        <f t="array" ref="AM22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN22">
         <f>COUNTIFS($K$2:$K$81,Z22,$C$2:$C$81,1)</f>
         <v>3</v>
       </c>
-      <c r="AG22">
+      <c r="AO22">
         <f>COUNTIFS($J$2:$J$81,Z22,$C$2:$C$81,1)</f>
         <v>2</v>
       </c>
-      <c r="AH22">
+      <c r="AP22">
         <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
         <v>12</v>
       </c>
-      <c r="AI22">
+      <c r="AQ22">
         <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
         <v>8</v>
       </c>
-      <c r="AJ22">
+      <c r="AR22">
         <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
-      <c r="AK22">
+      <c r="AS22">
         <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
         <v>9</v>
       </c>
-      <c r="AL22">
-        <f>AH22-AJ22</f>
+      <c r="AT22">
+        <f>AP22-AR22</f>
         <v>7</v>
       </c>
-      <c r="AM22">
-        <f>AI22-AK22</f>
+      <c r="AU22">
+        <f>AQ22-AS22</f>
         <v>-1</v>
       </c>
-      <c r="AN22">
-        <f>AH22+AI22</f>
+      <c r="AV22">
+        <f>AP22+AQ22</f>
         <v>20</v>
       </c>
-      <c r="AO22">
-        <f>AJ22+AK22</f>
+      <c r="AW22">
+        <f>AR22+AS22</f>
         <v>14</v>
       </c>
-      <c r="AP22">
-        <f>(AH22+AI22)-(AJ22+AK22)</f>
+      <c r="AX22">
+        <f>(AP22+AQ22)-(AR22+AS22)</f>
         <v>6</v>
       </c>
-      <c r="AQ22">
-        <f>AH22/AF22</f>
-        <v>4</v>
-      </c>
-      <c r="AR22">
-        <f>AI22/AG22</f>
-        <v>4</v>
-      </c>
-      <c r="AS22">
-        <f>AJ22/AF22</f>
+      <c r="AY22">
+        <f>AP22/AN22</f>
+        <v>4</v>
+      </c>
+      <c r="AZ22">
+        <f>AQ22/AO22</f>
+        <v>4</v>
+      </c>
+      <c r="BA22">
+        <f>AR22/AN22</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AT22">
-        <f>AK22/AG22</f>
+      <c r="BB22">
+        <f>AS22/AO22</f>
         <v>4.5</v>
       </c>
-      <c r="AU22">
-        <f>AN22/AA22</f>
-        <v>4</v>
-      </c>
-      <c r="AV22">
-        <f>AO22/AA22</f>
+      <c r="BC22">
+        <f>AV22/AA22</f>
+        <v>4</v>
+      </c>
+      <c r="BD22">
+        <f>AW22/AA22</f>
         <v>2.8</v>
       </c>
-      <c r="AY22">
-        <f t="shared" ref="AY22:AY37" si="5">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 2)</f>
-        <v>8</v>
-      </c>
-      <c r="BB22">
-        <f t="shared" ref="BB22:BB37" si="6">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="BE22">
-        <f t="shared" ref="BE22:BE37" si="7">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="BH22">
-        <f t="shared" ref="BH22:BH37" si="8">AH22+AY22+BB22+BE22</f>
-        <v>20</v>
+      <c r="BG22">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="e">
+        <f>AP22+#REF!+#REF!+BG22</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45408</v>
       </c>
@@ -3352,103 +3724,127 @@
         <v>6</v>
       </c>
       <c r="AC23">
-        <f t="shared" ref="AC23:AC37" si="9">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC23:AC37" si="5">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AD23">
-        <f t="shared" ref="AD23:AD37" si="10">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD23:AD37" si="6">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AE37" si="11">AA23+AB23+AC23+AD23</f>
+        <f t="shared" ref="AE23:AE37" si="7">AA23+AB23+AC23+AD23</f>
         <v>13</v>
       </c>
       <c r="AF23">
-        <f t="shared" ref="AF23:AF37" si="12">COUNTIFS($K$2:$K$81,Z23,$C$2:$C$81,1)</f>
-        <v>4</v>
+        <f t="shared" ref="AF23:AF37" si="8">COUNTIF($K$2:$K$81, Z23)</f>
+        <v>7</v>
       </c>
       <c r="AG23">
-        <f t="shared" ref="AG23:AG37" si="13">COUNTIFS($J$2:$J$81,Z23,$C$2:$C$81,1)</f>
-        <v>3</v>
+        <f t="shared" ref="AG23:AG37" si="9">COUNTIF($J$2:$J$81, Z23)</f>
+        <v>6</v>
       </c>
       <c r="AH23">
-        <f t="shared" ref="AH23:AH37" si="14">SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AH23:AH37" si="10">AJ23+AL23</f>
+        <v>6</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" ref="AI23:AI37" si="11">AE23-AH23</f>
+        <v>7</v>
+      </c>
+      <c r="AJ23" cm="1">
+        <f t="array" ref="AJ23">SUMPRODUCT(($K$2:$K$81=Z23)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AK23" cm="1">
+        <f t="array" ref="AK23">SUMPRODUCT(($K$2:$K$81=Z23)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AL23" cm="1">
+        <f t="array" ref="AL23">SUMPRODUCT(($J$2:$J$81=Z23)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM23" cm="1">
+        <f t="array" ref="AM23">SUMPRODUCT(($J$2:$J$81=Z23)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN23">
+        <f>COUNTIFS($K$2:$K$81,Z23,$C$2:$C$81,1)</f>
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <f>COUNTIFS($J$2:$J$81,Z23,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
         <v>10</v>
       </c>
-      <c r="AI23">
-        <f t="shared" ref="AI23:AI37" si="15">SUMIFS($N$2:$N$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
+      <c r="AQ23">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
         <v>8</v>
       </c>
-      <c r="AJ23">
-        <f t="shared" ref="AJ23:AJ37" si="16">SUMIFS($N$2:$N$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
+      <c r="AR23">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
         <v>7</v>
       </c>
-      <c r="AK23">
-        <f t="shared" ref="AK23:AK37" si="17">SUMIFS($O$2:$O$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
+      <c r="AS23">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
-      <c r="AL23">
-        <f t="shared" ref="AL23:AL37" si="18">AH23-AJ23</f>
-        <v>3</v>
-      </c>
-      <c r="AM23">
-        <f t="shared" ref="AM23:AM37" si="19">AI23-AK23</f>
-        <v>3</v>
-      </c>
-      <c r="AN23">
-        <f t="shared" ref="AN23:AN37" si="20">AH23+AI23</f>
+      <c r="AT23">
+        <f t="shared" ref="AT23:AT37" si="12">AP23-AR23</f>
+        <v>3</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" ref="AU23:AU37" si="13">AQ23-AS23</f>
+        <v>3</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" ref="AV23:AV37" si="14">AP23+AQ23</f>
         <v>18</v>
       </c>
-      <c r="AO23">
-        <f t="shared" ref="AO23:AO37" si="21">AJ23+AK23</f>
+      <c r="AW23">
+        <f t="shared" ref="AW23:AW37" si="15">AR23+AS23</f>
         <v>12</v>
       </c>
-      <c r="AP23">
-        <f t="shared" ref="AP23:AP37" si="22">(AH23+AI23)-(AJ23+AK23)</f>
+      <c r="AX23">
+        <f t="shared" ref="AX23:AX37" si="16">(AP23+AQ23)-(AR23+AS23)</f>
         <v>6</v>
       </c>
-      <c r="AQ23">
-        <f t="shared" ref="AQ23:AQ37" si="23">AH23/AF23</f>
+      <c r="AY23">
+        <f t="shared" ref="AY23:AY37" si="17">AP23/AN23</f>
         <v>2.5</v>
       </c>
-      <c r="AR23">
-        <f t="shared" ref="AR23:AR37" si="24">AI23/AG23</f>
+      <c r="AZ23">
+        <f t="shared" ref="AZ23:AZ37" si="18">AQ23/AO23</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="AS23">
-        <f t="shared" ref="AS23:AS37" si="25">AJ23/AF23</f>
+      <c r="BA23">
+        <f t="shared" ref="BA23:BA37" si="19">AR23/AN23</f>
         <v>1.75</v>
       </c>
-      <c r="AT23">
-        <f t="shared" ref="AT23:AT37" si="26">AK23/AG23</f>
+      <c r="BB23">
+        <f t="shared" ref="BB23:BB37" si="20">AS23/AO23</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AU23">
-        <f t="shared" ref="AU23:AU37" si="27">AN23/AA23</f>
+      <c r="BC23">
+        <f>AV23/AA23</f>
         <v>2.5714285714285716</v>
       </c>
-      <c r="AV23">
-        <f t="shared" ref="AV23:AV37" si="28">AO23/AA23</f>
+      <c r="BD23">
+        <f>AW23/AA23</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="AY23">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="BB23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH23">
-        <f t="shared" si="8"/>
-        <v>14</v>
+      <c r="BG23">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="e">
+        <f>AP23+#REF!+#REF!+BG23</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>45408</v>
       </c>
@@ -3514,103 +3910,127 @@
         <v>0</v>
       </c>
       <c r="AC24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AG24">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AH24">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE24">
+        <v>3</v>
+      </c>
+      <c r="AI24">
         <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AJ24" cm="1">
+        <f t="array" ref="AJ24">SUMPRODUCT(($K$2:$K$81=Z24)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AK24" cm="1">
+        <f t="array" ref="AK24">SUMPRODUCT(($K$2:$K$81=Z24)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL24" cm="1">
+        <f t="array" ref="AL24">SUMPRODUCT(($J$2:$J$81=Z24)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AM24" cm="1">
+        <f t="array" ref="AM24">SUMPRODUCT(($J$2:$J$81=Z24)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN24">
+        <f>COUNTIFS($K$2:$K$81,Z24,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <f>COUNTIFS($J$2:$J$81,Z24,$C$2:$C$81,1)</f>
+        <v>4</v>
+      </c>
+      <c r="AP24">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z24,$C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AQ24">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z24,$C$2:$C$81, 1)</f>
         <v>7</v>
       </c>
-      <c r="AF24">
+      <c r="AR24">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z24,$C$2:$C$81, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AS24">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z24,$C$2:$C$81, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AT24">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AG24">
+        <v>-3</v>
+      </c>
+      <c r="AU24">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="AH24">
+        <v>-3</v>
+      </c>
+      <c r="AV24">
         <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="AI24">
+        <v>12</v>
+      </c>
+      <c r="AW24">
         <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="AJ24">
+        <v>18</v>
+      </c>
+      <c r="AX24">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="AK24">
+        <v>-6</v>
+      </c>
+      <c r="AY24">
         <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="AL24">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AZ24">
         <f t="shared" si="18"/>
-        <v>-3</v>
-      </c>
-      <c r="AM24">
+        <v>1.75</v>
+      </c>
+      <c r="BA24">
         <f t="shared" si="19"/>
-        <v>-3</v>
-      </c>
-      <c r="AN24">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BB24">
         <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-      <c r="AO24">
-        <f t="shared" si="21"/>
-        <v>18</v>
-      </c>
-      <c r="AP24">
-        <f t="shared" si="22"/>
-        <v>-6</v>
-      </c>
-      <c r="AQ24">
-        <f t="shared" si="23"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AR24">
-        <f t="shared" si="24"/>
-        <v>1.75</v>
-      </c>
-      <c r="AS24">
-        <f t="shared" si="25"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AT24">
-        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
-      <c r="AU24">
-        <f t="shared" si="27"/>
+      <c r="BC24">
+        <f>AV24/AA24</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="AV24">
-        <f t="shared" si="28"/>
+      <c r="BD24">
+        <f>AW24/AA24</f>
         <v>2.5714285714285716</v>
       </c>
-      <c r="AY24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH24">
-        <f t="shared" si="8"/>
-        <v>5</v>
+      <c r="BG24">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z24,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="e">
+        <f>AP24+#REF!+#REF!+BG24</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45409</v>
       </c>
@@ -3676,103 +4096,127 @@
         <v>0</v>
       </c>
       <c r="AC25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AG25">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD25">
+        <v>3</v>
+      </c>
+      <c r="AH25">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
         <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AJ25" cm="1">
+        <f t="array" ref="AJ25">SUMPRODUCT(($K$2:$K$81=Z25)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AK25" cm="1">
+        <f t="array" ref="AK25">SUMPRODUCT(($K$2:$K$81=Z25)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AL25" cm="1">
+        <f t="array" ref="AL25">SUMPRODUCT(($J$2:$J$81=Z25)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>0</v>
+      </c>
+      <c r="AM25" cm="1">
+        <f t="array" ref="AM25">SUMPRODUCT(($J$2:$J$81=Z25)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AN25">
+        <f>COUNTIFS($K$2:$K$81,Z25,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO25">
+        <f>COUNTIFS($J$2:$J$81,Z25,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP25">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z25,$C$2:$C$81, 1)</f>
+        <v>9</v>
+      </c>
+      <c r="AQ25">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z25,$C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
-      <c r="AF25">
+      <c r="AR25">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z25,$C$2:$C$81, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AS25">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z25,$C$2:$C$81, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AT25">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AU25">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AH25">
+        <v>-7</v>
+      </c>
+      <c r="AV25">
         <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="AI25">
+        <v>14</v>
+      </c>
+      <c r="AW25">
         <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AX25">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="AK25">
+        <v>-6</v>
+      </c>
+      <c r="AY25">
         <f t="shared" si="17"/>
-        <v>12</v>
-      </c>
-      <c r="AL25">
+        <v>4.5</v>
+      </c>
+      <c r="AZ25">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AM25">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="BA25">
         <f t="shared" si="19"/>
-        <v>-7</v>
-      </c>
-      <c r="AN25">
+        <v>4</v>
+      </c>
+      <c r="BB25">
         <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="AO25">
-        <f t="shared" si="21"/>
-        <v>20</v>
-      </c>
-      <c r="AP25">
-        <f t="shared" si="22"/>
-        <v>-6</v>
-      </c>
-      <c r="AQ25">
-        <f t="shared" si="23"/>
-        <v>4.5</v>
-      </c>
-      <c r="AR25">
-        <f t="shared" si="24"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AS25">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="AT25">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="AU25">
-        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <f>AV25/AA25</f>
         <v>2.8</v>
       </c>
-      <c r="AV25">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="AY25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <f t="shared" si="8"/>
-        <v>9</v>
+      <c r="BD25">
+        <f>AW25/AA25</f>
+        <v>4</v>
+      </c>
+      <c r="BG25">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z25,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="e">
+        <f>AP25+#REF!+#REF!+BG25</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45409</v>
       </c>
@@ -3838,103 +4282,127 @@
         <v>6</v>
       </c>
       <c r="AC26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AG26">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD26">
+        <v>5</v>
+      </c>
+      <c r="AH26">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE26">
+        <v>8</v>
+      </c>
+      <c r="AI26">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AF26">
+        <v>2</v>
+      </c>
+      <c r="AJ26" cm="1">
+        <f t="array" ref="AJ26">SUMPRODUCT(($K$2:$K$81=Z26)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AK26" cm="1">
+        <f t="array" ref="AK26">SUMPRODUCT(($K$2:$K$81=Z26)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AL26" cm="1">
+        <f t="array" ref="AL26">SUMPRODUCT(($J$2:$J$81=Z26)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM26" cm="1">
+        <f t="array" ref="AM26">SUMPRODUCT(($J$2:$J$81=Z26)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <f>COUNTIFS($K$2:$K$81,Z26,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO26">
+        <f>COUNTIFS($J$2:$J$81,Z26,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AP26">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z26,$C$2:$C$81, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AQ26">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z26,$C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AR26">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z26,$C$2:$C$81, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AS26">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z26,$C$2:$C$81, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="AT26">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AG26">
+        <v>4</v>
+      </c>
+      <c r="AU26">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AH26">
+        <v>4</v>
+      </c>
+      <c r="AV26">
         <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="AI26">
+        <v>15</v>
+      </c>
+      <c r="AW26">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="AJ26">
+      <c r="AX26">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="AK26">
+        <v>8</v>
+      </c>
+      <c r="AY26">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="AL26">
+        <v>4</v>
+      </c>
+      <c r="AZ26">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="AM26">
+        <v>3.5</v>
+      </c>
+      <c r="BA26">
         <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AN26">
+        <v>2</v>
+      </c>
+      <c r="BB26">
         <f t="shared" si="20"/>
-        <v>15</v>
-      </c>
-      <c r="AO26">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="AP26">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="AQ26">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="AR26">
-        <f t="shared" si="24"/>
-        <v>3.5</v>
-      </c>
-      <c r="AS26">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AT26">
-        <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
-      <c r="AU26">
-        <f t="shared" si="27"/>
+      <c r="BC26">
+        <f>AV26/AA26</f>
         <v>3.75</v>
       </c>
-      <c r="AV26">
-        <f t="shared" si="28"/>
+      <c r="BD26">
+        <f>AW26/AA26</f>
         <v>1.75</v>
       </c>
-      <c r="AY26">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="BB26">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE26">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <f t="shared" si="8"/>
-        <v>17</v>
+      <c r="BG26">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z26,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="e">
+        <f>AP26+#REF!+#REF!+BG26</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45409</v>
       </c>
@@ -4000,103 +4468,127 @@
         <v>6</v>
       </c>
       <c r="AC27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AG27">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD27">
+        <v>5</v>
+      </c>
+      <c r="AH27">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE27">
+        <v>6</v>
+      </c>
+      <c r="AI27">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="AF27">
+        <v>5</v>
+      </c>
+      <c r="AJ27" cm="1">
+        <f t="array" ref="AJ27">SUMPRODUCT(($K$2:$K$81=Z27)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AK27" cm="1">
+        <f t="array" ref="AK27">SUMPRODUCT(($K$2:$K$81=Z27)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL27" cm="1">
+        <f t="array" ref="AL27">SUMPRODUCT(($J$2:$J$81=Z27)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AM27" cm="1">
+        <f t="array" ref="AM27">SUMPRODUCT(($J$2:$J$81=Z27)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AN27">
+        <f>COUNTIFS($K$2:$K$81,Z27,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <f>COUNTIFS($J$2:$J$81,Z27,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z27,$C$2:$C$81, 1)</f>
+        <v>14</v>
+      </c>
+      <c r="AQ27">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z27,$C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AR27">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z27,$C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AS27">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z27,$C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AT27">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AG27">
+        <v>7</v>
+      </c>
+      <c r="AU27">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
         <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="AI27">
+        <v>19</v>
+      </c>
+      <c r="AW27">
         <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="AJ27">
+        <v>12</v>
+      </c>
+      <c r="AX27">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="AK27">
+      <c r="AY27">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="AL27">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AZ27">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="AM27">
+        <v>2.5</v>
+      </c>
+      <c r="BA27">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN27">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB27">
         <f t="shared" si="20"/>
-        <v>19</v>
-      </c>
-      <c r="AO27">
-        <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="AP27">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="AQ27">
-        <f t="shared" si="23"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AR27">
-        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
-      <c r="AS27">
-        <f t="shared" si="25"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AT27">
-        <f t="shared" si="26"/>
-        <v>2.5</v>
-      </c>
-      <c r="AU27">
-        <f t="shared" si="27"/>
+      <c r="BC27">
+        <f>AV27/AA27</f>
         <v>3.8</v>
       </c>
-      <c r="AV27">
-        <f t="shared" si="28"/>
+      <c r="BD27">
+        <f>AW27/AA27</f>
         <v>2.4</v>
       </c>
-      <c r="AY27">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="BB27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <f t="shared" si="8"/>
-        <v>23</v>
+      <c r="BG27">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z27,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ27" t="e">
+        <f>AP27+#REF!+#REF!+BG27</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>45409</v>
       </c>
@@ -4162,103 +4654,127 @@
         <v>0</v>
       </c>
       <c r="AC28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AG28">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD28">
+        <v>3</v>
+      </c>
+      <c r="AH28">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
         <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AJ28" cm="1">
+        <f t="array" ref="AJ28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AK28" cm="1">
+        <f t="array" ref="AK28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AL28" cm="1">
+        <f t="array" ref="AL28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>0</v>
+      </c>
+      <c r="AM28" cm="1">
+        <f t="array" ref="AM28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AN28">
+        <f>COUNTIFS($K$2:$K$81,Z28,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO28">
+        <f>COUNTIFS($J$2:$J$81,Z28,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP28">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z28,$C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
-      <c r="AF28">
+      <c r="AQ28">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z28,$C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AR28">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z28,$C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AS28">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z28,$C$2:$C$81, 1)</f>
+        <v>14</v>
+      </c>
+      <c r="AT28">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AH28">
+        <v>-7</v>
+      </c>
+      <c r="AV28">
         <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="AI28">
+        <v>12</v>
+      </c>
+      <c r="AW28">
         <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="AJ28">
+        <v>19</v>
+      </c>
+      <c r="AX28">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="AK28">
+        <v>-7</v>
+      </c>
+      <c r="AY28">
         <f t="shared" si="17"/>
-        <v>14</v>
-      </c>
-      <c r="AL28">
+        <v>2.5</v>
+      </c>
+      <c r="AZ28">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM28">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA28">
         <f t="shared" si="19"/>
-        <v>-7</v>
-      </c>
-      <c r="AN28">
+        <v>2.5</v>
+      </c>
+      <c r="BB28">
         <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-      <c r="AO28">
-        <f t="shared" si="21"/>
-        <v>19</v>
-      </c>
-      <c r="AP28">
-        <f t="shared" si="22"/>
-        <v>-7</v>
-      </c>
-      <c r="AQ28">
-        <f t="shared" si="23"/>
-        <v>2.5</v>
-      </c>
-      <c r="AR28">
-        <f t="shared" si="24"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AS28">
-        <f t="shared" si="25"/>
-        <v>2.5</v>
-      </c>
-      <c r="AT28">
-        <f t="shared" si="26"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="AU28">
-        <f t="shared" si="27"/>
+      <c r="BC28">
+        <f>AV28/AA28</f>
         <v>2.4</v>
       </c>
-      <c r="AV28">
-        <f t="shared" si="28"/>
+      <c r="BD28">
+        <f>AW28/AA28</f>
         <v>3.8</v>
       </c>
-      <c r="AY28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <f t="shared" si="8"/>
-        <v>5</v>
+      <c r="BG28">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z28,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ28" t="e">
+        <f>AP28+#REF!+#REF!+BG28</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45410</v>
       </c>
@@ -4324,103 +4840,127 @@
         <v>0</v>
       </c>
       <c r="AC29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AG29">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AH29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AE29">
+      <c r="AI29">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="AF29">
+      <c r="AJ29" cm="1">
+        <f t="array" ref="AJ29">SUMPRODUCT(($K$2:$K$81=Z29)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" cm="1">
+        <f t="array" ref="AK29">SUMPRODUCT(($K$2:$K$81=Z29)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL29" cm="1">
+        <f t="array" ref="AL29">SUMPRODUCT(($J$2:$J$81=Z29)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>0</v>
+      </c>
+      <c r="AM29" cm="1">
+        <f t="array" ref="AM29">SUMPRODUCT(($J$2:$J$81=Z29)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN29">
+        <f>COUNTIFS($K$2:$K$81,Z29,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <f>COUNTIFS($J$2:$J$81,Z29,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AP29">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z29,$C$2:$C$81, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="AQ29">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z29,$C$2:$C$81, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AR29">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z29,$C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AS29">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z29,$C$2:$C$81, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AT29">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AG29">
+        <v>-4</v>
+      </c>
+      <c r="AU29">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AH29">
+        <v>-4</v>
+      </c>
+      <c r="AV29">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AI29">
+        <v>7</v>
+      </c>
+      <c r="AW29">
         <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AJ29">
+        <v>15</v>
+      </c>
+      <c r="AX29">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="AK29">
+        <v>-8</v>
+      </c>
+      <c r="AY29">
         <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-      <c r="AL29">
+        <v>1.5</v>
+      </c>
+      <c r="AZ29">
         <f t="shared" si="18"/>
-        <v>-4</v>
-      </c>
-      <c r="AM29">
+        <v>2</v>
+      </c>
+      <c r="BA29">
         <f t="shared" si="19"/>
-        <v>-4</v>
-      </c>
-      <c r="AN29">
+        <v>3.5</v>
+      </c>
+      <c r="BB29">
         <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="AO29">
-        <f t="shared" si="21"/>
-        <v>15</v>
-      </c>
-      <c r="AP29">
-        <f t="shared" si="22"/>
-        <v>-8</v>
-      </c>
-      <c r="AQ29">
-        <f t="shared" si="23"/>
-        <v>1.5</v>
-      </c>
-      <c r="AR29">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="AS29">
-        <f t="shared" si="25"/>
-        <v>3.5</v>
-      </c>
-      <c r="AT29">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="AU29">
-        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="BC29">
+        <f>AV29/AA29</f>
         <v>1.75</v>
       </c>
-      <c r="AV29">
-        <f t="shared" si="28"/>
+      <c r="BD29">
+        <f>AW29/AA29</f>
         <v>3.75</v>
       </c>
-      <c r="AY29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <f t="shared" si="8"/>
-        <v>3</v>
+      <c r="BG29">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z29,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="e">
+        <f>AP29+#REF!+#REF!+BG29</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45410</v>
       </c>
@@ -4486,103 +5026,127 @@
         <v>6</v>
       </c>
       <c r="AC30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AG30">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD30">
+        <v>6</v>
+      </c>
+      <c r="AH30">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE30">
+        <v>7</v>
+      </c>
+      <c r="AI30">
         <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AJ30" cm="1">
+        <f t="array" ref="AJ30">SUMPRODUCT(($K$2:$K$81=Z30)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK30" cm="1">
+        <f t="array" ref="AK30">SUMPRODUCT(($K$2:$K$81=Z30)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AL30" cm="1">
+        <f t="array" ref="AL30">SUMPRODUCT(($J$2:$J$81=Z30)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM30" cm="1">
+        <f t="array" ref="AM30">SUMPRODUCT(($J$2:$J$81=Z30)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <f>COUNTIFS($K$2:$K$81,Z30,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <f>COUNTIFS($J$2:$J$81,Z30,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z30,$C$2:$C$81, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ30">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z30,$C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AR30">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z30,$C$2:$C$81, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AS30">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z30,$C$2:$C$81, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="AF30">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="AI30">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="AJ30">
+      <c r="AX30">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AY30">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="AL30">
+        <v>2</v>
+      </c>
+      <c r="AZ30">
         <f t="shared" si="18"/>
-        <v>-2</v>
-      </c>
-      <c r="AM30">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA30">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="AN30">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BB30">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="AO30">
-        <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="AP30">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AQ30">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AR30">
-        <f t="shared" si="24"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AS30">
-        <f t="shared" si="25"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AT30">
-        <f t="shared" si="26"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="AU30">
-        <f t="shared" si="27"/>
+      <c r="BC30">
+        <f>AV30/AA30</f>
         <v>2.1666666666666665</v>
       </c>
-      <c r="AV30">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AY30">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="BB30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <f t="shared" si="8"/>
-        <v>17</v>
+      <c r="BD30">
+        <f>AW30/AA30</f>
+        <v>2</v>
+      </c>
+      <c r="BG30">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z30,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="e">
+        <f>AP30+#REF!+#REF!+BG30</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45410</v>
       </c>
@@ -4648,103 +5212,127 @@
         <v>6</v>
       </c>
       <c r="AC31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AG31">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD31">
+        <v>5</v>
+      </c>
+      <c r="AH31">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE31">
+        <v>5</v>
+      </c>
+      <c r="AI31">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="AF31">
+        <v>6</v>
+      </c>
+      <c r="AJ31" cm="1">
+        <f t="array" ref="AJ31">SUMPRODUCT(($K$2:$K$81=Z31)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK31" cm="1">
+        <f t="array" ref="AK31">SUMPRODUCT(($K$2:$K$81=Z31)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL31" cm="1">
+        <f t="array" ref="AL31">SUMPRODUCT(($J$2:$J$81=Z31)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AM31" cm="1">
+        <f t="array" ref="AM31">SUMPRODUCT(($J$2:$J$81=Z31)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AN31">
+        <f>COUNTIFS($K$2:$K$81,Z31,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <f>COUNTIFS($J$2:$J$81,Z31,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AP31">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z31,$C$2:$C$81, 1)</f>
+        <v>15</v>
+      </c>
+      <c r="AQ31">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z31,$C$2:$C$81, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="AR31">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z31,$C$2:$C$81, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AS31">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z31,$C$2:$C$81, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AT31">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="AG31">
+      <c r="AU31">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AH31">
+        <v>-4</v>
+      </c>
+      <c r="AV31">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="AI31">
+        <v>17</v>
+      </c>
+      <c r="AW31">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AJ31">
+        <v>18</v>
+      </c>
+      <c r="AX31">
         <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="AK31">
+        <v>-1</v>
+      </c>
+      <c r="AY31">
         <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="AL31">
+        <v>5</v>
+      </c>
+      <c r="AZ31">
         <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="BA31">
         <f t="shared" si="19"/>
-        <v>-4</v>
-      </c>
-      <c r="AN31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
         <f t="shared" si="20"/>
-        <v>17</v>
-      </c>
-      <c r="AO31">
-        <f t="shared" si="21"/>
-        <v>18</v>
-      </c>
-      <c r="AP31">
-        <f t="shared" si="22"/>
-        <v>-1</v>
-      </c>
-      <c r="AQ31">
-        <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="AR31">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AS31">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="AT31">
-        <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="AU31">
-        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <f>AV31/AA31</f>
         <v>3.4</v>
       </c>
-      <c r="AV31">
-        <f t="shared" si="28"/>
+      <c r="BD31">
+        <f>AW31/AA31</f>
         <v>3.6</v>
       </c>
-      <c r="AY31">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="BB31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE31">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <f t="shared" si="8"/>
-        <v>21</v>
+      <c r="BG31">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z31,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="e">
+        <f>AP31+#REF!+#REF!+BG31</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>45410</v>
       </c>
@@ -4810,103 +5398,127 @@
         <v>0</v>
       </c>
       <c r="AC32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AG32">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD32">
+        <v>3</v>
+      </c>
+      <c r="AH32">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE32">
+        <v>2</v>
+      </c>
+      <c r="AI32">
         <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AJ32" cm="1">
+        <f t="array" ref="AJ32">SUMPRODUCT(($K$2:$K$81=Z32)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AK32" cm="1">
+        <f t="array" ref="AK32">SUMPRODUCT(($K$2:$K$81=Z32)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AL32" cm="1">
+        <f t="array" ref="AL32">SUMPRODUCT(($J$2:$J$81=Z32)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AM32" cm="1">
+        <f t="array" ref="AM32">SUMPRODUCT(($J$2:$J$81=Z32)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN32">
+        <f>COUNTIFS($K$2:$K$81,Z32,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <f>COUNTIFS($J$2:$J$81,Z32,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z32,$C$2:$C$81, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ32">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z32,$C$2:$C$81, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AR32">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z32,$C$2:$C$81, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="AS32">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z32,$C$2:$C$81, 1)</f>
+        <v>15</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="13"/>
+        <v>-3</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AY32">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AZ32">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="BA32">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="AF32">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="AI32">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="AJ32">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AK32">
-        <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="AL32">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="AM32">
-        <f t="shared" si="19"/>
-        <v>-3</v>
-      </c>
-      <c r="AN32">
-        <f t="shared" si="20"/>
-        <v>18</v>
-      </c>
-      <c r="AO32">
-        <f t="shared" si="21"/>
-        <v>17</v>
-      </c>
-      <c r="AP32">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AQ32">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="AR32">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="AS32">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AT32">
-        <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
-      <c r="AU32">
-        <f t="shared" si="27"/>
+      <c r="BC32">
+        <f>AV32/AA32</f>
         <v>3.6</v>
       </c>
-      <c r="AV32">
-        <f t="shared" si="28"/>
+      <c r="BD32">
+        <f>AW32/AA32</f>
         <v>3.4</v>
       </c>
-      <c r="AY32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <f t="shared" si="8"/>
-        <v>6</v>
+      <c r="BG32">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z32,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ32" t="e">
+        <f>AP32+#REF!+#REF!+BG32</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45411</v>
       </c>
@@ -4972,103 +5584,127 @@
         <v>0</v>
       </c>
       <c r="AC33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AG33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD33">
+        <v>3</v>
+      </c>
+      <c r="AH33">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE33">
+        <v>2</v>
+      </c>
+      <c r="AI33">
         <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AJ33" cm="1">
+        <f t="array" ref="AJ33">SUMPRODUCT(($K$2:$K$81=Z33)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>0</v>
+      </c>
+      <c r="AK33" cm="1">
+        <f t="array" ref="AK33">SUMPRODUCT(($K$2:$K$81=Z33)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AL33" cm="1">
+        <f t="array" ref="AL33">SUMPRODUCT(($J$2:$J$81=Z33)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AM33" cm="1">
+        <f t="array" ref="AM33">SUMPRODUCT(($J$2:$J$81=Z33)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <f>COUNTIFS($K$2:$K$81,Z33,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <f>COUNTIFS($J$2:$J$81,Z33,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z33,$C$2:$C$81, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AQ33">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z33,$C$2:$C$81, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AR33">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z33,$C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AS33">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z33,$C$2:$C$81, 1)</f>
         <v>6</v>
       </c>
-      <c r="AF33">
+      <c r="AT33">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AG33">
+        <v>-3</v>
+      </c>
+      <c r="AU33">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AH33">
+        <v>2</v>
+      </c>
+      <c r="AV33">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AI33">
+        <v>12</v>
+      </c>
+      <c r="AW33">
         <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="AJ33">
+        <v>13</v>
+      </c>
+      <c r="AX33">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="AK33">
+        <v>-1</v>
+      </c>
+      <c r="AY33">
         <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="AL33">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AZ33">
         <f t="shared" si="18"/>
-        <v>-3</v>
-      </c>
-      <c r="AM33">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BA33">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AN33">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB33">
         <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-      <c r="AO33">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="AP33">
-        <f t="shared" si="22"/>
-        <v>-1</v>
-      </c>
-      <c r="AQ33">
-        <f t="shared" si="23"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AR33">
-        <f t="shared" si="24"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AS33">
-        <f t="shared" si="25"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AT33">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="AU33">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AV33">
-        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="BC33">
+        <f>AV33/AA33</f>
+        <v>2</v>
+      </c>
+      <c r="BD33">
+        <f>AW33/AA33</f>
         <v>2.1666666666666665</v>
       </c>
-      <c r="AY33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH33">
-        <f t="shared" si="8"/>
-        <v>4</v>
+      <c r="BG33">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z33,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ33" t="e">
+        <f>AP33+#REF!+#REF!+BG33</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>45411</v>
       </c>
@@ -5134,103 +5770,127 @@
         <v>6</v>
       </c>
       <c r="AC34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AG34">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD34">
+        <v>6</v>
+      </c>
+      <c r="AH34">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE34">
+        <v>7</v>
+      </c>
+      <c r="AI34">
         <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="AF34">
+        <v>6</v>
+      </c>
+      <c r="AJ34" cm="1">
+        <f t="array" ref="AJ34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK34" cm="1">
+        <f t="array" ref="AK34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AL34" cm="1">
+        <f t="array" ref="AL34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM34" cm="1">
+        <f t="array" ref="AM34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <f>COUNTIFS($K$2:$K$81,Z34,$C$2:$C$81,1)</f>
+        <v>4</v>
+      </c>
+      <c r="AO34">
+        <f>COUNTIFS($J$2:$J$81,Z34,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z34,$C$2:$C$81, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AQ34">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z34,$C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AR34">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z34,$C$2:$C$81, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AS34">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z34,$C$2:$C$81, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AT34">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AV34">
         <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="AI34">
+        <v>17</v>
+      </c>
+      <c r="AW34">
         <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="AJ34">
+        <v>16</v>
+      </c>
+      <c r="AX34">
         <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AY34">
         <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="AL34">
+        <v>2.5</v>
+      </c>
+      <c r="AZ34">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM34">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA34">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AN34">
+        <v>2.5</v>
+      </c>
+      <c r="BB34">
         <f t="shared" si="20"/>
-        <v>17</v>
-      </c>
-      <c r="AO34">
-        <f t="shared" si="21"/>
-        <v>16</v>
-      </c>
-      <c r="AP34">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AQ34">
-        <f t="shared" si="23"/>
-        <v>2.5</v>
-      </c>
-      <c r="AR34">
-        <f t="shared" si="24"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AS34">
-        <f t="shared" si="25"/>
-        <v>2.5</v>
-      </c>
-      <c r="AT34">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="AU34">
-        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="BC34">
+        <f>AV34/AA34</f>
         <v>2.4285714285714284</v>
       </c>
-      <c r="AV34">
-        <f t="shared" si="28"/>
+      <c r="BD34">
+        <f>AW34/AA34</f>
         <v>2.2857142857142856</v>
       </c>
-      <c r="AY34">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="BB34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <f t="shared" si="8"/>
-        <v>21</v>
+      <c r="BG34">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z34,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ34" t="e">
+        <f>AP34+#REF!+#REF!+BG34</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45412</v>
       </c>
@@ -5280,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35:Q49" si="29">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <f t="shared" ref="Q35:Q49" si="21">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>1</v>
       </c>
       <c r="V35" s="4"/>
@@ -5296,103 +5956,127 @@
         <v>0</v>
       </c>
       <c r="AC35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AG35">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AF35">
+        <v>4</v>
+      </c>
+      <c r="AJ35" cm="1">
+        <f t="array" ref="AJ35">SUMPRODUCT(($K$2:$K$81=Z35)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AK35" cm="1">
+        <f t="array" ref="AK35">SUMPRODUCT(($K$2:$K$81=Z35)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL35" cm="1">
+        <f t="array" ref="AL35">SUMPRODUCT(($J$2:$J$81=Z35)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>0</v>
+      </c>
+      <c r="AM35" cm="1">
+        <f t="array" ref="AM35">SUMPRODUCT(($J$2:$J$81=Z35)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN35">
+        <f>COUNTIFS($K$2:$K$81,Z35,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <f>COUNTIFS($J$2:$J$81,Z35,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AP35">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z35,$C$2:$C$81, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AQ35">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z35,$C$2:$C$81, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z35,$C$2:$C$81, 1)</f>
+        <v>17</v>
+      </c>
+      <c r="AS35">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z35,$C$2:$C$81, 1)</f>
+        <v>11</v>
+      </c>
+      <c r="AT35">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AG35">
+        <v>-5</v>
+      </c>
+      <c r="AU35">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AH35">
+        <v>-8</v>
+      </c>
+      <c r="AV35">
         <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="AI35">
+        <v>15</v>
+      </c>
+      <c r="AW35">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="AJ35">
+        <v>28</v>
+      </c>
+      <c r="AX35">
         <f t="shared" si="16"/>
-        <v>17</v>
-      </c>
-      <c r="AK35">
+        <v>-13</v>
+      </c>
+      <c r="AY35">
         <f t="shared" si="17"/>
-        <v>11</v>
-      </c>
-      <c r="AL35">
+        <v>4</v>
+      </c>
+      <c r="AZ35">
         <f t="shared" si="18"/>
-        <v>-5</v>
-      </c>
-      <c r="AM35">
+        <v>1.5</v>
+      </c>
+      <c r="BA35">
         <f t="shared" si="19"/>
-        <v>-8</v>
-      </c>
-      <c r="AN35">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="BB35">
         <f t="shared" si="20"/>
-        <v>15</v>
-      </c>
-      <c r="AO35">
-        <f t="shared" si="21"/>
-        <v>28</v>
-      </c>
-      <c r="AP35">
-        <f t="shared" si="22"/>
-        <v>-13</v>
-      </c>
-      <c r="AQ35">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="AR35">
-        <f t="shared" si="24"/>
-        <v>1.5</v>
-      </c>
-      <c r="AS35">
-        <f t="shared" si="25"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="AT35">
-        <f t="shared" si="26"/>
         <v>5.5</v>
       </c>
-      <c r="AU35">
-        <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="AV35">
-        <f t="shared" si="28"/>
+      <c r="BC35">
+        <f>AV35/AA35</f>
+        <v>3</v>
+      </c>
+      <c r="BD35">
+        <f>AW35/AA35</f>
         <v>5.6</v>
       </c>
-      <c r="AY35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE35">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH35">
-        <f t="shared" si="8"/>
-        <v>12</v>
+      <c r="BG35">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z35,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ35" t="e">
+        <f>AP35+#REF!+#REF!+BG35</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45412</v>
       </c>
@@ -5442,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V36" s="4"/>
@@ -5458,103 +6142,127 @@
         <v>6</v>
       </c>
       <c r="AC36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AG36">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD36">
+        <v>6</v>
+      </c>
+      <c r="AH36">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE36">
+        <v>6</v>
+      </c>
+      <c r="AI36">
         <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AJ36" cm="1">
+        <f t="array" ref="AJ36">SUMPRODUCT(($K$2:$K$81=Z36)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AK36" cm="1">
+        <f t="array" ref="AK36">SUMPRODUCT(($K$2:$K$81=Z36)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL36" cm="1">
+        <f t="array" ref="AL36">SUMPRODUCT(($J$2:$J$81=Z36)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM36" cm="1">
+        <f t="array" ref="AM36">SUMPRODUCT(($J$2:$J$81=Z36)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN36">
+        <f>COUNTIFS($K$2:$K$81,Z36,$C$2:$C$81,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <f>COUNTIFS($J$2:$J$81,Z36,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z36,$C$2:$C$81, 1)</f>
         <v>11</v>
       </c>
-      <c r="AF36">
+      <c r="AQ36">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z36,$C$2:$C$81, 1)</f>
+        <v>17</v>
+      </c>
+      <c r="AR36">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z36,$C$2:$C$81, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="AS36">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z36,$C$2:$C$81, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AT36">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AG36">
+        <v>8</v>
+      </c>
+      <c r="AU36">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AH36">
+        <v>5</v>
+      </c>
+      <c r="AV36">
         <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-      <c r="AI36">
+        <v>28</v>
+      </c>
+      <c r="AW36">
         <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="AJ36">
+        <v>15</v>
+      </c>
+      <c r="AX36">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="AK36">
+        <v>13</v>
+      </c>
+      <c r="AY36">
         <f t="shared" si="17"/>
-        <v>12</v>
-      </c>
-      <c r="AL36">
+        <v>5.5</v>
+      </c>
+      <c r="AZ36">
         <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="AM36">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="BA36">
         <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="AN36">
+        <v>1.5</v>
+      </c>
+      <c r="BB36">
         <f t="shared" si="20"/>
-        <v>28</v>
-      </c>
-      <c r="AO36">
-        <f t="shared" si="21"/>
-        <v>15</v>
-      </c>
-      <c r="AP36">
-        <f t="shared" si="22"/>
-        <v>13</v>
-      </c>
-      <c r="AQ36">
-        <f t="shared" si="23"/>
-        <v>5.5</v>
-      </c>
-      <c r="AR36">
-        <f t="shared" si="24"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="AS36">
-        <f t="shared" si="25"/>
-        <v>1.5</v>
-      </c>
-      <c r="AT36">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="AU36">
-        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="BC36">
+        <f>AV36/AA36</f>
         <v>5.6</v>
       </c>
-      <c r="AV36">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="AY36">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BB36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <f t="shared" si="8"/>
-        <v>13</v>
+      <c r="BD36">
+        <f>AW36/AA36</f>
+        <v>3</v>
+      </c>
+      <c r="BG36">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z36,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ36" t="e">
+        <f>AP36+#REF!+#REF!+BG36</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>45412</v>
       </c>
@@ -5604,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V37" s="4"/>
@@ -5620,103 +6328,127 @@
         <v>0</v>
       </c>
       <c r="AC37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AG37">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AD37">
+        <v>4</v>
+      </c>
+      <c r="AH37">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE37">
+        <v>3</v>
+      </c>
+      <c r="AI37">
         <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AJ37" cm="1">
+        <f t="array" ref="AJ37">SUMPRODUCT(($K$2:$K$81=Z37)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AK37" cm="1">
+        <f t="array" ref="AK37">SUMPRODUCT(($K$2:$K$81=Z37)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL37" cm="1">
+        <f t="array" ref="AL37">SUMPRODUCT(($J$2:$J$81=Z37)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AM37" cm="1">
+        <f t="array" ref="AM37">SUMPRODUCT(($J$2:$J$81=Z37)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN37">
+        <f>COUNTIFS($K$2:$K$81,Z37,$C$2:$C$81,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <f>COUNTIFS($J$2:$J$81,Z37,$C$2:$C$81,1)</f>
+        <v>4</v>
+      </c>
+      <c r="AP37">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z37,$C$2:$C$81, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ37">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z37,$C$2:$C$81, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AR37">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z37,$C$2:$C$81, 1)</f>
         <v>7</v>
       </c>
-      <c r="AF37">
+      <c r="AS37">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z37,$C$2:$C$81, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AT37">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AG37">
+        <v>-1</v>
+      </c>
+      <c r="AU37">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
         <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="AI37">
+        <v>16</v>
+      </c>
+      <c r="AW37">
         <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="AJ37">
+        <v>17</v>
+      </c>
+      <c r="AX37">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="AK37">
+        <v>-1</v>
+      </c>
+      <c r="AY37">
         <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="AL37">
+        <v>2</v>
+      </c>
+      <c r="AZ37">
         <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="AM37">
+        <v>2.5</v>
+      </c>
+      <c r="BA37">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN37">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB37">
         <f t="shared" si="20"/>
-        <v>16</v>
-      </c>
-      <c r="AO37">
-        <f t="shared" si="21"/>
-        <v>17</v>
-      </c>
-      <c r="AP37">
-        <f t="shared" si="22"/>
-        <v>-1</v>
-      </c>
-      <c r="AQ37">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AR37">
-        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
-      <c r="AS37">
-        <f t="shared" si="25"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AT37">
-        <f t="shared" si="26"/>
-        <v>2.5</v>
-      </c>
-      <c r="AU37">
-        <f t="shared" si="27"/>
+      <c r="BC37">
+        <f>AV37/AA37</f>
         <v>2.2857142857142856</v>
       </c>
-      <c r="AV37">
-        <f t="shared" si="28"/>
+      <c r="BD37">
+        <f>AW37/AA37</f>
         <v>2.4285714285714284</v>
       </c>
-      <c r="AY37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <f t="shared" si="8"/>
-        <v>6</v>
+      <c r="BG37">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z37,$C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ37" t="e">
+        <f>AP37+#REF!+#REF!+BG37</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>45412</v>
       </c>
@@ -5766,12 +6498,12 @@
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45413</v>
       </c>
@@ -5821,12 +6553,12 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>45413</v>
       </c>
@@ -5876,12 +6608,102 @@
         <v>0</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V40" s="4"/>
+      <c r="AA40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>116</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>45414</v>
       </c>
@@ -5931,12 +6753,135 @@
         <v>0</v>
       </c>
       <c r="Q41" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V41" s="4"/>
+      <c r="Z41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" ref="AA41:AA56" si="22">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" ref="AB41:AB56" si="23">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC41">
+        <f>COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f>COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <f>AA41+AB41+AC41+AD41</f>
+        <v>11</v>
+      </c>
+      <c r="AF41">
+        <f>COUNTIF($K$2:$K$81, Z41)</f>
+        <v>6</v>
+      </c>
+      <c r="AG41">
+        <f>COUNTIF($J$2:$J$81, Z41)</f>
+        <v>5</v>
+      </c>
+      <c r="AH41">
+        <f>AJ41+AL41</f>
+        <v>7</v>
+      </c>
+      <c r="AI41">
+        <f>AE41-AH41</f>
+        <v>4</v>
+      </c>
+      <c r="AJ41" cm="1">
+        <f t="array" ref="AJ41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AK41" cm="1">
+        <f t="array" ref="AK41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL41" cm="1">
+        <f t="array" ref="AL41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AM41" cm="1">
+        <f t="array" ref="AM41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <f>COUNTIFS($K$2:$K$81,Z41,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <f>COUNTIFS($J$2:$J$81,Z41,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AP41">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z41,$C$2:$C$81, 2)</f>
+        <v>8</v>
+      </c>
+      <c r="AQ41">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z41,$C$2:$C$81, 2)</f>
+        <v>9</v>
+      </c>
+      <c r="AR41">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z41,$C$2:$C$81, 2)</f>
+        <v>8</v>
+      </c>
+      <c r="AS41">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z41,$C$2:$C$81, 2)</f>
+        <v>4</v>
+      </c>
+      <c r="AT41">
+        <f>AP41-AR41</f>
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <f>AQ41-AS41</f>
+        <v>5</v>
+      </c>
+      <c r="AV41">
+        <f>AP41+AQ41</f>
+        <v>17</v>
+      </c>
+      <c r="AW41">
+        <f>AR41+AS41</f>
+        <v>12</v>
+      </c>
+      <c r="AX41">
+        <f>(AP41+AQ41)-(AR41+AS41)</f>
+        <v>5</v>
+      </c>
+      <c r="AY41">
+        <f>AP41/AN41</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AZ41">
+        <f>AQ41/AO41</f>
+        <v>3</v>
+      </c>
+      <c r="BA41">
+        <f>AR41/AN41</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BB41">
+        <f>AS41/AO41</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="BC41">
+        <f>AV41/AA41</f>
+        <v>3.4</v>
+      </c>
+      <c r="BD41">
+        <f>AW41/AA41</f>
+        <v>2.4</v>
+      </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>45415</v>
       </c>
@@ -5986,11 +6931,134 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" ref="AC42:AC56" si="24">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" ref="AD42:AD56" si="25">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" ref="AE42:AE56" si="26">AA42+AB42+AC42+AD42</f>
+        <v>13</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" ref="AF42:AF56" si="27">COUNTIF($K$2:$K$81, Z42)</f>
+        <v>7</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" ref="AG42:AG56" si="28">COUNTIF($J$2:$J$81, Z42)</f>
+        <v>6</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" ref="AH42:AH56" si="29">AJ42+AL42</f>
+        <v>6</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" ref="AI42:AI56" si="30">AE42-AH42</f>
+        <v>7</v>
+      </c>
+      <c r="AJ42" cm="1">
+        <f t="array" ref="AJ42">SUMPRODUCT(($K$2:$K$81=Z42)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AK42" cm="1">
+        <f t="array" ref="AK42">SUMPRODUCT(($K$2:$K$81=Z42)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AL42" cm="1">
+        <f t="array" ref="AL42">SUMPRODUCT(($J$2:$J$81=Z42)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM42" cm="1">
+        <f t="array" ref="AM42">SUMPRODUCT(($J$2:$J$81=Z42)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" ref="AN42:AN55" si="31">COUNTIFS($K$2:$K$81,Z42,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" ref="AO42:AO55" si="32">COUNTIFS($J$2:$J$81,Z42,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AP42">
+        <f t="shared" ref="AP42:AP55" si="33">SUMIFS($O$2:$O$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <v>4</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" ref="AQ42:AQ55" si="34">SUMIFS($N$2:$N$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <v>8</v>
+      </c>
+      <c r="AR42">
+        <f t="shared" ref="AR42:AR55" si="35">SUMIFS($N$2:$N$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <v>9</v>
+      </c>
+      <c r="AS42">
+        <f t="shared" ref="AS42:AS55" si="36">SUMIFS($O$2:$O$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <v>8</v>
+      </c>
+      <c r="AT42">
+        <f t="shared" ref="AT42:AT55" si="37">AP42-AR42</f>
+        <v>-5</v>
+      </c>
+      <c r="AU42">
+        <f t="shared" ref="AU42:AU55" si="38">AQ42-AS42</f>
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <f t="shared" ref="AV42:AV55" si="39">AP42+AQ42</f>
+        <v>12</v>
+      </c>
+      <c r="AW42">
+        <f t="shared" ref="AW42:AW55" si="40">AR42+AS42</f>
+        <v>17</v>
+      </c>
+      <c r="AX42">
+        <f t="shared" ref="AX42:AX55" si="41">(AP42+AQ42)-(AR42+AS42)</f>
+        <v>-5</v>
+      </c>
+      <c r="AY42">
+        <f t="shared" ref="AY42:AY55" si="42">AP42/AN42</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AZ42">
+        <f t="shared" ref="AZ42:AZ55" si="43">AQ42/AO42</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BA42">
+        <f t="shared" ref="BA42:BA55" si="44">AR42/AN42</f>
+        <v>3</v>
+      </c>
+      <c r="BB42">
+        <f t="shared" ref="BB42:BB55" si="45">AS42/AO42</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BC42">
+        <f t="shared" ref="BC42:BC55" si="46">AV42/AA42</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="BD42">
+        <f t="shared" ref="BD42:BD55" si="47">AW42/AA42</f>
+        <v>2.4285714285714284</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>45415</v>
       </c>
@@ -6040,11 +7108,134 @@
         <v>0</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA43">
+        <f>COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB43">
+        <f>COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC43">
+        <f>COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <f>COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <f>AA43+AB43+AC43+AD43</f>
+        <v>10</v>
+      </c>
+      <c r="AF43">
+        <f>COUNTIF($K$2:$K$81, Z43)</f>
+        <v>5</v>
+      </c>
+      <c r="AG43">
+        <f>COUNTIF($J$2:$J$81, Z43)</f>
+        <v>5</v>
+      </c>
+      <c r="AH43">
+        <f>AJ43+AL43</f>
+        <v>8</v>
+      </c>
+      <c r="AI43">
+        <f>AE43-AH43</f>
+        <v>2</v>
+      </c>
+      <c r="AJ43" cm="1">
+        <f t="array" ref="AJ43">SUMPRODUCT(($K$2:$K$81=Z43)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AK43" cm="1">
+        <f t="array" ref="AK43">SUMPRODUCT(($K$2:$K$81=Z43)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AL43" cm="1">
+        <f t="array" ref="AL43">SUMPRODUCT(($J$2:$J$81=Z43)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM43" cm="1">
+        <f t="array" ref="AM43">SUMPRODUCT(($J$2:$J$81=Z43)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <f>COUNTIFS($K$2:$K$81,Z43,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <f>COUNTIFS($J$2:$J$81,Z43,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <v>9</v>
+      </c>
+      <c r="AQ43">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <v>11</v>
+      </c>
+      <c r="AR43">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="AS43">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <v>9</v>
+      </c>
+      <c r="AT43">
+        <f>AP43-AR43</f>
+        <v>-1</v>
+      </c>
+      <c r="AU43">
+        <f>AQ43-AS43</f>
+        <v>2</v>
+      </c>
+      <c r="AV43">
+        <f>AP43+AQ43</f>
+        <v>20</v>
+      </c>
+      <c r="AW43">
+        <f>AR43+AS43</f>
+        <v>19</v>
+      </c>
+      <c r="AX43">
+        <f>(AP43+AQ43)-(AR43+AS43)</f>
+        <v>1</v>
+      </c>
+      <c r="AY43">
+        <f>AP43/AN43</f>
+        <v>3</v>
+      </c>
+      <c r="AZ43">
+        <f>AQ43/AO43</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BA43">
+        <f>AR43/AN43</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="BB43">
+        <f>AS43/AO43</f>
+        <v>3</v>
+      </c>
+      <c r="BC43">
+        <f>AV43/AA43</f>
+        <v>5</v>
+      </c>
+      <c r="BD43">
+        <f>AW43/AA43</f>
+        <v>4.75</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>45416</v>
       </c>
@@ -6094,11 +7285,134 @@
         <v>1</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <f>COUNTIFS($J$2:$J$81, Z44, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z44, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB44">
+        <f>COUNTIFS($J$2:$J$81, Z44, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z44, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC44">
+        <f>COUNTIFS($J$2:$J$81, Z44, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z44, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f>COUNTIFS($J$2:$J$81, Z44, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z44, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f>AA44+AB44+AC44+AD44</f>
+        <v>11</v>
+      </c>
+      <c r="AF44">
+        <f>COUNTIF($K$2:$K$81, Z44)</f>
+        <v>6</v>
+      </c>
+      <c r="AG44">
+        <f>COUNTIF($J$2:$J$81, Z44)</f>
+        <v>5</v>
+      </c>
+      <c r="AH44">
+        <f>AJ44+AL44</f>
+        <v>6</v>
+      </c>
+      <c r="AI44">
+        <f>AE44-AH44</f>
+        <v>5</v>
+      </c>
+      <c r="AJ44" cm="1">
+        <f t="array" ref="AJ44">SUMPRODUCT(($K$2:$K$81=Z44)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AK44" cm="1">
+        <f t="array" ref="AK44">SUMPRODUCT(($K$2:$K$81=Z44)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL44" cm="1">
+        <f t="array" ref="AL44">SUMPRODUCT(($J$2:$J$81=Z44)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AM44" cm="1">
+        <f t="array" ref="AM44">SUMPRODUCT(($J$2:$J$81=Z44)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AN44">
+        <f>COUNTIFS($K$2:$K$81,Z44,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <f>COUNTIFS($J$2:$J$81,Z44,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AP44">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z44,$C$2:$C$81, 2)</f>
+        <v>9</v>
+      </c>
+      <c r="AQ44">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z44,$C$2:$C$81, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="AR44">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z44,$C$2:$C$81, 2)</f>
+        <v>11</v>
+      </c>
+      <c r="AS44">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z44,$C$2:$C$81, 2)</f>
+        <v>9</v>
+      </c>
+      <c r="AT44">
+        <f>AP44-AR44</f>
+        <v>-2</v>
+      </c>
+      <c r="AU44">
+        <f>AQ44-AS44</f>
+        <v>1</v>
+      </c>
+      <c r="AV44">
+        <f>AP44+AQ44</f>
+        <v>19</v>
+      </c>
+      <c r="AW44">
+        <f>AR44+AS44</f>
+        <v>20</v>
+      </c>
+      <c r="AX44">
+        <f>(AP44+AQ44)-(AR44+AS44)</f>
+        <v>-1</v>
+      </c>
+      <c r="AY44">
+        <f>AP44/AN44</f>
+        <v>3</v>
+      </c>
+      <c r="AZ44">
+        <f>AQ44/AO44</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="BA44">
+        <f>AR44/AN44</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BB44">
+        <f>AS44/AO44</f>
+        <v>3</v>
+      </c>
+      <c r="BC44">
+        <f>AV44/AA44</f>
+        <v>3.8</v>
+      </c>
+      <c r="BD44">
+        <f>AW44/AA44</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>45417</v>
       </c>
@@ -6148,11 +7462,134 @@
         <v>0</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA45">
+        <f>COUNTIFS($J$2:$J$81, Z45, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z45, $C$2:$C$81, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AB45">
+        <f>COUNTIFS($J$2:$J$81, Z45, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z45, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC45">
+        <f>COUNTIFS($J$2:$J$81, Z45, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z45, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f>COUNTIFS($J$2:$J$81, Z45, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z45, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f>AA45+AB45+AC45+AD45</f>
+        <v>12</v>
+      </c>
+      <c r="AF45">
+        <f>COUNTIF($K$2:$K$81, Z45)</f>
+        <v>6</v>
+      </c>
+      <c r="AG45">
+        <f>COUNTIF($J$2:$J$81, Z45)</f>
+        <v>6</v>
+      </c>
+      <c r="AH45">
+        <f>AJ45+AL45</f>
+        <v>7</v>
+      </c>
+      <c r="AI45">
+        <f>AE45-AH45</f>
+        <v>5</v>
+      </c>
+      <c r="AJ45" cm="1">
+        <f t="array" ref="AJ45">SUMPRODUCT(($K$2:$K$81=Z45)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK45" cm="1">
+        <f t="array" ref="AK45">SUMPRODUCT(($K$2:$K$81=Z45)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AL45" cm="1">
+        <f t="array" ref="AL45">SUMPRODUCT(($J$2:$J$81=Z45)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM45" cm="1">
+        <f t="array" ref="AM45">SUMPRODUCT(($J$2:$J$81=Z45)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <f>COUNTIFS($K$2:$K$81,Z45,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <f>COUNTIFS($J$2:$J$81,Z45,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AP45">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z45,$C$2:$C$81, 2)</f>
+        <v>11</v>
+      </c>
+      <c r="AQ45">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z45,$C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AR45">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z45,$C$2:$C$81, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="AS45">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z45,$C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AT45">
+        <f>AP45-AR45</f>
+        <v>1</v>
+      </c>
+      <c r="AU45">
+        <f>AQ45-AS45</f>
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <f>AP45+AQ45</f>
+        <v>17</v>
+      </c>
+      <c r="AW45">
+        <f>AR45+AS45</f>
+        <v>16</v>
+      </c>
+      <c r="AX45">
+        <f>(AP45+AQ45)-(AR45+AS45)</f>
+        <v>1</v>
+      </c>
+      <c r="AY45">
+        <f>AP45/AN45</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AZ45">
+        <f>AQ45/AO45</f>
+        <v>2</v>
+      </c>
+      <c r="BA45">
+        <f>AR45/AN45</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="BB45">
+        <f>AS45/AO45</f>
+        <v>2</v>
+      </c>
+      <c r="BC45">
+        <f>AV45/AA45</f>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="BD45">
+        <f>AW45/AA45</f>
+        <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45417</v>
       </c>
@@ -6202,11 +7639,134 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA46">
+        <f>COUNTIFS($J$2:$J$81, Z46, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z46, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB46">
+        <f>COUNTIFS($J$2:$J$81, Z46, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z46, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC46">
+        <f>COUNTIFS($J$2:$J$81, Z46, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z46, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <f>COUNTIFS($J$2:$J$81, Z46, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z46, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <f>AA46+AB46+AC46+AD46</f>
+        <v>11</v>
+      </c>
+      <c r="AF46">
+        <f>COUNTIF($K$2:$K$81, Z46)</f>
+        <v>6</v>
+      </c>
+      <c r="AG46">
+        <f>COUNTIF($J$2:$J$81, Z46)</f>
+        <v>5</v>
+      </c>
+      <c r="AH46">
+        <f>AJ46+AL46</f>
+        <v>5</v>
+      </c>
+      <c r="AI46">
+        <f>AE46-AH46</f>
+        <v>6</v>
+      </c>
+      <c r="AJ46" cm="1">
+        <f t="array" ref="AJ46">SUMPRODUCT(($K$2:$K$81=Z46)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK46" cm="1">
+        <f t="array" ref="AK46">SUMPRODUCT(($K$2:$K$81=Z46)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL46" cm="1">
+        <f t="array" ref="AL46">SUMPRODUCT(($J$2:$J$81=Z46)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AM46" cm="1">
+        <f t="array" ref="AM46">SUMPRODUCT(($J$2:$J$81=Z46)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AN46">
+        <f>COUNTIFS($K$2:$K$81,Z46,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <f>COUNTIFS($J$2:$J$81,Z46,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AP46">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z46,$C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ46">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z46,$C$2:$C$81, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="AR46">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z46,$C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AS46">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z46,$C$2:$C$81, 2)</f>
+        <v>11</v>
+      </c>
+      <c r="AT46">
+        <f>AP46-AR46</f>
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <f>AQ46-AS46</f>
+        <v>-1</v>
+      </c>
+      <c r="AV46">
+        <f>AP46+AQ46</f>
+        <v>16</v>
+      </c>
+      <c r="AW46">
+        <f>AR46+AS46</f>
+        <v>17</v>
+      </c>
+      <c r="AX46">
+        <f>(AP46+AQ46)-(AR46+AS46)</f>
+        <v>-1</v>
+      </c>
+      <c r="AY46">
+        <f>AP46/AN46</f>
+        <v>2</v>
+      </c>
+      <c r="AZ46">
+        <f>AQ46/AO46</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="BA46">
+        <f>AR46/AN46</f>
+        <v>2</v>
+      </c>
+      <c r="BB46">
+        <f>AS46/AO46</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BC46">
+        <f>AV46/AA46</f>
+        <v>3.2</v>
+      </c>
+      <c r="BD46">
+        <f>AW46/AA46</f>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>45418</v>
       </c>
@@ -6256,11 +7816,134 @@
         <v>0</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA47">
+        <f>COUNTIFS($J$2:$J$81, Z47, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z47, $C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AB47">
+        <f>COUNTIFS($J$2:$J$81, Z47, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z47, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC47">
+        <f>COUNTIFS($J$2:$J$81, Z47, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z47, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <f>COUNTIFS($J$2:$J$81, Z47, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z47, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <f>AA47+AB47+AC47+AD47</f>
+        <v>13</v>
+      </c>
+      <c r="AF47">
+        <f>COUNTIF($K$2:$K$81, Z47)</f>
+        <v>7</v>
+      </c>
+      <c r="AG47">
+        <f>COUNTIF($J$2:$J$81, Z47)</f>
+        <v>6</v>
+      </c>
+      <c r="AH47">
+        <f>AJ47+AL47</f>
+        <v>7</v>
+      </c>
+      <c r="AI47">
+        <f>AE47-AH47</f>
+        <v>6</v>
+      </c>
+      <c r="AJ47" cm="1">
+        <f t="array" ref="AJ47">SUMPRODUCT(($K$2:$K$81=Z47)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK47" cm="1">
+        <f t="array" ref="AK47">SUMPRODUCT(($K$2:$K$81=Z47)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AL47" cm="1">
+        <f t="array" ref="AL47">SUMPRODUCT(($J$2:$J$81=Z47)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM47" cm="1">
+        <f t="array" ref="AM47">SUMPRODUCT(($J$2:$J$81=Z47)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <f>COUNTIFS($K$2:$K$81,Z47,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <f>COUNTIFS($J$2:$J$81,Z47,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AP47">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z47,$C$2:$C$81, 2)</f>
+        <v>11</v>
+      </c>
+      <c r="AQ47">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z47,$C$2:$C$81, 2)</f>
+        <v>9</v>
+      </c>
+      <c r="AR47">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z47,$C$2:$C$81, 2)</f>
+        <v>11</v>
+      </c>
+      <c r="AS47">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z47,$C$2:$C$81, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="AT47">
+        <f>AP47-AR47</f>
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <f>AQ47-AS47</f>
+        <v>7</v>
+      </c>
+      <c r="AV47">
+        <f>AP47+AQ47</f>
+        <v>20</v>
+      </c>
+      <c r="AW47">
+        <f>AR47+AS47</f>
+        <v>13</v>
+      </c>
+      <c r="AX47">
+        <f>(AP47+AQ47)-(AR47+AS47)</f>
+        <v>7</v>
+      </c>
+      <c r="AY47">
+        <f>AP47/AN47</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AZ47">
+        <f>AQ47/AO47</f>
+        <v>3</v>
+      </c>
+      <c r="BA47">
+        <f>AR47/AN47</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BB47">
+        <f>AS47/AO47</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BC47">
+        <f>AV47/AA47</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="BD47">
+        <f>AW47/AA47</f>
+        <v>1.8571428571428572</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>45419</v>
       </c>
@@ -6310,11 +7993,134 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA48">
+        <f>COUNTIFS($J$2:$J$81, Z48, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z48, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB48">
+        <f>COUNTIFS($J$2:$J$81, Z48, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z48, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC48">
+        <f>COUNTIFS($J$2:$J$81, Z48, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z48, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <f>COUNTIFS($J$2:$J$81, Z48, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z48, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <f>AA48+AB48+AC48+AD48</f>
+        <v>11</v>
+      </c>
+      <c r="AF48">
+        <f>COUNTIF($K$2:$K$81, Z48)</f>
+        <v>5</v>
+      </c>
+      <c r="AG48">
+        <f>COUNTIF($J$2:$J$81, Z48)</f>
+        <v>6</v>
+      </c>
+      <c r="AH48">
+        <f>AJ48+AL48</f>
+        <v>6</v>
+      </c>
+      <c r="AI48">
+        <f>AE48-AH48</f>
+        <v>5</v>
+      </c>
+      <c r="AJ48" cm="1">
+        <f t="array" ref="AJ48">SUMPRODUCT(($K$2:$K$81=Z48)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AK48" cm="1">
+        <f t="array" ref="AK48">SUMPRODUCT(($K$2:$K$81=Z48)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL48" cm="1">
+        <f t="array" ref="AL48">SUMPRODUCT(($J$2:$J$81=Z48)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM48" cm="1">
+        <f t="array" ref="AM48">SUMPRODUCT(($J$2:$J$81=Z48)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN48">
+        <f>COUNTIFS($K$2:$K$81,Z48,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <f>COUNTIFS($J$2:$J$81,Z48,$C$2:$C$81,2)</f>
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z48,$C$2:$C$81, 2)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ48">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z48,$C$2:$C$81, 2)</f>
+        <v>11</v>
+      </c>
+      <c r="AR48">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z48,$C$2:$C$81, 2)</f>
+        <v>9</v>
+      </c>
+      <c r="AS48">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z48,$C$2:$C$81, 2)</f>
+        <v>11</v>
+      </c>
+      <c r="AT48">
+        <f>AP48-AR48</f>
+        <v>-7</v>
+      </c>
+      <c r="AU48">
+        <f>AQ48-AS48</f>
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <f>AP48+AQ48</f>
+        <v>13</v>
+      </c>
+      <c r="AW48">
+        <f>AR48+AS48</f>
+        <v>20</v>
+      </c>
+      <c r="AX48">
+        <f>(AP48+AQ48)-(AR48+AS48)</f>
+        <v>-7</v>
+      </c>
+      <c r="AY48">
+        <f>AP48/AN48</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AZ48">
+        <f>AQ48/AO48</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BA48">
+        <f>AR48/AN48</f>
+        <v>3</v>
+      </c>
+      <c r="BB48">
+        <f>AS48/AO48</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BC48">
+        <f>AV48/AA48</f>
+        <v>2.6</v>
+      </c>
+      <c r="BD48">
+        <f>AW48/AA48</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>45419</v>
       </c>
@@ -6364,11 +8170,11 @@
         <v>1</v>
       </c>
       <c r="Q49" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45420</v>
       </c>
@@ -6422,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>45420</v>
       </c>
@@ -6475,8 +8281,98 @@
         <f>IF($N51=$O51, 0, IF($J51=$L51, IF($N51&gt;$O51, 1, 0), IF($O51&gt;$N51, 1, 0)))</f>
         <v>1</v>
       </c>
+      <c r="AA51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>45421</v>
       </c>
@@ -6526,11 +8422,134 @@
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q81" si="30">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <f t="shared" ref="Q52:Q81" si="48">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" ref="AA52:AA54" si="49">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" ref="AB52:AB54" si="50">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC52">
+        <f>COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <f>COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <f>AA52+AB52+AC52+AD52</f>
+        <v>11</v>
+      </c>
+      <c r="AF52">
+        <f>COUNTIF($K$2:$K$81, Z52)</f>
+        <v>6</v>
+      </c>
+      <c r="AG52">
+        <f>COUNTIF($J$2:$J$81, Z52)</f>
+        <v>5</v>
+      </c>
+      <c r="AH52">
+        <f>AJ52+AL52</f>
+        <v>7</v>
+      </c>
+      <c r="AI52">
+        <f>AE52-AH52</f>
+        <v>4</v>
+      </c>
+      <c r="AJ52" cm="1">
+        <f t="array" ref="AJ52">SUMPRODUCT(($K$2:$K$81=Z52)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AK52" cm="1">
+        <f t="array" ref="AK52">SUMPRODUCT(($K$2:$K$81=Z52)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL52" cm="1">
+        <f t="array" ref="AL52">SUMPRODUCT(($J$2:$J$81=Z52)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AM52" cm="1">
+        <f t="array" ref="AM52">SUMPRODUCT(($J$2:$J$81=Z52)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <f>COUNTIFS($K$2:$K$81,Z52,$C$2:$C$81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <f>COUNTIFS($J$2:$J$81,Z52,$C$2:$C$81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z52,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z52,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z52,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z52,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <f>AP52-AR52</f>
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <f>AQ52-AS52</f>
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <f>AP52+AQ52</f>
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <f>AR52+AS52</f>
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <f>(AP52+AQ52)-(AR52+AS52)</f>
+        <v>0</v>
+      </c>
+      <c r="AY52" t="e">
+        <f>AP52/AN52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ52" t="e">
+        <f>AQ52/AO52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA52" t="e">
+        <f>AR52/AN52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB52" t="e">
+        <f>AS52/AO52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC52">
+        <f>AV52/AA52</f>
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <f>AW52/AA52</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>45421</v>
       </c>
@@ -6580,11 +8599,134 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="49"/>
+        <v>7</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="50"/>
+        <v>6</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" ref="AC53:AC54" si="51">COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" ref="AD53:AD54" si="52">COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" ref="AE53:AE54" si="53">AA53+AB53+AC53+AD53</f>
+        <v>13</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" ref="AF53:AF54" si="54">COUNTIF($K$2:$K$81, Z53)</f>
+        <v>7</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" ref="AG53:AG54" si="55">COUNTIF($J$2:$J$81, Z53)</f>
+        <v>6</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" ref="AH53:AH54" si="56">AJ53+AL53</f>
+        <v>6</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" ref="AI53" si="57">AE53-AH53</f>
+        <v>7</v>
+      </c>
+      <c r="AJ53" cm="1">
+        <f t="array" ref="AJ53">SUMPRODUCT(($K$2:$K$81=Z53)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AK53" cm="1">
+        <f t="array" ref="AK53">SUMPRODUCT(($K$2:$K$81=Z53)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AL53" cm="1">
+        <f t="array" ref="AL53">SUMPRODUCT(($J$2:$J$81=Z53)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM53" cm="1">
+        <f t="array" ref="AM53">SUMPRODUCT(($J$2:$J$81=Z53)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN53">
+        <f>COUNTIFS($K$2:$K$81,Z53,$C$2:$C$81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <f>COUNTIFS($J$2:$J$81,Z53,$C$2:$C$81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z53,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z53,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z53,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z53,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <f>AP53-AR53</f>
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <f>AQ53-AS53</f>
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <f>AP53+AQ53</f>
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <f>AR53+AS53</f>
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <f>(AP53+AQ53)-(AR53+AS53)</f>
+        <v>0</v>
+      </c>
+      <c r="AY53" t="e">
+        <f>AP53/AN53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ53" t="e">
+        <f>AQ53/AO53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA53" t="e">
+        <f>AR53/AN53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB53" t="e">
+        <f>AS53/AO53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC53">
+        <f>AV53/AA53</f>
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <f>AW53/AA53</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>45422</v>
       </c>
@@ -6634,11 +8776,134 @@
         <v>0</v>
       </c>
       <c r="Q54" s="27">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA54">
+        <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB54">
+        <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC54">
+        <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <f>AA54+AB54+AC54+AD54</f>
+        <v>10</v>
+      </c>
+      <c r="AF54">
+        <f>COUNTIF($K$2:$K$81, Z54)</f>
+        <v>5</v>
+      </c>
+      <c r="AG54">
+        <f>COUNTIF($J$2:$J$81, Z54)</f>
+        <v>5</v>
+      </c>
+      <c r="AH54">
+        <f>AJ54+AL54</f>
+        <v>8</v>
+      </c>
+      <c r="AI54">
+        <f>AE54-AH54</f>
+        <v>2</v>
+      </c>
+      <c r="AJ54" cm="1">
+        <f t="array" ref="AJ54">SUMPRODUCT(($K$2:$K$81=Z54)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AK54" cm="1">
+        <f t="array" ref="AK54">SUMPRODUCT(($K$2:$K$81=Z54)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AL54" cm="1">
+        <f t="array" ref="AL54">SUMPRODUCT(($J$2:$J$81=Z54)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM54" cm="1">
+        <f t="array" ref="AM54">SUMPRODUCT(($J$2:$J$81=Z54)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <f>COUNTIFS($K$2:$K$81,Z54,$C$2:$C$81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <f>COUNTIFS($J$2:$J$81,Z54,$C$2:$C$81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z54,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z54,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z54,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z54,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <f>AP54-AR54</f>
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <f>AQ54-AS54</f>
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <f>AP54+AQ54</f>
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <f>AR54+AS54</f>
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <f>(AP54+AQ54)-(AR54+AS54)</f>
+        <v>0</v>
+      </c>
+      <c r="AY54" t="e">
+        <f>AP54/AN54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ54" t="e">
+        <f>AQ54/AO54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA54" t="e">
+        <f>AR54/AN54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB54" t="e">
+        <f>AS54/AO54</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC54">
+        <f>AV54/AA54</f>
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <f>AW54/AA54</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>45422</v>
       </c>
@@ -6688,11 +8953,134 @@
         <v>1</v>
       </c>
       <c r="Q55" s="16">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA55">
+        <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AB55">
+        <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC55">
+        <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <f>AA55+AB55+AC55+AD55</f>
+        <v>12</v>
+      </c>
+      <c r="AF55">
+        <f>COUNTIF($K$2:$K$81, Z55)</f>
+        <v>6</v>
+      </c>
+      <c r="AG55">
+        <f>COUNTIF($J$2:$J$81, Z55)</f>
+        <v>6</v>
+      </c>
+      <c r="AH55">
+        <f>AJ55+AL55</f>
+        <v>7</v>
+      </c>
+      <c r="AI55">
+        <f>AE55-AH55</f>
+        <v>5</v>
+      </c>
+      <c r="AJ55" cm="1">
+        <f t="array" ref="AJ55">SUMPRODUCT(($K$2:$K$81=Z55)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK55" cm="1">
+        <f t="array" ref="AK55">SUMPRODUCT(($K$2:$K$81=Z55)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AL55" cm="1">
+        <f t="array" ref="AL55">SUMPRODUCT(($J$2:$J$81=Z55)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM55" cm="1">
+        <f t="array" ref="AM55">SUMPRODUCT(($J$2:$J$81=Z55)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <f t="shared" ref="AN55:AN58" si="58">COUNTIFS($K$2:$K$81,Z55,$C$2:$C$81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <f t="shared" ref="AO55:AO58" si="59">COUNTIFS($J$2:$J$81,Z55,$C$2:$C$81,3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <f t="shared" ref="AP55:AP58" si="60">SUMIFS($O$2:$O$81, $K$2:$K$81, Z55,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <f t="shared" ref="AQ55:AQ58" si="61">SUMIFS($N$2:$N$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <f t="shared" ref="AR55:AR58" si="62">SUMIFS($N$2:$N$81, $K$2:$K$81, Z55,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <f t="shared" ref="AS55:AS58" si="63">SUMIFS($O$2:$O$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <f t="shared" ref="AT55:AT58" si="64">AP55-AR55</f>
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <f t="shared" ref="AU55:AU58" si="65">AQ55-AS55</f>
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <f t="shared" ref="AV55:AV58" si="66">AP55+AQ55</f>
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <f t="shared" ref="AW55:AW58" si="67">AR55+AS55</f>
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <f t="shared" ref="AX55:AX58" si="68">(AP55+AQ55)-(AR55+AS55)</f>
+        <v>0</v>
+      </c>
+      <c r="AY55" t="e">
+        <f t="shared" ref="AY55:AY58" si="69">AP55/AN55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ55" t="e">
+        <f t="shared" ref="AZ55:AZ58" si="70">AQ55/AO55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA55" t="e">
+        <f t="shared" ref="BA55:BA58" si="71">AR55/AN55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB55" t="e">
+        <f t="shared" ref="BB55:BB58" si="72">AS55/AO55</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC55">
+        <f t="shared" ref="BC55:BC58" si="73">AV55/AA55</f>
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <f t="shared" ref="BD55:BD58" si="74">AW55/AA55</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>45423</v>
       </c>
@@ -6742,11 +9130,134 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA56">
+        <f>COUNTIFS($J$2:$J$81, Z56, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z56, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB56">
+        <f>COUNTIFS($J$2:$J$81, Z56, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z56, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC56">
+        <f>COUNTIFS($J$2:$J$81, Z56, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z56, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <f>COUNTIFS($J$2:$J$81, Z56, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z56, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <f>AA56+AB56+AC56+AD56</f>
+        <v>11</v>
+      </c>
+      <c r="AF56">
+        <f>COUNTIF($K$2:$K$81, Z56)</f>
+        <v>6</v>
+      </c>
+      <c r="AG56">
+        <f>COUNTIF($J$2:$J$81, Z56)</f>
+        <v>5</v>
+      </c>
+      <c r="AH56">
+        <f>AJ56+AL56</f>
+        <v>5</v>
+      </c>
+      <c r="AI56">
+        <f>AE56-AH56</f>
+        <v>6</v>
+      </c>
+      <c r="AJ56" cm="1">
+        <f t="array" ref="AJ56">SUMPRODUCT(($K$2:$K$81=Z56)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK56" cm="1">
+        <f t="array" ref="AK56">SUMPRODUCT(($K$2:$K$81=Z56)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL56" cm="1">
+        <f t="array" ref="AL56">SUMPRODUCT(($J$2:$J$81=Z56)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AM56" cm="1">
+        <f t="array" ref="AM56">SUMPRODUCT(($J$2:$J$81=Z56)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AN56">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AY56" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ56" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA56" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB56" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC56">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <f t="shared" si="74"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>45423</v>
       </c>
@@ -6796,11 +9307,134 @@
         <v>0</v>
       </c>
       <c r="Q57" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA57">
+        <f>COUNTIFS($J$2:$J$81, Z57, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z57, $C$2:$C$81, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AB57">
+        <f>COUNTIFS($J$2:$J$81, Z57, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z57, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC57">
+        <f>COUNTIFS($J$2:$J$81, Z57, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z57, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <f>COUNTIFS($J$2:$J$81, Z57, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z57, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <f>AA57+AB57+AC57+AD57</f>
+        <v>13</v>
+      </c>
+      <c r="AF57">
+        <f>COUNTIF($K$2:$K$81, Z57)</f>
+        <v>7</v>
+      </c>
+      <c r="AG57">
+        <f>COUNTIF($J$2:$J$81, Z57)</f>
+        <v>6</v>
+      </c>
+      <c r="AH57">
+        <f>AJ57+AL57</f>
+        <v>7</v>
+      </c>
+      <c r="AI57">
+        <f>AE57-AH57</f>
+        <v>6</v>
+      </c>
+      <c r="AJ57" cm="1">
+        <f t="array" ref="AJ57">SUMPRODUCT(($K$2:$K$81=Z57)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK57" cm="1">
+        <f t="array" ref="AK57">SUMPRODUCT(($K$2:$K$81=Z57)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AL57" cm="1">
+        <f t="array" ref="AL57">SUMPRODUCT(($J$2:$J$81=Z57)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM57" cm="1">
+        <f t="array" ref="AM57">SUMPRODUCT(($J$2:$J$81=Z57)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AS57">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AY57" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ57" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA57" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB57" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC57">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BD57">
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>45424</v>
       </c>
@@ -6850,11 +9484,134 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA58">
+        <f>COUNTIFS($J$2:$J$81, Z58, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z58, $C$2:$C$81, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB58">
+        <f>COUNTIFS($J$2:$J$81, Z58, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z58, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC58">
+        <f>COUNTIFS($J$2:$J$81, Z58, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z58, $C$2:$C$81, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <f>COUNTIFS($J$2:$J$81, Z58, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z58, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <f>AA58+AB58+AC58+AD58</f>
+        <v>11</v>
+      </c>
+      <c r="AF58">
+        <f>COUNTIF($K$2:$K$81, Z58)</f>
+        <v>5</v>
+      </c>
+      <c r="AG58">
+        <f>COUNTIF($J$2:$J$81, Z58)</f>
+        <v>6</v>
+      </c>
+      <c r="AH58">
+        <f>AJ58+AL58</f>
+        <v>6</v>
+      </c>
+      <c r="AI58">
+        <f>AE58-AH58</f>
+        <v>5</v>
+      </c>
+      <c r="AJ58" cm="1">
+        <f t="array" ref="AJ58">SUMPRODUCT(($K$2:$K$81=Z58)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AK58" cm="1">
+        <f t="array" ref="AK58">SUMPRODUCT(($K$2:$K$81=Z58)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AL58" cm="1">
+        <f t="array" ref="AL58">SUMPRODUCT(($J$2:$J$81=Z58)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM58" cm="1">
+        <f t="array" ref="AM58">SUMPRODUCT(($J$2:$J$81=Z58)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN58">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AW58">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="AX58">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AY58" t="e">
+        <f t="shared" si="69"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AZ58" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BA58" t="e">
+        <f t="shared" si="71"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BB58" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC58">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BD58">
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>45424</v>
       </c>
@@ -6904,11 +9661,11 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>45425</v>
       </c>
@@ -6958,11 +9715,11 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>45425</v>
       </c>
@@ -7012,11 +9769,11 @@
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>45426</v>
       </c>
@@ -7066,11 +9823,11 @@
         <v>0</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>45426</v>
       </c>
@@ -7120,11 +9877,11 @@
         <v>0</v>
       </c>
       <c r="Q63" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>45427</v>
       </c>
@@ -7174,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
     </row>
@@ -7228,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -7326,7 +10083,7 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -7370,7 +10127,7 @@
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -7410,7 +10167,7 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -7428,7 +10185,7 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -7446,7 +10203,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -7464,7 +10221,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -7482,7 +10239,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -7500,7 +10257,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W74" s="2">
@@ -7522,7 +10279,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -7540,7 +10297,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -7558,7 +10315,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -7576,81 +10333,81 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q79" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q80" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q81" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A38:XFD74 A1:XFD20 A21:AE37 AF21:AG21 AI21:AV21 AZ21:BA21 BF21:BG21 AH21:AH37 AY21:AY37 BB21:BB37 BE21:BE37 BG21:XFD37 A75:B75 E75:XFD75 A76:XFD1048576">
-    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
-      <formula>"FLA"</formula>
+  <conditionalFormatting sqref="A38:XFD39 A1:XFD20 A21:AE37 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 A75:B75 E75:XFD75 A76:XFD1048576 AF21:AO21 BI21:XFD37 A59:XFD74 AQ40:BD40 AF40:AO40 Z45:AE48 A40:AE44 AP40:AP48 A45:Y58 BE40:XFD58 Z55:AE58">
+    <cfRule type="cellIs" dxfId="50" priority="103" operator="equal">
+      <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="104" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="105" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="106" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="107" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="108" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="109" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="110" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="111" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="112" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="113" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="114" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="115" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="116" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="117" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="53" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="52" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="50" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="48" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="46" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="44" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="45" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
-      <formula>"LAK"</formula>
+    <cfRule type="cellIs" dxfId="35" priority="118" operator="equal">
+      <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I79">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -7662,7 +10419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I33">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -7674,7 +10431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:I62 H63">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -7684,7 +10441,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="2"/>
@@ -7696,7 +10453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7705,13 +10462,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA22:AD37">
-    <cfRule type="cellIs" dxfId="16" priority="39" operator="equal">
+  <conditionalFormatting sqref="AA22:AD37 AA41:AD48 AA55:AD58">
+    <cfRule type="cellIs" dxfId="34" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD17">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7723,7 +10480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22:AE37">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7734,8 +10491,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN22:AN37">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="AV22:AV37">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7746,8 +10503,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO22:AO37">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="AW22:AW37">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7758,8 +10515,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP22:AP37 AL22:AM37">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="AX22:AX37 AT22:AU37">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7770,8 +10527,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ22:AR37 AU22:AU37">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="AY22:AZ37 BC22:BC37">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7780,8 +10537,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS22:AT37 AV22:AV37">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="BA22:BB37 BD22:BD37">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7790,54 +10547,195 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC21:BD21">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+  <conditionalFormatting sqref="AE41:AE48 AE55:AE58">
+    <cfRule type="colorScale" priority="425">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV41:AV48">
+    <cfRule type="colorScale" priority="429">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW41:AW48">
+    <cfRule type="colorScale" priority="433">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX41:AX48 AT41:AU48">
+    <cfRule type="colorScale" priority="437">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY41:AZ48 BC41:BC48">
+    <cfRule type="colorScale" priority="445">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA41:BB48 BD41:BD48">
+    <cfRule type="colorScale" priority="453">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ51:BD51 AF51:AO51 Z51:AE54 AP51:AP58">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
-      <formula>"CAR"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA52:AD54">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
-      <formula>"NYI"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE52:AE54">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>"BOS"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV52:AV58">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
-      <formula>"TOR"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW52:AW58">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
-      <formula>"TBL"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX52:AX58 AT52:AU58">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
-      <formula>"NYR"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY52:AZ58 BC52:BC58">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>"LAK"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA52:BB58 BD52:BD58">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD89C28-770A-4745-96B3-48F833FC3B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F9C95-D420-4F19-B8EF-CA6CA1B98005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="137">
   <si>
     <t>NYI</t>
   </si>
@@ -492,7 +481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -566,11 +555,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF3300"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -650,11 +648,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -855,212 +866,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1256,12 +1061,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFF6969"/>
       <color rgb="FF92001C"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFA50021"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1276,9 +1081,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1316,7 +1121,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1422,7 +1227,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1564,7 +1369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1572,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
-  <dimension ref="A1:BL81"/>
+  <dimension ref="A1:BL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AX6" sqref="AX6"/>
+    <sheetView tabSelected="1" topLeftCell="U28" workbookViewId="0">
+      <selection activeCell="AE54" sqref="AE54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,7 +1835,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H79)</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -2125,7 +1930,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q79)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -2220,7 +2025,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.58461538461538465</v>
+        <v>0.59420289855072461</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2692,11 +2497,11 @@
       </c>
       <c r="AE12">
         <f>SUMIFS(O2:O79,K2:K79,Z12,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z12,C2:C79,2)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF12">
         <f>SUMIFS(O2:O79,K2:K79,AA12,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA12,C2:C79,2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -2770,19 +2575,19 @@
       </c>
       <c r="AC13">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD13">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AE13">
         <f>SUMIFS(O2:O79,K2:K79,Z13,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z13,C2:C79,2)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF13">
         <f>SUMIFS(O2:O79,K2:K79,AA13,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA13,C2:C79,2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -2852,23 +2657,23 @@
       </c>
       <c r="AB14" s="11" cm="1">
         <f t="array" ref="AB14">INDEX(E:E, MATCH(2, 1/(D:D=Y14)))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC14" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD14" s="11">
         <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AE14" s="11">
         <f>SUMIFS(O2:O79,K2:K79,Z14,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z14,C2:C79,2)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF14" s="11">
         <f>SUMIFS(O2:O79,K2:K79,AA14,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA14,C2:C79,2)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
@@ -2933,25 +2738,25 @@
       <c r="Y15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Z15" s="1" t="e" cm="1">
+      <c r="Z15" s="1" t="str" cm="1">
         <f t="array" ref="Z15">INDEX(F:F, MATCH(2, 1/(D:D=Y15)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA15" s="1" t="e" cm="1">
+        <v>NYR</v>
+      </c>
+      <c r="AA15" s="1" t="str" cm="1">
         <f t="array" ref="AA15">INDEX(G:G, MATCH(2, 1/(D:D=Y15)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB15" t="e" cm="1">
+        <v>FLA</v>
+      </c>
+      <c r="AB15" cm="1">
         <f t="array" ref="AB15">INDEX(E:E, MATCH(2, 1/(D:D=Y15)))</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="AC15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD15" t="e">
+      <c r="AD15">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <f>SUMIFS(O2:O79,K2:K79,Z15,C2:C79,3) + SUMIFS(N2:N79,J2:J79,Z15,C2:C79,3)</f>
@@ -3019,25 +2824,25 @@
       <c r="Y16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Z16" s="11" t="e" cm="1">
+      <c r="Z16" s="11" t="str" cm="1">
         <f t="array" ref="Z16">INDEX(F:F, MATCH(2, 1/(D:D=Y16)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA16" s="11" t="e" cm="1">
+        <v>DAL</v>
+      </c>
+      <c r="AA16" s="11" t="str" cm="1">
         <f t="array" ref="AA16">INDEX(G:G, MATCH(2, 1/(D:D=Y16)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB16" s="11" t="e" cm="1">
+        <v>EDM</v>
+      </c>
+      <c r="AB16" s="11" cm="1">
         <f t="array" ref="AB16">INDEX(E:E, MATCH(2, 1/(D:D=Y16)))</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="AC16" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="11" t="e">
+      <c r="AD16" s="11">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="11">
         <f>SUMIFS(O2:O79,K2:K79,Z16,C2:C79,3) + SUMIFS(N2:N79,J2:J79,Z16,C2:C79,3)</f>
@@ -3539,7 +3344,7 @@
       </c>
       <c r="AC22">
         <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD22">
         <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 4)</f>
@@ -3547,23 +3352,23 @@
       </c>
       <c r="AE22">
         <f>AA22+AB22+AC22+AD22</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF22">
         <f>COUNTIF($K$2:$K$81, Z22)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG22">
         <f>COUNTIF($J$2:$J$81, Z22)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH22">
         <f>AJ22+AL22</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI22">
         <f>AE22-AH22</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ22" cm="1">
         <f t="array" ref="AJ22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -3575,34 +3380,34 @@
       </c>
       <c r="AL22" cm="1">
         <f t="array" ref="AL22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM22" cm="1">
         <f t="array" ref="AM22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
         <v>1</v>
       </c>
       <c r="AN22">
-        <f>COUNTIFS($K$2:$K$81,Z22,$C$2:$C$81,1)</f>
+        <f t="shared" ref="AN22:AN37" si="5">COUNTIFS($K$2:$K$81,Z22,$C$2:$C$81,1)</f>
         <v>3</v>
       </c>
       <c r="AO22">
-        <f>COUNTIFS($J$2:$J$81,Z22,$C$2:$C$81,1)</f>
+        <f t="shared" ref="AO22:AO37" si="6">COUNTIFS($J$2:$J$81,Z22,$C$2:$C$81,1)</f>
         <v>2</v>
       </c>
       <c r="AP22">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AP22:AP37" si="7">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
         <v>12</v>
       </c>
       <c r="AQ22">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AQ22:AQ37" si="8">SUMIFS($N$2:$N$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
         <v>8</v>
       </c>
       <c r="AR22">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AR22:AR37" si="9">SUMIFS($N$2:$N$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AS22">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AS22:AS37" si="10">SUMIFS($O$2:$O$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
         <v>9</v>
       </c>
       <c r="AT22">
@@ -3642,15 +3447,15 @@
         <v>4.5</v>
       </c>
       <c r="BC22">
-        <f>AV22/AA22</f>
+        <f t="shared" ref="BC22:BC37" si="11">AV22/AA22</f>
         <v>4</v>
       </c>
       <c r="BD22">
-        <f>AW22/AA22</f>
+        <f t="shared" ref="BD22:BD37" si="12">AW22/AA22</f>
         <v>2.8</v>
       </c>
       <c r="BG22">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
+        <f t="shared" ref="BG22:BG37" si="13">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ22" t="e">
@@ -3724,31 +3529,31 @@
         <v>6</v>
       </c>
       <c r="AC23">
-        <f t="shared" ref="AC23:AC37" si="5">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC23:AC37" si="14">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AD23">
-        <f t="shared" ref="AD23:AD37" si="6">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD23:AD37" si="15">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AE37" si="7">AA23+AB23+AC23+AD23</f>
+        <f t="shared" ref="AE23:AE37" si="16">AA23+AB23+AC23+AD23</f>
         <v>13</v>
       </c>
       <c r="AF23">
-        <f t="shared" ref="AF23:AF37" si="8">COUNTIF($K$2:$K$81, Z23)</f>
+        <f t="shared" ref="AF23:AF37" si="17">COUNTIF($K$2:$K$81, Z23)</f>
         <v>7</v>
       </c>
       <c r="AG23">
-        <f t="shared" ref="AG23:AG37" si="9">COUNTIF($J$2:$J$81, Z23)</f>
+        <f t="shared" ref="AG23:AG37" si="18">COUNTIF($J$2:$J$81, Z23)</f>
         <v>6</v>
       </c>
       <c r="AH23">
-        <f t="shared" ref="AH23:AH37" si="10">AJ23+AL23</f>
+        <f t="shared" ref="AH23:AH37" si="19">AJ23+AL23</f>
         <v>6</v>
       </c>
       <c r="AI23">
-        <f t="shared" ref="AI23:AI37" si="11">AE23-AH23</f>
+        <f t="shared" ref="AI23:AI37" si="20">AE23-AH23</f>
         <v>7</v>
       </c>
       <c r="AJ23" cm="1">
@@ -3757,7 +3562,7 @@
       </c>
       <c r="AK23" cm="1">
         <f t="array" ref="AK23">SUMPRODUCT(($K$2:$K$81=Z23)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL23" cm="1">
         <f t="array" ref="AL23">SUMPRODUCT(($J$2:$J$81=Z23)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -3768,75 +3573,75 @@
         <v>2</v>
       </c>
       <c r="AN23">
-        <f>COUNTIFS($K$2:$K$81,Z23,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AO23">
-        <f>COUNTIFS($J$2:$J$81,Z23,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AP23">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AQ23">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="AR23">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z23,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AS23">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z23,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AT23">
-        <f t="shared" ref="AT23:AT37" si="12">AP23-AR23</f>
+        <f t="shared" ref="AT23:AT37" si="21">AP23-AR23</f>
         <v>3</v>
       </c>
       <c r="AU23">
-        <f t="shared" ref="AU23:AU37" si="13">AQ23-AS23</f>
+        <f t="shared" ref="AU23:AU37" si="22">AQ23-AS23</f>
         <v>3</v>
       </c>
       <c r="AV23">
-        <f t="shared" ref="AV23:AV37" si="14">AP23+AQ23</f>
+        <f t="shared" ref="AV23:AV37" si="23">AP23+AQ23</f>
         <v>18</v>
       </c>
       <c r="AW23">
-        <f t="shared" ref="AW23:AW37" si="15">AR23+AS23</f>
+        <f t="shared" ref="AW23:AW37" si="24">AR23+AS23</f>
         <v>12</v>
       </c>
       <c r="AX23">
-        <f t="shared" ref="AX23:AX37" si="16">(AP23+AQ23)-(AR23+AS23)</f>
+        <f t="shared" ref="AX23:AX37" si="25">(AP23+AQ23)-(AR23+AS23)</f>
         <v>6</v>
       </c>
       <c r="AY23">
-        <f t="shared" ref="AY23:AY37" si="17">AP23/AN23</f>
+        <f t="shared" ref="AY23:AY37" si="26">AP23/AN23</f>
         <v>2.5</v>
       </c>
       <c r="AZ23">
-        <f t="shared" ref="AZ23:AZ37" si="18">AQ23/AO23</f>
+        <f t="shared" ref="AZ23:AZ37" si="27">AQ23/AO23</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA23">
-        <f t="shared" ref="BA23:BA37" si="19">AR23/AN23</f>
+        <f t="shared" ref="BA23:BA37" si="28">AR23/AN23</f>
         <v>1.75</v>
       </c>
       <c r="BB23">
-        <f t="shared" ref="BB23:BB37" si="20">AS23/AO23</f>
+        <f t="shared" ref="BB23:BB37" si="29">AS23/AO23</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="BC23">
-        <f>AV23/AA23</f>
+        <f t="shared" si="11"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="BD23">
-        <f>AW23/AA23</f>
+        <f t="shared" si="12"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="BG23">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z23,$C$2:$C$81, 4)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BJ23" t="e">
@@ -3910,31 +3715,31 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AJ24" cm="1">
@@ -3954,75 +3759,75 @@
         <v>2</v>
       </c>
       <c r="AN24">
-        <f>COUNTIFS($K$2:$K$81,Z24,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO24">
-        <f>COUNTIFS($J$2:$J$81,Z24,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AP24">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z24,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AQ24">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z24,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AR24">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z24,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AS24">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z24,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AT24">
+        <f t="shared" si="21"/>
+        <v>-3</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="22"/>
+        <v>-3</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="24"/>
+        <v>18</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="25"/>
+        <v>-6</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="26"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="27"/>
+        <v>1.75</v>
+      </c>
+      <c r="BA24">
+        <f t="shared" si="28"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BB24">
+        <f t="shared" si="29"/>
+        <v>2.5</v>
+      </c>
+      <c r="BC24">
+        <f t="shared" si="11"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="BD24">
         <f t="shared" si="12"/>
-        <v>-3</v>
-      </c>
-      <c r="AU24">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="BG24">
         <f t="shared" si="13"/>
-        <v>-3</v>
-      </c>
-      <c r="AV24">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="AW24">
-        <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="AX24">
-        <f t="shared" si="16"/>
-        <v>-6</v>
-      </c>
-      <c r="AY24">
-        <f t="shared" si="17"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AZ24">
-        <f t="shared" si="18"/>
-        <v>1.75</v>
-      </c>
-      <c r="BA24">
-        <f t="shared" si="19"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BB24">
-        <f t="shared" si="20"/>
-        <v>2.5</v>
-      </c>
-      <c r="BC24">
-        <f>AV24/AA24</f>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="BD24">
-        <f>AW24/AA24</f>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="BG24">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z24,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ24" t="e">
@@ -4096,31 +3901,31 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AJ25" cm="1">
@@ -4140,75 +3945,75 @@
         <v>3</v>
       </c>
       <c r="AN25">
-        <f>COUNTIFS($K$2:$K$81,Z25,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO25">
-        <f>COUNTIFS($J$2:$J$81,Z25,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AP25">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z25,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AQ25">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z25,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AR25">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z25,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AS25">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z25,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AT25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="22"/>
+        <v>-7</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="25"/>
+        <v>-6</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="26"/>
+        <v>4.5</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="27"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="BA25">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="BB25">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <f t="shared" si="11"/>
+        <v>2.8</v>
+      </c>
+      <c r="BD25">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AU25">
+        <v>4</v>
+      </c>
+      <c r="BG25">
         <f t="shared" si="13"/>
-        <v>-7</v>
-      </c>
-      <c r="AV25">
-        <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="AW25">
-        <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="AX25">
-        <f t="shared" si="16"/>
-        <v>-6</v>
-      </c>
-      <c r="AY25">
-        <f t="shared" si="17"/>
-        <v>4.5</v>
-      </c>
-      <c r="AZ25">
-        <f t="shared" si="18"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="BA25">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="BB25">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="BC25">
-        <f>AV25/AA25</f>
-        <v>2.8</v>
-      </c>
-      <c r="BD25">
-        <f>AW25/AA25</f>
-        <v>4</v>
-      </c>
-      <c r="BG25">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z25,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ25" t="e">
@@ -4282,32 +4087,32 @@
         <v>6</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="17"/>
+        <v>7</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>7</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>6</v>
       </c>
       <c r="AJ26" cm="1">
         <f t="array" ref="AJ26">SUMPRODUCT(($K$2:$K$81=Z26)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -4326,75 +4131,75 @@
         <v>1</v>
       </c>
       <c r="AN26">
-        <f>COUNTIFS($K$2:$K$81,Z26,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO26">
-        <f>COUNTIFS($J$2:$J$81,Z26,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AP26">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z26,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AQ26">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z26,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AR26">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z26,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AS26">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z26,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AT26">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="AZ26">
+        <f t="shared" si="27"/>
+        <v>3.5</v>
+      </c>
+      <c r="BA26">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="BB26">
+        <f t="shared" si="29"/>
+        <v>1.5</v>
+      </c>
+      <c r="BC26">
+        <f t="shared" si="11"/>
+        <v>3.75</v>
+      </c>
+      <c r="BD26">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AU26">
+        <v>1.75</v>
+      </c>
+      <c r="BG26">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="AV26">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="AW26">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="AX26">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="AY26">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="AZ26">
-        <f t="shared" si="18"/>
-        <v>3.5</v>
-      </c>
-      <c r="BA26">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="BB26">
-        <f t="shared" si="20"/>
-        <v>1.5</v>
-      </c>
-      <c r="BC26">
-        <f>AV26/AA26</f>
-        <v>3.75</v>
-      </c>
-      <c r="BD26">
-        <f>AW26/AA26</f>
-        <v>1.75</v>
-      </c>
-      <c r="BG26">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z26,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ26" t="e">
@@ -4468,31 +4273,31 @@
         <v>6</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AJ27" cm="1">
@@ -4512,75 +4317,75 @@
         <v>3</v>
       </c>
       <c r="AN27">
-        <f>COUNTIFS($K$2:$K$81,Z27,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO27">
-        <f>COUNTIFS($J$2:$J$81,Z27,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AP27">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z27,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="AQ27">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z27,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AR27">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z27,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AS27">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z27,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AT27">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="26"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AZ27">
+        <f t="shared" si="27"/>
+        <v>2.5</v>
+      </c>
+      <c r="BA27">
+        <f t="shared" si="28"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB27">
+        <f t="shared" si="29"/>
+        <v>2.5</v>
+      </c>
+      <c r="BC27">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="BD27">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AU27">
+        <v>2.4</v>
+      </c>
+      <c r="BG27">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="AW27">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="AX27">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="AY27">
-        <f t="shared" si="17"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AZ27">
-        <f t="shared" si="18"/>
-        <v>2.5</v>
-      </c>
-      <c r="BA27">
-        <f t="shared" si="19"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BB27">
-        <f t="shared" si="20"/>
-        <v>2.5</v>
-      </c>
-      <c r="BC27">
-        <f>AV27/AA27</f>
-        <v>3.8</v>
-      </c>
-      <c r="BD27">
-        <f>AW27/AA27</f>
-        <v>2.4</v>
-      </c>
-      <c r="BG27">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z27,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ27" t="e">
@@ -4654,119 +4459,119 @@
         <v>0</v>
       </c>
       <c r="AC28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AJ28" cm="1">
+        <f t="array" ref="AJ28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AK28" cm="1">
+        <f t="array" ref="AK28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AL28" cm="1">
+        <f t="array" ref="AL28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>0</v>
+      </c>
+      <c r="AM28" cm="1">
+        <f t="array" ref="AM28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AN28">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD28">
+        <v>2</v>
+      </c>
+      <c r="AO28">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE28">
+        <v>3</v>
+      </c>
+      <c r="AP28">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="AF28">
+      <c r="AQ28">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AG28">
+        <v>7</v>
+      </c>
+      <c r="AR28">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AH28">
+        <v>5</v>
+      </c>
+      <c r="AS28">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AI28">
+        <v>14</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="22"/>
+        <v>-7</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="24"/>
+        <v>19</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="25"/>
+        <v>-7</v>
+      </c>
+      <c r="AY28">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+      <c r="AZ28">
+        <f t="shared" si="27"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA28">
+        <f t="shared" si="28"/>
+        <v>2.5</v>
+      </c>
+      <c r="BB28">
+        <f t="shared" si="29"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="BC28">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AJ28" cm="1">
-        <f t="array" ref="AJ28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AK28" cm="1">
-        <f t="array" ref="AK28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AL28" cm="1">
-        <f t="array" ref="AL28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>0</v>
-      </c>
-      <c r="AM28" cm="1">
-        <f t="array" ref="AM28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AN28">
-        <f>COUNTIFS($K$2:$K$81,Z28,$C$2:$C$81,1)</f>
-        <v>2</v>
-      </c>
-      <c r="AO28">
-        <f>COUNTIFS($J$2:$J$81,Z28,$C$2:$C$81,1)</f>
-        <v>3</v>
-      </c>
-      <c r="AP28">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z28,$C$2:$C$81, 1)</f>
-        <v>5</v>
-      </c>
-      <c r="AQ28">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z28,$C$2:$C$81, 1)</f>
-        <v>7</v>
-      </c>
-      <c r="AR28">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z28,$C$2:$C$81, 1)</f>
-        <v>5</v>
-      </c>
-      <c r="AS28">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z28,$C$2:$C$81, 1)</f>
-        <v>14</v>
-      </c>
-      <c r="AT28">
+        <v>2.4</v>
+      </c>
+      <c r="BD28">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="BG28">
         <f t="shared" si="13"/>
-        <v>-7</v>
-      </c>
-      <c r="AV28">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="AW28">
-        <f t="shared" si="15"/>
-        <v>19</v>
-      </c>
-      <c r="AX28">
-        <f t="shared" si="16"/>
-        <v>-7</v>
-      </c>
-      <c r="AY28">
-        <f t="shared" si="17"/>
-        <v>2.5</v>
-      </c>
-      <c r="AZ28">
-        <f t="shared" si="18"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BA28">
-        <f t="shared" si="19"/>
-        <v>2.5</v>
-      </c>
-      <c r="BB28">
-        <f t="shared" si="20"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="BC28">
-        <f>AV28/AA28</f>
-        <v>2.4</v>
-      </c>
-      <c r="BD28">
-        <f>AW28/AA28</f>
-        <v>3.8</v>
-      </c>
-      <c r="BG28">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z28,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ28" t="e">
@@ -4840,31 +4645,31 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AJ29" cm="1">
@@ -4884,75 +4689,75 @@
         <v>2</v>
       </c>
       <c r="AN29">
-        <f>COUNTIFS($K$2:$K$81,Z29,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO29">
-        <f>COUNTIFS($J$2:$J$81,Z29,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AP29">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z29,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AQ29">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z29,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AR29">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z29,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AS29">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z29,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AT29">
+        <f t="shared" si="21"/>
+        <v>-4</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="22"/>
+        <v>-4</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="24"/>
+        <v>15</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="25"/>
+        <v>-8</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="AZ29">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="BA29">
+        <f t="shared" si="28"/>
+        <v>3.5</v>
+      </c>
+      <c r="BB29">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="BC29">
+        <f t="shared" si="11"/>
+        <v>1.75</v>
+      </c>
+      <c r="BD29">
         <f t="shared" si="12"/>
-        <v>-4</v>
-      </c>
-      <c r="AU29">
+        <v>3.75</v>
+      </c>
+      <c r="BG29">
         <f t="shared" si="13"/>
-        <v>-4</v>
-      </c>
-      <c r="AV29">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="AW29">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="AX29">
-        <f t="shared" si="16"/>
-        <v>-8</v>
-      </c>
-      <c r="AY29">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
-      </c>
-      <c r="AZ29">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="BA29">
-        <f t="shared" si="19"/>
-        <v>3.5</v>
-      </c>
-      <c r="BB29">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="BC29">
-        <f>AV29/AA29</f>
-        <v>1.75</v>
-      </c>
-      <c r="BD29">
-        <f>AW29/AA29</f>
-        <v>3.75</v>
-      </c>
-      <c r="BG29">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z29,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ29" t="e">
@@ -5023,35 +4828,35 @@
       </c>
       <c r="AB30">
         <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="AC30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="AF30">
-        <f t="shared" si="8"/>
+      <c r="AH30">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="20"/>
         <v>6</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="AI30">
-        <f t="shared" si="11"/>
-        <v>5</v>
       </c>
       <c r="AJ30" cm="1">
         <f t="array" ref="AJ30">SUMPRODUCT(($K$2:$K$81=Z30)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -5059,7 +4864,7 @@
       </c>
       <c r="AK30" cm="1">
         <f t="array" ref="AK30">SUMPRODUCT(($K$2:$K$81=Z30)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL30" cm="1">
         <f t="array" ref="AL30">SUMPRODUCT(($J$2:$J$81=Z30)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -5067,78 +4872,78 @@
       </c>
       <c r="AM30" cm="1">
         <f t="array" ref="AM30">SUMPRODUCT(($J$2:$J$81=Z30)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN30">
-        <f>COUNTIFS($K$2:$K$81,Z30,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO30">
-        <f>COUNTIFS($J$2:$J$81,Z30,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AP30">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z30,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AQ30">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z30,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AR30">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z30,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AS30">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z30,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AT30">
+        <f t="shared" si="21"/>
+        <v>-2</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="AZ30">
+        <f t="shared" si="27"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA30">
+        <f t="shared" si="28"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BB30">
+        <f t="shared" si="29"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="BC30">
+        <f t="shared" si="11"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="BD30">
         <f t="shared" si="12"/>
-        <v>-2</v>
-      </c>
-      <c r="AU30">
+        <v>2</v>
+      </c>
+      <c r="BG30">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AV30">
-        <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-      <c r="AW30">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="AX30">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AZ30">
-        <f t="shared" si="18"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BA30">
-        <f t="shared" si="19"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BB30">
-        <f t="shared" si="20"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="BC30">
-        <f>AV30/AA30</f>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="BD30">
-        <f>AW30/AA30</f>
-        <v>2</v>
-      </c>
-      <c r="BG30">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z30,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ30" t="e">
@@ -5209,39 +5014,39 @@
       </c>
       <c r="AB31">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="7"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="18"/>
+        <v>8</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="19"/>
+        <v>7</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="20"/>
+        <v>9</v>
       </c>
       <c r="AJ31" cm="1">
         <f t="array" ref="AJ31">SUMPRODUCT(($K$2:$K$81=Z31)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK31" cm="1">
         <f t="array" ref="AK31">SUMPRODUCT(($K$2:$K$81=Z31)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -5249,82 +5054,82 @@
       </c>
       <c r="AL31" cm="1">
         <f t="array" ref="AL31">SUMPRODUCT(($J$2:$J$81=Z31)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM31" cm="1">
         <f t="array" ref="AM31">SUMPRODUCT(($J$2:$J$81=Z31)*($O$2:$O$81&gt;$N$2:$N$81))</f>
         <v>3</v>
       </c>
       <c r="AN31">
-        <f>COUNTIFS($K$2:$K$81,Z31,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO31">
-        <f>COUNTIFS($J$2:$J$81,Z31,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AP31">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z31,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="AQ31">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z31,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AR31">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z31,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="AS31">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z31,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AT31">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="22"/>
+        <v>-4</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="24"/>
+        <v>18</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="AZ31">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="BA31">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <f t="shared" si="11"/>
+        <v>3.4</v>
+      </c>
+      <c r="BD31">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AU31">
+        <v>3.6</v>
+      </c>
+      <c r="BG31">
         <f t="shared" si="13"/>
-        <v>-4</v>
-      </c>
-      <c r="AV31">
-        <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="AW31">
-        <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="AX31">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AY31">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="AZ31">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="BA31">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="BB31">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="BC31">
-        <f>AV31/AA31</f>
-        <v>3.4</v>
-      </c>
-      <c r="BD31">
-        <f>AW31/AA31</f>
-        <v>3.6</v>
-      </c>
-      <c r="BG31">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z31,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ31" t="e">
@@ -5398,31 +5203,31 @@
         <v>0</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AJ32" cm="1">
@@ -5442,75 +5247,75 @@
         <v>2</v>
       </c>
       <c r="AN32">
-        <f>COUNTIFS($K$2:$K$81,Z32,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO32">
-        <f>COUNTIFS($J$2:$J$81,Z32,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AP32">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z32,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AQ32">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z32,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AR32">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z32,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AS32">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z32,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="AT32">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="22"/>
+        <v>-3</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AY32">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="AZ32">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="BA32">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="BC32">
+        <f t="shared" si="11"/>
+        <v>3.6</v>
+      </c>
+      <c r="BD32">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AU32">
+        <v>3.4</v>
+      </c>
+      <c r="BG32">
         <f t="shared" si="13"/>
-        <v>-3</v>
-      </c>
-      <c r="AV32">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="AW32">
-        <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="AX32">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AY32">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="AZ32">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="BA32">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="BB32">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="BC32">
-        <f>AV32/AA32</f>
-        <v>3.6</v>
-      </c>
-      <c r="BD32">
-        <f>AW32/AA32</f>
-        <v>3.4</v>
-      </c>
-      <c r="BG32">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z32,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ32" t="e">
@@ -5584,31 +5389,31 @@
         <v>0</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AJ33" cm="1">
@@ -5628,75 +5433,75 @@
         <v>1</v>
       </c>
       <c r="AN33">
-        <f>COUNTIFS($K$2:$K$81,Z33,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO33">
-        <f>COUNTIFS($J$2:$J$81,Z33,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AP33">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z33,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AQ33">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z33,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="AR33">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z33,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AS33">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z33,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AT33">
+        <f t="shared" si="21"/>
+        <v>-3</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="24"/>
+        <v>13</v>
+      </c>
+      <c r="AX33">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="AY33">
+        <f t="shared" si="26"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AZ33">
+        <f t="shared" si="27"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BA33">
+        <f t="shared" si="28"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB33">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="BC33">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BD33">
         <f t="shared" si="12"/>
-        <v>-3</v>
-      </c>
-      <c r="AU33">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="BG33">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AV33">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="AW33">
-        <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-      <c r="AX33">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AY33">
-        <f t="shared" si="17"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AZ33">
-        <f t="shared" si="18"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BA33">
-        <f t="shared" si="19"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BB33">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="BC33">
-        <f>AV33/AA33</f>
-        <v>2</v>
-      </c>
-      <c r="BD33">
-        <f>AW33/AA33</f>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="BG33">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z33,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ33" t="e">
@@ -5770,119 +5575,119 @@
         <v>6</v>
       </c>
       <c r="AC34">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="AJ34" cm="1">
+        <f t="array" ref="AJ34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK34" cm="1">
+        <f t="array" ref="AK34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AL34" cm="1">
+        <f t="array" ref="AL34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>5</v>
+      </c>
+      <c r="AM34" cm="1">
+        <f t="array" ref="AM34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AN34">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD34">
+        <v>4</v>
+      </c>
+      <c r="AO34">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
         <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="AF34">
+        <v>10</v>
+      </c>
+      <c r="AQ34">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="AG34">
+      <c r="AR34">
         <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AS34">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="AH34">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="AI34">
+      <c r="AT34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AY34">
+        <f t="shared" si="26"/>
+        <v>2.5</v>
+      </c>
+      <c r="AZ34">
+        <f t="shared" si="27"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA34">
+        <f t="shared" si="28"/>
+        <v>2.5</v>
+      </c>
+      <c r="BB34">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="BC34">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AJ34" cm="1">
-        <f t="array" ref="AJ34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AK34" cm="1">
-        <f t="array" ref="AK34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AL34" cm="1">
-        <f t="array" ref="AL34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM34" cm="1">
-        <f t="array" ref="AM34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <f>COUNTIFS($K$2:$K$81,Z34,$C$2:$C$81,1)</f>
-        <v>4</v>
-      </c>
-      <c r="AO34">
-        <f>COUNTIFS($J$2:$J$81,Z34,$C$2:$C$81,1)</f>
-        <v>3</v>
-      </c>
-      <c r="AP34">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z34,$C$2:$C$81, 1)</f>
-        <v>10</v>
-      </c>
-      <c r="AQ34">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z34,$C$2:$C$81, 1)</f>
-        <v>7</v>
-      </c>
-      <c r="AR34">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z34,$C$2:$C$81, 1)</f>
-        <v>10</v>
-      </c>
-      <c r="AS34">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z34,$C$2:$C$81, 1)</f>
-        <v>6</v>
-      </c>
-      <c r="AT34">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="BD34">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AU34">
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="BG34">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AV34">
-        <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="AW34">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="AX34">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AY34">
-        <f t="shared" si="17"/>
-        <v>2.5</v>
-      </c>
-      <c r="AZ34">
-        <f t="shared" si="18"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BA34">
-        <f t="shared" si="19"/>
-        <v>2.5</v>
-      </c>
-      <c r="BB34">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="BC34">
-        <f>AV34/AA34</f>
-        <v>2.4285714285714284</v>
-      </c>
-      <c r="BD34">
-        <f>AW34/AA34</f>
-        <v>2.2857142857142856</v>
-      </c>
-      <c r="BG34">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z34,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ34" t="e">
@@ -5940,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35:Q49" si="21">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <f t="shared" ref="Q35:Q49" si="30">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>1</v>
       </c>
       <c r="V35" s="4"/>
@@ -5956,31 +5761,31 @@
         <v>0</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AJ35" cm="1">
@@ -6000,75 +5805,75 @@
         <v>2</v>
       </c>
       <c r="AN35">
-        <f>COUNTIFS($K$2:$K$81,Z35,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO35">
-        <f>COUNTIFS($J$2:$J$81,Z35,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AP35">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z35,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AQ35">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z35,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AR35">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z35,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="AS35">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z35,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="AT35">
+        <f t="shared" si="21"/>
+        <v>-5</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="22"/>
+        <v>-8</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="AX35">
+        <f t="shared" si="25"/>
+        <v>-13</v>
+      </c>
+      <c r="AY35">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="AZ35">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="BA35">
+        <f t="shared" si="28"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="BB35">
+        <f t="shared" si="29"/>
+        <v>5.5</v>
+      </c>
+      <c r="BC35">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BD35">
         <f t="shared" si="12"/>
-        <v>-5</v>
-      </c>
-      <c r="AU35">
+        <v>5.6</v>
+      </c>
+      <c r="BG35">
         <f t="shared" si="13"/>
-        <v>-8</v>
-      </c>
-      <c r="AV35">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="AW35">
-        <f t="shared" si="15"/>
-        <v>28</v>
-      </c>
-      <c r="AX35">
-        <f t="shared" si="16"/>
-        <v>-13</v>
-      </c>
-      <c r="AY35">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="AZ35">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
-      </c>
-      <c r="BA35">
-        <f t="shared" si="19"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="BB35">
-        <f t="shared" si="20"/>
-        <v>5.5</v>
-      </c>
-      <c r="BC35">
-        <f>AV35/AA35</f>
-        <v>3</v>
-      </c>
-      <c r="BD35">
-        <f>AW35/AA35</f>
-        <v>5.6</v>
-      </c>
-      <c r="BG35">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z35,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ35" t="e">
@@ -6126,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="V36" s="4"/>
@@ -6142,119 +5947,119 @@
         <v>6</v>
       </c>
       <c r="AC36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="AJ36" cm="1">
+        <f t="array" ref="AJ36">SUMPRODUCT(($K$2:$K$81=Z36)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AK36" cm="1">
+        <f t="array" ref="AK36">SUMPRODUCT(($K$2:$K$81=Z36)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AL36" cm="1">
+        <f t="array" ref="AL36">SUMPRODUCT(($J$2:$J$81=Z36)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM36" cm="1">
+        <f t="array" ref="AM36">SUMPRODUCT(($J$2:$J$81=Z36)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN36">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="AF36">
+      <c r="AQ36">
         <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="AG36">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="AI36">
+      <c r="AV36">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="AW36">
+        <f t="shared" si="24"/>
+        <v>15</v>
+      </c>
+      <c r="AX36">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="AY36">
+        <f t="shared" si="26"/>
+        <v>5.5</v>
+      </c>
+      <c r="AZ36">
+        <f t="shared" si="27"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="BA36">
+        <f t="shared" si="28"/>
+        <v>1.5</v>
+      </c>
+      <c r="BB36">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="BC36">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AJ36" cm="1">
-        <f t="array" ref="AJ36">SUMPRODUCT(($K$2:$K$81=Z36)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AK36" cm="1">
-        <f t="array" ref="AK36">SUMPRODUCT(($K$2:$K$81=Z36)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AL36" cm="1">
-        <f t="array" ref="AL36">SUMPRODUCT(($J$2:$J$81=Z36)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM36" cm="1">
-        <f t="array" ref="AM36">SUMPRODUCT(($J$2:$J$81=Z36)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN36">
-        <f>COUNTIFS($K$2:$K$81,Z36,$C$2:$C$81,1)</f>
-        <v>2</v>
-      </c>
-      <c r="AO36">
-        <f>COUNTIFS($J$2:$J$81,Z36,$C$2:$C$81,1)</f>
-        <v>3</v>
-      </c>
-      <c r="AP36">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z36,$C$2:$C$81, 1)</f>
-        <v>11</v>
-      </c>
-      <c r="AQ36">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z36,$C$2:$C$81, 1)</f>
-        <v>17</v>
-      </c>
-      <c r="AR36">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z36,$C$2:$C$81, 1)</f>
-        <v>3</v>
-      </c>
-      <c r="AS36">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z36,$C$2:$C$81, 1)</f>
-        <v>12</v>
-      </c>
-      <c r="AT36">
+        <v>5.6</v>
+      </c>
+      <c r="BD36">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AU36">
+        <v>3</v>
+      </c>
+      <c r="BG36">
         <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="AV36">
-        <f t="shared" si="14"/>
-        <v>28</v>
-      </c>
-      <c r="AW36">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="AX36">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="AY36">
-        <f t="shared" si="17"/>
-        <v>5.5</v>
-      </c>
-      <c r="AZ36">
-        <f t="shared" si="18"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="BA36">
-        <f t="shared" si="19"/>
-        <v>1.5</v>
-      </c>
-      <c r="BB36">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="BC36">
-        <f>AV36/AA36</f>
-        <v>5.6</v>
-      </c>
-      <c r="BD36">
-        <f>AW36/AA36</f>
-        <v>3</v>
-      </c>
-      <c r="BG36">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z36,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ36" t="e">
@@ -6312,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V37" s="4"/>
@@ -6328,31 +6133,31 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AJ37" cm="1">
@@ -6372,75 +6177,75 @@
         <v>2</v>
       </c>
       <c r="AN37">
-        <f>COUNTIFS($K$2:$K$81,Z37,$C$2:$C$81,1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO37">
-        <f>COUNTIFS($J$2:$J$81,Z37,$C$2:$C$81,1)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AP37">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z37,$C$2:$C$81, 1)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AQ37">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z37,$C$2:$C$81, 1)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AR37">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z37,$C$2:$C$81, 1)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AS37">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z37,$C$2:$C$81, 1)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AT37">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="AW37">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="AX37">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="AY37">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="AZ37">
+        <f t="shared" si="27"/>
+        <v>2.5</v>
+      </c>
+      <c r="BA37">
+        <f t="shared" si="28"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB37">
+        <f t="shared" si="29"/>
+        <v>2.5</v>
+      </c>
+      <c r="BC37">
+        <f t="shared" si="11"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="BD37">
         <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="AU37">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="BG37">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV37">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="AW37">
-        <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="AX37">
-        <f t="shared" si="16"/>
-        <v>-1</v>
-      </c>
-      <c r="AY37">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AZ37">
-        <f t="shared" si="18"/>
-        <v>2.5</v>
-      </c>
-      <c r="BA37">
-        <f t="shared" si="19"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BB37">
-        <f t="shared" si="20"/>
-        <v>2.5</v>
-      </c>
-      <c r="BC37">
-        <f>AV37/AA37</f>
-        <v>2.2857142857142856</v>
-      </c>
-      <c r="BD37">
-        <f>AW37/AA37</f>
-        <v>2.4285714285714284</v>
-      </c>
-      <c r="BG37">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z37,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ37" t="e">
@@ -6498,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="V38" s="4"/>
@@ -6553,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="V39" s="4"/>
@@ -6608,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="V40" s="4"/>
@@ -6753,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="V41" s="4"/>
@@ -6761,16 +6566,16 @@
         <v>11</v>
       </c>
       <c r="AA41">
-        <f t="shared" ref="AA41:AA56" si="22">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA41:AA42" si="31">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AB41">
-        <f t="shared" ref="AB41:AB56" si="23">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB41:AB42" si="32">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC41">
         <f>COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD41">
         <f>COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 4)</f>
@@ -6778,23 +6583,23 @@
       </c>
       <c r="AE41">
         <f>AA41+AB41+AC41+AD41</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF41">
         <f>COUNTIF($K$2:$K$81, Z41)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG41">
         <f>COUNTIF($J$2:$J$81, Z41)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH41">
         <f>AJ41+AL41</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI41">
         <f>AE41-AH41</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ41" cm="1">
         <f t="array" ref="AJ41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -6806,7 +6611,7 @@
       </c>
       <c r="AL41" cm="1">
         <f t="array" ref="AL41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM41" cm="1">
         <f t="array" ref="AM41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -6826,7 +6631,7 @@
       </c>
       <c r="AQ41">
         <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z41,$C$2:$C$81, 2)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR41">
         <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z41,$C$2:$C$81, 2)</f>
@@ -6834,7 +6639,7 @@
       </c>
       <c r="AS41">
         <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z41,$C$2:$C$81, 2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT41">
         <f>AP41-AR41</f>
@@ -6842,19 +6647,19 @@
       </c>
       <c r="AU41">
         <f>AQ41-AS41</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV41">
         <f>AP41+AQ41</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW41">
         <f>AR41+AS41</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX41">
         <f>(AP41+AQ41)-(AR41+AS41)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY41">
         <f>AP41/AN41</f>
@@ -6862,7 +6667,7 @@
       </c>
       <c r="AZ41">
         <f>AQ41/AO41</f>
-        <v>3</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="BA41">
         <f>AR41/AN41</f>
@@ -6870,15 +6675,15 @@
       </c>
       <c r="BB41">
         <f>AS41/AO41</f>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="BC41">
         <f>AV41/AA41</f>
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="BD41">
         <f>AW41/AA41</f>
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.25">
@@ -6931,46 +6736,46 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z42" t="s">
         <v>3</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="AC42">
-        <f t="shared" ref="AC42:AC56" si="24">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC42" si="33">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="shared" ref="AD42:AD56" si="25">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD42" si="34">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="shared" ref="AE42:AE56" si="26">AA42+AB42+AC42+AD42</f>
+        <f t="shared" ref="AE42" si="35">AA42+AB42+AC42+AD42</f>
         <v>13</v>
       </c>
       <c r="AF42">
-        <f t="shared" ref="AF42:AF56" si="27">COUNTIF($K$2:$K$81, Z42)</f>
+        <f t="shared" ref="AF42" si="36">COUNTIF($K$2:$K$81, Z42)</f>
         <v>7</v>
       </c>
       <c r="AG42">
-        <f t="shared" ref="AG42:AG56" si="28">COUNTIF($J$2:$J$81, Z42)</f>
+        <f t="shared" ref="AG42" si="37">COUNTIF($J$2:$J$81, Z42)</f>
         <v>6</v>
       </c>
       <c r="AH42">
-        <f t="shared" ref="AH42:AH56" si="29">AJ42+AL42</f>
+        <f t="shared" ref="AH42" si="38">AJ42+AL42</f>
         <v>6</v>
       </c>
       <c r="AI42">
-        <f t="shared" ref="AI42:AI56" si="30">AE42-AH42</f>
+        <f t="shared" ref="AI42" si="39">AE42-AH42</f>
         <v>7</v>
       </c>
       <c r="AJ42" cm="1">
@@ -6979,7 +6784,7 @@
       </c>
       <c r="AK42" cm="1">
         <f t="array" ref="AK42">SUMPRODUCT(($K$2:$K$81=Z42)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL42" cm="1">
         <f t="array" ref="AL42">SUMPRODUCT(($J$2:$J$81=Z42)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -6990,72 +6795,72 @@
         <v>2</v>
       </c>
       <c r="AN42">
-        <f t="shared" ref="AN42:AN55" si="31">COUNTIFS($K$2:$K$81,Z42,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AN42" si="40">COUNTIFS($K$2:$K$81,Z42,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AO42">
-        <f t="shared" ref="AO42:AO55" si="32">COUNTIFS($J$2:$J$81,Z42,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AO42" si="41">COUNTIFS($J$2:$J$81,Z42,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AP42">
-        <f t="shared" ref="AP42:AP55" si="33">SUMIFS($O$2:$O$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
-        <v>4</v>
+        <f t="shared" ref="AP42" si="42">SUMIFS($O$2:$O$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <v>5</v>
       </c>
       <c r="AQ42">
-        <f t="shared" ref="AQ42:AQ55" si="34">SUMIFS($N$2:$N$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AQ42" si="43">SUMIFS($N$2:$N$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
         <v>8</v>
       </c>
       <c r="AR42">
-        <f t="shared" ref="AR42:AR55" si="35">SUMIFS($N$2:$N$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
-        <v>9</v>
+        <f t="shared" ref="AR42" si="44">SUMIFS($N$2:$N$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <v>11</v>
       </c>
       <c r="AS42">
-        <f t="shared" ref="AS42:AS55" si="36">SUMIFS($O$2:$O$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AS42" si="45">SUMIFS($O$2:$O$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
         <v>8</v>
       </c>
       <c r="AT42">
-        <f t="shared" ref="AT42:AT55" si="37">AP42-AR42</f>
-        <v>-5</v>
+        <f t="shared" ref="AT42" si="46">AP42-AR42</f>
+        <v>-6</v>
       </c>
       <c r="AU42">
-        <f t="shared" ref="AU42:AU55" si="38">AQ42-AS42</f>
+        <f t="shared" ref="AU42" si="47">AQ42-AS42</f>
         <v>0</v>
       </c>
       <c r="AV42">
-        <f t="shared" ref="AV42:AV55" si="39">AP42+AQ42</f>
-        <v>12</v>
+        <f t="shared" ref="AV42" si="48">AP42+AQ42</f>
+        <v>13</v>
       </c>
       <c r="AW42">
-        <f t="shared" ref="AW42:AW55" si="40">AR42+AS42</f>
-        <v>17</v>
+        <f t="shared" ref="AW42" si="49">AR42+AS42</f>
+        <v>19</v>
       </c>
       <c r="AX42">
-        <f t="shared" ref="AX42:AX55" si="41">(AP42+AQ42)-(AR42+AS42)</f>
-        <v>-5</v>
+        <f t="shared" ref="AX42" si="50">(AP42+AQ42)-(AR42+AS42)</f>
+        <v>-6</v>
       </c>
       <c r="AY42">
-        <f t="shared" ref="AY42:AY55" si="42">AP42/AN42</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" ref="AY42" si="51">AP42/AN42</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AZ42">
-        <f t="shared" ref="AZ42:AZ55" si="43">AQ42/AO42</f>
+        <f t="shared" ref="AZ42" si="52">AQ42/AO42</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA42">
-        <f t="shared" ref="BA42:BA55" si="44">AR42/AN42</f>
-        <v>3</v>
+        <f t="shared" ref="BA42" si="53">AR42/AN42</f>
+        <v>3.6666666666666665</v>
       </c>
       <c r="BB42">
-        <f t="shared" ref="BB42:BB55" si="45">AS42/AO42</f>
+        <f t="shared" ref="BB42" si="54">AS42/AO42</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BC42">
-        <f t="shared" ref="BC42:BC55" si="46">AV42/AA42</f>
-        <v>1.7142857142857142</v>
+        <f t="shared" ref="BC42" si="55">AV42/AA42</f>
+        <v>1.8571428571428572</v>
       </c>
       <c r="BD42">
-        <f t="shared" ref="BD42:BD55" si="47">AW42/AA42</f>
-        <v>2.4285714285714284</v>
+        <f t="shared" ref="BD42" si="56">AW42/AA42</f>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.25">
@@ -7108,47 +6913,47 @@
         <v>0</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z43" t="s">
         <v>13</v>
       </c>
       <c r="AA43">
-        <f>COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA43:AA48" si="57">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 1)</f>
         <v>4</v>
       </c>
       <c r="AB43">
-        <f>COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB43:AB48" si="58">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC43">
-        <f>COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 3)</f>
-        <v>0</v>
+        <f t="shared" ref="AC43:AC48" si="59">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 3)</f>
+        <v>4</v>
       </c>
       <c r="AD43">
-        <f>COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD43:AD48" si="60">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f>AA43+AB43+AC43+AD43</f>
-        <v>10</v>
+        <f t="shared" ref="AE43:AE48" si="61">AA43+AB43+AC43+AD43</f>
+        <v>14</v>
       </c>
       <c r="AF43">
-        <f>COUNTIF($K$2:$K$81, Z43)</f>
-        <v>5</v>
+        <f t="shared" ref="AF43:AF48" si="62">COUNTIF($K$2:$K$81, Z43)</f>
+        <v>7</v>
       </c>
       <c r="AG43">
-        <f>COUNTIF($J$2:$J$81, Z43)</f>
-        <v>5</v>
+        <f t="shared" ref="AG43:AG48" si="63">COUNTIF($J$2:$J$81, Z43)</f>
+        <v>7</v>
       </c>
       <c r="AH43">
-        <f>AJ43+AL43</f>
+        <f t="shared" ref="AH43:AH48" si="64">AJ43+AL43</f>
         <v>8</v>
       </c>
       <c r="AI43">
-        <f>AE43-AH43</f>
-        <v>2</v>
+        <f t="shared" ref="AI43:AI48" si="65">AE43-AH43</f>
+        <v>6</v>
       </c>
       <c r="AJ43" cm="1">
         <f t="array" ref="AJ43">SUMPRODUCT(($K$2:$K$81=Z43)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -7167,71 +6972,71 @@
         <v>1</v>
       </c>
       <c r="AN43">
-        <f>COUNTIFS($K$2:$K$81,Z43,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AN43:AN48" si="66">COUNTIFS($K$2:$K$81,Z43,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AO43">
-        <f>COUNTIFS($J$2:$J$81,Z43,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AO43:AO48" si="67">COUNTIFS($J$2:$J$81,Z43,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AP43">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AP43:AP48" si="68">SUMIFS($O$2:$O$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
         <v>9</v>
       </c>
       <c r="AQ43">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AQ43:AQ48" si="69">SUMIFS($N$2:$N$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
         <v>11</v>
       </c>
       <c r="AR43">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AR43:AR48" si="70">SUMIFS($N$2:$N$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
         <v>10</v>
       </c>
       <c r="AS43">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AS43:AS48" si="71">SUMIFS($O$2:$O$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
         <v>9</v>
       </c>
       <c r="AT43">
-        <f>AP43-AR43</f>
+        <f t="shared" ref="AT43:AU48" si="72">AP43-AR43</f>
         <v>-1</v>
       </c>
       <c r="AU43">
-        <f>AQ43-AS43</f>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="AV43">
-        <f>AP43+AQ43</f>
+        <f t="shared" ref="AV43:AV48" si="73">AP43+AQ43</f>
         <v>20</v>
       </c>
       <c r="AW43">
-        <f>AR43+AS43</f>
+        <f t="shared" ref="AW43:AW48" si="74">AR43+AS43</f>
         <v>19</v>
       </c>
       <c r="AX43">
-        <f>(AP43+AQ43)-(AR43+AS43)</f>
+        <f t="shared" ref="AX43:AX48" si="75">(AP43+AQ43)-(AR43+AS43)</f>
         <v>1</v>
       </c>
       <c r="AY43">
-        <f>AP43/AN43</f>
+        <f t="shared" ref="AY43:AZ48" si="76">AP43/AN43</f>
         <v>3</v>
       </c>
       <c r="AZ43">
-        <f>AQ43/AO43</f>
+        <f t="shared" si="76"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BA43">
-        <f>AR43/AN43</f>
+        <f t="shared" ref="BA43:BB48" si="77">AR43/AN43</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="BB43">
-        <f>AS43/AO43</f>
+        <f t="shared" si="77"/>
         <v>3</v>
       </c>
       <c r="BC43">
-        <f>AV43/AA43</f>
+        <f t="shared" ref="BC43:BC48" si="78">AV43/AA43</f>
         <v>5</v>
       </c>
       <c r="BD43">
-        <f>AW43/AA43</f>
+        <f t="shared" ref="BD43:BD48" si="79">AW43/AA43</f>
         <v>4.75</v>
       </c>
     </row>
@@ -7285,46 +7090,46 @@
         <v>1</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z44" t="s">
         <v>1</v>
       </c>
       <c r="AA44">
-        <f>COUNTIFS($J$2:$J$81, Z44, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z44, $C$2:$C$81, 1)</f>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="AB44">
-        <f>COUNTIFS($J$2:$J$81, Z44, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z44, $C$2:$C$81, 2)</f>
+        <f t="shared" si="58"/>
         <v>6</v>
       </c>
       <c r="AC44">
-        <f>COUNTIFS($J$2:$J$81, Z44, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z44, $C$2:$C$81, 3)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f>COUNTIFS($J$2:$J$81, Z44, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z44, $C$2:$C$81, 4)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f>AA44+AB44+AC44+AD44</f>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="AF44">
-        <f>COUNTIF($K$2:$K$81, Z44)</f>
+        <f t="shared" si="62"/>
         <v>6</v>
       </c>
       <c r="AG44">
-        <f>COUNTIF($J$2:$J$81, Z44)</f>
+        <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="AH44">
-        <f>AJ44+AL44</f>
+        <f t="shared" si="64"/>
         <v>6</v>
       </c>
       <c r="AI44">
-        <f>AE44-AH44</f>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="AJ44" cm="1">
@@ -7344,71 +7149,71 @@
         <v>3</v>
       </c>
       <c r="AN44">
-        <f>COUNTIFS($K$2:$K$81,Z44,$C$2:$C$81,2)</f>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="AO44">
-        <f>COUNTIFS($J$2:$J$81,Z44,$C$2:$C$81,2)</f>
+        <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="AP44">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z44,$C$2:$C$81, 2)</f>
+        <f t="shared" si="68"/>
         <v>9</v>
       </c>
       <c r="AQ44">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z44,$C$2:$C$81, 2)</f>
+        <f t="shared" si="69"/>
         <v>10</v>
       </c>
       <c r="AR44">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z44,$C$2:$C$81, 2)</f>
+        <f t="shared" si="70"/>
         <v>11</v>
       </c>
       <c r="AS44">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z44,$C$2:$C$81, 2)</f>
+        <f t="shared" si="71"/>
         <v>9</v>
       </c>
       <c r="AT44">
-        <f>AP44-AR44</f>
+        <f t="shared" si="72"/>
         <v>-2</v>
       </c>
       <c r="AU44">
-        <f>AQ44-AS44</f>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="AV44">
-        <f>AP44+AQ44</f>
+        <f t="shared" si="73"/>
         <v>19</v>
       </c>
       <c r="AW44">
-        <f>AR44+AS44</f>
+        <f t="shared" si="74"/>
         <v>20</v>
       </c>
       <c r="AX44">
-        <f>(AP44+AQ44)-(AR44+AS44)</f>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AY44">
-        <f>AP44/AN44</f>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="AZ44">
-        <f>AQ44/AO44</f>
+        <f t="shared" si="76"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="BA44">
-        <f>AR44/AN44</f>
+        <f t="shared" si="77"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BB44">
-        <f>AS44/AO44</f>
+        <f t="shared" si="77"/>
         <v>3</v>
       </c>
       <c r="BC44">
-        <f>AV44/AA44</f>
+        <f t="shared" si="78"/>
         <v>3.8</v>
       </c>
       <c r="BD44">
-        <f>AW44/AA44</f>
+        <f t="shared" si="79"/>
         <v>4</v>
       </c>
     </row>
@@ -7462,47 +7267,47 @@
         <v>0</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Z45" t="s">
         <v>17</v>
       </c>
       <c r="AA45">
-        <f>COUNTIFS($J$2:$J$81, Z45, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z45, $C$2:$C$81, 1)</f>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="AB45">
-        <f>COUNTIFS($J$2:$J$81, Z45, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z45, $C$2:$C$81, 2)</f>
+        <f t="shared" si="58"/>
+        <v>7</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="61"/>
+        <v>13</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="62"/>
+        <v>7</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="63"/>
         <v>6</v>
       </c>
-      <c r="AC45">
-        <f>COUNTIFS($J$2:$J$81, Z45, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z45, $C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <f>COUNTIFS($J$2:$J$81, Z45, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z45, $C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <f>AA45+AB45+AC45+AD45</f>
-        <v>12</v>
-      </c>
-      <c r="AF45">
-        <f>COUNTIF($K$2:$K$81, Z45)</f>
+      <c r="AH45">
+        <f t="shared" si="64"/>
+        <v>7</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="65"/>
         <v>6</v>
-      </c>
-      <c r="AG45">
-        <f>COUNTIF($J$2:$J$81, Z45)</f>
-        <v>6</v>
-      </c>
-      <c r="AH45">
-        <f>AJ45+AL45</f>
-        <v>7</v>
-      </c>
-      <c r="AI45">
-        <f>AE45-AH45</f>
-        <v>5</v>
       </c>
       <c r="AJ45" cm="1">
         <f t="array" ref="AJ45">SUMPRODUCT(($K$2:$K$81=Z45)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -7510,7 +7315,7 @@
       </c>
       <c r="AK45" cm="1">
         <f t="array" ref="AK45">SUMPRODUCT(($K$2:$K$81=Z45)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL45" cm="1">
         <f t="array" ref="AL45">SUMPRODUCT(($J$2:$J$81=Z45)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -7518,75 +7323,75 @@
       </c>
       <c r="AM45" cm="1">
         <f t="array" ref="AM45">SUMPRODUCT(($J$2:$J$81=Z45)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN45">
-        <f>COUNTIFS($K$2:$K$81,Z45,$C$2:$C$81,2)</f>
-        <v>3</v>
+        <f t="shared" si="66"/>
+        <v>4</v>
       </c>
       <c r="AO45">
-        <f>COUNTIFS($J$2:$J$81,Z45,$C$2:$C$81,2)</f>
+        <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="AP45">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z45,$C$2:$C$81, 2)</f>
+        <f t="shared" si="68"/>
+        <v>13</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="69"/>
+        <v>7</v>
+      </c>
+      <c r="AR45">
+        <f t="shared" si="70"/>
+        <v>13</v>
+      </c>
+      <c r="AS45">
+        <f t="shared" si="71"/>
         <v>11</v>
       </c>
-      <c r="AQ45">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z45,$C$2:$C$81, 2)</f>
-        <v>6</v>
-      </c>
-      <c r="AR45">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z45,$C$2:$C$81, 2)</f>
-        <v>10</v>
-      </c>
-      <c r="AS45">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z45,$C$2:$C$81, 2)</f>
-        <v>6</v>
-      </c>
       <c r="AT45">
-        <f>AP45-AR45</f>
-        <v>1</v>
+        <f t="shared" si="72"/>
+        <v>0</v>
       </c>
       <c r="AU45">
-        <f>AQ45-AS45</f>
-        <v>0</v>
+        <f t="shared" si="72"/>
+        <v>-4</v>
       </c>
       <c r="AV45">
-        <f>AP45+AQ45</f>
-        <v>17</v>
+        <f t="shared" si="73"/>
+        <v>20</v>
       </c>
       <c r="AW45">
-        <f>AR45+AS45</f>
-        <v>16</v>
+        <f t="shared" si="74"/>
+        <v>24</v>
       </c>
       <c r="AX45">
-        <f>(AP45+AQ45)-(AR45+AS45)</f>
-        <v>1</v>
+        <f t="shared" si="75"/>
+        <v>-4</v>
       </c>
       <c r="AY45">
-        <f>AP45/AN45</f>
+        <f t="shared" si="76"/>
+        <v>3.25</v>
+      </c>
+      <c r="AZ45">
+        <f t="shared" si="76"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA45">
+        <f t="shared" si="77"/>
+        <v>3.25</v>
+      </c>
+      <c r="BB45">
+        <f t="shared" si="77"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="AZ45">
-        <f>AQ45/AO45</f>
-        <v>2</v>
-      </c>
-      <c r="BA45">
-        <f>AR45/AN45</f>
+      <c r="BC45">
+        <f t="shared" si="78"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="BB45">
-        <f>AS45/AO45</f>
-        <v>2</v>
-      </c>
-      <c r="BC45">
-        <f>AV45/AA45</f>
-        <v>2.8333333333333335</v>
-      </c>
       <c r="BD45">
-        <f>AW45/AA45</f>
-        <v>2.6666666666666665</v>
+        <f t="shared" si="79"/>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7639,51 +7444,51 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Z46" t="s">
         <v>21</v>
       </c>
       <c r="AA46">
-        <f>COUNTIFS($J$2:$J$81, Z46, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z46, $C$2:$C$81, 1)</f>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="AB46">
-        <f>COUNTIFS($J$2:$J$81, Z46, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z46, $C$2:$C$81, 2)</f>
-        <v>6</v>
+        <f t="shared" si="58"/>
+        <v>7</v>
       </c>
       <c r="AC46">
-        <f>COUNTIFS($J$2:$J$81, Z46, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z46, $C$2:$C$81, 3)</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>4</v>
       </c>
       <c r="AD46">
-        <f>COUNTIFS($J$2:$J$81, Z46, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z46, $C$2:$C$81, 4)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AE46">
-        <f>AA46+AB46+AC46+AD46</f>
-        <v>11</v>
+        <f t="shared" si="61"/>
+        <v>16</v>
       </c>
       <c r="AF46">
-        <f>COUNTIF($K$2:$K$81, Z46)</f>
-        <v>6</v>
+        <f t="shared" si="62"/>
+        <v>8</v>
       </c>
       <c r="AG46">
-        <f>COUNTIF($J$2:$J$81, Z46)</f>
-        <v>5</v>
+        <f t="shared" si="63"/>
+        <v>8</v>
       </c>
       <c r="AH46">
-        <f>AJ46+AL46</f>
-        <v>5</v>
+        <f t="shared" si="64"/>
+        <v>7</v>
       </c>
       <c r="AI46">
-        <f>AE46-AH46</f>
-        <v>6</v>
+        <f t="shared" si="65"/>
+        <v>9</v>
       </c>
       <c r="AJ46" cm="1">
         <f t="array" ref="AJ46">SUMPRODUCT(($K$2:$K$81=Z46)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK46" cm="1">
         <f t="array" ref="AK46">SUMPRODUCT(($K$2:$K$81=Z46)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -7691,79 +7496,79 @@
       </c>
       <c r="AL46" cm="1">
         <f t="array" ref="AL46">SUMPRODUCT(($J$2:$J$81=Z46)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM46" cm="1">
         <f t="array" ref="AM46">SUMPRODUCT(($J$2:$J$81=Z46)*($O$2:$O$81&gt;$N$2:$N$81))</f>
         <v>3</v>
       </c>
       <c r="AN46">
-        <f>COUNTIFS($K$2:$K$81,Z46,$C$2:$C$81,2)</f>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="AO46">
-        <f>COUNTIFS($J$2:$J$81,Z46,$C$2:$C$81,2)</f>
-        <v>3</v>
+        <f t="shared" si="67"/>
+        <v>4</v>
       </c>
       <c r="AP46">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z46,$C$2:$C$81, 2)</f>
-        <v>6</v>
+        <f t="shared" si="68"/>
+        <v>11</v>
       </c>
       <c r="AQ46">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z46,$C$2:$C$81, 2)</f>
-        <v>10</v>
+        <f t="shared" si="69"/>
+        <v>13</v>
       </c>
       <c r="AR46">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z46,$C$2:$C$81, 2)</f>
-        <v>6</v>
+        <f t="shared" si="70"/>
+        <v>7</v>
       </c>
       <c r="AS46">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z46,$C$2:$C$81, 2)</f>
-        <v>11</v>
+        <f t="shared" si="71"/>
+        <v>13</v>
       </c>
       <c r="AT46">
-        <f>AP46-AR46</f>
-        <v>0</v>
+        <f t="shared" si="72"/>
+        <v>4</v>
       </c>
       <c r="AU46">
-        <f>AQ46-AS46</f>
-        <v>-1</v>
+        <f t="shared" si="72"/>
+        <v>0</v>
       </c>
       <c r="AV46">
-        <f>AP46+AQ46</f>
-        <v>16</v>
+        <f t="shared" si="73"/>
+        <v>24</v>
       </c>
       <c r="AW46">
-        <f>AR46+AS46</f>
-        <v>17</v>
+        <f t="shared" si="74"/>
+        <v>20</v>
       </c>
       <c r="AX46">
-        <f>(AP46+AQ46)-(AR46+AS46)</f>
-        <v>-1</v>
+        <f t="shared" si="75"/>
+        <v>4</v>
       </c>
       <c r="AY46">
-        <f>AP46/AN46</f>
-        <v>2</v>
+        <f t="shared" si="76"/>
+        <v>3.6666666666666665</v>
       </c>
       <c r="AZ46">
-        <f>AQ46/AO46</f>
-        <v>3.3333333333333335</v>
+        <f t="shared" si="76"/>
+        <v>3.25</v>
       </c>
       <c r="BA46">
-        <f>AR46/AN46</f>
-        <v>2</v>
+        <f t="shared" si="77"/>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BB46">
-        <f>AS46/AO46</f>
-        <v>3.6666666666666665</v>
+        <f t="shared" si="77"/>
+        <v>3.25</v>
       </c>
       <c r="BC46">
-        <f>AV46/AA46</f>
-        <v>3.2</v>
+        <f t="shared" si="78"/>
+        <v>4.8</v>
       </c>
       <c r="BD46">
-        <f>AW46/AA46</f>
-        <v>3.4</v>
+        <f t="shared" si="79"/>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.25">
@@ -7816,47 +7621,47 @@
         <v>0</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z47" t="s">
         <v>19</v>
       </c>
       <c r="AA47">
-        <f>COUNTIFS($J$2:$J$81, Z47, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z47, $C$2:$C$81, 1)</f>
+        <f t="shared" si="57"/>
         <v>7</v>
       </c>
       <c r="AB47">
-        <f>COUNTIFS($J$2:$J$81, Z47, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z47, $C$2:$C$81, 2)</f>
+        <f t="shared" si="58"/>
         <v>6</v>
       </c>
       <c r="AC47">
-        <f>COUNTIFS($J$2:$J$81, Z47, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z47, $C$2:$C$81, 3)</f>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>4</v>
       </c>
       <c r="AD47">
-        <f>COUNTIFS($J$2:$J$81, Z47, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z47, $C$2:$C$81, 4)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AE47">
-        <f>AA47+AB47+AC47+AD47</f>
-        <v>13</v>
+        <f t="shared" si="61"/>
+        <v>17</v>
       </c>
       <c r="AF47">
-        <f>COUNTIF($K$2:$K$81, Z47)</f>
-        <v>7</v>
+        <f t="shared" si="62"/>
+        <v>9</v>
       </c>
       <c r="AG47">
-        <f>COUNTIF($J$2:$J$81, Z47)</f>
-        <v>6</v>
+        <f t="shared" si="63"/>
+        <v>8</v>
       </c>
       <c r="AH47">
-        <f>AJ47+AL47</f>
-        <v>7</v>
+        <f t="shared" si="64"/>
+        <v>8</v>
       </c>
       <c r="AI47">
-        <f>AE47-AH47</f>
-        <v>6</v>
+        <f t="shared" si="65"/>
+        <v>9</v>
       </c>
       <c r="AJ47" cm="1">
         <f t="array" ref="AJ47">SUMPRODUCT(($K$2:$K$81=Z47)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -7868,79 +7673,79 @@
       </c>
       <c r="AL47" cm="1">
         <f t="array" ref="AL47">SUMPRODUCT(($J$2:$J$81=Z47)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM47" cm="1">
         <f t="array" ref="AM47">SUMPRODUCT(($J$2:$J$81=Z47)*($O$2:$O$81&gt;$N$2:$N$81))</f>
         <v>1</v>
       </c>
       <c r="AN47">
-        <f>COUNTIFS($K$2:$K$81,Z47,$C$2:$C$81,2)</f>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="AO47">
-        <f>COUNTIFS($J$2:$J$81,Z47,$C$2:$C$81,2)</f>
+        <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="AP47">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z47,$C$2:$C$81, 2)</f>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="AQ47">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z47,$C$2:$C$81, 2)</f>
-        <v>9</v>
+        <f t="shared" si="69"/>
+        <v>11</v>
       </c>
       <c r="AR47">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z47,$C$2:$C$81, 2)</f>
+        <f t="shared" si="70"/>
         <v>11</v>
       </c>
       <c r="AS47">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z47,$C$2:$C$81, 2)</f>
-        <v>2</v>
+        <f t="shared" si="71"/>
+        <v>3</v>
       </c>
       <c r="AT47">
-        <f>AP47-AR47</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AU47">
-        <f>AQ47-AS47</f>
-        <v>7</v>
+        <f t="shared" si="72"/>
+        <v>8</v>
       </c>
       <c r="AV47">
-        <f>AP47+AQ47</f>
-        <v>20</v>
+        <f t="shared" si="73"/>
+        <v>22</v>
       </c>
       <c r="AW47">
-        <f>AR47+AS47</f>
-        <v>13</v>
+        <f t="shared" si="74"/>
+        <v>14</v>
       </c>
       <c r="AX47">
-        <f>(AP47+AQ47)-(AR47+AS47)</f>
-        <v>7</v>
+        <f t="shared" si="75"/>
+        <v>8</v>
       </c>
       <c r="AY47">
-        <f>AP47/AN47</f>
+        <f t="shared" si="76"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="AZ47">
-        <f>AQ47/AO47</f>
-        <v>3</v>
+        <f t="shared" si="76"/>
+        <v>3.6666666666666665</v>
       </c>
       <c r="BA47">
-        <f>AR47/AN47</f>
+        <f t="shared" si="77"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BB47">
-        <f>AS47/AO47</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="77"/>
+        <v>1</v>
       </c>
       <c r="BC47">
-        <f>AV47/AA47</f>
-        <v>2.8571428571428572</v>
+        <f t="shared" si="78"/>
+        <v>3.1428571428571428</v>
       </c>
       <c r="BD47">
-        <f>AW47/AA47</f>
-        <v>1.8571428571428572</v>
+        <f t="shared" si="79"/>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.25">
@@ -7993,46 +7798,46 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z48" t="s">
         <v>14</v>
       </c>
       <c r="AA48">
-        <f>COUNTIFS($J$2:$J$81, Z48, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z48, $C$2:$C$81, 1)</f>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="AB48">
-        <f>COUNTIFS($J$2:$J$81, Z48, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z48, $C$2:$C$81, 2)</f>
+        <f t="shared" si="58"/>
         <v>6</v>
       </c>
       <c r="AC48">
-        <f>COUNTIFS($J$2:$J$81, Z48, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z48, $C$2:$C$81, 3)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AD48">
-        <f>COUNTIFS($J$2:$J$81, Z48, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z48, $C$2:$C$81, 4)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AE48">
-        <f>AA48+AB48+AC48+AD48</f>
+        <f t="shared" si="61"/>
         <v>11</v>
       </c>
       <c r="AF48">
-        <f>COUNTIF($K$2:$K$81, Z48)</f>
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
       <c r="AG48">
-        <f>COUNTIF($J$2:$J$81, Z48)</f>
+        <f t="shared" si="63"/>
         <v>6</v>
       </c>
       <c r="AH48">
-        <f>AJ48+AL48</f>
+        <f t="shared" si="64"/>
         <v>6</v>
       </c>
       <c r="AI48">
-        <f>AE48-AH48</f>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="AJ48" cm="1">
@@ -8041,7 +7846,7 @@
       </c>
       <c r="AK48" cm="1">
         <f t="array" ref="AK48">SUMPRODUCT(($K$2:$K$81=Z48)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL48" cm="1">
         <f t="array" ref="AL48">SUMPRODUCT(($J$2:$J$81=Z48)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -8052,72 +7857,72 @@
         <v>2</v>
       </c>
       <c r="AN48">
-        <f>COUNTIFS($K$2:$K$81,Z48,$C$2:$C$81,2)</f>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="AO48">
-        <f>COUNTIFS($J$2:$J$81,Z48,$C$2:$C$81,2)</f>
+        <f t="shared" si="67"/>
         <v>3</v>
       </c>
       <c r="AP48">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z48,$C$2:$C$81, 2)</f>
-        <v>2</v>
+        <f t="shared" si="68"/>
+        <v>3</v>
       </c>
       <c r="AQ48">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z48,$C$2:$C$81, 2)</f>
+        <f t="shared" si="69"/>
         <v>11</v>
       </c>
       <c r="AR48">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z48,$C$2:$C$81, 2)</f>
-        <v>9</v>
+        <f t="shared" si="70"/>
+        <v>11</v>
       </c>
       <c r="AS48">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z48,$C$2:$C$81, 2)</f>
+        <f t="shared" si="71"/>
         <v>11</v>
       </c>
       <c r="AT48">
-        <f>AP48-AR48</f>
-        <v>-7</v>
+        <f t="shared" si="72"/>
+        <v>-8</v>
       </c>
       <c r="AU48">
-        <f>AQ48-AS48</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="AV48">
-        <f>AP48+AQ48</f>
-        <v>13</v>
+        <f t="shared" si="73"/>
+        <v>14</v>
       </c>
       <c r="AW48">
-        <f>AR48+AS48</f>
-        <v>20</v>
+        <f t="shared" si="74"/>
+        <v>22</v>
       </c>
       <c r="AX48">
-        <f>(AP48+AQ48)-(AR48+AS48)</f>
-        <v>-7</v>
+        <f t="shared" si="75"/>
+        <v>-8</v>
       </c>
       <c r="AY48">
-        <f>AP48/AN48</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="76"/>
+        <v>1</v>
       </c>
       <c r="AZ48">
-        <f>AQ48/AO48</f>
+        <f t="shared" si="76"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BA48">
-        <f>AR48/AN48</f>
-        <v>3</v>
+        <f t="shared" si="77"/>
+        <v>3.6666666666666665</v>
       </c>
       <c r="BB48">
-        <f>AS48/AO48</f>
+        <f t="shared" si="77"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BC48">
-        <f>AV48/AA48</f>
-        <v>2.6</v>
+        <f t="shared" si="78"/>
+        <v>2.8</v>
       </c>
       <c r="BD48">
-        <f>AW48/AA48</f>
-        <v>4</v>
+        <f t="shared" si="79"/>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.25">
@@ -8170,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -8422,23 +8227,23 @@
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q81" si="48">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <f t="shared" ref="Q52:Q81" si="80">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
         <v>0</v>
       </c>
       <c r="Z52" t="s">
         <v>11</v>
       </c>
       <c r="AA52">
-        <f t="shared" ref="AA52:AA54" si="49">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA52:AA53" si="81">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AB52">
-        <f t="shared" ref="AB52:AB54" si="50">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB52:AB53" si="82">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC52">
         <f>COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD52">
         <f>COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 4)</f>
@@ -8446,23 +8251,23 @@
       </c>
       <c r="AE52">
         <f>AA52+AB52+AC52+AD52</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF52">
         <f>COUNTIF($K$2:$K$81, Z52)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG52">
         <f>COUNTIF($J$2:$J$81, Z52)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH52">
         <f>AJ52+AL52</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI52">
         <f>AE52-AH52</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ52" cm="1">
         <f t="array" ref="AJ52">SUMPRODUCT(($K$2:$K$81=Z52)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -8474,7 +8279,7 @@
       </c>
       <c r="AL52" cm="1">
         <f t="array" ref="AL52">SUMPRODUCT(($J$2:$J$81=Z52)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM52" cm="1">
         <f t="array" ref="AM52">SUMPRODUCT(($J$2:$J$81=Z52)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -8482,11 +8287,11 @@
       </c>
       <c r="AN52">
         <f>COUNTIFS($K$2:$K$81,Z52,$C$2:$C$81,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO52">
         <f>COUNTIFS($J$2:$J$81,Z52,$C$2:$C$81,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP52">
         <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z52,$C$2:$C$81, 3)</f>
@@ -8505,11 +8310,11 @@
         <v>0</v>
       </c>
       <c r="AT52">
-        <f>AP52-AR52</f>
+        <f t="shared" ref="AT52:AU54" si="83">AP52-AR52</f>
         <v>0</v>
       </c>
       <c r="AU52">
-        <f>AQ52-AS52</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AV52">
@@ -8524,21 +8329,21 @@
         <f>(AP52+AQ52)-(AR52+AS52)</f>
         <v>0</v>
       </c>
-      <c r="AY52" t="e">
-        <f>AP52/AN52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ52" t="e">
-        <f>AQ52/AO52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA52" t="e">
-        <f>AR52/AN52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB52" t="e">
-        <f>AS52/AO52</f>
-        <v>#DIV/0!</v>
+      <c r="AY52">
+        <f t="shared" ref="AY52:AZ54" si="84">AP52/AN52</f>
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <f t="shared" ref="BA52:BB54" si="85">AR52/AN52</f>
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <f t="shared" si="85"/>
+        <v>0</v>
       </c>
       <c r="BC52">
         <f>AV52/AA52</f>
@@ -8599,55 +8404,55 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="Z53" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="49"/>
+        <f>COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AB53">
+        <f>COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC53">
+        <f>COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 3)</f>
+        <v>4</v>
+      </c>
+      <c r="AD53">
+        <f>COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <f>AA53+AB53+AC53+AD53</f>
+        <v>14</v>
+      </c>
+      <c r="AF53">
+        <f>COUNTIF($K$2:$K$81, Z53)</f>
         <v>7</v>
       </c>
-      <c r="AB53">
-        <f t="shared" si="50"/>
+      <c r="AG53">
+        <f>COUNTIF($J$2:$J$81, Z53)</f>
+        <v>7</v>
+      </c>
+      <c r="AH53">
+        <f>AJ53+AL53</f>
+        <v>8</v>
+      </c>
+      <c r="AI53">
+        <f>AE53-AH53</f>
         <v>6</v>
-      </c>
-      <c r="AC53">
-        <f t="shared" ref="AC53:AC54" si="51">COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <f t="shared" ref="AD53:AD54" si="52">COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <f t="shared" ref="AE53:AE54" si="53">AA53+AB53+AC53+AD53</f>
-        <v>13</v>
-      </c>
-      <c r="AF53">
-        <f t="shared" ref="AF53:AF54" si="54">COUNTIF($K$2:$K$81, Z53)</f>
-        <v>7</v>
-      </c>
-      <c r="AG53">
-        <f t="shared" ref="AG53:AG54" si="55">COUNTIF($J$2:$J$81, Z53)</f>
-        <v>6</v>
-      </c>
-      <c r="AH53">
-        <f t="shared" ref="AH53:AH54" si="56">AJ53+AL53</f>
-        <v>6</v>
-      </c>
-      <c r="AI53">
-        <f t="shared" ref="AI53" si="57">AE53-AH53</f>
-        <v>7</v>
       </c>
       <c r="AJ53" cm="1">
         <f t="array" ref="AJ53">SUMPRODUCT(($K$2:$K$81=Z53)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK53" cm="1">
         <f t="array" ref="AK53">SUMPRODUCT(($K$2:$K$81=Z53)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL53" cm="1">
         <f t="array" ref="AL53">SUMPRODUCT(($J$2:$J$81=Z53)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -8655,15 +8460,15 @@
       </c>
       <c r="AM53" cm="1">
         <f t="array" ref="AM53">SUMPRODUCT(($J$2:$J$81=Z53)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN53">
         <f>COUNTIFS($K$2:$K$81,Z53,$C$2:$C$81,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO53">
         <f>COUNTIFS($J$2:$J$81,Z53,$C$2:$C$81,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP53">
         <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z53,$C$2:$C$81, 3)</f>
@@ -8701,21 +8506,21 @@
         <f>(AP53+AQ53)-(AR53+AS53)</f>
         <v>0</v>
       </c>
-      <c r="AY53" t="e">
+      <c r="AY53">
         <f>AP53/AN53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ53" t="e">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
         <f>AQ53/AO53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA53" t="e">
+        <v>0</v>
+      </c>
+      <c r="BA53">
         <f>AR53/AN53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB53" t="e">
+        <v>0</v>
+      </c>
+      <c r="BB53">
         <f>AS53/AO53</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="BC53">
         <f>AV53/AA53</f>
@@ -8776,23 +8581,23 @@
         <v>0</v>
       </c>
       <c r="Q54" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="Z54" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AA54">
         <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB54">
         <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC54">
         <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD54">
         <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 4)</f>
@@ -8800,23 +8605,23 @@
       </c>
       <c r="AE54">
         <f>AA54+AB54+AC54+AD54</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AF54">
         <f>COUNTIF($K$2:$K$81, Z54)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG54">
         <f>COUNTIF($J$2:$J$81, Z54)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH54">
         <f>AJ54+AL54</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI54">
         <f>AE54-AH54</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AJ54" cm="1">
         <f t="array" ref="AJ54">SUMPRODUCT(($K$2:$K$81=Z54)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -8824,23 +8629,23 @@
       </c>
       <c r="AK54" cm="1">
         <f t="array" ref="AK54">SUMPRODUCT(($K$2:$K$81=Z54)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL54" cm="1">
         <f t="array" ref="AL54">SUMPRODUCT(($J$2:$J$81=Z54)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM54" cm="1">
         <f t="array" ref="AM54">SUMPRODUCT(($J$2:$J$81=Z54)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN54">
         <f>COUNTIFS($K$2:$K$81,Z54,$C$2:$C$81,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO54">
         <f>COUNTIFS($J$2:$J$81,Z54,$C$2:$C$81,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP54">
         <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z54,$C$2:$C$81, 3)</f>
@@ -8878,21 +8683,21 @@
         <f>(AP54+AQ54)-(AR54+AS54)</f>
         <v>0</v>
       </c>
-      <c r="AY54" t="e">
+      <c r="AY54">
         <f>AP54/AN54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ54" t="e">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
         <f>AQ54/AO54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA54" t="e">
+        <v>0</v>
+      </c>
+      <c r="BA54">
         <f>AR54/AN54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB54" t="e">
+        <v>0</v>
+      </c>
+      <c r="BB54">
         <f>AS54/AO54</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="BC54">
         <f>AV54/AA54</f>
@@ -8953,15 +8758,15 @@
         <v>1</v>
       </c>
       <c r="Q55" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="Z55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA55">
         <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB55">
         <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 2)</f>
@@ -8969,7 +8774,7 @@
       </c>
       <c r="AC55">
         <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD55">
         <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 4)</f>
@@ -8977,23 +8782,23 @@
       </c>
       <c r="AE55">
         <f>AA55+AB55+AC55+AD55</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF55">
         <f>COUNTIF($K$2:$K$81, Z55)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG55">
         <f>COUNTIF($J$2:$J$81, Z55)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH55">
         <f>AJ55+AL55</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI55">
         <f>AE55-AH55</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ55" cm="1">
         <f t="array" ref="AJ55">SUMPRODUCT(($K$2:$K$81=Z55)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -9001,82 +8806,82 @@
       </c>
       <c r="AK55" cm="1">
         <f t="array" ref="AK55">SUMPRODUCT(($K$2:$K$81=Z55)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL55" cm="1">
         <f t="array" ref="AL55">SUMPRODUCT(($J$2:$J$81=Z55)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM55" cm="1">
         <f t="array" ref="AM55">SUMPRODUCT(($J$2:$J$81=Z55)*($O$2:$O$81&gt;$N$2:$N$81))</f>
         <v>1</v>
       </c>
       <c r="AN55">
-        <f t="shared" ref="AN55:AN58" si="58">COUNTIFS($K$2:$K$81,Z55,$C$2:$C$81,3)</f>
-        <v>0</v>
+        <f>COUNTIFS($K$2:$K$81,Z55,$C$2:$C$81,3)</f>
+        <v>2</v>
       </c>
       <c r="AO55">
-        <f t="shared" ref="AO55:AO58" si="59">COUNTIFS($J$2:$J$81,Z55,$C$2:$C$81,3)</f>
-        <v>0</v>
+        <f>COUNTIFS($J$2:$J$81,Z55,$C$2:$C$81,3)</f>
+        <v>2</v>
       </c>
       <c r="AP55">
-        <f t="shared" ref="AP55:AP58" si="60">SUMIFS($O$2:$O$81, $K$2:$K$81, Z55,$C$2:$C$81, 3)</f>
+        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z55,$C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AQ55">
-        <f t="shared" ref="AQ55:AQ58" si="61">SUMIFS($N$2:$N$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
+        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AR55">
-        <f t="shared" ref="AR55:AR58" si="62">SUMIFS($N$2:$N$81, $K$2:$K$81, Z55,$C$2:$C$81, 3)</f>
+        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z55,$C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AS55">
-        <f t="shared" ref="AS55:AS58" si="63">SUMIFS($O$2:$O$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
+        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AT55">
-        <f t="shared" ref="AT55:AT58" si="64">AP55-AR55</f>
+        <f>AP55-AR55</f>
         <v>0</v>
       </c>
       <c r="AU55">
-        <f t="shared" ref="AU55:AU58" si="65">AQ55-AS55</f>
+        <f>AQ55-AS55</f>
         <v>0</v>
       </c>
       <c r="AV55">
-        <f t="shared" ref="AV55:AV58" si="66">AP55+AQ55</f>
+        <f>AP55+AQ55</f>
         <v>0</v>
       </c>
       <c r="AW55">
-        <f t="shared" ref="AW55:AW58" si="67">AR55+AS55</f>
+        <f>AR55+AS55</f>
         <v>0</v>
       </c>
       <c r="AX55">
-        <f t="shared" ref="AX55:AX58" si="68">(AP55+AQ55)-(AR55+AS55)</f>
-        <v>0</v>
-      </c>
-      <c r="AY55" t="e">
-        <f t="shared" ref="AY55:AY58" si="69">AP55/AN55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ55" t="e">
-        <f t="shared" ref="AZ55:AZ58" si="70">AQ55/AO55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA55" t="e">
-        <f t="shared" ref="BA55:BA58" si="71">AR55/AN55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB55" t="e">
-        <f t="shared" ref="BB55:BB58" si="72">AS55/AO55</f>
-        <v>#DIV/0!</v>
+        <f>(AP55+AQ55)-(AR55+AS55)</f>
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <f>AP55/AN55</f>
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <f>AQ55/AO55</f>
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <f>AR55/AN55</f>
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <f>AS55/AO55</f>
+        <v>0</v>
       </c>
       <c r="BC55">
-        <f t="shared" ref="BC55:BC58" si="73">AV55/AA55</f>
+        <f>AV55/AA55</f>
         <v>0</v>
       </c>
       <c r="BD55">
-        <f t="shared" ref="BD55:BD58" si="74">AW55/AA55</f>
+        <f>AW55/AA55</f>
         <v>0</v>
       </c>
     </row>
@@ -9130,131 +8935,8 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA56">
-        <f>COUNTIFS($J$2:$J$81, Z56, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z56, $C$2:$C$81, 1)</f>
-        <v>5</v>
-      </c>
-      <c r="AB56">
-        <f>COUNTIFS($J$2:$J$81, Z56, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z56, $C$2:$C$81, 2)</f>
-        <v>6</v>
-      </c>
-      <c r="AC56">
-        <f>COUNTIFS($J$2:$J$81, Z56, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z56, $C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <f>COUNTIFS($J$2:$J$81, Z56, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z56, $C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <f>AA56+AB56+AC56+AD56</f>
-        <v>11</v>
-      </c>
-      <c r="AF56">
-        <f>COUNTIF($K$2:$K$81, Z56)</f>
-        <v>6</v>
-      </c>
-      <c r="AG56">
-        <f>COUNTIF($J$2:$J$81, Z56)</f>
-        <v>5</v>
-      </c>
-      <c r="AH56">
-        <f>AJ56+AL56</f>
-        <v>5</v>
-      </c>
-      <c r="AI56">
-        <f>AE56-AH56</f>
-        <v>6</v>
-      </c>
-      <c r="AJ56" cm="1">
-        <f t="array" ref="AJ56">SUMPRODUCT(($K$2:$K$81=Z56)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AK56" cm="1">
-        <f t="array" ref="AK56">SUMPRODUCT(($K$2:$K$81=Z56)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AL56" cm="1">
-        <f t="array" ref="AL56">SUMPRODUCT(($J$2:$J$81=Z56)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AM56" cm="1">
-        <f t="array" ref="AM56">SUMPRODUCT(($J$2:$J$81=Z56)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AN56">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AQ56">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AR56">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AS56">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AT56">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AU56">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AW56">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AX56">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="AY56" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ56" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA56" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB56" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC56">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BD56">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.25">
@@ -9307,130 +8989,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="16">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA57">
-        <f>COUNTIFS($J$2:$J$81, Z57, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z57, $C$2:$C$81, 1)</f>
-        <v>7</v>
-      </c>
-      <c r="AB57">
-        <f>COUNTIFS($J$2:$J$81, Z57, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z57, $C$2:$C$81, 2)</f>
-        <v>6</v>
-      </c>
-      <c r="AC57">
-        <f>COUNTIFS($J$2:$J$81, Z57, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z57, $C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <f>COUNTIFS($J$2:$J$81, Z57, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z57, $C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <f>AA57+AB57+AC57+AD57</f>
-        <v>13</v>
-      </c>
-      <c r="AF57">
-        <f>COUNTIF($K$2:$K$81, Z57)</f>
-        <v>7</v>
-      </c>
-      <c r="AG57">
-        <f>COUNTIF($J$2:$J$81, Z57)</f>
-        <v>6</v>
-      </c>
-      <c r="AH57">
-        <f>AJ57+AL57</f>
-        <v>7</v>
-      </c>
-      <c r="AI57">
-        <f>AE57-AH57</f>
-        <v>6</v>
-      </c>
-      <c r="AJ57" cm="1">
-        <f t="array" ref="AJ57">SUMPRODUCT(($K$2:$K$81=Z57)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AK57" cm="1">
-        <f t="array" ref="AK57">SUMPRODUCT(($K$2:$K$81=Z57)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AL57" cm="1">
-        <f t="array" ref="AL57">SUMPRODUCT(($J$2:$J$81=Z57)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM57" cm="1">
-        <f t="array" ref="AM57">SUMPRODUCT(($J$2:$J$81=Z57)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AN57">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AO57">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AP57">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AQ57">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AR57">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AS57">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AT57">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AU57">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AV57">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AW57">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AX57">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="AY57" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ57" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA57" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB57" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC57">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BD57">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
@@ -9484,132 +9043,40 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA58">
-        <f>COUNTIFS($J$2:$J$81, Z58, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z58, $C$2:$C$81, 1)</f>
-        <v>5</v>
-      </c>
-      <c r="AB58">
-        <f>COUNTIFS($J$2:$J$81, Z58, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z58, $C$2:$C$81, 2)</f>
-        <v>6</v>
-      </c>
-      <c r="AC58">
-        <f>COUNTIFS($J$2:$J$81, Z58, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z58, $C$2:$C$81, 3)</f>
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <f>COUNTIFS($J$2:$J$81, Z58, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z58, $C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <f>AA58+AB58+AC58+AD58</f>
-        <v>11</v>
-      </c>
-      <c r="AF58">
-        <f>COUNTIF($K$2:$K$81, Z58)</f>
-        <v>5</v>
-      </c>
-      <c r="AG58">
-        <f>COUNTIF($J$2:$J$81, Z58)</f>
-        <v>6</v>
-      </c>
-      <c r="AH58">
-        <f>AJ58+AL58</f>
-        <v>6</v>
-      </c>
-      <c r="AI58">
-        <f>AE58-AH58</f>
-        <v>5</v>
-      </c>
-      <c r="AJ58" cm="1">
-        <f t="array" ref="AJ58">SUMPRODUCT(($K$2:$K$81=Z58)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AK58" cm="1">
-        <f t="array" ref="AK58">SUMPRODUCT(($K$2:$K$81=Z58)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AL58" cm="1">
-        <f t="array" ref="AL58">SUMPRODUCT(($J$2:$J$81=Z58)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM58" cm="1">
-        <f t="array" ref="AM58">SUMPRODUCT(($J$2:$J$81=Z58)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN58">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AO58">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AP58">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AQ58">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AR58">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AS58">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AT58">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="AU58">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="AV58">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="AW58">
-        <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-      <c r="AX58">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="AY58" t="e">
-        <f t="shared" si="69"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ58" t="e">
-        <f t="shared" si="70"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA58" t="e">
-        <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BB58" t="e">
-        <f t="shared" si="72"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC58">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BD58">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="31"/>
+      <c r="AA58" s="31"/>
+      <c r="AB58" s="31"/>
+      <c r="AC58" s="31"/>
+      <c r="AD58" s="31"/>
+      <c r="AE58" s="31"/>
+      <c r="AF58" s="31"/>
+      <c r="AG58" s="31"/>
+      <c r="AH58" s="31"/>
+      <c r="AI58" s="31"/>
+      <c r="AJ58" s="31"/>
+      <c r="AK58" s="31"/>
+      <c r="AL58" s="31"/>
+      <c r="AM58" s="31"/>
+      <c r="AN58" s="31"/>
+      <c r="AO58" s="31"/>
+      <c r="AP58" s="31"/>
+      <c r="AQ58" s="31"/>
+      <c r="AR58" s="31"/>
+      <c r="AS58" s="31"/>
+      <c r="AT58" s="31"/>
+      <c r="AU58" s="31"/>
+      <c r="AV58" s="31"/>
+      <c r="AW58" s="31"/>
+      <c r="AX58" s="31"/>
+      <c r="AY58" s="31"/>
+      <c r="AZ58" s="31"/>
+      <c r="BA58" s="31"/>
+      <c r="BB58" s="31"/>
+      <c r="BC58" s="31"/>
+      <c r="BD58" s="31"/>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
@@ -9661,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
     </row>
@@ -9715,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
     </row>
@@ -9769,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
@@ -9823,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
     </row>
@@ -9877,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
     </row>
@@ -9931,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
     </row>
@@ -9985,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
@@ -10065,8 +9532,12 @@
       <c r="G67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="H67" s="4">
+        <v>4</v>
+      </c>
+      <c r="I67" s="4">
+        <v>2</v>
+      </c>
       <c r="J67" s="2" t="s">
         <v>11</v>
       </c>
@@ -10079,11 +9550,17 @@
       <c r="M67" s="3">
         <v>45428</v>
       </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
+      <c r="N67" s="2">
+        <v>2</v>
+      </c>
+      <c r="O67" s="2">
+        <v>1</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
       <c r="Q67" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
@@ -10109,8 +9586,12 @@
       <c r="G68" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
+      <c r="H68" s="17">
+        <v>4</v>
+      </c>
+      <c r="I68" s="17">
+        <v>2</v>
+      </c>
       <c r="J68" s="16" t="s">
         <v>19</v>
       </c>
@@ -10123,12 +9604,18 @@
       <c r="M68" s="15">
         <v>45428</v>
       </c>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
+      <c r="N68" s="16">
+        <v>2</v>
+      </c>
+      <c r="O68" s="16">
+        <v>1</v>
+      </c>
+      <c r="P68" s="16">
+        <v>2</v>
+      </c>
       <c r="Q68" s="16">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -10153,111 +9640,249 @@
       <c r="G69" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="H69" s="4">
+        <v>3</v>
+      </c>
+      <c r="I69" s="4">
+        <v>3</v>
+      </c>
       <c r="J69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
+      <c r="L69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="3">
+        <v>45430</v>
+      </c>
+      <c r="N69" s="2">
+        <v>1</v>
+      </c>
+      <c r="O69" s="2">
+        <v>5</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
       <c r="Q69" s="2">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2">
-        <f t="shared" si="48"/>
-        <v>0</v>
+    <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="32">
+        <v>45432</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="34">
+        <v>2</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="34">
+        <v>7</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="34">
+        <v>3</v>
+      </c>
+      <c r="I70" s="34">
+        <v>4</v>
+      </c>
+      <c r="J70" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="32">
+        <v>45432</v>
+      </c>
+      <c r="N70" s="33">
+        <v>3</v>
+      </c>
+      <c r="O70" s="33">
+        <v>2</v>
+      </c>
+      <c r="P70" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="33">
+        <f t="shared" si="80"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+    <row r="71" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>45434</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="4">
+        <v>3</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
+      <c r="A72" s="3">
+        <v>45435</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="4">
+        <v>3</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="A73" s="3">
+        <v>45436</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="4">
+        <v>3</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="4">
+        <v>2</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
+      <c r="J73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="A74" s="3">
+        <v>45437</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="4">
+        <v>3</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="4">
+        <v>2</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="J74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="W74" s="2">
@@ -10266,143 +9891,510 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+      <c r="A75" s="3">
+        <v>45438</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="4">
+        <v>3</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E75" s="4">
+        <v>3</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="A76" s="3">
+        <v>45439</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="4">
+        <v>3</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="4">
+        <v>3</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="J76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+      <c r="A77" s="3">
+        <v>45440</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="4">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="4">
+        <v>4</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="A78" s="3">
+        <v>45441</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="4">
+        <v>3</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="4">
+        <v>4</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
+      <c r="J78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="4">
+        <v>3</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="4">
+        <v>5</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
       <c r="Q79" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="4">
+        <v>3</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="4">
+        <v>5</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
       <c r="Q80" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="4">
+        <v>3</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="4">
+        <v>6</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
       <c r="Q81" s="2">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>45445</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="4">
+        <v>3</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="4">
+        <v>6</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>45446</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="4">
+        <v>3</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="4">
+        <v>7</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>45447</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="4">
+        <v>3</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="4">
+        <v>7</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A38:XFD39 A1:XFD20 A21:AE37 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 A75:B75 E75:XFD75 A76:XFD1048576 AF21:AO21 BI21:XFD37 A59:XFD74 AQ40:BD40 AF40:AO40 Z45:AE48 A40:AE44 AP40:AP48 A45:Y58 BE40:XFD58 Z55:AE58">
-    <cfRule type="cellIs" dxfId="50" priority="103" operator="equal">
+  <conditionalFormatting sqref="A1:XFD20 A21:AE37 A40:AE44 Z45:AE48 AF21:AO21 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 BI21:XFD37 A38:XFD39 AF40:AO40 AQ40:BD40 AP40:AP48 BE40:XFD58 A45:Y58 Z58:AE58 AP58 A59:XFD1048576 Z51:AE55 AP51:AP55">
+    <cfRule type="cellIs" dxfId="32" priority="103" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="104" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="105" operator="equal">
       <formula>"DAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="106" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="107" operator="equal">
       <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="108" operator="equal">
       <formula>"COL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="109" operator="equal">
       <formula>"WPG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="110" operator="equal">
       <formula>"VGK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="111" operator="equal">
       <formula>"WSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="112" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="113" operator="equal">
       <formula>"TBL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="114" operator="equal">
       <formula>"BOS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="115" operator="equal">
       <formula>"TOR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="116" operator="equal">
       <formula>"NYI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="117" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="118" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10462,160 +10454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA22:AD37 AA41:AD48 AA55:AD58">
-    <cfRule type="cellIs" dxfId="34" priority="99" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD3:AD17">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE22:AE37">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV22:AV37">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW22:AW37">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX22:AX37 AT22:AU37">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY22:AZ37 BC22:BC37">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA22:BB37 BD22:BD37">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE41:AE48 AE55:AE58">
-    <cfRule type="colorScale" priority="425">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV41:AV48">
-    <cfRule type="colorScale" priority="429">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW41:AW48">
-    <cfRule type="colorScale" priority="433">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX41:AX48 AT41:AU48">
-    <cfRule type="colorScale" priority="437">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY41:AZ48 BC41:BC48">
-    <cfRule type="colorScale" priority="445">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA41:BB48 BD41:BD48">
-    <cfRule type="colorScale" priority="453">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ51:BD51 AF51:AO51 Z51:AE54 AP51:AP58">
+  <conditionalFormatting sqref="AF51:AO51 AQ51:BD51">
     <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
@@ -10665,13 +10504,25 @@
       <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA52:AD54">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="AA22:AD37 AA41:AD48 AA58:AD58 AA52:AD55">
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE52:AE54">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="AD3:AD17">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22:AE37">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10682,8 +10533,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV52:AV58">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="AV22:AV37">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10694,8 +10545,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW52:AW58">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="AV41:AV48">
+    <cfRule type="colorScale" priority="429">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW22:AW37">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10706,8 +10569,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX52:AX58 AT52:AU58">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="AW41:AW48">
+    <cfRule type="colorScale" priority="433">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX22:AX37 AT22:AU37">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10718,8 +10593,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY52:AZ58 BC52:BC58">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="AX41:AX48 AT41:AU48">
+    <cfRule type="colorScale" priority="437">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY22:AZ37 BC22:BC37">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10728,8 +10615,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA52:BB58 BD52:BD58">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="AY41:AZ48 BC41:BC48">
+    <cfRule type="colorScale" priority="445">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA22:BB37 BD22:BD37">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10738,6 +10635,96 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BA41:BB48 BD41:BD48">
+    <cfRule type="colorScale" priority="453">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE52:AE53">
+    <cfRule type="colorScale" priority="558">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV52:AV55 AV58">
+    <cfRule type="colorScale" priority="659">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW52:AW55 AW58">
+    <cfRule type="colorScale" priority="663">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX52:AX55 AX58 AT58:AU58 AT52:AU55">
+    <cfRule type="colorScale" priority="667">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY58:AZ58 AY52:AZ55 BC58 BC52:BC55">
+    <cfRule type="colorScale" priority="675">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA58:BB58 BA52:BB55 BD58 BD52:BD55">
+    <cfRule type="colorScale" priority="683">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE41:AE48 AE58 AE54:AE55">
+    <cfRule type="colorScale" priority="691">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F9C95-D420-4F19-B8EF-CA6CA1B98005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63047024-CA48-4FF3-855A-A797D73ADF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="137">
   <si>
     <t>NYI</t>
   </si>
@@ -568,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -648,7 +648,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -667,9 +666,86 @@
   </cellStyles>
   <dxfs count="33">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF6969"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -681,7 +757,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -693,7 +769,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -717,7 +793,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -729,91 +805,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -866,10 +858,89 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
@@ -881,11 +952,35 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -909,7 +1004,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -921,19 +1016,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -946,90 +1029,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1379,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:BL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U28" workbookViewId="0">
-      <selection activeCell="AE54" sqref="AE54"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,8 +1833,8 @@
       <c r="U5" s="2"/>
       <c r="V5" s="4"/>
       <c r="W5" s="6">
-        <f>COUNTA(H2:H79)</f>
-        <v>69</v>
+        <f>COUNTA(H2:H100)</f>
+        <v>70</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1929,8 +1928,8 @@
       <c r="U6" s="2"/>
       <c r="V6" s="4"/>
       <c r="W6" s="6">
-        <f>SUM(Q2:Q79)</f>
-        <v>41</v>
+        <f>SUM(Q2:Q100)</f>
+        <v>42</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -2025,7 +2024,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.59420289855072461</v>
+        <v>0.6</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2752,11 +2751,11 @@
       </c>
       <c r="AC15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AE15">
         <f>SUMIFS(O2:O79,K2:K79,Z15,C2:C79,3) + SUMIFS(N2:N79,J2:J79,Z15,C2:C79,3)</f>
@@ -2764,7 +2763,7 @@
       </c>
       <c r="AF15">
         <f>SUMIFS(O2:O79,K2:K79,AA15,C2:C79,3) + SUMIFS(N2:N79,J2:J79,AA15,C2:C79,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -2850,7 +2849,7 @@
       </c>
       <c r="AF16" s="11">
         <f>SUMIFS(O2:O79,K2:K79,AA15,C2:C79,3) + SUMIFS(N2:N79,J2:J79,AA15,C2:C79,3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
@@ -3364,11 +3363,11 @@
       </c>
       <c r="AH22">
         <f>AJ22+AL22</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI22">
         <f>AE22-AH22</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ22" cm="1">
         <f t="array" ref="AJ22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -3380,7 +3379,7 @@
       </c>
       <c r="AL22" cm="1">
         <f t="array" ref="AL22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM22" cm="1">
         <f t="array" ref="AM22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -4120,7 +4119,7 @@
       </c>
       <c r="AK26" cm="1">
         <f t="array" ref="AK26">SUMPRODUCT(($K$2:$K$81=Z26)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL26" cm="1">
         <f t="array" ref="AL26">SUMPRODUCT(($J$2:$J$81=Z26)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -6595,11 +6594,11 @@
       </c>
       <c r="AH41">
         <f>AJ41+AL41</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI41">
         <f>AE41-AH41</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ41" cm="1">
         <f t="array" ref="AJ41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -6611,7 +6610,7 @@
       </c>
       <c r="AL41" cm="1">
         <f t="array" ref="AL41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM41" cm="1">
         <f t="array" ref="AM41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -6961,7 +6960,7 @@
       </c>
       <c r="AK43" cm="1">
         <f t="array" ref="AK43">SUMPRODUCT(($K$2:$K$81=Z43)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL43" cm="1">
         <f t="array" ref="AL43">SUMPRODUCT(($J$2:$J$81=Z43)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -8234,11 +8233,11 @@
         <v>11</v>
       </c>
       <c r="AA52">
-        <f t="shared" ref="AA52:AA53" si="81">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA52" si="81">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AB52">
-        <f t="shared" ref="AB52:AB53" si="82">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB52" si="82">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC52">
@@ -8263,11 +8262,11 @@
       </c>
       <c r="AH52">
         <f>AJ52+AL52</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI52">
         <f>AE52-AH52</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ52" cm="1">
         <f t="array" ref="AJ52">SUMPRODUCT(($K$2:$K$81=Z52)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -8279,7 +8278,7 @@
       </c>
       <c r="AL52" cm="1">
         <f t="array" ref="AL52">SUMPRODUCT(($J$2:$J$81=Z52)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM52" cm="1">
         <f t="array" ref="AM52">SUMPRODUCT(($J$2:$J$81=Z52)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -8299,7 +8298,7 @@
       </c>
       <c r="AQ52">
         <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z52,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR52">
         <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z52,$C$2:$C$81, 3)</f>
@@ -8310,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="AT52">
-        <f t="shared" ref="AT52:AU54" si="83">AP52-AR52</f>
+        <f t="shared" ref="AT52:AU52" si="83">AP52-AR52</f>
         <v>0</v>
       </c>
       <c r="AU52">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV52">
         <f>AP52+AQ52</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW52">
         <f>AR52+AS52</f>
@@ -8327,18 +8326,18 @@
       </c>
       <c r="AX52">
         <f>(AP52+AQ52)-(AR52+AS52)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY52">
-        <f t="shared" ref="AY52:AZ54" si="84">AP52/AN52</f>
+        <f t="shared" ref="AY52:AZ52" si="84">AP52/AN52</f>
         <v>0</v>
       </c>
       <c r="AZ52">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BA52">
-        <f t="shared" ref="BA52:BB54" si="85">AR52/AN52</f>
+        <f t="shared" ref="BA52:BB52" si="85">AR52/AN52</f>
         <v>0</v>
       </c>
       <c r="BB52">
@@ -8347,7 +8346,7 @@
       </c>
       <c r="BC52">
         <f>AV52/AA52</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BD52">
         <f>AW52/AA52</f>
@@ -8452,7 +8451,7 @@
       </c>
       <c r="AK53" cm="1">
         <f t="array" ref="AK53">SUMPRODUCT(($K$2:$K$81=Z53)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL53" cm="1">
         <f t="array" ref="AL53">SUMPRODUCT(($J$2:$J$81=Z53)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -8480,18 +8479,18 @@
       </c>
       <c r="AR53">
         <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z53,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS53">
         <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z53,$C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AT53">
-        <f>AP53-AR53</f>
-        <v>0</v>
+        <f t="shared" ref="AT53:AU55" si="86">AP53-AR53</f>
+        <v>-3</v>
       </c>
       <c r="AU53">
-        <f>AQ53-AS53</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AV53">
@@ -8500,26 +8499,26 @@
       </c>
       <c r="AW53">
         <f>AR53+AS53</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX53">
         <f>(AP53+AQ53)-(AR53+AS53)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AY53">
-        <f>AP53/AN53</f>
+        <f t="shared" ref="AY53:AZ55" si="87">AP53/AN53</f>
         <v>0</v>
       </c>
       <c r="AZ53">
-        <f>AQ53/AO53</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="BA53">
-        <f>AR53/AN53</f>
-        <v>0</v>
+        <f t="shared" ref="BA53:BB55" si="88">AR53/AN53</f>
+        <v>1.5</v>
       </c>
       <c r="BB53">
-        <f>AS53/AO53</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="BC53">
@@ -8528,7 +8527,7 @@
       </c>
       <c r="BD53">
         <f>AW53/AA53</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.25">
@@ -8664,11 +8663,11 @@
         <v>0</v>
       </c>
       <c r="AT54">
-        <f>AP54-AR54</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AU54">
-        <f>AQ54-AS54</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AV54">
@@ -8684,19 +8683,19 @@
         <v>0</v>
       </c>
       <c r="AY54">
-        <f>AP54/AN54</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="AZ54">
-        <f>AQ54/AO54</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="BA54">
-        <f>AR54/AN54</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="BB54">
-        <f>AS54/AO54</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="BC54">
@@ -8841,11 +8840,11 @@
         <v>0</v>
       </c>
       <c r="AT55">
-        <f>AP55-AR55</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AU55">
-        <f>AQ55-AS55</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="AV55">
@@ -8861,19 +8860,19 @@
         <v>0</v>
       </c>
       <c r="AY55">
-        <f>AP55/AN55</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="AZ55">
-        <f>AQ55/AO55</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="BA55">
-        <f>AR55/AN55</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="BB55">
-        <f>AS55/AO55</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="BC55">
@@ -9046,37 +9045,6 @@
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="Z58" s="31"/>
-      <c r="AA58" s="31"/>
-      <c r="AB58" s="31"/>
-      <c r="AC58" s="31"/>
-      <c r="AD58" s="31"/>
-      <c r="AE58" s="31"/>
-      <c r="AF58" s="31"/>
-      <c r="AG58" s="31"/>
-      <c r="AH58" s="31"/>
-      <c r="AI58" s="31"/>
-      <c r="AJ58" s="31"/>
-      <c r="AK58" s="31"/>
-      <c r="AL58" s="31"/>
-      <c r="AM58" s="31"/>
-      <c r="AN58" s="31"/>
-      <c r="AO58" s="31"/>
-      <c r="AP58" s="31"/>
-      <c r="AQ58" s="31"/>
-      <c r="AR58" s="31"/>
-      <c r="AS58" s="31"/>
-      <c r="AT58" s="31"/>
-      <c r="AU58" s="31"/>
-      <c r="AV58" s="31"/>
-      <c r="AW58" s="31"/>
-      <c r="AX58" s="31"/>
-      <c r="AY58" s="31"/>
-      <c r="AZ58" s="31"/>
-      <c r="BA58" s="31"/>
-      <c r="BB58" s="31"/>
-      <c r="BC58" s="31"/>
-      <c r="BD58" s="31"/>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
@@ -9673,55 +9641,55 @@
       </c>
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32">
+      <c r="A70" s="31">
         <v>45432</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="34">
-        <v>2</v>
-      </c>
-      <c r="D70" s="35" t="s">
+      <c r="C70" s="33">
+        <v>2</v>
+      </c>
+      <c r="D70" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E70" s="34">
+      <c r="E70" s="33">
         <v>7</v>
       </c>
-      <c r="F70" s="34" t="s">
+      <c r="F70" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="34" t="s">
+      <c r="G70" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H70" s="34">
-        <v>3</v>
-      </c>
-      <c r="I70" s="34">
-        <v>4</v>
-      </c>
-      <c r="J70" s="33" t="s">
+      <c r="H70" s="33">
+        <v>3</v>
+      </c>
+      <c r="I70" s="33">
+        <v>4</v>
+      </c>
+      <c r="J70" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K70" s="33" t="s">
+      <c r="K70" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L70" s="33" t="s">
+      <c r="L70" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M70" s="32">
+      <c r="M70" s="31">
         <v>45432</v>
       </c>
-      <c r="N70" s="33">
-        <v>3</v>
-      </c>
-      <c r="O70" s="33">
-        <v>2</v>
-      </c>
-      <c r="P70" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="33">
+      <c r="N70" s="32">
+        <v>3</v>
+      </c>
+      <c r="O70" s="32">
+        <v>2</v>
+      </c>
+      <c r="P70" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="32">
         <f t="shared" si="80"/>
         <v>1</v>
       </c>
@@ -9748,22 +9716,34 @@
       <c r="G71" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1</v>
+      </c>
       <c r="J71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="L71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="3">
+        <v>45434</v>
+      </c>
+      <c r="N71" s="2">
+        <v>3</v>
+      </c>
+      <c r="O71" s="2">
+        <v>0</v>
+      </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -9796,8 +9776,12 @@
       <c r="K72" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
+      <c r="L72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="3">
+        <v>45435</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -10348,54 +10332,54 @@
       <c r="Q90" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD20 A21:AE37 A40:AE44 Z45:AE48 AF21:AO21 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 BI21:XFD37 A38:XFD39 AF40:AO40 AQ40:BD40 AP40:AP48 BE40:XFD58 A45:Y58 Z58:AE58 AP58 A59:XFD1048576 Z51:AE55 AP51:AP55">
+  <conditionalFormatting sqref="A59:XFD1048576 A1:XFD20 A21:AE37 A40:AE44 Z45:AE48 Z51:AE55 Z58:AE58 AF21:AO21 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 BI21:XFD37 A38:XFD39 AF40:AO40 AQ40:BD40 AP40:AP48 BE40:XFD58 A45:Y58 AP51:AP55 AP58">
     <cfRule type="cellIs" dxfId="32" priority="103" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="31" priority="104" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="105" operator="equal">
-      <formula>"DAL"</formula>
+    <cfRule type="cellIs" dxfId="30" priority="112" operator="equal">
+      <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="118" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="117" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="116" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="115" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="114" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="113" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="111" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="110" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="109" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="108" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="107" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="106" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="107" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="108" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="109" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="110" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="111" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="112" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="113" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="114" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="115" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="116" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="117" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="118" operator="equal">
-      <formula>"FLA"</formula>
+    <cfRule type="cellIs" dxfId="17" priority="105" operator="equal">
+      <formula>"DAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I79">
@@ -10454,58 +10438,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF51:AO51 AQ51:BD51">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"LAK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"EDM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
-      <formula>"FLA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA22:AD37 AA41:AD48 AA58:AD58 AA52:AD55">
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
+  <conditionalFormatting sqref="AA22:AD37 AA41:AD48 AA52:AD55 AA58:AD58">
+    <cfRule type="cellIs" dxfId="16" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10533,6 +10467,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AE41:AE48 AE58 AE54:AE55">
+    <cfRule type="colorScale" priority="691">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE52:AE53">
+    <cfRule type="colorScale" priority="558">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF51:AO51 AQ51:BD51">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"LAK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>"EDM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+      <formula>"FLA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AV22:AV37">
     <cfRule type="colorScale" priority="63">
       <colorScale>
@@ -10547,6 +10555,18 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="AV41:AV48">
     <cfRule type="colorScale" priority="429">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV52:AV55 AV58">
+    <cfRule type="colorScale" priority="659">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10581,6 +10601,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AW52:AW55 AW58">
+    <cfRule type="colorScale" priority="663">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AX22:AX37 AT22:AU37">
     <cfRule type="colorScale" priority="64">
       <colorScale>
@@ -10595,6 +10627,18 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="AX41:AX48 AT41:AU48">
     <cfRule type="colorScale" priority="437">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX52:AX55 AX58 AT58:AU58 AT52:AU55">
+    <cfRule type="colorScale" priority="667">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10625,6 +10669,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AY58:AZ58 AY52:AZ55 BC58 BC52:BC55">
+    <cfRule type="colorScale" priority="675">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BA22:BB37 BD22:BD37">
     <cfRule type="colorScale" priority="65">
       <colorScale>
@@ -10645,64 +10699,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE52:AE53">
-    <cfRule type="colorScale" priority="558">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV52:AV55 AV58">
-    <cfRule type="colorScale" priority="659">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW52:AW55 AW58">
-    <cfRule type="colorScale" priority="663">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX52:AX55 AX58 AT58:AU58 AT52:AU55">
-    <cfRule type="colorScale" priority="667">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY58:AZ58 AY52:AZ55 BC58 BC52:BC55">
-    <cfRule type="colorScale" priority="675">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BA58:BB58 BA52:BB55 BD58 BD52:BD55">
     <cfRule type="colorScale" priority="683">
       <colorScale>
@@ -10713,18 +10709,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE41:AE48 AE58 AE54:AE55">
-    <cfRule type="colorScale" priority="691">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63047024-CA48-4FF3-855A-A797D73ADF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FF5445-DA12-4875-A5CF-394F6007BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="137">
   <si>
     <t>NYI</t>
   </si>
@@ -568,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -643,7 +643,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1378,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:BL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="N72" sqref="N72"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AF52" sqref="AF52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,19 +1658,19 @@
         <v>5</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC17" si="1">SUMIFS(Q2:Q79,D2:D79,Y3)</f>
+        <f>SUMIFS($Q$2:$Q$100,$D$2:$D$100,Y3)</f>
         <v>3</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD17" si="2">AC3/AB3</f>
+        <f t="shared" ref="AD3:AD17" si="1">AC3/AB3</f>
         <v>0.6</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS(O2:O79,K2:K79,Z3,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z3,C2:C79,1)</f>
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z3,$C$2:$C$100,1) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z3,$C$2:$C$100,1)</f>
         <v>20</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS(O2:O79,K2:K79,AA3,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA3,C2:C79,1)</f>
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA3,$C$2:$C$100,1) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA3,$C$2:$C$100,1)</f>
         <v>14</v>
       </c>
       <c r="AG3">
@@ -1758,19 +1757,19 @@
         <v>7</v>
       </c>
       <c r="AC4">
+        <f t="shared" ref="AC4:AC17" si="2">SUMIFS($Q$2:$Q$100,$D$2:$D$100,Y4)</f>
+        <v>4</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS(O2:O79,K2:K79,Z4,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z4,C2:C79,1)</f>
+        <f t="shared" ref="AE4:AE17" si="3">SUMIFS($O$2:$O$100,$K$2:$K$100,Z4,$C$2:$C$100,1) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z4,$C$2:$C$100,1)</f>
         <v>18</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS(O2:O79,K2:K79,AA4,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA4,C2:C79,1)</f>
+        <f t="shared" ref="AF4:AF10" si="4">SUMIFS($O$2:$O$100,$K$2:$K$100,AA4,$C$2:$C$100,1) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA4,$C$2:$C$100,1)</f>
         <v>12</v>
       </c>
     </row>
@@ -1834,7 +1833,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H100)</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1853,19 +1852,19 @@
         <v>5</v>
       </c>
       <c r="AC5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS(O2:O79,K2:K79,Z5,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z5,C2:C79,1)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS(O2:O79,K2:K79,AA5,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA5,C2:C79,1)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -1929,7 +1928,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q100)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -1948,19 +1947,19 @@
         <v>4</v>
       </c>
       <c r="AC6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS(O2:O79,K2:K79,Z6,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z6,C2:C79,1)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS(O2:O79,K2:K79,AA6,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA6,C2:C79,1)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -2024,7 +2023,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.6</v>
+        <v>0.60810810810810811</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2043,19 +2042,19 @@
         <v>6</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS(O2:O79,K2:K79,Z7,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z7,C2:C79,1)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS(O2:O79,K2:K79,AA7,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA7,C2:C79,1)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -2132,19 +2131,19 @@
         <v>5</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS(O2:O79,K2:K79,Z8,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z8,C2:C79,1)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS(O2:O79,K2:K79,AA8,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA8,C2:C79,1)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -2221,19 +2220,19 @@
         <v>5</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS(O2:O79,K2:K79,Z9,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z9,C2:C79,1)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS(O2:O79,K2:K79,AA9,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA9,C2:C79,1)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
@@ -2309,20 +2308,20 @@
         <f t="array" ref="AB10">INDEX(E:E, MATCH(2, 1/(D:D=Y10)))</f>
         <v>7</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AC10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AD10" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD10" s="11">
-        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="AE10" s="11">
-        <f>SUMIFS(O2:O79,K2:K79,Z10,C2:C79,1) + SUMIFS(N2:N79,J2:J79,Z10,C2:C79,1)</f>
+      <c r="AE10">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="AF10" s="11">
-        <f>SUMIFS(O2:O79,K2:K79,AA10,C2:C79,1) + SUMIFS(N2:N79,J2:J79,AA10,C2:C79,1)</f>
+      <c r="AF10">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="AG10" s="11"/>
@@ -2401,19 +2400,19 @@
         <v>6</v>
       </c>
       <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS(O2:O79,K2:K79,Z11,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z11,C2:C79,2)</f>
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z11,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z11,$C$2:$C$100,2)</f>
         <v>20</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS(O2:O79,K2:K79,AA11,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA11,C2:C79,2)</f>
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA11,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA11,$C$2:$C$100,2)</f>
         <v>19</v>
       </c>
     </row>
@@ -2487,19 +2486,19 @@
         <v>6</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS(O2:O79,K2:K79,Z12,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z12,C2:C79,2)</f>
+        <f t="shared" ref="AE12:AE14" si="5">SUMIFS($O$2:$O$100,$K$2:$K$100,Z12,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z12,$C$2:$C$100,2)</f>
         <v>19</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS(O2:O79,K2:K79,AA12,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA12,C2:C79,2)</f>
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA12,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA12,$C$2:$C$100,2)</f>
         <v>13</v>
       </c>
     </row>
@@ -2573,19 +2572,19 @@
         <v>6</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AE13">
-        <f>SUMIFS(O2:O79,K2:K79,Z13,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z13,C2:C79,2)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="AF13">
-        <f>SUMIFS(O2:O79,K2:K79,AA13,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA13,C2:C79,2)</f>
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA13,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA13,$C$2:$C$100,2)</f>
         <v>14</v>
       </c>
     </row>
@@ -2658,20 +2657,20 @@
         <f t="array" ref="AB14">INDEX(E:E, MATCH(2, 1/(D:D=Y14)))</f>
         <v>7</v>
       </c>
-      <c r="AC14" s="11">
+      <c r="AC14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AD14" s="11">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD14" s="11">
-        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="AE14" s="11">
-        <f>SUMIFS(O2:O79,K2:K79,Z14,C2:C79,2) + SUMIFS(N2:N79,J2:J79,Z14,C2:C79,2)</f>
+      <c r="AE14">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="AF14" s="11">
-        <f>SUMIFS(O2:O79,K2:K79,AA14,C2:C79,2) + SUMIFS(N2:N79,J2:J79,AA14,C2:C79,2)</f>
+      <c r="AF14">
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA14,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA14,$C$2:$C$100,2)</f>
         <v>24</v>
       </c>
       <c r="AG14" s="11"/>
@@ -2750,20 +2749,20 @@
         <v>7</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AE15">
-        <f>SUMIFS(O2:O79,K2:K79,Z15,C2:C79,3) + SUMIFS(N2:N79,J2:J79,Z15,C2:C79,3)</f>
-        <v>0</v>
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z15,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z15,$C$2:$C$100,3)</f>
+        <v>7</v>
       </c>
       <c r="AF15">
-        <f>SUMIFS(O2:O79,K2:K79,AA15,C2:C79,3) + SUMIFS(N2:N79,J2:J79,AA15,C2:C79,3)</f>
-        <v>3</v>
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA15,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA15,$C$2:$C$100,3)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -2835,21 +2834,21 @@
         <f t="array" ref="AB16">INDEX(E:E, MATCH(2, 1/(D:D=Y16)))</f>
         <v>7</v>
       </c>
-      <c r="AC16" s="11">
+      <c r="AC16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AD16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="11">
-        <f>SUMIFS(O2:O79,K2:K79,Z16,C2:C79,3) + SUMIFS(N2:N79,J2:J79,Z16,C2:C79,3)</f>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="11">
-        <f>SUMIFS(O2:O79,K2:K79,AA15,C2:C79,3) + SUMIFS(N2:N79,J2:J79,AA15,C2:C79,3)</f>
-        <v>3</v>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AE16">
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z16,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z16,$C$2:$C$100,3)</f>
+        <v>5</v>
+      </c>
+      <c r="AF16">
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA16,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA16,$C$2:$C$100,3)</f>
+        <v>4</v>
       </c>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
@@ -2926,20 +2925,20 @@
         <f t="array" ref="AB17">INDEX(E:E, MATCH(2, 1/(D:D=Y17)))</f>
         <v>#N/A</v>
       </c>
-      <c r="AC17" s="28">
+      <c r="AC17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="28" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="29" t="e">
-        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="AE17" s="14">
-        <f>SUMIFS(O2:O79,K2:K79,Z17,C2:C79,4) + SUMIFS(N2:N79,J2:J79,Z17,C2:C79,4)</f>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="14">
-        <f>SUMIFS(O2:O79,K2:K79,AA17,C2:C79,4) + SUMIFS(N2:N79,J2:J79,AA17,C2:C79,4)</f>
+      <c r="AE17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA17,$C$2:$C$100,4) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA17,$C$2:$C$100,4)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="14"/>
@@ -3334,16 +3333,16 @@
         <v>11</v>
       </c>
       <c r="AA22">
-        <f t="shared" ref="AA22:AA37" si="3">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA22:AA37" si="6">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AB22">
-        <f t="shared" ref="AB22:AB37" si="4">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB22:AB37" si="7">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC22">
         <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD22">
         <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 4)</f>
@@ -3351,7 +3350,7 @@
       </c>
       <c r="AE22">
         <f>AA22+AB22+AC22+AD22</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF22">
         <f>COUNTIF($K$2:$K$81, Z22)</f>
@@ -3359,7 +3358,7 @@
       </c>
       <c r="AG22">
         <f>COUNTIF($J$2:$J$81, Z22)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH22">
         <f>AJ22+AL22</f>
@@ -3367,7 +3366,7 @@
       </c>
       <c r="AI22">
         <f>AE22-AH22</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ22" cm="1">
         <f t="array" ref="AJ22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -3375,7 +3374,7 @@
       </c>
       <c r="AK22" cm="1">
         <f t="array" ref="AK22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL22" cm="1">
         <f t="array" ref="AL22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -3383,30 +3382,30 @@
       </c>
       <c r="AM22" cm="1">
         <f t="array" ref="AM22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN22">
-        <f t="shared" ref="AN22:AN37" si="5">COUNTIFS($K$2:$K$81,Z22,$C$2:$C$81,1)</f>
+        <f t="shared" ref="AN22:AN37" si="8">COUNTIFS($K$2:$K$81,Z22,$C$2:$C$81,1)</f>
         <v>3</v>
       </c>
       <c r="AO22">
-        <f t="shared" ref="AO22:AO37" si="6">COUNTIFS($J$2:$J$81,Z22,$C$2:$C$81,1)</f>
+        <f t="shared" ref="AO22:AO37" si="9">COUNTIFS($J$2:$J$81,Z22,$C$2:$C$81,1)</f>
         <v>2</v>
       </c>
       <c r="AP22">
-        <f t="shared" ref="AP22:AP37" si="7">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AP22:AP37" si="10">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
         <v>12</v>
       </c>
       <c r="AQ22">
-        <f t="shared" ref="AQ22:AQ37" si="8">SUMIFS($N$2:$N$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AQ22:AQ37" si="11">SUMIFS($N$2:$N$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
         <v>8</v>
       </c>
       <c r="AR22">
-        <f t="shared" ref="AR22:AR37" si="9">SUMIFS($N$2:$N$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AR22:AR37" si="12">SUMIFS($N$2:$N$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AS22">
-        <f t="shared" ref="AS22:AS37" si="10">SUMIFS($O$2:$O$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AS22:AS37" si="13">SUMIFS($O$2:$O$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
         <v>9</v>
       </c>
       <c r="AT22">
@@ -3446,15 +3445,15 @@
         <v>4.5</v>
       </c>
       <c r="BC22">
-        <f t="shared" ref="BC22:BC37" si="11">AV22/AA22</f>
+        <f t="shared" ref="BC22:BC37" si="14">AV22/AA22</f>
         <v>4</v>
       </c>
       <c r="BD22">
-        <f t="shared" ref="BD22:BD37" si="12">AW22/AA22</f>
+        <f t="shared" ref="BD22:BD37" si="15">AW22/AA22</f>
         <v>2.8</v>
       </c>
       <c r="BG22">
-        <f t="shared" ref="BG22:BG37" si="13">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
+        <f t="shared" ref="BG22:BG37" si="16">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ22" t="e">
@@ -3520,39 +3519,39 @@
         <v>3</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AC23">
-        <f t="shared" ref="AC23:AC37" si="14">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC23:AC37" si="17">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AD23">
-        <f t="shared" ref="AD23:AD37" si="15">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD23:AD37" si="18">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AE37" si="16">AA23+AB23+AC23+AD23</f>
+        <f t="shared" ref="AE23:AE37" si="19">AA23+AB23+AC23+AD23</f>
         <v>13</v>
       </c>
       <c r="AF23">
-        <f t="shared" ref="AF23:AF37" si="17">COUNTIF($K$2:$K$81, Z23)</f>
+        <f t="shared" ref="AF23:AF37" si="20">COUNTIF($K$2:$K$81, Z23)</f>
         <v>7</v>
       </c>
       <c r="AG23">
-        <f t="shared" ref="AG23:AG37" si="18">COUNTIF($J$2:$J$81, Z23)</f>
+        <f t="shared" ref="AG23:AG37" si="21">COUNTIF($J$2:$J$81, Z23)</f>
         <v>6</v>
       </c>
       <c r="AH23">
-        <f t="shared" ref="AH23:AH37" si="19">AJ23+AL23</f>
+        <f t="shared" ref="AH23:AH37" si="22">AJ23+AL23</f>
         <v>6</v>
       </c>
       <c r="AI23">
-        <f t="shared" ref="AI23:AI37" si="20">AE23-AH23</f>
+        <f t="shared" ref="AI23:AI37" si="23">AE23-AH23</f>
         <v>7</v>
       </c>
       <c r="AJ23" cm="1">
@@ -3572,75 +3571,75 @@
         <v>2</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AT23">
-        <f t="shared" ref="AT23:AT37" si="21">AP23-AR23</f>
+        <f t="shared" ref="AT23:AT37" si="24">AP23-AR23</f>
         <v>3</v>
       </c>
       <c r="AU23">
-        <f t="shared" ref="AU23:AU37" si="22">AQ23-AS23</f>
+        <f t="shared" ref="AU23:AU37" si="25">AQ23-AS23</f>
         <v>3</v>
       </c>
       <c r="AV23">
-        <f t="shared" ref="AV23:AV37" si="23">AP23+AQ23</f>
+        <f t="shared" ref="AV23:AV37" si="26">AP23+AQ23</f>
         <v>18</v>
       </c>
       <c r="AW23">
-        <f t="shared" ref="AW23:AW37" si="24">AR23+AS23</f>
+        <f t="shared" ref="AW23:AW37" si="27">AR23+AS23</f>
         <v>12</v>
       </c>
       <c r="AX23">
-        <f t="shared" ref="AX23:AX37" si="25">(AP23+AQ23)-(AR23+AS23)</f>
+        <f t="shared" ref="AX23:AX37" si="28">(AP23+AQ23)-(AR23+AS23)</f>
         <v>6</v>
       </c>
       <c r="AY23">
-        <f t="shared" ref="AY23:AY37" si="26">AP23/AN23</f>
+        <f t="shared" ref="AY23:AY37" si="29">AP23/AN23</f>
         <v>2.5</v>
       </c>
       <c r="AZ23">
-        <f t="shared" ref="AZ23:AZ37" si="27">AQ23/AO23</f>
+        <f t="shared" ref="AZ23:AZ37" si="30">AQ23/AO23</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA23">
-        <f t="shared" ref="BA23:BA37" si="28">AR23/AN23</f>
+        <f t="shared" ref="BA23:BA37" si="31">AR23/AN23</f>
         <v>1.75</v>
       </c>
       <c r="BB23">
-        <f t="shared" ref="BB23:BB37" si="29">AS23/AO23</f>
+        <f t="shared" ref="BB23:BB37" si="32">AS23/AO23</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="BC23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="BD23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="BG23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ23" t="e">
@@ -3706,39 +3705,39 @@
         <v>2</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ24" cm="1">
@@ -3758,75 +3757,75 @@
         <v>2</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-3</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-3</v>
       </c>
       <c r="AV24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="AW24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-6</v>
       </c>
       <c r="AY24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AZ24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1.75</v>
       </c>
       <c r="BA24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="BB24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2.5</v>
       </c>
       <c r="BC24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="BD24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="BG24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ24" t="e">
@@ -3892,39 +3891,39 @@
         <v>10</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ25" cm="1">
@@ -3944,75 +3943,75 @@
         <v>3</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-7</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>20</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-6</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.5</v>
       </c>
       <c r="AZ25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="BA25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="BB25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="BC25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.8</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="BG25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ25" t="e">
@@ -4078,44 +4077,44 @@
         <v>13</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="AG26">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
       <c r="AH26">
-        <f t="shared" si="19"/>
-        <v>8</v>
+        <f t="shared" si="22"/>
+        <v>10</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="20"/>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="AJ26" cm="1">
         <f t="array" ref="AJ26">SUMPRODUCT(($K$2:$K$81=Z26)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK26" cm="1">
         <f t="array" ref="AK26">SUMPRODUCT(($K$2:$K$81=Z26)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -4123,82 +4122,82 @@
       </c>
       <c r="AL26" cm="1">
         <f t="array" ref="AL26">SUMPRODUCT(($J$2:$J$81=Z26)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM26" cm="1">
         <f t="array" ref="AM26">SUMPRODUCT(($J$2:$J$81=Z26)*($O$2:$O$81&gt;$N$2:$N$81))</f>
         <v>1</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AS26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="AU26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AV26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="AW26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="AY26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="AZ26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.5</v>
       </c>
       <c r="BA26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="BB26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.5</v>
       </c>
       <c r="BC26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.75</v>
       </c>
       <c r="BD26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.75</v>
       </c>
       <c r="BG26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ26" t="e">
@@ -4264,39 +4263,39 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AJ27" cm="1">
@@ -4316,75 +4315,75 @@
         <v>3</v>
       </c>
       <c r="AN27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AP27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="AQ27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AR27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AS27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="AU27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AV27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="AW27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="AY27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.666666666666667</v>
       </c>
       <c r="AZ27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.5</v>
       </c>
       <c r="BA27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BB27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2.5</v>
       </c>
       <c r="BC27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.8</v>
       </c>
       <c r="BD27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.4</v>
       </c>
       <c r="BG27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ27" t="e">
@@ -4450,39 +4449,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ28" cm="1">
@@ -4502,75 +4501,75 @@
         <v>3</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AQ28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AR28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AS28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AU28">
-        <f t="shared" si="22"/>
-        <v>-7</v>
-      </c>
-      <c r="AV28">
-        <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="AW28">
-        <f t="shared" si="24"/>
-        <v>19</v>
-      </c>
-      <c r="AX28">
         <f t="shared" si="25"/>
         <v>-7</v>
       </c>
+      <c r="AV28">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="27"/>
+        <v>19</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="28"/>
+        <v>-7</v>
+      </c>
       <c r="AY28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AZ28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BA28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.5</v>
       </c>
       <c r="BB28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>4.666666666666667</v>
       </c>
       <c r="BC28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.4</v>
       </c>
       <c r="BD28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.8</v>
       </c>
       <c r="BG28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ28" t="e">
@@ -4636,39 +4635,39 @@
         <v>12</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ29" cm="1">
@@ -4688,75 +4687,75 @@
         <v>2</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AQ29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AR29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AS29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-4</v>
       </c>
       <c r="AU29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-4</v>
       </c>
       <c r="AV29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="AW29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-8</v>
       </c>
       <c r="AY29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.5</v>
       </c>
       <c r="AZ29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="BA29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3.5</v>
       </c>
       <c r="BB29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="BC29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.75</v>
       </c>
       <c r="BD29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.75</v>
       </c>
       <c r="BG29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ29" t="e">
@@ -4822,39 +4821,39 @@
         <v>17</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="AJ30" cm="1">
@@ -4874,75 +4873,75 @@
         <v>2</v>
       </c>
       <c r="AN30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AO30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AP30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AQ30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AR30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AS30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-2</v>
       </c>
       <c r="AU30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="AV30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="AW30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AY30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AZ30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BA30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="BB30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="BC30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="BD30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="BG30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ30" t="e">
@@ -5008,39 +5007,39 @@
         <v>21</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>17</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="AH31">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
       <c r="AI31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="AJ31" cm="1">
@@ -5053,82 +5052,82 @@
       </c>
       <c r="AL31" cm="1">
         <f t="array" ref="AL31">SUMPRODUCT(($J$2:$J$81=Z31)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM31" cm="1">
         <f t="array" ref="AM31">SUMPRODUCT(($J$2:$J$81=Z31)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AO31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AP31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="AQ31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AR31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="AS31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="AU31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-4</v>
       </c>
       <c r="AV31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="AW31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="AX31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="AY31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="AZ31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BA31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="BB31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="BC31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.4</v>
       </c>
       <c r="BD31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.6</v>
       </c>
       <c r="BG31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ31" t="e">
@@ -5194,39 +5193,39 @@
         <v>20</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AJ32" cm="1">
@@ -5246,75 +5245,75 @@
         <v>2</v>
       </c>
       <c r="AN32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AO32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AP32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AQ32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AR32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AS32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="AU32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-3</v>
       </c>
       <c r="AV32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="AW32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
       <c r="AX32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AY32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="AZ32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BA32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BB32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="BC32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.6</v>
       </c>
       <c r="BD32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.4</v>
       </c>
       <c r="BG32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ32" t="e">
@@ -5380,39 +5379,39 @@
         <v>16</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ33" cm="1">
@@ -5432,75 +5431,75 @@
         <v>1</v>
       </c>
       <c r="AN33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AO33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AP33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AQ33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AR33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AS33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-3</v>
       </c>
       <c r="AU33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AV33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="AW33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="AX33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="AY33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="AZ33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BB33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="BC33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="BD33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="BG33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ33" t="e">
@@ -5566,48 +5565,48 @@
         <v>19</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="16"/>
-        <v>17</v>
+        <f t="shared" si="19"/>
+        <v>18</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
-      <c r="AG34">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="AH34">
-        <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
       <c r="AI34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="AJ34" cm="1">
         <f t="array" ref="AJ34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK34" cm="1">
         <f t="array" ref="AK34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL34" cm="1">
         <f t="array" ref="AL34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -5618,75 +5617,75 @@
         <v>1</v>
       </c>
       <c r="AN34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AO34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AP34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AQ34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AR34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="AS34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AU34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AV34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="AW34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="AX34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AY34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2.5</v>
       </c>
       <c r="AZ34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BA34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.5</v>
       </c>
       <c r="BB34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="BC34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.4285714285714284</v>
       </c>
       <c r="BD34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="BG34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ34" t="e">
@@ -5744,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35:Q49" si="30">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <f t="shared" ref="Q35:Q49" si="33">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>1</v>
       </c>
       <c r="V35" s="4"/>
@@ -5752,39 +5751,39 @@
         <v>15</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ35" cm="1">
@@ -5804,75 +5803,75 @@
         <v>2</v>
       </c>
       <c r="AN35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AO35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AP35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AQ35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AR35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="AS35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AT35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-5</v>
       </c>
       <c r="AU35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-8</v>
       </c>
       <c r="AV35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="AW35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="AX35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-13</v>
       </c>
       <c r="AY35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="AZ35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1.5</v>
       </c>
       <c r="BA35">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>5.666666666666667</v>
       </c>
       <c r="BB35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>5.5</v>
       </c>
       <c r="BC35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BD35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.6</v>
       </c>
       <c r="BG35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ35" t="e">
@@ -5930,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V36" s="4"/>
@@ -5938,39 +5937,39 @@
         <v>14</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AJ36" cm="1">
@@ -5990,75 +5989,75 @@
         <v>2</v>
       </c>
       <c r="AN36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AO36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AP36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="AQ36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="AR36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AS36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AT36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="AU36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="AV36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="AW36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="AX36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="AY36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5.5</v>
       </c>
       <c r="AZ36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.666666666666667</v>
       </c>
       <c r="BA36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.5</v>
       </c>
       <c r="BB36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="BC36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.6</v>
       </c>
       <c r="BD36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="BG36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ36" t="e">
@@ -6116,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V37" s="4"/>
@@ -6124,39 +6123,39 @@
         <v>18</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ37" cm="1">
@@ -6176,75 +6175,75 @@
         <v>2</v>
       </c>
       <c r="AN37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AO37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AP37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AQ37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="AR37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AS37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AT37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="AU37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AV37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="AW37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
       <c r="AX37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="AY37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AZ37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2.5</v>
       </c>
       <c r="BA37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BB37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2.5</v>
       </c>
       <c r="BC37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="BD37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.4285714285714284</v>
       </c>
       <c r="BG37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ37" t="e">
@@ -6302,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V38" s="4"/>
@@ -6357,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V39" s="4"/>
@@ -6412,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V40" s="4"/>
@@ -6557,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="22">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="V41" s="4"/>
@@ -6565,16 +6564,16 @@
         <v>11</v>
       </c>
       <c r="AA41">
-        <f t="shared" ref="AA41:AA42" si="31">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA41:AA42" si="34">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AB41">
-        <f t="shared" ref="AB41:AB42" si="32">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB41:AB42" si="35">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC41">
         <f>COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD41">
         <f>COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 4)</f>
@@ -6582,7 +6581,7 @@
       </c>
       <c r="AE41">
         <f>AA41+AB41+AC41+AD41</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF41">
         <f>COUNTIF($K$2:$K$81, Z41)</f>
@@ -6590,7 +6589,7 @@
       </c>
       <c r="AG41">
         <f>COUNTIF($J$2:$J$81, Z41)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH41">
         <f>AJ41+AL41</f>
@@ -6598,7 +6597,7 @@
       </c>
       <c r="AI41">
         <f>AE41-AH41</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ41" cm="1">
         <f t="array" ref="AJ41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -6606,7 +6605,7 @@
       </c>
       <c r="AK41" cm="1">
         <f t="array" ref="AK41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL41" cm="1">
         <f t="array" ref="AL41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -6614,7 +6613,7 @@
       </c>
       <c r="AM41" cm="1">
         <f t="array" ref="AM41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN41">
         <f>COUNTIFS($K$2:$K$81,Z41,$C$2:$C$81,2)</f>
@@ -6735,46 +6734,46 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z42" t="s">
         <v>3</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="AC42">
-        <f t="shared" ref="AC42" si="33">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC42" si="36">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="shared" ref="AD42" si="34">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD42" si="37">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="shared" ref="AE42" si="35">AA42+AB42+AC42+AD42</f>
+        <f t="shared" ref="AE42" si="38">AA42+AB42+AC42+AD42</f>
         <v>13</v>
       </c>
       <c r="AF42">
-        <f t="shared" ref="AF42" si="36">COUNTIF($K$2:$K$81, Z42)</f>
+        <f t="shared" ref="AF42" si="39">COUNTIF($K$2:$K$81, Z42)</f>
         <v>7</v>
       </c>
       <c r="AG42">
-        <f t="shared" ref="AG42" si="37">COUNTIF($J$2:$J$81, Z42)</f>
+        <f t="shared" ref="AG42" si="40">COUNTIF($J$2:$J$81, Z42)</f>
         <v>6</v>
       </c>
       <c r="AH42">
-        <f t="shared" ref="AH42" si="38">AJ42+AL42</f>
+        <f t="shared" ref="AH42" si="41">AJ42+AL42</f>
         <v>6</v>
       </c>
       <c r="AI42">
-        <f t="shared" ref="AI42" si="39">AE42-AH42</f>
+        <f t="shared" ref="AI42" si="42">AE42-AH42</f>
         <v>7</v>
       </c>
       <c r="AJ42" cm="1">
@@ -6794,71 +6793,71 @@
         <v>2</v>
       </c>
       <c r="AN42">
-        <f t="shared" ref="AN42" si="40">COUNTIFS($K$2:$K$81,Z42,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AN42" si="43">COUNTIFS($K$2:$K$81,Z42,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AO42">
-        <f t="shared" ref="AO42" si="41">COUNTIFS($J$2:$J$81,Z42,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AO42" si="44">COUNTIFS($J$2:$J$81,Z42,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AP42">
-        <f t="shared" ref="AP42" si="42">SUMIFS($O$2:$O$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AP42" si="45">SUMIFS($O$2:$O$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
         <v>5</v>
       </c>
       <c r="AQ42">
-        <f t="shared" ref="AQ42" si="43">SUMIFS($N$2:$N$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AQ42" si="46">SUMIFS($N$2:$N$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
         <v>8</v>
       </c>
       <c r="AR42">
-        <f t="shared" ref="AR42" si="44">SUMIFS($N$2:$N$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AR42" si="47">SUMIFS($N$2:$N$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
         <v>11</v>
       </c>
       <c r="AS42">
-        <f t="shared" ref="AS42" si="45">SUMIFS($O$2:$O$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AS42" si="48">SUMIFS($O$2:$O$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
         <v>8</v>
       </c>
       <c r="AT42">
-        <f t="shared" ref="AT42" si="46">AP42-AR42</f>
+        <f t="shared" ref="AT42" si="49">AP42-AR42</f>
         <v>-6</v>
       </c>
       <c r="AU42">
-        <f t="shared" ref="AU42" si="47">AQ42-AS42</f>
+        <f t="shared" ref="AU42" si="50">AQ42-AS42</f>
         <v>0</v>
       </c>
       <c r="AV42">
-        <f t="shared" ref="AV42" si="48">AP42+AQ42</f>
+        <f t="shared" ref="AV42" si="51">AP42+AQ42</f>
         <v>13</v>
       </c>
       <c r="AW42">
-        <f t="shared" ref="AW42" si="49">AR42+AS42</f>
+        <f t="shared" ref="AW42" si="52">AR42+AS42</f>
         <v>19</v>
       </c>
       <c r="AX42">
-        <f t="shared" ref="AX42" si="50">(AP42+AQ42)-(AR42+AS42)</f>
+        <f t="shared" ref="AX42" si="53">(AP42+AQ42)-(AR42+AS42)</f>
         <v>-6</v>
       </c>
       <c r="AY42">
-        <f t="shared" ref="AY42" si="51">AP42/AN42</f>
+        <f t="shared" ref="AY42" si="54">AP42/AN42</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="AZ42">
-        <f t="shared" ref="AZ42" si="52">AQ42/AO42</f>
+        <f t="shared" ref="AZ42" si="55">AQ42/AO42</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA42">
-        <f t="shared" ref="BA42" si="53">AR42/AN42</f>
+        <f t="shared" ref="BA42" si="56">AR42/AN42</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="BB42">
-        <f t="shared" ref="BB42" si="54">AS42/AO42</f>
+        <f t="shared" ref="BB42" si="57">AS42/AO42</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BC42">
-        <f t="shared" ref="BC42" si="55">AV42/AA42</f>
+        <f t="shared" ref="BC42" si="58">AV42/AA42</f>
         <v>1.8571428571428572</v>
       </c>
       <c r="BD42">
-        <f t="shared" ref="BD42" si="56">AW42/AA42</f>
+        <f t="shared" ref="BD42" si="59">AW42/AA42</f>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -6912,51 +6911,51 @@
         <v>0</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z43" t="s">
         <v>13</v>
       </c>
       <c r="AA43">
-        <f t="shared" ref="AA43:AA48" si="57">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA43:AA48" si="60">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 1)</f>
         <v>4</v>
       </c>
       <c r="AB43">
-        <f t="shared" ref="AB43:AB48" si="58">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB43:AB48" si="61">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC43">
-        <f t="shared" ref="AC43:AC48" si="59">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 3)</f>
-        <v>4</v>
+        <f t="shared" ref="AC43:AC48" si="62">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 3)</f>
+        <v>5</v>
       </c>
       <c r="AD43">
-        <f t="shared" ref="AD43:AD48" si="60">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD43:AD48" si="63">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" ref="AE43:AE48" si="61">AA43+AB43+AC43+AD43</f>
-        <v>14</v>
+        <f t="shared" ref="AE43:AE48" si="64">AA43+AB43+AC43+AD43</f>
+        <v>15</v>
       </c>
       <c r="AF43">
-        <f t="shared" ref="AF43:AF48" si="62">COUNTIF($K$2:$K$81, Z43)</f>
+        <f t="shared" ref="AF43:AF48" si="65">COUNTIF($K$2:$K$81, Z43)</f>
+        <v>8</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" ref="AG43:AG48" si="66">COUNTIF($J$2:$J$81, Z43)</f>
         <v>7</v>
       </c>
-      <c r="AG43">
-        <f t="shared" ref="AG43:AG48" si="63">COUNTIF($J$2:$J$81, Z43)</f>
-        <v>7</v>
-      </c>
       <c r="AH43">
-        <f t="shared" ref="AH43:AH48" si="64">AJ43+AL43</f>
-        <v>8</v>
+        <f t="shared" ref="AH43:AH48" si="67">AJ43+AL43</f>
+        <v>10</v>
       </c>
       <c r="AI43">
-        <f t="shared" ref="AI43:AI48" si="65">AE43-AH43</f>
-        <v>6</v>
+        <f t="shared" ref="AI43:AI48" si="68">AE43-AH43</f>
+        <v>5</v>
       </c>
       <c r="AJ43" cm="1">
         <f t="array" ref="AJ43">SUMPRODUCT(($K$2:$K$81=Z43)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK43" cm="1">
         <f t="array" ref="AK43">SUMPRODUCT(($K$2:$K$81=Z43)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -6964,78 +6963,78 @@
       </c>
       <c r="AL43" cm="1">
         <f t="array" ref="AL43">SUMPRODUCT(($J$2:$J$81=Z43)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM43" cm="1">
         <f t="array" ref="AM43">SUMPRODUCT(($J$2:$J$81=Z43)*($O$2:$O$81&gt;$N$2:$N$81))</f>
         <v>1</v>
       </c>
       <c r="AN43">
-        <f t="shared" ref="AN43:AN48" si="66">COUNTIFS($K$2:$K$81,Z43,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AN43:AN48" si="69">COUNTIFS($K$2:$K$81,Z43,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AO43">
-        <f t="shared" ref="AO43:AO48" si="67">COUNTIFS($J$2:$J$81,Z43,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AO43:AO48" si="70">COUNTIFS($J$2:$J$81,Z43,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AP43">
-        <f t="shared" ref="AP43:AP48" si="68">SUMIFS($O$2:$O$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AP43:AP48" si="71">SUMIFS($O$2:$O$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
         <v>9</v>
       </c>
       <c r="AQ43">
-        <f t="shared" ref="AQ43:AQ48" si="69">SUMIFS($N$2:$N$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AQ43:AQ48" si="72">SUMIFS($N$2:$N$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
         <v>11</v>
       </c>
       <c r="AR43">
-        <f t="shared" ref="AR43:AR48" si="70">SUMIFS($N$2:$N$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AR43:AR48" si="73">SUMIFS($N$2:$N$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
         <v>10</v>
       </c>
       <c r="AS43">
-        <f t="shared" ref="AS43:AS48" si="71">SUMIFS($O$2:$O$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AS43:AS48" si="74">SUMIFS($O$2:$O$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
         <v>9</v>
       </c>
       <c r="AT43">
-        <f t="shared" ref="AT43:AU48" si="72">AP43-AR43</f>
+        <f t="shared" ref="AT43:AU48" si="75">AP43-AR43</f>
         <v>-1</v>
       </c>
       <c r="AU43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="AV43">
-        <f t="shared" ref="AV43:AV48" si="73">AP43+AQ43</f>
+        <f t="shared" ref="AV43:AV48" si="76">AP43+AQ43</f>
         <v>20</v>
       </c>
       <c r="AW43">
-        <f t="shared" ref="AW43:AW48" si="74">AR43+AS43</f>
+        <f t="shared" ref="AW43:AW48" si="77">AR43+AS43</f>
         <v>19</v>
       </c>
       <c r="AX43">
-        <f t="shared" ref="AX43:AX48" si="75">(AP43+AQ43)-(AR43+AS43)</f>
+        <f t="shared" ref="AX43:AX48" si="78">(AP43+AQ43)-(AR43+AS43)</f>
         <v>1</v>
       </c>
       <c r="AY43">
-        <f t="shared" ref="AY43:AZ48" si="76">AP43/AN43</f>
+        <f t="shared" ref="AY43:AZ48" si="79">AP43/AN43</f>
         <v>3</v>
       </c>
       <c r="AZ43">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BA43">
-        <f t="shared" ref="BA43:BB48" si="77">AR43/AN43</f>
+        <f t="shared" ref="BA43:BB48" si="80">AR43/AN43</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="BB43">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>3</v>
       </c>
       <c r="BC43">
-        <f t="shared" ref="BC43:BC48" si="78">AV43/AA43</f>
+        <f t="shared" ref="BC43:BC48" si="81">AV43/AA43</f>
         <v>5</v>
       </c>
       <c r="BD43">
-        <f t="shared" ref="BD43:BD48" si="79">AW43/AA43</f>
+        <f t="shared" ref="BD43:BD48" si="82">AW43/AA43</f>
         <v>4.75</v>
       </c>
     </row>
@@ -7089,46 +7088,46 @@
         <v>1</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z44" t="s">
         <v>1</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>6</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>11</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>6</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>5</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>6</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="AJ44" cm="1">
@@ -7148,71 +7147,71 @@
         <v>3</v>
       </c>
       <c r="AN44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>3</v>
       </c>
       <c r="AO44">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>3</v>
       </c>
       <c r="AP44">
-        <f t="shared" si="68"/>
-        <v>9</v>
-      </c>
-      <c r="AQ44">
-        <f t="shared" si="69"/>
-        <v>10</v>
-      </c>
-      <c r="AR44">
-        <f t="shared" si="70"/>
-        <v>11</v>
-      </c>
-      <c r="AS44">
         <f t="shared" si="71"/>
         <v>9</v>
       </c>
+      <c r="AQ44">
+        <f t="shared" si="72"/>
+        <v>10</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="73"/>
+        <v>11</v>
+      </c>
+      <c r="AS44">
+        <f t="shared" si="74"/>
+        <v>9</v>
+      </c>
       <c r="AT44">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>-2</v>
       </c>
       <c r="AU44">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="AV44">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>19</v>
       </c>
       <c r="AW44">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>20</v>
       </c>
       <c r="AX44">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>-1</v>
       </c>
       <c r="AY44">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3</v>
       </c>
       <c r="AZ44">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="BA44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BB44">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>3</v>
       </c>
       <c r="BC44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>3.8</v>
       </c>
       <c r="BD44">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>4</v>
       </c>
     </row>
@@ -7266,46 +7265,46 @@
         <v>0</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z45" t="s">
         <v>17</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>6</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>7</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>13</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>7</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>6</v>
       </c>
       <c r="AH45">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>7</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>6</v>
       </c>
       <c r="AJ45" cm="1">
@@ -7325,71 +7324,71 @@
         <v>2</v>
       </c>
       <c r="AN45">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>4</v>
       </c>
       <c r="AO45">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>3</v>
       </c>
       <c r="AP45">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>13</v>
       </c>
       <c r="AQ45">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>7</v>
       </c>
       <c r="AR45">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>13</v>
       </c>
       <c r="AS45">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>11</v>
       </c>
       <c r="AT45">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AU45">
-        <f t="shared" si="72"/>
-        <v>-4</v>
-      </c>
-      <c r="AV45">
-        <f t="shared" si="73"/>
-        <v>20</v>
-      </c>
-      <c r="AW45">
-        <f t="shared" si="74"/>
-        <v>24</v>
-      </c>
-      <c r="AX45">
         <f t="shared" si="75"/>
         <v>-4</v>
       </c>
+      <c r="AV45">
+        <f t="shared" si="76"/>
+        <v>20</v>
+      </c>
+      <c r="AW45">
+        <f t="shared" si="77"/>
+        <v>24</v>
+      </c>
+      <c r="AX45">
+        <f t="shared" si="78"/>
+        <v>-4</v>
+      </c>
       <c r="AY45">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.25</v>
       </c>
       <c r="AZ45">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BA45">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>3.25</v>
       </c>
       <c r="BB45">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BC45">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="BD45">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>4</v>
       </c>
     </row>
@@ -7443,46 +7442,46 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Z46" t="s">
         <v>21</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>7</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="59"/>
-        <v>4</v>
+        <f t="shared" si="62"/>
+        <v>5</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="61"/>
-        <v>16</v>
+        <f t="shared" si="64"/>
+        <v>17</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>8</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
+        <v>9</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="67"/>
         <v>8</v>
       </c>
-      <c r="AH46">
-        <f t="shared" si="64"/>
-        <v>7</v>
-      </c>
       <c r="AI46">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>9</v>
       </c>
       <c r="AJ46" cm="1">
@@ -7495,78 +7494,78 @@
       </c>
       <c r="AL46" cm="1">
         <f t="array" ref="AL46">SUMPRODUCT(($J$2:$J$81=Z46)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM46" cm="1">
         <f t="array" ref="AM46">SUMPRODUCT(($J$2:$J$81=Z46)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN46">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>3</v>
       </c>
       <c r="AO46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>4</v>
       </c>
       <c r="AP46">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>11</v>
       </c>
       <c r="AQ46">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>13</v>
       </c>
       <c r="AR46">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>7</v>
       </c>
       <c r="AS46">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>13</v>
       </c>
       <c r="AT46">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>4</v>
       </c>
       <c r="AU46">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AV46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>24</v>
       </c>
       <c r="AW46">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>20</v>
       </c>
       <c r="AX46">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>4</v>
       </c>
       <c r="AY46">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="AZ46">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.25</v>
       </c>
       <c r="BA46">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BB46">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>3.25</v>
       </c>
       <c r="BC46">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>4.8</v>
       </c>
       <c r="BD46">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>4</v>
       </c>
     </row>
@@ -7620,55 +7619,55 @@
         <v>0</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z47" t="s">
         <v>19</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>7</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>6</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="59"/>
-        <v>4</v>
+        <f t="shared" si="62"/>
+        <v>5</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="61"/>
-        <v>17</v>
+        <f t="shared" si="64"/>
+        <v>18</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
+        <v>10</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="66"/>
+        <v>8</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="67"/>
         <v>9</v>
       </c>
-      <c r="AG47">
-        <f t="shared" si="63"/>
-        <v>8</v>
-      </c>
-      <c r="AH47">
-        <f t="shared" si="64"/>
-        <v>8</v>
-      </c>
       <c r="AI47">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>9</v>
       </c>
       <c r="AJ47" cm="1">
         <f t="array" ref="AJ47">SUMPRODUCT(($K$2:$K$81=Z47)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK47" cm="1">
         <f t="array" ref="AK47">SUMPRODUCT(($K$2:$K$81=Z47)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL47" cm="1">
         <f t="array" ref="AL47">SUMPRODUCT(($J$2:$J$81=Z47)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -7679,71 +7678,71 @@
         <v>1</v>
       </c>
       <c r="AN47">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>3</v>
       </c>
       <c r="AO47">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>3</v>
       </c>
       <c r="AP47">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>11</v>
       </c>
       <c r="AQ47">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>11</v>
       </c>
       <c r="AR47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>11</v>
       </c>
       <c r="AS47">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>3</v>
       </c>
       <c r="AT47">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AU47">
-        <f t="shared" si="72"/>
-        <v>8</v>
-      </c>
-      <c r="AV47">
-        <f t="shared" si="73"/>
-        <v>22</v>
-      </c>
-      <c r="AW47">
-        <f t="shared" si="74"/>
-        <v>14</v>
-      </c>
-      <c r="AX47">
         <f t="shared" si="75"/>
         <v>8</v>
       </c>
+      <c r="AV47">
+        <f t="shared" si="76"/>
+        <v>22</v>
+      </c>
+      <c r="AW47">
+        <f t="shared" si="77"/>
+        <v>14</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" si="78"/>
+        <v>8</v>
+      </c>
       <c r="AY47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="AZ47">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BA47">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BB47">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="BC47">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>3.1428571428571428</v>
       </c>
       <c r="BD47">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>2</v>
       </c>
     </row>
@@ -7797,46 +7796,46 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z48" t="s">
         <v>14</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>6</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>11</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>6</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>6</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="AJ48" cm="1">
@@ -7856,71 +7855,71 @@
         <v>2</v>
       </c>
       <c r="AN48">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>3</v>
       </c>
       <c r="AO48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>3</v>
       </c>
       <c r="AP48">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
       <c r="AQ48">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>11</v>
       </c>
       <c r="AR48">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>11</v>
       </c>
       <c r="AS48">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>11</v>
       </c>
       <c r="AT48">
-        <f t="shared" si="72"/>
-        <v>-8</v>
-      </c>
-      <c r="AU48">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <f t="shared" si="73"/>
-        <v>14</v>
-      </c>
-      <c r="AW48">
-        <f t="shared" si="74"/>
-        <v>22</v>
-      </c>
-      <c r="AX48">
         <f t="shared" si="75"/>
         <v>-8</v>
       </c>
+      <c r="AU48">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <f t="shared" si="76"/>
+        <v>14</v>
+      </c>
+      <c r="AW48">
+        <f t="shared" si="77"/>
+        <v>22</v>
+      </c>
+      <c r="AX48">
+        <f t="shared" si="78"/>
+        <v>-8</v>
+      </c>
       <c r="AY48">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="AZ48">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BA48">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BB48">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BC48">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>2.8</v>
       </c>
       <c r="BD48">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -7974,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
@@ -8226,23 +8225,23 @@
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q81" si="80">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <f t="shared" ref="Q52:Q81" si="83">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
         <v>0</v>
       </c>
       <c r="Z52" t="s">
         <v>11</v>
       </c>
       <c r="AA52">
-        <f t="shared" ref="AA52" si="81">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA52" si="84">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AB52">
-        <f t="shared" ref="AB52" si="82">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB52" si="85">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC52">
         <f>COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD52">
         <f>COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 4)</f>
@@ -8250,7 +8249,7 @@
       </c>
       <c r="AE52">
         <f>AA52+AB52+AC52+AD52</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF52">
         <f>COUNTIF($K$2:$K$81, Z52)</f>
@@ -8258,7 +8257,7 @@
       </c>
       <c r="AG52">
         <f>COUNTIF($J$2:$J$81, Z52)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH52">
         <f>AJ52+AL52</f>
@@ -8266,7 +8265,7 @@
       </c>
       <c r="AI52">
         <f>AE52-AH52</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ52" cm="1">
         <f t="array" ref="AJ52">SUMPRODUCT(($K$2:$K$81=Z52)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -8274,7 +8273,7 @@
       </c>
       <c r="AK52" cm="1">
         <f t="array" ref="AK52">SUMPRODUCT(($K$2:$K$81=Z52)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL52" cm="1">
         <f t="array" ref="AL52">SUMPRODUCT(($J$2:$J$81=Z52)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -8282,7 +8281,7 @@
       </c>
       <c r="AM52" cm="1">
         <f t="array" ref="AM52">SUMPRODUCT(($J$2:$J$81=Z52)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN52">
         <f>COUNTIFS($K$2:$K$81,Z52,$C$2:$C$81,3)</f>
@@ -8290,67 +8289,67 @@
       </c>
       <c r="AO52">
         <f>COUNTIFS($J$2:$J$81,Z52,$C$2:$C$81,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP52">
         <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z52,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ52">
         <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z52,$C$2:$C$81, 3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR52">
         <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z52,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS52">
         <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z52,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT52">
-        <f t="shared" ref="AT52:AU52" si="83">AP52-AR52</f>
-        <v>0</v>
+        <f t="shared" ref="AT52:AU52" si="86">AP52-AR52</f>
+        <v>-1</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="83"/>
-        <v>3</v>
+        <f t="shared" si="86"/>
+        <v>2</v>
       </c>
       <c r="AV52">
         <f>AP52+AQ52</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW52">
         <f>AR52+AS52</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AX52">
         <f>(AP52+AQ52)-(AR52+AS52)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY52">
-        <f t="shared" ref="AY52:AZ52" si="84">AP52/AN52</f>
-        <v>0</v>
+        <f t="shared" ref="AY52:AZ52" si="87">AP52/AN52</f>
+        <v>2</v>
       </c>
       <c r="AZ52">
-        <f t="shared" si="84"/>
-        <v>1.5</v>
+        <f t="shared" si="87"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BA52">
-        <f t="shared" ref="BA52:BB52" si="85">AR52/AN52</f>
-        <v>0</v>
+        <f t="shared" ref="BA52:BB52" si="88">AR52/AN52</f>
+        <v>2.5</v>
       </c>
       <c r="BB52">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BC52">
         <f>AV52/AA52</f>
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="BD52">
         <f>AW52/AA52</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.25">
@@ -8403,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
       <c r="Z53" t="s">
@@ -8419,7 +8418,7 @@
       </c>
       <c r="AC53">
         <f>COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD53">
         <f>COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 4)</f>
@@ -8427,11 +8426,11 @@
       </c>
       <c r="AE53">
         <f>AA53+AB53+AC53+AD53</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF53">
         <f>COUNTIF($K$2:$K$81, Z53)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG53">
         <f>COUNTIF($J$2:$J$81, Z53)</f>
@@ -8439,15 +8438,15 @@
       </c>
       <c r="AH53">
         <f>AJ53+AL53</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI53">
         <f>AE53-AH53</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ53" cm="1">
         <f t="array" ref="AJ53">SUMPRODUCT(($K$2:$K$81=Z53)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK53" cm="1">
         <f t="array" ref="AK53">SUMPRODUCT(($K$2:$K$81=Z53)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -8455,7 +8454,7 @@
       </c>
       <c r="AL53" cm="1">
         <f t="array" ref="AL53">SUMPRODUCT(($J$2:$J$81=Z53)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM53" cm="1">
         <f t="array" ref="AM53">SUMPRODUCT(($J$2:$J$81=Z53)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -8463,7 +8462,7 @@
       </c>
       <c r="AN53">
         <f>COUNTIFS($K$2:$K$81,Z53,$C$2:$C$81,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO53">
         <f>COUNTIFS($J$2:$J$81,Z53,$C$2:$C$81,3)</f>
@@ -8471,63 +8470,63 @@
       </c>
       <c r="AP53">
         <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z53,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z53,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR53">
         <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z53,$C$2:$C$81, 3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS53">
         <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z53,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT53">
-        <f t="shared" ref="AT53:AU55" si="86">AP53-AR53</f>
-        <v>-3</v>
+        <f t="shared" ref="AT53:AU55" si="89">AP53-AR53</f>
+        <v>-2</v>
       </c>
       <c r="AU53">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <f t="shared" si="89"/>
+        <v>1</v>
       </c>
       <c r="AV53">
         <f>AP53+AQ53</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW53">
         <f>AR53+AS53</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX53">
         <f>(AP53+AQ53)-(AR53+AS53)</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AY53">
-        <f t="shared" ref="AY53:AZ55" si="87">AP53/AN53</f>
-        <v>0</v>
+        <f t="shared" ref="AY53:AZ55" si="90">AP53/AN53</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AZ53">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <f t="shared" si="90"/>
+        <v>2.5</v>
       </c>
       <c r="BA53">
-        <f t="shared" ref="BA53:BB55" si="88">AR53/AN53</f>
-        <v>1.5</v>
+        <f t="shared" ref="BA53:BB55" si="91">AR53/AN53</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BB53">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="91"/>
+        <v>2</v>
       </c>
       <c r="BC53">
         <f>AV53/AA53</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="BD53">
         <f>AW53/AA53</f>
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.25">
@@ -8580,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="27">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
       <c r="Z54" t="s">
@@ -8596,7 +8595,7 @@
       </c>
       <c r="AC54">
         <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD54">
         <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 4)</f>
@@ -8604,7 +8603,7 @@
       </c>
       <c r="AE54">
         <f>AA54+AB54+AC54+AD54</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF54">
         <f>COUNTIF($K$2:$K$81, Z54)</f>
@@ -8612,11 +8611,11 @@
       </c>
       <c r="AG54">
         <f>COUNTIF($J$2:$J$81, Z54)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH54">
         <f>AJ54+AL54</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI54">
         <f>AE54-AH54</f>
@@ -8632,11 +8631,11 @@
       </c>
       <c r="AL54" cm="1">
         <f t="array" ref="AL54">SUMPRODUCT(($J$2:$J$81=Z54)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM54" cm="1">
         <f t="array" ref="AM54">SUMPRODUCT(($J$2:$J$81=Z54)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN54">
         <f>COUNTIFS($K$2:$K$81,Z54,$C$2:$C$81,3)</f>
@@ -8644,7 +8643,7 @@
       </c>
       <c r="AO54">
         <f>COUNTIFS($J$2:$J$81,Z54,$C$2:$C$81,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP54">
         <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z54,$C$2:$C$81, 3)</f>
@@ -8652,7 +8651,7 @@
       </c>
       <c r="AQ54">
         <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z54,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR54">
         <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z54,$C$2:$C$81, 3)</f>
@@ -8660,51 +8659,51 @@
       </c>
       <c r="AS54">
         <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z54,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AU54">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <f t="shared" si="89"/>
+        <v>-1</v>
       </c>
       <c r="AV54">
         <f>AP54+AQ54</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW54">
         <f>AR54+AS54</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX54">
         <f>(AP54+AQ54)-(AR54+AS54)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AZ54">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <f t="shared" si="90"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BA54">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="BB54">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="91"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="BC54">
         <f>AV54/AA54</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="BD54">
         <f>AW54/AA54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.25">
@@ -8757,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
       <c r="Z55" t="s">
@@ -8773,7 +8772,7 @@
       </c>
       <c r="AC55">
         <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD55">
         <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 4)</f>
@@ -8781,11 +8780,11 @@
       </c>
       <c r="AE55">
         <f>AA55+AB55+AC55+AD55</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF55">
         <f>COUNTIF($K$2:$K$81, Z55)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG55">
         <f>COUNTIF($J$2:$J$81, Z55)</f>
@@ -8793,7 +8792,7 @@
       </c>
       <c r="AH55">
         <f>AJ55+AL55</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI55">
         <f>AE55-AH55</f>
@@ -8801,11 +8800,11 @@
       </c>
       <c r="AJ55" cm="1">
         <f t="array" ref="AJ55">SUMPRODUCT(($K$2:$K$81=Z55)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK55" cm="1">
         <f t="array" ref="AK55">SUMPRODUCT(($K$2:$K$81=Z55)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL55" cm="1">
         <f t="array" ref="AL55">SUMPRODUCT(($J$2:$J$81=Z55)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -8817,7 +8816,7 @@
       </c>
       <c r="AN55">
         <f>COUNTIFS($K$2:$K$81,Z55,$C$2:$C$81,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO55">
         <f>COUNTIFS($J$2:$J$81,Z55,$C$2:$C$81,3)</f>
@@ -8825,7 +8824,7 @@
       </c>
       <c r="AP55">
         <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z55,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ55">
         <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
@@ -8833,55 +8832,55 @@
       </c>
       <c r="AR55">
         <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z55,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS55">
         <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <f t="shared" si="89"/>
+        <v>1</v>
       </c>
       <c r="AU55">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="AV55">
         <f>AP55+AQ55</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW55">
         <f>AR55+AS55</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX55">
         <f>(AP55+AQ55)-(AR55+AS55)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY55">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <f t="shared" si="90"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AZ55">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="BA55">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" si="91"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BB55">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="BC55">
         <f>AV55/AA55</f>
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="BD55">
         <f>AW55/AA55</f>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.25">
@@ -8934,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
     </row>
@@ -8988,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -9042,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -9096,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
     </row>
@@ -9150,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
     </row>
@@ -9204,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -9258,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
     </row>
@@ -9312,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
     </row>
@@ -9326,7 +9325,7 @@
       <c r="C64" s="20">
         <v>2</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E64" s="20">
@@ -9366,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
     </row>
@@ -9420,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -9528,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -9582,7 +9581,7 @@
         <v>2</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
     </row>
@@ -9636,61 +9635,61 @@
         <v>0</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="31">
+      <c r="A70" s="30">
         <v>45432</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="33">
-        <v>2</v>
-      </c>
-      <c r="D70" s="34" t="s">
+      <c r="C70" s="32">
+        <v>2</v>
+      </c>
+      <c r="D70" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E70" s="33">
+      <c r="E70" s="32">
         <v>7</v>
       </c>
-      <c r="F70" s="33" t="s">
+      <c r="F70" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H70" s="33">
-        <v>3</v>
-      </c>
-      <c r="I70" s="33">
-        <v>4</v>
-      </c>
-      <c r="J70" s="32" t="s">
+      <c r="H70" s="32">
+        <v>3</v>
+      </c>
+      <c r="I70" s="32">
+        <v>4</v>
+      </c>
+      <c r="J70" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K70" s="32" t="s">
+      <c r="K70" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L70" s="32" t="s">
+      <c r="L70" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M70" s="31">
+      <c r="M70" s="30">
         <v>45432</v>
       </c>
-      <c r="N70" s="32">
-        <v>3</v>
-      </c>
-      <c r="O70" s="32">
-        <v>2</v>
-      </c>
-      <c r="P70" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="32">
-        <f t="shared" si="80"/>
+      <c r="N70" s="31">
+        <v>3</v>
+      </c>
+      <c r="O70" s="31">
+        <v>2</v>
+      </c>
+      <c r="P70" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="31">
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
     </row>
@@ -9740,9 +9739,11 @@
       <c r="O71" s="2">
         <v>0</v>
       </c>
-      <c r="P71" s="2"/>
+      <c r="P71" s="2">
+        <v>0</v>
+      </c>
       <c r="Q71" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
     </row>
@@ -9768,8 +9769,12 @@
       <c r="G72" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1</v>
+      </c>
       <c r="J72" s="2" t="s">
         <v>21</v>
       </c>
@@ -9782,12 +9787,18 @@
       <c r="M72" s="3">
         <v>45435</v>
       </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
+      <c r="N72" s="2">
+        <v>3</v>
+      </c>
+      <c r="O72" s="2">
+        <v>2</v>
+      </c>
+      <c r="P72" s="2">
+        <v>2</v>
+      </c>
       <c r="Q72" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <f t="shared" si="83"/>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -9812,22 +9823,36 @@
       <c r="G73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="H73" s="4">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
       <c r="J73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
+      <c r="L73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M73" s="3">
+        <v>45436</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1</v>
+      </c>
+      <c r="O73" s="2">
+        <v>2</v>
+      </c>
+      <c r="P73" s="2">
+        <v>1</v>
+      </c>
       <c r="Q73" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <f t="shared" si="83"/>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -9852,22 +9877,36 @@
       <c r="G74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="H74" s="4">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1</v>
+      </c>
       <c r="J74" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
+      <c r="L74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M74" s="3">
+        <v>45437</v>
+      </c>
+      <c r="N74" s="2">
+        <v>1</v>
+      </c>
+      <c r="O74" s="2">
+        <v>3</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0</v>
+      </c>
       <c r="Q74" s="2">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <f t="shared" si="83"/>
+        <v>1</v>
       </c>
       <c r="W74" s="2">
         <f>WEEKDAY(A69)</f>
@@ -9896,21 +9935,35 @@
       <c r="G75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+      <c r="H75" s="4">
+        <v>2</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1</v>
+      </c>
       <c r="J75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
+      <c r="L75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" s="3">
+        <v>45438</v>
+      </c>
+      <c r="N75" s="2">
+        <v>5</v>
+      </c>
+      <c r="O75" s="2">
+        <v>4</v>
+      </c>
+      <c r="P75" s="2">
+        <v>1</v>
+      </c>
       <c r="Q75" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -9950,7 +10003,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -9990,7 +10043,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -10030,7 +10083,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -10058,15 +10111,19 @@
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -10094,15 +10151,19 @@
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+      <c r="J80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>
@@ -10138,7 +10199,7 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
     </row>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FF5445-DA12-4875-A5CF-394F6007BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9ED06C-5720-4A08-AC87-7C6A851A79C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -47,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="137">
   <si>
     <t>NYI</t>
   </si>
@@ -1079,9 +1090,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1119,7 +1130,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1225,7 +1236,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1367,7 +1378,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1377,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:BL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AF52" sqref="AF52"/>
+    <sheetView tabSelected="1" topLeftCell="G57" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9997,8 +10008,12 @@
       <c r="K76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="L76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="3">
+        <v>45439</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9ED06C-5720-4A08-AC87-7C6A851A79C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C15C23F-698E-4722-AAEF-61A3D1C5DF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,30 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1090,9 +1079,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1130,7 +1119,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1236,7 +1225,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1378,7 +1367,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1388,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:BL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G57" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="F57" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1833,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H100)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -2034,7 +2023,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.60810810810810811</v>
+        <v>0.6</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2855,11 +2844,11 @@
       </c>
       <c r="AE16">
         <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z16,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z16,$C$2:$C$100,3)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF16">
         <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA16,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA16,$C$2:$C$100,3)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
@@ -5059,7 +5048,7 @@
       </c>
       <c r="AK31" cm="1">
         <f t="array" ref="AK31">SUMPRODUCT(($K$2:$K$81=Z31)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL31" cm="1">
         <f t="array" ref="AL31">SUMPRODUCT(($J$2:$J$81=Z31)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -5605,11 +5594,11 @@
       </c>
       <c r="AH34">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI34">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ34" cm="1">
         <f t="array" ref="AJ34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -5621,7 +5610,7 @@
       </c>
       <c r="AL34" cm="1">
         <f t="array" ref="AL34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM34" cm="1">
         <f t="array" ref="AM34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -7501,7 +7490,7 @@
       </c>
       <c r="AK46" cm="1">
         <f t="array" ref="AK46">SUMPRODUCT(($K$2:$K$81=Z46)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL46" cm="1">
         <f t="array" ref="AL46">SUMPRODUCT(($J$2:$J$81=Z46)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -7666,11 +7655,11 @@
       </c>
       <c r="AH47">
         <f t="shared" si="67"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI47">
         <f t="shared" si="68"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ47" cm="1">
         <f t="array" ref="AJ47">SUMPRODUCT(($K$2:$K$81=Z47)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -7682,7 +7671,7 @@
       </c>
       <c r="AL47" cm="1">
         <f t="array" ref="AL47">SUMPRODUCT(($J$2:$J$81=Z47)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM47" cm="1">
         <f t="array" ref="AM47">SUMPRODUCT(($J$2:$J$81=Z47)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -8638,7 +8627,7 @@
       </c>
       <c r="AK54" cm="1">
         <f t="array" ref="AK54">SUMPRODUCT(($K$2:$K$81=Z54)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL54" cm="1">
         <f t="array" ref="AL54">SUMPRODUCT(($J$2:$J$81=Z54)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -8658,7 +8647,7 @@
       </c>
       <c r="AP54">
         <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z54,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ54">
         <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z54,$C$2:$C$81, 3)</f>
@@ -8666,7 +8655,7 @@
       </c>
       <c r="AR54">
         <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z54,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS54">
         <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z54,$C$2:$C$81, 3)</f>
@@ -8674,7 +8663,7 @@
       </c>
       <c r="AT54">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AU54">
         <f t="shared" si="89"/>
@@ -8682,19 +8671,19 @@
       </c>
       <c r="AV54">
         <f>AP54+AQ54</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW54">
         <f>AR54+AS54</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX54">
         <f>(AP54+AQ54)-(AR54+AS54)</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AY54">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AZ54">
         <f t="shared" si="90"/>
@@ -8702,7 +8691,7 @@
       </c>
       <c r="BA54">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BB54">
         <f t="shared" si="91"/>
@@ -8710,11 +8699,11 @@
       </c>
       <c r="BC54">
         <f>AV54/AA54</f>
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="BD54">
         <f>AW54/AA54</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.25">
@@ -8803,11 +8792,11 @@
       </c>
       <c r="AH55">
         <f>AJ55+AL55</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI55">
         <f>AE55-AH55</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ55" cm="1">
         <f t="array" ref="AJ55">SUMPRODUCT(($K$2:$K$81=Z55)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -8819,7 +8808,7 @@
       </c>
       <c r="AL55" cm="1">
         <f t="array" ref="AL55">SUMPRODUCT(($J$2:$J$81=Z55)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM55" cm="1">
         <f t="array" ref="AM55">SUMPRODUCT(($J$2:$J$81=Z55)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -8839,7 +8828,7 @@
       </c>
       <c r="AQ55">
         <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR55">
         <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z55,$C$2:$C$81, 3)</f>
@@ -8847,7 +8836,7 @@
       </c>
       <c r="AS55">
         <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT55">
         <f t="shared" si="89"/>
@@ -8855,19 +8844,19 @@
       </c>
       <c r="AU55">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV55">
         <f>AP55+AQ55</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AW55">
         <f>AR55+AS55</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX55">
         <f>(AP55+AQ55)-(AR55+AS55)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY55">
         <f t="shared" si="90"/>
@@ -8875,7 +8864,7 @@
       </c>
       <c r="AZ55">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BA55">
         <f t="shared" si="91"/>
@@ -8883,15 +8872,15 @@
       </c>
       <c r="BB55">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC55">
         <f>AV55/AA55</f>
-        <v>0.7142857142857143</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="BD55">
         <f>AW55/AA55</f>
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.25">
@@ -10000,8 +9989,12 @@
       <c r="G76" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+      <c r="H76" s="4">
+        <v>2</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1</v>
+      </c>
       <c r="J76" s="2" t="s">
         <v>19</v>
       </c>
@@ -10014,9 +10007,15 @@
       <c r="M76" s="3">
         <v>45439</v>
       </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
+      <c r="N76" s="2">
+        <v>5</v>
+      </c>
+      <c r="O76" s="2">
+        <v>3</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0</v>
+      </c>
       <c r="Q76" s="2">
         <f t="shared" si="83"/>
         <v>0</v>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C15C23F-698E-4722-AAEF-61A3D1C5DF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DC5044-7CD9-4C59-A1DF-C7E3C37AD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="137">
   <si>
     <t>NYI</t>
   </si>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:BL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F57" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="F47" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,7 +1833,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H100)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1928,7 +1928,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q100)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -2023,7 +2023,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.6</v>
+        <v>0.60526315789473684</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2750,19 +2750,19 @@
       </c>
       <c r="AC15">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD15">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AE15">
         <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z15,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z15,$C$2:$C$100,3)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF15">
         <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA15,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA15,$C$2:$C$100,3)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="AC22">
         <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD22">
         <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 4)</f>
@@ -3350,11 +3350,11 @@
       </c>
       <c r="AE22">
         <f>AA22+AB22+AC22+AD22</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF22">
         <f>COUNTIF($K$2:$K$81, Z22)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG22">
         <f>COUNTIF($J$2:$J$81, Z22)</f>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="AH22">
         <f>AJ22+AL22</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI22">
         <f>AE22-AH22</f>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="AJ22" cm="1">
         <f t="array" ref="AJ22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK22" cm="1">
         <f t="array" ref="AK22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="AC26">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD26">
         <f t="shared" si="18"/>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="AE26">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF26">
         <f t="shared" si="20"/>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="AG26">
         <f t="shared" si="21"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26">
         <f t="shared" si="22"/>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="AI26">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ26" cm="1">
         <f t="array" ref="AJ26">SUMPRODUCT(($K$2:$K$81=Z26)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AM26" cm="1">
         <f t="array" ref="AM26">SUMPRODUCT(($J$2:$J$81=Z26)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN26">
         <f t="shared" si="8"/>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="AC41">
         <f>COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD41">
         <f>COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 4)</f>
@@ -6581,11 +6581,11 @@
       </c>
       <c r="AE41">
         <f>AA41+AB41+AC41+AD41</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF41">
         <f>COUNTIF($K$2:$K$81, Z41)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG41">
         <f>COUNTIF($J$2:$J$81, Z41)</f>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="AH41">
         <f>AJ41+AL41</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI41">
         <f>AE41-AH41</f>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="AJ41" cm="1">
         <f t="array" ref="AJ41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK41" cm="1">
         <f t="array" ref="AK41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="AC43">
         <f t="shared" ref="AC43:AC48" si="62">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD43">
         <f t="shared" ref="AD43:AD48" si="63">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 4)</f>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="AE43">
         <f t="shared" ref="AE43:AE48" si="64">AA43+AB43+AC43+AD43</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF43">
         <f t="shared" ref="AF43:AF48" si="65">COUNTIF($K$2:$K$81, Z43)</f>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="AG43">
         <f t="shared" ref="AG43:AG48" si="66">COUNTIF($J$2:$J$81, Z43)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH43">
         <f t="shared" ref="AH43:AH48" si="67">AJ43+AL43</f>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="AI43">
         <f t="shared" ref="AI43:AI48" si="68">AE43-AH43</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ43" cm="1">
         <f t="array" ref="AJ43">SUMPRODUCT(($K$2:$K$81=Z43)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="AM43" cm="1">
         <f t="array" ref="AM43">SUMPRODUCT(($J$2:$J$81=Z43)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN43">
         <f t="shared" ref="AN43:AN48" si="69">COUNTIFS($K$2:$K$81,Z43,$C$2:$C$81,2)</f>
@@ -8232,124 +8232,124 @@
         <v>11</v>
       </c>
       <c r="AA52">
-        <f t="shared" ref="AA52" si="84">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 1)</f>
+        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB52">
-        <f t="shared" ref="AB52" si="85">COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 2)</f>
+        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC52">
-        <f>COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 3)</f>
-        <v>5</v>
+        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 3)</f>
+        <v>6</v>
       </c>
       <c r="AD52">
-        <f>COUNTIFS($J$2:$J$81, Z52, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z52, $C$2:$C$81, 4)</f>
+        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 4)</f>
         <v>0</v>
       </c>
       <c r="AE52">
         <f>AA52+AB52+AC52+AD52</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF52">
-        <f>COUNTIF($K$2:$K$81, Z52)</f>
-        <v>8</v>
+        <f>COUNTIF($K$2:$K$100, Z52)</f>
+        <v>9</v>
       </c>
       <c r="AG52">
-        <f>COUNTIF($J$2:$J$81, Z52)</f>
+        <f>COUNTIF($J$2:$J$100, Z52)</f>
         <v>8</v>
       </c>
       <c r="AH52">
         <f>AJ52+AL52</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI52">
         <f>AE52-AH52</f>
         <v>7</v>
       </c>
-      <c r="AJ52" cm="1">
-        <f t="array" ref="AJ52">SUMPRODUCT(($K$2:$K$81=Z52)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AK52" cm="1">
-        <f t="array" ref="AK52">SUMPRODUCT(($K$2:$K$81=Z52)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AL52" cm="1">
-        <f t="array" ref="AL52">SUMPRODUCT(($J$2:$J$81=Z52)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+      <c r="AJ52">
+        <f>SUMPRODUCT(($K$2:$K$100=Z52)*($O$2:$O$100&gt;$N$2:$N$100))</f>
         <v>5</v>
       </c>
-      <c r="AM52" cm="1">
-        <f t="array" ref="AM52">SUMPRODUCT(($J$2:$J$81=Z52)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+      <c r="AK52">
+        <f>SUMPRODUCT(($K$2:$K$100=Z52)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AL52">
+        <f>SUMPRODUCT(($J$2:$J$100=Z52)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>5</v>
+      </c>
+      <c r="AM52">
+        <f>SUMPRODUCT(($J$2:$J$100=Z52)*($O$2:$O$100&gt;$N$2:$N$100))</f>
         <v>2</v>
       </c>
       <c r="AN52">
-        <f>COUNTIFS($K$2:$K$81,Z52,$C$2:$C$81,3)</f>
-        <v>2</v>
+        <f>COUNTIFS($K$2:$K$100,Z52,$C$2:$C$100,3)</f>
+        <v>3</v>
       </c>
       <c r="AO52">
-        <f>COUNTIFS($J$2:$J$81,Z52,$C$2:$C$81,3)</f>
+        <f>COUNTIFS($J$2:$J$100,Z52,$C$2:$C$100,3)</f>
         <v>3</v>
       </c>
       <c r="AP52">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z52,$C$2:$C$81, 3)</f>
-        <v>4</v>
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z52,$C$2:$C$100, 3)</f>
+        <v>7</v>
       </c>
       <c r="AQ52">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z52,$C$2:$C$81, 3)</f>
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z52,$C$2:$C$100, 3)</f>
         <v>4</v>
       </c>
       <c r="AR52">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z52,$C$2:$C$81, 3)</f>
-        <v>5</v>
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z52,$C$2:$C$100, 3)</f>
+        <v>7</v>
       </c>
       <c r="AS52">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z52,$C$2:$C$81, 3)</f>
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z52,$C$2:$C$100, 3)</f>
         <v>2</v>
       </c>
       <c r="AT52">
-        <f t="shared" ref="AT52:AU52" si="86">AP52-AR52</f>
-        <v>-1</v>
+        <f t="shared" ref="AT52:AU52" si="84">AP52-AR52</f>
+        <v>0</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v>2</v>
       </c>
       <c r="AV52">
         <f>AP52+AQ52</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AW52">
         <f>AR52+AS52</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX52">
         <f>(AP52+AQ52)-(AR52+AS52)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY52">
-        <f t="shared" ref="AY52:AZ52" si="87">AP52/AN52</f>
-        <v>2</v>
+        <f t="shared" ref="AY52:AZ52" si="85">AP52/AN52</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AZ52">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="BA52">
-        <f t="shared" ref="BA52:BB52" si="88">AR52/AN52</f>
-        <v>2.5</v>
+        <f t="shared" ref="BA52:BB52" si="86">AR52/AN52</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BB52">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="BC52">
         <f>AV52/AA52</f>
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BD52">
         <f>AW52/AA52</f>
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.25">
@@ -8409,124 +8409,124 @@
         <v>13</v>
       </c>
       <c r="AA53">
-        <f>COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA53:AA55" si="87">COUNTIFS($J$2:$J$100, Z53, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z53, $C$2:$C$100, 1)</f>
         <v>4</v>
       </c>
       <c r="AB53">
-        <f>COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB53:AB55" si="88">COUNTIFS($J$2:$J$100, Z53, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z53, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC53">
-        <f>COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC53:AC55" si="89">COUNTIFS($J$2:$J$100, Z53, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z53, $C$2:$C$100, 3)</f>
+        <v>6</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" ref="AD53:AD55" si="90">COUNTIFS($J$2:$J$100, Z53, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z53, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" ref="AE53:AE55" si="91">AA53+AB53+AC53+AD53</f>
+        <v>16</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" ref="AF53:AF55" si="92">COUNTIF($K$2:$K$100, Z53)</f>
+        <v>8</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" ref="AG53:AG55" si="93">COUNTIF($J$2:$J$100, Z53)</f>
+        <v>8</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" ref="AH53:AH55" si="94">AJ53+AL53</f>
+        <v>10</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" ref="AI53:AI55" si="95">AE53-AH53</f>
+        <v>6</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" ref="AJ53:AJ55" si="96">SUMPRODUCT(($K$2:$K$100=Z53)*($O$2:$O$100&gt;$N$2:$N$100))</f>
         <v>5</v>
       </c>
-      <c r="AD53">
-        <f>COUNTIFS($J$2:$J$81, Z53, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z53, $C$2:$C$81, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <f>AA53+AB53+AC53+AD53</f>
-        <v>15</v>
-      </c>
-      <c r="AF53">
-        <f>COUNTIF($K$2:$K$81, Z53)</f>
-        <v>8</v>
-      </c>
-      <c r="AG53">
-        <f>COUNTIF($J$2:$J$81, Z53)</f>
+      <c r="AK53">
+        <f t="shared" ref="AK53:AK55" si="97">SUMPRODUCT(($K$2:$K$100=Z53)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" ref="AL53:AL55" si="98">SUMPRODUCT(($J$2:$J$100=Z53)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>5</v>
+      </c>
+      <c r="AM53">
+        <f t="shared" ref="AM53:AM55" si="99">SUMPRODUCT(($J$2:$J$100=Z53)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AN53">
+        <f t="shared" ref="AN53:AN55" si="100">COUNTIFS($K$2:$K$100,Z53,$C$2:$C$100,3)</f>
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <f t="shared" ref="AO53:AO55" si="101">COUNTIFS($J$2:$J$100,Z53,$C$2:$C$100,3)</f>
+        <v>3</v>
+      </c>
+      <c r="AP53">
+        <f t="shared" ref="AP53:AP55" si="102">SUMIFS($O$2:$O$100, $K$2:$K$100, Z53,$C$2:$C$100, 3)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ53">
+        <f t="shared" ref="AQ53:AQ55" si="103">SUMIFS($N$2:$N$100, $J$2:$J$100, Z53,$C$2:$C$100, 3)</f>
         <v>7</v>
       </c>
-      <c r="AH53">
-        <f>AJ53+AL53</f>
-        <v>10</v>
-      </c>
-      <c r="AI53">
-        <f>AE53-AH53</f>
-        <v>5</v>
-      </c>
-      <c r="AJ53" cm="1">
-        <f t="array" ref="AJ53">SUMPRODUCT(($K$2:$K$81=Z53)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>5</v>
-      </c>
-      <c r="AK53" cm="1">
-        <f t="array" ref="AK53">SUMPRODUCT(($K$2:$K$81=Z53)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AL53" cm="1">
-        <f t="array" ref="AL53">SUMPRODUCT(($J$2:$J$81=Z53)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>5</v>
-      </c>
-      <c r="AM53" cm="1">
-        <f t="array" ref="AM53">SUMPRODUCT(($J$2:$J$81=Z53)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AN53">
-        <f>COUNTIFS($K$2:$K$81,Z53,$C$2:$C$81,3)</f>
-        <v>3</v>
-      </c>
-      <c r="AO53">
-        <f>COUNTIFS($J$2:$J$81,Z53,$C$2:$C$81,3)</f>
-        <v>2</v>
-      </c>
-      <c r="AP53">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z53,$C$2:$C$81, 3)</f>
-        <v>2</v>
-      </c>
-      <c r="AQ53">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z53,$C$2:$C$81, 3)</f>
-        <v>5</v>
-      </c>
       <c r="AR53">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z53,$C$2:$C$81, 3)</f>
+        <f t="shared" ref="AR53:AR55" si="104">SUMIFS($N$2:$N$100, $K$2:$K$100, Z53,$C$2:$C$100, 3)</f>
         <v>4</v>
       </c>
       <c r="AS53">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z53,$C$2:$C$81, 3)</f>
-        <v>4</v>
+        <f t="shared" ref="AS53:AS55" si="105">SUMIFS($O$2:$O$100, $J$2:$J$100, Z53,$C$2:$C$100, 3)</f>
+        <v>7</v>
       </c>
       <c r="AT53">
-        <f t="shared" ref="AT53:AU55" si="89">AP53-AR53</f>
+        <f t="shared" ref="AT53:AT55" si="106">AP53-AR53</f>
         <v>-2</v>
       </c>
       <c r="AU53">
-        <f t="shared" si="89"/>
-        <v>1</v>
+        <f t="shared" ref="AU53:AU55" si="107">AQ53-AS53</f>
+        <v>0</v>
       </c>
       <c r="AV53">
-        <f>AP53+AQ53</f>
-        <v>7</v>
+        <f t="shared" ref="AV53:AV55" si="108">AP53+AQ53</f>
+        <v>9</v>
       </c>
       <c r="AW53">
-        <f>AR53+AS53</f>
-        <v>8</v>
+        <f t="shared" ref="AW53:AW55" si="109">AR53+AS53</f>
+        <v>11</v>
       </c>
       <c r="AX53">
-        <f>(AP53+AQ53)-(AR53+AS53)</f>
-        <v>-1</v>
+        <f t="shared" ref="AX53:AX55" si="110">(AP53+AQ53)-(AR53+AS53)</f>
+        <v>-2</v>
       </c>
       <c r="AY53">
-        <f t="shared" ref="AY53:AZ55" si="90">AP53/AN53</f>
+        <f t="shared" ref="AY53:AY55" si="111">AP53/AN53</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AZ53">
-        <f t="shared" si="90"/>
-        <v>2.5</v>
+        <f t="shared" ref="AZ53:AZ55" si="112">AQ53/AO53</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BA53">
-        <f t="shared" ref="BA53:BB55" si="91">AR53/AN53</f>
+        <f t="shared" ref="BA53:BA55" si="113">AR53/AN53</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="BB53">
-        <f t="shared" si="91"/>
-        <v>2</v>
+        <f t="shared" ref="BB53:BB55" si="114">AS53/AO53</f>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BC53">
-        <f>AV53/AA53</f>
-        <v>1.75</v>
+        <f t="shared" ref="BC53:BC55" si="115">AV53/AA53</f>
+        <v>2.25</v>
       </c>
       <c r="BD53">
-        <f>AW53/AA53</f>
-        <v>2</v>
+        <f t="shared" ref="BD53:BD55" si="116">AW53/AA53</f>
+        <v>2.75</v>
       </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.25">
@@ -8586,123 +8586,123 @@
         <v>21</v>
       </c>
       <c r="AA54">
-        <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 1)</f>
+        <f t="shared" si="87"/>
         <v>5</v>
       </c>
       <c r="AB54">
-        <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 2)</f>
+        <f t="shared" si="88"/>
         <v>7</v>
       </c>
       <c r="AC54">
-        <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 3)</f>
+        <f t="shared" si="89"/>
         <v>5</v>
       </c>
       <c r="AD54">
-        <f>COUNTIFS($J$2:$J$81, Z54, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z54, $C$2:$C$81, 4)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE54">
-        <f>AA54+AB54+AC54+AD54</f>
+        <f t="shared" si="91"/>
         <v>17</v>
       </c>
       <c r="AF54">
-        <f>COUNTIF($K$2:$K$81, Z54)</f>
+        <f t="shared" si="92"/>
         <v>8</v>
       </c>
       <c r="AG54">
-        <f>COUNTIF($J$2:$J$81, Z54)</f>
+        <f t="shared" si="93"/>
         <v>9</v>
       </c>
       <c r="AH54">
-        <f>AJ54+AL54</f>
+        <f t="shared" si="94"/>
         <v>8</v>
       </c>
       <c r="AI54">
-        <f>AE54-AH54</f>
+        <f t="shared" si="95"/>
         <v>9</v>
       </c>
-      <c r="AJ54" cm="1">
-        <f t="array" ref="AJ54">SUMPRODUCT(($K$2:$K$81=Z54)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AK54" cm="1">
-        <f t="array" ref="AK54">SUMPRODUCT(($K$2:$K$81=Z54)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AL54" cm="1">
-        <f t="array" ref="AL54">SUMPRODUCT(($J$2:$J$81=Z54)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM54" cm="1">
-        <f t="array" ref="AM54">SUMPRODUCT(($J$2:$J$81=Z54)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+      <c r="AJ54">
+        <f t="shared" si="96"/>
+        <v>4</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="97"/>
+        <v>3</v>
+      </c>
+      <c r="AL54">
+        <f t="shared" si="98"/>
+        <v>4</v>
+      </c>
+      <c r="AM54">
+        <f t="shared" si="99"/>
         <v>4</v>
       </c>
       <c r="AN54">
-        <f>COUNTIFS($K$2:$K$81,Z54,$C$2:$C$81,3)</f>
+        <f t="shared" si="100"/>
         <v>2</v>
       </c>
       <c r="AO54">
-        <f>COUNTIFS($J$2:$J$81,Z54,$C$2:$C$81,3)</f>
+        <f t="shared" si="101"/>
         <v>3</v>
       </c>
       <c r="AP54">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z54,$C$2:$C$81, 3)</f>
+        <f t="shared" si="102"/>
         <v>3</v>
       </c>
       <c r="AQ54">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z54,$C$2:$C$81, 3)</f>
+        <f t="shared" si="103"/>
         <v>4</v>
       </c>
       <c r="AR54">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z54,$C$2:$C$81, 3)</f>
+        <f t="shared" si="104"/>
         <v>5</v>
       </c>
       <c r="AS54">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z54,$C$2:$C$81, 3)</f>
+        <f t="shared" si="105"/>
         <v>5</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="89"/>
+        <f t="shared" si="106"/>
         <v>-2</v>
       </c>
       <c r="AU54">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>-1</v>
       </c>
       <c r="AV54">
-        <f>AP54+AQ54</f>
+        <f t="shared" si="108"/>
         <v>7</v>
       </c>
       <c r="AW54">
-        <f>AR54+AS54</f>
+        <f t="shared" si="109"/>
         <v>10</v>
       </c>
       <c r="AX54">
-        <f>(AP54+AQ54)-(AR54+AS54)</f>
+        <f t="shared" si="110"/>
         <v>-3</v>
       </c>
       <c r="AY54">
-        <f t="shared" si="90"/>
+        <f t="shared" si="111"/>
         <v>1.5</v>
       </c>
       <c r="AZ54">
-        <f t="shared" si="90"/>
+        <f t="shared" si="112"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="BA54">
-        <f t="shared" si="91"/>
+        <f t="shared" si="113"/>
         <v>2.5</v>
       </c>
       <c r="BB54">
-        <f t="shared" si="91"/>
+        <f t="shared" si="114"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="BC54">
-        <f>AV54/AA54</f>
+        <f t="shared" si="115"/>
         <v>1.4</v>
       </c>
       <c r="BD54">
-        <f>AW54/AA54</f>
+        <f t="shared" si="116"/>
         <v>2</v>
       </c>
     </row>
@@ -8763,123 +8763,123 @@
         <v>19</v>
       </c>
       <c r="AA55">
-        <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 1)</f>
+        <f t="shared" si="87"/>
         <v>7</v>
       </c>
       <c r="AB55">
-        <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 2)</f>
+        <f t="shared" si="88"/>
         <v>6</v>
       </c>
       <c r="AC55">
-        <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 3)</f>
+        <f t="shared" si="89"/>
         <v>5</v>
       </c>
       <c r="AD55">
-        <f>COUNTIFS($J$2:$J$81, Z55, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z55, $C$2:$C$81, 4)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AE55">
-        <f>AA55+AB55+AC55+AD55</f>
+        <f t="shared" si="91"/>
         <v>18</v>
       </c>
       <c r="AF55">
-        <f>COUNTIF($K$2:$K$81, Z55)</f>
+        <f t="shared" si="92"/>
         <v>10</v>
       </c>
       <c r="AG55">
-        <f>COUNTIF($J$2:$J$81, Z55)</f>
+        <f t="shared" si="93"/>
         <v>8</v>
       </c>
       <c r="AH55">
-        <f>AJ55+AL55</f>
+        <f t="shared" si="94"/>
         <v>10</v>
       </c>
       <c r="AI55">
-        <f>AE55-AH55</f>
+        <f t="shared" si="95"/>
         <v>8</v>
       </c>
-      <c r="AJ55" cm="1">
-        <f t="array" ref="AJ55">SUMPRODUCT(($K$2:$K$81=Z55)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AK55" cm="1">
-        <f t="array" ref="AK55">SUMPRODUCT(($K$2:$K$81=Z55)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+      <c r="AJ55">
+        <f t="shared" si="96"/>
+        <v>4</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" si="97"/>
         <v>5</v>
       </c>
-      <c r="AL55" cm="1">
-        <f t="array" ref="AL55">SUMPRODUCT(($J$2:$J$81=Z55)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+      <c r="AL55">
+        <f t="shared" si="98"/>
         <v>6</v>
       </c>
-      <c r="AM55" cm="1">
-        <f t="array" ref="AM55">SUMPRODUCT(($J$2:$J$81=Z55)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+      <c r="AM55">
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
       <c r="AN55">
-        <f>COUNTIFS($K$2:$K$81,Z55,$C$2:$C$81,3)</f>
+        <f t="shared" si="100"/>
         <v>3</v>
       </c>
       <c r="AO55">
-        <f>COUNTIFS($J$2:$J$81,Z55,$C$2:$C$81,3)</f>
+        <f t="shared" si="101"/>
         <v>2</v>
       </c>
       <c r="AP55">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z55,$C$2:$C$81, 3)</f>
+        <f t="shared" si="102"/>
         <v>5</v>
       </c>
       <c r="AQ55">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
+        <f t="shared" si="103"/>
         <v>5</v>
       </c>
       <c r="AR55">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z55,$C$2:$C$81, 3)</f>
+        <f t="shared" si="104"/>
         <v>4</v>
       </c>
       <c r="AS55">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z55,$C$2:$C$81, 3)</f>
+        <f t="shared" si="105"/>
         <v>3</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="89"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="AU55">
-        <f t="shared" si="89"/>
+        <f t="shared" si="107"/>
         <v>2</v>
       </c>
       <c r="AV55">
-        <f>AP55+AQ55</f>
+        <f t="shared" si="108"/>
         <v>10</v>
       </c>
       <c r="AW55">
-        <f>AR55+AS55</f>
+        <f t="shared" si="109"/>
         <v>7</v>
       </c>
       <c r="AX55">
-        <f>(AP55+AQ55)-(AR55+AS55)</f>
+        <f t="shared" si="110"/>
         <v>3</v>
       </c>
       <c r="AY55">
-        <f t="shared" si="90"/>
+        <f t="shared" si="111"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AZ55">
-        <f t="shared" si="90"/>
+        <f t="shared" si="112"/>
         <v>2.5</v>
       </c>
       <c r="BA55">
-        <f t="shared" si="91"/>
+        <f t="shared" si="113"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="BB55">
-        <f t="shared" si="91"/>
+        <f t="shared" si="114"/>
         <v>1.5</v>
       </c>
       <c r="BC55">
-        <f>AV55/AA55</f>
+        <f t="shared" si="115"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="BD55">
-        <f>AW55/AA55</f>
+        <f t="shared" si="116"/>
         <v>1</v>
       </c>
     </row>
@@ -10043,22 +10043,36 @@
       <c r="G77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+      <c r="H77" s="4">
+        <v>2</v>
+      </c>
+      <c r="I77" s="4">
+        <v>2</v>
+      </c>
       <c r="J77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
+      <c r="L77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M77" s="3">
+        <v>45440</v>
+      </c>
+      <c r="N77" s="2">
+        <v>2</v>
+      </c>
+      <c r="O77" s="2">
+        <v>3</v>
+      </c>
+      <c r="P77" s="2">
+        <v>1</v>
+      </c>
       <c r="Q77" s="2">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -10091,8 +10105,12 @@
       <c r="K78" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
+      <c r="L78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" s="3">
+        <v>45440</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -10205,8 +10223,12 @@
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10407,7 +10429,7 @@
       <c r="Q90" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A59:XFD1048576 A1:XFD20 A21:AE37 A40:AE44 Z45:AE48 Z51:AE55 Z58:AE58 AF21:AO21 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 BI21:XFD37 A38:XFD39 AF40:AO40 AQ40:BD40 AP40:AP48 BE40:XFD58 A45:Y58 AP51:AP55 AP58">
+  <conditionalFormatting sqref="A59:XFD1048576 A1:XFD20 A21:AE37 A40:AE44 Z45:AE48 Z58:AE58 AF21:AO21 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 BI21:XFD37 A38:XFD39 AF40:AO40 AQ40:BD40 AP40:AP48 BE40:XFD58 A45:Y58 AP58 Z51:AE55 AP51:AP55">
     <cfRule type="cellIs" dxfId="32" priority="103" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
@@ -10513,7 +10535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA22:AD37 AA41:AD48 AA52:AD55 AA58:AD58">
+  <conditionalFormatting sqref="AA22:AD37 AA41:AD48 AA58:AD58 AA52:AD55">
     <cfRule type="cellIs" dxfId="16" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -10542,7 +10564,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE41:AE48 AE58 AE54:AE55">
+  <conditionalFormatting sqref="AE41:AE48 AE58">
     <cfRule type="colorScale" priority="691">
       <colorScale>
         <cfvo type="min"/>
@@ -10554,7 +10576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE52:AE53">
+  <conditionalFormatting sqref="AE52:AE55">
     <cfRule type="colorScale" priority="558">
       <colorScale>
         <cfvo type="min"/>
@@ -10712,7 +10734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX52:AX55 AX58 AT58:AU58 AT52:AU55">
+  <conditionalFormatting sqref="AT58:AU58 AX58 AX52:AX55 AT52:AU55">
     <cfRule type="colorScale" priority="667">
       <colorScale>
         <cfvo type="min"/>
@@ -10744,7 +10766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY58:AZ58 AY52:AZ55 BC58 BC52:BC55">
+  <conditionalFormatting sqref="AY58:AZ58 BC58 AY52:AZ55 BC52:BC55">
     <cfRule type="colorScale" priority="675">
       <colorScale>
         <cfvo type="min"/>
@@ -10774,7 +10796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA58:BB58 BA52:BB55 BD58 BD52:BD55">
+  <conditionalFormatting sqref="BA58:BB58 BD58 BA52:BB55 BD52:BD55">
     <cfRule type="colorScale" priority="683">
       <colorScale>
         <cfvo type="min"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DC5044-7CD9-4C59-A1DF-C7E3C37AD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF5C596-0AD0-46C0-9A9E-2A1E3403D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="137">
   <si>
     <t>NYI</t>
   </si>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:BL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F47" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,7 +1833,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H100)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1928,7 +1928,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q100)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -2023,7 +2023,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.60526315789473684</v>
+        <v>0.61038961038961037</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2836,19 +2836,19 @@
       </c>
       <c r="AC16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD16" s="11">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AE16">
         <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z16,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z16,$C$2:$C$100,3)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF16">
         <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA16,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA16,$C$2:$C$100,3)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
@@ -5036,15 +5036,15 @@
       </c>
       <c r="AH31">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI31">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ31" cm="1">
         <f t="array" ref="AJ31">SUMPRODUCT(($K$2:$K$81=Z31)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK31" cm="1">
         <f t="array" ref="AK31">SUMPRODUCT(($K$2:$K$81=Z31)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="AM34" cm="1">
         <f t="array" ref="AM34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN34">
         <f t="shared" si="8"/>
@@ -7478,15 +7478,15 @@
       </c>
       <c r="AH46">
         <f t="shared" si="67"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI46">
         <f t="shared" si="68"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ46" cm="1">
         <f t="array" ref="AJ46">SUMPRODUCT(($K$2:$K$81=Z46)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK46" cm="1">
         <f t="array" ref="AK46">SUMPRODUCT(($K$2:$K$81=Z46)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="AM47" cm="1">
         <f t="array" ref="AM47">SUMPRODUCT(($J$2:$J$81=Z47)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN47">
         <f t="shared" si="69"/>
@@ -8225,7 +8225,7 @@
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q81" si="83">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <f t="shared" ref="Q52:Q82" si="83">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
         <v>0</v>
       </c>
       <c r="Z52" t="s">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="AC54">
         <f t="shared" si="89"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD54">
         <f t="shared" si="90"/>
@@ -8603,11 +8603,11 @@
       </c>
       <c r="AE54">
         <f t="shared" si="91"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF54">
         <f t="shared" si="92"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG54">
         <f t="shared" si="93"/>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="AH54">
         <f t="shared" si="94"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI54">
         <f t="shared" si="95"/>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="AJ54">
         <f t="shared" si="96"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK54">
         <f t="shared" si="97"/>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="AN54">
         <f t="shared" si="100"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO54">
         <f t="shared" si="101"/>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="AP54">
         <f t="shared" si="102"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AQ54">
         <f t="shared" si="103"/>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="AR54">
         <f t="shared" si="104"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS54">
         <f t="shared" si="105"/>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="AT54">
         <f t="shared" si="106"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <f t="shared" si="107"/>
@@ -8671,19 +8671,19 @@
       </c>
       <c r="AV54">
         <f t="shared" si="108"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AW54">
         <f t="shared" si="109"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX54">
         <f t="shared" si="110"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AY54">
         <f t="shared" si="111"/>
-        <v>1.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AZ54">
         <f t="shared" si="112"/>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="BA54">
         <f t="shared" si="113"/>
-        <v>2.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BB54">
         <f t="shared" si="114"/>
@@ -8699,11 +8699,11 @@
       </c>
       <c r="BC54">
         <f t="shared" si="115"/>
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="BD54">
         <f t="shared" si="116"/>
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.25">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="AC55">
         <f t="shared" si="89"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD55">
         <f t="shared" si="90"/>
@@ -8780,7 +8780,7 @@
       </c>
       <c r="AE55">
         <f t="shared" si="91"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF55">
         <f t="shared" si="92"/>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="AG55">
         <f t="shared" si="93"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH55">
         <f t="shared" si="94"/>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="AI55">
         <f t="shared" si="95"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ55">
         <f t="shared" si="96"/>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="AM55">
         <f t="shared" si="99"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN55">
         <f t="shared" si="100"/>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="AO55">
         <f t="shared" si="101"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP55">
         <f t="shared" si="102"/>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="AQ55">
         <f t="shared" si="103"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR55">
         <f t="shared" si="104"/>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="AS55">
         <f t="shared" si="105"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AT55">
         <f t="shared" si="106"/>
@@ -8844,19 +8844,19 @@
       </c>
       <c r="AU55">
         <f t="shared" si="107"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV55">
         <f t="shared" si="108"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW55">
         <f t="shared" si="109"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX55">
         <f t="shared" si="110"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY55">
         <f t="shared" si="111"/>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="AZ55">
         <f t="shared" si="112"/>
-        <v>2.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BA55">
         <f t="shared" si="113"/>
@@ -8872,15 +8872,15 @@
       </c>
       <c r="BB55">
         <f t="shared" si="114"/>
-        <v>1.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BC55">
         <f t="shared" si="115"/>
-        <v>1.4285714285714286</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="BD55">
         <f t="shared" si="116"/>
-        <v>1</v>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.25">
@@ -10097,8 +10097,12 @@
       <c r="G78" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
+      <c r="H78" s="4">
+        <v>2</v>
+      </c>
+      <c r="I78" s="4">
+        <v>2</v>
+      </c>
       <c r="J78" s="2" t="s">
         <v>19</v>
       </c>
@@ -10111,12 +10115,18 @@
       <c r="M78" s="3">
         <v>45440</v>
       </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
+      <c r="N78" s="2">
+        <v>2</v>
+      </c>
+      <c r="O78" s="2">
+        <v>5</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0</v>
+      </c>
       <c r="Q78" s="2">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -10149,8 +10159,12 @@
       <c r="K79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
+      <c r="L79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" s="3">
+        <v>45442</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -10263,14 +10277,21 @@
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
+      <c r="Q82" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
@@ -10429,7 +10450,7 @@
       <c r="Q90" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A59:XFD1048576 A1:XFD20 A21:AE37 A40:AE44 Z45:AE48 Z58:AE58 AF21:AO21 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 BI21:XFD37 A38:XFD39 AF40:AO40 AQ40:BD40 AP40:AP48 BE40:XFD58 A45:Y58 AP58 Z51:AE55 AP51:AP55">
+  <conditionalFormatting sqref="A59:XFD1048576 A1:XFD20 A21:AE37 A40:AE44 Z45:AE48 Z51:AE55 Z58:AE58 AF21:AO21 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 BI21:XFD37 A38:XFD39 AF40:AO40 AQ40:BD40 AP40:AP48 BE40:XFD58 A45:Y58 AP51:AP55 AP58">
     <cfRule type="cellIs" dxfId="32" priority="103" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
@@ -10535,7 +10556,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA22:AD37 AA41:AD48 AA58:AD58 AA52:AD55">
+  <conditionalFormatting sqref="AA22:AD37 AA41:AD48 AA52:AD55 AA58:AD58">
     <cfRule type="cellIs" dxfId="16" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -10638,6 +10659,18 @@
       <formula>"VGK"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AT58:AU58 AX58 AX52:AX55 AT52:AU55">
+    <cfRule type="colorScale" priority="667">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AV22:AV37">
     <cfRule type="colorScale" priority="63">
       <colorScale>
@@ -10734,18 +10767,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT58:AU58 AX58 AX52:AX55 AT52:AU55">
-    <cfRule type="colorScale" priority="667">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AY22:AZ37 BC22:BC37">
     <cfRule type="colorScale" priority="66">
       <colorScale>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF5C596-0AD0-46C0-9A9E-2A1E3403D943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED15E10-44F3-4EBF-8D93-E8CDC33499A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -20,19 +20,30 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -47,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="137">
   <si>
     <t>NYI</t>
   </si>
@@ -1079,9 +1090,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1119,7 +1130,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1225,7 +1236,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1367,7 +1378,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1377,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:BL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="N80" sqref="N80"/>
+    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,7 +1844,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H100)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1928,7 +1939,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="6">
         <f>SUM(Q2:Q100)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -2023,7 +2034,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.61038961038961037</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2750,19 +2761,19 @@
       </c>
       <c r="AC15">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD15">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AE15">
         <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z15,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z15,$C$2:$C$100,3)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF15">
         <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA15,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA15,$C$2:$C$100,3)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -3362,11 +3373,11 @@
       </c>
       <c r="AH22">
         <f>AJ22+AL22</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI22">
         <f>AE22-AH22</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ22" cm="1">
         <f t="array" ref="AJ22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -3378,7 +3389,7 @@
       </c>
       <c r="AL22" cm="1">
         <f t="array" ref="AL22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM22" cm="1">
         <f t="array" ref="AM22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -4118,7 +4129,7 @@
       </c>
       <c r="AK26" cm="1">
         <f t="array" ref="AK26">SUMPRODUCT(($K$2:$K$81=Z26)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL26" cm="1">
         <f t="array" ref="AL26">SUMPRODUCT(($J$2:$J$81=Z26)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -6593,11 +6604,11 @@
       </c>
       <c r="AH41">
         <f>AJ41+AL41</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI41">
         <f>AE41-AH41</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ41" cm="1">
         <f t="array" ref="AJ41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -6609,7 +6620,7 @@
       </c>
       <c r="AL41" cm="1">
         <f t="array" ref="AL41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM41" cm="1">
         <f t="array" ref="AM41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -6959,7 +6970,7 @@
       </c>
       <c r="AK43" cm="1">
         <f t="array" ref="AK43">SUMPRODUCT(($K$2:$K$81=Z43)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL43" cm="1">
         <f t="array" ref="AL43">SUMPRODUCT(($J$2:$J$81=Z43)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -8261,11 +8272,11 @@
       </c>
       <c r="AH52">
         <f>AJ52+AL52</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI52">
         <f>AE52-AH52</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ52">
         <f>SUMPRODUCT(($K$2:$K$100=Z52)*($O$2:$O$100&gt;$N$2:$N$100))</f>
@@ -8277,7 +8288,7 @@
       </c>
       <c r="AL52">
         <f>SUMPRODUCT(($J$2:$J$100=Z52)*($O$2:$O$100&lt;$N$2:$N$100))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM52">
         <f>SUMPRODUCT(($J$2:$J$100=Z52)*($O$2:$O$100&gt;$N$2:$N$100))</f>
@@ -8297,7 +8308,7 @@
       </c>
       <c r="AQ52">
         <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z52,$C$2:$C$100, 3)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR52">
         <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z52,$C$2:$C$100, 3)</f>
@@ -8305,7 +8316,7 @@
       </c>
       <c r="AS52">
         <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z52,$C$2:$C$100, 3)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT52">
         <f t="shared" ref="AT52:AU52" si="84">AP52-AR52</f>
@@ -8313,19 +8324,19 @@
       </c>
       <c r="AU52">
         <f t="shared" si="84"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV52">
         <f>AP52+AQ52</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AW52">
         <f>AR52+AS52</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX52">
         <f>(AP52+AQ52)-(AR52+AS52)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY52">
         <f t="shared" ref="AY52:AZ52" si="85">AP52/AN52</f>
@@ -8333,7 +8344,7 @@
       </c>
       <c r="AZ52">
         <f t="shared" si="85"/>
-        <v>1.3333333333333333</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BA52">
         <f t="shared" ref="BA52:BB52" si="86">AR52/AN52</f>
@@ -8341,15 +8352,15 @@
       </c>
       <c r="BB52">
         <f t="shared" si="86"/>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="BC52">
         <f>AV52/AA52</f>
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="BD52">
         <f>AW52/AA52</f>
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.25">
@@ -8450,7 +8461,7 @@
       </c>
       <c r="AK53">
         <f t="shared" ref="AK53:AK55" si="97">SUMPRODUCT(($K$2:$K$100=Z53)*($O$2:$O$100&lt;$N$2:$N$100))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL53">
         <f t="shared" ref="AL53:AL55" si="98">SUMPRODUCT(($J$2:$J$100=Z53)*($O$2:$O$100&lt;$N$2:$N$100))</f>
@@ -8470,7 +8481,7 @@
       </c>
       <c r="AP53">
         <f t="shared" ref="AP53:AP55" si="102">SUMIFS($O$2:$O$100, $K$2:$K$100, Z53,$C$2:$C$100, 3)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ53">
         <f t="shared" ref="AQ53:AQ55" si="103">SUMIFS($N$2:$N$100, $J$2:$J$100, Z53,$C$2:$C$100, 3)</f>
@@ -8478,7 +8489,7 @@
       </c>
       <c r="AR53">
         <f t="shared" ref="AR53:AR55" si="104">SUMIFS($N$2:$N$100, $K$2:$K$100, Z53,$C$2:$C$100, 3)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AS53">
         <f t="shared" ref="AS53:AS55" si="105">SUMIFS($O$2:$O$100, $J$2:$J$100, Z53,$C$2:$C$100, 3)</f>
@@ -8486,7 +8497,7 @@
       </c>
       <c r="AT53">
         <f t="shared" ref="AT53:AT55" si="106">AP53-AR53</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AU53">
         <f t="shared" ref="AU53:AU55" si="107">AQ53-AS53</f>
@@ -8494,19 +8505,19 @@
       </c>
       <c r="AV53">
         <f t="shared" ref="AV53:AV55" si="108">AP53+AQ53</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW53">
         <f t="shared" ref="AW53:AW55" si="109">AR53+AS53</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AX53">
         <f t="shared" ref="AX53:AX55" si="110">(AP53+AQ53)-(AR53+AS53)</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AY53">
         <f t="shared" ref="AY53:AY55" si="111">AP53/AN53</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AZ53">
         <f t="shared" ref="AZ53:AZ55" si="112">AQ53/AO53</f>
@@ -8514,7 +8525,7 @@
       </c>
       <c r="BA53">
         <f t="shared" ref="BA53:BA55" si="113">AR53/AN53</f>
-        <v>1.3333333333333333</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="BB53">
         <f t="shared" ref="BB53:BB55" si="114">AS53/AO53</f>
@@ -8522,11 +8533,11 @@
       </c>
       <c r="BC53">
         <f t="shared" ref="BC53:BC55" si="115">AV53/AA53</f>
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="BD53">
         <f t="shared" ref="BD53:BD55" si="116">AW53/AA53</f>
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.25">
@@ -10151,8 +10162,12 @@
       <c r="G79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+      <c r="H79" s="4">
+        <v>2</v>
+      </c>
+      <c r="I79" s="4">
+        <v>3</v>
+      </c>
       <c r="J79" s="2" t="s">
         <v>11</v>
       </c>
@@ -10165,12 +10180,18 @@
       <c r="M79" s="3">
         <v>45442</v>
       </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
+      <c r="N79" s="2">
+        <v>3</v>
+      </c>
+      <c r="O79" s="2">
+        <v>2</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0</v>
+      </c>
       <c r="Q79" s="2">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -10203,8 +10224,12 @@
       <c r="K80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
+      <c r="L80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80" s="3">
+        <v>45443</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABriggs\Documents\Coding Practice\Coding_Practice\Python\Hockey pool\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED15E10-44F3-4EBF-8D93-E8CDC33499A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E82A91A-A40A-4D47-ACF8-366CC628BC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -58,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="137">
   <si>
     <t>NYI</t>
   </si>
@@ -492,7 +481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -575,11 +564,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -670,6 +668,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,23 +689,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -707,79 +705,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -803,7 +729,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -815,7 +741,91 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -878,35 +888,11 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -918,79 +904,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1014,7 +928,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1026,7 +940,19 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1039,6 +965,90 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1070,12 +1080,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFF3300"/>
       <color rgb="FFFF6969"/>
       <color rgb="FF92001C"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFA50021"/>
-      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1090,9 +1100,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1130,7 +1140,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1236,7 +1246,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1378,7 +1388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1386,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
-  <dimension ref="A1:BL90"/>
+  <dimension ref="A1:BL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS($Q$2:$Q$100,$D$2:$D$100,Y3)</f>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y3)</f>
         <v>3</v>
       </c>
       <c r="AD3">
@@ -1677,11 +1687,11 @@
         <v>0.6</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z3,$C$2:$C$100,1) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z3,$C$2:$C$100,1)</f>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z3,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z3,$C$2:$C$99,1)</f>
         <v>20</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA3,$C$2:$C$100,1) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA3,$C$2:$C$100,1)</f>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA3,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA3,$C$2:$C$99,1)</f>
         <v>14</v>
       </c>
       <c r="AG3">
@@ -1768,7 +1778,7 @@
         <v>7</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC17" si="2">SUMIFS($Q$2:$Q$100,$D$2:$D$100,Y4)</f>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y4)</f>
         <v>4</v>
       </c>
       <c r="AD4">
@@ -1776,11 +1786,11 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE17" si="3">SUMIFS($O$2:$O$100,$K$2:$K$100,Z4,$C$2:$C$100,1) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z4,$C$2:$C$100,1)</f>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z4,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z4,$C$2:$C$99,1)</f>
         <v>18</v>
       </c>
       <c r="AF4">
-        <f t="shared" ref="AF4:AF10" si="4">SUMIFS($O$2:$O$100,$K$2:$K$100,AA4,$C$2:$C$100,1) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA4,$C$2:$C$100,1)</f>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA4,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA4,$C$2:$C$99,1)</f>
         <v>12</v>
       </c>
     </row>
@@ -1843,8 +1853,8 @@
       <c r="U5" s="2"/>
       <c r="V5" s="4"/>
       <c r="W5" s="6">
-        <f>COUNTA(H2:H100)</f>
-        <v>78</v>
+        <f>COUNTA(H2:H99)</f>
+        <v>81</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1863,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y5)</f>
         <v>3</v>
       </c>
       <c r="AD5">
@@ -1871,11 +1881,11 @@
         <v>0.6</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="3"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z5,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z5,$C$2:$C$99,1)</f>
         <v>19</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="4"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA5,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA5,$C$2:$C$99,1)</f>
         <v>12</v>
       </c>
     </row>
@@ -1938,8 +1948,8 @@
       <c r="U6" s="2"/>
       <c r="V6" s="4"/>
       <c r="W6" s="6">
-        <f>SUM(Q2:Q100)</f>
-        <v>48</v>
+        <f>SUM(Q2:Q99)</f>
+        <v>50</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="8" t="s">
@@ -1958,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y6)</f>
         <v>3</v>
       </c>
       <c r="AD6">
@@ -1966,11 +1976,11 @@
         <v>0.75</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="3"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z6,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z6,$C$2:$C$99,1)</f>
         <v>15</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="4"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA6,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA6,$C$2:$C$99,1)</f>
         <v>7</v>
       </c>
     </row>
@@ -2034,7 +2044,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.61538461538461542</v>
+        <v>0.61728395061728392</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2053,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y7)</f>
         <v>1</v>
       </c>
       <c r="AD7">
@@ -2061,11 +2071,11 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="3"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z7,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z7,$C$2:$C$99,1)</f>
         <v>13</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="4"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA7,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA7,$C$2:$C$99,1)</f>
         <v>12</v>
       </c>
     </row>
@@ -2142,7 +2152,7 @@
         <v>5</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y8)</f>
         <v>3</v>
       </c>
       <c r="AD8">
@@ -2150,11 +2160,11 @@
         <v>0.6</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="3"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z8,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z8,$C$2:$C$99,1)</f>
         <v>17</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="4"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA8,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA8,$C$2:$C$99,1)</f>
         <v>18</v>
       </c>
     </row>
@@ -2231,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y9)</f>
         <v>4</v>
       </c>
       <c r="AD9">
@@ -2239,11 +2249,11 @@
         <v>0.8</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="3"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z9,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z9,$C$2:$C$99,1)</f>
         <v>15</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="4"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA9,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA9,$C$2:$C$99,1)</f>
         <v>28</v>
       </c>
     </row>
@@ -2320,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y10)</f>
         <v>4</v>
       </c>
       <c r="AD10" s="11">
@@ -2328,11 +2338,11 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="3"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z10,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z10,$C$2:$C$99,1)</f>
         <v>17</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="4"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA10,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA10,$C$2:$C$99,1)</f>
         <v>16</v>
       </c>
       <c r="AG10" s="11"/>
@@ -2411,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y11)</f>
         <v>3</v>
       </c>
       <c r="AD11">
@@ -2419,11 +2429,11 @@
         <v>0.5</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z11,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z11,$C$2:$C$100,2)</f>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z11,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z11,$C$2:$C$99,2)</f>
         <v>20</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA11,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA11,$C$2:$C$100,2)</f>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA11,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA11,$C$2:$C$99,2)</f>
         <v>19</v>
       </c>
     </row>
@@ -2497,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y12)</f>
         <v>3</v>
       </c>
       <c r="AD12">
@@ -2505,11 +2515,11 @@
         <v>0.5</v>
       </c>
       <c r="AE12">
-        <f t="shared" ref="AE12:AE14" si="5">SUMIFS($O$2:$O$100,$K$2:$K$100,Z12,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z12,$C$2:$C$100,2)</f>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z12,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z12,$C$2:$C$99,2)</f>
         <v>19</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA12,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA12,$C$2:$C$100,2)</f>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA12,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA12,$C$2:$C$99,2)</f>
         <v>13</v>
       </c>
     </row>
@@ -2583,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y13)</f>
         <v>4</v>
       </c>
       <c r="AD13">
@@ -2591,11 +2601,11 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="5"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z13,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z13,$C$2:$C$99,2)</f>
         <v>22</v>
       </c>
       <c r="AF13">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA13,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA13,$C$2:$C$100,2)</f>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA13,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA13,$C$2:$C$99,2)</f>
         <v>14</v>
       </c>
     </row>
@@ -2669,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y14)</f>
         <v>6</v>
       </c>
       <c r="AD14" s="11">
@@ -2677,11 +2687,11 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="5"/>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z14,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z14,$C$2:$C$99,2)</f>
         <v>20</v>
       </c>
       <c r="AF14">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA14,$C$2:$C$100,2) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA14,$C$2:$C$100,2)</f>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA14,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA14,$C$2:$C$99,2)</f>
         <v>24</v>
       </c>
       <c r="AG14" s="11"/>
@@ -2757,23 +2767,23 @@
       </c>
       <c r="AB15" cm="1">
         <f t="array" ref="AB15">INDEX(E:E, MATCH(2, 1/(D:D=Y15)))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="2"/>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y15)</f>
         <v>4</v>
       </c>
       <c r="AD15">
         <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AE15">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z15,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z15,$C$2:$C$100,3)</f>
-        <v>11</v>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z15,$C$2:$C$99,3) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z15,$C$2:$C$99,3)</f>
+        <v>12</v>
       </c>
       <c r="AF15">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA15,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA15,$C$2:$C$100,3)</f>
-        <v>14</v>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA15,$C$2:$C$99,3) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA15,$C$2:$C$99,3)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -2843,23 +2853,23 @@
       </c>
       <c r="AB16" s="11" cm="1">
         <f t="array" ref="AB16">INDEX(E:E, MATCH(2, 1/(D:D=Y16)))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y16)</f>
+        <v>5</v>
       </c>
       <c r="AD16" s="11">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AE16">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,Z16,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,Z16,$C$2:$C$100,3)</f>
-        <v>12</v>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z16,$C$2:$C$99,3) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z16,$C$2:$C$99,3)</f>
+        <v>14</v>
       </c>
       <c r="AF16">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA16,$C$2:$C$100,3) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA16,$C$2:$C$100,3)</f>
-        <v>12</v>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA16,$C$2:$C$99,3) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA16,$C$2:$C$99,3)</f>
+        <v>17</v>
       </c>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
@@ -2924,32 +2934,32 @@
       <c r="Y17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Z17" s="14" t="e" cm="1">
+      <c r="Z17" s="14" t="str" cm="1">
         <f t="array" ref="Z17">INDEX(F:F, MATCH(2, 1/(D:D=Y17)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA17" s="14" t="e" cm="1">
+        <v>FLA</v>
+      </c>
+      <c r="AA17" s="14" t="str" cm="1">
         <f t="array" ref="AA17">INDEX(G:G, MATCH(2, 1/(D:D=Y17)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB17" s="14" t="e" cm="1">
+        <v>EDM</v>
+      </c>
+      <c r="AB17" s="14" cm="1">
         <f t="array" ref="AB17">INDEX(E:E, MATCH(2, 1/(D:D=Y17)))</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="28" t="e">
+        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y17)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="28">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z17,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z17,$C$2:$C$99,1)</f>
+        <v>20</v>
       </c>
       <c r="AF17">
-        <f>SUMIFS($O$2:$O$100,$K$2:$K$100,AA17,$C$2:$C$100,4) + SUMIFS($N$2:$N$100,$J$2:$J$100,AA17,$C$2:$C$100,4)</f>
+        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA17,$C$2:$C$99,4) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA17,$C$2:$C$99,4)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="14"/>
@@ -3344,11 +3354,11 @@
         <v>11</v>
       </c>
       <c r="AA22">
-        <f t="shared" ref="AA22:AA37" si="6">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA22:AA37" si="2">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AB22">
-        <f t="shared" ref="AB22:AB37" si="7">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB22:AB37" si="3">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC22">
@@ -3373,15 +3383,15 @@
       </c>
       <c r="AH22">
         <f>AJ22+AL22</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI22">
         <f>AE22-AH22</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ22" cm="1">
         <f t="array" ref="AJ22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK22" cm="1">
         <f t="array" ref="AK22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -3396,27 +3406,27 @@
         <v>2</v>
       </c>
       <c r="AN22">
-        <f t="shared" ref="AN22:AN37" si="8">COUNTIFS($K$2:$K$81,Z22,$C$2:$C$81,1)</f>
+        <f t="shared" ref="AN22:AN37" si="4">COUNTIFS($K$2:$K$81,Z22,$C$2:$C$81,1)</f>
         <v>3</v>
       </c>
       <c r="AO22">
-        <f t="shared" ref="AO22:AO37" si="9">COUNTIFS($J$2:$J$81,Z22,$C$2:$C$81,1)</f>
+        <f t="shared" ref="AO22:AO37" si="5">COUNTIFS($J$2:$J$81,Z22,$C$2:$C$81,1)</f>
         <v>2</v>
       </c>
       <c r="AP22">
-        <f t="shared" ref="AP22:AP37" si="10">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AP22:AP37" si="6">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
         <v>12</v>
       </c>
       <c r="AQ22">
-        <f t="shared" ref="AQ22:AQ37" si="11">SUMIFS($N$2:$N$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AQ22:AQ37" si="7">SUMIFS($N$2:$N$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
         <v>8</v>
       </c>
       <c r="AR22">
-        <f t="shared" ref="AR22:AR37" si="12">SUMIFS($N$2:$N$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AR22:AR37" si="8">SUMIFS($N$2:$N$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AS22">
-        <f t="shared" ref="AS22:AS37" si="13">SUMIFS($O$2:$O$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
+        <f t="shared" ref="AS22:AS37" si="9">SUMIFS($O$2:$O$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
         <v>9</v>
       </c>
       <c r="AT22">
@@ -3456,15 +3466,15 @@
         <v>4.5</v>
       </c>
       <c r="BC22">
-        <f t="shared" ref="BC22:BC37" si="14">AV22/AA22</f>
+        <f t="shared" ref="BC22:BC37" si="10">AV22/AA22</f>
         <v>4</v>
       </c>
       <c r="BD22">
-        <f t="shared" ref="BD22:BD37" si="15">AW22/AA22</f>
+        <f t="shared" ref="BD22:BD37" si="11">AW22/AA22</f>
         <v>2.8</v>
       </c>
       <c r="BG22">
-        <f t="shared" ref="BG22:BG37" si="16">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
+        <f t="shared" ref="BG22:BG37" si="12">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ22" t="e">
@@ -3530,39 +3540,39 @@
         <v>3</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AC23">
-        <f t="shared" ref="AC23:AC37" si="17">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC23:AC37" si="13">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AD23">
-        <f t="shared" ref="AD23:AD37" si="18">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD23:AD37" si="14">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AE37" si="19">AA23+AB23+AC23+AD23</f>
+        <f t="shared" ref="AE23:AE37" si="15">AA23+AB23+AC23+AD23</f>
         <v>13</v>
       </c>
       <c r="AF23">
-        <f t="shared" ref="AF23:AF37" si="20">COUNTIF($K$2:$K$81, Z23)</f>
+        <f t="shared" ref="AF23:AF37" si="16">COUNTIF($K$2:$K$81, Z23)</f>
         <v>7</v>
       </c>
       <c r="AG23">
-        <f t="shared" ref="AG23:AG37" si="21">COUNTIF($J$2:$J$81, Z23)</f>
+        <f t="shared" ref="AG23:AG37" si="17">COUNTIF($J$2:$J$81, Z23)</f>
         <v>6</v>
       </c>
       <c r="AH23">
-        <f t="shared" ref="AH23:AH37" si="22">AJ23+AL23</f>
+        <f t="shared" ref="AH23:AH37" si="18">AJ23+AL23</f>
         <v>6</v>
       </c>
       <c r="AI23">
-        <f t="shared" ref="AI23:AI37" si="23">AE23-AH23</f>
+        <f t="shared" ref="AI23:AI37" si="19">AE23-AH23</f>
         <v>7</v>
       </c>
       <c r="AJ23" cm="1">
@@ -3582,75 +3592,75 @@
         <v>2</v>
       </c>
       <c r="AN23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AR23">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AO23">
+        <v>7</v>
+      </c>
+      <c r="AS23">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AP23">
+        <v>5</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" ref="AT23:AT37" si="20">AP23-AR23</f>
+        <v>3</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" ref="AU23:AU37" si="21">AQ23-AS23</f>
+        <v>3</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" ref="AV23:AV37" si="22">AP23+AQ23</f>
+        <v>18</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" ref="AW23:AW37" si="23">AR23+AS23</f>
+        <v>12</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" ref="AX23:AX37" si="24">(AP23+AQ23)-(AR23+AS23)</f>
+        <v>6</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" ref="AY23:AY37" si="25">AP23/AN23</f>
+        <v>2.5</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" ref="AZ23:AZ37" si="26">AQ23/AO23</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" ref="BA23:BA37" si="27">AR23/AN23</f>
+        <v>1.75</v>
+      </c>
+      <c r="BB23">
+        <f t="shared" ref="BB23:BB37" si="28">AS23/AO23</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="BC23">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="AQ23">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="BD23">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AR23">
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="BG23">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AS23">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="AT23">
-        <f t="shared" ref="AT23:AT37" si="24">AP23-AR23</f>
-        <v>3</v>
-      </c>
-      <c r="AU23">
-        <f t="shared" ref="AU23:AU37" si="25">AQ23-AS23</f>
-        <v>3</v>
-      </c>
-      <c r="AV23">
-        <f t="shared" ref="AV23:AV37" si="26">AP23+AQ23</f>
-        <v>18</v>
-      </c>
-      <c r="AW23">
-        <f t="shared" ref="AW23:AW37" si="27">AR23+AS23</f>
-        <v>12</v>
-      </c>
-      <c r="AX23">
-        <f t="shared" ref="AX23:AX37" si="28">(AP23+AQ23)-(AR23+AS23)</f>
-        <v>6</v>
-      </c>
-      <c r="AY23">
-        <f t="shared" ref="AY23:AY37" si="29">AP23/AN23</f>
-        <v>2.5</v>
-      </c>
-      <c r="AZ23">
-        <f t="shared" ref="AZ23:AZ37" si="30">AQ23/AO23</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BA23">
-        <f t="shared" ref="BA23:BA37" si="31">AR23/AN23</f>
-        <v>1.75</v>
-      </c>
-      <c r="BB23">
-        <f t="shared" ref="BB23:BB37" si="32">AS23/AO23</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="BC23">
-        <f t="shared" si="14"/>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="BD23">
-        <f t="shared" si="15"/>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="BG23">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ23" t="e">
@@ -3716,39 +3726,39 @@
         <v>2</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AG24">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AH24">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE24">
+        <v>3</v>
+      </c>
+      <c r="AI24">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="AI24">
-        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ24" cm="1">
@@ -3768,75 +3778,75 @@
         <v>2</v>
       </c>
       <c r="AN24">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AR24">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AO24">
+        <v>8</v>
+      </c>
+      <c r="AS24">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AP24">
+        <v>10</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="20"/>
+        <v>-3</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="21"/>
+        <v>-3</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="24"/>
+        <v>-6</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="25"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="26"/>
+        <v>1.75</v>
+      </c>
+      <c r="BA24">
+        <f t="shared" si="27"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BB24">
+        <f t="shared" si="28"/>
+        <v>2.5</v>
+      </c>
+      <c r="BC24">
         <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="AQ24">
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="BD24">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AR24">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="BG24">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AS24">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="AT24">
-        <f t="shared" si="24"/>
-        <v>-3</v>
-      </c>
-      <c r="AU24">
-        <f t="shared" si="25"/>
-        <v>-3</v>
-      </c>
-      <c r="AV24">
-        <f t="shared" si="26"/>
-        <v>12</v>
-      </c>
-      <c r="AW24">
-        <f t="shared" si="27"/>
-        <v>18</v>
-      </c>
-      <c r="AX24">
-        <f t="shared" si="28"/>
-        <v>-6</v>
-      </c>
-      <c r="AY24">
-        <f t="shared" si="29"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AZ24">
-        <f t="shared" si="30"/>
-        <v>1.75</v>
-      </c>
-      <c r="BA24">
-        <f t="shared" si="31"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BB24">
-        <f t="shared" si="32"/>
-        <v>2.5</v>
-      </c>
-      <c r="BC24">
-        <f t="shared" si="14"/>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="BD24">
-        <f t="shared" si="15"/>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="BG24">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ24" t="e">
@@ -3902,39 +3912,39 @@
         <v>10</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AG25">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD25">
+        <v>3</v>
+      </c>
+      <c r="AH25">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
         <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AI25">
-        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ25" cm="1">
@@ -3954,75 +3964,75 @@
         <v>3</v>
       </c>
       <c r="AN25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AR25">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AO25">
+        <v>8</v>
+      </c>
+      <c r="AS25">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AP25">
+        <v>12</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="21"/>
+        <v>-7</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="24"/>
+        <v>-6</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="26"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="BA25">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="BB25">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="BC25">
         <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="AQ25">
+        <v>2.8</v>
+      </c>
+      <c r="BD25">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AR25">
+        <v>4</v>
+      </c>
+      <c r="BG25">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AS25">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="AT25">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AU25">
-        <f t="shared" si="25"/>
-        <v>-7</v>
-      </c>
-      <c r="AV25">
-        <f t="shared" si="26"/>
-        <v>14</v>
-      </c>
-      <c r="AW25">
-        <f t="shared" si="27"/>
-        <v>20</v>
-      </c>
-      <c r="AX25">
-        <f t="shared" si="28"/>
-        <v>-6</v>
-      </c>
-      <c r="AY25">
-        <f t="shared" si="29"/>
-        <v>4.5</v>
-      </c>
-      <c r="AZ25">
-        <f t="shared" si="30"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="BA25">
-        <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="BB25">
-        <f t="shared" si="32"/>
-        <v>4</v>
-      </c>
-      <c r="BC25">
-        <f t="shared" si="14"/>
-        <v>2.8</v>
-      </c>
-      <c r="BD25">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="BG25">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ25" t="e">
@@ -4088,39 +4098,39 @@
         <v>13</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AC26">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AG26">
         <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="AD26">
+        <v>8</v>
+      </c>
+      <c r="AH26">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE26">
+        <v>10</v>
+      </c>
+      <c r="AI26">
         <f t="shared" si="19"/>
-        <v>16</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="22"/>
-        <v>10</v>
-      </c>
-      <c r="AI26">
-        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="AJ26" cm="1">
@@ -4137,78 +4147,78 @@
       </c>
       <c r="AM26" cm="1">
         <f t="array" ref="AM26">SUMPRODUCT(($J$2:$J$81=Z26)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN26">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AR26">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AO26">
+        <v>4</v>
+      </c>
+      <c r="AS26">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AP26">
+        <v>3</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="AZ26">
+        <f t="shared" si="26"/>
+        <v>3.5</v>
+      </c>
+      <c r="BA26">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="BB26">
+        <f t="shared" si="28"/>
+        <v>1.5</v>
+      </c>
+      <c r="BC26">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="AQ26">
+        <v>3.75</v>
+      </c>
+      <c r="BD26">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AR26">
+        <v>1.75</v>
+      </c>
+      <c r="BG26">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AS26">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AT26">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="AU26">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="AV26">
-        <f t="shared" si="26"/>
-        <v>15</v>
-      </c>
-      <c r="AW26">
-        <f t="shared" si="27"/>
-        <v>7</v>
-      </c>
-      <c r="AX26">
-        <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="AY26">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="AZ26">
-        <f t="shared" si="30"/>
-        <v>3.5</v>
-      </c>
-      <c r="BA26">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="BB26">
-        <f t="shared" si="32"/>
-        <v>1.5</v>
-      </c>
-      <c r="BC26">
-        <f t="shared" si="14"/>
-        <v>3.75</v>
-      </c>
-      <c r="BD26">
-        <f t="shared" si="15"/>
-        <v>1.75</v>
-      </c>
-      <c r="BG26">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ26" t="e">
@@ -4274,39 +4284,39 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AC27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="AG27">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD27">
+        <v>5</v>
+      </c>
+      <c r="AH27">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE27">
+        <v>6</v>
+      </c>
+      <c r="AI27">
         <f t="shared" si="19"/>
-        <v>11</v>
-      </c>
-      <c r="AF27">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="AG27">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="AH27">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="AI27">
-        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AJ27" cm="1">
@@ -4326,75 +4336,75 @@
         <v>3</v>
       </c>
       <c r="AN27">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AR27">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AO27">
+        <v>7</v>
+      </c>
+      <c r="AS27">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AP27">
-        <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="AQ27">
-        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="AR27">
-        <f t="shared" si="12"/>
+      <c r="AT27">
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="AS27">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="AT27">
+      <c r="AU27">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="AX27">
         <f t="shared" si="24"/>
         <v>7</v>
       </c>
-      <c r="AU27">
+      <c r="AY27">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AV27">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AZ27">
         <f t="shared" si="26"/>
-        <v>19</v>
-      </c>
-      <c r="AW27">
+        <v>2.5</v>
+      </c>
+      <c r="BA27">
         <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-      <c r="AX27">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB27">
         <f t="shared" si="28"/>
-        <v>7</v>
-      </c>
-      <c r="AY27">
-        <f t="shared" si="29"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AZ27">
-        <f t="shared" si="30"/>
         <v>2.5</v>
       </c>
-      <c r="BA27">
-        <f t="shared" si="31"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BB27">
-        <f t="shared" si="32"/>
-        <v>2.5</v>
-      </c>
       <c r="BC27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.8</v>
       </c>
       <c r="BD27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
       <c r="BG27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ27" t="e">
@@ -4460,127 +4470,127 @@
         <v>0</v>
       </c>
       <c r="AA28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="AJ28" cm="1">
+        <f t="array" ref="AJ28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AK28" cm="1">
+        <f t="array" ref="AK28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>1</v>
+      </c>
+      <c r="AL28" cm="1">
+        <f t="array" ref="AL28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>0</v>
+      </c>
+      <c r="AM28" cm="1">
+        <f t="array" ref="AM28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AP28">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="AB28">
+      <c r="AQ28">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="AF28">
+      <c r="AS28">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="AT28">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
         <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AH28">
+        <v>-7</v>
+      </c>
+      <c r="AV28">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AI28">
+        <v>12</v>
+      </c>
+      <c r="AW28">
         <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="AJ28" cm="1">
-        <f t="array" ref="AJ28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AK28" cm="1">
-        <f t="array" ref="AK28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AL28" cm="1">
-        <f t="array" ref="AL28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>0</v>
-      </c>
-      <c r="AM28" cm="1">
-        <f t="array" ref="AM28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AN28">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AO28">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AP28">
+        <v>19</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="24"/>
+        <v>-7</v>
+      </c>
+      <c r="AY28">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="AZ28">
+        <f t="shared" si="26"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA28">
+        <f t="shared" si="27"/>
+        <v>2.5</v>
+      </c>
+      <c r="BB28">
+        <f t="shared" si="28"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="BC28">
         <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="AQ28">
+        <v>2.4</v>
+      </c>
+      <c r="BD28">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AR28">
+        <v>3.8</v>
+      </c>
+      <c r="BG28">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AS28">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="AT28">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <f t="shared" si="25"/>
-        <v>-7</v>
-      </c>
-      <c r="AV28">
-        <f t="shared" si="26"/>
-        <v>12</v>
-      </c>
-      <c r="AW28">
-        <f t="shared" si="27"/>
-        <v>19</v>
-      </c>
-      <c r="AX28">
-        <f t="shared" si="28"/>
-        <v>-7</v>
-      </c>
-      <c r="AY28">
-        <f t="shared" si="29"/>
-        <v>2.5</v>
-      </c>
-      <c r="AZ28">
-        <f t="shared" si="30"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BA28">
-        <f t="shared" si="31"/>
-        <v>2.5</v>
-      </c>
-      <c r="BB28">
-        <f t="shared" si="32"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="BC28">
-        <f t="shared" si="14"/>
-        <v>2.4</v>
-      </c>
-      <c r="BD28">
-        <f t="shared" si="15"/>
-        <v>3.8</v>
-      </c>
-      <c r="BG28">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ28" t="e">
@@ -4646,39 +4656,39 @@
         <v>12</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AG29">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AH29">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE29">
+      <c r="AI29">
         <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AF29">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="AG29">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AH29">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ29" cm="1">
@@ -4698,75 +4708,75 @@
         <v>2</v>
       </c>
       <c r="AN29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AR29">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AO29">
+        <v>7</v>
+      </c>
+      <c r="AS29">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AP29">
+        <v>8</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="20"/>
+        <v>-4</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="21"/>
+        <v>-4</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="24"/>
+        <v>-8</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="AZ29">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="BA29">
+        <f t="shared" si="27"/>
+        <v>3.5</v>
+      </c>
+      <c r="BB29">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="BC29">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="BD29">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AR29">
+        <v>3.75</v>
+      </c>
+      <c r="BG29">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AS29">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AT29">
-        <f t="shared" si="24"/>
-        <v>-4</v>
-      </c>
-      <c r="AU29">
-        <f t="shared" si="25"/>
-        <v>-4</v>
-      </c>
-      <c r="AV29">
-        <f t="shared" si="26"/>
-        <v>7</v>
-      </c>
-      <c r="AW29">
-        <f t="shared" si="27"/>
-        <v>15</v>
-      </c>
-      <c r="AX29">
-        <f t="shared" si="28"/>
-        <v>-8</v>
-      </c>
-      <c r="AY29">
-        <f t="shared" si="29"/>
-        <v>1.5</v>
-      </c>
-      <c r="AZ29">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="BA29">
-        <f t="shared" si="31"/>
-        <v>3.5</v>
-      </c>
-      <c r="BB29">
-        <f t="shared" si="32"/>
-        <v>4</v>
-      </c>
-      <c r="BC29">
-        <f t="shared" si="14"/>
-        <v>1.75</v>
-      </c>
-      <c r="BD29">
-        <f t="shared" si="15"/>
-        <v>3.75</v>
-      </c>
-      <c r="BG29">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ29" t="e">
@@ -4832,127 +4842,127 @@
         <v>17</v>
       </c>
       <c r="AA30">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="AJ30" cm="1">
+        <f t="array" ref="AJ30">SUMPRODUCT(($K$2:$K$81=Z30)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK30" cm="1">
+        <f t="array" ref="AK30">SUMPRODUCT(($K$2:$K$81=Z30)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AL30" cm="1">
+        <f t="array" ref="AL30">SUMPRODUCT(($J$2:$J$81=Z30)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM30" cm="1">
+        <f t="array" ref="AM30">SUMPRODUCT(($J$2:$J$81=Z30)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AP30">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="AB30">
+      <c r="AQ30">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="AC30">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="19"/>
+      <c r="AR30">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="20"/>
+        <v>-2</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
-      <c r="AF30">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="AI30">
+      <c r="AW30">
         <f t="shared" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="AJ30" cm="1">
-        <f t="array" ref="AJ30">SUMPRODUCT(($K$2:$K$81=Z30)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AK30" cm="1">
-        <f t="array" ref="AK30">SUMPRODUCT(($K$2:$K$81=Z30)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AL30" cm="1">
-        <f t="array" ref="AL30">SUMPRODUCT(($J$2:$J$81=Z30)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM30" cm="1">
-        <f t="array" ref="AM30">SUMPRODUCT(($J$2:$J$81=Z30)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN30">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AO30">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AP30">
+        <v>12</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="AZ30">
+        <f t="shared" si="26"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA30">
+        <f t="shared" si="27"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BB30">
+        <f t="shared" si="28"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="BC30">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="AQ30">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="BD30">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AR30">
+        <v>2</v>
+      </c>
+      <c r="BG30">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AS30">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="AT30">
-        <f t="shared" si="24"/>
-        <v>-2</v>
-      </c>
-      <c r="AU30">
-        <f t="shared" si="25"/>
-        <v>3</v>
-      </c>
-      <c r="AV30">
-        <f t="shared" si="26"/>
-        <v>13</v>
-      </c>
-      <c r="AW30">
-        <f t="shared" si="27"/>
-        <v>12</v>
-      </c>
-      <c r="AX30">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AZ30">
-        <f t="shared" si="30"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BA30">
-        <f t="shared" si="31"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BB30">
-        <f t="shared" si="32"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="BC30">
-        <f t="shared" si="14"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="BD30">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BG30">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ30" t="e">
@@ -5018,40 +5028,40 @@
         <v>21</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AC31">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AG31">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="AD31">
+        <v>9</v>
+      </c>
+      <c r="AH31">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE31">
+        <v>10</v>
+      </c>
+      <c r="AI31">
         <f t="shared" si="19"/>
-        <v>17</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" si="22"/>
-        <v>9</v>
-      </c>
-      <c r="AI31">
-        <f t="shared" si="23"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ31" cm="1">
         <f t="array" ref="AJ31">SUMPRODUCT(($K$2:$K$81=Z31)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -5063,82 +5073,82 @@
       </c>
       <c r="AL31" cm="1">
         <f t="array" ref="AL31">SUMPRODUCT(($J$2:$J$81=Z31)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM31" cm="1">
         <f t="array" ref="AM31">SUMPRODUCT(($J$2:$J$81=Z31)*($O$2:$O$81&gt;$N$2:$N$81))</f>
         <v>4</v>
       </c>
       <c r="AN31">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AR31">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AO31">
+        <v>12</v>
+      </c>
+      <c r="AS31">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AP31">
+        <v>6</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="21"/>
+        <v>-4</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="AZ31">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="BA31">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="BC31">
         <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="AQ31">
+        <v>3.4</v>
+      </c>
+      <c r="BD31">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AR31">
+        <v>3.6</v>
+      </c>
+      <c r="BG31">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="AS31">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="AT31">
-        <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="AU31">
-        <f t="shared" si="25"/>
-        <v>-4</v>
-      </c>
-      <c r="AV31">
-        <f t="shared" si="26"/>
-        <v>17</v>
-      </c>
-      <c r="AW31">
-        <f t="shared" si="27"/>
-        <v>18</v>
-      </c>
-      <c r="AX31">
-        <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="AY31">
-        <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="AZ31">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="BA31">
-        <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="BB31">
-        <f t="shared" si="32"/>
-        <v>3</v>
-      </c>
-      <c r="BC31">
-        <f t="shared" si="14"/>
-        <v>3.4</v>
-      </c>
-      <c r="BD31">
-        <f t="shared" si="15"/>
-        <v>3.6</v>
-      </c>
-      <c r="BG31">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ31" t="e">
@@ -5204,39 +5214,39 @@
         <v>20</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AG32">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD32">
+        <v>3</v>
+      </c>
+      <c r="AH32">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE32">
+        <v>2</v>
+      </c>
+      <c r="AI32">
         <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="AI32">
-        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AJ32" cm="1">
@@ -5256,75 +5266,75 @@
         <v>2</v>
       </c>
       <c r="AN32">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AR32">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AO32">
+      <c r="AS32">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AP32">
+        <v>15</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="21"/>
+        <v>-3</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AY32">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="AZ32">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="BA32">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="BC32">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="AQ32">
+        <v>3.6</v>
+      </c>
+      <c r="BD32">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="AR32">
+        <v>3.4</v>
+      </c>
+      <c r="BG32">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AS32">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="AT32">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="AU32">
-        <f t="shared" si="25"/>
-        <v>-3</v>
-      </c>
-      <c r="AV32">
-        <f t="shared" si="26"/>
-        <v>18</v>
-      </c>
-      <c r="AW32">
-        <f t="shared" si="27"/>
-        <v>17</v>
-      </c>
-      <c r="AX32">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AY32">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="AZ32">
-        <f t="shared" si="30"/>
-        <v>4</v>
-      </c>
-      <c r="BA32">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="BB32">
-        <f t="shared" si="32"/>
-        <v>5</v>
-      </c>
-      <c r="BC32">
-        <f t="shared" si="14"/>
-        <v>3.6</v>
-      </c>
-      <c r="BD32">
-        <f t="shared" si="15"/>
-        <v>3.4</v>
-      </c>
-      <c r="BG32">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ32" t="e">
@@ -5390,39 +5400,39 @@
         <v>16</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AG33">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD33">
+        <v>3</v>
+      </c>
+      <c r="AH33">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE33">
+        <v>2</v>
+      </c>
+      <c r="AI33">
         <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="AI33">
-        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ33" cm="1">
@@ -5442,75 +5452,75 @@
         <v>1</v>
       </c>
       <c r="AN33">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AR33">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AO33">
+        <v>7</v>
+      </c>
+      <c r="AS33">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AP33">
+        <v>6</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="20"/>
+        <v>-3</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="AX33">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="AY33">
+        <f t="shared" si="25"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AZ33">
+        <f t="shared" si="26"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BA33">
+        <f t="shared" si="27"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB33">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="BC33">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="AQ33">
+        <v>2</v>
+      </c>
+      <c r="BD33">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AR33">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="BG33">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AS33">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="AT33">
-        <f t="shared" si="24"/>
-        <v>-3</v>
-      </c>
-      <c r="AU33">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AV33">
-        <f t="shared" si="26"/>
-        <v>12</v>
-      </c>
-      <c r="AW33">
-        <f t="shared" si="27"/>
-        <v>13</v>
-      </c>
-      <c r="AX33">
-        <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="AY33">
-        <f t="shared" si="29"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AZ33">
-        <f t="shared" si="30"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BA33">
-        <f t="shared" si="31"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BB33">
-        <f t="shared" si="32"/>
-        <v>2</v>
-      </c>
-      <c r="BC33">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="BD33">
-        <f t="shared" si="15"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="BG33">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ33" t="e">
@@ -5576,39 +5586,39 @@
         <v>19</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AC34">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="AG34">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="AD34">
+        <v>8</v>
+      </c>
+      <c r="AH34">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE34">
+        <v>10</v>
+      </c>
+      <c r="AI34">
         <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-      <c r="AF34">
-        <f t="shared" si="20"/>
-        <v>10</v>
-      </c>
-      <c r="AG34">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="AH34">
-        <f t="shared" si="22"/>
-        <v>10</v>
-      </c>
-      <c r="AI34">
-        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="AJ34" cm="1">
@@ -5617,7 +5627,7 @@
       </c>
       <c r="AK34" cm="1">
         <f t="array" ref="AK34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL34" cm="1">
         <f t="array" ref="AL34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -5628,75 +5638,75 @@
         <v>2</v>
       </c>
       <c r="AN34">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AR34">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AO34">
+        <v>10</v>
+      </c>
+      <c r="AS34">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AP34">
+        <v>6</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AY34">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="AZ34">
+        <f t="shared" si="26"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA34">
+        <f t="shared" si="27"/>
+        <v>2.5</v>
+      </c>
+      <c r="BB34">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="BC34">
         <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="AQ34">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="BD34">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AR34">
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="BG34">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="AS34">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="AT34">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AU34">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AV34">
-        <f t="shared" si="26"/>
-        <v>17</v>
-      </c>
-      <c r="AW34">
-        <f t="shared" si="27"/>
-        <v>16</v>
-      </c>
-      <c r="AX34">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AY34">
-        <f t="shared" si="29"/>
-        <v>2.5</v>
-      </c>
-      <c r="AZ34">
-        <f t="shared" si="30"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BA34">
-        <f t="shared" si="31"/>
-        <v>2.5</v>
-      </c>
-      <c r="BB34">
-        <f t="shared" si="32"/>
-        <v>2</v>
-      </c>
-      <c r="BC34">
-        <f t="shared" si="14"/>
-        <v>2.4285714285714284</v>
-      </c>
-      <c r="BD34">
-        <f t="shared" si="15"/>
-        <v>2.2857142857142856</v>
-      </c>
-      <c r="BG34">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ34" t="e">
@@ -5754,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35:Q49" si="33">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <f t="shared" ref="Q35:Q49" si="29">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>1</v>
       </c>
       <c r="V35" s="4"/>
@@ -5762,39 +5772,39 @@
         <v>15</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AG35">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AI35">
         <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AI35">
-        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ35" cm="1">
@@ -5814,75 +5824,75 @@
         <v>2</v>
       </c>
       <c r="AN35">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AR35">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AO35">
+        <v>17</v>
+      </c>
+      <c r="AS35">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AP35">
+        <v>11</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="20"/>
+        <v>-5</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="21"/>
+        <v>-8</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="AX35">
+        <f t="shared" si="24"/>
+        <v>-13</v>
+      </c>
+      <c r="AY35">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="AZ35">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="BA35">
+        <f t="shared" si="27"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="BB35">
+        <f t="shared" si="28"/>
+        <v>5.5</v>
+      </c>
+      <c r="BC35">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="AQ35">
+        <v>3</v>
+      </c>
+      <c r="BD35">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="AR35">
+        <v>5.6</v>
+      </c>
+      <c r="BG35">
         <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="AS35">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="AT35">
-        <f t="shared" si="24"/>
-        <v>-5</v>
-      </c>
-      <c r="AU35">
-        <f t="shared" si="25"/>
-        <v>-8</v>
-      </c>
-      <c r="AV35">
-        <f t="shared" si="26"/>
-        <v>15</v>
-      </c>
-      <c r="AW35">
-        <f t="shared" si="27"/>
-        <v>28</v>
-      </c>
-      <c r="AX35">
-        <f t="shared" si="28"/>
-        <v>-13</v>
-      </c>
-      <c r="AY35">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="AZ35">
-        <f t="shared" si="30"/>
-        <v>1.5</v>
-      </c>
-      <c r="BA35">
-        <f t="shared" si="31"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="BB35">
-        <f t="shared" si="32"/>
-        <v>5.5</v>
-      </c>
-      <c r="BC35">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="BD35">
-        <f t="shared" si="15"/>
-        <v>5.6</v>
-      </c>
-      <c r="BG35">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ35" t="e">
@@ -5940,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V36" s="4"/>
@@ -5948,39 +5958,39 @@
         <v>14</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AC36">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AG36">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD36">
+        <v>6</v>
+      </c>
+      <c r="AH36">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE36">
+        <v>6</v>
+      </c>
+      <c r="AI36">
         <f t="shared" si="19"/>
-        <v>11</v>
-      </c>
-      <c r="AF36">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="AG36">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="AI36">
-        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AJ36" cm="1">
@@ -6000,75 +6010,75 @@
         <v>2</v>
       </c>
       <c r="AN36">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="AR36">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AS36">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AP36">
+        <v>12</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="AW36">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="AX36">
+        <f t="shared" si="24"/>
+        <v>13</v>
+      </c>
+      <c r="AY36">
+        <f t="shared" si="25"/>
+        <v>5.5</v>
+      </c>
+      <c r="AZ36">
+        <f t="shared" si="26"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="BA36">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="BB36">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="BC36">
         <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="AQ36">
+        <v>5.6</v>
+      </c>
+      <c r="BD36">
         <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="AR36">
+        <v>3</v>
+      </c>
+      <c r="BG36">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AS36">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="AT36">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="AU36">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="AV36">
-        <f t="shared" si="26"/>
-        <v>28</v>
-      </c>
-      <c r="AW36">
-        <f t="shared" si="27"/>
-        <v>15</v>
-      </c>
-      <c r="AX36">
-        <f t="shared" si="28"/>
-        <v>13</v>
-      </c>
-      <c r="AY36">
-        <f t="shared" si="29"/>
-        <v>5.5</v>
-      </c>
-      <c r="AZ36">
-        <f t="shared" si="30"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="BA36">
-        <f t="shared" si="31"/>
-        <v>1.5</v>
-      </c>
-      <c r="BB36">
-        <f t="shared" si="32"/>
-        <v>4</v>
-      </c>
-      <c r="BC36">
-        <f t="shared" si="14"/>
-        <v>5.6</v>
-      </c>
-      <c r="BD36">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="BG36">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BJ36" t="e">
@@ -6126,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V37" s="4"/>
@@ -6134,39 +6144,39 @@
         <v>18</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC37">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AG37">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD37">
+        <v>4</v>
+      </c>
+      <c r="AH37">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE37">
+        <v>3</v>
+      </c>
+      <c r="AI37">
         <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="AF37">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="AG37">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="AH37">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="AI37">
-        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AJ37" cm="1">
@@ -6186,75 +6196,75 @@
         <v>2</v>
       </c>
       <c r="AN37">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AR37">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AO37">
+        <v>7</v>
+      </c>
+      <c r="AS37">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AP37">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="AQ37">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="AR37">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AS37">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
       <c r="AT37">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="AW37">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="AX37">
         <f t="shared" si="24"/>
         <v>-1</v>
       </c>
-      <c r="AU37">
+      <c r="AY37">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AV37">
+        <v>2</v>
+      </c>
+      <c r="AZ37">
         <f t="shared" si="26"/>
-        <v>16</v>
-      </c>
-      <c r="AW37">
+        <v>2.5</v>
+      </c>
+      <c r="BA37">
         <f t="shared" si="27"/>
-        <v>17</v>
-      </c>
-      <c r="AX37">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB37">
         <f t="shared" si="28"/>
-        <v>-1</v>
-      </c>
-      <c r="AY37">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AZ37">
-        <f t="shared" si="30"/>
         <v>2.5</v>
       </c>
-      <c r="BA37">
-        <f t="shared" si="31"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BB37">
-        <f t="shared" si="32"/>
-        <v>2.5</v>
-      </c>
       <c r="BC37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="BD37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2.4285714285714284</v>
       </c>
       <c r="BG37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ37" t="e">
@@ -6312,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V38" s="4"/>
@@ -6367,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V39" s="4"/>
@@ -6422,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V40" s="4"/>
@@ -6567,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V41" s="4"/>
@@ -6575,11 +6585,11 @@
         <v>11</v>
       </c>
       <c r="AA41">
-        <f t="shared" ref="AA41:AA42" si="34">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA41:AA42" si="30">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 1)</f>
         <v>5</v>
       </c>
       <c r="AB41">
-        <f t="shared" ref="AB41:AB42" si="35">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB41:AB42" si="31">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC41">
@@ -6604,15 +6614,15 @@
       </c>
       <c r="AH41">
         <f>AJ41+AL41</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI41">
         <f>AE41-AH41</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ41" cm="1">
         <f t="array" ref="AJ41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK41" cm="1">
         <f t="array" ref="AK41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -6745,46 +6755,46 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z42" t="s">
         <v>3</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="AC42">
-        <f t="shared" ref="AC42" si="36">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC42" si="32">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="shared" ref="AD42" si="37">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD42" si="33">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="shared" ref="AE42" si="38">AA42+AB42+AC42+AD42</f>
+        <f t="shared" ref="AE42" si="34">AA42+AB42+AC42+AD42</f>
         <v>13</v>
       </c>
       <c r="AF42">
-        <f t="shared" ref="AF42" si="39">COUNTIF($K$2:$K$81, Z42)</f>
+        <f t="shared" ref="AF42" si="35">COUNTIF($K$2:$K$81, Z42)</f>
         <v>7</v>
       </c>
       <c r="AG42">
-        <f t="shared" ref="AG42" si="40">COUNTIF($J$2:$J$81, Z42)</f>
+        <f t="shared" ref="AG42" si="36">COUNTIF($J$2:$J$81, Z42)</f>
         <v>6</v>
       </c>
       <c r="AH42">
-        <f t="shared" ref="AH42" si="41">AJ42+AL42</f>
+        <f t="shared" ref="AH42" si="37">AJ42+AL42</f>
         <v>6</v>
       </c>
       <c r="AI42">
-        <f t="shared" ref="AI42" si="42">AE42-AH42</f>
+        <f t="shared" ref="AI42" si="38">AE42-AH42</f>
         <v>7</v>
       </c>
       <c r="AJ42" cm="1">
@@ -6804,71 +6814,71 @@
         <v>2</v>
       </c>
       <c r="AN42">
-        <f t="shared" ref="AN42" si="43">COUNTIFS($K$2:$K$81,Z42,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AN42" si="39">COUNTIFS($K$2:$K$81,Z42,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AO42">
-        <f t="shared" ref="AO42" si="44">COUNTIFS($J$2:$J$81,Z42,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AO42" si="40">COUNTIFS($J$2:$J$81,Z42,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AP42">
-        <f t="shared" ref="AP42" si="45">SUMIFS($O$2:$O$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AP42" si="41">SUMIFS($O$2:$O$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
         <v>5</v>
       </c>
       <c r="AQ42">
-        <f t="shared" ref="AQ42" si="46">SUMIFS($N$2:$N$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AQ42" si="42">SUMIFS($N$2:$N$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
         <v>8</v>
       </c>
       <c r="AR42">
-        <f t="shared" ref="AR42" si="47">SUMIFS($N$2:$N$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AR42" si="43">SUMIFS($N$2:$N$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
         <v>11</v>
       </c>
       <c r="AS42">
-        <f t="shared" ref="AS42" si="48">SUMIFS($O$2:$O$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AS42" si="44">SUMIFS($O$2:$O$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
         <v>8</v>
       </c>
       <c r="AT42">
-        <f t="shared" ref="AT42" si="49">AP42-AR42</f>
+        <f t="shared" ref="AT42" si="45">AP42-AR42</f>
         <v>-6</v>
       </c>
       <c r="AU42">
-        <f t="shared" ref="AU42" si="50">AQ42-AS42</f>
+        <f t="shared" ref="AU42" si="46">AQ42-AS42</f>
         <v>0</v>
       </c>
       <c r="AV42">
-        <f t="shared" ref="AV42" si="51">AP42+AQ42</f>
+        <f t="shared" ref="AV42" si="47">AP42+AQ42</f>
         <v>13</v>
       </c>
       <c r="AW42">
-        <f t="shared" ref="AW42" si="52">AR42+AS42</f>
+        <f t="shared" ref="AW42" si="48">AR42+AS42</f>
         <v>19</v>
       </c>
       <c r="AX42">
-        <f t="shared" ref="AX42" si="53">(AP42+AQ42)-(AR42+AS42)</f>
+        <f t="shared" ref="AX42" si="49">(AP42+AQ42)-(AR42+AS42)</f>
         <v>-6</v>
       </c>
       <c r="AY42">
-        <f t="shared" ref="AY42" si="54">AP42/AN42</f>
+        <f t="shared" ref="AY42" si="50">AP42/AN42</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="AZ42">
-        <f t="shared" ref="AZ42" si="55">AQ42/AO42</f>
+        <f t="shared" ref="AZ42" si="51">AQ42/AO42</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA42">
-        <f t="shared" ref="BA42" si="56">AR42/AN42</f>
+        <f t="shared" ref="BA42" si="52">AR42/AN42</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="BB42">
-        <f t="shared" ref="BB42" si="57">AS42/AO42</f>
+        <f t="shared" ref="BB42" si="53">AS42/AO42</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BC42">
-        <f t="shared" ref="BC42" si="58">AV42/AA42</f>
+        <f t="shared" ref="BC42" si="54">AV42/AA42</f>
         <v>1.8571428571428572</v>
       </c>
       <c r="BD42">
-        <f t="shared" ref="BD42" si="59">AW42/AA42</f>
+        <f t="shared" ref="BD42" si="55">AW42/AA42</f>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -6922,46 +6932,46 @@
         <v>0</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z43" t="s">
         <v>13</v>
       </c>
       <c r="AA43">
-        <f t="shared" ref="AA43:AA48" si="60">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA43:AA48" si="56">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 1)</f>
         <v>4</v>
       </c>
       <c r="AB43">
-        <f t="shared" ref="AB43:AB48" si="61">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB43:AB48" si="57">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC43">
-        <f t="shared" ref="AC43:AC48" si="62">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC43:AC48" si="58">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 3)</f>
         <v>6</v>
       </c>
       <c r="AD43">
-        <f t="shared" ref="AD43:AD48" si="63">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD43:AD48" si="59">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" ref="AE43:AE48" si="64">AA43+AB43+AC43+AD43</f>
+        <f t="shared" ref="AE43:AE48" si="60">AA43+AB43+AC43+AD43</f>
         <v>16</v>
       </c>
       <c r="AF43">
-        <f t="shared" ref="AF43:AF48" si="65">COUNTIF($K$2:$K$81, Z43)</f>
+        <f t="shared" ref="AF43:AF48" si="61">COUNTIF($K$2:$K$81, Z43)</f>
         <v>8</v>
       </c>
       <c r="AG43">
-        <f t="shared" ref="AG43:AG48" si="66">COUNTIF($J$2:$J$81, Z43)</f>
+        <f t="shared" ref="AG43:AG48" si="62">COUNTIF($J$2:$J$81, Z43)</f>
         <v>8</v>
       </c>
       <c r="AH43">
-        <f t="shared" ref="AH43:AH48" si="67">AJ43+AL43</f>
+        <f t="shared" ref="AH43:AH48" si="63">AJ43+AL43</f>
         <v>10</v>
       </c>
       <c r="AI43">
-        <f t="shared" ref="AI43:AI48" si="68">AE43-AH43</f>
+        <f t="shared" ref="AI43:AI48" si="64">AE43-AH43</f>
         <v>6</v>
       </c>
       <c r="AJ43" cm="1">
@@ -6978,74 +6988,74 @@
       </c>
       <c r="AM43" cm="1">
         <f t="array" ref="AM43">SUMPRODUCT(($J$2:$J$81=Z43)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN43">
-        <f t="shared" ref="AN43:AN48" si="69">COUNTIFS($K$2:$K$81,Z43,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AN43:AN48" si="65">COUNTIFS($K$2:$K$81,Z43,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AO43">
-        <f t="shared" ref="AO43:AO48" si="70">COUNTIFS($J$2:$J$81,Z43,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AO43:AO48" si="66">COUNTIFS($J$2:$J$81,Z43,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AP43">
-        <f t="shared" ref="AP43:AP48" si="71">SUMIFS($O$2:$O$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AP43:AP48" si="67">SUMIFS($O$2:$O$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
         <v>9</v>
       </c>
       <c r="AQ43">
-        <f t="shared" ref="AQ43:AQ48" si="72">SUMIFS($N$2:$N$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AQ43:AQ48" si="68">SUMIFS($N$2:$N$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
         <v>11</v>
       </c>
       <c r="AR43">
-        <f t="shared" ref="AR43:AR48" si="73">SUMIFS($N$2:$N$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AR43:AR48" si="69">SUMIFS($N$2:$N$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
         <v>10</v>
       </c>
       <c r="AS43">
-        <f t="shared" ref="AS43:AS48" si="74">SUMIFS($O$2:$O$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AS43:AS48" si="70">SUMIFS($O$2:$O$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
         <v>9</v>
       </c>
       <c r="AT43">
-        <f t="shared" ref="AT43:AU48" si="75">AP43-AR43</f>
+        <f t="shared" ref="AT43:AU48" si="71">AP43-AR43</f>
         <v>-1</v>
       </c>
       <c r="AU43">
+        <f t="shared" si="71"/>
+        <v>2</v>
+      </c>
+      <c r="AV43">
+        <f t="shared" ref="AV43:AV48" si="72">AP43+AQ43</f>
+        <v>20</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" ref="AW43:AW48" si="73">AR43+AS43</f>
+        <v>19</v>
+      </c>
+      <c r="AX43">
+        <f t="shared" ref="AX43:AX48" si="74">(AP43+AQ43)-(AR43+AS43)</f>
+        <v>1</v>
+      </c>
+      <c r="AY43">
+        <f t="shared" ref="AY43:AZ48" si="75">AP43/AN43</f>
+        <v>3</v>
+      </c>
+      <c r="AZ43">
         <f t="shared" si="75"/>
-        <v>2</v>
-      </c>
-      <c r="AV43">
-        <f t="shared" ref="AV43:AV48" si="76">AP43+AQ43</f>
-        <v>20</v>
-      </c>
-      <c r="AW43">
-        <f t="shared" ref="AW43:AW48" si="77">AR43+AS43</f>
-        <v>19</v>
-      </c>
-      <c r="AX43">
-        <f t="shared" ref="AX43:AX48" si="78">(AP43+AQ43)-(AR43+AS43)</f>
-        <v>1</v>
-      </c>
-      <c r="AY43">
-        <f t="shared" ref="AY43:AZ48" si="79">AP43/AN43</f>
-        <v>3</v>
-      </c>
-      <c r="AZ43">
-        <f t="shared" si="79"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BA43">
-        <f t="shared" ref="BA43:BB48" si="80">AR43/AN43</f>
+        <f t="shared" ref="BA43:BB48" si="76">AR43/AN43</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="BB43">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="BC43">
-        <f t="shared" ref="BC43:BC48" si="81">AV43/AA43</f>
+        <f t="shared" ref="BC43:BC48" si="77">AV43/AA43</f>
         <v>5</v>
       </c>
       <c r="BD43">
-        <f t="shared" ref="BD43:BD48" si="82">AW43/AA43</f>
+        <f t="shared" ref="BD43:BD48" si="78">AW43/AA43</f>
         <v>4.75</v>
       </c>
     </row>
@@ -7099,46 +7109,46 @@
         <v>1</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z44" t="s">
         <v>1</v>
       </c>
       <c r="AA44">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AE44">
         <f t="shared" si="60"/>
-        <v>5</v>
-      </c>
-      <c r="AB44">
+        <v>11</v>
+      </c>
+      <c r="AF44">
         <f t="shared" si="61"/>
         <v>6</v>
       </c>
-      <c r="AC44">
+      <c r="AG44">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AD44">
+        <v>5</v>
+      </c>
+      <c r="AH44">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AE44">
+        <v>6</v>
+      </c>
+      <c r="AI44">
         <f t="shared" si="64"/>
-        <v>11</v>
-      </c>
-      <c r="AF44">
-        <f t="shared" si="65"/>
-        <v>6</v>
-      </c>
-      <c r="AG44">
-        <f t="shared" si="66"/>
-        <v>5</v>
-      </c>
-      <c r="AH44">
-        <f t="shared" si="67"/>
-        <v>6</v>
-      </c>
-      <c r="AI44">
-        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="AJ44" cm="1">
@@ -7158,71 +7168,71 @@
         <v>3</v>
       </c>
       <c r="AN44">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="67"/>
+        <v>9</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="68"/>
+        <v>10</v>
+      </c>
+      <c r="AR44">
         <f t="shared" si="69"/>
-        <v>3</v>
-      </c>
-      <c r="AO44">
+        <v>11</v>
+      </c>
+      <c r="AS44">
         <f t="shared" si="70"/>
-        <v>3</v>
-      </c>
-      <c r="AP44">
+        <v>9</v>
+      </c>
+      <c r="AT44">
         <f t="shared" si="71"/>
-        <v>9</v>
-      </c>
-      <c r="AQ44">
+        <v>-2</v>
+      </c>
+      <c r="AU44">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="AV44">
         <f t="shared" si="72"/>
-        <v>10</v>
-      </c>
-      <c r="AR44">
+        <v>19</v>
+      </c>
+      <c r="AW44">
         <f t="shared" si="73"/>
-        <v>11</v>
-      </c>
-      <c r="AS44">
+        <v>20</v>
+      </c>
+      <c r="AX44">
         <f t="shared" si="74"/>
-        <v>9</v>
-      </c>
-      <c r="AT44">
+        <v>-1</v>
+      </c>
+      <c r="AY44">
         <f t="shared" si="75"/>
-        <v>-2</v>
-      </c>
-      <c r="AU44">
+        <v>3</v>
+      </c>
+      <c r="AZ44">
         <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AV44">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="BA44">
         <f t="shared" si="76"/>
-        <v>19</v>
-      </c>
-      <c r="AW44">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BB44">
+        <f t="shared" si="76"/>
+        <v>3</v>
+      </c>
+      <c r="BC44">
         <f t="shared" si="77"/>
-        <v>20</v>
-      </c>
-      <c r="AX44">
+        <v>3.8</v>
+      </c>
+      <c r="BD44">
         <f t="shared" si="78"/>
-        <v>-1</v>
-      </c>
-      <c r="AY44">
-        <f t="shared" si="79"/>
-        <v>3</v>
-      </c>
-      <c r="AZ44">
-        <f t="shared" si="79"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="BA44">
-        <f t="shared" si="80"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BB44">
-        <f t="shared" si="80"/>
-        <v>3</v>
-      </c>
-      <c r="BC44">
-        <f t="shared" si="81"/>
-        <v>3.8</v>
-      </c>
-      <c r="BD44">
-        <f t="shared" si="82"/>
         <v>4</v>
       </c>
     </row>
@@ -7276,46 +7286,46 @@
         <v>0</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z45" t="s">
         <v>17</v>
       </c>
       <c r="AA45">
+        <f t="shared" si="56"/>
+        <v>6</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AE45">
         <f t="shared" si="60"/>
-        <v>6</v>
-      </c>
-      <c r="AB45">
+        <v>13</v>
+      </c>
+      <c r="AF45">
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
-      <c r="AC45">
+      <c r="AG45">
         <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AD45">
+        <v>6</v>
+      </c>
+      <c r="AH45">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AE45">
+        <v>7</v>
+      </c>
+      <c r="AI45">
         <f t="shared" si="64"/>
-        <v>13</v>
-      </c>
-      <c r="AF45">
-        <f t="shared" si="65"/>
-        <v>7</v>
-      </c>
-      <c r="AG45">
-        <f t="shared" si="66"/>
-        <v>6</v>
-      </c>
-      <c r="AH45">
-        <f t="shared" si="67"/>
-        <v>7</v>
-      </c>
-      <c r="AI45">
-        <f t="shared" si="68"/>
         <v>6</v>
       </c>
       <c r="AJ45" cm="1">
@@ -7335,71 +7345,71 @@
         <v>2</v>
       </c>
       <c r="AN45">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" si="67"/>
+        <v>13</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="68"/>
+        <v>7</v>
+      </c>
+      <c r="AR45">
         <f t="shared" si="69"/>
-        <v>4</v>
-      </c>
-      <c r="AO45">
+        <v>13</v>
+      </c>
+      <c r="AS45">
         <f t="shared" si="70"/>
-        <v>3</v>
-      </c>
-      <c r="AP45">
+        <v>11</v>
+      </c>
+      <c r="AT45">
         <f t="shared" si="71"/>
-        <v>13</v>
-      </c>
-      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <f t="shared" si="71"/>
+        <v>-4</v>
+      </c>
+      <c r="AV45">
         <f t="shared" si="72"/>
-        <v>7</v>
-      </c>
-      <c r="AR45">
+        <v>20</v>
+      </c>
+      <c r="AW45">
         <f t="shared" si="73"/>
-        <v>13</v>
-      </c>
-      <c r="AS45">
+        <v>24</v>
+      </c>
+      <c r="AX45">
         <f t="shared" si="74"/>
-        <v>11</v>
-      </c>
-      <c r="AT45">
+        <v>-4</v>
+      </c>
+      <c r="AY45">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AU45">
+        <v>3.25</v>
+      </c>
+      <c r="AZ45">
         <f t="shared" si="75"/>
-        <v>-4</v>
-      </c>
-      <c r="AV45">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA45">
         <f t="shared" si="76"/>
-        <v>20</v>
-      </c>
-      <c r="AW45">
+        <v>3.25</v>
+      </c>
+      <c r="BB45">
+        <f t="shared" si="76"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BC45">
         <f t="shared" si="77"/>
-        <v>24</v>
-      </c>
-      <c r="AX45">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="BD45">
         <f t="shared" si="78"/>
-        <v>-4</v>
-      </c>
-      <c r="AY45">
-        <f t="shared" si="79"/>
-        <v>3.25</v>
-      </c>
-      <c r="AZ45">
-        <f t="shared" si="79"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BA45">
-        <f t="shared" si="80"/>
-        <v>3.25</v>
-      </c>
-      <c r="BB45">
-        <f t="shared" si="80"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BC45">
-        <f t="shared" si="81"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="BD45">
-        <f t="shared" si="82"/>
         <v>4</v>
       </c>
     </row>
@@ -7453,47 +7463,47 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="Z46" t="s">
         <v>21</v>
       </c>
       <c r="AA46">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AE46">
         <f t="shared" si="60"/>
-        <v>5</v>
-      </c>
-      <c r="AB46">
+        <v>17</v>
+      </c>
+      <c r="AF46">
         <f t="shared" si="61"/>
+        <v>8</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="62"/>
+        <v>9</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="64"/>
         <v>7</v>
-      </c>
-      <c r="AC46">
-        <f t="shared" si="62"/>
-        <v>5</v>
-      </c>
-      <c r="AD46">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <f t="shared" si="64"/>
-        <v>17</v>
-      </c>
-      <c r="AF46">
-        <f t="shared" si="65"/>
-        <v>8</v>
-      </c>
-      <c r="AG46">
-        <f t="shared" si="66"/>
-        <v>9</v>
-      </c>
-      <c r="AH46">
-        <f t="shared" si="67"/>
-        <v>9</v>
-      </c>
-      <c r="AI46">
-        <f t="shared" si="68"/>
-        <v>8</v>
       </c>
       <c r="AJ46" cm="1">
         <f t="array" ref="AJ46">SUMPRODUCT(($K$2:$K$81=Z46)*($O$2:$O$81&gt;$N$2:$N$81))</f>
@@ -7505,78 +7515,78 @@
       </c>
       <c r="AL46" cm="1">
         <f t="array" ref="AL46">SUMPRODUCT(($J$2:$J$81=Z46)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM46" cm="1">
         <f t="array" ref="AM46">SUMPRODUCT(($J$2:$J$81=Z46)*($O$2:$O$81&gt;$N$2:$N$81))</f>
         <v>4</v>
       </c>
       <c r="AN46">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="66"/>
+        <v>4</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="67"/>
+        <v>11</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="68"/>
+        <v>13</v>
+      </c>
+      <c r="AR46">
         <f t="shared" si="69"/>
-        <v>3</v>
-      </c>
-      <c r="AO46">
+        <v>7</v>
+      </c>
+      <c r="AS46">
         <f t="shared" si="70"/>
-        <v>4</v>
-      </c>
-      <c r="AP46">
+        <v>13</v>
+      </c>
+      <c r="AT46">
         <f t="shared" si="71"/>
-        <v>11</v>
-      </c>
-      <c r="AQ46">
+        <v>4</v>
+      </c>
+      <c r="AU46">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AV46">
         <f t="shared" si="72"/>
-        <v>13</v>
-      </c>
-      <c r="AR46">
+        <v>24</v>
+      </c>
+      <c r="AW46">
         <f t="shared" si="73"/>
-        <v>7</v>
-      </c>
-      <c r="AS46">
+        <v>20</v>
+      </c>
+      <c r="AX46">
         <f t="shared" si="74"/>
-        <v>13</v>
-      </c>
-      <c r="AT46">
+        <v>4</v>
+      </c>
+      <c r="AY46">
         <f t="shared" si="75"/>
-        <v>4</v>
-      </c>
-      <c r="AU46">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AZ46">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AV46">
+        <v>3.25</v>
+      </c>
+      <c r="BA46">
         <f t="shared" si="76"/>
-        <v>24</v>
-      </c>
-      <c r="AW46">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB46">
+        <f t="shared" si="76"/>
+        <v>3.25</v>
+      </c>
+      <c r="BC46">
         <f t="shared" si="77"/>
-        <v>20</v>
-      </c>
-      <c r="AX46">
+        <v>4.8</v>
+      </c>
+      <c r="BD46">
         <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="AY46">
-        <f t="shared" si="79"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AZ46">
-        <f t="shared" si="79"/>
-        <v>3.25</v>
-      </c>
-      <c r="BA46">
-        <f t="shared" si="80"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BB46">
-        <f t="shared" si="80"/>
-        <v>3.25</v>
-      </c>
-      <c r="BC46">
-        <f t="shared" si="81"/>
-        <v>4.8</v>
-      </c>
-      <c r="BD46">
-        <f t="shared" si="82"/>
         <v>4</v>
       </c>
     </row>
@@ -7630,46 +7640,46 @@
         <v>0</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z47" t="s">
         <v>19</v>
       </c>
       <c r="AA47">
+        <f t="shared" si="56"/>
+        <v>7</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="58"/>
+        <v>5</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AE47">
         <f t="shared" si="60"/>
-        <v>7</v>
-      </c>
-      <c r="AB47">
+        <v>18</v>
+      </c>
+      <c r="AF47">
         <f t="shared" si="61"/>
-        <v>6</v>
-      </c>
-      <c r="AC47">
+        <v>10</v>
+      </c>
+      <c r="AG47">
         <f t="shared" si="62"/>
-        <v>5</v>
-      </c>
-      <c r="AD47">
+        <v>8</v>
+      </c>
+      <c r="AH47">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AE47">
+        <v>10</v>
+      </c>
+      <c r="AI47">
         <f t="shared" si="64"/>
-        <v>18</v>
-      </c>
-      <c r="AF47">
-        <f t="shared" si="65"/>
-        <v>10</v>
-      </c>
-      <c r="AG47">
-        <f t="shared" si="66"/>
-        <v>8</v>
-      </c>
-      <c r="AH47">
-        <f t="shared" si="67"/>
-        <v>10</v>
-      </c>
-      <c r="AI47">
-        <f t="shared" si="68"/>
         <v>8</v>
       </c>
       <c r="AJ47" cm="1">
@@ -7678,7 +7688,7 @@
       </c>
       <c r="AK47" cm="1">
         <f t="array" ref="AK47">SUMPRODUCT(($K$2:$K$81=Z47)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL47" cm="1">
         <f t="array" ref="AL47">SUMPRODUCT(($J$2:$J$81=Z47)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -7689,71 +7699,71 @@
         <v>2</v>
       </c>
       <c r="AN47">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="67"/>
+        <v>11</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="68"/>
+        <v>11</v>
+      </c>
+      <c r="AR47">
         <f t="shared" si="69"/>
-        <v>3</v>
-      </c>
-      <c r="AO47">
+        <v>11</v>
+      </c>
+      <c r="AS47">
         <f t="shared" si="70"/>
         <v>3</v>
       </c>
-      <c r="AP47">
+      <c r="AT47">
         <f t="shared" si="71"/>
-        <v>11</v>
-      </c>
-      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <f t="shared" si="71"/>
+        <v>8</v>
+      </c>
+      <c r="AV47">
         <f t="shared" si="72"/>
-        <v>11</v>
-      </c>
-      <c r="AR47">
+        <v>22</v>
+      </c>
+      <c r="AW47">
         <f t="shared" si="73"/>
-        <v>11</v>
-      </c>
-      <c r="AS47">
+        <v>14</v>
+      </c>
+      <c r="AX47">
         <f t="shared" si="74"/>
-        <v>3</v>
-      </c>
-      <c r="AT47">
+        <v>8</v>
+      </c>
+      <c r="AY47">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AU47">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AZ47">
         <f t="shared" si="75"/>
-        <v>8</v>
-      </c>
-      <c r="AV47">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BA47">
         <f t="shared" si="76"/>
-        <v>22</v>
-      </c>
-      <c r="AW47">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BB47">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BC47">
         <f t="shared" si="77"/>
-        <v>14</v>
-      </c>
-      <c r="AX47">
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="BD47">
         <f t="shared" si="78"/>
-        <v>8</v>
-      </c>
-      <c r="AY47">
-        <f t="shared" si="79"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AZ47">
-        <f t="shared" si="79"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BA47">
-        <f t="shared" si="80"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BB47">
-        <f t="shared" si="80"/>
-        <v>1</v>
-      </c>
-      <c r="BC47">
-        <f t="shared" si="81"/>
-        <v>3.1428571428571428</v>
-      </c>
-      <c r="BD47">
-        <f t="shared" si="82"/>
         <v>2</v>
       </c>
     </row>
@@ -7807,46 +7817,46 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z48" t="s">
         <v>14</v>
       </c>
       <c r="AA48">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AE48">
         <f t="shared" si="60"/>
+        <v>11</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="61"/>
         <v>5</v>
       </c>
-      <c r="AB48">
-        <f t="shared" si="61"/>
+      <c r="AG48">
+        <f t="shared" si="62"/>
         <v>6</v>
       </c>
-      <c r="AC48">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="AD48">
+      <c r="AH48">
         <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="AE48">
+        <v>6</v>
+      </c>
+      <c r="AI48">
         <f t="shared" si="64"/>
-        <v>11</v>
-      </c>
-      <c r="AF48">
-        <f t="shared" si="65"/>
-        <v>5</v>
-      </c>
-      <c r="AG48">
-        <f t="shared" si="66"/>
-        <v>6</v>
-      </c>
-      <c r="AH48">
-        <f t="shared" si="67"/>
-        <v>6</v>
-      </c>
-      <c r="AI48">
-        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="AJ48" cm="1">
@@ -7866,71 +7876,71 @@
         <v>2</v>
       </c>
       <c r="AN48">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="AQ48">
+        <f t="shared" si="68"/>
+        <v>11</v>
+      </c>
+      <c r="AR48">
         <f t="shared" si="69"/>
-        <v>3</v>
-      </c>
-      <c r="AO48">
+        <v>11</v>
+      </c>
+      <c r="AS48">
         <f t="shared" si="70"/>
-        <v>3</v>
-      </c>
-      <c r="AP48">
+        <v>11</v>
+      </c>
+      <c r="AT48">
         <f t="shared" si="71"/>
-        <v>3</v>
-      </c>
-      <c r="AQ48">
+        <v>-8</v>
+      </c>
+      <c r="AU48">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="AV48">
         <f t="shared" si="72"/>
-        <v>11</v>
-      </c>
-      <c r="AR48">
+        <v>14</v>
+      </c>
+      <c r="AW48">
         <f t="shared" si="73"/>
-        <v>11</v>
-      </c>
-      <c r="AS48">
+        <v>22</v>
+      </c>
+      <c r="AX48">
         <f t="shared" si="74"/>
-        <v>11</v>
-      </c>
-      <c r="AT48">
+        <v>-8</v>
+      </c>
+      <c r="AY48">
         <f t="shared" si="75"/>
-        <v>-8</v>
-      </c>
-      <c r="AU48">
+        <v>1</v>
+      </c>
+      <c r="AZ48">
         <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AV48">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BA48">
         <f t="shared" si="76"/>
-        <v>14</v>
-      </c>
-      <c r="AW48">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BB48">
+        <f t="shared" si="76"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BC48">
         <f t="shared" si="77"/>
-        <v>22</v>
-      </c>
-      <c r="AX48">
+        <v>2.8</v>
+      </c>
+      <c r="BD48">
         <f t="shared" si="78"/>
-        <v>-8</v>
-      </c>
-      <c r="AY48">
-        <f t="shared" si="79"/>
-        <v>1</v>
-      </c>
-      <c r="AZ48">
-        <f t="shared" si="79"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BA48">
-        <f t="shared" si="80"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BB48">
-        <f t="shared" si="80"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BC48">
-        <f t="shared" si="81"/>
-        <v>2.8</v>
-      </c>
-      <c r="BD48">
-        <f t="shared" si="82"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -7984,7 +7994,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
@@ -8236,131 +8246,131 @@
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q82" si="83">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <f t="shared" ref="Q52:Q82" si="79">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
         <v>0</v>
       </c>
       <c r="Z52" t="s">
         <v>11</v>
       </c>
       <c r="AA52">
-        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 1)</f>
+        <f>COUNTIFS($J$2:$J$99, Z52, $C$2:$C$99, 1) + COUNTIFS($K$2:$K$99, Z52, $C$2:$C$99, 1)</f>
         <v>5</v>
       </c>
       <c r="AB52">
-        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 2)</f>
+        <f>COUNTIFS($J$2:$J$99, Z52, $C$2:$C$99, 2) + COUNTIFS($K$2:$K$99, Z52, $C$2:$C$99, 2)</f>
         <v>6</v>
       </c>
       <c r="AC52">
-        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 3)</f>
+        <f>COUNTIFS($J$2:$J$99, Z52, $C$2:$C$99, 3) + COUNTIFS($K$2:$K$99, Z52, $C$2:$C$99, 3)</f>
         <v>6</v>
       </c>
       <c r="AD52">
-        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 4)</f>
-        <v>0</v>
+        <f>COUNTIFS($J$2:$J$99, Z52, $C$2:$C$99, 4) + COUNTIFS($K$2:$K$99, Z52, $C$2:$C$99, 4)</f>
+        <v>4</v>
       </c>
       <c r="AE52">
         <f>AA52+AB52+AC52+AD52</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF52">
-        <f>COUNTIF($K$2:$K$100, Z52)</f>
-        <v>9</v>
+        <f>COUNTIF($K$2:$K$99, Z52)</f>
+        <v>11</v>
       </c>
       <c r="AG52">
-        <f>COUNTIF($J$2:$J$100, Z52)</f>
-        <v>8</v>
+        <f>COUNTIF($J$2:$J$99, Z52)</f>
+        <v>10</v>
       </c>
       <c r="AH52">
         <f>AJ52+AL52</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI52">
         <f>AE52-AH52</f>
+        <v>9</v>
+      </c>
+      <c r="AJ52">
+        <f>SUMPRODUCT(($K$2:$K$99=Z52)*($O$2:$O$99&gt;$N$2:$N$99))</f>
         <v>6</v>
       </c>
-      <c r="AJ52">
-        <f>SUMPRODUCT(($K$2:$K$100=Z52)*($O$2:$O$100&gt;$N$2:$N$100))</f>
-        <v>5</v>
-      </c>
       <c r="AK52">
-        <f>SUMPRODUCT(($K$2:$K$100=Z52)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f>SUMPRODUCT(($K$2:$K$99=Z52)*($O$2:$O$99&lt;$N$2:$N$99))</f>
         <v>3</v>
       </c>
       <c r="AL52">
-        <f>SUMPRODUCT(($J$2:$J$100=Z52)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f>SUMPRODUCT(($J$2:$J$99=Z52)*($O$2:$O$99&lt;$N$2:$N$99))</f>
         <v>6</v>
       </c>
       <c r="AM52">
-        <f>SUMPRODUCT(($J$2:$J$100=Z52)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f>SUMPRODUCT(($J$2:$J$99=Z52)*($O$2:$O$99&gt;$N$2:$N$99))</f>
         <v>2</v>
       </c>
       <c r="AN52">
-        <f>COUNTIFS($K$2:$K$100,Z52,$C$2:$C$100,3)</f>
+        <f>COUNTIFS($K$2:$K$99,Z52,$C$2:$C$99,3)</f>
         <v>3</v>
       </c>
       <c r="AO52">
-        <f>COUNTIFS($J$2:$J$100,Z52,$C$2:$C$100,3)</f>
+        <f>COUNTIFS($J$2:$J$99,Z52,$C$2:$C$99,3)</f>
         <v>3</v>
       </c>
       <c r="AP52">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z52,$C$2:$C$100, 3)</f>
+        <f>SUMIFS($O$2:$O$99, $K$2:$K$99, Z52,$C$2:$C$99, 3)</f>
+        <v>9</v>
+      </c>
+      <c r="AQ52">
+        <f>SUMIFS($N$2:$N$99, $J$2:$J$99, Z52,$C$2:$C$99, 3)</f>
         <v>7</v>
       </c>
-      <c r="AQ52">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z52,$C$2:$C$100, 3)</f>
-        <v>7</v>
-      </c>
       <c r="AR52">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z52,$C$2:$C$100, 3)</f>
-        <v>7</v>
+        <f>SUMIFS($N$2:$N$99, $K$2:$K$99, Z52,$C$2:$C$99, 3)</f>
+        <v>8</v>
       </c>
       <c r="AS52">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z52,$C$2:$C$100, 3)</f>
+        <f>SUMIFS($O$2:$O$99, $J$2:$J$99, Z52,$C$2:$C$99, 3)</f>
         <v>4</v>
       </c>
       <c r="AT52">
-        <f t="shared" ref="AT52:AU52" si="84">AP52-AR52</f>
-        <v>0</v>
+        <f t="shared" ref="AT52:AU52" si="80">AP52-AR52</f>
+        <v>1</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>3</v>
       </c>
       <c r="AV52">
         <f>AP52+AQ52</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW52">
         <f>AR52+AS52</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX52">
         <f>(AP52+AQ52)-(AR52+AS52)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY52">
-        <f t="shared" ref="AY52:AZ52" si="85">AP52/AN52</f>
+        <f t="shared" ref="AY52:AZ52" si="81">AP52/AN52</f>
+        <v>3</v>
+      </c>
+      <c r="AZ52">
+        <f t="shared" si="81"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AZ52">
-        <f t="shared" si="85"/>
-        <v>2.3333333333333335</v>
-      </c>
       <c r="BA52">
-        <f t="shared" ref="BA52:BB52" si="86">AR52/AN52</f>
-        <v>2.3333333333333335</v>
+        <f t="shared" ref="BA52:BB52" si="82">AR52/AN52</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="BB52">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="BC52">
         <f>AV52/AA52</f>
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BD52">
         <f>AW52/AA52</f>
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.25">
@@ -8413,131 +8423,131 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="Z53" t="s">
         <v>13</v>
       </c>
       <c r="AA53">
-        <f t="shared" ref="AA53:AA55" si="87">COUNTIFS($J$2:$J$100, Z53, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z53, $C$2:$C$100, 1)</f>
+        <f>COUNTIFS($J$2:$J$99, Z53, $C$2:$C$99, 1) + COUNTIFS($K$2:$K$99, Z53, $C$2:$C$99, 1)</f>
         <v>4</v>
       </c>
       <c r="AB53">
-        <f t="shared" ref="AB53:AB55" si="88">COUNTIFS($J$2:$J$100, Z53, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z53, $C$2:$C$100, 2)</f>
+        <f>COUNTIFS($J$2:$J$99, Z53, $C$2:$C$99, 2) + COUNTIFS($K$2:$K$99, Z53, $C$2:$C$99, 2)</f>
         <v>6</v>
       </c>
       <c r="AC53">
-        <f t="shared" ref="AC53:AC55" si="89">COUNTIFS($J$2:$J$100, Z53, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z53, $C$2:$C$100, 3)</f>
+        <f>COUNTIFS($J$2:$J$99, Z53, $C$2:$C$99, 3) + COUNTIFS($K$2:$K$99, Z53, $C$2:$C$99, 3)</f>
         <v>6</v>
       </c>
       <c r="AD53">
-        <f t="shared" ref="AD53:AD55" si="90">COUNTIFS($J$2:$J$100, Z53, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z53, $C$2:$C$100, 4)</f>
+        <f>COUNTIFS($J$2:$J$99, Z53, $C$2:$C$99, 4) + COUNTIFS($K$2:$K$99, Z53, $C$2:$C$99, 4)</f>
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="shared" ref="AE53:AE55" si="91">AA53+AB53+AC53+AD53</f>
+        <f t="shared" ref="AE53:AE55" si="83">AA53+AB53+AC53+AD53</f>
         <v>16</v>
       </c>
       <c r="AF53">
-        <f t="shared" ref="AF53:AF55" si="92">COUNTIF($K$2:$K$100, Z53)</f>
+        <f>COUNTIF($K$2:$K$99, Z53)</f>
         <v>8</v>
       </c>
       <c r="AG53">
-        <f t="shared" ref="AG53:AG55" si="93">COUNTIF($J$2:$J$100, Z53)</f>
+        <f>COUNTIF($J$2:$J$99, Z53)</f>
         <v>8</v>
       </c>
       <c r="AH53">
-        <f t="shared" ref="AH53:AH55" si="94">AJ53+AL53</f>
+        <f t="shared" ref="AH53:AH55" si="84">AJ53+AL53</f>
         <v>10</v>
       </c>
       <c r="AI53">
-        <f t="shared" ref="AI53:AI55" si="95">AE53-AH53</f>
+        <f t="shared" ref="AI53:AI55" si="85">AE53-AH53</f>
         <v>6</v>
       </c>
       <c r="AJ53">
-        <f t="shared" ref="AJ53:AJ55" si="96">SUMPRODUCT(($K$2:$K$100=Z53)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f>SUMPRODUCT(($K$2:$K$99=Z53)*($O$2:$O$99&gt;$N$2:$N$99))</f>
         <v>5</v>
       </c>
       <c r="AK53">
-        <f t="shared" ref="AK53:AK55" si="97">SUMPRODUCT(($K$2:$K$100=Z53)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f>SUMPRODUCT(($K$2:$K$99=Z53)*($O$2:$O$99&lt;$N$2:$N$99))</f>
         <v>3</v>
       </c>
       <c r="AL53">
-        <f t="shared" ref="AL53:AL55" si="98">SUMPRODUCT(($J$2:$J$100=Z53)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f>SUMPRODUCT(($J$2:$J$99=Z53)*($O$2:$O$99&lt;$N$2:$N$99))</f>
         <v>5</v>
       </c>
       <c r="AM53">
-        <f t="shared" ref="AM53:AM55" si="99">SUMPRODUCT(($J$2:$J$100=Z53)*($O$2:$O$100&gt;$N$2:$N$100))</f>
-        <v>2</v>
+        <f>SUMPRODUCT(($J$2:$J$99=Z53)*($O$2:$O$99&gt;$N$2:$N$99))</f>
+        <v>3</v>
       </c>
       <c r="AN53">
-        <f t="shared" ref="AN53:AN55" si="100">COUNTIFS($K$2:$K$100,Z53,$C$2:$C$100,3)</f>
+        <f>COUNTIFS($K$2:$K$99,Z53,$C$2:$C$99,3)</f>
         <v>3</v>
       </c>
       <c r="AO53">
-        <f t="shared" ref="AO53:AO55" si="101">COUNTIFS($J$2:$J$100,Z53,$C$2:$C$100,3)</f>
+        <f>COUNTIFS($J$2:$J$99,Z53,$C$2:$C$99,3)</f>
         <v>3</v>
       </c>
       <c r="AP53">
-        <f t="shared" ref="AP53:AP55" si="102">SUMIFS($O$2:$O$100, $K$2:$K$100, Z53,$C$2:$C$100, 3)</f>
+        <f>SUMIFS($O$2:$O$99, $K$2:$K$99, Z53,$C$2:$C$99, 3)</f>
         <v>4</v>
       </c>
       <c r="AQ53">
-        <f t="shared" ref="AQ53:AQ55" si="103">SUMIFS($N$2:$N$100, $J$2:$J$100, Z53,$C$2:$C$100, 3)</f>
+        <f>SUMIFS($N$2:$N$99, $J$2:$J$99, Z53,$C$2:$C$99, 3)</f>
+        <v>8</v>
+      </c>
+      <c r="AR53">
+        <f>SUMIFS($N$2:$N$99, $K$2:$K$99, Z53,$C$2:$C$99, 3)</f>
         <v>7</v>
       </c>
-      <c r="AR53">
-        <f t="shared" ref="AR53:AR55" si="104">SUMIFS($N$2:$N$100, $K$2:$K$100, Z53,$C$2:$C$100, 3)</f>
-        <v>7</v>
-      </c>
       <c r="AS53">
-        <f t="shared" ref="AS53:AS55" si="105">SUMIFS($O$2:$O$100, $J$2:$J$100, Z53,$C$2:$C$100, 3)</f>
-        <v>7</v>
+        <f>SUMIFS($O$2:$O$99, $J$2:$J$99, Z53,$C$2:$C$99, 3)</f>
+        <v>9</v>
       </c>
       <c r="AT53">
-        <f t="shared" ref="AT53:AT55" si="106">AP53-AR53</f>
+        <f t="shared" ref="AT53:AT55" si="86">AP53-AR53</f>
         <v>-3</v>
       </c>
       <c r="AU53">
-        <f t="shared" ref="AU53:AU55" si="107">AQ53-AS53</f>
-        <v>0</v>
+        <f t="shared" ref="AU53:AU55" si="87">AQ53-AS53</f>
+        <v>-1</v>
       </c>
       <c r="AV53">
-        <f t="shared" ref="AV53:AV55" si="108">AP53+AQ53</f>
-        <v>11</v>
+        <f t="shared" ref="AV53:AV55" si="88">AP53+AQ53</f>
+        <v>12</v>
       </c>
       <c r="AW53">
-        <f t="shared" ref="AW53:AW55" si="109">AR53+AS53</f>
-        <v>14</v>
+        <f t="shared" ref="AW53:AW55" si="89">AR53+AS53</f>
+        <v>16</v>
       </c>
       <c r="AX53">
-        <f t="shared" ref="AX53:AX55" si="110">(AP53+AQ53)-(AR53+AS53)</f>
-        <v>-3</v>
+        <f t="shared" ref="AX53:AX55" si="90">(AP53+AQ53)-(AR53+AS53)</f>
+        <v>-4</v>
       </c>
       <c r="AY53">
-        <f t="shared" ref="AY53:AY55" si="111">AP53/AN53</f>
+        <f t="shared" ref="AY53:AY55" si="91">AP53/AN53</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="AZ53">
-        <f t="shared" ref="AZ53:AZ55" si="112">AQ53/AO53</f>
+        <f t="shared" ref="AZ53:AZ55" si="92">AQ53/AO53</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BA53">
+        <f t="shared" ref="BA53:BA55" si="93">AR53/AN53</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="BA53">
-        <f t="shared" ref="BA53:BA55" si="113">AR53/AN53</f>
-        <v>2.3333333333333335</v>
-      </c>
       <c r="BB53">
-        <f t="shared" ref="BB53:BB55" si="114">AS53/AO53</f>
-        <v>2.3333333333333335</v>
+        <f t="shared" ref="BB53:BB55" si="94">AS53/AO53</f>
+        <v>3</v>
       </c>
       <c r="BC53">
-        <f t="shared" ref="BC53:BC55" si="115">AV53/AA53</f>
-        <v>2.75</v>
+        <f t="shared" ref="BC53:BC55" si="95">AV53/AA53</f>
+        <v>3</v>
       </c>
       <c r="BD53">
-        <f t="shared" ref="BD53:BD55" si="116">AW53/AA53</f>
-        <v>3.5</v>
+        <f t="shared" ref="BD53:BD55" si="96">AW53/AA53</f>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.25">
@@ -8590,131 +8600,131 @@
         <v>0</v>
       </c>
       <c r="Q54" s="27">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="Z54" t="s">
         <v>21</v>
       </c>
       <c r="AA54">
+        <f>COUNTIFS($J$2:$J$99, Z54, $C$2:$C$99, 1) + COUNTIFS($K$2:$K$99, Z54, $C$2:$C$99, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AB54">
+        <f>COUNTIFS($J$2:$J$99, Z54, $C$2:$C$99, 2) + COUNTIFS($K$2:$K$99, Z54, $C$2:$C$99, 2)</f>
+        <v>7</v>
+      </c>
+      <c r="AC54">
+        <f>COUNTIFS($J$2:$J$99, Z54, $C$2:$C$99, 3) + COUNTIFS($K$2:$K$99, Z54, $C$2:$C$99, 3)</f>
+        <v>6</v>
+      </c>
+      <c r="AD54">
+        <f>COUNTIFS($J$2:$J$99, Z54, $C$2:$C$99, 4) + COUNTIFS($K$2:$K$99, Z54, $C$2:$C$99, 4)</f>
+        <v>4</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="83"/>
+        <v>22</v>
+      </c>
+      <c r="AF54">
+        <f>COUNTIF($K$2:$K$99, Z54)</f>
+        <v>11</v>
+      </c>
+      <c r="AG54">
+        <f>COUNTIF($J$2:$J$99, Z54)</f>
+        <v>11</v>
+      </c>
+      <c r="AH54">
+        <f t="shared" si="84"/>
+        <v>11</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="85"/>
+        <v>11</v>
+      </c>
+      <c r="AJ54">
+        <f>SUMPRODUCT(($K$2:$K$99=Z54)*($O$2:$O$99&gt;$N$2:$N$99))</f>
+        <v>6</v>
+      </c>
+      <c r="AK54">
+        <f>SUMPRODUCT(($K$2:$K$99=Z54)*($O$2:$O$99&lt;$N$2:$N$99))</f>
+        <v>3</v>
+      </c>
+      <c r="AL54">
+        <f>SUMPRODUCT(($J$2:$J$99=Z54)*($O$2:$O$99&lt;$N$2:$N$99))</f>
+        <v>5</v>
+      </c>
+      <c r="AM54">
+        <f>SUMPRODUCT(($J$2:$J$99=Z54)*($O$2:$O$99&gt;$N$2:$N$99))</f>
+        <v>4</v>
+      </c>
+      <c r="AN54">
+        <f>COUNTIFS($K$2:$K$99,Z54,$C$2:$C$99,3)</f>
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <f>COUNTIFS($J$2:$J$99,Z54,$C$2:$C$99,3)</f>
+        <v>3</v>
+      </c>
+      <c r="AP54">
+        <f>SUMIFS($O$2:$O$99, $K$2:$K$99, Z54,$C$2:$C$99, 3)</f>
+        <v>10</v>
+      </c>
+      <c r="AQ54">
+        <f>SUMIFS($N$2:$N$99, $J$2:$J$99, Z54,$C$2:$C$99, 3)</f>
+        <v>7</v>
+      </c>
+      <c r="AR54">
+        <f>SUMIFS($N$2:$N$99, $K$2:$K$99, Z54,$C$2:$C$99, 3)</f>
+        <v>8</v>
+      </c>
+      <c r="AS54">
+        <f>SUMIFS($O$2:$O$99, $J$2:$J$99, Z54,$C$2:$C$99, 3)</f>
+        <v>6</v>
+      </c>
+      <c r="AT54">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="AU54">
         <f t="shared" si="87"/>
-        <v>5</v>
-      </c>
-      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AV54">
         <f t="shared" si="88"/>
-        <v>7</v>
-      </c>
-      <c r="AC54">
+        <v>17</v>
+      </c>
+      <c r="AW54">
         <f t="shared" si="89"/>
-        <v>6</v>
-      </c>
-      <c r="AD54">
+        <v>14</v>
+      </c>
+      <c r="AX54">
         <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="AE54">
+        <v>3</v>
+      </c>
+      <c r="AY54">
         <f t="shared" si="91"/>
-        <v>18</v>
-      </c>
-      <c r="AF54">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AZ54">
         <f t="shared" si="92"/>
-        <v>9</v>
-      </c>
-      <c r="AG54">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA54">
         <f t="shared" si="93"/>
-        <v>9</v>
-      </c>
-      <c r="AH54">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BB54">
         <f t="shared" si="94"/>
-        <v>9</v>
-      </c>
-      <c r="AI54">
+        <v>2</v>
+      </c>
+      <c r="BC54">
         <f t="shared" si="95"/>
-        <v>9</v>
-      </c>
-      <c r="AJ54">
+        <v>3.4</v>
+      </c>
+      <c r="BD54">
         <f t="shared" si="96"/>
-        <v>5</v>
-      </c>
-      <c r="AK54">
-        <f t="shared" si="97"/>
-        <v>3</v>
-      </c>
-      <c r="AL54">
-        <f t="shared" si="98"/>
-        <v>4</v>
-      </c>
-      <c r="AM54">
-        <f t="shared" si="99"/>
-        <v>4</v>
-      </c>
-      <c r="AN54">
-        <f t="shared" si="100"/>
-        <v>3</v>
-      </c>
-      <c r="AO54">
-        <f t="shared" si="101"/>
-        <v>3</v>
-      </c>
-      <c r="AP54">
-        <f t="shared" si="102"/>
-        <v>8</v>
-      </c>
-      <c r="AQ54">
-        <f t="shared" si="103"/>
-        <v>4</v>
-      </c>
-      <c r="AR54">
-        <f t="shared" si="104"/>
-        <v>7</v>
-      </c>
-      <c r="AS54">
-        <f t="shared" si="105"/>
-        <v>5</v>
-      </c>
-      <c r="AT54">
-        <f t="shared" si="106"/>
-        <v>1</v>
-      </c>
-      <c r="AU54">
-        <f t="shared" si="107"/>
-        <v>-1</v>
-      </c>
-      <c r="AV54">
-        <f t="shared" si="108"/>
-        <v>12</v>
-      </c>
-      <c r="AW54">
-        <f t="shared" si="109"/>
-        <v>12</v>
-      </c>
-      <c r="AX54">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <f t="shared" si="111"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AZ54">
-        <f t="shared" si="112"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="BA54">
-        <f t="shared" si="113"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BB54">
-        <f t="shared" si="114"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="BC54">
-        <f t="shared" si="115"/>
-        <v>2.4</v>
-      </c>
-      <c r="BD54">
-        <f t="shared" si="116"/>
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.25">
@@ -8767,131 +8777,131 @@
         <v>1</v>
       </c>
       <c r="Q55" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="Z55" t="s">
         <v>19</v>
       </c>
       <c r="AA55">
+        <f>COUNTIFS($J$2:$J$99, Z55, $C$2:$C$99, 1) + COUNTIFS($K$2:$K$99, Z55, $C$2:$C$99, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AB55">
+        <f>COUNTIFS($J$2:$J$99, Z55, $C$2:$C$99, 2) + COUNTIFS($K$2:$K$99, Z55, $C$2:$C$99, 2)</f>
+        <v>6</v>
+      </c>
+      <c r="AC55">
+        <f>COUNTIFS($J$2:$J$99, Z55, $C$2:$C$99, 3) + COUNTIFS($K$2:$K$99, Z55, $C$2:$C$99, 3)</f>
+        <v>6</v>
+      </c>
+      <c r="AD55">
+        <f>COUNTIFS($J$2:$J$99, Z55, $C$2:$C$99, 4) + COUNTIFS($K$2:$K$99, Z55, $C$2:$C$99, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="83"/>
+        <v>19</v>
+      </c>
+      <c r="AF55">
+        <f>COUNTIF($K$2:$K$99, Z55)</f>
+        <v>10</v>
+      </c>
+      <c r="AG55">
+        <f>COUNTIF($J$2:$J$99, Z55)</f>
+        <v>9</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="84"/>
+        <v>10</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="85"/>
+        <v>9</v>
+      </c>
+      <c r="AJ55">
+        <f>SUMPRODUCT(($K$2:$K$99=Z55)*($O$2:$O$99&gt;$N$2:$N$99))</f>
+        <v>4</v>
+      </c>
+      <c r="AK55">
+        <f>SUMPRODUCT(($K$2:$K$99=Z55)*($O$2:$O$99&lt;$N$2:$N$99))</f>
+        <v>6</v>
+      </c>
+      <c r="AL55">
+        <f>SUMPRODUCT(($J$2:$J$99=Z55)*($O$2:$O$99&lt;$N$2:$N$99))</f>
+        <v>6</v>
+      </c>
+      <c r="AM55">
+        <f>SUMPRODUCT(($J$2:$J$99=Z55)*($O$2:$O$99&gt;$N$2:$N$99))</f>
+        <v>3</v>
+      </c>
+      <c r="AN55">
+        <f>COUNTIFS($K$2:$K$99,Z55,$C$2:$C$99,3)</f>
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <f>COUNTIFS($J$2:$J$99,Z55,$C$2:$C$99,3)</f>
+        <v>3</v>
+      </c>
+      <c r="AP55">
+        <f>SUMIFS($O$2:$O$99, $K$2:$K$99, Z55,$C$2:$C$99, 3)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ55">
+        <f>SUMIFS($N$2:$N$99, $J$2:$J$99, Z55,$C$2:$C$99, 3)</f>
+        <v>8</v>
+      </c>
+      <c r="AR55">
+        <f>SUMIFS($N$2:$N$99, $K$2:$K$99, Z55,$C$2:$C$99, 3)</f>
+        <v>7</v>
+      </c>
+      <c r="AS55">
+        <f>SUMIFS($O$2:$O$99, $J$2:$J$99, Z55,$C$2:$C$99, 3)</f>
+        <v>10</v>
+      </c>
+      <c r="AT55">
+        <f t="shared" si="86"/>
+        <v>-1</v>
+      </c>
+      <c r="AU55">
         <f t="shared" si="87"/>
-        <v>7</v>
-      </c>
-      <c r="AB55">
+        <v>-2</v>
+      </c>
+      <c r="AV55">
         <f t="shared" si="88"/>
-        <v>6</v>
-      </c>
-      <c r="AC55">
+        <v>14</v>
+      </c>
+      <c r="AW55">
         <f t="shared" si="89"/>
-        <v>6</v>
-      </c>
-      <c r="AD55">
+        <v>17</v>
+      </c>
+      <c r="AX55">
         <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
-      <c r="AE55">
+        <v>-3</v>
+      </c>
+      <c r="AY55">
         <f t="shared" si="91"/>
-        <v>19</v>
-      </c>
-      <c r="AF55">
+        <v>2</v>
+      </c>
+      <c r="AZ55">
         <f t="shared" si="92"/>
-        <v>10</v>
-      </c>
-      <c r="AG55">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BA55">
         <f t="shared" si="93"/>
-        <v>9</v>
-      </c>
-      <c r="AH55">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB55">
         <f t="shared" si="94"/>
-        <v>10</v>
-      </c>
-      <c r="AI55">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="BC55">
         <f t="shared" si="95"/>
-        <v>9</v>
-      </c>
-      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="BD55">
         <f t="shared" si="96"/>
-        <v>4</v>
-      </c>
-      <c r="AK55">
-        <f t="shared" si="97"/>
-        <v>5</v>
-      </c>
-      <c r="AL55">
-        <f t="shared" si="98"/>
-        <v>6</v>
-      </c>
-      <c r="AM55">
-        <f t="shared" si="99"/>
-        <v>2</v>
-      </c>
-      <c r="AN55">
-        <f t="shared" si="100"/>
-        <v>3</v>
-      </c>
-      <c r="AO55">
-        <f t="shared" si="101"/>
-        <v>3</v>
-      </c>
-      <c r="AP55">
-        <f t="shared" si="102"/>
-        <v>5</v>
-      </c>
-      <c r="AQ55">
-        <f t="shared" si="103"/>
-        <v>7</v>
-      </c>
-      <c r="AR55">
-        <f t="shared" si="104"/>
-        <v>4</v>
-      </c>
-      <c r="AS55">
-        <f t="shared" si="105"/>
-        <v>8</v>
-      </c>
-      <c r="AT55">
-        <f t="shared" si="106"/>
-        <v>1</v>
-      </c>
-      <c r="AU55">
-        <f t="shared" si="107"/>
-        <v>-1</v>
-      </c>
-      <c r="AV55">
-        <f t="shared" si="108"/>
-        <v>12</v>
-      </c>
-      <c r="AW55">
-        <f t="shared" si="109"/>
-        <v>12</v>
-      </c>
-      <c r="AX55">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <f t="shared" si="111"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AZ55">
-        <f t="shared" si="112"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BA55">
-        <f t="shared" si="113"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="BB55">
-        <f t="shared" si="114"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BC55">
-        <f t="shared" si="115"/>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="BD55">
-        <f t="shared" si="116"/>
-        <v>1.7142857142857142</v>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.25">
@@ -8944,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -8998,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -9052,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -9106,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -9160,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -9214,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -9268,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -9322,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -9376,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -9430,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -9538,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -9592,7 +9602,7 @@
         <v>2</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -9646,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -9700,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="31">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -9754,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -9808,7 +9818,7 @@
         <v>2</v>
       </c>
       <c r="Q72" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -9862,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -9916,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="W74" s="2">
@@ -9974,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -10028,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="Q76" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -10082,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -10136,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -10190,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
@@ -10216,8 +10226,12 @@
       <c r="G80" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
+      <c r="H80" s="4">
+        <v>2</v>
+      </c>
+      <c r="I80" s="4">
+        <v>3</v>
+      </c>
       <c r="J80" s="2" t="s">
         <v>21</v>
       </c>
@@ -10230,12 +10244,18 @@
       <c r="M80" s="3">
         <v>45443</v>
       </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
+      <c r="N80" s="2">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2">
+        <v>1</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0</v>
+      </c>
       <c r="Q80" s="2">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f t="shared" si="79"/>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -10260,90 +10280,122 @@
       <c r="G81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
+      <c r="H81" s="4">
+        <v>2</v>
+      </c>
+      <c r="I81" s="4">
+        <v>4</v>
+      </c>
       <c r="J81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
+      <c r="L81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M81" s="3">
+        <v>45444</v>
+      </c>
+      <c r="N81" s="2">
+        <v>1</v>
+      </c>
+      <c r="O81" s="2">
+        <v>2</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0</v>
+      </c>
       <c r="Q81" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="34">
         <v>45445</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="4">
-        <v>3</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="C82" s="36">
+        <v>3</v>
+      </c>
+      <c r="D82" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="36">
         <v>6</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="2" t="s">
+      <c r="H82" s="36">
+        <v>2</v>
+      </c>
+      <c r="I82" s="36">
+        <v>4</v>
+      </c>
+      <c r="J82" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2">
-        <f t="shared" si="83"/>
-        <v>0</v>
+      <c r="L82" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82" s="34">
+        <v>45445</v>
+      </c>
+      <c r="N82" s="35">
+        <v>1</v>
+      </c>
+      <c r="O82" s="35">
+        <v>2</v>
+      </c>
+      <c r="P82" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="35">
+        <f t="shared" si="79"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>45446</v>
+        <v>45451</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C83" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E83" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10353,30 +10405,34 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>45447</v>
+        <v>45453</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C84" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E84" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10385,13 +10441,35 @@
       <c r="Q84" s="2"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="A85" s="3">
+        <v>45425</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="4">
+        <v>4</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10400,13 +10478,35 @@
       <c r="Q85" s="2"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="A86" s="3">
+        <v>45458</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="4">
+        <v>4</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" s="4">
+        <v>4</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10459,73 +10559,58 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A59:XFD1048576 A1:XFD20 A21:AE37 A40:AE44 Z45:AE48 Z51:AE55 Z58:AE58 AF21:AO21 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 BI21:XFD37 A38:XFD39 AF40:AO40 AQ40:BD40 AP40:AP48 BE40:XFD58 A45:Y58 AP51:AP55 AP58">
+  <conditionalFormatting sqref="A1:XFD20 A21:AE37 A40:AE44 Z45:AE48 Z51:AE55 Z58:AE58 AF21:AO21 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 BI21:XFD37 A38:XFD39 AF40:AO40 AQ40:BD40 AP40:AP48 BE40:XFD58 A45:Y58 AP51:AP55 AP58 A59:XFD1048576">
     <cfRule type="cellIs" dxfId="32" priority="103" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="31" priority="104" operator="equal">
       <formula>"EDM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="105" operator="equal">
+      <formula>"DAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="106" operator="equal">
+      <formula>"NSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="107" operator="equal">
+      <formula>"VAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="108" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="109" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="110" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="111" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="112" operator="equal">
       <formula>"NYR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="113" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="114" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="115" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="116" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="117" operator="equal">
+      <formula>"CAR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="118" operator="equal">
       <formula>"FLA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="117" operator="equal">
-      <formula>"CAR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="116" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="115" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="114" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="113" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="111" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="110" operator="equal">
-      <formula>"VGK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="109" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="108" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="107" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="106" operator="equal">
-      <formula>"NSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="105" operator="equal">
-      <formula>"DAL"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I79">
+  <conditionalFormatting sqref="H1:I99">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10647,41 +10732,41 @@
     <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"NSH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>"FLA"</formula>
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"VAN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"COL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"WPG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"VGK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"WSH"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+      <formula>"NYR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+      <formula>"TBL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+      <formula>"BOS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+      <formula>"TOR"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+      <formula>"NYI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
       <formula>"CAR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
-      <formula>"NYI"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
-      <formula>"TOR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
-      <formula>"BOS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
-      <formula>"TBL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
-      <formula>"NYR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
-      <formula>"WSH"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
-      <formula>"WPG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
-      <formula>"COL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"VAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>"VGK"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+      <formula>"FLA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT58:AU58 AX58 AX52:AX55 AT52:AU55">

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E82A91A-A40A-4D47-ACF8-366CC628BC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2999CB90-7E4D-400F-A51B-C348D448695C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4830" windowWidth="15990" windowHeight="24840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="138">
   <si>
     <t>NYI</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>GP R3 H</t>
+  </si>
+  <si>
+    <t>WINNER</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -678,6 +681,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1398,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:BL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,6 +1425,7 @@
     <col min="14" max="15" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
@@ -1504,6 +1511,9 @@
       <c r="Q1" s="16" t="s">
         <v>23</v>
       </c>
+      <c r="R1" s="38" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -1557,6 +1567,10 @@
       <c r="Q2" s="2">
         <f t="shared" ref="Q2:Q32" si="0">IF($N2=$O2, 0, IF($J2=$L2, IF($N2&gt;$O2, 1, 0), IF($O2&gt;$N2, 1, 0)))</f>
         <v>1</v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <f>IF(N2&gt;O2,J2,K2)</f>
+        <v>CAR</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="4"/>
@@ -1653,6 +1667,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R3" s="2" t="str">
+        <f>IF(N3&gt;O3,J3,K3)</f>
+        <v>BOS</v>
+      </c>
       <c r="T3" t="s">
         <v>36</v>
       </c>
@@ -1679,19 +1697,19 @@
         <v>5</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y3)</f>
+        <f t="shared" ref="AC3:AC17" si="1">SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y3)</f>
         <v>3</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD17" si="1">AC3/AB3</f>
+        <f t="shared" ref="AD3:AD17" si="2">AC3/AB3</f>
         <v>0.6</v>
       </c>
       <c r="AE3">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z3,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z3,$C$2:$C$99,1)</f>
+        <f t="shared" ref="AE3:AF10" si="3">SUMIFS($O$2:$O$99,$K$2:$K$99,Z3,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z3,$C$2:$C$99,1)</f>
         <v>20</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA3,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA3,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="AG3">
@@ -1751,6 +1769,10 @@
       <c r="Q4" s="2">
         <f>IF($N4=$O4, 0, IF($J4=$L4, IF($N4&gt;$O4, 1, 0), IF($O4&gt;$N4, 1, 0)))</f>
         <v>1</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f>IF(N4&gt;O4,J4,K4)</f>
+        <v>FLA</v>
       </c>
       <c r="T4" t="s">
         <v>37</v>
@@ -1778,19 +1800,19 @@
         <v>7</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y4)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="AE4">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z4,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z4,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA4,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA4,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -1847,6 +1869,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R5" s="2" t="str">
+        <f>IF(N5&gt;O5,J5,K5)</f>
+        <v>NYR</v>
+      </c>
       <c r="T5" t="s">
         <v>24</v>
       </c>
@@ -1854,7 +1880,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H99)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1873,19 +1899,19 @@
         <v>5</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y5)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="AE5">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z5,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z5,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA5,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA5,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -1941,6 +1967,10 @@
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f>IF(N6&gt;O6,J6,K6)</f>
+        <v>WPG</v>
       </c>
       <c r="T6" t="s">
         <v>25</v>
@@ -1968,19 +1998,19 @@
         <v>4</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y6)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="AE6">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z6,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z6,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA6,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA6,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -2037,6 +2067,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R7" s="2" t="str">
+        <f>IF(N7&gt;O7,J7,K7)</f>
+        <v>VAN</v>
+      </c>
       <c r="T7" t="s">
         <v>26</v>
       </c>
@@ -2044,7 +2078,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.61728395061728392</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2063,19 +2097,19 @@
         <v>6</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AE7">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z7,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z7,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA7,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA7,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -2131,6 +2165,10 @@
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f>IF(N8&gt;O8,J8,K8)</f>
+        <v>CAR</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="4"/>
@@ -2152,19 +2190,19 @@
         <v>5</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y8)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="AE8">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z8,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z8,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA8,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA8,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -2220,6 +2258,10 @@
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f>IF(N9&gt;O9,J9,K9)</f>
+        <v>TOR</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="4"/>
@@ -2241,19 +2283,19 @@
         <v>5</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y9)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="AE9">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z9,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z9,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA9,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA9,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
@@ -2309,6 +2351,10 @@
       <c r="Q10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="R10" s="2" t="str">
+        <f>IF(N10&gt;O10,J10,K10)</f>
+        <v>VGK</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="4"/>
@@ -2330,19 +2376,19 @@
         <v>7</v>
       </c>
       <c r="AC10">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y10)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="AE10">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z10,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z10,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="AF10">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA10,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA10,$C$2:$C$99,1)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="AG10" s="11"/>
@@ -2404,6 +2450,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R11" s="2" t="str">
+        <f>IF(N11&gt;O11,J11,K11)</f>
+        <v>EDM</v>
+      </c>
       <c r="V11" s="4"/>
       <c r="Y11" s="7" t="s">
         <v>58</v>
@@ -2421,19 +2471,19 @@
         <v>6</v>
       </c>
       <c r="AC11">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y11)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AE11">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z11,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z11,$C$2:$C$99,2)</f>
+        <f t="shared" ref="AE11:AF14" si="4">SUMIFS($O$2:$O$99,$K$2:$K$99,Z11,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z11,$C$2:$C$99,2)</f>
         <v>20</v>
       </c>
       <c r="AF11">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA11,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA11,$C$2:$C$99,2)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
@@ -2490,6 +2540,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R12" s="2" t="str">
+        <f>IF(N12&gt;O12,J12,K12)</f>
+        <v>NYR</v>
+      </c>
       <c r="V12" s="4"/>
       <c r="Y12" s="7" t="s">
         <v>59</v>
@@ -2507,19 +2561,19 @@
         <v>6</v>
       </c>
       <c r="AC12">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y12)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AE12">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z12,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z12,$C$2:$C$99,2)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="AF12">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA12,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA12,$C$2:$C$99,2)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
@@ -2576,6 +2630,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R13" s="2" t="str">
+        <f>IF(N13&gt;O13,J13,K13)</f>
+        <v>FLA</v>
+      </c>
       <c r="V13" s="4"/>
       <c r="Y13" s="7" t="s">
         <v>60</v>
@@ -2593,19 +2651,19 @@
         <v>6</v>
       </c>
       <c r="AC13">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y13)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AE13">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z13,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z13,$C$2:$C$99,2)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="AF13">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA13,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA13,$C$2:$C$99,2)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -2662,6 +2720,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R14" s="2" t="str">
+        <f>IF(N14&gt;O14,J14,K14)</f>
+        <v>COL</v>
+      </c>
       <c r="V14" s="4"/>
       <c r="Y14" s="12" t="s">
         <v>64</v>
@@ -2679,19 +2741,19 @@
         <v>7</v>
       </c>
       <c r="AC14">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y14)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AD14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AE14">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,Z14,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z14,$C$2:$C$99,2)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AF14">
-        <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA14,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA14,$C$2:$C$99,2)</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="AG14" s="11"/>
@@ -2753,6 +2815,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R15" s="2" t="str">
+        <f>IF(N15&gt;O15,J15,K15)</f>
+        <v>NSH</v>
+      </c>
       <c r="V15" s="4"/>
       <c r="Y15" s="7" t="s">
         <v>61</v>
@@ -2770,11 +2836,11 @@
         <v>6</v>
       </c>
       <c r="AC15">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y15)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AE15">
@@ -2839,6 +2905,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R16" s="2" t="str">
+        <f>IF(N16&gt;O16,J16,K16)</f>
+        <v>BOS</v>
+      </c>
       <c r="V16" s="4"/>
       <c r="Y16" s="12" t="s">
         <v>62</v>
@@ -2856,11 +2926,11 @@
         <v>6</v>
       </c>
       <c r="AC16">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y16)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AD16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AE16">
@@ -2930,6 +3000,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R17" s="2" t="str">
+        <f>IF(N17&gt;O17,J17,K17)</f>
+        <v>VGK</v>
+      </c>
       <c r="V17" s="4"/>
       <c r="Y17" s="13" t="s">
         <v>63</v>
@@ -2947,11 +3021,11 @@
         <v>4</v>
       </c>
       <c r="AC17">
-        <f>SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD17" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE17">
@@ -3021,6 +3095,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R18" s="2" t="str">
+        <f>IF(N18&gt;O18,J18,K18)</f>
+        <v>LAK</v>
+      </c>
       <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
@@ -3076,6 +3154,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R19" s="2" t="str">
+        <f>IF(N19&gt;O19,J19,K19)</f>
+        <v>FLA</v>
+      </c>
       <c r="V19" s="4"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
@@ -3131,6 +3213,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R20" s="2" t="str">
+        <f>IF(N20&gt;O20,J20,K20)</f>
+        <v>CAR</v>
+      </c>
       <c r="V20" s="4"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.25">
@@ -3186,6 +3272,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R21" s="2" t="str">
+        <f>IF(N21&gt;O21,J21,K21)</f>
+        <v>NYR</v>
+      </c>
       <c r="V21" s="4"/>
       <c r="AA21" t="s">
         <v>67</v>
@@ -3349,84 +3439,88 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R22" s="2" t="str">
+        <f>IF(N22&gt;O22,J22,K22)</f>
+        <v>COL</v>
+      </c>
       <c r="V22" s="4"/>
       <c r="Z22" t="s">
         <v>11</v>
       </c>
       <c r="AA22">
-        <f t="shared" ref="AA22:AA37" si="2">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 1)</f>
+        <f>COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB22">
-        <f t="shared" ref="AB22:AB37" si="3">COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 2)</f>
+        <f>COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC22">
-        <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 3)</f>
+        <f>COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 3)</f>
         <v>6</v>
       </c>
       <c r="AD22">
-        <f>COUNTIFS($J$2:$J$81, Z22, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z22, $C$2:$C$81, 4)</f>
-        <v>0</v>
+        <f>COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 4)</f>
+        <v>4</v>
       </c>
       <c r="AE22">
         <f>AA22+AB22+AC22+AD22</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF22">
-        <f>COUNTIF($K$2:$K$81, Z22)</f>
-        <v>9</v>
+        <f>COUNTIF($K$2:$K$100, Z22)</f>
+        <v>11</v>
       </c>
       <c r="AG22">
-        <f>COUNTIF($J$2:$J$81, Z22)</f>
-        <v>8</v>
+        <f>COUNTIF($J$2:$J$100, Z22)</f>
+        <v>10</v>
       </c>
       <c r="AH22">
         <f>AJ22+AL22</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI22">
         <f>AE22-AH22</f>
+        <v>8</v>
+      </c>
+      <c r="AJ22">
+        <f>SUMPRODUCT(($K$2:$K$100=Z22)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>7</v>
+      </c>
+      <c r="AK22">
+        <f>SUMPRODUCT(($K$2:$K$100=Z22)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AL22">
+        <f>SUMPRODUCT(($J$2:$J$100=Z22)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>6</v>
+      </c>
+      <c r="AM22">
+        <f>SUMPRODUCT(($J$2:$J$100=Z22)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AN22">
+        <f>COUNTIFS($K$2:$K$100,Z22,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <f>COUNTIFS($J$2:$J$100,Z22,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AP22">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z22,$C$2:$C$100, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AQ22">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z22,$C$2:$C$100, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AR22">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z22,$C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
-      <c r="AJ22" cm="1">
-        <f t="array" ref="AJ22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>6</v>
-      </c>
-      <c r="AK22" cm="1">
-        <f t="array" ref="AK22">SUMPRODUCT(($K$2:$K$81=Z22)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AL22" cm="1">
-        <f t="array" ref="AL22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>6</v>
-      </c>
-      <c r="AM22" cm="1">
-        <f t="array" ref="AM22">SUMPRODUCT(($J$2:$J$81=Z22)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN22">
-        <f t="shared" ref="AN22:AN37" si="4">COUNTIFS($K$2:$K$81,Z22,$C$2:$C$81,1)</f>
-        <v>3</v>
-      </c>
-      <c r="AO22">
-        <f t="shared" ref="AO22:AO37" si="5">COUNTIFS($J$2:$J$81,Z22,$C$2:$C$81,1)</f>
-        <v>2</v>
-      </c>
-      <c r="AP22">
-        <f t="shared" ref="AP22:AP37" si="6">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
-        <v>12</v>
-      </c>
-      <c r="AQ22">
-        <f t="shared" ref="AQ22:AQ37" si="7">SUMIFS($N$2:$N$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
-        <v>8</v>
-      </c>
-      <c r="AR22">
-        <f t="shared" ref="AR22:AR37" si="8">SUMIFS($N$2:$N$81, $K$2:$K$81, Z22,$C$2:$C$81, 1)</f>
-        <v>5</v>
-      </c>
       <c r="AS22">
-        <f t="shared" ref="AS22:AS37" si="9">SUMIFS($O$2:$O$81, $J$2:$J$81, Z22,$C$2:$C$81, 1)</f>
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z22,$C$2:$C$100, 1)</f>
         <v>9</v>
       </c>
       <c r="AT22">
@@ -3466,15 +3560,15 @@
         <v>4.5</v>
       </c>
       <c r="BC22">
-        <f t="shared" ref="BC22:BC37" si="10">AV22/AA22</f>
+        <f t="shared" ref="BC22:BC37" si="5">AV22/AA22</f>
         <v>4</v>
       </c>
       <c r="BD22">
-        <f t="shared" ref="BD22:BD37" si="11">AW22/AA22</f>
+        <f t="shared" ref="BD22:BD37" si="6">AW22/AA22</f>
         <v>2.8</v>
       </c>
       <c r="BG22">
-        <f t="shared" ref="BG22:BG37" si="12">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
+        <f t="shared" ref="BG22:BG37" si="7">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ22" t="e">
@@ -3535,132 +3629,136 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R23" s="2" t="str">
+        <f>IF(N23&gt;O23,J23,K23)</f>
+        <v>LAK</v>
+      </c>
       <c r="V23" s="4"/>
       <c r="Z23" t="s">
         <v>3</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z23, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z23, $C$2:$C$100, 1)</f>
         <v>7</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z23, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z23, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC23">
-        <f t="shared" ref="AC23:AC37" si="13">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 3)</f>
+        <f>COUNTIFS($J$2:$J$100, Z23, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z23, $C$2:$C$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AD23">
-        <f t="shared" ref="AD23:AD37" si="14">COUNTIFS($J$2:$J$81, Z23, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z23, $C$2:$C$81, 4)</f>
+        <f>COUNTIFS($J$2:$J$100, Z23, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z23, $C$2:$C$100, 4)</f>
         <v>0</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AE37" si="15">AA23+AB23+AC23+AD23</f>
+        <f t="shared" ref="AE23:AE37" si="8">AA23+AB23+AC23+AD23</f>
         <v>13</v>
       </c>
       <c r="AF23">
-        <f t="shared" ref="AF23:AF37" si="16">COUNTIF($K$2:$K$81, Z23)</f>
+        <f>COUNTIF($K$2:$K$100, Z23)</f>
         <v>7</v>
       </c>
       <c r="AG23">
-        <f t="shared" ref="AG23:AG37" si="17">COUNTIF($J$2:$J$81, Z23)</f>
+        <f>COUNTIF($J$2:$J$100, Z23)</f>
         <v>6</v>
       </c>
       <c r="AH23">
-        <f t="shared" ref="AH23:AH37" si="18">AJ23+AL23</f>
+        <f>AJ23+AL23</f>
         <v>6</v>
       </c>
       <c r="AI23">
-        <f t="shared" ref="AI23:AI37" si="19">AE23-AH23</f>
+        <f>AE23-AH23</f>
         <v>7</v>
       </c>
-      <c r="AJ23" cm="1">
-        <f t="array" ref="AJ23">SUMPRODUCT(($K$2:$K$81=Z23)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AK23" cm="1">
-        <f t="array" ref="AK23">SUMPRODUCT(($K$2:$K$81=Z23)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+      <c r="AJ23">
+        <f>SUMPRODUCT(($K$2:$K$100=Z23)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AK23">
+        <f>SUMPRODUCT(($K$2:$K$100=Z23)*($O$2:$O$100&lt;$N$2:$N$100))</f>
         <v>5</v>
       </c>
-      <c r="AL23" cm="1">
-        <f t="array" ref="AL23">SUMPRODUCT(($J$2:$J$81=Z23)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM23" cm="1">
-        <f t="array" ref="AM23">SUMPRODUCT(($J$2:$J$81=Z23)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+      <c r="AL23">
+        <f>SUMPRODUCT(($J$2:$J$100=Z23)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>4</v>
+      </c>
+      <c r="AM23">
+        <f>SUMPRODUCT(($J$2:$J$100=Z23)*($O$2:$O$100&gt;$N$2:$N$100))</f>
         <v>2</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($K$2:$K$100,Z23,$C$2:$C$100,1)</f>
         <v>4</v>
       </c>
       <c r="AO23">
+        <f>COUNTIFS($J$2:$J$100,Z23,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z23,$C$2:$C$100, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AQ23">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z23,$C$2:$C$100, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AR23">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z23,$C$2:$C$100, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AS23">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z23,$C$2:$C$100, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" ref="AT23:AT37" si="9">AP23-AR23</f>
+        <v>3</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" ref="AU23:AU37" si="10">AQ23-AS23</f>
+        <v>3</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" ref="AV23:AV37" si="11">AP23+AQ23</f>
+        <v>18</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" ref="AW23:AW37" si="12">AR23+AS23</f>
+        <v>12</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" ref="AX23:AX37" si="13">(AP23+AQ23)-(AR23+AS23)</f>
+        <v>6</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" ref="AY23:AY37" si="14">AP23/AN23</f>
+        <v>2.5</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" ref="AZ23:AZ37" si="15">AQ23/AO23</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" ref="BA23:BA37" si="16">AR23/AN23</f>
+        <v>1.75</v>
+      </c>
+      <c r="BB23">
+        <f t="shared" ref="BB23:BB37" si="17">AS23/AO23</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="BC23">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AP23">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="BD23">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AQ23">
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="BG23">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="AR23">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AS23">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="AT23">
-        <f t="shared" ref="AT23:AT37" si="20">AP23-AR23</f>
-        <v>3</v>
-      </c>
-      <c r="AU23">
-        <f t="shared" ref="AU23:AU37" si="21">AQ23-AS23</f>
-        <v>3</v>
-      </c>
-      <c r="AV23">
-        <f t="shared" ref="AV23:AV37" si="22">AP23+AQ23</f>
-        <v>18</v>
-      </c>
-      <c r="AW23">
-        <f t="shared" ref="AW23:AW37" si="23">AR23+AS23</f>
-        <v>12</v>
-      </c>
-      <c r="AX23">
-        <f t="shared" ref="AX23:AX37" si="24">(AP23+AQ23)-(AR23+AS23)</f>
-        <v>6</v>
-      </c>
-      <c r="AY23">
-        <f t="shared" ref="AY23:AY37" si="25">AP23/AN23</f>
-        <v>2.5</v>
-      </c>
-      <c r="AZ23">
-        <f t="shared" ref="AZ23:AZ37" si="26">AQ23/AO23</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BA23">
-        <f t="shared" ref="BA23:BA37" si="27">AR23/AN23</f>
-        <v>1.75</v>
-      </c>
-      <c r="BB23">
-        <f t="shared" ref="BB23:BB37" si="28">AS23/AO23</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="BC23">
-        <f t="shared" si="10"/>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="BD23">
-        <f t="shared" si="11"/>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="BG23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ23" t="e">
@@ -3721,132 +3819,136 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R24" s="2" t="str">
+        <f>IF(N24&gt;O24,J24,K24)</f>
+        <v>VAN</v>
+      </c>
       <c r="V24" s="4"/>
       <c r="Z24" t="s">
         <v>2</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z24, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z24, $C$2:$C$100, 1)</f>
         <v>7</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z24, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z24, $C$2:$C$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AC24">
+        <f>COUNTIFS($J$2:$J$100, Z24, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z24, $C$2:$C$100, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f>COUNTIFS($J$2:$J$100, Z24, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z24, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AF24">
+        <f>COUNTIF($K$2:$K$100, Z24)</f>
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <f>COUNTIF($J$2:$J$100, Z24)</f>
+        <v>4</v>
+      </c>
+      <c r="AH24">
+        <f>AJ24+AL24</f>
+        <v>3</v>
+      </c>
+      <c r="AI24">
+        <f>AE24-AH24</f>
+        <v>4</v>
+      </c>
+      <c r="AJ24">
+        <f>SUMPRODUCT(($K$2:$K$100=Z24)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <f>SUMPRODUCT(($K$2:$K$100=Z24)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AL24">
+        <f>SUMPRODUCT(($J$2:$J$100=Z24)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AM24">
+        <f>SUMPRODUCT(($J$2:$J$100=Z24)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AN24">
+        <f>COUNTIFS($K$2:$K$100,Z24,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <f>COUNTIFS($J$2:$J$100,Z24,$C$2:$C$100,1)</f>
+        <v>4</v>
+      </c>
+      <c r="AP24">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z24,$C$2:$C$100, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AQ24">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z24,$C$2:$C$100, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AR24">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z24,$C$2:$C$100, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AS24">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z24,$C$2:$C$100, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="AX24">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD24">
+        <v>-6</v>
+      </c>
+      <c r="AY24">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE24">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AZ24">
         <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="AF24">
+        <v>1.75</v>
+      </c>
+      <c r="BA24">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="AG24">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BB24">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="AI24">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AJ24" cm="1">
-        <f t="array" ref="AJ24">SUMPRODUCT(($K$2:$K$81=Z24)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AK24" cm="1">
-        <f t="array" ref="AK24">SUMPRODUCT(($K$2:$K$81=Z24)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AL24" cm="1">
-        <f t="array" ref="AL24">SUMPRODUCT(($J$2:$J$81=Z24)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AM24" cm="1">
-        <f t="array" ref="AM24">SUMPRODUCT(($J$2:$J$81=Z24)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN24">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AO24">
+        <v>2.5</v>
+      </c>
+      <c r="BC24">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AP24">
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="BD24">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AQ24">
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="BG24">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="AR24">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AS24">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="AT24">
-        <f t="shared" si="20"/>
-        <v>-3</v>
-      </c>
-      <c r="AU24">
-        <f t="shared" si="21"/>
-        <v>-3</v>
-      </c>
-      <c r="AV24">
-        <f t="shared" si="22"/>
-        <v>12</v>
-      </c>
-      <c r="AW24">
-        <f t="shared" si="23"/>
-        <v>18</v>
-      </c>
-      <c r="AX24">
-        <f t="shared" si="24"/>
-        <v>-6</v>
-      </c>
-      <c r="AY24">
-        <f t="shared" si="25"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AZ24">
-        <f t="shared" si="26"/>
-        <v>1.75</v>
-      </c>
-      <c r="BA24">
-        <f t="shared" si="27"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BB24">
-        <f t="shared" si="28"/>
-        <v>2.5</v>
-      </c>
-      <c r="BC24">
-        <f t="shared" si="10"/>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="BD24">
-        <f t="shared" si="11"/>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="BG24">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ24" t="e">
@@ -3907,132 +4009,136 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R25" s="2" t="str">
+        <f>IF(N25&gt;O25,J25,K25)</f>
+        <v>NYI</v>
+      </c>
       <c r="V25" s="4"/>
       <c r="Z25" t="s">
         <v>10</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z25, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z25, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z25, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z25, $C$2:$C$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AC25">
+        <f>COUNTIFS($J$2:$J$100, Z25, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z25, $C$2:$C$100, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f>COUNTIFS($J$2:$J$100, Z25, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z25, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AF25">
+        <f>COUNTIF($K$2:$K$100, Z25)</f>
+        <v>2</v>
+      </c>
+      <c r="AG25">
+        <f>COUNTIF($J$2:$J$100, Z25)</f>
+        <v>3</v>
+      </c>
+      <c r="AH25">
+        <f>AJ25+AL25</f>
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <f>AE25-AH25</f>
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <f>SUMPRODUCT(($K$2:$K$100=Z25)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <f>SUMPRODUCT(($K$2:$K$100=Z25)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <f>SUMPRODUCT(($J$2:$J$100=Z25)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <f>SUMPRODUCT(($J$2:$J$100=Z25)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AN25">
+        <f>COUNTIFS($K$2:$K$100,Z25,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO25">
+        <f>COUNTIFS($J$2:$J$100,Z25,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP25">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z25,$C$2:$C$100, 1)</f>
+        <v>9</v>
+      </c>
+      <c r="AQ25">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z25,$C$2:$C$100, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AR25">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z25,$C$2:$C$100, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AS25">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z25,$C$2:$C$100, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="10"/>
+        <v>-7</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="AX25">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD25">
+        <v>-6</v>
+      </c>
+      <c r="AY25">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE25">
+        <v>4.5</v>
+      </c>
+      <c r="AZ25">
         <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="AF25">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="BA25">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AG25">
+        <v>4</v>
+      </c>
+      <c r="BB25">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AI25">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AJ25" cm="1">
-        <f t="array" ref="AJ25">SUMPRODUCT(($K$2:$K$81=Z25)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AK25" cm="1">
-        <f t="array" ref="AK25">SUMPRODUCT(($K$2:$K$81=Z25)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AL25" cm="1">
-        <f t="array" ref="AL25">SUMPRODUCT(($J$2:$J$81=Z25)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>0</v>
-      </c>
-      <c r="AM25" cm="1">
-        <f t="array" ref="AM25">SUMPRODUCT(($J$2:$J$81=Z25)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AN25">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AO25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AP25">
+        <v>2.8</v>
+      </c>
+      <c r="BD25">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="AQ25">
+        <v>4</v>
+      </c>
+      <c r="BG25">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AR25">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AS25">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="AT25">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AU25">
-        <f t="shared" si="21"/>
-        <v>-7</v>
-      </c>
-      <c r="AV25">
-        <f t="shared" si="22"/>
-        <v>14</v>
-      </c>
-      <c r="AW25">
-        <f t="shared" si="23"/>
-        <v>20</v>
-      </c>
-      <c r="AX25">
-        <f t="shared" si="24"/>
-        <v>-6</v>
-      </c>
-      <c r="AY25">
-        <f t="shared" si="25"/>
-        <v>4.5</v>
-      </c>
-      <c r="AZ25">
-        <f t="shared" si="26"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="BA25">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="BB25">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="BC25">
-        <f t="shared" si="10"/>
-        <v>2.8</v>
-      </c>
-      <c r="BD25">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="BG25">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ25" t="e">
@@ -4093,132 +4199,136 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R26" s="2" t="str">
+        <f>IF(N26&gt;O26,J26,K26)</f>
+        <v>TBL</v>
+      </c>
       <c r="V26" s="4"/>
       <c r="Z26" t="s">
         <v>13</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z26, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z26, $C$2:$C$100, 1)</f>
         <v>4</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z26, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z26, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC26">
+        <f>COUNTIFS($J$2:$J$100, Z26, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z26, $C$2:$C$100, 3)</f>
+        <v>6</v>
+      </c>
+      <c r="AD26">
+        <f>COUNTIFS($J$2:$J$100, Z26, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z26, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="AF26">
+        <f>COUNTIF($K$2:$K$100, Z26)</f>
+        <v>8</v>
+      </c>
+      <c r="AG26">
+        <f>COUNTIF($J$2:$J$100, Z26)</f>
+        <v>8</v>
+      </c>
+      <c r="AH26">
+        <f>AJ26+AL26</f>
+        <v>10</v>
+      </c>
+      <c r="AI26">
+        <f>AE26-AH26</f>
+        <v>6</v>
+      </c>
+      <c r="AJ26">
+        <f>SUMPRODUCT(($K$2:$K$100=Z26)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>5</v>
+      </c>
+      <c r="AK26">
+        <f>SUMPRODUCT(($K$2:$K$100=Z26)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AL26">
+        <f>SUMPRODUCT(($J$2:$J$100=Z26)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>5</v>
+      </c>
+      <c r="AM26">
+        <f>SUMPRODUCT(($J$2:$J$100=Z26)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AN26">
+        <f>COUNTIFS($K$2:$K$100,Z26,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO26">
+        <f>COUNTIFS($J$2:$J$100,Z26,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AP26">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z26,$C$2:$C$100, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AQ26">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z26,$C$2:$C$100, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AR26">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z26,$C$2:$C$100, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AS26">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z26,$C$2:$C$100, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AX26">
         <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="AD26">
+        <v>8</v>
+      </c>
+      <c r="AY26">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE26">
+        <v>4</v>
+      </c>
+      <c r="AZ26">
         <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="AF26">
+        <v>3.5</v>
+      </c>
+      <c r="BA26">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="AG26">
+        <v>2</v>
+      </c>
+      <c r="BB26">
         <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="AI26">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="AJ26" cm="1">
-        <f t="array" ref="AJ26">SUMPRODUCT(($K$2:$K$81=Z26)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>5</v>
-      </c>
-      <c r="AK26" cm="1">
-        <f t="array" ref="AK26">SUMPRODUCT(($K$2:$K$81=Z26)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AL26" cm="1">
-        <f t="array" ref="AL26">SUMPRODUCT(($J$2:$J$81=Z26)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>5</v>
-      </c>
-      <c r="AM26" cm="1">
-        <f t="array" ref="AM26">SUMPRODUCT(($J$2:$J$81=Z26)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AN26">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AO26">
+        <v>1.5</v>
+      </c>
+      <c r="BC26">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AP26">
+        <v>3.75</v>
+      </c>
+      <c r="BD26">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="BG26">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="AR26">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AS26">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AT26">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="AU26">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="AV26">
-        <f t="shared" si="22"/>
-        <v>15</v>
-      </c>
-      <c r="AW26">
-        <f t="shared" si="23"/>
-        <v>7</v>
-      </c>
-      <c r="AX26">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="AY26">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="AZ26">
-        <f t="shared" si="26"/>
-        <v>3.5</v>
-      </c>
-      <c r="BA26">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="BB26">
-        <f t="shared" si="28"/>
-        <v>1.5</v>
-      </c>
-      <c r="BC26">
-        <f t="shared" si="10"/>
-        <v>3.75</v>
-      </c>
-      <c r="BD26">
-        <f t="shared" si="11"/>
-        <v>1.75</v>
-      </c>
-      <c r="BG26">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ26" t="e">
@@ -4279,132 +4389,136 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R27" s="2" t="str">
+        <f>IF(N27&gt;O27,J27,K27)</f>
+        <v>BOS</v>
+      </c>
       <c r="V27" s="4"/>
       <c r="Z27" t="s">
         <v>1</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z27, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z27, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z27, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z27, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC27">
+        <f>COUNTIFS($J$2:$J$100, Z27, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z27, $C$2:$C$100, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f>COUNTIFS($J$2:$J$100, Z27, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z27, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AF27">
+        <f>COUNTIF($K$2:$K$100, Z27)</f>
+        <v>6</v>
+      </c>
+      <c r="AG27">
+        <f>COUNTIF($J$2:$J$100, Z27)</f>
+        <v>5</v>
+      </c>
+      <c r="AH27">
+        <f>AJ27+AL27</f>
+        <v>6</v>
+      </c>
+      <c r="AI27">
+        <f>AE27-AH27</f>
+        <v>5</v>
+      </c>
+      <c r="AJ27">
+        <f>SUMPRODUCT(($K$2:$K$100=Z27)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>4</v>
+      </c>
+      <c r="AK27">
+        <f>SUMPRODUCT(($K$2:$K$100=Z27)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AL27">
+        <f>SUMPRODUCT(($J$2:$J$100=Z27)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AM27">
+        <f>SUMPRODUCT(($J$2:$J$100=Z27)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AN27">
+        <f>COUNTIFS($K$2:$K$100,Z27,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <f>COUNTIFS($J$2:$J$100,Z27,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z27,$C$2:$C$100, 1)</f>
+        <v>14</v>
+      </c>
+      <c r="AQ27">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z27,$C$2:$C$100, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AR27">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z27,$C$2:$C$100, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AS27">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z27,$C$2:$C$100, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="AX27">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD27">
+        <v>7</v>
+      </c>
+      <c r="AY27">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE27">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AZ27">
         <f t="shared" si="15"/>
-        <v>11</v>
-      </c>
-      <c r="AF27">
+        <v>2.5</v>
+      </c>
+      <c r="BA27">
         <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="AG27">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB27">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="AH27">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="AI27">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="AJ27" cm="1">
-        <f t="array" ref="AJ27">SUMPRODUCT(($K$2:$K$81=Z27)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AK27" cm="1">
-        <f t="array" ref="AK27">SUMPRODUCT(($K$2:$K$81=Z27)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AL27" cm="1">
-        <f t="array" ref="AL27">SUMPRODUCT(($J$2:$J$81=Z27)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AM27" cm="1">
-        <f t="array" ref="AM27">SUMPRODUCT(($J$2:$J$81=Z27)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AN27">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AO27">
+        <v>2.5</v>
+      </c>
+      <c r="BC27">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AP27">
+        <v>3.8</v>
+      </c>
+      <c r="BD27">
         <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="AQ27">
+        <v>2.4</v>
+      </c>
+      <c r="BG27">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="AR27">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AS27">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="AT27">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="AU27">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <f t="shared" si="22"/>
-        <v>19</v>
-      </c>
-      <c r="AW27">
-        <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="AX27">
-        <f t="shared" si="24"/>
-        <v>7</v>
-      </c>
-      <c r="AY27">
-        <f t="shared" si="25"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AZ27">
-        <f t="shared" si="26"/>
-        <v>2.5</v>
-      </c>
-      <c r="BA27">
-        <f t="shared" si="27"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BB27">
-        <f t="shared" si="28"/>
-        <v>2.5</v>
-      </c>
-      <c r="BC27">
-        <f t="shared" si="10"/>
-        <v>3.8</v>
-      </c>
-      <c r="BD27">
-        <f t="shared" si="11"/>
-        <v>2.4</v>
-      </c>
-      <c r="BG27">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ27" t="e">
@@ -4465,132 +4579,136 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R28" s="2" t="str">
+        <f>IF(N28&gt;O28,J28,K28)</f>
+        <v>DAL</v>
+      </c>
       <c r="V28" s="4"/>
       <c r="Z28" t="s">
         <v>0</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z28, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z28, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z28, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z28, $C$2:$C$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($J$2:$J$100, Z28, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z28, $C$2:$C$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS($J$2:$J$100, Z28, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z28, $C$2:$C$100, 4)</f>
         <v>0</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="AF28">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AG28">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="AH28">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AI28">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AJ28" cm="1">
-        <f t="array" ref="AJ28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AK28" cm="1">
-        <f t="array" ref="AK28">SUMPRODUCT(($K$2:$K$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AL28" cm="1">
-        <f t="array" ref="AL28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>0</v>
-      </c>
-      <c r="AM28" cm="1">
-        <f t="array" ref="AM28">SUMPRODUCT(($J$2:$J$81=Z28)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AN28">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AO28">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AP28">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AQ28">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="AR28">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
+      <c r="AF28">
+        <f>COUNTIF($K$2:$K$100, Z28)</f>
+        <v>2</v>
+      </c>
+      <c r="AG28">
+        <f>COUNTIF($J$2:$J$100, Z28)</f>
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <f>AJ28+AL28</f>
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <f>AE28-AH28</f>
+        <v>4</v>
+      </c>
+      <c r="AJ28">
+        <f>SUMPRODUCT(($K$2:$K$100=Z28)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <f>SUMPRODUCT(($K$2:$K$100=Z28)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <f>SUMPRODUCT(($J$2:$J$100=Z28)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <f>SUMPRODUCT(($J$2:$J$100=Z28)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AN28">
+        <f>COUNTIFS($K$2:$K$100,Z28,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO28">
+        <f>COUNTIFS($J$2:$J$100,Z28,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP28">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z28,$C$2:$C$100, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="AQ28">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z28,$C$2:$C$100, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AR28">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z28,$C$2:$C$100, 1)</f>
+        <v>5</v>
+      </c>
       <c r="AS28">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z28,$C$2:$C$100, 1)</f>
+        <v>14</v>
+      </c>
+      <c r="AT28">
         <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="AT28">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AU28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>-7</v>
       </c>
       <c r="AV28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AW28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>-7</v>
       </c>
       <c r="AY28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="AZ28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BA28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>2.5</v>
       </c>
       <c r="BB28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>4.666666666666667</v>
       </c>
       <c r="BC28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
       <c r="BD28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>3.8</v>
       </c>
       <c r="BG28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BJ28" t="e">
@@ -4651,132 +4769,136 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R29" s="2" t="str">
+        <f>IF(N29&gt;O29,J29,K29)</f>
+        <v>COL</v>
+      </c>
       <c r="V29" s="4"/>
       <c r="Z29" t="s">
         <v>12</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z29, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z29, $C$2:$C$100, 1)</f>
         <v>4</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z29, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z29, $C$2:$C$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AC29">
+        <f>COUNTIFS($J$2:$J$100, Z29, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z29, $C$2:$C$100, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f>COUNTIFS($J$2:$J$100, Z29, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z29, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AF29">
+        <f>COUNTIF($K$2:$K$100, Z29)</f>
+        <v>2</v>
+      </c>
+      <c r="AG29">
+        <f>COUNTIF($J$2:$J$100, Z29)</f>
+        <v>2</v>
+      </c>
+      <c r="AH29">
+        <f>AJ29+AL29</f>
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <f>AE29-AH29</f>
+        <v>4</v>
+      </c>
+      <c r="AJ29">
+        <f>SUMPRODUCT(($K$2:$K$100=Z29)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <f>SUMPRODUCT(($K$2:$K$100=Z29)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AL29">
+        <f>SUMPRODUCT(($J$2:$J$100=Z29)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <f>SUMPRODUCT(($J$2:$J$100=Z29)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AN29">
+        <f>COUNTIFS($K$2:$K$100,Z29,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO29">
+        <f>COUNTIFS($J$2:$J$100,Z29,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AP29">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z29,$C$2:$C$100, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="AQ29">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z29,$C$2:$C$100, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AR29">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z29,$C$2:$C$100, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AS29">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z29,$C$2:$C$100, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="AX29">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD29">
+        <v>-8</v>
+      </c>
+      <c r="AY29">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE29">
+        <v>1.5</v>
+      </c>
+      <c r="AZ29">
         <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AF29">
+        <v>2</v>
+      </c>
+      <c r="BA29">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AG29">
+        <v>3.5</v>
+      </c>
+      <c r="BB29">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AH29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AJ29" cm="1">
-        <f t="array" ref="AJ29">SUMPRODUCT(($K$2:$K$81=Z29)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>0</v>
-      </c>
-      <c r="AK29" cm="1">
-        <f t="array" ref="AK29">SUMPRODUCT(($K$2:$K$81=Z29)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AL29" cm="1">
-        <f t="array" ref="AL29">SUMPRODUCT(($J$2:$J$81=Z29)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>0</v>
-      </c>
-      <c r="AM29" cm="1">
-        <f t="array" ref="AM29">SUMPRODUCT(($J$2:$J$81=Z29)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN29">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AO29">
+        <v>4</v>
+      </c>
+      <c r="BC29">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AP29">
+        <v>1.75</v>
+      </c>
+      <c r="BD29">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AQ29">
+        <v>3.75</v>
+      </c>
+      <c r="BG29">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="AR29">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AS29">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AT29">
-        <f t="shared" si="20"/>
-        <v>-4</v>
-      </c>
-      <c r="AU29">
-        <f t="shared" si="21"/>
-        <v>-4</v>
-      </c>
-      <c r="AV29">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="AW29">
-        <f t="shared" si="23"/>
-        <v>15</v>
-      </c>
-      <c r="AX29">
-        <f t="shared" si="24"/>
-        <v>-8</v>
-      </c>
-      <c r="AY29">
-        <f t="shared" si="25"/>
-        <v>1.5</v>
-      </c>
-      <c r="AZ29">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="BA29">
-        <f t="shared" si="27"/>
-        <v>3.5</v>
-      </c>
-      <c r="BB29">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="BC29">
-        <f t="shared" si="10"/>
-        <v>1.75</v>
-      </c>
-      <c r="BD29">
-        <f t="shared" si="11"/>
-        <v>3.75</v>
-      </c>
-      <c r="BG29">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ29" t="e">
@@ -4837,132 +4959,136 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R30" s="2" t="str">
+        <f>IF(N30&gt;O30,J30,K30)</f>
+        <v>VAN</v>
+      </c>
       <c r="V30" s="4"/>
       <c r="Z30" t="s">
         <v>17</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z30, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z30, $C$2:$C$100, 1)</f>
         <v>6</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z30, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z30, $C$2:$C$100, 2)</f>
         <v>7</v>
       </c>
       <c r="AC30">
+        <f>COUNTIFS($J$2:$J$100, Z30, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z30, $C$2:$C$100, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f>COUNTIFS($J$2:$J$100, Z30, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z30, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="AF30">
+        <f>COUNTIF($K$2:$K$100, Z30)</f>
+        <v>7</v>
+      </c>
+      <c r="AG30">
+        <f>COUNTIF($J$2:$J$100, Z30)</f>
+        <v>6</v>
+      </c>
+      <c r="AH30">
+        <f>AJ30+AL30</f>
+        <v>7</v>
+      </c>
+      <c r="AI30">
+        <f>AE30-AH30</f>
+        <v>6</v>
+      </c>
+      <c r="AJ30">
+        <f>SUMPRODUCT(($K$2:$K$100=Z30)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AK30">
+        <f>SUMPRODUCT(($K$2:$K$100=Z30)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>4</v>
+      </c>
+      <c r="AL30">
+        <f>SUMPRODUCT(($J$2:$J$100=Z30)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>4</v>
+      </c>
+      <c r="AM30">
+        <f>SUMPRODUCT(($J$2:$J$100=Z30)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AN30">
+        <f>COUNTIFS($K$2:$K$100,Z30,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <f>COUNTIFS($J$2:$J$100,Z30,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z30,$C$2:$C$100, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ30">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z30,$C$2:$C$100, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AR30">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z30,$C$2:$C$100, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AS30">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z30,$C$2:$C$100, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="AX30">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AY30">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE30">
+        <v>2</v>
+      </c>
+      <c r="AZ30">
         <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-      <c r="AF30">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA30">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="AG30">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BB30">
         <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="AI30">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="AJ30" cm="1">
-        <f t="array" ref="AJ30">SUMPRODUCT(($K$2:$K$81=Z30)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AK30" cm="1">
-        <f t="array" ref="AK30">SUMPRODUCT(($K$2:$K$81=Z30)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AL30" cm="1">
-        <f t="array" ref="AL30">SUMPRODUCT(($J$2:$J$81=Z30)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM30" cm="1">
-        <f t="array" ref="AM30">SUMPRODUCT(($J$2:$J$81=Z30)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN30">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AO30">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="BC30">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AP30">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="BD30">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="BG30">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="AR30">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AS30">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AT30">
-        <f t="shared" si="20"/>
-        <v>-2</v>
-      </c>
-      <c r="AU30">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AV30">
-        <f t="shared" si="22"/>
-        <v>13</v>
-      </c>
-      <c r="AW30">
-        <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="AX30">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AZ30">
-        <f t="shared" si="26"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BA30">
-        <f t="shared" si="27"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BB30">
-        <f t="shared" si="28"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="BC30">
-        <f t="shared" si="10"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="BD30">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="BG30">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ30" t="e">
@@ -5023,132 +5149,136 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R31" s="2" t="str">
+        <f>IF(N31&gt;O31,J31,K31)</f>
+        <v>NYR</v>
+      </c>
       <c r="V31" s="4"/>
       <c r="Z31" t="s">
         <v>21</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z31, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z31, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z31, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z31, $C$2:$C$100, 2)</f>
         <v>7</v>
       </c>
       <c r="AC31">
+        <f>COUNTIFS($J$2:$J$100, Z31, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z31, $C$2:$C$100, 3)</f>
+        <v>6</v>
+      </c>
+      <c r="AD31">
+        <f>COUNTIFS($J$2:$J$100, Z31, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z31, $C$2:$C$100, 4)</f>
+        <v>4</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="AF31">
+        <f>COUNTIF($K$2:$K$100, Z31)</f>
+        <v>11</v>
+      </c>
+      <c r="AG31">
+        <f>COUNTIF($J$2:$J$100, Z31)</f>
+        <v>11</v>
+      </c>
+      <c r="AH31">
+        <f>AJ31+AL31</f>
+        <v>11</v>
+      </c>
+      <c r="AI31">
+        <f>AE31-AH31</f>
+        <v>11</v>
+      </c>
+      <c r="AJ31">
+        <f>SUMPRODUCT(($K$2:$K$100=Z31)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>6</v>
+      </c>
+      <c r="AK31">
+        <f>SUMPRODUCT(($K$2:$K$100=Z31)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AL31">
+        <f>SUMPRODUCT(($J$2:$J$100=Z31)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>5</v>
+      </c>
+      <c r="AM31">
+        <f>SUMPRODUCT(($J$2:$J$100=Z31)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>5</v>
+      </c>
+      <c r="AN31">
+        <f>COUNTIFS($K$2:$K$100,Z31,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <f>COUNTIFS($J$2:$J$100,Z31,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AP31">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z31,$C$2:$C$100, 1)</f>
+        <v>15</v>
+      </c>
+      <c r="AQ31">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z31,$C$2:$C$100, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="AR31">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z31,$C$2:$C$100, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AS31">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z31,$C$2:$C$100, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="AX31">
         <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="AD31">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE31">
+      <c r="AZ31">
         <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="BA31">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="AG31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
         <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="AI31">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="AJ31" cm="1">
-        <f t="array" ref="AJ31">SUMPRODUCT(($K$2:$K$81=Z31)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>5</v>
-      </c>
-      <c r="AK31" cm="1">
-        <f t="array" ref="AK31">SUMPRODUCT(($K$2:$K$81=Z31)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AL31" cm="1">
-        <f t="array" ref="AL31">SUMPRODUCT(($J$2:$J$81=Z31)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>5</v>
-      </c>
-      <c r="AM31" cm="1">
-        <f t="array" ref="AM31">SUMPRODUCT(($J$2:$J$81=Z31)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AN31">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AP31">
+        <v>3.4</v>
+      </c>
+      <c r="BD31">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="AQ31">
+        <v>3.6</v>
+      </c>
+      <c r="BG31">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AR31">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="AS31">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AT31">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="AU31">
-        <f t="shared" si="21"/>
-        <v>-4</v>
-      </c>
-      <c r="AV31">
-        <f t="shared" si="22"/>
-        <v>17</v>
-      </c>
-      <c r="AW31">
-        <f t="shared" si="23"/>
-        <v>18</v>
-      </c>
-      <c r="AX31">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="AY31">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="AZ31">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BA31">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="BB31">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="BC31">
-        <f t="shared" si="10"/>
-        <v>3.4</v>
-      </c>
-      <c r="BD31">
-        <f t="shared" si="11"/>
-        <v>3.6</v>
-      </c>
-      <c r="BG31">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ31" t="e">
@@ -5209,132 +5339,136 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="R32" s="2" t="str">
+        <f>IF(N32&gt;O32,J32,K32)</f>
+        <v>EDM</v>
+      </c>
       <c r="V32" s="4"/>
       <c r="Z32" t="s">
         <v>20</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z32, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z32, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z32, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z32, $C$2:$C$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AC32">
+        <f>COUNTIFS($J$2:$J$100, Z32, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z32, $C$2:$C$100, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f>COUNTIFS($J$2:$J$100, Z32, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z32, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AF32">
+        <f>COUNTIF($K$2:$K$100, Z32)</f>
+        <v>2</v>
+      </c>
+      <c r="AG32">
+        <f>COUNTIF($J$2:$J$100, Z32)</f>
+        <v>3</v>
+      </c>
+      <c r="AH32">
+        <f>AJ32+AL32</f>
+        <v>2</v>
+      </c>
+      <c r="AI32">
+        <f>AE32-AH32</f>
+        <v>3</v>
+      </c>
+      <c r="AJ32">
+        <f>SUMPRODUCT(($K$2:$K$100=Z32)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <f>SUMPRODUCT(($K$2:$K$100=Z32)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <f>SUMPRODUCT(($J$2:$J$100=Z32)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>1</v>
+      </c>
+      <c r="AM32">
+        <f>SUMPRODUCT(($J$2:$J$100=Z32)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AN32">
+        <f>COUNTIFS($K$2:$K$100,Z32,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <f>COUNTIFS($J$2:$J$100,Z32,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z32,$C$2:$C$100, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ32">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z32,$C$2:$C$100, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AR32">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z32,$C$2:$C$100, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="AS32">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z32,$C$2:$C$100, 1)</f>
+        <v>15</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="AX32">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AY32">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE32">
+        <v>3</v>
+      </c>
+      <c r="AZ32">
         <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="BA32">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="AF32">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="AI32">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="AJ32" cm="1">
-        <f t="array" ref="AJ32">SUMPRODUCT(($K$2:$K$81=Z32)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AK32" cm="1">
-        <f t="array" ref="AK32">SUMPRODUCT(($K$2:$K$81=Z32)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AL32" cm="1">
-        <f t="array" ref="AL32">SUMPRODUCT(($J$2:$J$81=Z32)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AM32" cm="1">
-        <f t="array" ref="AM32">SUMPRODUCT(($J$2:$J$81=Z32)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN32">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AO32">
+      <c r="BC32">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AP32">
+        <v>3.6</v>
+      </c>
+      <c r="BD32">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AQ32">
+        <v>3.4</v>
+      </c>
+      <c r="BG32">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="AR32">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AS32">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="AT32">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="AU32">
-        <f t="shared" si="21"/>
-        <v>-3</v>
-      </c>
-      <c r="AV32">
-        <f t="shared" si="22"/>
-        <v>18</v>
-      </c>
-      <c r="AW32">
-        <f t="shared" si="23"/>
-        <v>17</v>
-      </c>
-      <c r="AX32">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AY32">
-        <f t="shared" si="25"/>
-        <v>3</v>
-      </c>
-      <c r="AZ32">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="BA32">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="BB32">
-        <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-      <c r="BC32">
-        <f t="shared" si="10"/>
-        <v>3.6</v>
-      </c>
-      <c r="BD32">
-        <f t="shared" si="11"/>
-        <v>3.4</v>
-      </c>
-      <c r="BG32">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ32" t="e">
@@ -5395,132 +5529,136 @@
         <f>IF($N33=$O33, 0, IF($J34=$L33, IF($N33&gt;$O33, 1, 0), IF($O33&gt;$N33, 1, 0)))</f>
         <v>1</v>
       </c>
+      <c r="R33" s="2" t="str">
+        <f>IF(N33&gt;O33,J33,K33)</f>
+        <v>FLA</v>
+      </c>
       <c r="V33" s="4"/>
       <c r="Z33" t="s">
         <v>16</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z33, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z33, $C$2:$C$100, 1)</f>
         <v>6</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z33, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z33, $C$2:$C$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AC33">
+        <f>COUNTIFS($J$2:$J$100, Z33, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z33, $C$2:$C$100, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f>COUNTIFS($J$2:$J$100, Z33, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z33, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AF33">
+        <f>COUNTIF($K$2:$K$100, Z33)</f>
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <f>COUNTIF($J$2:$J$100, Z33)</f>
+        <v>3</v>
+      </c>
+      <c r="AH33">
+        <f>AJ33+AL33</f>
+        <v>2</v>
+      </c>
+      <c r="AI33">
+        <f>AE33-AH33</f>
+        <v>4</v>
+      </c>
+      <c r="AJ33">
+        <f>SUMPRODUCT(($K$2:$K$100=Z33)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <f>SUMPRODUCT(($K$2:$K$100=Z33)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AL33">
+        <f>SUMPRODUCT(($J$2:$J$100=Z33)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AM33">
+        <f>SUMPRODUCT(($J$2:$J$100=Z33)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <f>COUNTIFS($K$2:$K$100,Z33,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <f>COUNTIFS($J$2:$J$100,Z33,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z33,$C$2:$C$100, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="AQ33">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z33,$C$2:$C$100, 1)</f>
+        <v>8</v>
+      </c>
+      <c r="AR33">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z33,$C$2:$C$100, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AS33">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z33,$C$2:$C$100, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="AX33">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD33">
+        <v>-1</v>
+      </c>
+      <c r="AY33">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE33">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AZ33">
         <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="AF33">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="BA33">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="AG33">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB33">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="AI33">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AJ33" cm="1">
-        <f t="array" ref="AJ33">SUMPRODUCT(($K$2:$K$81=Z33)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>0</v>
-      </c>
-      <c r="AK33" cm="1">
-        <f t="array" ref="AK33">SUMPRODUCT(($K$2:$K$81=Z33)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AL33" cm="1">
-        <f t="array" ref="AL33">SUMPRODUCT(($J$2:$J$81=Z33)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AM33" cm="1">
-        <f t="array" ref="AM33">SUMPRODUCT(($J$2:$J$81=Z33)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AO33">
+        <v>2</v>
+      </c>
+      <c r="BC33">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AP33">
+        <v>2</v>
+      </c>
+      <c r="BD33">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AQ33">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="BG33">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="AR33">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AS33">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AT33">
-        <f t="shared" si="20"/>
-        <v>-3</v>
-      </c>
-      <c r="AU33">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AV33">
-        <f t="shared" si="22"/>
-        <v>12</v>
-      </c>
-      <c r="AW33">
-        <f t="shared" si="23"/>
-        <v>13</v>
-      </c>
-      <c r="AX33">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="AY33">
-        <f t="shared" si="25"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AZ33">
-        <f t="shared" si="26"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="BA33">
-        <f t="shared" si="27"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BB33">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="BC33">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="BD33">
-        <f t="shared" si="11"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="BG33">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ33" t="e">
@@ -5581,132 +5719,136 @@
         <f>IF($N34=$O34, 0, IF($J35=$L34, IF($N34&gt;$O34, 1, 0), IF($O34&gt;$N34, 1, 0)))</f>
         <v>0</v>
       </c>
+      <c r="R34" s="2" t="str">
+        <f>IF(N34&gt;O34,J34,K34)</f>
+        <v>DAL</v>
+      </c>
       <c r="V34" s="4"/>
       <c r="Z34" t="s">
         <v>19</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z34, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z34, $C$2:$C$100, 1)</f>
         <v>7</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z34, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z34, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC34">
+        <f>COUNTIFS($J$2:$J$100, Z34, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z34, $C$2:$C$100, 3)</f>
+        <v>6</v>
+      </c>
+      <c r="AD34">
+        <f>COUNTIFS($J$2:$J$100, Z34, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z34, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="AF34">
+        <f>COUNTIF($K$2:$K$100, Z34)</f>
+        <v>10</v>
+      </c>
+      <c r="AG34">
+        <f>COUNTIF($J$2:$J$100, Z34)</f>
+        <v>9</v>
+      </c>
+      <c r="AH34">
+        <f>AJ34+AL34</f>
+        <v>10</v>
+      </c>
+      <c r="AI34">
+        <f>AE34-AH34</f>
+        <v>9</v>
+      </c>
+      <c r="AJ34">
+        <f>SUMPRODUCT(($K$2:$K$100=Z34)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>4</v>
+      </c>
+      <c r="AK34">
+        <f>SUMPRODUCT(($K$2:$K$100=Z34)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>6</v>
+      </c>
+      <c r="AL34">
+        <f>SUMPRODUCT(($J$2:$J$100=Z34)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>6</v>
+      </c>
+      <c r="AM34">
+        <f>SUMPRODUCT(($J$2:$J$100=Z34)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AN34">
+        <f>COUNTIFS($K$2:$K$100,Z34,$C$2:$C$100,1)</f>
+        <v>4</v>
+      </c>
+      <c r="AO34">
+        <f>COUNTIFS($J$2:$J$100,Z34,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z34,$C$2:$C$100, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AQ34">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z34,$C$2:$C$100, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="AR34">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z34,$C$2:$C$100, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AS34">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z34,$C$2:$C$100, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="AX34">
         <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AY34">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE34">
+        <v>2.5</v>
+      </c>
+      <c r="AZ34">
         <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="AF34">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA34">
         <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="AG34">
+        <v>2.5</v>
+      </c>
+      <c r="BB34">
         <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-      <c r="AH34">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="AI34">
-        <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
-      <c r="AJ34" cm="1">
-        <f t="array" ref="AJ34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AK34" cm="1">
-        <f t="array" ref="AK34">SUMPRODUCT(($K$2:$K$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>6</v>
-      </c>
-      <c r="AL34" cm="1">
-        <f t="array" ref="AL34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>6</v>
-      </c>
-      <c r="AM34" cm="1">
-        <f t="array" ref="AM34">SUMPRODUCT(($J$2:$J$81=Z34)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN34">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AO34">
+        <v>2</v>
+      </c>
+      <c r="BC34">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AP34">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="BD34">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AQ34">
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="BG34">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="AR34">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="AS34">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AT34">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AU34">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AV34">
-        <f t="shared" si="22"/>
-        <v>17</v>
-      </c>
-      <c r="AW34">
-        <f t="shared" si="23"/>
-        <v>16</v>
-      </c>
-      <c r="AX34">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AY34">
-        <f t="shared" si="25"/>
-        <v>2.5</v>
-      </c>
-      <c r="AZ34">
-        <f t="shared" si="26"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BA34">
-        <f t="shared" si="27"/>
-        <v>2.5</v>
-      </c>
-      <c r="BB34">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="BC34">
-        <f t="shared" si="10"/>
-        <v>2.4285714285714284</v>
-      </c>
-      <c r="BD34">
-        <f t="shared" si="11"/>
-        <v>2.2857142857142856</v>
-      </c>
-      <c r="BG34">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ34" t="e">
@@ -5764,135 +5906,139 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35:Q49" si="29">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
-        <v>1</v>
+        <f t="shared" ref="Q35:Q49" si="18">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <v>1</v>
+      </c>
+      <c r="R35" s="2" t="str">
+        <f>IF(N35&gt;O35,J35,K35)</f>
+        <v>TOR</v>
       </c>
       <c r="V35" s="4"/>
       <c r="Z35" t="s">
         <v>15</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z35, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z35, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z35, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z35, $C$2:$C$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AC35">
+        <f>COUNTIFS($J$2:$J$100, Z35, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z35, $C$2:$C$100, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f>COUNTIFS($J$2:$J$100, Z35, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z35, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AF35">
+        <f>COUNTIF($K$2:$K$100, Z35)</f>
+        <v>3</v>
+      </c>
+      <c r="AG35">
+        <f>COUNTIF($J$2:$J$100, Z35)</f>
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <f>AJ35+AL35</f>
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <f>AE35-AH35</f>
+        <v>4</v>
+      </c>
+      <c r="AJ35">
+        <f>SUMPRODUCT(($K$2:$K$100=Z35)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <f>SUMPRODUCT(($K$2:$K$100=Z35)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AL35">
+        <f>SUMPRODUCT(($J$2:$J$100=Z35)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <f>SUMPRODUCT(($J$2:$J$100=Z35)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AN35">
+        <f>COUNTIFS($K$2:$K$100,Z35,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <f>COUNTIFS($J$2:$J$100,Z35,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AP35">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z35,$C$2:$C$100, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AQ35">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z35,$C$2:$C$100, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="AR35">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z35,$C$2:$C$100, 1)</f>
+        <v>17</v>
+      </c>
+      <c r="AS35">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z35,$C$2:$C$100, 1)</f>
+        <v>11</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="10"/>
+        <v>-8</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="AX35">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD35">
+        <v>-13</v>
+      </c>
+      <c r="AY35">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE35">
+        <v>4</v>
+      </c>
+      <c r="AZ35">
         <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="AF35">
+        <v>1.5</v>
+      </c>
+      <c r="BA35">
         <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="AG35">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="BB35">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AI35">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AJ35" cm="1">
-        <f t="array" ref="AJ35">SUMPRODUCT(($K$2:$K$81=Z35)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AK35" cm="1">
-        <f t="array" ref="AK35">SUMPRODUCT(($K$2:$K$81=Z35)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AL35" cm="1">
-        <f t="array" ref="AL35">SUMPRODUCT(($J$2:$J$81=Z35)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>0</v>
-      </c>
-      <c r="AM35" cm="1">
-        <f t="array" ref="AM35">SUMPRODUCT(($J$2:$J$81=Z35)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN35">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AO35">
+        <v>5.5</v>
+      </c>
+      <c r="BC35">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AP35">
+        <v>3</v>
+      </c>
+      <c r="BD35">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="AQ35">
+        <v>5.6</v>
+      </c>
+      <c r="BG35">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AR35">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="AS35">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="AT35">
-        <f t="shared" si="20"/>
-        <v>-5</v>
-      </c>
-      <c r="AU35">
-        <f t="shared" si="21"/>
-        <v>-8</v>
-      </c>
-      <c r="AV35">
-        <f t="shared" si="22"/>
-        <v>15</v>
-      </c>
-      <c r="AW35">
-        <f t="shared" si="23"/>
-        <v>28</v>
-      </c>
-      <c r="AX35">
-        <f t="shared" si="24"/>
-        <v>-13</v>
-      </c>
-      <c r="AY35">
-        <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="AZ35">
-        <f t="shared" si="26"/>
-        <v>1.5</v>
-      </c>
-      <c r="BA35">
-        <f t="shared" si="27"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="BB35">
-        <f t="shared" si="28"/>
-        <v>5.5</v>
-      </c>
-      <c r="BC35">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="BD35">
-        <f t="shared" si="11"/>
-        <v>5.6</v>
-      </c>
-      <c r="BG35">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ35" t="e">
@@ -5950,135 +6096,139 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="R36" s="2" t="str">
+        <f>IF(N36&gt;O36,J36,K36)</f>
+        <v>CAR</v>
       </c>
       <c r="V36" s="4"/>
       <c r="Z36" t="s">
         <v>14</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z36, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z36, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z36, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z36, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC36">
+        <f>COUNTIFS($J$2:$J$100, Z36, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z36, $C$2:$C$100, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f>COUNTIFS($J$2:$J$100, Z36, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z36, $C$2:$C$100, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AF36">
+        <f>COUNTIF($K$2:$K$100, Z36)</f>
+        <v>5</v>
+      </c>
+      <c r="AG36">
+        <f>COUNTIF($J$2:$J$100, Z36)</f>
+        <v>6</v>
+      </c>
+      <c r="AH36">
+        <f>AJ36+AL36</f>
+        <v>6</v>
+      </c>
+      <c r="AI36">
+        <f>AE36-AH36</f>
+        <v>5</v>
+      </c>
+      <c r="AJ36">
+        <f>SUMPRODUCT(($K$2:$K$100=Z36)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <f>SUMPRODUCT(($K$2:$K$100=Z36)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AL36">
+        <f>SUMPRODUCT(($J$2:$J$100=Z36)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>4</v>
+      </c>
+      <c r="AM36">
+        <f>SUMPRODUCT(($J$2:$J$100=Z36)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AN36">
+        <f>COUNTIFS($K$2:$K$100,Z36,$C$2:$C$100,1)</f>
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <f>COUNTIFS($J$2:$J$100,Z36,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z36,$C$2:$C$100, 1)</f>
+        <v>11</v>
+      </c>
+      <c r="AQ36">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z36,$C$2:$C$100, 1)</f>
+        <v>17</v>
+      </c>
+      <c r="AR36">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z36,$C$2:$C$100, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="AS36">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z36,$C$2:$C$100, 1)</f>
+        <v>12</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="AW36">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="AX36">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD36">
+        <v>13</v>
+      </c>
+      <c r="AY36">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AE36">
+        <v>5.5</v>
+      </c>
+      <c r="AZ36">
         <f t="shared" si="15"/>
-        <v>11</v>
-      </c>
-      <c r="AF36">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="BA36">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="AG36">
+        <v>1.5</v>
+      </c>
+      <c r="BB36">
         <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="AI36">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="AJ36" cm="1">
-        <f t="array" ref="AJ36">SUMPRODUCT(($K$2:$K$81=Z36)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AK36" cm="1">
-        <f t="array" ref="AK36">SUMPRODUCT(($K$2:$K$81=Z36)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AL36" cm="1">
-        <f t="array" ref="AL36">SUMPRODUCT(($J$2:$J$81=Z36)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM36" cm="1">
-        <f t="array" ref="AM36">SUMPRODUCT(($J$2:$J$81=Z36)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN36">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AO36">
+        <v>4</v>
+      </c>
+      <c r="BC36">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AP36">
+        <v>5.6</v>
+      </c>
+      <c r="BD36">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="AQ36">
+        <v>3</v>
+      </c>
+      <c r="BG36">
         <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="AR36">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AS36">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="AT36">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="AU36">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="AV36">
-        <f t="shared" si="22"/>
-        <v>28</v>
-      </c>
-      <c r="AW36">
-        <f t="shared" si="23"/>
-        <v>15</v>
-      </c>
-      <c r="AX36">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="AY36">
-        <f t="shared" si="25"/>
-        <v>5.5</v>
-      </c>
-      <c r="AZ36">
-        <f t="shared" si="26"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="BA36">
-        <f t="shared" si="27"/>
-        <v>1.5</v>
-      </c>
-      <c r="BB36">
-        <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="BC36">
-        <f t="shared" si="10"/>
-        <v>5.6</v>
-      </c>
-      <c r="BD36">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="BG36">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BJ36" t="e">
@@ -6136,135 +6286,139 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="2" t="str">
+        <f>IF(N37&gt;O37,J37,K37)</f>
+        <v>COL</v>
       </c>
       <c r="V37" s="4"/>
       <c r="Z37" t="s">
         <v>18</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($J$2:$J$100, Z37, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z37, $C$2:$C$100, 1)</f>
         <v>7</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="3"/>
+        <f>COUNTIFS($J$2:$J$100, Z37, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z37, $C$2:$C$100, 2)</f>
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($J$2:$J$100, Z37, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z37, $C$2:$C$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="14"/>
+        <f>COUNTIFS($J$2:$J$100, Z37, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z37, $C$2:$C$100, 4)</f>
         <v>0</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="AF37">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="AG37">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="AH37">
-        <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="AI37">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AJ37" cm="1">
-        <f t="array" ref="AJ37">SUMPRODUCT(($K$2:$K$81=Z37)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>1</v>
-      </c>
-      <c r="AK37" cm="1">
-        <f t="array" ref="AK37">SUMPRODUCT(($K$2:$K$81=Z37)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AL37" cm="1">
-        <f t="array" ref="AL37">SUMPRODUCT(($J$2:$J$81=Z37)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AM37" cm="1">
-        <f t="array" ref="AM37">SUMPRODUCT(($J$2:$J$81=Z37)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN37">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AO37">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AP37">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AQ37">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="AR37">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
+      <c r="AF37">
+        <f>COUNTIF($K$2:$K$100, Z37)</f>
+        <v>3</v>
+      </c>
+      <c r="AG37">
+        <f>COUNTIF($J$2:$J$100, Z37)</f>
+        <v>4</v>
+      </c>
+      <c r="AH37">
+        <f>AJ37+AL37</f>
+        <v>3</v>
+      </c>
+      <c r="AI37">
+        <f>AE37-AH37</f>
+        <v>4</v>
+      </c>
+      <c r="AJ37">
+        <f>SUMPRODUCT(($K$2:$K$100=Z37)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>1</v>
+      </c>
+      <c r="AK37">
+        <f>SUMPRODUCT(($K$2:$K$100=Z37)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AL37">
+        <f>SUMPRODUCT(($J$2:$J$100=Z37)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AM37">
+        <f>SUMPRODUCT(($J$2:$J$100=Z37)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AN37">
+        <f>COUNTIFS($K$2:$K$100,Z37,$C$2:$C$100,1)</f>
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <f>COUNTIFS($J$2:$J$100,Z37,$C$2:$C$100,1)</f>
+        <v>4</v>
+      </c>
+      <c r="AP37">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z37,$C$2:$C$100, 1)</f>
+        <v>6</v>
+      </c>
+      <c r="AQ37">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z37,$C$2:$C$100, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AR37">
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z37,$C$2:$C$100, 1)</f>
+        <v>7</v>
+      </c>
       <c r="AS37">
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z37,$C$2:$C$100, 1)</f>
+        <v>10</v>
+      </c>
+      <c r="AT37">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="AT37">
-        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="AU37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AV37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="AW37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="AX37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="AY37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AZ37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="BA37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BB37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
       <c r="BC37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="BD37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>2.4285714285714284</v>
       </c>
       <c r="BG37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BJ37" t="e">
@@ -6322,8 +6476,12 @@
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="2" t="str">
+        <f>IF(N38&gt;O38,J38,K38)</f>
+        <v>NSH</v>
       </c>
       <c r="V38" s="4"/>
     </row>
@@ -6377,8 +6535,12 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="R39" s="2" t="str">
+        <f>IF(N39&gt;O39,J39,K39)</f>
+        <v>DAL</v>
       </c>
       <c r="V39" s="4"/>
     </row>
@@ -6432,8 +6594,12 @@
         <v>0</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="R40" s="2" t="str">
+        <f>IF(N40&gt;O40,J40,K40)</f>
+        <v>EDM</v>
       </c>
       <c r="V40" s="4"/>
       <c r="AA40" t="s">
@@ -6577,56 +6743,60 @@
         <v>0</v>
       </c>
       <c r="Q41" s="22">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="2" t="str">
+        <f>IF(N41&gt;O41,J41,K41)</f>
+        <v>TOR</v>
       </c>
       <c r="V41" s="4"/>
       <c r="Z41" t="s">
         <v>11</v>
       </c>
       <c r="AA41">
-        <f t="shared" ref="AA41:AA42" si="30">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 1)</f>
+        <f>COUNTIFS($J$2:$J$100, Z41, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z41, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB41">
-        <f t="shared" ref="AB41:AB42" si="31">COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 2)</f>
+        <f>COUNTIFS($J$2:$J$100, Z41, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z41, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC41">
-        <f>COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 3)</f>
+        <f>COUNTIFS($J$2:$J$100, Z41, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z41, $C$2:$C$100, 3)</f>
         <v>6</v>
       </c>
       <c r="AD41">
-        <f>COUNTIFS($J$2:$J$81, Z41, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z41, $C$2:$C$81, 4)</f>
-        <v>0</v>
+        <f>COUNTIFS($J$2:$J$100, Z41, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z41, $C$2:$C$100, 4)</f>
+        <v>4</v>
       </c>
       <c r="AE41">
         <f>AA41+AB41+AC41+AD41</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF41">
-        <f>COUNTIF($K$2:$K$81, Z41)</f>
-        <v>9</v>
+        <f>COUNTIF($K$2:$K$100, Z41)</f>
+        <v>11</v>
       </c>
       <c r="AG41">
-        <f>COUNTIF($J$2:$J$81, Z41)</f>
-        <v>8</v>
+        <f>COUNTIF($J$2:$J$100, Z41)</f>
+        <v>10</v>
       </c>
       <c r="AH41">
         <f>AJ41+AL41</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI41">
         <f>AE41-AH41</f>
-        <v>5</v>
-      </c>
-      <c r="AJ41" cm="1">
-        <f t="array" ref="AJ41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>6</v>
-      </c>
-      <c r="AK41" cm="1">
-        <f t="array" ref="AK41">SUMPRODUCT(($K$2:$K$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="AJ41">
+        <f>SUMPRODUCT(($K$2:$K$100=Z41)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>7</v>
+      </c>
+      <c r="AK41">
+        <f>SUMPRODUCT(($K$2:$K$100=Z41)*($C$2:$C$100=2)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>2</v>
       </c>
       <c r="AL41" cm="1">
         <f t="array" ref="AL41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
@@ -6755,46 +6925,50 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="2" t="str">
+        <f>IF(N42&gt;O42,J42,K42)</f>
+        <v>VAN</v>
       </c>
       <c r="Z42" t="s">
         <v>3</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="AA42" si="19">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 1)</f>
         <v>7</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AB42" si="20">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC42">
-        <f t="shared" ref="AC42" si="32">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC42" si="21">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 3)</f>
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="shared" ref="AD42" si="33">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD42" si="22">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="shared" ref="AE42" si="34">AA42+AB42+AC42+AD42</f>
+        <f t="shared" ref="AE42" si="23">AA42+AB42+AC42+AD42</f>
         <v>13</v>
       </c>
       <c r="AF42">
-        <f t="shared" ref="AF42" si="35">COUNTIF($K$2:$K$81, Z42)</f>
+        <f t="shared" ref="AF42" si="24">COUNTIF($K$2:$K$81, Z42)</f>
         <v>7</v>
       </c>
       <c r="AG42">
-        <f t="shared" ref="AG42" si="36">COUNTIF($J$2:$J$81, Z42)</f>
+        <f t="shared" ref="AG42" si="25">COUNTIF($J$2:$J$81, Z42)</f>
         <v>6</v>
       </c>
       <c r="AH42">
-        <f t="shared" ref="AH42" si="37">AJ42+AL42</f>
+        <f t="shared" ref="AH42" si="26">AJ42+AL42</f>
         <v>6</v>
       </c>
       <c r="AI42">
-        <f t="shared" ref="AI42" si="38">AE42-AH42</f>
+        <f t="shared" ref="AI42" si="27">AE42-AH42</f>
         <v>7</v>
       </c>
       <c r="AJ42" cm="1">
@@ -6814,71 +6988,71 @@
         <v>2</v>
       </c>
       <c r="AN42">
-        <f t="shared" ref="AN42" si="39">COUNTIFS($K$2:$K$81,Z42,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AN42" si="28">COUNTIFS($K$2:$K$81,Z42,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AO42">
-        <f t="shared" ref="AO42" si="40">COUNTIFS($J$2:$J$81,Z42,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AO42" si="29">COUNTIFS($J$2:$J$81,Z42,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AP42">
-        <f t="shared" ref="AP42" si="41">SUMIFS($O$2:$O$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AP42" si="30">SUMIFS($O$2:$O$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
         <v>5</v>
       </c>
       <c r="AQ42">
-        <f t="shared" ref="AQ42" si="42">SUMIFS($N$2:$N$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AQ42" si="31">SUMIFS($N$2:$N$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
         <v>8</v>
       </c>
       <c r="AR42">
-        <f t="shared" ref="AR42" si="43">SUMIFS($N$2:$N$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AR42" si="32">SUMIFS($N$2:$N$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
         <v>11</v>
       </c>
       <c r="AS42">
-        <f t="shared" ref="AS42" si="44">SUMIFS($O$2:$O$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AS42" si="33">SUMIFS($O$2:$O$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
         <v>8</v>
       </c>
       <c r="AT42">
-        <f t="shared" ref="AT42" si="45">AP42-AR42</f>
+        <f t="shared" ref="AT42" si="34">AP42-AR42</f>
         <v>-6</v>
       </c>
       <c r="AU42">
-        <f t="shared" ref="AU42" si="46">AQ42-AS42</f>
+        <f t="shared" ref="AU42" si="35">AQ42-AS42</f>
         <v>0</v>
       </c>
       <c r="AV42">
-        <f t="shared" ref="AV42" si="47">AP42+AQ42</f>
+        <f t="shared" ref="AV42" si="36">AP42+AQ42</f>
         <v>13</v>
       </c>
       <c r="AW42">
-        <f t="shared" ref="AW42" si="48">AR42+AS42</f>
+        <f t="shared" ref="AW42" si="37">AR42+AS42</f>
         <v>19</v>
       </c>
       <c r="AX42">
-        <f t="shared" ref="AX42" si="49">(AP42+AQ42)-(AR42+AS42)</f>
+        <f t="shared" ref="AX42" si="38">(AP42+AQ42)-(AR42+AS42)</f>
         <v>-6</v>
       </c>
       <c r="AY42">
-        <f t="shared" ref="AY42" si="50">AP42/AN42</f>
+        <f t="shared" ref="AY42" si="39">AP42/AN42</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="AZ42">
-        <f t="shared" ref="AZ42" si="51">AQ42/AO42</f>
+        <f t="shared" ref="AZ42" si="40">AQ42/AO42</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA42">
-        <f t="shared" ref="BA42" si="52">AR42/AN42</f>
+        <f t="shared" ref="BA42" si="41">AR42/AN42</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="BB42">
-        <f t="shared" ref="BB42" si="53">AS42/AO42</f>
+        <f t="shared" ref="BB42" si="42">AS42/AO42</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BC42">
-        <f t="shared" ref="BC42" si="54">AV42/AA42</f>
+        <f t="shared" ref="BC42" si="43">AV42/AA42</f>
         <v>1.8571428571428572</v>
       </c>
       <c r="BD42">
-        <f t="shared" ref="BD42" si="55">AW42/AA42</f>
+        <f t="shared" ref="BD42" si="44">AW42/AA42</f>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -6932,46 +7106,50 @@
         <v>0</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="2" t="str">
+        <f>IF(N43&gt;O43,J43,K43)</f>
+        <v>VGK</v>
       </c>
       <c r="Z43" t="s">
         <v>13</v>
       </c>
       <c r="AA43">
-        <f t="shared" ref="AA43:AA48" si="56">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA43:AA48" si="45">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 1)</f>
         <v>4</v>
       </c>
       <c r="AB43">
-        <f t="shared" ref="AB43:AB48" si="57">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB43:AB48" si="46">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 2)</f>
         <v>6</v>
       </c>
       <c r="AC43">
-        <f t="shared" ref="AC43:AC48" si="58">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC43:AC48" si="47">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 3)</f>
         <v>6</v>
       </c>
       <c r="AD43">
-        <f t="shared" ref="AD43:AD48" si="59">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD43:AD48" si="48">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" ref="AE43:AE48" si="60">AA43+AB43+AC43+AD43</f>
+        <f t="shared" ref="AE43:AE48" si="49">AA43+AB43+AC43+AD43</f>
         <v>16</v>
       </c>
       <c r="AF43">
-        <f t="shared" ref="AF43:AF48" si="61">COUNTIF($K$2:$K$81, Z43)</f>
+        <f t="shared" ref="AF43:AF48" si="50">COUNTIF($K$2:$K$81, Z43)</f>
         <v>8</v>
       </c>
       <c r="AG43">
-        <f t="shared" ref="AG43:AG48" si="62">COUNTIF($J$2:$J$81, Z43)</f>
+        <f t="shared" ref="AG43:AG48" si="51">COUNTIF($J$2:$J$81, Z43)</f>
         <v>8</v>
       </c>
       <c r="AH43">
-        <f t="shared" ref="AH43:AH48" si="63">AJ43+AL43</f>
+        <f t="shared" ref="AH43:AH48" si="52">AJ43+AL43</f>
         <v>10</v>
       </c>
       <c r="AI43">
-        <f t="shared" ref="AI43:AI48" si="64">AE43-AH43</f>
+        <f t="shared" ref="AI43:AI48" si="53">AE43-AH43</f>
         <v>6</v>
       </c>
       <c r="AJ43" cm="1">
@@ -6991,71 +7169,71 @@
         <v>3</v>
       </c>
       <c r="AN43">
-        <f t="shared" ref="AN43:AN48" si="65">COUNTIFS($K$2:$K$81,Z43,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AN43:AN48" si="54">COUNTIFS($K$2:$K$81,Z43,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AO43">
-        <f t="shared" ref="AO43:AO48" si="66">COUNTIFS($J$2:$J$81,Z43,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AO43:AO48" si="55">COUNTIFS($J$2:$J$81,Z43,$C$2:$C$81,2)</f>
         <v>3</v>
       </c>
       <c r="AP43">
-        <f t="shared" ref="AP43:AP48" si="67">SUMIFS($O$2:$O$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AP43:AP48" si="56">SUMIFS($O$2:$O$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
         <v>9</v>
       </c>
       <c r="AQ43">
-        <f t="shared" ref="AQ43:AQ48" si="68">SUMIFS($N$2:$N$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AQ43:AQ48" si="57">SUMIFS($N$2:$N$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
         <v>11</v>
       </c>
       <c r="AR43">
-        <f t="shared" ref="AR43:AR48" si="69">SUMIFS($N$2:$N$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AR43:AR48" si="58">SUMIFS($N$2:$N$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
         <v>10</v>
       </c>
       <c r="AS43">
-        <f t="shared" ref="AS43:AS48" si="70">SUMIFS($O$2:$O$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AS43:AS48" si="59">SUMIFS($O$2:$O$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
         <v>9</v>
       </c>
       <c r="AT43">
-        <f t="shared" ref="AT43:AU48" si="71">AP43-AR43</f>
+        <f t="shared" ref="AT43:AU48" si="60">AP43-AR43</f>
         <v>-1</v>
       </c>
       <c r="AU43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="AV43">
-        <f t="shared" ref="AV43:AV48" si="72">AP43+AQ43</f>
+        <f t="shared" ref="AV43:AV48" si="61">AP43+AQ43</f>
         <v>20</v>
       </c>
       <c r="AW43">
-        <f t="shared" ref="AW43:AW48" si="73">AR43+AS43</f>
+        <f t="shared" ref="AW43:AW48" si="62">AR43+AS43</f>
         <v>19</v>
       </c>
       <c r="AX43">
-        <f t="shared" ref="AX43:AX48" si="74">(AP43+AQ43)-(AR43+AS43)</f>
+        <f t="shared" ref="AX43:AX48" si="63">(AP43+AQ43)-(AR43+AS43)</f>
         <v>1</v>
       </c>
       <c r="AY43">
-        <f t="shared" ref="AY43:AZ48" si="75">AP43/AN43</f>
+        <f t="shared" ref="AY43:AZ48" si="64">AP43/AN43</f>
         <v>3</v>
       </c>
       <c r="AZ43">
-        <f t="shared" si="75"/>
+        <f t="shared" si="64"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BA43">
-        <f t="shared" ref="BA43:BB48" si="76">AR43/AN43</f>
+        <f t="shared" ref="BA43:BB48" si="65">AR43/AN43</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="BB43">
-        <f t="shared" si="76"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="BC43">
-        <f t="shared" ref="BC43:BC48" si="77">AV43/AA43</f>
+        <f t="shared" ref="BC43:BC48" si="66">AV43/AA43</f>
         <v>5</v>
       </c>
       <c r="BD43">
-        <f t="shared" ref="BD43:BD48" si="78">AW43/AA43</f>
+        <f t="shared" ref="BD43:BD48" si="67">AW43/AA43</f>
         <v>4.75</v>
       </c>
     </row>
@@ -7109,46 +7287,50 @@
         <v>1</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="2" t="str">
+        <f>IF(N44&gt;O44,J44,K44)</f>
+        <v>BOS</v>
       </c>
       <c r="Z44" t="s">
         <v>1</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="58"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="59"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="60"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>6</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="62"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>6</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="AJ44" cm="1">
@@ -7168,71 +7350,71 @@
         <v>3</v>
       </c>
       <c r="AN44">
+        <f t="shared" si="54"/>
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="55"/>
+        <v>3</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="56"/>
+        <v>9</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="58"/>
+        <v>11</v>
+      </c>
+      <c r="AS44">
+        <f t="shared" si="59"/>
+        <v>9</v>
+      </c>
+      <c r="AT44">
+        <f t="shared" si="60"/>
+        <v>-2</v>
+      </c>
+      <c r="AU44">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="AV44">
+        <f t="shared" si="61"/>
+        <v>19</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" si="62"/>
+        <v>20</v>
+      </c>
+      <c r="AX44">
+        <f t="shared" si="63"/>
+        <v>-1</v>
+      </c>
+      <c r="AY44">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+      <c r="AZ44">
+        <f t="shared" si="64"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="BA44">
         <f t="shared" si="65"/>
-        <v>3</v>
-      </c>
-      <c r="AO44">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BB44">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="BC44">
         <f t="shared" si="66"/>
-        <v>3</v>
-      </c>
-      <c r="AP44">
+        <v>3.8</v>
+      </c>
+      <c r="BD44">
         <f t="shared" si="67"/>
-        <v>9</v>
-      </c>
-      <c r="AQ44">
-        <f t="shared" si="68"/>
-        <v>10</v>
-      </c>
-      <c r="AR44">
-        <f t="shared" si="69"/>
-        <v>11</v>
-      </c>
-      <c r="AS44">
-        <f t="shared" si="70"/>
-        <v>9</v>
-      </c>
-      <c r="AT44">
-        <f t="shared" si="71"/>
-        <v>-2</v>
-      </c>
-      <c r="AU44">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AV44">
-        <f t="shared" si="72"/>
-        <v>19</v>
-      </c>
-      <c r="AW44">
-        <f t="shared" si="73"/>
-        <v>20</v>
-      </c>
-      <c r="AX44">
-        <f t="shared" si="74"/>
-        <v>-1</v>
-      </c>
-      <c r="AY44">
-        <f t="shared" si="75"/>
-        <v>3</v>
-      </c>
-      <c r="AZ44">
-        <f t="shared" si="75"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="BA44">
-        <f t="shared" si="76"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BB44">
-        <f t="shared" si="76"/>
-        <v>3</v>
-      </c>
-      <c r="BC44">
-        <f t="shared" si="77"/>
-        <v>3.8</v>
-      </c>
-      <c r="BD44">
-        <f t="shared" si="78"/>
         <v>4</v>
       </c>
     </row>
@@ -7286,130 +7468,134 @@
         <v>0</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="R45" s="2" t="str">
+        <f>IF(N45&gt;O45,J45,K45)</f>
+        <v>DAL</v>
       </c>
       <c r="Z45" t="s">
         <v>17</v>
       </c>
       <c r="AA45">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="46"/>
+        <v>7</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="49"/>
+        <v>13</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="50"/>
+        <v>7</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="51"/>
+        <v>6</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="52"/>
+        <v>7</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="53"/>
+        <v>6</v>
+      </c>
+      <c r="AJ45" cm="1">
+        <f t="array" ref="AJ45">SUMPRODUCT(($K$2:$K$81=Z45)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>3</v>
+      </c>
+      <c r="AK45" cm="1">
+        <f t="array" ref="AK45">SUMPRODUCT(($K$2:$K$81=Z45)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AL45" cm="1">
+        <f t="array" ref="AL45">SUMPRODUCT(($J$2:$J$81=Z45)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <v>4</v>
+      </c>
+      <c r="AM45" cm="1">
+        <f t="array" ref="AM45">SUMPRODUCT(($J$2:$J$81=Z45)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+        <v>2</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="55"/>
+        <v>3</v>
+      </c>
+      <c r="AP45">
         <f t="shared" si="56"/>
-        <v>6</v>
-      </c>
-      <c r="AB45">
+        <v>13</v>
+      </c>
+      <c r="AQ45">
         <f t="shared" si="57"/>
         <v>7</v>
       </c>
-      <c r="AC45">
+      <c r="AR45">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="AD45">
+        <v>13</v>
+      </c>
+      <c r="AS45">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AE45">
+        <v>11</v>
+      </c>
+      <c r="AT45">
         <f t="shared" si="60"/>
-        <v>13</v>
-      </c>
-      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <f t="shared" si="60"/>
+        <v>-4</v>
+      </c>
+      <c r="AV45">
         <f t="shared" si="61"/>
-        <v>7</v>
-      </c>
-      <c r="AG45">
+        <v>20</v>
+      </c>
+      <c r="AW45">
         <f t="shared" si="62"/>
-        <v>6</v>
-      </c>
-      <c r="AH45">
+        <v>24</v>
+      </c>
+      <c r="AX45">
         <f t="shared" si="63"/>
-        <v>7</v>
-      </c>
-      <c r="AI45">
+        <v>-4</v>
+      </c>
+      <c r="AY45">
         <f t="shared" si="64"/>
-        <v>6</v>
-      </c>
-      <c r="AJ45" cm="1">
-        <f t="array" ref="AJ45">SUMPRODUCT(($K$2:$K$81=Z45)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AK45" cm="1">
-        <f t="array" ref="AK45">SUMPRODUCT(($K$2:$K$81=Z45)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AL45" cm="1">
-        <f t="array" ref="AL45">SUMPRODUCT(($J$2:$J$81=Z45)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM45" cm="1">
-        <f t="array" ref="AM45">SUMPRODUCT(($J$2:$J$81=Z45)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN45">
+        <v>3.25</v>
+      </c>
+      <c r="AZ45">
+        <f t="shared" si="64"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BA45">
         <f t="shared" si="65"/>
-        <v>4</v>
-      </c>
-      <c r="AO45">
+        <v>3.25</v>
+      </c>
+      <c r="BB45">
+        <f t="shared" si="65"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BC45">
         <f t="shared" si="66"/>
-        <v>3</v>
-      </c>
-      <c r="AP45">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="BD45">
         <f t="shared" si="67"/>
-        <v>13</v>
-      </c>
-      <c r="AQ45">
-        <f t="shared" si="68"/>
-        <v>7</v>
-      </c>
-      <c r="AR45">
-        <f t="shared" si="69"/>
-        <v>13</v>
-      </c>
-      <c r="AS45">
-        <f t="shared" si="70"/>
-        <v>11</v>
-      </c>
-      <c r="AT45">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AU45">
-        <f t="shared" si="71"/>
-        <v>-4</v>
-      </c>
-      <c r="AV45">
-        <f t="shared" si="72"/>
-        <v>20</v>
-      </c>
-      <c r="AW45">
-        <f t="shared" si="73"/>
-        <v>24</v>
-      </c>
-      <c r="AX45">
-        <f t="shared" si="74"/>
-        <v>-4</v>
-      </c>
-      <c r="AY45">
-        <f t="shared" si="75"/>
-        <v>3.25</v>
-      </c>
-      <c r="AZ45">
-        <f t="shared" si="75"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BA45">
-        <f t="shared" si="76"/>
-        <v>3.25</v>
-      </c>
-      <c r="BB45">
-        <f t="shared" si="76"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BC45">
-        <f t="shared" si="77"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="BD45">
-        <f t="shared" si="78"/>
         <v>4</v>
       </c>
     </row>
@@ -7463,46 +7649,50 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="R46" s="2" t="str">
+        <f>IF(N46&gt;O46,J46,K46)</f>
+        <v>NYR</v>
       </c>
       <c r="Z46" t="s">
         <v>21</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="58"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="59"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="60"/>
+        <f t="shared" si="49"/>
         <v>17</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>8</v>
       </c>
       <c r="AG46">
-        <f t="shared" si="62"/>
+        <f t="shared" si="51"/>
         <v>9</v>
       </c>
       <c r="AH46">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="AI46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v>7</v>
       </c>
       <c r="AJ46" cm="1">
@@ -7522,71 +7712,71 @@
         <v>4</v>
       </c>
       <c r="AN46">
+        <f t="shared" si="54"/>
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="57"/>
+        <v>13</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" si="58"/>
+        <v>7</v>
+      </c>
+      <c r="AS46">
+        <f t="shared" si="59"/>
+        <v>13</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" si="60"/>
+        <v>4</v>
+      </c>
+      <c r="AU46">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <f t="shared" si="61"/>
+        <v>24</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="62"/>
+        <v>20</v>
+      </c>
+      <c r="AX46">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="AY46">
+        <f t="shared" si="64"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AZ46">
+        <f t="shared" si="64"/>
+        <v>3.25</v>
+      </c>
+      <c r="BA46">
         <f t="shared" si="65"/>
-        <v>3</v>
-      </c>
-      <c r="AO46">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="BB46">
+        <f t="shared" si="65"/>
+        <v>3.25</v>
+      </c>
+      <c r="BC46">
         <f t="shared" si="66"/>
-        <v>4</v>
-      </c>
-      <c r="AP46">
+        <v>4.8</v>
+      </c>
+      <c r="BD46">
         <f t="shared" si="67"/>
-        <v>11</v>
-      </c>
-      <c r="AQ46">
-        <f t="shared" si="68"/>
-        <v>13</v>
-      </c>
-      <c r="AR46">
-        <f t="shared" si="69"/>
-        <v>7</v>
-      </c>
-      <c r="AS46">
-        <f t="shared" si="70"/>
-        <v>13</v>
-      </c>
-      <c r="AT46">
-        <f t="shared" si="71"/>
-        <v>4</v>
-      </c>
-      <c r="AU46">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <f t="shared" si="72"/>
-        <v>24</v>
-      </c>
-      <c r="AW46">
-        <f t="shared" si="73"/>
-        <v>20</v>
-      </c>
-      <c r="AX46">
-        <f t="shared" si="74"/>
-        <v>4</v>
-      </c>
-      <c r="AY46">
-        <f t="shared" si="75"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AZ46">
-        <f t="shared" si="75"/>
-        <v>3.25</v>
-      </c>
-      <c r="BA46">
-        <f t="shared" si="76"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="BB46">
-        <f t="shared" si="76"/>
-        <v>3.25</v>
-      </c>
-      <c r="BC46">
-        <f t="shared" si="77"/>
-        <v>4.8</v>
-      </c>
-      <c r="BD46">
-        <f t="shared" si="78"/>
         <v>4</v>
       </c>
     </row>
@@ -7640,46 +7830,50 @@
         <v>0</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="2" t="str">
+        <f>IF(N47&gt;O47,J47,K47)</f>
+        <v>BOS</v>
       </c>
       <c r="Z47" t="s">
         <v>19</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="58"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="60"/>
+        <f t="shared" si="49"/>
         <v>18</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>10</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="62"/>
+        <f t="shared" si="51"/>
         <v>8</v>
       </c>
       <c r="AH47">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v>8</v>
       </c>
       <c r="AJ47" cm="1">
@@ -7699,71 +7893,71 @@
         <v>2</v>
       </c>
       <c r="AN47">
+        <f t="shared" si="54"/>
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="55"/>
+        <v>3</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="AR47">
+        <f t="shared" si="58"/>
+        <v>11</v>
+      </c>
+      <c r="AS47">
+        <f t="shared" si="59"/>
+        <v>3</v>
+      </c>
+      <c r="AT47">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <f t="shared" si="60"/>
+        <v>8</v>
+      </c>
+      <c r="AV47">
+        <f t="shared" si="61"/>
+        <v>22</v>
+      </c>
+      <c r="AW47">
+        <f t="shared" si="62"/>
+        <v>14</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="AY47">
+        <f t="shared" si="64"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="AZ47">
+        <f t="shared" si="64"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BA47">
         <f t="shared" si="65"/>
-        <v>3</v>
-      </c>
-      <c r="AO47">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BB47">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="BC47">
         <f t="shared" si="66"/>
-        <v>3</v>
-      </c>
-      <c r="AP47">
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="BD47">
         <f t="shared" si="67"/>
-        <v>11</v>
-      </c>
-      <c r="AQ47">
-        <f t="shared" si="68"/>
-        <v>11</v>
-      </c>
-      <c r="AR47">
-        <f t="shared" si="69"/>
-        <v>11</v>
-      </c>
-      <c r="AS47">
-        <f t="shared" si="70"/>
-        <v>3</v>
-      </c>
-      <c r="AT47">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AU47">
-        <f t="shared" si="71"/>
-        <v>8</v>
-      </c>
-      <c r="AV47">
-        <f t="shared" si="72"/>
-        <v>22</v>
-      </c>
-      <c r="AW47">
-        <f t="shared" si="73"/>
-        <v>14</v>
-      </c>
-      <c r="AX47">
-        <f t="shared" si="74"/>
-        <v>8</v>
-      </c>
-      <c r="AY47">
-        <f t="shared" si="75"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="AZ47">
-        <f t="shared" si="75"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BA47">
-        <f t="shared" si="76"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BB47">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="BC47">
-        <f t="shared" si="77"/>
-        <v>3.1428571428571428</v>
-      </c>
-      <c r="BD47">
-        <f t="shared" si="78"/>
         <v>2</v>
       </c>
     </row>
@@ -7817,46 +8011,50 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="str">
+        <f>IF(N48&gt;O48,J48,K48)</f>
+        <v>NYR</v>
       </c>
       <c r="Z48" t="s">
         <v>14</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="59"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="60"/>
+        <f t="shared" si="49"/>
         <v>11</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="61"/>
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="62"/>
+        <f t="shared" si="51"/>
         <v>6</v>
       </c>
       <c r="AH48">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>6</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="AJ48" cm="1">
@@ -7876,71 +8074,71 @@
         <v>2</v>
       </c>
       <c r="AN48">
+        <f t="shared" si="54"/>
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" si="55"/>
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <f t="shared" si="56"/>
+        <v>3</v>
+      </c>
+      <c r="AQ48">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="AR48">
+        <f t="shared" si="58"/>
+        <v>11</v>
+      </c>
+      <c r="AS48">
+        <f t="shared" si="59"/>
+        <v>11</v>
+      </c>
+      <c r="AT48">
+        <f t="shared" si="60"/>
+        <v>-8</v>
+      </c>
+      <c r="AU48">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <f t="shared" si="61"/>
+        <v>14</v>
+      </c>
+      <c r="AW48">
+        <f t="shared" si="62"/>
+        <v>22</v>
+      </c>
+      <c r="AX48">
+        <f t="shared" si="63"/>
+        <v>-8</v>
+      </c>
+      <c r="AY48">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AZ48">
+        <f t="shared" si="64"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BA48">
         <f t="shared" si="65"/>
-        <v>3</v>
-      </c>
-      <c r="AO48">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BB48">
+        <f t="shared" si="65"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="BC48">
         <f t="shared" si="66"/>
-        <v>3</v>
-      </c>
-      <c r="AP48">
+        <v>2.8</v>
+      </c>
+      <c r="BD48">
         <f t="shared" si="67"/>
-        <v>3</v>
-      </c>
-      <c r="AQ48">
-        <f t="shared" si="68"/>
-        <v>11</v>
-      </c>
-      <c r="AR48">
-        <f t="shared" si="69"/>
-        <v>11</v>
-      </c>
-      <c r="AS48">
-        <f t="shared" si="70"/>
-        <v>11</v>
-      </c>
-      <c r="AT48">
-        <f t="shared" si="71"/>
-        <v>-8</v>
-      </c>
-      <c r="AU48">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <f t="shared" si="72"/>
-        <v>14</v>
-      </c>
-      <c r="AW48">
-        <f t="shared" si="73"/>
-        <v>22</v>
-      </c>
-      <c r="AX48">
-        <f t="shared" si="74"/>
-        <v>-8</v>
-      </c>
-      <c r="AY48">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AZ48">
-        <f t="shared" si="75"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BA48">
-        <f t="shared" si="76"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BB48">
-        <f t="shared" si="76"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="BC48">
-        <f t="shared" si="77"/>
-        <v>2.8</v>
-      </c>
-      <c r="BD48">
-        <f t="shared" si="78"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -7994,8 +8192,12 @@
         <v>1</v>
       </c>
       <c r="Q49" s="16">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="R49" s="2" t="str">
+        <f>IF(N49&gt;O49,J49,K49)</f>
+        <v>COL</v>
       </c>
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.25">
@@ -8051,6 +8253,10 @@
         <f>IF($N50=$O50, 0, IF($J50=$L50, IF($N50&gt;$O50, 1, 0), IF($O50&gt;$N50, 1, 0)))</f>
         <v>1</v>
       </c>
+      <c r="R50" s="2" t="str">
+        <f>IF(N50&gt;O50,J50,K50)</f>
+        <v>VAN</v>
+      </c>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
@@ -8105,6 +8311,10 @@
         <f>IF($N51=$O51, 0, IF($J51=$L51, IF($N51&gt;$O51, 1, 0), IF($O51&gt;$N51, 1, 0)))</f>
         <v>1</v>
       </c>
+      <c r="R51" s="2" t="str">
+        <f>IF(N51&gt;O51,J51,K51)</f>
+        <v>FLA</v>
+      </c>
       <c r="AA51" t="s">
         <v>67</v>
       </c>
@@ -8246,8 +8456,12 @@
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q82" si="79">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
-        <v>0</v>
+        <f t="shared" ref="Q52:Q83" si="68">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="2" t="str">
+        <f>IF(N52&gt;O52,J52,K52)</f>
+        <v>NYR</v>
       </c>
       <c r="Z52" t="s">
         <v>11</v>
@@ -8282,15 +8496,15 @@
       </c>
       <c r="AH52">
         <f>AJ52+AL52</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI52">
         <f>AE52-AH52</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ52">
         <f>SUMPRODUCT(($K$2:$K$99=Z52)*($O$2:$O$99&gt;$N$2:$N$99))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK52">
         <f>SUMPRODUCT(($K$2:$K$99=Z52)*($O$2:$O$99&lt;$N$2:$N$99))</f>
@@ -8329,11 +8543,11 @@
         <v>4</v>
       </c>
       <c r="AT52">
-        <f t="shared" ref="AT52:AU52" si="80">AP52-AR52</f>
+        <f t="shared" ref="AT52:AU52" si="69">AP52-AR52</f>
         <v>1</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="80"/>
+        <f t="shared" si="69"/>
         <v>3</v>
       </c>
       <c r="AV52">
@@ -8349,19 +8563,19 @@
         <v>4</v>
       </c>
       <c r="AY52">
-        <f t="shared" ref="AY52:AZ52" si="81">AP52/AN52</f>
+        <f t="shared" ref="AY52:AZ52" si="70">AP52/AN52</f>
         <v>3</v>
       </c>
       <c r="AZ52">
-        <f t="shared" si="81"/>
+        <f t="shared" si="70"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BA52">
-        <f t="shared" ref="BA52:BB52" si="82">AR52/AN52</f>
+        <f t="shared" ref="BA52:BB52" si="71">AR52/AN52</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BB52">
-        <f t="shared" si="82"/>
+        <f t="shared" si="71"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="BC52">
@@ -8423,8 +8637,12 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R53" s="2" t="str">
+        <f>IF(N53&gt;O53,J53,K53)</f>
+        <v>DAL</v>
       </c>
       <c r="Z53" t="s">
         <v>13</v>
@@ -8446,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="shared" ref="AE53:AE55" si="83">AA53+AB53+AC53+AD53</f>
+        <f t="shared" ref="AE53:AE55" si="72">AA53+AB53+AC53+AD53</f>
         <v>16</v>
       </c>
       <c r="AF53">
@@ -8458,11 +8676,11 @@
         <v>8</v>
       </c>
       <c r="AH53">
-        <f t="shared" ref="AH53:AH55" si="84">AJ53+AL53</f>
+        <f t="shared" ref="AH53:AH55" si="73">AJ53+AL53</f>
         <v>10</v>
       </c>
       <c r="AI53">
-        <f t="shared" ref="AI53:AI55" si="85">AE53-AH53</f>
+        <f t="shared" ref="AI53:AI55" si="74">AE53-AH53</f>
         <v>6</v>
       </c>
       <c r="AJ53">
@@ -8506,47 +8724,47 @@
         <v>9</v>
       </c>
       <c r="AT53">
-        <f t="shared" ref="AT53:AT55" si="86">AP53-AR53</f>
+        <f t="shared" ref="AT53:AT55" si="75">AP53-AR53</f>
         <v>-3</v>
       </c>
       <c r="AU53">
-        <f t="shared" ref="AU53:AU55" si="87">AQ53-AS53</f>
+        <f t="shared" ref="AU53:AU55" si="76">AQ53-AS53</f>
         <v>-1</v>
       </c>
       <c r="AV53">
-        <f t="shared" ref="AV53:AV55" si="88">AP53+AQ53</f>
+        <f t="shared" ref="AV53:AV55" si="77">AP53+AQ53</f>
         <v>12</v>
       </c>
       <c r="AW53">
-        <f t="shared" ref="AW53:AW55" si="89">AR53+AS53</f>
+        <f t="shared" ref="AW53:AW55" si="78">AR53+AS53</f>
         <v>16</v>
       </c>
       <c r="AX53">
-        <f t="shared" ref="AX53:AX55" si="90">(AP53+AQ53)-(AR53+AS53)</f>
+        <f t="shared" ref="AX53:AX55" si="79">(AP53+AQ53)-(AR53+AS53)</f>
         <v>-4</v>
       </c>
       <c r="AY53">
-        <f t="shared" ref="AY53:AY55" si="91">AP53/AN53</f>
+        <f t="shared" ref="AY53:AY55" si="80">AP53/AN53</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="AZ53">
-        <f t="shared" ref="AZ53:AZ55" si="92">AQ53/AO53</f>
+        <f t="shared" ref="AZ53:AZ55" si="81">AQ53/AO53</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA53">
-        <f t="shared" ref="BA53:BA55" si="93">AR53/AN53</f>
+        <f t="shared" ref="BA53:BA55" si="82">AR53/AN53</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="BB53">
-        <f t="shared" ref="BB53:BB55" si="94">AS53/AO53</f>
+        <f t="shared" ref="BB53:BB55" si="83">AS53/AO53</f>
         <v>3</v>
       </c>
       <c r="BC53">
-        <f t="shared" ref="BC53:BC55" si="95">AV53/AA53</f>
+        <f t="shared" ref="BC53:BC55" si="84">AV53/AA53</f>
         <v>3</v>
       </c>
       <c r="BD53">
-        <f t="shared" ref="BD53:BD55" si="96">AW53/AA53</f>
+        <f t="shared" ref="BD53:BD55" si="85">AW53/AA53</f>
         <v>4</v>
       </c>
     </row>
@@ -8600,8 +8818,12 @@
         <v>0</v>
       </c>
       <c r="Q54" s="27">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R54" s="2" t="str">
+        <f>IF(N54&gt;O54,J54,K54)</f>
+        <v>FLA</v>
       </c>
       <c r="Z54" t="s">
         <v>21</v>
@@ -8623,7 +8845,7 @@
         <v>4</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>22</v>
       </c>
       <c r="AF54">
@@ -8635,11 +8857,11 @@
         <v>11</v>
       </c>
       <c r="AH54">
-        <f t="shared" si="84"/>
+        <f t="shared" si="73"/>
         <v>11</v>
       </c>
       <c r="AI54">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>11</v>
       </c>
       <c r="AJ54">
@@ -8656,7 +8878,7 @@
       </c>
       <c r="AM54">
         <f>SUMPRODUCT(($J$2:$J$99=Z54)*($O$2:$O$99&gt;$N$2:$N$99))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN54">
         <f>COUNTIFS($K$2:$K$99,Z54,$C$2:$C$99,3)</f>
@@ -8683,47 +8905,47 @@
         <v>6</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="86"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="AU54">
-        <f t="shared" si="87"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="AV54">
-        <f t="shared" si="88"/>
+        <f t="shared" si="77"/>
         <v>17</v>
       </c>
       <c r="AW54">
-        <f t="shared" si="89"/>
+        <f t="shared" si="78"/>
         <v>14</v>
       </c>
       <c r="AX54">
-        <f t="shared" si="90"/>
+        <f t="shared" si="79"/>
         <v>3</v>
       </c>
       <c r="AY54">
-        <f t="shared" si="91"/>
+        <f t="shared" si="80"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AZ54">
-        <f t="shared" si="92"/>
+        <f t="shared" si="81"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BA54">
-        <f t="shared" si="93"/>
+        <f t="shared" si="82"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="BB54">
-        <f t="shared" si="94"/>
+        <f t="shared" si="83"/>
         <v>2</v>
       </c>
       <c r="BC54">
-        <f t="shared" si="95"/>
+        <f t="shared" si="84"/>
         <v>3.4</v>
       </c>
       <c r="BD54">
-        <f t="shared" si="96"/>
+        <f t="shared" si="85"/>
         <v>2.8</v>
       </c>
     </row>
@@ -8777,8 +8999,12 @@
         <v>1</v>
       </c>
       <c r="Q55" s="16">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R55" s="2" t="str">
+        <f>IF(N55&gt;O55,J55,K55)</f>
+        <v>EDM</v>
       </c>
       <c r="Z55" t="s">
         <v>19</v>
@@ -8800,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="AE55">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>19</v>
       </c>
       <c r="AF55">
@@ -8812,11 +9038,11 @@
         <v>9</v>
       </c>
       <c r="AH55">
-        <f t="shared" si="84"/>
+        <f t="shared" si="73"/>
         <v>10</v>
       </c>
       <c r="AI55">
-        <f t="shared" si="85"/>
+        <f t="shared" si="74"/>
         <v>9</v>
       </c>
       <c r="AJ55">
@@ -8860,47 +9086,47 @@
         <v>10</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="86"/>
+        <f t="shared" si="75"/>
         <v>-1</v>
       </c>
       <c r="AU55">
-        <f t="shared" si="87"/>
+        <f t="shared" si="76"/>
         <v>-2</v>
       </c>
       <c r="AV55">
-        <f t="shared" si="88"/>
+        <f t="shared" si="77"/>
         <v>14</v>
       </c>
       <c r="AW55">
-        <f t="shared" si="89"/>
+        <f t="shared" si="78"/>
         <v>17</v>
       </c>
       <c r="AX55">
-        <f t="shared" si="90"/>
+        <f t="shared" si="79"/>
         <v>-3</v>
       </c>
       <c r="AY55">
-        <f t="shared" si="91"/>
+        <f t="shared" si="80"/>
         <v>2</v>
       </c>
       <c r="AZ55">
-        <f t="shared" si="92"/>
+        <f t="shared" si="81"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA55">
-        <f t="shared" si="93"/>
+        <f t="shared" si="82"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BB55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="83"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="BC55">
-        <f t="shared" si="95"/>
+        <f t="shared" si="84"/>
         <v>2</v>
       </c>
       <c r="BD55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="85"/>
         <v>2.4285714285714284</v>
       </c>
     </row>
@@ -8954,8 +9180,12 @@
         <v>0</v>
       </c>
       <c r="Q56" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R56" s="2" t="str">
+        <f>IF(N56&gt;O56,J56,K56)</f>
+        <v>CAR</v>
       </c>
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.25">
@@ -9008,8 +9238,12 @@
         <v>0</v>
       </c>
       <c r="Q57" s="16">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="2" t="str">
+        <f>IF(N57&gt;O57,J57,K57)</f>
+        <v>DAL</v>
       </c>
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.25">
@@ -9062,8 +9296,12 @@
         <v>0</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="2" t="str">
+        <f>IF(N58&gt;O58,J58,K58)</f>
+        <v>FLA</v>
       </c>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.25">
@@ -9116,8 +9354,12 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R59" s="2" t="str">
+        <f>IF(N59&gt;O59,J59,K59)</f>
+        <v>VAN</v>
       </c>
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.25">
@@ -9170,8 +9412,12 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R60" s="2" t="str">
+        <f>IF(N60&gt;O60,J60,K60)</f>
+        <v>CAR</v>
       </c>
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.25">
@@ -9224,8 +9470,12 @@
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="2" t="str">
+        <f>IF(N61&gt;O61,J61,K61)</f>
+        <v>DAL</v>
       </c>
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.25">
@@ -9278,8 +9528,12 @@
         <v>0</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R62" s="2" t="str">
+        <f>IF(N62&gt;O62,J62,K62)</f>
+        <v>BOS</v>
       </c>
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.25">
@@ -9332,8 +9586,12 @@
         <v>0</v>
       </c>
       <c r="Q63" s="16">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R63" s="2" t="str">
+        <f>IF(N63&gt;O63,J63,K63)</f>
+        <v>EDM</v>
       </c>
     </row>
     <row r="64" spans="1:56" x14ac:dyDescent="0.25">
@@ -9386,8 +9644,12 @@
         <v>0</v>
       </c>
       <c r="Q64" s="19">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R64" s="2" t="str">
+        <f>IF(N64&gt;O64,J64,K64)</f>
+        <v>COL</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -9440,8 +9702,12 @@
         <v>0</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="2" t="str">
+        <f>IF(N65&gt;O65,J65,K65)</f>
+        <v>NYR</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -9497,6 +9763,10 @@
         <f>IF($N66=$O66, 0, IF($J66=$L66, IF($N66&gt;$O66, 1, 0), IF($O66&gt;$N66, 1, 0)))</f>
         <v>0</v>
       </c>
+      <c r="R66" s="2" t="str">
+        <f>IF(N66&gt;O66,J66,K66)</f>
+        <v>VAN</v>
+      </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
@@ -9548,8 +9818,12 @@
         <v>0</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="2" t="str">
+        <f>IF(N67&gt;O67,J67,K67)</f>
+        <v>FLA</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -9602,8 +9876,12 @@
         <v>2</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R68" s="2" t="str">
+        <f>IF(N68&gt;O68,J68,K68)</f>
+        <v>DAL</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -9656,8 +9934,12 @@
         <v>0</v>
       </c>
       <c r="Q69" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R69" s="2" t="str">
+        <f>IF(N69&gt;O69,J69,K69)</f>
+        <v>EDM</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9710,8 +9992,12 @@
         <v>0</v>
       </c>
       <c r="Q70" s="31">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R70" s="2" t="str">
+        <f>IF(N70&gt;O70,J70,K70)</f>
+        <v>EDM</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9764,8 +10050,12 @@
         <v>0</v>
       </c>
       <c r="Q71" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R71" s="2" t="str">
+        <f>IF(N71&gt;O71,J71,K71)</f>
+        <v>FLA</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -9818,8 +10108,12 @@
         <v>2</v>
       </c>
       <c r="Q72" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R72" s="2" t="str">
+        <f>IF(N72&gt;O72,J72,K72)</f>
+        <v>EDM</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -9872,8 +10166,12 @@
         <v>1</v>
       </c>
       <c r="Q73" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R73" s="2" t="str">
+        <f>IF(N73&gt;O73,J73,K73)</f>
+        <v>NYR</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
@@ -9926,8 +10224,12 @@
         <v>0</v>
       </c>
       <c r="Q74" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R74" s="2" t="str">
+        <f>IF(N74&gt;O74,J74,K74)</f>
+        <v>DAL</v>
       </c>
       <c r="W74" s="2">
         <f>WEEKDAY(A69)</f>
@@ -9984,8 +10286,12 @@
         <v>1</v>
       </c>
       <c r="Q75" s="2">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="2" t="str">
+        <f>IF(N75&gt;O75,J75,K75)</f>
+        <v>NYR</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
@@ -10038,8 +10344,12 @@
         <v>0</v>
       </c>
       <c r="Q76" s="2">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="2" t="str">
+        <f>IF(N76&gt;O76,J76,K76)</f>
+        <v>DAL</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
@@ -10092,8 +10402,12 @@
         <v>1</v>
       </c>
       <c r="Q77" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R77" s="2" t="str">
+        <f>IF(N77&gt;O77,J77,K77)</f>
+        <v>FLA</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
@@ -10146,8 +10460,12 @@
         <v>0</v>
       </c>
       <c r="Q78" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R78" s="2" t="str">
+        <f>IF(N78&gt;O78,J78,K78)</f>
+        <v>EDM</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
@@ -10200,8 +10518,12 @@
         <v>0</v>
       </c>
       <c r="Q79" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R79" s="2" t="str">
+        <f>IF(N79&gt;O79,J79,K79)</f>
+        <v>FLA</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
@@ -10254,11 +10576,15 @@
         <v>0</v>
       </c>
       <c r="Q80" s="2">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R80" s="2" t="str">
+        <f>IF(N80&gt;O80,J80,K80)</f>
+        <v>EDM</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>45444</v>
       </c>
@@ -10308,11 +10634,15 @@
         <v>0</v>
       </c>
       <c r="Q81" s="2">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="2" t="str">
+        <f>IF(N81&gt;O81,J81,K81)</f>
+        <v>FLA</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="34">
         <v>45445</v>
       </c>
@@ -10362,11 +10692,15 @@
         <v>0</v>
       </c>
       <c r="Q82" s="35">
-        <f t="shared" si="79"/>
-        <v>1</v>
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="R82" s="2" t="str">
+        <f>IF(N82&gt;O82,J82,K82)</f>
+        <v>EDM</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>45451</v>
       </c>
@@ -10388,22 +10722,43 @@
       <c r="G83" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
+      <c r="H83" s="4">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
       <c r="J83" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
+      <c r="L83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" s="3">
+        <v>45451</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
+        <v>2</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="2">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="2" t="str">
+        <f>IF(N83&gt;O83,J83,K83)</f>
+        <v>FLA</v>
+      </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>45453</v>
       </c>
@@ -10439,8 +10794,12 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
+      <c r="R84" s="2" t="str">
+        <f>IF(N84&gt;O84,J84,K84)</f>
+        <v>FLA</v>
+      </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>45425</v>
       </c>
@@ -10476,8 +10835,12 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
+      <c r="R85" s="2" t="str">
+        <f>IF(N85&gt;O85,J85,K85)</f>
+        <v>EDM</v>
+      </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>45458</v>
       </c>
@@ -10513,8 +10876,12 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
+      <c r="R86" s="2" t="str">
+        <f>IF(N86&gt;O86,J86,K86)</f>
+        <v>EDM</v>
+      </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -10529,7 +10896,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -10544,7 +10911,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -10560,7 +10927,7 @@
       <c r="Q89" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD20 A21:AE37 A40:AE44 Z45:AE48 Z51:AE55 Z58:AE58 AF21:AO21 AQ21:BD21 BH21:BI21 AP21:AP37 BG21:BG37 BI21:XFD37 A38:XFD39 AF40:AO40 AQ40:BD40 AP40:AP48 BE40:XFD58 A45:Y58 AP51:AP55 AP58 A59:XFD1048576">
+  <conditionalFormatting sqref="Z45:AE48 Z51:AE55 Z58:AE58 AF21:AO21 AQ21:BD21 BH21:BI21 BG21:BG37 BI21:XFD37 AF40:AO40 AQ40:BD40 AP40:AP48 BE40:XFD58 AP51:AP55 AP58 A1:XFD20 A38:XFD39 A40:AE44 A45:Y58 A59:XFD1048576 A21:AE37 AP21:AP37">
     <cfRule type="cellIs" dxfId="32" priority="103" operator="equal">
       <formula>"LAK"</formula>
     </cfRule>
@@ -10666,7 +11033,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA22:AD37 AA41:AD48 AA52:AD55 AA58:AD58">
+  <conditionalFormatting sqref="AA41:AD48 AA52:AD55 AA58:AD58 AA22:AD37">
     <cfRule type="cellIs" dxfId="16" priority="99" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Python/Hockey pool/2024/My Predictions.xlsx
+++ b/Python/Hockey pool/2024/My Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrig\Documents\Coding_Practice\Python\Hockey pool\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2999CB90-7E4D-400F-A51B-C348D448695C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAD9E06-1189-478F-94BE-F6F21C1FA97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF13B1A-4770-4E31-9A10-40459726CAB5}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="155">
   <si>
     <t>NYI</t>
   </si>
@@ -461,6 +461,57 @@
   </si>
   <si>
     <t>WINNER</t>
+  </si>
+  <si>
+    <t>GP R4 A</t>
+  </si>
+  <si>
+    <t>GF R4 H</t>
+  </si>
+  <si>
+    <t>GF R4 A</t>
+  </si>
+  <si>
+    <t>GA R4 H</t>
+  </si>
+  <si>
+    <t>GA R4 A</t>
+  </si>
+  <si>
+    <t>DIFF R4 H</t>
+  </si>
+  <si>
+    <t>DIFF R4 A</t>
+  </si>
+  <si>
+    <t>GF R4 T</t>
+  </si>
+  <si>
+    <t>GA R4 T</t>
+  </si>
+  <si>
+    <t>DIFF R4 T</t>
+  </si>
+  <si>
+    <t>GFPG R4 H</t>
+  </si>
+  <si>
+    <t>GFPG R4 A</t>
+  </si>
+  <si>
+    <t>GAPG R4 H</t>
+  </si>
+  <si>
+    <t>GAPG R4 A</t>
+  </si>
+  <si>
+    <t>GFPG R4</t>
+  </si>
+  <si>
+    <t>GAPG R4</t>
+  </si>
+  <si>
+    <t>GP R4 H</t>
   </si>
 </sst>
 </file>
@@ -580,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -683,19 +734,64 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="67">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
@@ -707,11 +803,47 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -735,7 +867,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -747,91 +879,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -894,7 +942,55 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFC000"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
@@ -906,11 +1002,47 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -934,7 +1066,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -946,91 +1078,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92001C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1055,6 +1103,404 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92001C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1404,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0969FCB-44D6-4DD7-80C6-C6E6D39A1DF9}">
   <dimension ref="A1:BL89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="AE28" workbookViewId="0">
+      <selection activeCell="BB46" sqref="BB46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1957,7 @@
       <c r="Q1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1569,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="2" t="str">
-        <f>IF(N2&gt;O2,J2,K2)</f>
+        <f t="shared" ref="R2:R33" si="1">IF(N2&gt;O2,J2,K2)</f>
         <v>CAR</v>
       </c>
       <c r="U2" s="2"/>
@@ -1668,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="2" t="str">
-        <f>IF(N3&gt;O3,J3,K3)</f>
+        <f t="shared" si="1"/>
         <v>BOS</v>
       </c>
       <c r="T3" t="s">
@@ -1697,19 +2143,19 @@
         <v>5</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC17" si="1">SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y3)</f>
+        <f t="shared" ref="AC3:AC17" si="2">SUMIFS($Q$2:$Q$99,$D$2:$D$99,Y3)</f>
         <v>3</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD17" si="2">AC3/AB3</f>
+        <f t="shared" ref="AD3:AD17" si="3">AC3/AB3</f>
         <v>0.6</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AF10" si="3">SUMIFS($O$2:$O$99,$K$2:$K$99,Z3,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z3,$C$2:$C$99,1)</f>
+        <f t="shared" ref="AE3:AF10" si="4">SUMIFS($O$2:$O$99,$K$2:$K$99,Z3,$C$2:$C$99,1) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z3,$C$2:$C$99,1)</f>
         <v>20</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="AG3">
@@ -1771,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="2" t="str">
-        <f>IF(N4&gt;O4,J4,K4)</f>
+        <f t="shared" si="1"/>
         <v>FLA</v>
       </c>
       <c r="T4" t="s">
@@ -1800,19 +2246,19 @@
         <v>7</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -1870,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="2" t="str">
-        <f>IF(N5&gt;O5,J5,K5)</f>
+        <f t="shared" si="1"/>
         <v>NYR</v>
       </c>
       <c r="T5" t="s">
@@ -1880,7 +2326,7 @@
       <c r="V5" s="4"/>
       <c r="W5" s="6">
         <f>COUNTA(H2:H99)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="8" t="s">
@@ -1899,19 +2345,19 @@
         <v>5</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -1969,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="2" t="str">
-        <f>IF(N6&gt;O6,J6,K6)</f>
+        <f t="shared" si="1"/>
         <v>WPG</v>
       </c>
       <c r="T6" t="s">
@@ -1998,19 +2444,19 @@
         <v>4</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -2068,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="2" t="str">
-        <f>IF(N7&gt;O7,J7,K7)</f>
+        <f t="shared" si="1"/>
         <v>VAN</v>
       </c>
       <c r="T7" t="s">
@@ -2078,7 +2524,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="6">
         <f>W6/W5</f>
-        <v>0.6097560975609756</v>
+        <v>0.60240963855421692</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="8" t="s">
@@ -2097,19 +2543,19 @@
         <v>6</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -2167,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="2" t="str">
-        <f>IF(N8&gt;O8,J8,K8)</f>
+        <f t="shared" si="1"/>
         <v>CAR</v>
       </c>
       <c r="U8" s="2"/>
@@ -2190,19 +2636,19 @@
         <v>5</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
@@ -2260,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="2" t="str">
-        <f>IF(N9&gt;O9,J9,K9)</f>
+        <f t="shared" si="1"/>
         <v>TOR</v>
       </c>
       <c r="U9" s="2"/>
@@ -2283,19 +2729,19 @@
         <v>5</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
@@ -2353,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="2" t="str">
-        <f>IF(N10&gt;O10,J10,K10)</f>
+        <f t="shared" si="1"/>
         <v>VGK</v>
       </c>
       <c r="U10" s="2"/>
@@ -2376,19 +2822,19 @@
         <v>7</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AD10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="AG10" s="11"/>
@@ -2451,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2" t="str">
-        <f>IF(N11&gt;O11,J11,K11)</f>
+        <f t="shared" si="1"/>
         <v>EDM</v>
       </c>
       <c r="V11" s="4"/>
@@ -2471,19 +2917,19 @@
         <v>6</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AE11">
-        <f t="shared" ref="AE11:AF14" si="4">SUMIFS($O$2:$O$99,$K$2:$K$99,Z11,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z11,$C$2:$C$99,2)</f>
+        <f t="shared" ref="AE11:AF14" si="5">SUMIFS($O$2:$O$99,$K$2:$K$99,Z11,$C$2:$C$99,2) + SUMIFS($N$2:$N$99,$J$2:$J$99,Z11,$C$2:$C$99,2)</f>
         <v>20</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
@@ -2541,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="2" t="str">
-        <f>IF(N12&gt;O12,J12,K12)</f>
+        <f t="shared" si="1"/>
         <v>NYR</v>
       </c>
       <c r="V12" s="4"/>
@@ -2561,19 +3007,19 @@
         <v>6</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -2631,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="2" t="str">
-        <f>IF(N13&gt;O13,J13,K13)</f>
+        <f t="shared" si="1"/>
         <v>FLA</v>
       </c>
       <c r="V13" s="4"/>
@@ -2651,19 +3097,19 @@
         <v>6</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
@@ -2721,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="2" t="str">
-        <f>IF(N14&gt;O14,J14,K14)</f>
+        <f t="shared" si="1"/>
         <v>COL</v>
       </c>
       <c r="V14" s="4"/>
@@ -2741,19 +3187,19 @@
         <v>7</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="AD14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="AG14" s="11"/>
@@ -2816,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="2" t="str">
-        <f>IF(N15&gt;O15,J15,K15)</f>
+        <f t="shared" si="1"/>
         <v>NSH</v>
       </c>
       <c r="V15" s="4"/>
@@ -2836,11 +3282,11 @@
         <v>6</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AE15">
@@ -2906,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="2" t="str">
-        <f>IF(N16&gt;O16,J16,K16)</f>
+        <f t="shared" si="1"/>
         <v>BOS</v>
       </c>
       <c r="V16" s="4"/>
@@ -2926,11 +3372,11 @@
         <v>6</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AD16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AE16">
@@ -3001,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="2" t="str">
-        <f>IF(N17&gt;O17,J17,K17)</f>
+        <f t="shared" si="1"/>
         <v>VGK</v>
       </c>
       <c r="V17" s="4"/>
@@ -3021,11 +3467,11 @@
         <v>4</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD17" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE17">
@@ -3034,7 +3480,7 @@
       </c>
       <c r="AF17">
         <f>SUMIFS($O$2:$O$99,$K$2:$K$99,AA17,$C$2:$C$99,4) + SUMIFS($N$2:$N$99,$J$2:$J$99,AA17,$C$2:$C$99,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="14"/>
       <c r="AH17" s="14"/>
@@ -3096,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f>IF(N18&gt;O18,J18,K18)</f>
+        <f t="shared" si="1"/>
         <v>LAK</v>
       </c>
       <c r="V18" s="4"/>
@@ -3155,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="2" t="str">
-        <f>IF(N19&gt;O19,J19,K19)</f>
+        <f t="shared" si="1"/>
         <v>FLA</v>
       </c>
       <c r="V19" s="4"/>
@@ -3214,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="2" t="str">
-        <f>IF(N20&gt;O20,J20,K20)</f>
+        <f t="shared" si="1"/>
         <v>CAR</v>
       </c>
       <c r="V20" s="4"/>
@@ -3273,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="2" t="str">
-        <f>IF(N21&gt;O21,J21,K21)</f>
+        <f t="shared" si="1"/>
         <v>NYR</v>
       </c>
       <c r="V21" s="4"/>
@@ -3440,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="2" t="str">
-        <f>IF(N22&gt;O22,J22,K22)</f>
+        <f t="shared" si="1"/>
         <v>COL</v>
       </c>
       <c r="V22" s="4"/>
@@ -3448,19 +3894,19 @@
         <v>11</v>
       </c>
       <c r="AA22">
-        <f>COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 1)</f>
+        <f t="shared" ref="AA22:AA37" si="6">COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB22">
-        <f>COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 2)</f>
+        <f t="shared" ref="AB22:AB37" si="7">COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC22">
-        <f>COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 3)</f>
+        <f t="shared" ref="AC22:AC37" si="8">COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 3)</f>
         <v>6</v>
       </c>
       <c r="AD22">
-        <f>COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 4)</f>
+        <f t="shared" ref="AD22:AD37" si="9">COUNTIFS($J$2:$J$100, Z22, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z22, $C$2:$C$100, 4)</f>
         <v>4</v>
       </c>
       <c r="AE22">
@@ -3468,59 +3914,59 @@
         <v>21</v>
       </c>
       <c r="AF22">
-        <f>COUNTIF($K$2:$K$100, Z22)</f>
+        <f t="shared" ref="AF22:AF37" si="10">COUNTIF($K$2:$K$100, Z22)</f>
         <v>11</v>
       </c>
       <c r="AG22">
-        <f>COUNTIF($J$2:$J$100, Z22)</f>
+        <f t="shared" ref="AG22:AG37" si="11">COUNTIF($J$2:$J$100, Z22)</f>
         <v>10</v>
       </c>
       <c r="AH22">
-        <f>AJ22+AL22</f>
-        <v>13</v>
+        <f t="shared" ref="AH22:AH37" si="12">AJ22+AL22</f>
+        <v>14</v>
       </c>
       <c r="AI22">
-        <f>AE22-AH22</f>
+        <f t="shared" ref="AI22:AI37" si="13">AE22-AH22</f>
+        <v>7</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" ref="AJ22:AJ37" si="14">SUMPRODUCT(($K$2:$K$100=Z22)*($O$2:$O$100&gt;$N$2:$N$100))</f>
         <v>8</v>
       </c>
-      <c r="AJ22">
-        <f>SUMPRODUCT(($K$2:$K$100=Z22)*($O$2:$O$100&gt;$N$2:$N$100))</f>
-        <v>7</v>
-      </c>
       <c r="AK22">
-        <f>SUMPRODUCT(($K$2:$K$100=Z22)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" ref="AK22:AK37" si="15">SUMPRODUCT(($K$2:$K$100=Z22)*($O$2:$O$100&lt;$N$2:$N$100))</f>
         <v>3</v>
       </c>
       <c r="AL22">
-        <f>SUMPRODUCT(($J$2:$J$100=Z22)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" ref="AL22:AL37" si="16">SUMPRODUCT(($J$2:$J$100=Z22)*($O$2:$O$100&lt;$N$2:$N$100))</f>
         <v>6</v>
       </c>
       <c r="AM22">
-        <f>SUMPRODUCT(($J$2:$J$100=Z22)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" ref="AM22:AM37" si="17">SUMPRODUCT(($J$2:$J$100=Z22)*($O$2:$O$100&gt;$N$2:$N$100))</f>
         <v>2</v>
       </c>
       <c r="AN22">
-        <f>COUNTIFS($K$2:$K$100,Z22,$C$2:$C$100,1)</f>
+        <f t="shared" ref="AN22:AN37" si="18">COUNTIFS($K$2:$K$100,Z22,$C$2:$C$100,1)</f>
         <v>3</v>
       </c>
       <c r="AO22">
-        <f>COUNTIFS($J$2:$J$100,Z22,$C$2:$C$100,1)</f>
+        <f t="shared" ref="AO22:AO37" si="19">COUNTIFS($J$2:$J$100,Z22,$C$2:$C$100,1)</f>
         <v>2</v>
       </c>
       <c r="AP22">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z22,$C$2:$C$100, 1)</f>
+        <f t="shared" ref="AP22:AP37" si="20">SUMIFS($O$2:$O$100, $K$2:$K$100, Z22,$C$2:$C$100, 1)</f>
         <v>12</v>
       </c>
       <c r="AQ22">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z22,$C$2:$C$100, 1)</f>
+        <f t="shared" ref="AQ22:AQ37" si="21">SUMIFS($N$2:$N$100, $J$2:$J$100, Z22,$C$2:$C$100, 1)</f>
         <v>8</v>
       </c>
       <c r="AR22">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z22,$C$2:$C$100, 1)</f>
+        <f t="shared" ref="AR22:AR37" si="22">SUMIFS($N$2:$N$100, $K$2:$K$100, Z22,$C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AS22">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z22,$C$2:$C$100, 1)</f>
+        <f t="shared" ref="AS22:AS37" si="23">SUMIFS($O$2:$O$100, $J$2:$J$100, Z22,$C$2:$C$100, 1)</f>
         <v>9</v>
       </c>
       <c r="AT22">
@@ -3560,15 +4006,15 @@
         <v>4.5</v>
       </c>
       <c r="BC22">
-        <f t="shared" ref="BC22:BC37" si="5">AV22/AA22</f>
+        <f t="shared" ref="BC22:BC37" si="24">AV22/AA22</f>
         <v>4</v>
       </c>
       <c r="BD22">
-        <f t="shared" ref="BD22:BD37" si="6">AW22/AA22</f>
+        <f t="shared" ref="BD22:BD37" si="25">AW22/AA22</f>
         <v>2.8</v>
       </c>
       <c r="BG22">
-        <f t="shared" ref="BG22:BG37" si="7">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
+        <f t="shared" ref="BG22:BG37" si="26">SUMIFS($O$2:$O$81, $K$2:$K$81, Z22,$C$2:$C$81, 4)</f>
         <v>0</v>
       </c>
       <c r="BJ22" t="e">
@@ -3630,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="2" t="str">
-        <f>IF(N23&gt;O23,J23,K23)</f>
+        <f t="shared" si="1"/>
         <v>LAK</v>
       </c>
       <c r="V23" s="4"/>
@@ -3638,127 +4084,127 @@
         <v>3</v>
       </c>
       <c r="AA23">
-        <f>COUNTIFS($J$2:$J$100, Z23, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z23, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AB23">
-        <f>COUNTIFS($J$2:$J$100, Z23, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z23, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AC23">
-        <f>COUNTIFS($J$2:$J$100, Z23, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z23, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD23">
-        <f>COUNTIFS($J$2:$J$100, Z23, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z23, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AE37" si="8">AA23+AB23+AC23+AD23</f>
+        <f t="shared" ref="AE23:AE37" si="27">AA23+AB23+AC23+AD23</f>
         <v>13</v>
       </c>
       <c r="AF23">
-        <f>COUNTIF($K$2:$K$100, Z23)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="AG23">
-        <f>COUNTIF($J$2:$J$100, Z23)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AH23">
-        <f>AJ23+AL23</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AI23">
-        <f>AE23-AH23</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AJ23">
-        <f>SUMPRODUCT(($K$2:$K$100=Z23)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AK23">
-        <f>SUMPRODUCT(($K$2:$K$100=Z23)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AL23">
-        <f>SUMPRODUCT(($J$2:$J$100=Z23)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="AM23">
-        <f>SUMPRODUCT(($J$2:$J$100=Z23)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AN23">
-        <f>COUNTIFS($K$2:$K$100,Z23,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="AO23">
-        <f>COUNTIFS($J$2:$J$100,Z23,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AP23">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z23,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="AQ23">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z23,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="AR23">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z23,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="AS23">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z23,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AT23">
-        <f t="shared" ref="AT23:AT37" si="9">AP23-AR23</f>
+        <f t="shared" ref="AT23:AT37" si="28">AP23-AR23</f>
         <v>3</v>
       </c>
       <c r="AU23">
-        <f t="shared" ref="AU23:AU37" si="10">AQ23-AS23</f>
+        <f t="shared" ref="AU23:AU37" si="29">AQ23-AS23</f>
         <v>3</v>
       </c>
       <c r="AV23">
-        <f t="shared" ref="AV23:AV37" si="11">AP23+AQ23</f>
+        <f t="shared" ref="AV23:AV37" si="30">AP23+AQ23</f>
         <v>18</v>
       </c>
       <c r="AW23">
-        <f t="shared" ref="AW23:AW37" si="12">AR23+AS23</f>
+        <f t="shared" ref="AW23:AW37" si="31">AR23+AS23</f>
         <v>12</v>
       </c>
       <c r="AX23">
-        <f t="shared" ref="AX23:AX37" si="13">(AP23+AQ23)-(AR23+AS23)</f>
+        <f t="shared" ref="AX23:AX37" si="32">(AP23+AQ23)-(AR23+AS23)</f>
         <v>6</v>
       </c>
       <c r="AY23">
-        <f t="shared" ref="AY23:AY37" si="14">AP23/AN23</f>
+        <f t="shared" ref="AY23:AY37" si="33">AP23/AN23</f>
         <v>2.5</v>
       </c>
       <c r="AZ23">
-        <f t="shared" ref="AZ23:AZ37" si="15">AQ23/AO23</f>
+        <f t="shared" ref="AZ23:AZ37" si="34">AQ23/AO23</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA23">
-        <f t="shared" ref="BA23:BA37" si="16">AR23/AN23</f>
+        <f t="shared" ref="BA23:BA37" si="35">AR23/AN23</f>
         <v>1.75</v>
       </c>
       <c r="BB23">
-        <f t="shared" ref="BB23:BB37" si="17">AS23/AO23</f>
+        <f t="shared" ref="BB23:BB37" si="36">AS23/AO23</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="BC23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="BD23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="BG23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ23" t="e">
@@ -3820,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="2" t="str">
-        <f>IF(N24&gt;O24,J24,K24)</f>
+        <f t="shared" si="1"/>
         <v>VAN</v>
       </c>
       <c r="V24" s="4"/>
@@ -3828,127 +4274,127 @@
         <v>2</v>
       </c>
       <c r="AA24">
-        <f>COUNTIFS($J$2:$J$100, Z24, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z24, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AB24">
-        <f>COUNTIFS($J$2:$J$100, Z24, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z24, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f>COUNTIFS($J$2:$J$100, Z24, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z24, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD24">
-        <f>COUNTIFS($J$2:$J$100, Z24, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z24, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="AF24">
-        <f>COUNTIF($K$2:$K$100, Z24)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AG24">
-        <f>COUNTIF($J$2:$J$100, Z24)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AH24">
-        <f>AJ24+AL24</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AI24">
-        <f>AE24-AH24</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AJ24">
-        <f>SUMPRODUCT(($K$2:$K$100=Z24)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK24">
-        <f>SUMPRODUCT(($K$2:$K$100=Z24)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AL24">
-        <f>SUMPRODUCT(($J$2:$J$100=Z24)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AM24">
-        <f>SUMPRODUCT(($J$2:$J$100=Z24)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AN24">
-        <f>COUNTIFS($K$2:$K$100,Z24,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO24">
-        <f>COUNTIFS($J$2:$J$100,Z24,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="AP24">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z24,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AQ24">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z24,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="AR24">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z24,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="AS24">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z24,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-3</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>-3</v>
       </c>
       <c r="AV24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="AW24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>-6</v>
       </c>
       <c r="AY24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AZ24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1.75</v>
       </c>
       <c r="BA24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="BB24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.5</v>
       </c>
       <c r="BC24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="BD24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>2.5714285714285716</v>
       </c>
       <c r="BG24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ24" t="e">
@@ -4010,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="2" t="str">
-        <f>IF(N25&gt;O25,J25,K25)</f>
+        <f t="shared" si="1"/>
         <v>NYI</v>
       </c>
       <c r="V25" s="4"/>
@@ -4018,127 +4464,127 @@
         <v>10</v>
       </c>
       <c r="AA25">
-        <f>COUNTIFS($J$2:$J$100, Z25, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z25, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB25">
-        <f>COUNTIFS($J$2:$J$100, Z25, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z25, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f>COUNTIFS($J$2:$J$100, Z25, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z25, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD25">
-        <f>COUNTIFS($J$2:$J$100, Z25, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z25, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="AF25">
-        <f>COUNTIF($K$2:$K$100, Z25)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AG25">
-        <f>COUNTIF($J$2:$J$100, Z25)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AH25">
-        <f>AJ25+AL25</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AI25">
-        <f>AE25-AH25</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AJ25">
-        <f>SUMPRODUCT(($K$2:$K$100=Z25)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK25">
-        <f>SUMPRODUCT(($K$2:$K$100=Z25)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL25">
-        <f>SUMPRODUCT(($J$2:$J$100=Z25)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM25">
-        <f>SUMPRODUCT(($J$2:$J$100=Z25)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AN25">
-        <f>COUNTIFS($K$2:$K$100,Z25,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO25">
-        <f>COUNTIFS($J$2:$J$100,Z25,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AP25">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z25,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="AQ25">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z25,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="AR25">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z25,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="AS25">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z25,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>-7</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>-6</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>4.5</v>
       </c>
       <c r="AZ25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="BA25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BB25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="BC25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>2.8</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="BG25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ25" t="e">
@@ -4200,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="2" t="str">
-        <f>IF(N26&gt;O26,J26,K26)</f>
+        <f t="shared" si="1"/>
         <v>TBL</v>
       </c>
       <c r="V26" s="4"/>
@@ -4208,127 +4654,127 @@
         <v>13</v>
       </c>
       <c r="AA26">
-        <f>COUNTIFS($J$2:$J$100, Z26, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z26, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AB26">
-        <f>COUNTIFS($J$2:$J$100, Z26, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z26, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AC26">
-        <f>COUNTIFS($J$2:$J$100, Z26, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z26, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AD26">
-        <f>COUNTIFS($J$2:$J$100, Z26, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z26, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="AF26">
-        <f>COUNTIF($K$2:$K$100, Z26)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AG26">
-        <f>COUNTIF($J$2:$J$100, Z26)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AH26">
-        <f>AJ26+AL26</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="AI26">
-        <f>AE26-AH26</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AJ26">
-        <f>SUMPRODUCT(($K$2:$K$100=Z26)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="AK26">
-        <f>SUMPRODUCT(($K$2:$K$100=Z26)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AL26">
-        <f>SUMPRODUCT(($J$2:$J$100=Z26)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="AM26">
-        <f>SUMPRODUCT(($J$2:$J$100=Z26)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AN26">
-        <f>COUNTIFS($K$2:$K$100,Z26,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO26">
-        <f>COUNTIFS($J$2:$J$100,Z26,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AP26">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z26,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="AQ26">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z26,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="AR26">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z26,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="AS26">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z26,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="AU26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="AV26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="AW26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="AY26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="AZ26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>3.5</v>
       </c>
       <c r="BA26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="BB26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.5</v>
       </c>
       <c r="BC26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>3.75</v>
       </c>
       <c r="BD26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>1.75</v>
       </c>
       <c r="BG26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ26" t="e">
@@ -4390,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="R27" s="2" t="str">
-        <f>IF(N27&gt;O27,J27,K27)</f>
+        <f t="shared" si="1"/>
         <v>BOS</v>
       </c>
       <c r="V27" s="4"/>
@@ -4398,127 +4844,127 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <f>COUNTIFS($J$2:$J$100, Z27, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z27, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB27">
-        <f>COUNTIFS($J$2:$J$100, Z27, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z27, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AC27">
-        <f>COUNTIFS($J$2:$J$100, Z27, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z27, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD27">
-        <f>COUNTIFS($J$2:$J$100, Z27, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z27, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
       <c r="AF27">
-        <f>COUNTIF($K$2:$K$100, Z27)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AG27">
-        <f>COUNTIF($J$2:$J$100, Z27)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AH27">
-        <f>AJ27+AL27</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AI27">
-        <f>AE27-AH27</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AJ27">
-        <f>SUMPRODUCT(($K$2:$K$100=Z27)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AK27">
-        <f>SUMPRODUCT(($K$2:$K$100=Z27)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AL27">
-        <f>SUMPRODUCT(($J$2:$J$100=Z27)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AM27">
-        <f>SUMPRODUCT(($J$2:$J$100=Z27)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AN27">
-        <f>COUNTIFS($K$2:$K$100,Z27,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO27">
-        <f>COUNTIFS($J$2:$J$100,Z27,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AP27">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z27,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="AQ27">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z27,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="AR27">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z27,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="AS27">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z27,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AT27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="AU27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AV27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
       <c r="AW27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="AY27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>4.666666666666667</v>
       </c>
       <c r="AZ27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2.5</v>
       </c>
       <c r="BA27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BB27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.5</v>
       </c>
       <c r="BC27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>3.8</v>
       </c>
       <c r="BD27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>2.4</v>
       </c>
       <c r="BG27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ27" t="e">
@@ -4580,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="R28" s="2" t="str">
-        <f>IF(N28&gt;O28,J28,K28)</f>
+        <f t="shared" si="1"/>
         <v>DAL</v>
       </c>
       <c r="V28" s="4"/>
@@ -4588,127 +5034,127 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <f>COUNTIFS($J$2:$J$100, Z28, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z28, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB28">
-        <f>COUNTIFS($J$2:$J$100, Z28, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z28, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC28">
-        <f>COUNTIFS($J$2:$J$100, Z28, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z28, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD28">
-        <f>COUNTIFS($J$2:$J$100, Z28, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z28, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="AF28">
-        <f>COUNTIF($K$2:$K$100, Z28)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AG28">
-        <f>COUNTIF($J$2:$J$100, Z28)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AH28">
-        <f>AJ28+AL28</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AI28">
-        <f>AE28-AH28</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AJ28">
-        <f>SUMPRODUCT(($K$2:$K$100=Z28)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK28">
-        <f>SUMPRODUCT(($K$2:$K$100=Z28)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL28">
-        <f>SUMPRODUCT(($J$2:$J$100=Z28)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM28">
-        <f>SUMPRODUCT(($J$2:$J$100=Z28)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AN28">
-        <f>COUNTIFS($K$2:$K$100,Z28,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO28">
-        <f>COUNTIFS($J$2:$J$100,Z28,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AP28">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z28,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AQ28">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z28,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="AR28">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z28,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="AS28">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z28,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AU28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>-7</v>
       </c>
       <c r="AV28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="AW28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>-7</v>
       </c>
       <c r="AY28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>2.5</v>
       </c>
       <c r="AZ28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BA28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>2.5</v>
       </c>
       <c r="BB28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>4.666666666666667</v>
       </c>
       <c r="BC28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>2.4</v>
       </c>
       <c r="BD28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>3.8</v>
       </c>
       <c r="BG28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ28" t="e">
@@ -4770,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="R29" s="2" t="str">
-        <f>IF(N29&gt;O29,J29,K29)</f>
+        <f t="shared" si="1"/>
         <v>COL</v>
       </c>
       <c r="V29" s="4"/>
@@ -4778,127 +5224,127 @@
         <v>12</v>
       </c>
       <c r="AA29">
-        <f>COUNTIFS($J$2:$J$100, Z29, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z29, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AB29">
-        <f>COUNTIFS($J$2:$J$100, Z29, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z29, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC29">
-        <f>COUNTIFS($J$2:$J$100, Z29, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z29, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD29">
-        <f>COUNTIFS($J$2:$J$100, Z29, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z29, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="AF29">
-        <f>COUNTIF($K$2:$K$100, Z29)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AG29">
-        <f>COUNTIF($J$2:$J$100, Z29)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AH29">
-        <f>AJ29+AL29</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI29">
-        <f>AE29-AH29</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AJ29">
-        <f>SUMPRODUCT(($K$2:$K$100=Z29)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK29">
-        <f>SUMPRODUCT(($K$2:$K$100=Z29)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AL29">
-        <f>SUMPRODUCT(($J$2:$J$100=Z29)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM29">
-        <f>SUMPRODUCT(($J$2:$J$100=Z29)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AN29">
-        <f>COUNTIFS($K$2:$K$100,Z29,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO29">
-        <f>COUNTIFS($J$2:$J$100,Z29,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AP29">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z29,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AQ29">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z29,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="AR29">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z29,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="AS29">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z29,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-4</v>
       </c>
       <c r="AU29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>-4</v>
       </c>
       <c r="AV29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="AW29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>-8</v>
       </c>
       <c r="AY29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>1.5</v>
       </c>
       <c r="AZ29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="BA29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>3.5</v>
       </c>
       <c r="BB29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="BC29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>1.75</v>
       </c>
       <c r="BD29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>3.75</v>
       </c>
       <c r="BG29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ29" t="e">
@@ -4960,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="2" t="str">
-        <f>IF(N30&gt;O30,J30,K30)</f>
+        <f t="shared" si="1"/>
         <v>VAN</v>
       </c>
       <c r="V30" s="4"/>
@@ -4968,127 +5414,127 @@
         <v>17</v>
       </c>
       <c r="AA30">
-        <f>COUNTIFS($J$2:$J$100, Z30, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z30, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AB30">
-        <f>COUNTIFS($J$2:$J$100, Z30, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z30, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AC30">
-        <f>COUNTIFS($J$2:$J$100, Z30, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z30, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD30">
-        <f>COUNTIFS($J$2:$J$100, Z30, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z30, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="AF30">
-        <f>COUNTIF($K$2:$K$100, Z30)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="AG30">
-        <f>COUNTIF($J$2:$J$100, Z30)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AH30">
-        <f>AJ30+AL30</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AI30">
-        <f>AE30-AH30</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AJ30">
-        <f>SUMPRODUCT(($K$2:$K$100=Z30)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AK30">
-        <f>SUMPRODUCT(($K$2:$K$100=Z30)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="AL30">
-        <f>SUMPRODUCT(($J$2:$J$100=Z30)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="AM30">
-        <f>SUMPRODUCT(($J$2:$J$100=Z30)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AN30">
-        <f>COUNTIFS($K$2:$K$100,Z30,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO30">
-        <f>COUNTIFS($J$2:$J$100,Z30,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AP30">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z30,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="AQ30">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z30,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="AR30">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z30,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="AS30">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z30,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-2</v>
       </c>
       <c r="AU30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="AV30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="AW30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AY30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="AZ30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BA30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="BB30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="BC30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="BD30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="BG30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ30" t="e">
@@ -5150,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="R31" s="2" t="str">
-        <f>IF(N31&gt;O31,J31,K31)</f>
+        <f t="shared" si="1"/>
         <v>NYR</v>
       </c>
       <c r="V31" s="4"/>
@@ -5158,127 +5604,127 @@
         <v>21</v>
       </c>
       <c r="AA31">
-        <f>COUNTIFS($J$2:$J$100, Z31, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z31, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB31">
-        <f>COUNTIFS($J$2:$J$100, Z31, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z31, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AC31">
-        <f>COUNTIFS($J$2:$J$100, Z31, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z31, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AD31">
-        <f>COUNTIFS($J$2:$J$100, Z31, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z31, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>22</v>
       </c>
       <c r="AF31">
-        <f>COUNTIF($K$2:$K$100, Z31)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="AG31">
-        <f>COUNTIF($J$2:$J$100, Z31)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="AH31">
-        <f>AJ31+AL31</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="AI31">
-        <f>AE31-AH31</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AJ31">
-        <f>SUMPRODUCT(($K$2:$K$100=Z31)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AK31">
-        <f>SUMPRODUCT(($K$2:$K$100=Z31)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AL31">
-        <f>SUMPRODUCT(($J$2:$J$100=Z31)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="AM31">
-        <f>SUMPRODUCT(($J$2:$J$100=Z31)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AS31">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="29"/>
+        <v>-4</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="30"/>
+        <v>17</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="31"/>
+        <v>18</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
-      <c r="AN31">
-        <f>COUNTIFS($K$2:$K$100,Z31,$C$2:$C$100,1)</f>
-        <v>3</v>
-      </c>
-      <c r="AO31">
-        <f>COUNTIFS($J$2:$J$100,Z31,$C$2:$C$100,1)</f>
-        <v>2</v>
-      </c>
-      <c r="AP31">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z31,$C$2:$C$100, 1)</f>
-        <v>15</v>
-      </c>
-      <c r="AQ31">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z31,$C$2:$C$100, 1)</f>
-        <v>2</v>
-      </c>
-      <c r="AR31">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z31,$C$2:$C$100, 1)</f>
-        <v>12</v>
-      </c>
-      <c r="AS31">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z31,$C$2:$C$100, 1)</f>
-        <v>6</v>
-      </c>
-      <c r="AT31">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AU31">
-        <f t="shared" si="10"/>
-        <v>-4</v>
-      </c>
-      <c r="AV31">
-        <f t="shared" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="AW31">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="AX31">
-        <f t="shared" si="13"/>
-        <v>-1</v>
-      </c>
-      <c r="AY31">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
       <c r="AZ31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="BA31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BB31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="BC31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>3.4</v>
       </c>
       <c r="BD31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>3.6</v>
       </c>
       <c r="BG31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ31" t="e">
@@ -5340,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="R32" s="2" t="str">
-        <f>IF(N32&gt;O32,J32,K32)</f>
+        <f t="shared" si="1"/>
         <v>EDM</v>
       </c>
       <c r="V32" s="4"/>
@@ -5348,127 +5794,127 @@
         <v>20</v>
       </c>
       <c r="AA32">
-        <f>COUNTIFS($J$2:$J$100, Z32, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z32, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB32">
-        <f>COUNTIFS($J$2:$J$100, Z32, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z32, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC32">
-        <f>COUNTIFS($J$2:$J$100, Z32, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z32, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD32">
-        <f>COUNTIFS($J$2:$J$100, Z32, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z32, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="AF32">
-        <f>COUNTIF($K$2:$K$100, Z32)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AG32">
-        <f>COUNTIF($J$2:$J$100, Z32)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AH32">
-        <f>AJ32+AL32</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AI32">
-        <f>AE32-AH32</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AJ32">
-        <f>SUMPRODUCT(($K$2:$K$100=Z32)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK32">
-        <f>SUMPRODUCT(($K$2:$K$100=Z32)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AL32">
-        <f>SUMPRODUCT(($J$2:$J$100=Z32)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AM32">
-        <f>SUMPRODUCT(($J$2:$J$100=Z32)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AN32">
-        <f>COUNTIFS($K$2:$K$100,Z32,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO32">
-        <f>COUNTIFS($J$2:$J$100,Z32,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AP32">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z32,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="AQ32">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z32,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="AR32">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z32,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="AS32">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z32,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="AU32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>-3</v>
       </c>
       <c r="AV32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>18</v>
       </c>
       <c r="AW32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>17</v>
       </c>
       <c r="AX32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AY32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="AZ32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="BA32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="BB32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="BC32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>3.6</v>
       </c>
       <c r="BD32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>3.4</v>
       </c>
       <c r="BG32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ32" t="e">
@@ -5530,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="R33" s="2" t="str">
-        <f>IF(N33&gt;O33,J33,K33)</f>
+        <f t="shared" si="1"/>
         <v>FLA</v>
       </c>
       <c r="V33" s="4"/>
@@ -5538,127 +5984,127 @@
         <v>16</v>
       </c>
       <c r="AA33">
-        <f>COUNTIFS($J$2:$J$100, Z33, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z33, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AB33">
-        <f>COUNTIFS($J$2:$J$100, Z33, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z33, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC33">
-        <f>COUNTIFS($J$2:$J$100, Z33, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z33, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD33">
-        <f>COUNTIFS($J$2:$J$100, Z33, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z33, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="AF33">
-        <f>COUNTIF($K$2:$K$100, Z33)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AG33">
-        <f>COUNTIF($J$2:$J$100, Z33)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AH33">
-        <f>AJ33+AL33</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AI33">
-        <f>AE33-AH33</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AJ33">
-        <f>SUMPRODUCT(($K$2:$K$100=Z33)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK33">
-        <f>SUMPRODUCT(($K$2:$K$100=Z33)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AL33">
-        <f>SUMPRODUCT(($J$2:$J$100=Z33)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AM33">
-        <f>SUMPRODUCT(($J$2:$J$100=Z33)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AN33">
-        <f>COUNTIFS($K$2:$K$100,Z33,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO33">
-        <f>COUNTIFS($J$2:$J$100,Z33,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AP33">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z33,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AQ33">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z33,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="AR33">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z33,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="AS33">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z33,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-3</v>
       </c>
       <c r="AU33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AV33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="AW33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="AX33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>-1</v>
       </c>
       <c r="AY33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="AZ33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BB33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="BC33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="BD33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="BG33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ33" t="e">
@@ -5720,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="2" t="str">
-        <f>IF(N34&gt;O34,J34,K34)</f>
+        <f t="shared" ref="R34:R65" si="37">IF(N34&gt;O34,J34,K34)</f>
         <v>DAL</v>
       </c>
       <c r="V34" s="4"/>
@@ -5728,127 +6174,127 @@
         <v>19</v>
       </c>
       <c r="AA34">
-        <f>COUNTIFS($J$2:$J$100, Z34, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z34, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AB34">
-        <f>COUNTIFS($J$2:$J$100, Z34, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z34, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AC34">
-        <f>COUNTIFS($J$2:$J$100, Z34, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z34, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AD34">
-        <f>COUNTIFS($J$2:$J$100, Z34, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z34, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="AF34">
-        <f>COUNTIF($K$2:$K$100, Z34)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AG34">
-        <f>COUNTIF($J$2:$J$100, Z34)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AH34">
-        <f>AJ34+AL34</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="AI34">
-        <f>AE34-AH34</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AJ34">
-        <f>SUMPRODUCT(($K$2:$K$100=Z34)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AK34">
-        <f>SUMPRODUCT(($K$2:$K$100=Z34)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AL34">
-        <f>SUMPRODUCT(($J$2:$J$100=Z34)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="AM34">
-        <f>SUMPRODUCT(($J$2:$J$100=Z34)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AN34">
-        <f>COUNTIFS($K$2:$K$100,Z34,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="AO34">
-        <f>COUNTIFS($J$2:$J$100,Z34,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AP34">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z34,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="AQ34">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z34,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="AR34">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z34,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AS34">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z34,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AU34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AV34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>17</v>
       </c>
       <c r="AW34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="AX34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AY34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>2.5</v>
       </c>
       <c r="AZ34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BA34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>2.5</v>
       </c>
       <c r="BB34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="BC34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>2.4285714285714284</v>
       </c>
       <c r="BD34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="BG34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ34" t="e">
@@ -5906,11 +6352,11 @@
         <v>1</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" ref="Q35:Q49" si="18">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
+        <f t="shared" ref="Q35:Q49" si="38">IF($N35=$O35, 0, IF($J35=$L35, IF($N35&gt;$O35, 1, 0), IF($O35&gt;$N35, 1, 0)))</f>
         <v>1</v>
       </c>
       <c r="R35" s="2" t="str">
-        <f>IF(N35&gt;O35,J35,K35)</f>
+        <f t="shared" si="37"/>
         <v>TOR</v>
       </c>
       <c r="V35" s="4"/>
@@ -5918,127 +6364,127 @@
         <v>15</v>
       </c>
       <c r="AA35">
-        <f>COUNTIFS($J$2:$J$100, Z35, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z35, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB35">
-        <f>COUNTIFS($J$2:$J$100, Z35, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z35, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC35">
-        <f>COUNTIFS($J$2:$J$100, Z35, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z35, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD35">
-        <f>COUNTIFS($J$2:$J$100, Z35, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z35, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="AF35">
-        <f>COUNTIF($K$2:$K$100, Z35)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AG35">
-        <f>COUNTIF($J$2:$J$100, Z35)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AH35">
-        <f>AJ35+AL35</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AI35">
-        <f>AE35-AH35</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AJ35">
-        <f>SUMPRODUCT(($K$2:$K$100=Z35)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK35">
-        <f>SUMPRODUCT(($K$2:$K$100=Z35)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AL35">
-        <f>SUMPRODUCT(($J$2:$J$100=Z35)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM35">
-        <f>SUMPRODUCT(($J$2:$J$100=Z35)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AN35">
-        <f>COUNTIFS($K$2:$K$100,Z35,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO35">
-        <f>COUNTIFS($J$2:$J$100,Z35,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AP35">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z35,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="AQ35">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z35,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AR35">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z35,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="AS35">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z35,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="AT35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-5</v>
       </c>
       <c r="AU35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>-8</v>
       </c>
       <c r="AV35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="AW35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>28</v>
       </c>
       <c r="AX35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>-13</v>
       </c>
       <c r="AY35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="AZ35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>1.5</v>
       </c>
       <c r="BA35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>5.666666666666667</v>
       </c>
       <c r="BB35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>5.5</v>
       </c>
       <c r="BC35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="BD35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>5.6</v>
       </c>
       <c r="BG35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ35" t="e">
@@ -6096,11 +6542,11 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="R36" s="2" t="str">
-        <f>IF(N36&gt;O36,J36,K36)</f>
+        <f t="shared" si="37"/>
         <v>CAR</v>
       </c>
       <c r="V36" s="4"/>
@@ -6108,127 +6554,127 @@
         <v>14</v>
       </c>
       <c r="AA36">
-        <f>COUNTIFS($J$2:$J$100, Z36, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z36, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AB36">
-        <f>COUNTIFS($J$2:$J$100, Z36, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z36, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AC36">
-        <f>COUNTIFS($J$2:$J$100, Z36, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z36, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD36">
-        <f>COUNTIFS($J$2:$J$100, Z36, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z36, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
       <c r="AF36">
-        <f>COUNTIF($K$2:$K$100, Z36)</f>
-        <v>5</v>
-      </c>
-      <c r="AG36">
-        <f>COUNTIF($J$2:$J$100, Z36)</f>
-        <v>6</v>
-      </c>
-      <c r="AH36">
-        <f>AJ36+AL36</f>
-        <v>6</v>
-      </c>
-      <c r="AI36">
-        <f>AE36-AH36</f>
-        <v>5</v>
-      </c>
-      <c r="AJ36">
-        <f>SUMPRODUCT(($K$2:$K$100=Z36)*($O$2:$O$100&gt;$N$2:$N$100))</f>
-        <v>2</v>
-      </c>
-      <c r="AK36">
-        <f>SUMPRODUCT(($K$2:$K$100=Z36)*($O$2:$O$100&lt;$N$2:$N$100))</f>
-        <v>3</v>
-      </c>
-      <c r="AL36">
-        <f>SUMPRODUCT(($J$2:$J$100=Z36)*($O$2:$O$100&lt;$N$2:$N$100))</f>
-        <v>4</v>
-      </c>
-      <c r="AM36">
-        <f>SUMPRODUCT(($J$2:$J$100=Z36)*($O$2:$O$100&gt;$N$2:$N$100))</f>
-        <v>2</v>
-      </c>
-      <c r="AN36">
-        <f>COUNTIFS($K$2:$K$100,Z36,$C$2:$C$100,1)</f>
-        <v>2</v>
-      </c>
-      <c r="AO36">
-        <f>COUNTIFS($J$2:$J$100,Z36,$C$2:$C$100,1)</f>
-        <v>3</v>
-      </c>
-      <c r="AP36">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z36,$C$2:$C$100, 1)</f>
-        <v>11</v>
-      </c>
-      <c r="AQ36">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z36,$C$2:$C$100, 1)</f>
-        <v>17</v>
-      </c>
-      <c r="AR36">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z36,$C$2:$C$100, 1)</f>
-        <v>3</v>
-      </c>
-      <c r="AS36">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z36,$C$2:$C$100, 1)</f>
-        <v>12</v>
-      </c>
-      <c r="AT36">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AU36">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
+      <c r="AG36">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AM36">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="21"/>
+        <v>17</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
       <c r="AV36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>28</v>
       </c>
       <c r="AW36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="AX36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="AY36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>5.5</v>
       </c>
       <c r="AZ36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>5.666666666666667</v>
       </c>
       <c r="BA36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>1.5</v>
       </c>
       <c r="BB36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="BC36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>5.6</v>
       </c>
       <c r="BD36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="BG36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ36" t="e">
@@ -6286,11 +6732,11 @@
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R37" s="2" t="str">
-        <f>IF(N37&gt;O37,J37,K37)</f>
+        <f t="shared" si="37"/>
         <v>COL</v>
       </c>
       <c r="V37" s="4"/>
@@ -6298,127 +6744,127 @@
         <v>18</v>
       </c>
       <c r="AA37">
-        <f>COUNTIFS($J$2:$J$100, Z37, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z37, $C$2:$C$100, 1)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AB37">
-        <f>COUNTIFS($J$2:$J$100, Z37, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z37, $C$2:$C$100, 2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC37">
-        <f>COUNTIFS($J$2:$J$100, Z37, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z37, $C$2:$C$100, 3)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD37">
-        <f>COUNTIFS($J$2:$J$100, Z37, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z37, $C$2:$C$100, 4)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="AF37">
-        <f>COUNTIF($K$2:$K$100, Z37)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AG37">
-        <f>COUNTIF($J$2:$J$100, Z37)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AH37">
-        <f>AJ37+AL37</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AI37">
-        <f>AE37-AH37</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AJ37">
-        <f>SUMPRODUCT(($K$2:$K$100=Z37)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AK37">
-        <f>SUMPRODUCT(($K$2:$K$100=Z37)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AL37">
-        <f>SUMPRODUCT(($J$2:$J$100=Z37)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AM37">
-        <f>SUMPRODUCT(($J$2:$J$100=Z37)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AN37">
-        <f>COUNTIFS($K$2:$K$100,Z37,$C$2:$C$100,1)</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO37">
-        <f>COUNTIFS($J$2:$J$100,Z37,$C$2:$C$100,1)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="AP37">
-        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z37,$C$2:$C$100, 1)</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="AQ37">
-        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z37,$C$2:$C$100, 1)</f>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="AR37">
-        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z37,$C$2:$C$100, 1)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="AS37">
-        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z37,$C$2:$C$100, 1)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="AT37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>-1</v>
       </c>
       <c r="AU37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AV37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
       <c r="AW37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="31"/>
         <v>17</v>
       </c>
       <c r="AX37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="32"/>
         <v>-1</v>
       </c>
       <c r="AY37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="AZ37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="34"/>
         <v>2.5</v>
       </c>
       <c r="BA37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="35"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BB37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="36"/>
         <v>2.5</v>
       </c>
       <c r="BC37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>2.2857142857142856</v>
       </c>
       <c r="BD37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>2.4285714285714284</v>
       </c>
       <c r="BG37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="BJ37" t="e">
@@ -6476,11 +6922,11 @@
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R38" s="2" t="str">
-        <f>IF(N38&gt;O38,J38,K38)</f>
+        <f t="shared" si="37"/>
         <v>NSH</v>
       </c>
       <c r="V38" s="4"/>
@@ -6535,11 +6981,11 @@
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="R39" s="2" t="str">
-        <f>IF(N39&gt;O39,J39,K39)</f>
+        <f t="shared" si="37"/>
         <v>DAL</v>
       </c>
       <c r="V39" s="4"/>
@@ -6594,11 +7040,11 @@
         <v>0</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="R40" s="2" t="str">
-        <f>IF(N40&gt;O40,J40,K40)</f>
+        <f t="shared" si="37"/>
         <v>EDM</v>
       </c>
       <c r="V40" s="4"/>
@@ -6743,11 +7189,11 @@
         <v>0</v>
       </c>
       <c r="Q41" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="R41" s="2" t="str">
-        <f>IF(N41&gt;O41,J41,K41)</f>
+        <f t="shared" si="37"/>
         <v>TOR</v>
       </c>
       <c r="V41" s="4"/>
@@ -6784,50 +7230,50 @@
       </c>
       <c r="AH41">
         <f>AJ41+AL41</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI41">
         <f>AE41-AH41</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ41">
         <f>SUMPRODUCT(($K$2:$K$100=Z41)*($O$2:$O$100&gt;$N$2:$N$100))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK41">
-        <f>SUMPRODUCT(($K$2:$K$100=Z41)*($C$2:$C$100=2)*($O$2:$O$100&lt;$N$2:$N$100))</f>
-        <v>2</v>
-      </c>
-      <c r="AL41" cm="1">
-        <f t="array" ref="AL41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+        <f>SUMPRODUCT(($K$2:$K$100=Z22)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AL41">
+        <f>SUMPRODUCT(($J$2:$J$100=Z41)*($O$2:$O$100&lt;$N$2:$N$100))</f>
         <v>6</v>
       </c>
-      <c r="AM41" cm="1">
-        <f t="array" ref="AM41">SUMPRODUCT(($J$2:$J$81=Z41)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+      <c r="AM41">
+        <f>SUMPRODUCT(($J$2:$J$100=Z41)*($O$2:$O$100&gt;$N$2:$N$100))</f>
         <v>2</v>
       </c>
       <c r="AN41">
-        <f>COUNTIFS($K$2:$K$81,Z41,$C$2:$C$81,2)</f>
+        <f>COUNTIFS($K$2:$K$100,Z41,$C$2:$C$100,2)</f>
         <v>3</v>
       </c>
       <c r="AO41">
-        <f>COUNTIFS($J$2:$J$81,Z41,$C$2:$C$81,2)</f>
+        <f>COUNTIFS($J$2:$J$100,Z41,$C$2:$C$100,2)</f>
         <v>3</v>
       </c>
       <c r="AP41">
-        <f>SUMIFS($O$2:$O$81, $K$2:$K$81, Z41,$C$2:$C$81, 2)</f>
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z41,$C$2:$C$100, 2)</f>
         <v>8</v>
       </c>
       <c r="AQ41">
-        <f>SUMIFS($N$2:$N$81, $J$2:$J$81, Z41,$C$2:$C$81, 2)</f>
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z41,$C$2:$C$100, 2)</f>
         <v>11</v>
       </c>
       <c r="AR41">
-        <f>SUMIFS($N$2:$N$81, $K$2:$K$81, Z41,$C$2:$C$81, 2)</f>
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z41,$C$2:$C$100, 2)</f>
         <v>8</v>
       </c>
       <c r="AS41">
-        <f>SUMIFS($O$2:$O$81, $J$2:$J$81, Z41,$C$2:$C$81, 2)</f>
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z41,$C$2:$C$100, 2)</f>
         <v>5</v>
       </c>
       <c r="AT41">
@@ -6925,134 +7371,134 @@
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R42" s="2" t="str">
-        <f>IF(N42&gt;O42,J42,K42)</f>
+        <f t="shared" si="37"/>
         <v>VAN</v>
       </c>
       <c r="Z42" t="s">
         <v>3</v>
       </c>
       <c r="AA42">
-        <f t="shared" ref="AA42" si="19">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 1)</f>
+        <f t="shared" ref="AA42:AA48" si="39">COUNTIFS($J$2:$J$100, Z42, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z42, $C$2:$C$100, 1)</f>
         <v>7</v>
       </c>
       <c r="AB42">
-        <f t="shared" ref="AB42" si="20">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 2)</f>
+        <f t="shared" ref="AB42:AB48" si="40">COUNTIFS($J$2:$J$100, Z42, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z42, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC42">
-        <f t="shared" ref="AC42" si="21">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 3)</f>
+        <f t="shared" ref="AC42:AC48" si="41">COUNTIFS($J$2:$J$100, Z42, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z42, $C$2:$C$100, 3)</f>
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="shared" ref="AD42" si="22">COUNTIFS($J$2:$J$81, Z42, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z42, $C$2:$C$81, 4)</f>
+        <f t="shared" ref="AD42:AD48" si="42">COUNTIFS($J$2:$J$100, Z42, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z42, $C$2:$C$100, 4)</f>
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="shared" ref="AE42" si="23">AA42+AB42+AC42+AD42</f>
+        <f t="shared" ref="AE42:AE48" si="43">AA42+AB42+AC42+AD42</f>
         <v>13</v>
       </c>
       <c r="AF42">
-        <f t="shared" ref="AF42" si="24">COUNTIF($K$2:$K$81, Z42)</f>
+        <f t="shared" ref="AF42:AF48" si="44">COUNTIF($K$2:$K$100, Z42)</f>
         <v>7</v>
       </c>
       <c r="AG42">
-        <f t="shared" ref="AG42" si="25">COUNTIF($J$2:$J$81, Z42)</f>
+        <f t="shared" ref="AG42:AG48" si="45">COUNTIF($J$2:$J$100, Z42)</f>
         <v>6</v>
       </c>
       <c r="AH42">
-        <f t="shared" ref="AH42" si="26">AJ42+AL42</f>
+        <f t="shared" ref="AH42:AH48" si="46">AJ42+AL42</f>
         <v>6</v>
       </c>
       <c r="AI42">
-        <f t="shared" ref="AI42" si="27">AE42-AH42</f>
+        <f t="shared" ref="AI42:AI48" si="47">AE42-AH42</f>
         <v>7</v>
       </c>
-      <c r="AJ42" cm="1">
-        <f t="array" ref="AJ42">SUMPRODUCT(($K$2:$K$81=Z42)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AK42" cm="1">
-        <f t="array" ref="AK42">SUMPRODUCT(($K$2:$K$81=Z42)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+      <c r="AJ42">
+        <f t="shared" ref="AJ42:AJ48" si="48">SUMPRODUCT(($K$2:$K$100=Z42)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" ref="AK42:AK48" si="49">SUMPRODUCT(($K$2:$K$100=Z23)*($O$2:$O$100&lt;$N$2:$N$100))</f>
         <v>5</v>
       </c>
-      <c r="AL42" cm="1">
-        <f t="array" ref="AL42">SUMPRODUCT(($J$2:$J$81=Z42)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM42" cm="1">
-        <f t="array" ref="AM42">SUMPRODUCT(($J$2:$J$81=Z42)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+      <c r="AL42">
+        <f t="shared" ref="AL42:AL48" si="50">SUMPRODUCT(($J$2:$J$100=Z42)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>4</v>
+      </c>
+      <c r="AM42">
+        <f t="shared" ref="AM42:AM48" si="51">SUMPRODUCT(($J$2:$J$100=Z42)*($O$2:$O$100&gt;$N$2:$N$100))</f>
         <v>2</v>
       </c>
       <c r="AN42">
-        <f t="shared" ref="AN42" si="28">COUNTIFS($K$2:$K$81,Z42,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AN42:AN48" si="52">COUNTIFS($K$2:$K$100,Z42,$C$2:$C$100,2)</f>
         <v>3</v>
       </c>
       <c r="AO42">
-        <f t="shared" ref="AO42" si="29">COUNTIFS($J$2:$J$81,Z42,$C$2:$C$81,2)</f>
+        <f t="shared" ref="AO42:AO48" si="53">COUNTIFS($J$2:$J$100,Z42,$C$2:$C$100,2)</f>
         <v>3</v>
       </c>
       <c r="AP42">
-        <f t="shared" ref="AP42" si="30">SUMIFS($O$2:$O$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AP42:AP48" si="54">SUMIFS($O$2:$O$100, $K$2:$K$100, Z42,$C$2:$C$100, 2)</f>
         <v>5</v>
       </c>
       <c r="AQ42">
-        <f t="shared" ref="AQ42" si="31">SUMIFS($N$2:$N$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AQ42:AQ48" si="55">SUMIFS($N$2:$N$100, $J$2:$J$100, Z42,$C$2:$C$100, 2)</f>
         <v>8</v>
       </c>
       <c r="AR42">
-        <f t="shared" ref="AR42" si="32">SUMIFS($N$2:$N$81, $K$2:$K$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AR42:AR48" si="56">SUMIFS($N$2:$N$100, $K$2:$K$100, Z42,$C$2:$C$100, 2)</f>
         <v>11</v>
       </c>
       <c r="AS42">
-        <f t="shared" ref="AS42" si="33">SUMIFS($O$2:$O$81, $J$2:$J$81, Z42,$C$2:$C$81, 2)</f>
+        <f t="shared" ref="AS42:AS48" si="57">SUMIFS($O$2:$O$100, $J$2:$J$100, Z42,$C$2:$C$100, 2)</f>
         <v>8</v>
       </c>
       <c r="AT42">
-        <f t="shared" ref="AT42" si="34">AP42-AR42</f>
+        <f t="shared" ref="AT42:AT48" si="58">AP42-AR42</f>
         <v>-6</v>
       </c>
       <c r="AU42">
-        <f t="shared" ref="AU42" si="35">AQ42-AS42</f>
+        <f t="shared" ref="AU42:AU48" si="59">AQ42-AS42</f>
         <v>0</v>
       </c>
       <c r="AV42">
-        <f t="shared" ref="AV42" si="36">AP42+AQ42</f>
+        <f t="shared" ref="AV42:AV48" si="60">AP42+AQ42</f>
         <v>13</v>
       </c>
       <c r="AW42">
-        <f t="shared" ref="AW42" si="37">AR42+AS42</f>
+        <f t="shared" ref="AW42:AW48" si="61">AR42+AS42</f>
         <v>19</v>
       </c>
       <c r="AX42">
-        <f t="shared" ref="AX42" si="38">(AP42+AQ42)-(AR42+AS42)</f>
+        <f t="shared" ref="AX42:AX48" si="62">(AP42+AQ42)-(AR42+AS42)</f>
         <v>-6</v>
       </c>
       <c r="AY42">
-        <f t="shared" ref="AY42" si="39">AP42/AN42</f>
+        <f t="shared" ref="AY42:AY48" si="63">AP42/AN42</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="AZ42">
-        <f t="shared" ref="AZ42" si="40">AQ42/AO42</f>
+        <f t="shared" ref="AZ42:AZ48" si="64">AQ42/AO42</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BA42">
-        <f t="shared" ref="BA42" si="41">AR42/AN42</f>
+        <f t="shared" ref="BA42:BA48" si="65">AR42/AN42</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="BB42">
-        <f t="shared" ref="BB42" si="42">AS42/AO42</f>
+        <f t="shared" ref="BB42:BB48" si="66">AS42/AO42</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BC42">
-        <f t="shared" ref="BC42" si="43">AV42/AA42</f>
+        <f t="shared" ref="BC42:BC48" si="67">AV42/AA42</f>
         <v>1.8571428571428572</v>
       </c>
       <c r="BD42">
-        <f t="shared" ref="BD42" si="44">AW42/AA42</f>
+        <f t="shared" ref="BD42:BD48" si="68">AW42/AA42</f>
         <v>2.7142857142857144</v>
       </c>
     </row>
@@ -7106,114 +7552,114 @@
         <v>0</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R43" s="2" t="str">
-        <f>IF(N43&gt;O43,J43,K43)</f>
+        <f t="shared" si="37"/>
         <v>VGK</v>
       </c>
       <c r="Z43" t="s">
         <v>13</v>
       </c>
       <c r="AA43">
-        <f t="shared" ref="AA43:AA48" si="45">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 1) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 1)</f>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="AB43">
-        <f t="shared" ref="AB43:AB48" si="46">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 2) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 2)</f>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="AC43">
-        <f t="shared" ref="AC43:AC48" si="47">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 3) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 3)</f>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="AD43">
-        <f t="shared" ref="AD43:AD48" si="48">COUNTIFS($J$2:$J$81, Z43, $C$2:$C$81, 4) + COUNTIFS($K$2:$K$81, Z43, $C$2:$C$81, 4)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" ref="AE43:AE48" si="49">AA43+AB43+AC43+AD43</f>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="AF43">
-        <f t="shared" ref="AF43:AF48" si="50">COUNTIF($K$2:$K$81, Z43)</f>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="AG43">
-        <f t="shared" ref="AG43:AG48" si="51">COUNTIF($J$2:$J$81, Z43)</f>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="AH43">
-        <f t="shared" ref="AH43:AH48" si="52">AJ43+AL43</f>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="AI43">
-        <f t="shared" ref="AI43:AI48" si="53">AE43-AH43</f>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
-      <c r="AJ43" cm="1">
-        <f t="array" ref="AJ43">SUMPRODUCT(($K$2:$K$81=Z43)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+      <c r="AJ43">
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
-      <c r="AK43" cm="1">
-        <f t="array" ref="AK43">SUMPRODUCT(($K$2:$K$81=Z43)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AL43" cm="1">
-        <f t="array" ref="AL43">SUMPRODUCT(($J$2:$J$81=Z43)*($O$2:$O$81&lt;$N$2:$N$81))</f>
+      <c r="AK43">
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
-      <c r="AM43" cm="1">
-        <f t="array" ref="AM43">SUMPRODUCT(($J$2:$J$81=Z43)*($O$2:$O$81&gt;$N$2:$N$81))</f>
+      <c r="AM43">
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="AN43">
-        <f t="shared" ref="AN43:AN48" si="54">COUNTIFS($K$2:$K$81,Z43,$C$2:$C$81,2)</f>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="AO43">
-        <f t="shared" ref="AO43:AO48" si="55">COUNTIFS($J$2:$J$81,Z43,$C$2:$C$81,2)</f>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="AP43">
-        <f t="shared" ref="AP43:AP48" si="56">SUMIFS($O$2:$O$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" si="54"/>
         <v>9</v>
       </c>
       <c r="AQ43">
-        <f t="shared" ref="AQ43:AQ48" si="57">SUMIFS($N$2:$N$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" si="55"/>
         <v>11</v>
       </c>
       <c r="AR43">
-        <f t="shared" ref="AR43:AR48" si="58">SUMIFS($N$2:$N$81, $K$2:$K$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" si="56"/>
         <v>10</v>
       </c>
       <c r="AS43">
-        <f t="shared" ref="AS43:AS48" si="59">SUMIFS($O$2:$O$81, $J$2:$J$81, Z43,$C$2:$C$81, 2)</f>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AT43">
-        <f t="shared" ref="AT43:AU48" si="60">AP43-AR43</f>
+        <f t="shared" si="58"/>
         <v>-1</v>
       </c>
       <c r="AU43">
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="AV43">
         <f t="shared" si="60"/>
-        <v>2</v>
-      </c>
-      <c r="AV43">
-        <f t="shared" ref="AV43:AV48" si="61">AP43+AQ43</f>
         <v>20</v>
       </c>
       <c r="AW43">
-        <f t="shared" ref="AW43:AW48" si="62">AR43+AS43</f>
+        <f t="shared" si="61"/>
         <v>19</v>
       </c>
       <c r="AX43">
-        <f t="shared" ref="AX43:AX48" si="63">(AP43+AQ43)-(AR43+AS43)</f>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="AY43">
-        <f t="shared" ref="AY43:AZ48" si="64">AP43/AN43</f>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="AZ43">
@@ -7221,19 +7667,19 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="BA43">
-        <f t="shared" ref="BA43:BB48" si="65">AR43/AN43</f>
+        <f t="shared" si="65"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="BB43">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="BC43">
-        <f t="shared" ref="BC43:BC48" si="66">AV43/AA43</f>
+        <f t="shared" si="67"/>
         <v>5</v>
       </c>
       <c r="BD43">
-        <f t="shared" ref="BD43:BD48" si="67">AW43/AA43</f>
+        <f t="shared" si="68"/>
         <v>4.75</v>
       </c>
     </row>
@@ -7287,114 +7733,114 @@
         <v>1</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R44" s="2" t="str">
-        <f>IF(N44&gt;O44,J44,K44)</f>
+        <f t="shared" si="37"/>
         <v>BOS</v>
       </c>
       <c r="Z44" t="s">
         <v>1</v>
       </c>
       <c r="AA44">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="43"/>
+        <v>11</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="AG44">
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
-      <c r="AB44">
+      <c r="AH44">
         <f t="shared" si="46"/>
         <v>6</v>
       </c>
-      <c r="AC44">
+      <c r="AI44">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AD44">
+        <v>5</v>
+      </c>
+      <c r="AJ44">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AE44">
+        <v>4</v>
+      </c>
+      <c r="AK44">
         <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="52"/>
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="55"/>
+        <v>10</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="56"/>
         <v>11</v>
       </c>
-      <c r="AF44">
-        <f t="shared" si="50"/>
-        <v>6</v>
-      </c>
-      <c r="AG44">
-        <f t="shared" si="51"/>
-        <v>5</v>
-      </c>
-      <c r="AH44">
-        <f t="shared" si="52"/>
-        <v>6</v>
-      </c>
-      <c r="AI44">
-        <f t="shared" si="53"/>
-        <v>5</v>
-      </c>
-      <c r="AJ44" cm="1">
-        <f t="array" ref="AJ44">SUMPRODUCT(($K$2:$K$81=Z44)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AK44" cm="1">
-        <f t="array" ref="AK44">SUMPRODUCT(($K$2:$K$81=Z44)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AL44" cm="1">
-        <f t="array" ref="AL44">SUMPRODUCT(($J$2:$J$81=Z44)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AM44" cm="1">
-        <f t="array" ref="AM44">SUMPRODUCT(($J$2:$J$81=Z44)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AN44">
-        <f t="shared" si="54"/>
-        <v>3</v>
-      </c>
-      <c r="AO44">
-        <f t="shared" si="55"/>
-        <v>3</v>
-      </c>
-      <c r="AP44">
-        <f t="shared" si="56"/>
+      <c r="AS44">
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
-      <c r="AQ44">
-        <f t="shared" si="57"/>
-        <v>10</v>
-      </c>
-      <c r="AR44">
+      <c r="AT44">
         <f t="shared" si="58"/>
-        <v>11</v>
-      </c>
-      <c r="AS44">
+        <v>-2</v>
+      </c>
+      <c r="AU44">
         <f t="shared" si="59"/>
-        <v>9</v>
-      </c>
-      <c r="AT44">
+        <v>1</v>
+      </c>
+      <c r="AV44">
         <f t="shared" si="60"/>
-        <v>-2</v>
-      </c>
-      <c r="AU44">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="AV44">
+        <v>19</v>
+      </c>
+      <c r="AW44">
         <f t="shared" si="61"/>
-        <v>19</v>
-      </c>
-      <c r="AW44">
+        <v>20</v>
+      </c>
+      <c r="AX44">
         <f t="shared" si="62"/>
-        <v>20</v>
-      </c>
-      <c r="AX44">
+        <v>-1</v>
+      </c>
+      <c r="AY44">
         <f t="shared" si="63"/>
-        <v>-1</v>
-      </c>
-      <c r="AY44">
-        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="AZ44">
@@ -7406,15 +7852,15 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="BB44">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="BC44">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3.8</v>
       </c>
       <c r="BD44">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>4</v>
       </c>
     </row>
@@ -7468,114 +7914,114 @@
         <v>0</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="R45" s="2" t="str">
-        <f>IF(N45&gt;O45,J45,K45)</f>
+        <f t="shared" si="37"/>
         <v>DAL</v>
       </c>
       <c r="Z45" t="s">
         <v>17</v>
       </c>
       <c r="AA45">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="40"/>
+        <v>7</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="43"/>
+        <v>13</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="44"/>
+        <v>7</v>
+      </c>
+      <c r="AG45">
         <f t="shared" si="45"/>
         <v>6</v>
       </c>
-      <c r="AB45">
+      <c r="AH45">
         <f t="shared" si="46"/>
         <v>7</v>
       </c>
-      <c r="AC45">
+      <c r="AI45">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AD45">
+        <v>6</v>
+      </c>
+      <c r="AJ45">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AE45">
+        <v>3</v>
+      </c>
+      <c r="AK45">
         <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="AO45">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="AP45">
+        <f t="shared" si="54"/>
         <v>13</v>
       </c>
-      <c r="AF45">
-        <f t="shared" si="50"/>
+      <c r="AQ45">
+        <f t="shared" si="55"/>
         <v>7</v>
       </c>
-      <c r="AG45">
-        <f t="shared" si="51"/>
-        <v>6</v>
-      </c>
-      <c r="AH45">
-        <f t="shared" si="52"/>
-        <v>7</v>
-      </c>
-      <c r="AI45">
-        <f t="shared" si="53"/>
-        <v>6</v>
-      </c>
-      <c r="AJ45" cm="1">
-        <f t="array" ref="AJ45">SUMPRODUCT(($K$2:$K$81=Z45)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AK45" cm="1">
-        <f t="array" ref="AK45">SUMPRODUCT(($K$2:$K$81=Z45)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AL45" cm="1">
-        <f t="array" ref="AL45">SUMPRODUCT(($J$2:$J$81=Z45)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM45" cm="1">
-        <f t="array" ref="AM45">SUMPRODUCT(($J$2:$J$81=Z45)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN45">
-        <f t="shared" si="54"/>
-        <v>4</v>
-      </c>
-      <c r="AO45">
-        <f t="shared" si="55"/>
-        <v>3</v>
-      </c>
-      <c r="AP45">
+      <c r="AR45">
         <f t="shared" si="56"/>
         <v>13</v>
       </c>
-      <c r="AQ45">
+      <c r="AS45">
         <f t="shared" si="57"/>
-        <v>7</v>
-      </c>
-      <c r="AR45">
+        <v>11</v>
+      </c>
+      <c r="AT45">
         <f t="shared" si="58"/>
-        <v>13</v>
-      </c>
-      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
         <f t="shared" si="59"/>
-        <v>11</v>
-      </c>
-      <c r="AT45">
+        <v>-4</v>
+      </c>
+      <c r="AV45">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AU45">
-        <f t="shared" si="60"/>
+        <v>20</v>
+      </c>
+      <c r="AW45">
+        <f t="shared" si="61"/>
+        <v>24</v>
+      </c>
+      <c r="AX45">
+        <f t="shared" si="62"/>
         <v>-4</v>
       </c>
-      <c r="AV45">
-        <f t="shared" si="61"/>
-        <v>20</v>
-      </c>
-      <c r="AW45">
-        <f t="shared" si="62"/>
-        <v>24</v>
-      </c>
-      <c r="AX45">
+      <c r="AY45">
         <f t="shared" si="63"/>
-        <v>-4</v>
-      </c>
-      <c r="AY45">
-        <f t="shared" si="64"/>
         <v>3.25</v>
       </c>
       <c r="AZ45">
@@ -7587,15 +8033,15 @@
         <v>3.25</v>
       </c>
       <c r="BB45">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BC45">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="BD45">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>4</v>
       </c>
     </row>
@@ -7649,114 +8095,114 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="R46" s="2" t="str">
-        <f>IF(N46&gt;O46,J46,K46)</f>
+        <f t="shared" si="37"/>
         <v>NYR</v>
       </c>
       <c r="Z46" t="s">
         <v>21</v>
       </c>
       <c r="AA46">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="40"/>
+        <v>7</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="41"/>
+        <v>6</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="43"/>
+        <v>22</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="44"/>
+        <v>11</v>
+      </c>
+      <c r="AG46">
         <f t="shared" si="45"/>
+        <v>11</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="46"/>
+        <v>11</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="47"/>
+        <v>11</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
-      <c r="AB46">
-        <f t="shared" si="46"/>
+      <c r="AM46">
+        <f t="shared" si="51"/>
+        <v>6</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="52"/>
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="54"/>
+        <v>11</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="55"/>
+        <v>13</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" si="56"/>
         <v>7</v>
       </c>
-      <c r="AC46">
-        <f t="shared" si="47"/>
-        <v>5</v>
-      </c>
-      <c r="AD46">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <f t="shared" si="49"/>
-        <v>17</v>
-      </c>
-      <c r="AF46">
-        <f t="shared" si="50"/>
-        <v>8</v>
-      </c>
-      <c r="AG46">
-        <f t="shared" si="51"/>
-        <v>9</v>
-      </c>
-      <c r="AH46">
-        <f t="shared" si="52"/>
-        <v>10</v>
-      </c>
-      <c r="AI46">
-        <f t="shared" si="53"/>
-        <v>7</v>
-      </c>
-      <c r="AJ46" cm="1">
-        <f t="array" ref="AJ46">SUMPRODUCT(($K$2:$K$81=Z46)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>5</v>
-      </c>
-      <c r="AK46" cm="1">
-        <f t="array" ref="AK46">SUMPRODUCT(($K$2:$K$81=Z46)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AL46" cm="1">
-        <f t="array" ref="AL46">SUMPRODUCT(($J$2:$J$81=Z46)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>5</v>
-      </c>
-      <c r="AM46" cm="1">
-        <f t="array" ref="AM46">SUMPRODUCT(($J$2:$J$81=Z46)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AN46">
-        <f t="shared" si="54"/>
-        <v>3</v>
-      </c>
-      <c r="AO46">
-        <f t="shared" si="55"/>
-        <v>4</v>
-      </c>
-      <c r="AP46">
-        <f t="shared" si="56"/>
-        <v>11</v>
-      </c>
-      <c r="AQ46">
+      <c r="AS46">
         <f t="shared" si="57"/>
         <v>13</v>
       </c>
-      <c r="AR46">
+      <c r="AT46">
         <f t="shared" si="58"/>
-        <v>7</v>
-      </c>
-      <c r="AS46">
+        <v>4</v>
+      </c>
+      <c r="AU46">
         <f t="shared" si="59"/>
-        <v>13</v>
-      </c>
-      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
         <f t="shared" si="60"/>
-        <v>4</v>
-      </c>
-      <c r="AU46">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AV46">
+        <v>24</v>
+      </c>
+      <c r="AW46">
         <f t="shared" si="61"/>
-        <v>24</v>
-      </c>
-      <c r="AW46">
+        <v>20</v>
+      </c>
+      <c r="AX46">
         <f t="shared" si="62"/>
-        <v>20</v>
-      </c>
-      <c r="AX46">
+        <v>4</v>
+      </c>
+      <c r="AY46">
         <f t="shared" si="63"/>
-        <v>4</v>
-      </c>
-      <c r="AY46">
-        <f t="shared" si="64"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="AZ46">
@@ -7768,15 +8214,15 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="BB46">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3.25</v>
       </c>
       <c r="BC46">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4.8</v>
       </c>
       <c r="BD46">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>4</v>
       </c>
     </row>
@@ -7830,114 +8276,114 @@
         <v>0</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R47" s="2" t="str">
-        <f>IF(N47&gt;O47,J47,K47)</f>
+        <f t="shared" si="37"/>
         <v>BOS</v>
       </c>
       <c r="Z47" t="s">
         <v>19</v>
       </c>
       <c r="AA47">
+        <f t="shared" si="39"/>
+        <v>7</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="41"/>
+        <v>6</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="43"/>
+        <v>19</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="AG47">
         <f t="shared" si="45"/>
-        <v>7</v>
-      </c>
-      <c r="AB47">
+        <v>9</v>
+      </c>
+      <c r="AH47">
         <f t="shared" si="46"/>
+        <v>10</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="47"/>
+        <v>9</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="50"/>
         <v>6</v>
       </c>
-      <c r="AC47">
-        <f t="shared" si="47"/>
-        <v>5</v>
-      </c>
-      <c r="AD47">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <f t="shared" si="49"/>
-        <v>18</v>
-      </c>
-      <c r="AF47">
-        <f t="shared" si="50"/>
-        <v>10</v>
-      </c>
-      <c r="AG47">
+      <c r="AM47">
         <f t="shared" si="51"/>
-        <v>8</v>
-      </c>
-      <c r="AH47">
+        <v>3</v>
+      </c>
+      <c r="AN47">
         <f t="shared" si="52"/>
-        <v>10</v>
-      </c>
-      <c r="AI47">
+        <v>3</v>
+      </c>
+      <c r="AO47">
         <f t="shared" si="53"/>
-        <v>8</v>
-      </c>
-      <c r="AJ47" cm="1">
-        <f t="array" ref="AJ47">SUMPRODUCT(($K$2:$K$81=Z47)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AK47" cm="1">
-        <f t="array" ref="AK47">SUMPRODUCT(($K$2:$K$81=Z47)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>6</v>
-      </c>
-      <c r="AL47" cm="1">
-        <f t="array" ref="AL47">SUMPRODUCT(($J$2:$J$81=Z47)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>6</v>
-      </c>
-      <c r="AM47" cm="1">
-        <f t="array" ref="AM47">SUMPRODUCT(($J$2:$J$81=Z47)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AP47">
         <f t="shared" si="54"/>
-        <v>3</v>
-      </c>
-      <c r="AO47">
+        <v>11</v>
+      </c>
+      <c r="AQ47">
         <f t="shared" si="55"/>
-        <v>3</v>
-      </c>
-      <c r="AP47">
+        <v>11</v>
+      </c>
+      <c r="AR47">
         <f t="shared" si="56"/>
         <v>11</v>
       </c>
-      <c r="AQ47">
+      <c r="AS47">
         <f t="shared" si="57"/>
-        <v>11</v>
-      </c>
-      <c r="AR47">
+        <v>3</v>
+      </c>
+      <c r="AT47">
         <f t="shared" si="58"/>
-        <v>11</v>
-      </c>
-      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
         <f t="shared" si="59"/>
-        <v>3</v>
-      </c>
-      <c r="AT47">
+        <v>8</v>
+      </c>
+      <c r="AV47">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AU47">
-        <f t="shared" si="60"/>
+        <v>22</v>
+      </c>
+      <c r="AW47">
+        <f t="shared" si="61"/>
+        <v>14</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" si="62"/>
         <v>8</v>
       </c>
-      <c r="AV47">
-        <f t="shared" si="61"/>
-        <v>22</v>
-      </c>
-      <c r="AW47">
-        <f t="shared" si="62"/>
-        <v>14</v>
-      </c>
-      <c r="AX47">
+      <c r="AY47">
         <f t="shared" si="63"/>
-        <v>8</v>
-      </c>
-      <c r="AY47">
-        <f t="shared" si="64"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="AZ47">
@@ -7949,15 +8395,15 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="BB47">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="BC47">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>3.1428571428571428</v>
       </c>
       <c r="BD47">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2</v>
       </c>
     </row>
@@ -8011,114 +8457,114 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R48" s="2" t="str">
-        <f>IF(N48&gt;O48,J48,K48)</f>
+        <f t="shared" si="37"/>
         <v>NYR</v>
       </c>
       <c r="Z48" t="s">
         <v>14</v>
       </c>
       <c r="AA48">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="43"/>
+        <v>11</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="AG48">
         <f t="shared" si="45"/>
-        <v>5</v>
-      </c>
-      <c r="AB48">
+        <v>6</v>
+      </c>
+      <c r="AH48">
         <f t="shared" si="46"/>
         <v>6</v>
       </c>
-      <c r="AC48">
+      <c r="AI48">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AD48">
+        <v>5</v>
+      </c>
+      <c r="AJ48">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AE48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
         <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+      <c r="AL48">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+      <c r="AM48">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="AN48">
+        <f t="shared" si="52"/>
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <f t="shared" si="54"/>
+        <v>3</v>
+      </c>
+      <c r="AQ48">
+        <f t="shared" si="55"/>
         <v>11</v>
       </c>
-      <c r="AF48">
-        <f t="shared" si="50"/>
-        <v>5</v>
-      </c>
-      <c r="AG48">
-        <f t="shared" si="51"/>
-        <v>6</v>
-      </c>
-      <c r="AH48">
-        <f t="shared" si="52"/>
-        <v>6</v>
-      </c>
-      <c r="AI48">
-        <f t="shared" si="53"/>
-        <v>5</v>
-      </c>
-      <c r="AJ48" cm="1">
-        <f t="array" ref="AJ48">SUMPRODUCT(($K$2:$K$81=Z48)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AK48" cm="1">
-        <f t="array" ref="AK48">SUMPRODUCT(($K$2:$K$81=Z48)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>3</v>
-      </c>
-      <c r="AL48" cm="1">
-        <f t="array" ref="AL48">SUMPRODUCT(($J$2:$J$81=Z48)*($O$2:$O$81&lt;$N$2:$N$81))</f>
-        <v>4</v>
-      </c>
-      <c r="AM48" cm="1">
-        <f t="array" ref="AM48">SUMPRODUCT(($J$2:$J$81=Z48)*($O$2:$O$81&gt;$N$2:$N$81))</f>
-        <v>2</v>
-      </c>
-      <c r="AN48">
-        <f t="shared" si="54"/>
-        <v>3</v>
-      </c>
-      <c r="AO48">
-        <f t="shared" si="55"/>
-        <v>3</v>
-      </c>
-      <c r="AP48">
+      <c r="AR48">
         <f t="shared" si="56"/>
-        <v>3</v>
-      </c>
-      <c r="AQ48">
+        <v>11</v>
+      </c>
+      <c r="AS48">
         <f t="shared" si="57"/>
         <v>11</v>
       </c>
-      <c r="AR48">
+      <c r="AT48">
         <f t="shared" si="58"/>
-        <v>11</v>
-      </c>
-      <c r="AS48">
+        <v>-8</v>
+      </c>
+      <c r="AU48">
         <f t="shared" si="59"/>
-        <v>11</v>
-      </c>
-      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
         <f t="shared" si="60"/>
+        <v>14</v>
+      </c>
+      <c r="AW48">
+        <f t="shared" si="61"/>
+        <v>22</v>
+      </c>
+      <c r="AX48">
+        <f t="shared" si="62"/>
         <v>-8</v>
       </c>
-      <c r="AU48">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <f t="shared" si="61"/>
-        <v>14</v>
-      </c>
-      <c r="AW48">
-        <f t="shared" si="62"/>
-        <v>22</v>
-      </c>
-      <c r="AX48">
+      <c r="AY48">
         <f t="shared" si="63"/>
-        <v>-8</v>
-      </c>
-      <c r="AY48">
-        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="AZ48">
@@ -8130,15 +8576,15 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="BB48">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="BC48">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2.8</v>
       </c>
       <c r="BD48">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -8192,11 +8638,11 @@
         <v>1</v>
       </c>
       <c r="Q49" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="R49" s="2" t="str">
-        <f>IF(N49&gt;O49,J49,K49)</f>
+        <f t="shared" si="37"/>
         <v>COL</v>
       </c>
     </row>
@@ -8254,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="R50" s="2" t="str">
-        <f>IF(N50&gt;O50,J50,K50)</f>
+        <f t="shared" si="37"/>
         <v>VAN</v>
       </c>
     </row>
@@ -8312,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="R51" s="2" t="str">
-        <f>IF(N51&gt;O51,J51,K51)</f>
+        <f t="shared" si="37"/>
         <v>FLA</v>
       </c>
       <c r="AA51" t="s">
@@ -8456,30 +8902,30 @@
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" ref="Q52:Q83" si="68">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
+        <f t="shared" ref="Q52:Q84" si="69">IF($N52=$O52, 0, IF($J52=$L52, IF($N52&gt;$O52, 1, 0), IF($O52&gt;$N52, 1, 0)))</f>
         <v>0</v>
       </c>
       <c r="R52" s="2" t="str">
-        <f>IF(N52&gt;O52,J52,K52)</f>
+        <f t="shared" si="37"/>
         <v>NYR</v>
       </c>
       <c r="Z52" t="s">
         <v>11</v>
       </c>
       <c r="AA52">
-        <f>COUNTIFS($J$2:$J$99, Z52, $C$2:$C$99, 1) + COUNTIFS($K$2:$K$99, Z52, $C$2:$C$99, 1)</f>
+        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 1) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 1)</f>
         <v>5</v>
       </c>
       <c r="AB52">
-        <f>COUNTIFS($J$2:$J$99, Z52, $C$2:$C$99, 2) + COUNTIFS($K$2:$K$99, Z52, $C$2:$C$99, 2)</f>
+        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 2) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 2)</f>
         <v>6</v>
       </c>
       <c r="AC52">
-        <f>COUNTIFS($J$2:$J$99, Z52, $C$2:$C$99, 3) + COUNTIFS($K$2:$K$99, Z52, $C$2:$C$99, 3)</f>
+        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 3) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 3)</f>
         <v>6</v>
       </c>
       <c r="AD52">
-        <f>COUNTIFS($J$2:$J$99, Z52, $C$2:$C$99, 4) + COUNTIFS($K$2:$K$99, Z52, $C$2:$C$99, 4)</f>
+        <f>COUNTIFS($J$2:$J$100, Z52, $C$2:$C$100, 4) + COUNTIFS($K$2:$K$100, Z52, $C$2:$C$100, 4)</f>
         <v>4</v>
       </c>
       <c r="AE52">
@@ -8487,67 +8933,67 @@
         <v>21</v>
       </c>
       <c r="AF52">
-        <f>COUNTIF($K$2:$K$99, Z52)</f>
+        <f>COUNTIF($K$2:$K$100, Z52)</f>
         <v>11</v>
       </c>
       <c r="AG52">
-        <f>COUNTIF($J$2:$J$99, Z52)</f>
+        <f>COUNTIF($J$2:$J$100, Z52)</f>
         <v>10</v>
       </c>
       <c r="AH52">
         <f>AJ52+AL52</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI52">
         <f>AE52-AH52</f>
+        <v>7</v>
+      </c>
+      <c r="AJ52">
+        <f>SUMPRODUCT(($K$2:$K$100=Z52)*($O$2:$O$100&gt;$N$2:$N$100))</f>
         <v>8</v>
       </c>
-      <c r="AJ52">
-        <f>SUMPRODUCT(($K$2:$K$99=Z52)*($O$2:$O$99&gt;$N$2:$N$99))</f>
+      <c r="AK52">
+        <f>SUMPRODUCT(($K$2:$K$100=Z52)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>3</v>
+      </c>
+      <c r="AL52">
+        <f>SUMPRODUCT(($J$2:$J$100=Z52)*($O$2:$O$100&lt;$N$2:$N$100))</f>
+        <v>6</v>
+      </c>
+      <c r="AM52">
+        <f>SUMPRODUCT(($J$2:$J$100=Z52)*($O$2:$O$100&gt;$N$2:$N$100))</f>
+        <v>2</v>
+      </c>
+      <c r="AN52">
+        <f>COUNTIFS($K$2:$K$100,Z52,$C$2:$C$100,3)</f>
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <f>COUNTIFS($J$2:$J$100,Z52,$C$2:$C$100,3)</f>
+        <v>3</v>
+      </c>
+      <c r="AP52">
+        <f>SUMIFS($O$2:$O$100, $K$2:$K$100, Z52,$C$2:$C$100, 3)</f>
+        <v>9</v>
+      </c>
+      <c r="AQ52">
+        <f>SUMIFS($N$2:$N$100, $J$2:$J$100, Z52,$C$2:$C$100, 3)</f>
         <v>7</v>
       </c>
-      <c r="AK52">
-        <f>SUMPRODUCT(($K$2:$K$99=Z52)*($O$2:$O$99&lt;$N$2:$N$99))</f>
-        <v>3</v>
-      </c>
-      <c r="AL52">
-        <f>SUMPRODUCT(($J$2:$J$99=Z52)*($O$2:$O$99&lt;$N$2:$N$99))</f>
-        <v>6</v>
-      </c>
-      <c r="AM52">
-        <f>SUMPRODUCT(($J$2:$J$99=Z52)*($O$2:$O$99&gt;$N$2:$N$99))</f>
-        <v>2</v>
-      </c>
-      <c r="AN52">
-        <f>COUNTIFS($K$2:$K$99,Z52,$C$2:$C$99,3)</f>
-        <v>3</v>
-      </c>
-      <c r="AO52">
-        <f>COUNTIFS($J$2:$J$99,Z52,$C$2:$C$99,3)</f>
-        <v>3</v>
-      </c>
-      <c r="AP52">
-        <f>SUMIFS($O$2:$O$99, $K$2:$K$99, Z52,$C$2:$C$99, 3)</f>
-        <v>9</v>
-      </c>
-      <c r="AQ52">
-        <f>SUMIFS($N$2:$N$99, $J$2:$J$99, Z52,$C$2:$C$99, 3)</f>
-        <v>7</v>
-      </c>
       <c r="AR52">
-        <f>SUMIFS($N$2:$N$99, $K$2:$K$99, Z52,$C$2:$C$99, 3)</f>
+        <f>SUMIFS($N$2:$N$100, $K$2:$K$100, Z52,$C$2:$C$100, 3)</f>
         <v>8</v>
       </c>
       <c r="AS52">
-        <f>SUMIFS($O$2:$O$99, $J$2:$J$99, Z52,$C$2:$C$99, 3)</f>
+        <f>SUMIFS($O$2:$O$100, $J$2:$J$100, Z52,$C$2:$C$100, 3)</f>
         <v>4</v>
       </c>
       <c r="AT52">
-        <f t="shared" ref="AT52:AU52" si="69">AP52-AR52</f>
+        <f t="shared" ref="AT52:AU52" si="70">AP52-AR52</f>
         <v>1</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3</v>
       </c>
       <c r="AV52">
@@ -8563,19 +9009,19 @@
         <v>4</v>
       </c>
       <c r="AY52">
-        <f t="shared" ref="AY52:AZ52" si="70">AP52/AN52</f>
+        <f t="shared" ref="AY52:AZ52" si="71">AP52/AN52</f>
         <v>3</v>
       </c>
       <c r="AZ52">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="BA52">
-        <f t="shared" ref="BA52:BB52" si="71">AR52/AN52</f>
+        <f t="shared" ref="BA52:BB52" si="72">AR52/AN52</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="BB52">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="BC52">
@@ -8637,134 +9083,134 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="R53" s="2" t="s